--- a/java/resources/FINAL450.xlsx
+++ b/java/resources/FINAL450.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\D_Drive\CrackingTheCodingInterview\java\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,13 +26,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="465">
   <si>
-    <t xml:space="preserve">Questions by Love Babbar:</t>
+    <t>Questions by Love Babbar:</t>
   </si>
   <si>
     <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
   </si>
   <si>
-    <t xml:space="preserve">Topic:</t>
+    <t>Topic:</t>
   </si>
   <si>
     <t xml:space="preserve">Problem: </t>
@@ -37,850 +41,850 @@
     <t xml:space="preserve">Done [yes or no] </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;-&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse the array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the maximum and minimum element in an array</t>
+    <t>&lt;-&gt;</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Reverse the array</t>
+  </si>
+  <si>
+    <t>Find the maximum and minimum element in an array</t>
   </si>
   <si>
     <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
   </si>
   <si>
-    <t xml:space="preserve">Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
+    <t>Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
   </si>
   <si>
     <t xml:space="preserve">Move all the negative elements to one side of the array </t>
   </si>
   <si>
-    <t xml:space="preserve">Find the Union and Intersection of the two sorted arrays.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a program to cyclically rotate an array by one.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find Largest sum contiguous Subarray [V. IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimise the maximum difference between heights [V.IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum no. of Jumps to reach end of an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find duplicate in an array of N+1 Integers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge 2 sorted arrays without using Extra space.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kadane's Algo [V.V.V.V.V IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge Intervals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Next Permutation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count Inversion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best time to buy and Sell stock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find all pairs on integer array whose sum is equal to given number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find common elements In 3 sorted arrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rearrange the array in alternating positive and negative items with O(1) extra space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find if there is any subarray with sum equal to 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find factorial of a large number</t>
+    <t>Find the Union and Intersection of the two sorted arrays.</t>
+  </si>
+  <si>
+    <t>Write a program to cyclically rotate an array by one.</t>
+  </si>
+  <si>
+    <t>find Largest sum contiguous Subarray [V. IMP]</t>
+  </si>
+  <si>
+    <t>Minimise the maximum difference between heights [V.IMP]</t>
+  </si>
+  <si>
+    <t>Minimum no. of Jumps to reach end of an array</t>
+  </si>
+  <si>
+    <t>find duplicate in an array of N+1 Integers</t>
+  </si>
+  <si>
+    <t>Merge 2 sorted arrays without using Extra space.</t>
+  </si>
+  <si>
+    <t>Kadane's Algo [V.V.V.V.V IMP]</t>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>Next Permutation</t>
+  </si>
+  <si>
+    <t>Count Inversion</t>
+  </si>
+  <si>
+    <t>Best time to buy and Sell stock</t>
+  </si>
+  <si>
+    <t>find all pairs on integer array whose sum is equal to given number</t>
+  </si>
+  <si>
+    <t>find common elements In 3 sorted arrays</t>
+  </si>
+  <si>
+    <t>Rearrange the array in alternating positive and negative items with O(1) extra space</t>
+  </si>
+  <si>
+    <t>Find if there is any subarray with sum equal to 0</t>
+  </si>
+  <si>
+    <t>Find factorial of a large number</t>
   </si>
   <si>
     <t xml:space="preserve">find maximum product subarray </t>
   </si>
   <si>
-    <t xml:space="preserve">Find longest coinsecutive subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given an array of size n and a number k, fin all elements that appear more than " n/k " times.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum profit by buying and selling a share atmost twice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find whether an array is a subset of another array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the triplet that sum to a given value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trapping Rain water problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chocolate Distribution problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smallest Subarray with sum greater than a given value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Three way partitioning of an array around a given value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum swaps required bring elements less equal K together</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum no. of operations required to make an array palindrome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median of 2 sorted arrays of equal size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median of 2 sorted arrays of different size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spiral traversal on a Matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search an element in a matriix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find median in a row wise sorted matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find row with maximum no. of 1's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print elements in sorted order using row-column wise sorted matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum size rectangle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find a specific pair in matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotate matrix by 90 degrees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kth smallest element in a row-cpumn wise sorted matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Common elements in all rows of a given matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check whether a String is Palindrome or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Duplicate characters in a string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why strings are immutable in Java?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a Code to check whether one string is a rotation of another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a Program to check whether a string is a valid shuffle of two strings or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count and Say problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Longest Recurring Subsequence in String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print all Subsequences of a string.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print all the permutations of the given string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Split the Binary string into two substring with equal 0’s and 1’s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word Wrap Problem [VERY IMP].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDIT Distance [Very Imp]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find next greater number with same set of digits. [Very Very IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balanced Parenthesis problem.[Imp]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word break Problem[ Very Imp]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rabin Karp Algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KMP Algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert a Sentence into its equivalent mobile numeric keypad sequence.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum number of bracket reversals needed to make an expression balanced.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count All Palindromic Subsequence in a given String.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of number of given string in 2D character array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search a Word in a 2D Grid of characters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boyer Moore Algorithm for Pattern Searching.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Converting Roman Numerals to Decimal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Common Prefix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of flips to make binary string alternate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the first repeated word in string.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum number of swaps for bracket balancing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the longest common subsequence between two strings.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program to generate all possible valid IP addresses from given  string.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a program tofind the smallest window that contains all characters of string itself.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rearrange characters in a string such that no two adjacent are same</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum characters to be added at front to make string palindrome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a sequence of words, print all anagrams together</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the smallest window in a string containing all characters of another string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recursively remove all adjacent duplicates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String matching where one string contains wildcard characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Function to find Number of customers who could not get a computer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transform One String to Another using Minimum Number of Given Operation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if two given strings are isomorphic to each other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recursively print all sentences that can be formed from list of word lists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Searching &amp; Sorting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find first and last positions of an element in a sorted array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find a Fixed Point (Value equal to index) in a given array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search in a rotated sorted array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">square root of an integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum and minimum of an array using minimum number of comparisons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimum location of point to minimize total distance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the repeating and the missing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find majority element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Searching in an array where adjacent differ by at most k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find a pair with a given difference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find four elements that sum to a given value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maximum sum such that no 2 elements are adjacent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count triplet with sum smaller than a given value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merge 2 sorted arrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">print all subarrays with 0 sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product array Puzzle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort array according to count of set bits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minimum no. of swaps required to sort the array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bishu and Soldiers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rasta and Kheshtak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kth smallest number again</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find pivot element in a sorted array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K-th Element of Two Sorted Arrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aggressive cows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Book Allocation Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKOSPOJ:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job Scheduling Algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missing Number in AP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smallest number with atleastn trailing zeroes infactorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Painters Partition Problem:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROTI-Prata SPOJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DoubleHelix SPOJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subset Sums</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Findthe inversion count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Merge-sort in-place</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partitioning and Sorting Arrays with Many Repeated Entries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LinkedList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a Program to reverse the Linked List. (Both Iterative and recursive)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a Linked List in group of Given Size. [Very Imp]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a program to Detect loop in a linked list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a program to Delete loop in a linked list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the starting point of the loop. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove Duplicates in a sorted Linked List.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove Duplicates in a Un-sorted Linked List.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a Program to Move the last element to Front in a Linked List.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add “1” to a number represented as a Linked List.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add two numbers represented by linked lists.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intersection of two Sorted Linked List.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intersection Point of two Linked Lists.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge Sort For Linked lists.[Very Important]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quicksort for Linked Lists.[Very Important]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the middle Element of a linked list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if a linked list is a circular linked list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Split a Circular linked list into two halves.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a Program to check whether the Singly Linked list is a palindrome or not.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deletion from a Circular Linked List.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a Doubly Linked list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find pairs with a given sum in a DLL.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count triplets in a sorted DLL whose sum is equal to given value “X”.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort a “k”sorted Doubly Linked list.[Very IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotate DoublyLinked list by N nodes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotate a Doubly Linked list in group of Given Size.[Very IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can we reverse a linked list in less than O(n) ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why Quicksort is preferred for. Arrays and Merge Sort for LinkedLists ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flatten a Linked List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort a LL of 0's, 1's and 2's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clone a linked list with next and random pointer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge K sorted Linked list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiply 2 no. represented by LL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete nodes which have a greater value on right side</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Segregate even and odd nodes in a Linked List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program for n’th node from the end of a Linked List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the first non-repeating character from a stream of characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binary Trees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">level order traversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse Level Order traversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Height of a tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter of a tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mirror of a tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inorder Traversal of a tree both using recursion and Iteration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preorder Traversal of a tree both using recursion and Iteration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postorder Traversal of a tree both using recursion and Iteration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Left View of a tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Right View of Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Top View of a tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bottom View of a tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zig-Zag traversal of a binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if a tree is balanced or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diagnol Traversal of a Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boundary traversal of a Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct Binary Tree from String with Bracket Representation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert Binary tree into Doubly Linked List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert Binary tree into Sum tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct Binary tree from Inorder and preorder traversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find minimum swaps required to convert a Binary tree into BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if Binary tree is Sum tree or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if all leaf nodes are at same level or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if 2 trees are mirror or not</t>
+    <t>Find longest coinsecutive subsequence</t>
+  </si>
+  <si>
+    <t>Given an array of size n and a number k, fin all elements that appear more than " n/k " times.</t>
+  </si>
+  <si>
+    <t>Maximum profit by buying and selling a share atmost twice</t>
+  </si>
+  <si>
+    <t>Find whether an array is a subset of another array</t>
+  </si>
+  <si>
+    <t>Find the triplet that sum to a given value</t>
+  </si>
+  <si>
+    <t>Trapping Rain water problem</t>
+  </si>
+  <si>
+    <t>Chocolate Distribution problem</t>
+  </si>
+  <si>
+    <t>Smallest Subarray with sum greater than a given value</t>
+  </si>
+  <si>
+    <t>Three way partitioning of an array around a given value</t>
+  </si>
+  <si>
+    <t>Minimum swaps required bring elements less equal K together</t>
+  </si>
+  <si>
+    <t>Minimum no. of operations required to make an array palindrome</t>
+  </si>
+  <si>
+    <t>Median of 2 sorted arrays of equal size</t>
+  </si>
+  <si>
+    <t>Median of 2 sorted arrays of different size</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>Spiral traversal on a Matrix</t>
+  </si>
+  <si>
+    <t>Search an element in a matriix</t>
+  </si>
+  <si>
+    <t>Find median in a row wise sorted matrix</t>
+  </si>
+  <si>
+    <t>Find row with maximum no. of 1's</t>
+  </si>
+  <si>
+    <t>Print elements in sorted order using row-column wise sorted matrix</t>
+  </si>
+  <si>
+    <t>Maximum size rectangle</t>
+  </si>
+  <si>
+    <t>Find a specific pair in matrix</t>
+  </si>
+  <si>
+    <t>Rotate matrix by 90 degrees</t>
+  </si>
+  <si>
+    <t>Kth smallest element in a row-cpumn wise sorted matrix</t>
+  </si>
+  <si>
+    <t>Common elements in all rows of a given matrix</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Reverse a String</t>
+  </si>
+  <si>
+    <t>Check whether a String is Palindrome or not</t>
+  </si>
+  <si>
+    <t>Find Duplicate characters in a string</t>
+  </si>
+  <si>
+    <t>Why strings are immutable in Java?</t>
+  </si>
+  <si>
+    <t>Write a Code to check whether one string is a rotation of another</t>
+  </si>
+  <si>
+    <t>Write a Program to check whether a string is a valid shuffle of two strings or not</t>
+  </si>
+  <si>
+    <t>Count and Say problem</t>
+  </si>
+  <si>
+    <t>Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]</t>
+  </si>
+  <si>
+    <t>Find Longest Recurring Subsequence in String</t>
+  </si>
+  <si>
+    <t>Print all Subsequences of a string.</t>
+  </si>
+  <si>
+    <t>Print all the permutations of the given string</t>
+  </si>
+  <si>
+    <t>Split the Binary string into two substring with equal 0’s and 1’s</t>
+  </si>
+  <si>
+    <t>Word Wrap Problem [VERY IMP].</t>
+  </si>
+  <si>
+    <t>EDIT Distance [Very Imp]</t>
+  </si>
+  <si>
+    <t>Find next greater number with same set of digits. [Very Very IMP]</t>
+  </si>
+  <si>
+    <t>Balanced Parenthesis problem.[Imp]</t>
+  </si>
+  <si>
+    <t>Word break Problem[ Very Imp]</t>
+  </si>
+  <si>
+    <t>Rabin Karp Algo</t>
+  </si>
+  <si>
+    <t>KMP Algo</t>
+  </si>
+  <si>
+    <t>Convert a Sentence into its equivalent mobile numeric keypad sequence.</t>
+  </si>
+  <si>
+    <t>Minimum number of bracket reversals needed to make an expression balanced.</t>
+  </si>
+  <si>
+    <t>Count All Palindromic Subsequence in a given String.</t>
+  </si>
+  <si>
+    <t>Count of number of given string in 2D character array</t>
+  </si>
+  <si>
+    <t>Search a Word in a 2D Grid of characters.</t>
+  </si>
+  <si>
+    <t>Boyer Moore Algorithm for Pattern Searching.</t>
+  </si>
+  <si>
+    <t>Converting Roman Numerals to Decimal</t>
+  </si>
+  <si>
+    <t>Longest Common Prefix</t>
+  </si>
+  <si>
+    <t>Number of flips to make binary string alternate</t>
+  </si>
+  <si>
+    <t>Find the first repeated word in string.</t>
+  </si>
+  <si>
+    <t>Minimum number of swaps for bracket balancing.</t>
+  </si>
+  <si>
+    <t>Find the longest common subsequence between two strings.</t>
+  </si>
+  <si>
+    <t>Program to generate all possible valid IP addresses from given  string.</t>
+  </si>
+  <si>
+    <t>Write a program tofind the smallest window that contains all characters of string itself.</t>
+  </si>
+  <si>
+    <t>Rearrange characters in a string such that no two adjacent are same</t>
+  </si>
+  <si>
+    <t>Minimum characters to be added at front to make string palindrome</t>
+  </si>
+  <si>
+    <t>Given a sequence of words, print all anagrams together</t>
+  </si>
+  <si>
+    <t>Find the smallest window in a string containing all characters of another string</t>
+  </si>
+  <si>
+    <t>Recursively remove all adjacent duplicates</t>
+  </si>
+  <si>
+    <t>String matching where one string contains wildcard characters</t>
+  </si>
+  <si>
+    <t>Function to find Number of customers who could not get a computer</t>
+  </si>
+  <si>
+    <t>Transform One String to Another using Minimum Number of Given Operation</t>
+  </si>
+  <si>
+    <t>Check if two given strings are isomorphic to each other</t>
+  </si>
+  <si>
+    <t>Recursively print all sentences that can be formed from list of word lists</t>
+  </si>
+  <si>
+    <t>Searching &amp; Sorting</t>
+  </si>
+  <si>
+    <t>Find first and last positions of an element in a sorted array</t>
+  </si>
+  <si>
+    <t>Find a Fixed Point (Value equal to index) in a given array</t>
+  </si>
+  <si>
+    <t>Search in a rotated sorted array</t>
+  </si>
+  <si>
+    <t>square root of an integer</t>
+  </si>
+  <si>
+    <t>Maximum and minimum of an array using minimum number of comparisons</t>
+  </si>
+  <si>
+    <t>Optimum location of point to minimize total distance</t>
+  </si>
+  <si>
+    <t>Find the repeating and the missing</t>
+  </si>
+  <si>
+    <t>find majority element</t>
+  </si>
+  <si>
+    <t>Searching in an array where adjacent differ by at most k</t>
+  </si>
+  <si>
+    <t>find a pair with a given difference</t>
+  </si>
+  <si>
+    <t>find four elements that sum to a given value</t>
+  </si>
+  <si>
+    <t>maximum sum such that no 2 elements are adjacent</t>
+  </si>
+  <si>
+    <t>Count triplet with sum smaller than a given value</t>
+  </si>
+  <si>
+    <t>merge 2 sorted arrays</t>
+  </si>
+  <si>
+    <t>print all subarrays with 0 sum</t>
+  </si>
+  <si>
+    <t>Product array Puzzle</t>
+  </si>
+  <si>
+    <t>Sort array according to count of set bits</t>
+  </si>
+  <si>
+    <t>minimum no. of swaps required to sort the array</t>
+  </si>
+  <si>
+    <t>Bishu and Soldiers</t>
+  </si>
+  <si>
+    <t>Rasta and Kheshtak</t>
+  </si>
+  <si>
+    <t>Kth smallest number again</t>
+  </si>
+  <si>
+    <t>Find pivot element in a sorted array</t>
+  </si>
+  <si>
+    <t>K-th Element of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>Aggressive cows</t>
+  </si>
+  <si>
+    <t>Book Allocation Problem</t>
+  </si>
+  <si>
+    <t>EKOSPOJ:</t>
+  </si>
+  <si>
+    <t>Job Scheduling Algo</t>
+  </si>
+  <si>
+    <t>Missing Number in AP</t>
+  </si>
+  <si>
+    <t>Smallest number with atleastn trailing zeroes infactorial</t>
+  </si>
+  <si>
+    <t>Painters Partition Problem:</t>
+  </si>
+  <si>
+    <t>ROTI-Prata SPOJ</t>
+  </si>
+  <si>
+    <t>DoubleHelix SPOJ</t>
+  </si>
+  <si>
+    <t>Subset Sums</t>
+  </si>
+  <si>
+    <t>Findthe inversion count</t>
+  </si>
+  <si>
+    <t>Implement Merge-sort in-place</t>
+  </si>
+  <si>
+    <t>Partitioning and Sorting Arrays with Many Repeated Entries</t>
+  </si>
+  <si>
+    <t>LinkedList</t>
+  </si>
+  <si>
+    <t>Write a Program to reverse the Linked List. (Both Iterative and recursive)</t>
+  </si>
+  <si>
+    <t>Reverse a Linked List in group of Given Size. [Very Imp]</t>
+  </si>
+  <si>
+    <t>Write a program to Detect loop in a linked list.</t>
+  </si>
+  <si>
+    <t>Write a program to Delete loop in a linked list.</t>
+  </si>
+  <si>
+    <t>Find the starting point of the loop. </t>
+  </si>
+  <si>
+    <t>Remove Duplicates in a sorted Linked List.</t>
+  </si>
+  <si>
+    <t>Remove Duplicates in a Un-sorted Linked List.</t>
+  </si>
+  <si>
+    <t>Write a Program to Move the last element to Front in a Linked List.</t>
+  </si>
+  <si>
+    <t>Add “1” to a number represented as a Linked List.</t>
+  </si>
+  <si>
+    <t>Add two numbers represented by linked lists.</t>
+  </si>
+  <si>
+    <t>Intersection of two Sorted Linked List.</t>
+  </si>
+  <si>
+    <t>Intersection Point of two Linked Lists.</t>
+  </si>
+  <si>
+    <t>Merge Sort For Linked lists.[Very Important]</t>
+  </si>
+  <si>
+    <t>Quicksort for Linked Lists.[Very Important]</t>
+  </si>
+  <si>
+    <t>Find the middle Element of a linked list.</t>
+  </si>
+  <si>
+    <t>Check if a linked list is a circular linked list.</t>
+  </si>
+  <si>
+    <t>Split a Circular linked list into two halves.</t>
+  </si>
+  <si>
+    <t>Write a Program to check whether the Singly Linked list is a palindrome or not.</t>
+  </si>
+  <si>
+    <t>Deletion from a Circular Linked List.</t>
+  </si>
+  <si>
+    <t>Reverse a Doubly Linked list.</t>
+  </si>
+  <si>
+    <t>Find pairs with a given sum in a DLL.</t>
+  </si>
+  <si>
+    <t>Count triplets in a sorted DLL whose sum is equal to given value “X”.</t>
+  </si>
+  <si>
+    <t>Sort a “k”sorted Doubly Linked list.[Very IMP]</t>
+  </si>
+  <si>
+    <t>Rotate DoublyLinked list by N nodes.</t>
+  </si>
+  <si>
+    <t>Rotate a Doubly Linked list in group of Given Size.[Very IMP]</t>
+  </si>
+  <si>
+    <t>Can we reverse a linked list in less than O(n) ?</t>
+  </si>
+  <si>
+    <t>Why Quicksort is preferred for. Arrays and Merge Sort for LinkedLists ?</t>
+  </si>
+  <si>
+    <t>Flatten a Linked List</t>
+  </si>
+  <si>
+    <t>Sort a LL of 0's, 1's and 2's</t>
+  </si>
+  <si>
+    <t>Clone a linked list with next and random pointer</t>
+  </si>
+  <si>
+    <t>Merge K sorted Linked list</t>
+  </si>
+  <si>
+    <t>Multiply 2 no. represented by LL</t>
+  </si>
+  <si>
+    <t>Delete nodes which have a greater value on right side</t>
+  </si>
+  <si>
+    <t>Segregate even and odd nodes in a Linked List</t>
+  </si>
+  <si>
+    <t>Program for n’th node from the end of a Linked List</t>
+  </si>
+  <si>
+    <t>Find the first non-repeating character from a stream of characters</t>
+  </si>
+  <si>
+    <t>Binary Trees</t>
+  </si>
+  <si>
+    <t>level order traversal</t>
+  </si>
+  <si>
+    <t>Reverse Level Order traversal</t>
+  </si>
+  <si>
+    <t>Height of a tree</t>
+  </si>
+  <si>
+    <t>Diameter of a tree</t>
+  </si>
+  <si>
+    <t>Mirror of a tree</t>
+  </si>
+  <si>
+    <t>Inorder Traversal of a tree both using recursion and Iteration</t>
+  </si>
+  <si>
+    <t>Preorder Traversal of a tree both using recursion and Iteration</t>
+  </si>
+  <si>
+    <t>Postorder Traversal of a tree both using recursion and Iteration</t>
+  </si>
+  <si>
+    <t>Left View of a tree</t>
+  </si>
+  <si>
+    <t>Right View of Tree</t>
+  </si>
+  <si>
+    <t>Top View of a tree</t>
+  </si>
+  <si>
+    <t>Bottom View of a tree</t>
+  </si>
+  <si>
+    <t>Zig-Zag traversal of a binary tree</t>
+  </si>
+  <si>
+    <t>Check if a tree is balanced or not</t>
+  </si>
+  <si>
+    <t>Diagnol Traversal of a Binary tree</t>
+  </si>
+  <si>
+    <t>Boundary traversal of a Binary tree</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from String with Bracket Representation</t>
+  </si>
+  <si>
+    <t>Convert Binary tree into Doubly Linked List</t>
+  </si>
+  <si>
+    <t>Convert Binary tree into Sum tree</t>
+  </si>
+  <si>
+    <t>Construct Binary tree from Inorder and preorder traversal</t>
+  </si>
+  <si>
+    <t>Find minimum swaps required to convert a Binary tree into BST</t>
+  </si>
+  <si>
+    <t>Check if Binary tree is Sum tree or not</t>
+  </si>
+  <si>
+    <t>Check if all leaf nodes are at same level or not</t>
+  </si>
+  <si>
+    <t>Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]</t>
+  </si>
+  <si>
+    <t>Check if 2 trees are mirror or not</t>
   </si>
   <si>
     <t xml:space="preserve">Sum of Nodes on the Longest path from root to leaf node </t>
   </si>
   <si>
-    <t xml:space="preserve">Check if given graph is tree or not.  [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Largest subtree sum in a tree</t>
+    <t>Check if given graph is tree or not.  [ IMP ]</t>
+  </si>
+  <si>
+    <t>Find Largest subtree sum in a tree</t>
   </si>
   <si>
     <t xml:space="preserve">Maximum Sum of nodes in Binary tree such that no two are adjacent </t>
   </si>
   <si>
-    <t xml:space="preserve">Print all "K" Sum paths in a Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find LCA in a Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find distance between 2 nodes in a Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kth Ancestor of node in a Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find all Duplicate subtrees in a Binary tree [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tree Isomorphism Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binary Search Trees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fina a value in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deletion of a node in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find min and max value in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find inorder successor and inorder predecessor in a BST</t>
+    <t>Print all "K" Sum paths in a Binary tree</t>
+  </si>
+  <si>
+    <t>Find LCA in a Binary tree</t>
+  </si>
+  <si>
+    <t>Find distance between 2 nodes in a Binary tree</t>
+  </si>
+  <si>
+    <t>Kth Ancestor of node in a Binary tree</t>
+  </si>
+  <si>
+    <t>Find all Duplicate subtrees in a Binary tree [ IMP ]</t>
+  </si>
+  <si>
+    <t>Tree Isomorphism Problem</t>
+  </si>
+  <si>
+    <t>Binary Search Trees</t>
+  </si>
+  <si>
+    <t>Fina a value in a BST</t>
+  </si>
+  <si>
+    <t>Deletion of a node in a BST</t>
+  </si>
+  <si>
+    <t>Find min and max value in a BST</t>
+  </si>
+  <si>
+    <t>Find inorder successor and inorder predecessor in a BST</t>
   </si>
   <si>
     <t xml:space="preserve">Check if a tree is a BST or not </t>
   </si>
   <si>
-    <t xml:space="preserve">Populate Inorder successor of all nodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find LCA  of 2 nodes in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct BST from preorder traversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert Binary tree into BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert a normal BST into a Balanced BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge two BST [ V.V.V&gt;IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Kth largest element in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Kth smallest element in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count pairs from 2 BST whose sum is equal to given value "X"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the median of BST in O(n) time and O(1) space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count BST ndoes that lie in a given range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Replace every element with the least greater element on its right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given "n" appointments, find the conflicting appointments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check preorder is valid or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check whether BST contains Dead end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Largest BST in a Binary Tree [ V.V.V.V.V IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flatten BST to sorted list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greedy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activity Selection Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job SequencingProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huffman Coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Connection Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fractional Knapsack Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greedy Algorithm to find Minimum number of Coins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum trains for which stoppage can be provided</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum Platforms Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buy Maximum Stocks if i stocks can be bought on i-th day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the minimum and maximum amount to buy all N candies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimize Cash Flow among a given set of friends who have borrowed money from each other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum Cost to cut a board into squares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if it is possible to survive on Island</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find maximum meetings in one room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum product subset of an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximize array sum after K negations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximize the sum of arr[i]*i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum sum of absolute difference of an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximize sum of consecutive differences in a circular array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum sum of absolute difference of pairs of two arrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program for Shortest Job First (or SJF) CPU Scheduling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program for Least Recently Used (LRU) Page Replacement algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smallest subset with sum greater than all other elements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chocolate Distribution Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFKIN -Defense of a Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIEHARD -DIE HARD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GERGOVIA -Wine trading in Gergovia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Picking Up Chicks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHOCOLA –Chocolate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARRANGE -Arranging Amplifiers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K Centers Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum Cost of ropes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find smallest number with given number of digits and sum of digits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find maximum sum possible equal sum of three stacks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackTracking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rat in a maze Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Printing all solutions in N-Queen Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word Break Problem using Backtracking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove Invalid Parentheses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudoku Solver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m Coloring Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print all palindromic partitions of a string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subset Sum Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Knight’s tour problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tug of War</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find shortest safe route in a path with landmines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combinational Sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Maximum number possible by doing at-most K swaps</t>
+    <t>Populate Inorder successor of all nodes</t>
+  </si>
+  <si>
+    <t>Find LCA  of 2 nodes in a BST</t>
+  </si>
+  <si>
+    <t>Construct BST from preorder traversal</t>
+  </si>
+  <si>
+    <t>Convert Binary tree into BST</t>
+  </si>
+  <si>
+    <t>Convert a normal BST into a Balanced BST</t>
+  </si>
+  <si>
+    <t>Merge two BST [ V.V.V&gt;IMP ]</t>
+  </si>
+  <si>
+    <t>Find Kth largest element in a BST</t>
+  </si>
+  <si>
+    <t>Find Kth smallest element in a BST</t>
+  </si>
+  <si>
+    <t>Count pairs from 2 BST whose sum is equal to given value "X"</t>
+  </si>
+  <si>
+    <t>Find the median of BST in O(n) time and O(1) space</t>
+  </si>
+  <si>
+    <t>Count BST ndoes that lie in a given range</t>
+  </si>
+  <si>
+    <t>Replace every element with the least greater element on its right</t>
+  </si>
+  <si>
+    <t>Given "n" appointments, find the conflicting appointments</t>
+  </si>
+  <si>
+    <t>Check preorder is valid or not</t>
+  </si>
+  <si>
+    <t>Check whether BST contains Dead end</t>
+  </si>
+  <si>
+    <t>Largest BST in a Binary Tree [ V.V.V.V.V IMP ]</t>
+  </si>
+  <si>
+    <t>Flatten BST to sorted list</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t>Activity Selection Problem</t>
+  </si>
+  <si>
+    <t>Job SequencingProblem</t>
+  </si>
+  <si>
+    <t>Huffman Coding</t>
+  </si>
+  <si>
+    <t>Water Connection Problem</t>
+  </si>
+  <si>
+    <t>Fractional Knapsack Problem</t>
+  </si>
+  <si>
+    <t>Greedy Algorithm to find Minimum number of Coins</t>
+  </si>
+  <si>
+    <t>Maximum trains for which stoppage can be provided</t>
+  </si>
+  <si>
+    <t>Minimum Platforms Problem</t>
+  </si>
+  <si>
+    <t>Buy Maximum Stocks if i stocks can be bought on i-th day</t>
+  </si>
+  <si>
+    <t>Find the minimum and maximum amount to buy all N candies</t>
+  </si>
+  <si>
+    <t>Minimize Cash Flow among a given set of friends who have borrowed money from each other</t>
+  </si>
+  <si>
+    <t>Minimum Cost to cut a board into squares</t>
+  </si>
+  <si>
+    <t>Check if it is possible to survive on Island</t>
+  </si>
+  <si>
+    <t>Find maximum meetings in one room</t>
+  </si>
+  <si>
+    <t>Maximum product subset of an array</t>
+  </si>
+  <si>
+    <t>Maximize array sum after K negations</t>
+  </si>
+  <si>
+    <t>Maximize the sum of arr[i]*i</t>
+  </si>
+  <si>
+    <t>Maximum sum of absolute difference of an array</t>
+  </si>
+  <si>
+    <t>Maximize sum of consecutive differences in a circular array</t>
+  </si>
+  <si>
+    <t>Minimum sum of absolute difference of pairs of two arrays</t>
+  </si>
+  <si>
+    <t>Program for Shortest Job First (or SJF) CPU Scheduling</t>
+  </si>
+  <si>
+    <t>Program for Least Recently Used (LRU) Page Replacement algorithm</t>
+  </si>
+  <si>
+    <t>Smallest subset with sum greater than all other elements</t>
+  </si>
+  <si>
+    <t>Chocolate Distribution Problem</t>
+  </si>
+  <si>
+    <t>DEFKIN -Defense of a Kingdom</t>
+  </si>
+  <si>
+    <t>DIEHARD -DIE HARD</t>
+  </si>
+  <si>
+    <t>GERGOVIA -Wine trading in Gergovia</t>
+  </si>
+  <si>
+    <t>Picking Up Chicks</t>
+  </si>
+  <si>
+    <t>CHOCOLA –Chocolate</t>
+  </si>
+  <si>
+    <t>ARRANGE -Arranging Amplifiers</t>
+  </si>
+  <si>
+    <t>K Centers Problem</t>
+  </si>
+  <si>
+    <t>Minimum Cost of ropes</t>
+  </si>
+  <si>
+    <t>Find smallest number with given number of digits and sum of digits</t>
+  </si>
+  <si>
+    <t>Find maximum sum possible equal sum of three stacks</t>
+  </si>
+  <si>
+    <t>BackTracking</t>
+  </si>
+  <si>
+    <t>Rat in a maze Problem</t>
+  </si>
+  <si>
+    <t>Printing all solutions in N-Queen Problem</t>
+  </si>
+  <si>
+    <t>Word Break Problem using Backtracking</t>
+  </si>
+  <si>
+    <t>Remove Invalid Parentheses</t>
+  </si>
+  <si>
+    <t>Sudoku Solver</t>
+  </si>
+  <si>
+    <t>m Coloring Problem</t>
+  </si>
+  <si>
+    <t>Print all palindromic partitions of a string</t>
+  </si>
+  <si>
+    <t>Subset Sum Problem</t>
+  </si>
+  <si>
+    <t>The Knight’s tour problem</t>
+  </si>
+  <si>
+    <t>Tug of War</t>
+  </si>
+  <si>
+    <t>Find shortest safe route in a path with landmines</t>
+  </si>
+  <si>
+    <t>Combinational Sum</t>
+  </si>
+  <si>
+    <t>Find Maximum number possible by doing at-most K swaps</t>
   </si>
   <si>
     <t xml:space="preserve">Print all permutations of a string </t>
   </si>
   <si>
-    <t xml:space="preserve">Find if there is a path of more than k length from a source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Possible Route in a Matrix with Hurdles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print all possible paths from top left to bottom right of a mXn matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partition of a set intoK subsets with equal sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the K-th Permutation Sequence of first N natural numbers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stacks &amp; Queues</t>
+    <t>Find if there is a path of more than k length from a source</t>
+  </si>
+  <si>
+    <t>Longest Possible Route in a Matrix with Hurdles</t>
+  </si>
+  <si>
+    <t>Print all possible paths from top left to bottom right of a mXn matrix</t>
+  </si>
+  <si>
+    <t>Partition of a set intoK subsets with equal sum</t>
+  </si>
+  <si>
+    <t>Find the K-th Permutation Sequence of first N natural numbers</t>
+  </si>
+  <si>
+    <t>Stacks &amp; Queues</t>
   </si>
   <si>
     <t xml:space="preserve"> Implement Stack from Scratch</t>
@@ -889,175 +893,175 @@
     <t xml:space="preserve"> Implement Queue from Scratch</t>
   </si>
   <si>
-    <t xml:space="preserve">Implement 2 stack in an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find the middle element of a stack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement "N" stacks in an Array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check the expression has valid or Balanced parenthesis or not.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a String using Stack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design a Stack that supports getMin() in O(1) time and O(1) extra space.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the next Greater element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The celebrity Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arithmetic Expression evaluation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluation of Postfix expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement a method to insert an element at its bottom without using any other data structure.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a stack using recursion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort a Stack using recursion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge Overlapping Intervals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Largest rectangular Area in Histogram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Length of the Longest Valid Substring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression contains redundant bracket or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Stack using Queue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Stack using Deque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stack Permutations (Check if an array is stack permutation of other)</t>
+    <t>Implement 2 stack in an array</t>
+  </si>
+  <si>
+    <t>find the middle element of a stack</t>
+  </si>
+  <si>
+    <t>Implement "N" stacks in an Array</t>
+  </si>
+  <si>
+    <t>Check the expression has valid or Balanced parenthesis or not.</t>
+  </si>
+  <si>
+    <t>Reverse a String using Stack</t>
+  </si>
+  <si>
+    <t>Design a Stack that supports getMin() in O(1) time and O(1) extra space.</t>
+  </si>
+  <si>
+    <t>Find the next Greater element</t>
+  </si>
+  <si>
+    <t>The celebrity Problem</t>
+  </si>
+  <si>
+    <t>Arithmetic Expression evaluation</t>
+  </si>
+  <si>
+    <t>Evaluation of Postfix expression</t>
+  </si>
+  <si>
+    <t>Implement a method to insert an element at its bottom without using any other data structure.</t>
+  </si>
+  <si>
+    <t>Reverse a stack using recursion</t>
+  </si>
+  <si>
+    <t>Sort a Stack using recursion</t>
+  </si>
+  <si>
+    <t>Merge Overlapping Intervals</t>
+  </si>
+  <si>
+    <t>Largest rectangular Area in Histogram</t>
+  </si>
+  <si>
+    <t>Length of the Longest Valid Substring</t>
+  </si>
+  <si>
+    <t>Expression contains redundant bracket or not</t>
+  </si>
+  <si>
+    <t>Implement Stack using Queue</t>
+  </si>
+  <si>
+    <t>Implement Stack using Deque</t>
+  </si>
+  <si>
+    <t>Stack Permutations (Check if an array is stack permutation of other)</t>
   </si>
   <si>
     <t xml:space="preserve">Implement Queue using Stack  </t>
   </si>
   <si>
-    <t xml:space="preserve">Implement "n" queue in an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement a Circular queue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LRU Cache Implementationa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a Queue using recursion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse the first “K” elements of a queue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interleave the first half of the queue with second half</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the first circular tour that visits all Petrol Pumps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum time required to rot all oranges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distance of nearest cell having 1 in a binary matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First negative integer in every window of size “k”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if all levels of two trees are anagrams or not.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sum of minimum and maximum elements of all subarrays of size “k”.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum sum of squares of character counts in a given string after removing “k” characters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queue based approach or first non-repeating character in a stream.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Next Smaller Element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement a Maxheap/MinHeap using arrays and recursion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort an Array using heap. (HeapSort)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum of all subarrays of size k.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“k” largest element in an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kth smallest and largest element in an unsorted array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge “K” sorted arrays. [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge 2 Binary Max Heaps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kth largest sum continuous subarrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leetcode- reorganize strings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge “K” Sorted Linked Lists [V.IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smallest range in “K” Lists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median in a stream of Integers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if a Binary Tree is Heap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connect “n” ropes with minimum cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert BST to Min Heap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert min heap to max heap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rearrange characters in a string such that no two adjacent are same.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum sum of two numbers formed from digits of an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a Graph, print it</t>
+    <t>Implement "n" queue in an array</t>
+  </si>
+  <si>
+    <t>Implement a Circular queue</t>
+  </si>
+  <si>
+    <t>LRU Cache Implementationa</t>
+  </si>
+  <si>
+    <t>Reverse a Queue using recursion</t>
+  </si>
+  <si>
+    <t>Reverse the first “K” elements of a queue</t>
+  </si>
+  <si>
+    <t>Interleave the first half of the queue with second half</t>
+  </si>
+  <si>
+    <t>Find the first circular tour that visits all Petrol Pumps</t>
+  </si>
+  <si>
+    <t>Minimum time required to rot all oranges</t>
+  </si>
+  <si>
+    <t>Distance of nearest cell having 1 in a binary matrix</t>
+  </si>
+  <si>
+    <t>First negative integer in every window of size “k”</t>
+  </si>
+  <si>
+    <t>Check if all levels of two trees are anagrams or not.</t>
+  </si>
+  <si>
+    <t>Sum of minimum and maximum elements of all subarrays of size “k”.</t>
+  </si>
+  <si>
+    <t>Minimum sum of squares of character counts in a given string after removing “k” characters.</t>
+  </si>
+  <si>
+    <t>Queue based approach or first non-repeating character in a stream.</t>
+  </si>
+  <si>
+    <t>Next Smaller Element</t>
+  </si>
+  <si>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t>Implement a Maxheap/MinHeap using arrays and recursion.</t>
+  </si>
+  <si>
+    <t>Sort an Array using heap. (HeapSort)</t>
+  </si>
+  <si>
+    <t>Maximum of all subarrays of size k.</t>
+  </si>
+  <si>
+    <t>“k” largest element in an array</t>
+  </si>
+  <si>
+    <t>Kth smallest and largest element in an unsorted array</t>
+  </si>
+  <si>
+    <t>Merge “K” sorted arrays. [ IMP ]</t>
+  </si>
+  <si>
+    <t>Merge 2 Binary Max Heaps</t>
+  </si>
+  <si>
+    <t>Kth largest sum continuous subarrays</t>
+  </si>
+  <si>
+    <t>Leetcode- reorganize strings</t>
+  </si>
+  <si>
+    <t>Merge “K” Sorted Linked Lists [V.IMP]</t>
+  </si>
+  <si>
+    <t>Smallest range in “K” Lists</t>
+  </si>
+  <si>
+    <t>Median in a stream of Integers</t>
+  </si>
+  <si>
+    <t>Check if a Binary Tree is Heap</t>
+  </si>
+  <si>
+    <t>Connect “n” ropes with minimum cost</t>
+  </si>
+  <si>
+    <t>Convert BST to Min Heap</t>
+  </si>
+  <si>
+    <t>Convert min heap to max heap</t>
+  </si>
+  <si>
+    <t>Rearrange characters in a string such that no two adjacent are same.</t>
+  </si>
+  <si>
+    <t>Minimum sum of two numbers formed from digits of an array</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Create a Graph, print it</t>
   </si>
   <si>
     <t xml:space="preserve">Implement BFS algorithm </t>
@@ -1072,359 +1076,356 @@
     <t xml:space="preserve">Detect Cycle in UnDirected Graph using BFS/DFS Algo </t>
   </si>
   <si>
-    <t xml:space="preserve">Search in a Maze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum Step by Knight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flood fill algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clone a graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Making wired Connections</t>
+    <t>Search in a Maze</t>
+  </si>
+  <si>
+    <t>Minimum Step by Knight</t>
+  </si>
+  <si>
+    <t>flood fill algo</t>
+  </si>
+  <si>
+    <t>Clone a graph</t>
+  </si>
+  <si>
+    <t>Making wired Connections</t>
   </si>
   <si>
     <t xml:space="preserve">word Ladder </t>
   </si>
   <si>
-    <t xml:space="preserve">Dijkstra algo</t>
+    <t>Dijkstra algo</t>
   </si>
   <si>
     <t xml:space="preserve">Implement Topological Sort </t>
   </si>
   <si>
-    <t xml:space="preserve">Minimum time taken by each job to be completed given by a Directed Acyclic Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find whether it is possible to finish all tasks or not from given dependencies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the no. of Isalnds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a sorted Dictionary of an Alien Language, find order of characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Kruksal’sAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Prim’s Algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total no. of Spanning tree in a graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Bellman Ford Algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Floyd warshallAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Travelling Salesman Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graph ColouringProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snake and Ladders Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find bridge in a graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count Strongly connected Components(Kosaraju Algo)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check whether a graph is Bipartite or Not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detect Negative cycle in a graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest path in a Directed Acyclic Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Journey to the Moon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cheapest Flights Within K Stops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oliver and the Game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Jug problem using BFS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find if there is a path of more thank length from a source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M-ColouringProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum edges to reverse o make path from source to destination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paths to travel each nodes using each edge(Seven Bridges)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vertex Cover Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chinese Postman or Route Inspection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Triangles in a Directed and Undirected Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimise the cashflow among a given set of friends who have borrowed money from each other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two Clique Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct a trie from scratch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find shortest unique prefix for every word in a given list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word Break Problem | (Trie solution)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement a Phone Directory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print unique rows in a given boolean matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dynamic Programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coin ChangeProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knapsack Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binomial CoefficientProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permutation CoefficientProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program for nth Catalan Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matrix Chain Multiplication </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit Distance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friends Pairing Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold Mine Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assembly Line SchedulingProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Painting the Fenceproblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximize The Cut Segments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Common Subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Repeated Subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Increasing Subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Space Optimized Solution of LCS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCS (Longest Common Subsequence) of three strings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum Sum Increasing Subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count all subsequences having product less than K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest subsequence such that difference between adjacent is one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum subsequence sum such that no three are consecutive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egg Dropping Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum Length Chain of Pairs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum size square sub-matrix with all 1s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum sum of pairs with specific difference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min Cost PathProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum difference of zeros and ones in binary string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum number of jumps to reach end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum cost to fill given weight in a bag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum removals from array to make max –min &lt;= K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Common Substring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count number of ways to reacha given score in a game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count Balanced Binary Trees of Height h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smallest sum contiguous subarray</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unbounded Knapsack (Repetition of items allowed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word Break Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Largest Independent Set Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partition problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Palindromic Subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count All Palindromic Subsequence in a given String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Palindromic Substring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest alternating subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weighted Job Scheduling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coin game winner where every player has three choices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum profit by buying and selling a share at most twice [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimal Strategy for a Game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimal Binary Search Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palindrome PartitioningProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word Wrap Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile Numeric Keypad Problem [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boolean Parenthesization Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Largest rectangular sub-matrix whose sum is 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum sum rectangle in a 2D matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum profit by buying and selling a share at most k times</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find if a string is interleaved of two other strings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum Length of Pair Chain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit Manipulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count set bits in an integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the two non-repeating elements in an array of repeating elements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count number of bits to be flipped to convert A to B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count total set bits in all numbers from 1 to n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program to find whether a no is power of two</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find position of the only set bit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copy set bits in a range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divide two integers without using multiplication, division and mod operator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate square of a number without using *, / and pow()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Set</t>
+    <t>Minimum time taken by each job to be completed given by a Directed Acyclic Graph</t>
+  </si>
+  <si>
+    <t>Find whether it is possible to finish all tasks or not from given dependencies</t>
+  </si>
+  <si>
+    <t>Find the no. of Isalnds</t>
+  </si>
+  <si>
+    <t>Given a sorted Dictionary of an Alien Language, find order of characters</t>
+  </si>
+  <si>
+    <t>Implement Kruksal’sAlgorithm</t>
+  </si>
+  <si>
+    <t>Implement Prim’s Algorithm</t>
+  </si>
+  <si>
+    <t>Total no. of Spanning tree in a graph</t>
+  </si>
+  <si>
+    <t>Implement Bellman Ford Algorithm</t>
+  </si>
+  <si>
+    <t>Implement Floyd warshallAlgorithm</t>
+  </si>
+  <si>
+    <t>Travelling Salesman Problem</t>
+  </si>
+  <si>
+    <t>Graph ColouringProblem</t>
+  </si>
+  <si>
+    <t>Snake and Ladders Problem</t>
+  </si>
+  <si>
+    <t>Find bridge in a graph</t>
+  </si>
+  <si>
+    <t>Count Strongly connected Components(Kosaraju Algo)</t>
+  </si>
+  <si>
+    <t>Check whether a graph is Bipartite or Not</t>
+  </si>
+  <si>
+    <t>Detect Negative cycle in a graph</t>
+  </si>
+  <si>
+    <t>Longest path in a Directed Acyclic Graph</t>
+  </si>
+  <si>
+    <t>Journey to the Moon</t>
+  </si>
+  <si>
+    <t>Cheapest Flights Within K Stops</t>
+  </si>
+  <si>
+    <t>Oliver and the Game</t>
+  </si>
+  <si>
+    <t>Water Jug problem using BFS</t>
+  </si>
+  <si>
+    <t>Find if there is a path of more thank length from a source</t>
+  </si>
+  <si>
+    <t>M-ColouringProblem</t>
+  </si>
+  <si>
+    <t>Minimum edges to reverse o make path from source to destination</t>
+  </si>
+  <si>
+    <t>Paths to travel each nodes using each edge(Seven Bridges)</t>
+  </si>
+  <si>
+    <t>Vertex Cover Problem</t>
+  </si>
+  <si>
+    <t>Chinese Postman or Route Inspection</t>
+  </si>
+  <si>
+    <t>Number of Triangles in a Directed and Undirected Graph</t>
+  </si>
+  <si>
+    <t>Minimise the cashflow among a given set of friends who have borrowed money from each other</t>
+  </si>
+  <si>
+    <t>Two Clique Problem</t>
+  </si>
+  <si>
+    <t>Trie</t>
+  </si>
+  <si>
+    <t>Construct a trie from scratch</t>
+  </si>
+  <si>
+    <t>Find shortest unique prefix for every word in a given list</t>
+  </si>
+  <si>
+    <t>Word Break Problem | (Trie solution)</t>
+  </si>
+  <si>
+    <t>Implement a Phone Directory</t>
+  </si>
+  <si>
+    <t>Print unique rows in a given boolean matrix</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+  </si>
+  <si>
+    <t>Coin ChangeProblem</t>
+  </si>
+  <si>
+    <t>Knapsack Problem</t>
+  </si>
+  <si>
+    <t>Binomial CoefficientProblem</t>
+  </si>
+  <si>
+    <t>Permutation CoefficientProblem</t>
+  </si>
+  <si>
+    <t>Program for nth Catalan Number</t>
+  </si>
+  <si>
+    <t>Matrix Chain Multiplication </t>
+  </si>
+  <si>
+    <t>Edit Distance</t>
+  </si>
+  <si>
+    <t>Friends Pairing Problem</t>
+  </si>
+  <si>
+    <t>Gold Mine Problem</t>
+  </si>
+  <si>
+    <t>Assembly Line SchedulingProblem</t>
+  </si>
+  <si>
+    <t>Painting the Fenceproblem</t>
+  </si>
+  <si>
+    <t>Maximize The Cut Segments</t>
+  </si>
+  <si>
+    <t>Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t>Longest Repeated Subsequence</t>
+  </si>
+  <si>
+    <t>Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>Space Optimized Solution of LCS</t>
+  </si>
+  <si>
+    <t>LCS (Longest Common Subsequence) of three strings</t>
+  </si>
+  <si>
+    <t>Maximum Sum Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>Count all subsequences having product less than K</t>
+  </si>
+  <si>
+    <t>Longest subsequence such that difference between adjacent is one</t>
+  </si>
+  <si>
+    <t>Maximum subsequence sum such that no three are consecutive</t>
+  </si>
+  <si>
+    <t>Egg Dropping Problem</t>
+  </si>
+  <si>
+    <t>Maximum Length Chain of Pairs</t>
+  </si>
+  <si>
+    <t>Maximum size square sub-matrix with all 1s</t>
+  </si>
+  <si>
+    <t>Maximum sum of pairs with specific difference</t>
+  </si>
+  <si>
+    <t>Min Cost PathProblem</t>
+  </si>
+  <si>
+    <t>Maximum difference of zeros and ones in binary string</t>
+  </si>
+  <si>
+    <t>Minimum number of jumps to reach end</t>
+  </si>
+  <si>
+    <t>Minimum cost to fill given weight in a bag</t>
+  </si>
+  <si>
+    <t>Minimum removals from array to make max –min &lt;= K</t>
+  </si>
+  <si>
+    <t>Longest Common Substring</t>
+  </si>
+  <si>
+    <t>Count number of ways to reacha given score in a game</t>
+  </si>
+  <si>
+    <t>Count Balanced Binary Trees of Height h</t>
+  </si>
+  <si>
+    <t>LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]</t>
+  </si>
+  <si>
+    <t>Smallest sum contiguous subarray</t>
+  </si>
+  <si>
+    <t>Unbounded Knapsack (Repetition of items allowed)</t>
+  </si>
+  <si>
+    <t>Word Break Problem</t>
+  </si>
+  <si>
+    <t>Largest Independent Set Problem</t>
+  </si>
+  <si>
+    <t>Partition problem</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Subsequence</t>
+  </si>
+  <si>
+    <t>Count All Palindromic Subsequence in a given String</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t>Longest alternating subsequence</t>
+  </si>
+  <si>
+    <t>Weighted Job Scheduling</t>
+  </si>
+  <si>
+    <t>Coin game winner where every player has three choices</t>
+  </si>
+  <si>
+    <t>Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]</t>
+  </si>
+  <si>
+    <t>Maximum profit by buying and selling a share at most twice [ IMP ]</t>
+  </si>
+  <si>
+    <t>Optimal Strategy for a Game</t>
+  </si>
+  <si>
+    <t>Optimal Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Palindrome PartitioningProblem</t>
+  </si>
+  <si>
+    <t>Word Wrap Problem</t>
+  </si>
+  <si>
+    <t>Mobile Numeric Keypad Problem [ IMP ]</t>
+  </si>
+  <si>
+    <t>Boolean Parenthesization Problem</t>
+  </si>
+  <si>
+    <t>Largest rectangular sub-matrix whose sum is 0</t>
+  </si>
+  <si>
+    <t>Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]</t>
+  </si>
+  <si>
+    <t>Maximum sum rectangle in a 2D matrix</t>
+  </si>
+  <si>
+    <t>Maximum profit by buying and selling a share at most k times</t>
+  </si>
+  <si>
+    <t>Find if a string is interleaved of two other strings</t>
+  </si>
+  <si>
+    <t>Maximum Length of Pair Chain</t>
+  </si>
+  <si>
+    <t>Bit Manipulation</t>
+  </si>
+  <si>
+    <t>Count set bits in an integer</t>
+  </si>
+  <si>
+    <t>Find the two non-repeating elements in an array of repeating elements</t>
+  </si>
+  <si>
+    <t>Count number of bits to be flipped to convert A to B</t>
+  </si>
+  <si>
+    <t>Count total set bits in all numbers from 1 to n</t>
+  </si>
+  <si>
+    <t>Program to find whether a no is power of two</t>
+  </si>
+  <si>
+    <t>Find position of the only set bit</t>
+  </si>
+  <si>
+    <t>Copy set bits in a range</t>
+  </si>
+  <si>
+    <t>Divide two integers without using multiplication, division and mod operator</t>
+  </si>
+  <si>
+    <t>Calculate square of a number without using *, / and pow()</t>
+  </si>
+  <si>
+    <t>Power Set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1433,30 +1434,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Calibri (Body)"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -1464,8 +1449,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1473,7 +1458,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1481,7 +1466,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="16"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -1496,7 +1481,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1527,9 +1512,15 @@
         <bgColor rgb="FFE6E905"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1537,133 +1528,73 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="25">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1722,40 +1653,314 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B52" activeCellId="0" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.5"/>
+    <col min="1" max="1" width="28.5" customWidth="1"/>
+    <col min="2" max="2" width="123" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="26.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" ht="21">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1766,12 +1971,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3">
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" ht="21">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1782,7 +1987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" ht="21">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1793,7 +1998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" ht="21">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1804,7 +2009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" ht="21">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1815,7 +2020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:3" ht="21">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1826,7 +2031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:3" ht="21">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
@@ -1837,7 +2042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:3" ht="21">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
@@ -1848,7 +2053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:3" ht="21">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -1859,7 +2064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:3" ht="21">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -1870,7 +2075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:3" ht="21">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -1881,7 +2086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:3" ht="21">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -1892,7 +2097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:3" ht="21">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -1903,7 +2108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:3" ht="21">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -1914,7 +2119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:3" ht="21">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -1925,7 +2130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:3" ht="21">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
@@ -1936,7 +2141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:3" ht="21">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -1947,7 +2152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:3" ht="21">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
@@ -1958,7 +2163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:3" ht="21">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
@@ -1969,7 +2174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:3" ht="21">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
@@ -1980,7 +2185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:3" ht="21">
       <c r="A25" s="9" t="s">
         <v>6</v>
       </c>
@@ -1991,7 +2196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:3" ht="21">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
@@ -2002,7 +2207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:3" ht="21">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -2013,7 +2218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:3" ht="21">
       <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
@@ -2024,7 +2229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:3" ht="21">
       <c r="A29" s="9" t="s">
         <v>6</v>
       </c>
@@ -2035,7 +2240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:3" ht="21">
       <c r="A30" s="12" t="s">
         <v>6</v>
       </c>
@@ -2046,7 +2251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:3" ht="21">
       <c r="A31" s="14" t="s">
         <v>6</v>
       </c>
@@ -2057,7 +2262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:3" ht="21">
       <c r="A32" s="14" t="s">
         <v>6</v>
       </c>
@@ -2068,7 +2273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:3" ht="21">
       <c r="A33" s="14" t="s">
         <v>6</v>
       </c>
@@ -2079,7 +2284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:3" ht="21">
       <c r="A34" s="14" t="s">
         <v>6</v>
       </c>
@@ -2090,7 +2295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:3" ht="21">
       <c r="A35" s="14" t="s">
         <v>6</v>
       </c>
@@ -2101,7 +2306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:3" ht="21">
       <c r="A36" s="14" t="s">
         <v>6</v>
       </c>
@@ -2112,7 +2317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:3" ht="21">
       <c r="A37" s="14" t="s">
         <v>6</v>
       </c>
@@ -2123,7 +2328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:3" ht="21">
       <c r="A38" s="9" t="s">
         <v>6</v>
       </c>
@@ -2134,7 +2339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:3" ht="21">
       <c r="A39" s="9" t="s">
         <v>6</v>
       </c>
@@ -2145,7 +2350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:3" ht="21">
       <c r="A40" s="12" t="s">
         <v>6</v>
       </c>
@@ -2156,7 +2361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:3" ht="21">
       <c r="A41" s="14" t="s">
         <v>6</v>
       </c>
@@ -2167,20 +2372,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:3" ht="21">
       <c r="B42" s="17"/>
       <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:3" ht="21">
       <c r="A43" s="12"/>
       <c r="B43" s="17"/>
       <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:3" ht="21">
       <c r="A44" s="14" t="s">
         <v>43</v>
       </c>
@@ -2191,7 +2396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:3" ht="21">
       <c r="A45" s="14" t="s">
         <v>43</v>
       </c>
@@ -2202,7 +2407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:3" ht="21">
       <c r="A46" s="14" t="s">
         <v>43</v>
       </c>
@@ -2213,7 +2418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:3" ht="21">
       <c r="A47" s="14" t="s">
         <v>43</v>
       </c>
@@ -2224,7 +2429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:3" ht="21">
       <c r="A48" s="14" t="s">
         <v>43</v>
       </c>
@@ -2235,7 +2440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:3" ht="21">
       <c r="A49" s="14" t="s">
         <v>43</v>
       </c>
@@ -2246,7 +2451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:3" ht="21">
       <c r="A50" s="14" t="s">
         <v>43</v>
       </c>
@@ -2257,7 +2462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:3" ht="21">
       <c r="A51" s="18" t="s">
         <v>43</v>
       </c>
@@ -2268,7 +2473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:3" ht="21">
       <c r="A52" s="12" t="s">
         <v>43</v>
       </c>
@@ -2279,7 +2484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:3" ht="21">
       <c r="A53" s="12" t="s">
         <v>43</v>
       </c>
@@ -2290,12 +2495,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:3" ht="21">
       <c r="A55" s="12"/>
       <c r="B55" s="17"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:3" ht="21">
       <c r="A56" s="12" t="s">
         <v>54</v>
       </c>
@@ -2306,7 +2511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:3" ht="21">
       <c r="A57" s="12" t="s">
         <v>54</v>
       </c>
@@ -2317,7 +2522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:3" ht="21">
       <c r="A58" s="12" t="s">
         <v>54</v>
       </c>
@@ -2328,7 +2533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:3" ht="21">
       <c r="A59" s="12" t="s">
         <v>54</v>
       </c>
@@ -2339,7 +2544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:3" ht="21">
       <c r="A60" s="12" t="s">
         <v>54</v>
       </c>
@@ -2350,7 +2555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:3" ht="21">
       <c r="A61" s="12" t="s">
         <v>54</v>
       </c>
@@ -2361,7 +2566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:3" ht="21">
       <c r="A62" s="12" t="s">
         <v>54</v>
       </c>
@@ -2372,7 +2577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:3" ht="21">
       <c r="A63" s="12" t="s">
         <v>54</v>
       </c>
@@ -2383,7 +2588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:3" ht="21">
       <c r="A64" s="12" t="s">
         <v>54</v>
       </c>
@@ -2394,7 +2599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:3" ht="21">
       <c r="A65" s="12" t="s">
         <v>54</v>
       </c>
@@ -2405,7 +2610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:3" ht="21">
       <c r="A66" s="12" t="s">
         <v>54</v>
       </c>
@@ -2416,7 +2621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:3" ht="21">
       <c r="A67" s="12" t="s">
         <v>54</v>
       </c>
@@ -2427,7 +2632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:3" ht="21">
       <c r="A68" s="12" t="s">
         <v>54</v>
       </c>
@@ -2438,7 +2643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:3" ht="21">
       <c r="A69" s="12" t="s">
         <v>54</v>
       </c>
@@ -2449,7 +2654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:3" ht="21">
       <c r="A70" s="12" t="s">
         <v>54</v>
       </c>
@@ -2460,7 +2665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:3" ht="21">
       <c r="A71" s="12" t="s">
         <v>54</v>
       </c>
@@ -2471,7 +2676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:3" ht="21">
       <c r="A72" s="12" t="s">
         <v>54</v>
       </c>
@@ -2482,7 +2687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:3" ht="21">
       <c r="A73" s="12" t="s">
         <v>54</v>
       </c>
@@ -2493,7 +2698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:3" ht="21">
       <c r="A74" s="12" t="s">
         <v>54</v>
       </c>
@@ -2504,7 +2709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:3" ht="21">
       <c r="A75" s="12" t="s">
         <v>54</v>
       </c>
@@ -2515,7 +2720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:3" ht="21">
       <c r="A76" s="12" t="s">
         <v>54</v>
       </c>
@@ -2526,7 +2731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:3" ht="21">
       <c r="A77" s="12" t="s">
         <v>54</v>
       </c>
@@ -2537,7 +2742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:3" ht="21">
       <c r="A78" s="12" t="s">
         <v>54</v>
       </c>
@@ -2548,7 +2753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:3" ht="21">
       <c r="A79" s="12" t="s">
         <v>54</v>
       </c>
@@ -2559,7 +2764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:3" ht="21">
       <c r="A80" s="12" t="s">
         <v>54</v>
       </c>
@@ -2570,7 +2775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:3" ht="21">
       <c r="A81" s="12" t="s">
         <v>54</v>
       </c>
@@ -2581,7 +2786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:3" ht="21">
       <c r="A82" s="12" t="s">
         <v>54</v>
       </c>
@@ -2592,7 +2797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:3" ht="21">
       <c r="A83" s="12" t="s">
         <v>54</v>
       </c>
@@ -2603,7 +2808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:3" ht="21">
       <c r="A84" s="12" t="s">
         <v>54</v>
       </c>
@@ -2614,7 +2819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:3" ht="21">
       <c r="A85" s="12" t="s">
         <v>54</v>
       </c>
@@ -2625,7 +2830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:3" ht="21">
       <c r="A86" s="12" t="s">
         <v>54</v>
       </c>
@@ -2636,7 +2841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:3" ht="21">
       <c r="A87" s="12" t="s">
         <v>54</v>
       </c>
@@ -2647,7 +2852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:3" ht="21">
       <c r="A88" s="12" t="s">
         <v>54</v>
       </c>
@@ -2658,7 +2863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:3" ht="21">
       <c r="A89" s="12" t="s">
         <v>54</v>
       </c>
@@ -2669,7 +2874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:3" ht="21">
       <c r="A90" s="12" t="s">
         <v>54</v>
       </c>
@@ -2680,7 +2885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:3" ht="21">
       <c r="A91" s="12" t="s">
         <v>54</v>
       </c>
@@ -2691,7 +2896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:3" ht="21">
       <c r="A92" s="12" t="s">
         <v>54</v>
       </c>
@@ -2702,7 +2907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:3" ht="21">
       <c r="A93" s="12" t="s">
         <v>54</v>
       </c>
@@ -2713,7 +2918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:3" ht="21">
       <c r="A94" s="12" t="s">
         <v>54</v>
       </c>
@@ -2724,7 +2929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:3" ht="21">
       <c r="A95" s="12" t="s">
         <v>54</v>
       </c>
@@ -2735,7 +2940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:3" ht="21">
       <c r="A96" s="12" t="s">
         <v>54</v>
       </c>
@@ -2746,7 +2951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:3" ht="21">
       <c r="A97" s="12" t="s">
         <v>54</v>
       </c>
@@ -2757,7 +2962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:3" ht="21">
       <c r="A98" s="12" t="s">
         <v>54</v>
       </c>
@@ -2768,122 +2973,122 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:3" ht="21">
       <c r="A100" s="12"/>
       <c r="B100" s="17"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="12" t="s">
+    <row r="101" spans="1:3" ht="21">
+      <c r="A101" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B101" s="13" t="s">
+      <c r="B101" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="C101" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="12" t="s">
+      <c r="C101" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="21">
+      <c r="A102" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B102" s="13" t="s">
+      <c r="B102" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C102" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="12" t="s">
+      <c r="C102" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="21">
+      <c r="A103" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B103" s="13" t="s">
+      <c r="B103" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="C103" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="12" t="s">
+      <c r="C103" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="21">
+      <c r="A104" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B104" s="13" t="s">
+      <c r="B104" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="C104" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="12" t="s">
+      <c r="C104" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="21">
+      <c r="A105" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B105" s="13" t="s">
+      <c r="B105" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C105" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="12" t="s">
+      <c r="C105" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="21">
+      <c r="A106" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B106" s="13" t="s">
+      <c r="B106" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C106" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="12" t="s">
+      <c r="C106" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="21">
+      <c r="A107" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B107" s="13" t="s">
+      <c r="B107" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="C107" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="12" t="s">
+      <c r="C107" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="21">
+      <c r="A108" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B108" s="13" t="s">
+      <c r="B108" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C108" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="12" t="s">
+      <c r="C108" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="21">
+      <c r="A109" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B109" s="13" t="s">
+      <c r="B109" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="C109" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="12" t="s">
+      <c r="C109" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="21">
+      <c r="A110" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B110" s="13" t="s">
+      <c r="B110" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="C110" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C110" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="21">
       <c r="A111" s="12" t="s">
         <v>98</v>
       </c>
@@ -2894,7 +3099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:3" ht="21">
       <c r="A112" s="12" t="s">
         <v>98</v>
       </c>
@@ -2905,7 +3110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:3" ht="21">
       <c r="A113" s="12" t="s">
         <v>98</v>
       </c>
@@ -2916,7 +3121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:3" ht="21">
       <c r="A114" s="12" t="s">
         <v>98</v>
       </c>
@@ -2927,7 +3132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:3" ht="21">
       <c r="A115" s="12" t="s">
         <v>98</v>
       </c>
@@ -2938,7 +3143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:3" ht="21">
       <c r="A116" s="12" t="s">
         <v>98</v>
       </c>
@@ -2949,7 +3154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:3" ht="21">
       <c r="A117" s="12" t="s">
         <v>98</v>
       </c>
@@ -2960,7 +3165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:3" ht="21">
       <c r="A118" s="12" t="s">
         <v>98</v>
       </c>
@@ -2971,7 +3176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:3" ht="21">
       <c r="A119" s="12" t="s">
         <v>98</v>
       </c>
@@ -2982,7 +3187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:3" ht="21">
       <c r="A120" s="12" t="s">
         <v>98</v>
       </c>
@@ -2993,7 +3198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:3" ht="21">
       <c r="A121" s="12" t="s">
         <v>98</v>
       </c>
@@ -3004,7 +3209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:3" ht="21">
       <c r="A122" s="12" t="s">
         <v>98</v>
       </c>
@@ -3015,7 +3220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:3" ht="21">
       <c r="A123" s="12" t="s">
         <v>98</v>
       </c>
@@ -3026,7 +3231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:3" ht="21">
       <c r="A124" s="12" t="s">
         <v>98</v>
       </c>
@@ -3037,7 +3242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:3" ht="21">
       <c r="A125" s="12" t="s">
         <v>98</v>
       </c>
@@ -3048,7 +3253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:3" ht="21">
       <c r="A126" s="12" t="s">
         <v>98</v>
       </c>
@@ -3059,7 +3264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:3" ht="21">
       <c r="A127" s="12" t="s">
         <v>98</v>
       </c>
@@ -3070,7 +3275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:3" ht="21">
       <c r="A128" s="12" t="s">
         <v>98</v>
       </c>
@@ -3081,7 +3286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:3" ht="21">
       <c r="A129" s="12" t="s">
         <v>98</v>
       </c>
@@ -3092,7 +3297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:3" ht="21">
       <c r="A130" s="12" t="s">
         <v>98</v>
       </c>
@@ -3103,7 +3308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:3" ht="21">
       <c r="A131" s="12" t="s">
         <v>98</v>
       </c>
@@ -3114,7 +3319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:3" ht="21">
       <c r="A132" s="12" t="s">
         <v>98</v>
       </c>
@@ -3125,7 +3330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:3" ht="21">
       <c r="A133" s="12" t="s">
         <v>98</v>
       </c>
@@ -3136,7 +3341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:3" ht="21">
       <c r="A134" s="12" t="s">
         <v>98</v>
       </c>
@@ -3147,7 +3352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:3" ht="21">
       <c r="A135" s="12" t="s">
         <v>98</v>
       </c>
@@ -3158,7 +3363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:3" ht="21">
       <c r="A136" s="12" t="s">
         <v>98</v>
       </c>
@@ -3169,11 +3374,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:3" ht="21">
       <c r="B138" s="17"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:3" ht="21">
       <c r="A139" s="12" t="s">
         <v>135</v>
       </c>
@@ -3184,7 +3389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:3" ht="21">
       <c r="A140" s="12" t="s">
         <v>135</v>
       </c>
@@ -3195,7 +3400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:3" ht="21">
       <c r="A141" s="12" t="s">
         <v>135</v>
       </c>
@@ -3206,7 +3411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:3" ht="21">
       <c r="A142" s="12" t="s">
         <v>135</v>
       </c>
@@ -3217,7 +3422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:3" ht="21">
       <c r="A143" s="12" t="s">
         <v>135</v>
       </c>
@@ -3228,7 +3433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:3" ht="21">
       <c r="A144" s="12" t="s">
         <v>135</v>
       </c>
@@ -3239,7 +3444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:3" ht="21">
       <c r="A145" s="12" t="s">
         <v>135</v>
       </c>
@@ -3250,7 +3455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:3" ht="21">
       <c r="A146" s="12" t="s">
         <v>135</v>
       </c>
@@ -3261,7 +3466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:3" ht="21">
       <c r="A147" s="12" t="s">
         <v>135</v>
       </c>
@@ -3272,7 +3477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:3" ht="21">
       <c r="A148" s="12" t="s">
         <v>135</v>
       </c>
@@ -3283,7 +3488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:3" ht="21">
       <c r="A149" s="12" t="s">
         <v>135</v>
       </c>
@@ -3294,7 +3499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:3" ht="21">
       <c r="A150" s="12" t="s">
         <v>135</v>
       </c>
@@ -3305,7 +3510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:3" ht="21">
       <c r="A151" s="12" t="s">
         <v>135</v>
       </c>
@@ -3316,7 +3521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:3" ht="21">
       <c r="A152" s="12" t="s">
         <v>135</v>
       </c>
@@ -3327,7 +3532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:3" ht="21">
       <c r="A153" s="12" t="s">
         <v>135</v>
       </c>
@@ -3338,7 +3543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:3" ht="21">
       <c r="A154" s="12" t="s">
         <v>135</v>
       </c>
@@ -3349,7 +3554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:3" ht="21">
       <c r="A155" s="12" t="s">
         <v>135</v>
       </c>
@@ -3360,7 +3565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:3" ht="21">
       <c r="A156" s="12" t="s">
         <v>135</v>
       </c>
@@ -3371,7 +3576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:3" ht="21">
       <c r="A157" s="12" t="s">
         <v>135</v>
       </c>
@@ -3382,7 +3587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:3" ht="21">
       <c r="A158" s="12" t="s">
         <v>135</v>
       </c>
@@ -3393,7 +3598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:3" ht="21">
       <c r="A159" s="12" t="s">
         <v>135</v>
       </c>
@@ -3404,7 +3609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:3" ht="21">
       <c r="A160" s="12" t="s">
         <v>135</v>
       </c>
@@ -3415,7 +3620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:3" ht="21">
       <c r="A161" s="12" t="s">
         <v>135</v>
       </c>
@@ -3426,7 +3631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:3" ht="21">
       <c r="A162" s="12" t="s">
         <v>135</v>
       </c>
@@ -3437,7 +3642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:3" ht="21">
       <c r="A163" s="12" t="s">
         <v>135</v>
       </c>
@@ -3448,7 +3653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:3" ht="21">
       <c r="A164" s="12" t="s">
         <v>135</v>
       </c>
@@ -3459,7 +3664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:3" ht="21">
       <c r="A165" s="12" t="s">
         <v>135</v>
       </c>
@@ -3470,7 +3675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:3" ht="21">
       <c r="A166" s="12" t="s">
         <v>135</v>
       </c>
@@ -3481,7 +3686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:3" ht="21">
       <c r="A167" s="12" t="s">
         <v>135</v>
       </c>
@@ -3492,7 +3697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:3" ht="21">
       <c r="A168" s="12" t="s">
         <v>135</v>
       </c>
@@ -3503,7 +3708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:3" ht="21">
       <c r="A169" s="12" t="s">
         <v>135</v>
       </c>
@@ -3514,7 +3719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:3" ht="21">
       <c r="A170" s="12" t="s">
         <v>135</v>
       </c>
@@ -3525,7 +3730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:3" ht="21">
       <c r="A171" s="12" t="s">
         <v>135</v>
       </c>
@@ -3536,7 +3741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:3" ht="21">
       <c r="A172" s="12" t="s">
         <v>135</v>
       </c>
@@ -3547,7 +3752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:3" ht="21">
       <c r="A173" s="12" t="s">
         <v>135</v>
       </c>
@@ -3558,7 +3763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:3" ht="21">
       <c r="A174" s="12" t="s">
         <v>135</v>
       </c>
@@ -3569,11 +3774,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:3" ht="21">
       <c r="B176" s="17"/>
       <c r="C176" s="5"/>
     </row>
-    <row r="177" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:3" ht="21">
       <c r="A177" s="12" t="s">
         <v>172</v>
       </c>
@@ -3584,7 +3789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:3" ht="21">
       <c r="A178" s="12" t="s">
         <v>172</v>
       </c>
@@ -3595,7 +3800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:3" ht="21">
       <c r="A179" s="12" t="s">
         <v>172</v>
       </c>
@@ -3606,7 +3811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:3" ht="21">
       <c r="A180" s="12" t="s">
         <v>172</v>
       </c>
@@ -3617,7 +3822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:3" ht="21">
       <c r="A181" s="12" t="s">
         <v>172</v>
       </c>
@@ -3628,7 +3833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:3" ht="21">
       <c r="A182" s="12" t="s">
         <v>172</v>
       </c>
@@ -3639,7 +3844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:3" ht="21">
       <c r="A183" s="12" t="s">
         <v>172</v>
       </c>
@@ -3650,7 +3855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:3" ht="21">
       <c r="A184" s="12" t="s">
         <v>172</v>
       </c>
@@ -3661,7 +3866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:3" ht="21">
       <c r="A185" s="12" t="s">
         <v>172</v>
       </c>
@@ -3672,7 +3877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:3" ht="21">
       <c r="A186" s="12" t="s">
         <v>172</v>
       </c>
@@ -3683,7 +3888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:3" ht="21">
       <c r="A187" s="12" t="s">
         <v>172</v>
       </c>
@@ -3694,7 +3899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:3" ht="21">
       <c r="A188" s="12" t="s">
         <v>172</v>
       </c>
@@ -3705,7 +3910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:3" ht="21">
       <c r="A189" s="12" t="s">
         <v>172</v>
       </c>
@@ -3716,7 +3921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:3" ht="21">
       <c r="A190" s="12" t="s">
         <v>172</v>
       </c>
@@ -3727,7 +3932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:3" ht="21">
       <c r="A191" s="12" t="s">
         <v>172</v>
       </c>
@@ -3738,7 +3943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:3" ht="21">
       <c r="A192" s="12" t="s">
         <v>172</v>
       </c>
@@ -3749,7 +3954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" spans="1:3" ht="21">
       <c r="A193" s="12" t="s">
         <v>172</v>
       </c>
@@ -3760,7 +3965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" spans="1:3" ht="21">
       <c r="A194" s="12" t="s">
         <v>172</v>
       </c>
@@ -3771,7 +3976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:3" ht="21">
       <c r="A195" s="12" t="s">
         <v>172</v>
       </c>
@@ -3782,7 +3987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:3" ht="21">
       <c r="A196" s="12" t="s">
         <v>172</v>
       </c>
@@ -3793,7 +3998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:3" ht="21">
       <c r="A197" s="12" t="s">
         <v>172</v>
       </c>
@@ -3804,7 +4009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" spans="1:3" ht="21">
       <c r="A198" s="12" t="s">
         <v>172</v>
       </c>
@@ -3815,7 +4020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:3" ht="21">
       <c r="A199" s="12" t="s">
         <v>172</v>
       </c>
@@ -3826,7 +4031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" spans="1:3" ht="21">
       <c r="A200" s="12" t="s">
         <v>172</v>
       </c>
@@ -3837,7 +4042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" spans="1:3" ht="21">
       <c r="A201" s="12" t="s">
         <v>172</v>
       </c>
@@ -3848,7 +4053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" spans="1:3" ht="21">
       <c r="A202" s="12" t="s">
         <v>172</v>
       </c>
@@ -3859,7 +4064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" spans="1:3" ht="21">
       <c r="A203" s="12" t="s">
         <v>172</v>
       </c>
@@ -3870,7 +4075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" spans="1:3" ht="21">
       <c r="A204" s="12" t="s">
         <v>172</v>
       </c>
@@ -3881,7 +4086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" spans="1:3" ht="21">
       <c r="A205" s="12" t="s">
         <v>172</v>
       </c>
@@ -3892,7 +4097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" spans="1:3" ht="21">
       <c r="A206" s="12" t="s">
         <v>172</v>
       </c>
@@ -3903,7 +4108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" spans="1:3" ht="21">
       <c r="A207" s="12" t="s">
         <v>172</v>
       </c>
@@ -3914,7 +4119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" spans="1:3" ht="21">
       <c r="A208" s="12" t="s">
         <v>172</v>
       </c>
@@ -3925,7 +4130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" spans="1:3" ht="21">
       <c r="A209" s="12" t="s">
         <v>172</v>
       </c>
@@ -3936,7 +4141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" spans="1:3" ht="21">
       <c r="A210" s="12" t="s">
         <v>172</v>
       </c>
@@ -3947,7 +4152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" spans="1:3" ht="21">
       <c r="A211" s="12" t="s">
         <v>172</v>
       </c>
@@ -3958,17 +4163,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" spans="1:3" ht="21">
       <c r="A212" s="12"/>
       <c r="B212" s="17"/>
       <c r="C212" s="5"/>
     </row>
-    <row r="213" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" spans="1:3" ht="21">
       <c r="A213" s="12"/>
       <c r="B213" s="17"/>
       <c r="C213" s="5"/>
     </row>
-    <row r="214" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" spans="1:3" ht="21">
       <c r="A214" s="12" t="s">
         <v>208</v>
       </c>
@@ -3979,7 +4184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" spans="1:3" ht="21">
       <c r="A215" s="12" t="s">
         <v>208</v>
       </c>
@@ -3990,7 +4195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" spans="1:3" ht="21">
       <c r="A216" s="12" t="s">
         <v>208</v>
       </c>
@@ -4001,7 +4206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" spans="1:3" ht="21">
       <c r="A217" s="12" t="s">
         <v>208</v>
       </c>
@@ -4012,7 +4217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" spans="1:3" ht="21">
       <c r="A218" s="12" t="s">
         <v>208</v>
       </c>
@@ -4023,7 +4228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" spans="1:3" ht="21">
       <c r="A219" s="12" t="s">
         <v>208</v>
       </c>
@@ -4034,7 +4239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" spans="1:3" ht="21">
       <c r="A220" s="12" t="s">
         <v>208</v>
       </c>
@@ -4045,7 +4250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" spans="1:3" ht="21">
       <c r="A221" s="12" t="s">
         <v>208</v>
       </c>
@@ -4056,7 +4261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" spans="1:3" ht="21">
       <c r="A222" s="12" t="s">
         <v>208</v>
       </c>
@@ -4067,7 +4272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" spans="1:3" ht="21">
       <c r="A223" s="12" t="s">
         <v>208</v>
       </c>
@@ -4078,7 +4283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" spans="1:3" ht="21">
       <c r="A224" s="12" t="s">
         <v>208</v>
       </c>
@@ -4089,7 +4294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" spans="1:3" ht="21">
       <c r="A225" s="12" t="s">
         <v>208</v>
       </c>
@@ -4100,7 +4305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" spans="1:3" ht="21">
       <c r="A226" s="12" t="s">
         <v>208</v>
       </c>
@@ -4111,7 +4316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" spans="1:3" ht="21">
       <c r="A227" s="12" t="s">
         <v>208</v>
       </c>
@@ -4122,7 +4327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" spans="1:3" ht="21">
       <c r="A228" s="12" t="s">
         <v>208</v>
       </c>
@@ -4133,7 +4338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" spans="1:3" ht="21">
       <c r="A229" s="12" t="s">
         <v>208</v>
       </c>
@@ -4144,7 +4349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" spans="1:3" ht="21">
       <c r="A230" s="12" t="s">
         <v>208</v>
       </c>
@@ -4155,7 +4360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" spans="1:3" ht="21">
       <c r="A231" s="12" t="s">
         <v>208</v>
       </c>
@@ -4166,7 +4371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" spans="1:3" ht="21">
       <c r="A232" s="12" t="s">
         <v>208</v>
       </c>
@@ -4177,7 +4382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" spans="1:3" ht="21">
       <c r="A233" s="12" t="s">
         <v>208</v>
       </c>
@@ -4188,7 +4393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" spans="1:3" ht="21">
       <c r="A234" s="12" t="s">
         <v>208</v>
       </c>
@@ -4199,7 +4404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" spans="1:3" ht="21">
       <c r="A235" s="12" t="s">
         <v>208</v>
       </c>
@@ -4210,15 +4415,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" spans="1:3" ht="21">
       <c r="B236" s="17"/>
       <c r="C236" s="5"/>
     </row>
-    <row r="237" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" spans="1:3" ht="21">
       <c r="B237" s="17"/>
       <c r="C237" s="5"/>
     </row>
-    <row r="238" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" spans="1:3" ht="21">
       <c r="A238" s="12" t="s">
         <v>231</v>
       </c>
@@ -4229,7 +4434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" spans="1:3" ht="21">
       <c r="A239" s="12" t="s">
         <v>231</v>
       </c>
@@ -4240,7 +4445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" spans="1:3" ht="21">
       <c r="A240" s="12" t="s">
         <v>231</v>
       </c>
@@ -4251,7 +4456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" spans="1:3" ht="21">
       <c r="A241" s="12" t="s">
         <v>231</v>
       </c>
@@ -4262,7 +4467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" spans="1:3" ht="21">
       <c r="A242" s="12" t="s">
         <v>231</v>
       </c>
@@ -4273,7 +4478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" spans="1:3" ht="21">
       <c r="A243" s="12" t="s">
         <v>231</v>
       </c>
@@ -4284,7 +4489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" spans="1:3" ht="21">
       <c r="A244" s="12" t="s">
         <v>231</v>
       </c>
@@ -4295,7 +4500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" spans="1:3" ht="21">
       <c r="A245" s="12" t="s">
         <v>231</v>
       </c>
@@ -4306,7 +4511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" spans="1:3" ht="21">
       <c r="A246" s="12" t="s">
         <v>231</v>
       </c>
@@ -4317,7 +4522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" spans="1:3" ht="21">
       <c r="A247" s="12" t="s">
         <v>231</v>
       </c>
@@ -4328,7 +4533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" spans="1:3" ht="21">
       <c r="A248" s="12" t="s">
         <v>231</v>
       </c>
@@ -4339,7 +4544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" spans="1:3" ht="21">
       <c r="A249" s="12" t="s">
         <v>231</v>
       </c>
@@ -4350,7 +4555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" spans="1:3" ht="21">
       <c r="A250" s="12" t="s">
         <v>231</v>
       </c>
@@ -4361,7 +4566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" spans="1:3" ht="21">
       <c r="A251" s="12" t="s">
         <v>231</v>
       </c>
@@ -4372,7 +4577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" spans="1:3" ht="21">
       <c r="A252" s="12" t="s">
         <v>231</v>
       </c>
@@ -4383,7 +4588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" spans="1:3" ht="21">
       <c r="A253" s="12" t="s">
         <v>231</v>
       </c>
@@ -4394,7 +4599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" spans="1:3" ht="21">
       <c r="A254" s="12" t="s">
         <v>231</v>
       </c>
@@ -4405,7 +4610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" spans="1:3" ht="21">
       <c r="A255" s="12" t="s">
         <v>231</v>
       </c>
@@ -4416,7 +4621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" spans="1:3" ht="21">
       <c r="A256" s="12" t="s">
         <v>231</v>
       </c>
@@ -4427,7 +4632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" spans="1:3" ht="21">
       <c r="A257" s="12" t="s">
         <v>231</v>
       </c>
@@ -4438,7 +4643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" spans="1:3" ht="21">
       <c r="A258" s="12" t="s">
         <v>231</v>
       </c>
@@ -4449,7 +4654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" spans="1:3" ht="21">
       <c r="A259" s="12" t="s">
         <v>231</v>
       </c>
@@ -4460,7 +4665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" spans="1:3" ht="21">
       <c r="A260" s="12" t="s">
         <v>231</v>
       </c>
@@ -4471,7 +4676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" spans="1:3" ht="21">
       <c r="A261" s="12" t="s">
         <v>231</v>
       </c>
@@ -4482,7 +4687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" spans="1:3" ht="21">
       <c r="A262" s="12" t="s">
         <v>231</v>
       </c>
@@ -4493,7 +4698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" spans="1:3" ht="21">
       <c r="A263" s="12" t="s">
         <v>231</v>
       </c>
@@ -4504,7 +4709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" spans="1:3" ht="21">
       <c r="A264" s="12" t="s">
         <v>231</v>
       </c>
@@ -4515,7 +4720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" spans="1:3" ht="21">
       <c r="A265" s="12" t="s">
         <v>231</v>
       </c>
@@ -4526,7 +4731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" spans="1:3" ht="21">
       <c r="A266" s="12" t="s">
         <v>231</v>
       </c>
@@ -4537,7 +4742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" spans="1:3" ht="21">
       <c r="A267" s="12" t="s">
         <v>231</v>
       </c>
@@ -4548,7 +4753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" spans="1:3" ht="21">
       <c r="A268" s="12" t="s">
         <v>231</v>
       </c>
@@ -4559,7 +4764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" spans="1:3" ht="21">
       <c r="A269" s="12" t="s">
         <v>231</v>
       </c>
@@ -4570,7 +4775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" spans="1:3" ht="21">
       <c r="A270" s="12" t="s">
         <v>231</v>
       </c>
@@ -4581,7 +4786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" spans="1:3" ht="21">
       <c r="A271" s="12" t="s">
         <v>231</v>
       </c>
@@ -4592,7 +4797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" spans="1:3" ht="21">
       <c r="A272" s="12" t="s">
         <v>231</v>
       </c>
@@ -4603,15 +4808,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" spans="1:3" ht="21">
       <c r="B273" s="17"/>
       <c r="C273" s="5"/>
     </row>
-    <row r="274" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" spans="1:3" ht="21">
       <c r="B274" s="17"/>
       <c r="C274" s="5"/>
     </row>
-    <row r="275" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" spans="1:3" ht="21">
       <c r="A275" s="12" t="s">
         <v>266</v>
       </c>
@@ -4622,7 +4827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" spans="1:3" ht="21">
       <c r="A276" s="12" t="s">
         <v>266</v>
       </c>
@@ -4633,7 +4838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" spans="1:3" ht="21">
       <c r="A277" s="12" t="s">
         <v>266</v>
       </c>
@@ -4644,7 +4849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" spans="1:3" ht="21">
       <c r="A278" s="12" t="s">
         <v>266</v>
       </c>
@@ -4655,7 +4860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" spans="1:3" ht="21">
       <c r="A279" s="12" t="s">
         <v>266</v>
       </c>
@@ -4666,7 +4871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" spans="1:3" ht="21">
       <c r="A280" s="12" t="s">
         <v>266</v>
       </c>
@@ -4677,7 +4882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" spans="1:3" ht="21">
       <c r="A281" s="12" t="s">
         <v>266</v>
       </c>
@@ -4688,7 +4893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" spans="1:3" ht="21">
       <c r="A282" s="12" t="s">
         <v>266</v>
       </c>
@@ -4699,7 +4904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" spans="1:3" ht="21">
       <c r="A283" s="12" t="s">
         <v>266</v>
       </c>
@@ -4710,7 +4915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" spans="1:3" ht="21">
       <c r="A284" s="12" t="s">
         <v>266</v>
       </c>
@@ -4721,7 +4926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" spans="1:3" ht="21">
       <c r="A285" s="12" t="s">
         <v>266</v>
       </c>
@@ -4732,7 +4937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" spans="1:3" ht="21">
       <c r="A286" s="12" t="s">
         <v>266</v>
       </c>
@@ -4743,7 +4948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" spans="1:3" ht="21">
       <c r="A287" s="12" t="s">
         <v>266</v>
       </c>
@@ -4754,7 +4959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" spans="1:3" ht="21">
       <c r="A288" s="12" t="s">
         <v>266</v>
       </c>
@@ -4765,7 +4970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" spans="1:3" ht="21">
       <c r="A289" s="12" t="s">
         <v>266</v>
       </c>
@@ -4776,7 +4981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" spans="1:3" ht="21">
       <c r="A290" s="12" t="s">
         <v>266</v>
       </c>
@@ -4787,7 +4992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" spans="1:3" ht="21">
       <c r="A291" s="12" t="s">
         <v>266</v>
       </c>
@@ -4798,7 +5003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" spans="1:3" ht="21">
       <c r="A292" s="12" t="s">
         <v>266</v>
       </c>
@@ -4809,7 +5014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" spans="1:3" ht="21">
       <c r="A293" s="12" t="s">
         <v>266</v>
       </c>
@@ -4820,15 +5025,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" spans="1:3" ht="21">
       <c r="B294" s="17"/>
       <c r="C294" s="5"/>
     </row>
-    <row r="295" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" spans="1:3" ht="21">
       <c r="B295" s="17"/>
       <c r="C295" s="5"/>
     </row>
-    <row r="296" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" spans="1:3" ht="21">
       <c r="A296" s="12" t="s">
         <v>286</v>
       </c>
@@ -4839,7 +5044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" spans="1:3" ht="21">
       <c r="A297" s="12" t="s">
         <v>286</v>
       </c>
@@ -4850,7 +5055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" spans="1:3" ht="21">
       <c r="A298" s="12" t="s">
         <v>286</v>
       </c>
@@ -4861,7 +5066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" spans="1:3" ht="21">
       <c r="A299" s="12" t="s">
         <v>286</v>
       </c>
@@ -4872,7 +5077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" spans="1:3" ht="21">
       <c r="A300" s="12" t="s">
         <v>286</v>
       </c>
@@ -4883,7 +5088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" spans="1:3" ht="21">
       <c r="A301" s="12" t="s">
         <v>286</v>
       </c>
@@ -4894,7 +5099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" spans="1:3" ht="21">
       <c r="A302" s="12" t="s">
         <v>286</v>
       </c>
@@ -4905,7 +5110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" spans="1:3" ht="21">
       <c r="A303" s="12" t="s">
         <v>286</v>
       </c>
@@ -4916,7 +5121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" spans="1:3" ht="21">
       <c r="A304" s="12" t="s">
         <v>286</v>
       </c>
@@ -4927,7 +5132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" spans="1:3" ht="21">
       <c r="A305" s="12" t="s">
         <v>286</v>
       </c>
@@ -4938,7 +5143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" spans="1:3" ht="21">
       <c r="A306" s="12" t="s">
         <v>286</v>
       </c>
@@ -4949,7 +5154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" spans="1:3" ht="21">
       <c r="A307" s="12" t="s">
         <v>286</v>
       </c>
@@ -4960,7 +5165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" spans="1:3" ht="21">
       <c r="A308" s="12" t="s">
         <v>286</v>
       </c>
@@ -4971,7 +5176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" spans="1:3" ht="21">
       <c r="A309" s="12" t="s">
         <v>286</v>
       </c>
@@ -4982,7 +5187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" spans="1:3" ht="21">
       <c r="A310" s="12" t="s">
         <v>286</v>
       </c>
@@ -4993,7 +5198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" spans="1:3" ht="21">
       <c r="A311" s="12" t="s">
         <v>286</v>
       </c>
@@ -5004,7 +5209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" spans="1:3" ht="21">
       <c r="A312" s="12" t="s">
         <v>286</v>
       </c>
@@ -5015,7 +5220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" spans="1:3" ht="21">
       <c r="A313" s="12" t="s">
         <v>286</v>
       </c>
@@ -5026,7 +5231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" spans="1:3" ht="21">
       <c r="A314" s="12" t="s">
         <v>286</v>
       </c>
@@ -5037,7 +5242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" spans="1:3" ht="21">
       <c r="A315" s="12" t="s">
         <v>286</v>
       </c>
@@ -5048,7 +5253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" spans="1:3" ht="21">
       <c r="A316" s="12" t="s">
         <v>286</v>
       </c>
@@ -5059,7 +5264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" spans="1:3" ht="21">
       <c r="A317" s="12" t="s">
         <v>286</v>
       </c>
@@ -5070,7 +5275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" spans="1:3" ht="21">
       <c r="A318" s="12" t="s">
         <v>286</v>
       </c>
@@ -5081,7 +5286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" spans="1:3" ht="21">
       <c r="A319" s="12" t="s">
         <v>286</v>
       </c>
@@ -5092,7 +5297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" spans="1:3" ht="21">
       <c r="A320" s="12" t="s">
         <v>286</v>
       </c>
@@ -5103,7 +5308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" spans="1:3" ht="21">
       <c r="A321" s="12" t="s">
         <v>286</v>
       </c>
@@ -5114,7 +5319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" spans="1:3" ht="21">
       <c r="A322" s="12" t="s">
         <v>286</v>
       </c>
@@ -5125,7 +5330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" spans="1:3" ht="21">
       <c r="A323" s="12" t="s">
         <v>286</v>
       </c>
@@ -5136,7 +5341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" spans="1:3" ht="21">
       <c r="A324" s="12" t="s">
         <v>286</v>
       </c>
@@ -5147,7 +5352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" spans="1:3" ht="21">
       <c r="A325" s="12" t="s">
         <v>286</v>
       </c>
@@ -5158,7 +5363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" spans="1:3" ht="21">
       <c r="A326" s="12" t="s">
         <v>286</v>
       </c>
@@ -5169,7 +5374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" spans="1:3" ht="21">
       <c r="A327" s="12" t="s">
         <v>286</v>
       </c>
@@ -5180,7 +5385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" spans="1:3" ht="21">
       <c r="A328" s="12" t="s">
         <v>286</v>
       </c>
@@ -5191,7 +5396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" spans="1:3" ht="21">
       <c r="A329" s="12" t="s">
         <v>286</v>
       </c>
@@ -5202,7 +5407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" spans="1:3" ht="21">
       <c r="A330" s="12" t="s">
         <v>286</v>
       </c>
@@ -5213,7 +5418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" spans="1:3" ht="21">
       <c r="A331" s="12" t="s">
         <v>286</v>
       </c>
@@ -5224,7 +5429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" spans="1:3" ht="21">
       <c r="A332" s="12" t="s">
         <v>286</v>
       </c>
@@ -5235,7 +5440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" spans="1:3" ht="21">
       <c r="A333" s="12" t="s">
         <v>286</v>
       </c>
@@ -5246,15 +5451,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" spans="1:3" ht="21">
       <c r="B334" s="17"/>
       <c r="C334" s="5"/>
     </row>
-    <row r="335" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" spans="1:3" ht="21">
       <c r="B335" s="17"/>
       <c r="C335" s="5"/>
     </row>
-    <row r="336" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" spans="1:3" ht="21">
       <c r="A336" s="12" t="s">
         <v>325</v>
       </c>
@@ -5265,7 +5470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" spans="1:3" ht="21">
       <c r="A337" s="12" t="s">
         <v>325</v>
       </c>
@@ -5276,7 +5481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" spans="1:3" ht="21">
       <c r="A338" s="12" t="s">
         <v>325</v>
       </c>
@@ -5287,7 +5492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" spans="1:3" ht="21">
       <c r="A339" s="12" t="s">
         <v>325</v>
       </c>
@@ -5298,7 +5503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" spans="1:3" ht="21">
       <c r="A340" s="12" t="s">
         <v>325</v>
       </c>
@@ -5309,7 +5514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" spans="1:3" ht="21">
       <c r="A341" s="12" t="s">
         <v>325</v>
       </c>
@@ -5320,7 +5525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" spans="1:3" ht="21">
       <c r="A342" s="12" t="s">
         <v>325</v>
       </c>
@@ -5331,7 +5536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" spans="1:3" ht="21">
       <c r="A343" s="12" t="s">
         <v>325</v>
       </c>
@@ -5342,7 +5547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" spans="1:3" ht="21">
       <c r="A344" s="12" t="s">
         <v>325</v>
       </c>
@@ -5353,7 +5558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" spans="1:3" ht="21">
       <c r="A345" s="12" t="s">
         <v>325</v>
       </c>
@@ -5364,7 +5569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" spans="1:3" ht="21">
       <c r="A346" s="12" t="s">
         <v>325</v>
       </c>
@@ -5375,7 +5580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" spans="1:3" ht="21">
       <c r="A347" s="12" t="s">
         <v>325</v>
       </c>
@@ -5386,7 +5591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" spans="1:3" ht="21">
       <c r="A348" s="12" t="s">
         <v>325</v>
       </c>
@@ -5397,7 +5602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" spans="1:3" ht="21">
       <c r="A349" s="12" t="s">
         <v>325</v>
       </c>
@@ -5408,7 +5613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" spans="1:3" ht="21">
       <c r="A350" s="12" t="s">
         <v>325</v>
       </c>
@@ -5419,7 +5624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" spans="1:3" ht="21">
       <c r="A351" s="12" t="s">
         <v>325</v>
       </c>
@@ -5430,7 +5635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" spans="1:3" ht="21">
       <c r="A352" s="12" t="s">
         <v>325</v>
       </c>
@@ -5441,7 +5646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" spans="1:3" ht="21">
       <c r="A353" s="12" t="s">
         <v>325</v>
       </c>
@@ -5452,15 +5657,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" spans="1:3" ht="21">
       <c r="B354" s="17"/>
       <c r="C354" s="5"/>
     </row>
-    <row r="355" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" spans="1:3" ht="21">
       <c r="B355" s="17"/>
       <c r="C355" s="5"/>
     </row>
-    <row r="356" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" spans="1:3" ht="21">
       <c r="A356" s="12" t="s">
         <v>344</v>
       </c>
@@ -5471,7 +5676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" spans="1:3" ht="21">
       <c r="A357" s="12" t="s">
         <v>344</v>
       </c>
@@ -5482,7 +5687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" spans="1:3" ht="21">
       <c r="A358" s="12" t="s">
         <v>344</v>
       </c>
@@ -5493,7 +5698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" spans="1:3" ht="21">
       <c r="A359" s="12" t="s">
         <v>344</v>
       </c>
@@ -5504,7 +5709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" spans="1:3" ht="21">
       <c r="A360" s="12" t="s">
         <v>344</v>
       </c>
@@ -5515,7 +5720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" spans="1:3" ht="21">
       <c r="A361" s="12" t="s">
         <v>344</v>
       </c>
@@ -5526,7 +5731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" spans="1:3" ht="21">
       <c r="A362" s="12" t="s">
         <v>344</v>
       </c>
@@ -5537,7 +5742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" spans="1:3" ht="21">
       <c r="A363" s="12" t="s">
         <v>344</v>
       </c>
@@ -5548,7 +5753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" spans="1:3" ht="21">
       <c r="A364" s="12" t="s">
         <v>344</v>
       </c>
@@ -5559,7 +5764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" spans="1:3" ht="21">
       <c r="A365" s="12" t="s">
         <v>344</v>
       </c>
@@ -5570,7 +5775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" spans="1:3" ht="21">
       <c r="A366" s="12" t="s">
         <v>344</v>
       </c>
@@ -5581,7 +5786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" spans="1:3" ht="21">
       <c r="A367" s="12" t="s">
         <v>344</v>
       </c>
@@ -5592,7 +5797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" spans="1:3" ht="21">
       <c r="A368" s="12" t="s">
         <v>344</v>
       </c>
@@ -5603,7 +5808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" spans="1:3" ht="21">
       <c r="A369" s="12" t="s">
         <v>344</v>
       </c>
@@ -5614,7 +5819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" spans="1:3" ht="21">
       <c r="A370" s="12" t="s">
         <v>344</v>
       </c>
@@ -5625,7 +5830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" spans="1:3" ht="21">
       <c r="A371" s="12" t="s">
         <v>344</v>
       </c>
@@ -5636,7 +5841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" spans="1:3" ht="21">
       <c r="A372" s="12" t="s">
         <v>344</v>
       </c>
@@ -5647,7 +5852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" spans="1:3" ht="21">
       <c r="A373" s="12" t="s">
         <v>344</v>
       </c>
@@ -5658,7 +5863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" spans="1:3" ht="21">
       <c r="A374" s="12" t="s">
         <v>344</v>
       </c>
@@ -5669,7 +5874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" spans="1:3" ht="21">
       <c r="A375" s="12" t="s">
         <v>344</v>
       </c>
@@ -5680,7 +5885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" spans="1:3" ht="21">
       <c r="A376" s="12" t="s">
         <v>344</v>
       </c>
@@ -5691,7 +5896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" spans="1:3" ht="21">
       <c r="A377" s="12" t="s">
         <v>344</v>
       </c>
@@ -5702,7 +5907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" spans="1:3" ht="21">
       <c r="A378" s="12" t="s">
         <v>344</v>
       </c>
@@ -5713,7 +5918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" spans="1:3" ht="21">
       <c r="A379" s="12" t="s">
         <v>344</v>
       </c>
@@ -5724,7 +5929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" spans="1:3" ht="21">
       <c r="A380" s="12" t="s">
         <v>344</v>
       </c>
@@ -5735,7 +5940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" spans="1:3" ht="21">
       <c r="A381" s="12" t="s">
         <v>344</v>
       </c>
@@ -5746,7 +5951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" spans="1:3" ht="21">
       <c r="A382" s="12" t="s">
         <v>344</v>
       </c>
@@ -5757,7 +5962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" spans="1:3" ht="21">
       <c r="A383" s="12" t="s">
         <v>344</v>
       </c>
@@ -5768,7 +5973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" spans="1:3" ht="21">
       <c r="A384" s="12" t="s">
         <v>344</v>
       </c>
@@ -5779,7 +5984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" spans="1:3" ht="21">
       <c r="A385" s="12" t="s">
         <v>344</v>
       </c>
@@ -5790,7 +5995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" spans="1:3" ht="21">
       <c r="A386" s="12" t="s">
         <v>344</v>
       </c>
@@ -5801,7 +6006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" spans="1:3" ht="21">
       <c r="A387" s="12" t="s">
         <v>344</v>
       </c>
@@ -5812,7 +6017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" spans="1:3" ht="21">
       <c r="A388" s="12" t="s">
         <v>344</v>
       </c>
@@ -5823,7 +6028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" spans="1:3" ht="21">
       <c r="A389" s="12" t="s">
         <v>344</v>
       </c>
@@ -5834,7 +6039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" spans="1:3" ht="21">
       <c r="A390" s="12" t="s">
         <v>344</v>
       </c>
@@ -5845,7 +6050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" spans="1:3" ht="21">
       <c r="A391" s="12" t="s">
         <v>344</v>
       </c>
@@ -5856,7 +6061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" spans="1:3" ht="21">
       <c r="A392" s="12" t="s">
         <v>344</v>
       </c>
@@ -5867,7 +6072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" spans="1:3" ht="21">
       <c r="A393" s="12" t="s">
         <v>344</v>
       </c>
@@ -5878,7 +6083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" spans="1:3" ht="21">
       <c r="A394" s="12" t="s">
         <v>344</v>
       </c>
@@ -5889,7 +6094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" spans="1:3" ht="21">
       <c r="A395" s="12" t="s">
         <v>344</v>
       </c>
@@ -5900,7 +6105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" spans="1:3" ht="21">
       <c r="A396" s="12" t="s">
         <v>344</v>
       </c>
@@ -5911,7 +6116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" spans="1:3" ht="21">
       <c r="A397" s="12" t="s">
         <v>344</v>
       </c>
@@ -5922,7 +6127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" spans="1:3" ht="21">
       <c r="A398" s="12" t="s">
         <v>344</v>
       </c>
@@ -5933,7 +6138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" spans="1:3" ht="21">
       <c r="A399" s="12" t="s">
         <v>344</v>
       </c>
@@ -5944,15 +6149,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" spans="1:3" ht="21">
       <c r="B400" s="17"/>
       <c r="C400" s="5"/>
     </row>
-    <row r="401" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" spans="1:3" ht="21">
       <c r="B401" s="17"/>
       <c r="C401" s="5"/>
     </row>
-    <row r="402" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" spans="1:3" ht="21">
       <c r="A402" s="12" t="s">
         <v>388</v>
       </c>
@@ -5963,7 +6168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" spans="1:3" ht="21">
       <c r="A403" s="12" t="s">
         <v>388</v>
       </c>
@@ -5974,7 +6179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" spans="1:3" ht="21">
       <c r="A404" s="12" t="s">
         <v>388</v>
       </c>
@@ -5985,7 +6190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" spans="1:3" ht="21">
       <c r="A405" s="12" t="s">
         <v>388</v>
       </c>
@@ -5996,7 +6201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" spans="1:3" ht="21">
       <c r="A406" s="12" t="s">
         <v>388</v>
       </c>
@@ -6007,7 +6212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" spans="1:3" ht="21">
       <c r="A407" s="12" t="s">
         <v>388</v>
       </c>
@@ -6018,15 +6223,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" spans="1:3" ht="21">
       <c r="B408" s="17"/>
       <c r="C408" s="5"/>
     </row>
-    <row r="409" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" spans="1:3" ht="21">
       <c r="B409" s="17"/>
       <c r="C409" s="5"/>
     </row>
-    <row r="410" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" spans="1:3" ht="21">
       <c r="A410" s="12" t="s">
         <v>394</v>
       </c>
@@ -6037,7 +6242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" spans="1:3" ht="21">
       <c r="A411" s="12" t="s">
         <v>394</v>
       </c>
@@ -6048,7 +6253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" spans="1:3" ht="21">
       <c r="A412" s="12" t="s">
         <v>394</v>
       </c>
@@ -6059,7 +6264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" spans="1:3" ht="21">
       <c r="A413" s="12" t="s">
         <v>394</v>
       </c>
@@ -6070,7 +6275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" spans="1:3" ht="21">
       <c r="A414" s="12" t="s">
         <v>394</v>
       </c>
@@ -6081,7 +6286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" spans="1:3" ht="21">
       <c r="A415" s="12" t="s">
         <v>394</v>
       </c>
@@ -6092,7 +6297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" spans="1:3" ht="21">
       <c r="A416" s="12" t="s">
         <v>394</v>
       </c>
@@ -6103,7 +6308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" spans="1:3" ht="21">
       <c r="A417" s="12" t="s">
         <v>394</v>
       </c>
@@ -6114,7 +6319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" spans="1:3" ht="21">
       <c r="A418" s="12" t="s">
         <v>394</v>
       </c>
@@ -6125,7 +6330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" spans="1:3" ht="21">
       <c r="A419" s="12" t="s">
         <v>394</v>
       </c>
@@ -6136,7 +6341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" spans="1:3" ht="21">
       <c r="A420" s="12" t="s">
         <v>394</v>
       </c>
@@ -6147,7 +6352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" spans="1:3" ht="21">
       <c r="A421" s="12" t="s">
         <v>394</v>
       </c>
@@ -6158,7 +6363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" spans="1:3" ht="21">
       <c r="A422" s="12" t="s">
         <v>394</v>
       </c>
@@ -6169,7 +6374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" spans="1:3" ht="21">
       <c r="A423" s="12" t="s">
         <v>394</v>
       </c>
@@ -6180,7 +6385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" spans="1:3" ht="21">
       <c r="A424" s="12" t="s">
         <v>394</v>
       </c>
@@ -6191,7 +6396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" spans="1:3" ht="21">
       <c r="A425" s="12" t="s">
         <v>394</v>
       </c>
@@ -6202,7 +6407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" spans="1:3" ht="21">
       <c r="A426" s="12" t="s">
         <v>394</v>
       </c>
@@ -6213,7 +6418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" spans="1:3" ht="21">
       <c r="A427" s="12" t="s">
         <v>394</v>
       </c>
@@ -6224,7 +6429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" spans="1:3" ht="21">
       <c r="A428" s="12" t="s">
         <v>394</v>
       </c>
@@ -6235,7 +6440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" spans="1:3" ht="21">
       <c r="A429" s="12" t="s">
         <v>394</v>
       </c>
@@ -6246,7 +6451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" spans="1:3" ht="21">
       <c r="A430" s="12" t="s">
         <v>394</v>
       </c>
@@ -6257,7 +6462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" spans="1:3" ht="21">
       <c r="A431" s="12" t="s">
         <v>394</v>
       </c>
@@ -6268,7 +6473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" spans="1:3" ht="21">
       <c r="A432" s="12" t="s">
         <v>394</v>
       </c>
@@ -6279,7 +6484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" spans="1:3" ht="21">
       <c r="A433" s="12" t="s">
         <v>394</v>
       </c>
@@ -6290,7 +6495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" spans="1:3" ht="21">
       <c r="A434" s="12" t="s">
         <v>394</v>
       </c>
@@ -6301,7 +6506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" spans="1:3" ht="21">
       <c r="A435" s="12" t="s">
         <v>394</v>
       </c>
@@ -6312,7 +6517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" spans="1:3" ht="21">
       <c r="A436" s="12" t="s">
         <v>394</v>
       </c>
@@ -6323,7 +6528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" spans="1:3" ht="21">
       <c r="A437" s="12" t="s">
         <v>394</v>
       </c>
@@ -6334,7 +6539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" spans="1:3" ht="21">
       <c r="A438" s="12" t="s">
         <v>394</v>
       </c>
@@ -6345,7 +6550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" spans="1:3" ht="21">
       <c r="A439" s="12" t="s">
         <v>394</v>
       </c>
@@ -6356,7 +6561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" spans="1:3" ht="21">
       <c r="A440" s="12" t="s">
         <v>394</v>
       </c>
@@ -6367,7 +6572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" spans="1:3" ht="21">
       <c r="A441" s="12" t="s">
         <v>394</v>
       </c>
@@ -6378,7 +6583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" spans="1:3" ht="21">
       <c r="A442" s="12" t="s">
         <v>394</v>
       </c>
@@ -6389,7 +6594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" spans="1:3" ht="21">
       <c r="A443" s="12" t="s">
         <v>394</v>
       </c>
@@ -6400,7 +6605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" spans="1:3" ht="21">
       <c r="A444" s="12" t="s">
         <v>394</v>
       </c>
@@ -6411,7 +6616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" spans="1:3" ht="21">
       <c r="A445" s="12" t="s">
         <v>394</v>
       </c>
@@ -6422,7 +6627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" spans="1:3" ht="21">
       <c r="A446" s="12" t="s">
         <v>394</v>
       </c>
@@ -6433,7 +6638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" spans="1:3" ht="21">
       <c r="A447" s="12" t="s">
         <v>394</v>
       </c>
@@ -6444,7 +6649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" spans="1:3" ht="21">
       <c r="A448" s="12" t="s">
         <v>394</v>
       </c>
@@ -6455,7 +6660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" spans="1:3" ht="21">
       <c r="A449" s="12" t="s">
         <v>394</v>
       </c>
@@ -6466,7 +6671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" spans="1:3" ht="21">
       <c r="A450" s="12" t="s">
         <v>394</v>
       </c>
@@ -6477,7 +6682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" spans="1:3" ht="21">
       <c r="A451" s="12" t="s">
         <v>394</v>
       </c>
@@ -6488,7 +6693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" spans="1:3" ht="21">
       <c r="A452" s="12" t="s">
         <v>394</v>
       </c>
@@ -6499,7 +6704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" spans="1:3" ht="21">
       <c r="A453" s="12" t="s">
         <v>394</v>
       </c>
@@ -6510,7 +6715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" spans="1:3" ht="21">
       <c r="A454" s="12" t="s">
         <v>394</v>
       </c>
@@ -6521,7 +6726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" spans="1:3" ht="21">
       <c r="A455" s="12" t="s">
         <v>394</v>
       </c>
@@ -6532,7 +6737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" spans="1:3" ht="21">
       <c r="A456" s="12" t="s">
         <v>394</v>
       </c>
@@ -6543,7 +6748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="457" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" spans="1:3" ht="21">
       <c r="A457" s="12" t="s">
         <v>394</v>
       </c>
@@ -6554,7 +6759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" spans="1:3" ht="21">
       <c r="A458" s="12" t="s">
         <v>394</v>
       </c>
@@ -6565,7 +6770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" spans="1:3" ht="21">
       <c r="A459" s="12" t="s">
         <v>394</v>
       </c>
@@ -6576,7 +6781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" spans="1:3" ht="21">
       <c r="A460" s="12" t="s">
         <v>394</v>
       </c>
@@ -6587,7 +6792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" spans="1:3" ht="21">
       <c r="A461" s="12" t="s">
         <v>394</v>
       </c>
@@ -6598,7 +6803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" spans="1:3" ht="21">
       <c r="A462" s="12" t="s">
         <v>394</v>
       </c>
@@ -6609,7 +6814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="463" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" spans="1:3" ht="21">
       <c r="A463" s="12" t="s">
         <v>394</v>
       </c>
@@ -6620,7 +6825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" spans="1:3" ht="21">
       <c r="A464" s="12" t="s">
         <v>394</v>
       </c>
@@ -6631,7 +6836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="465" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" spans="1:3" ht="21">
       <c r="A465" s="12" t="s">
         <v>394</v>
       </c>
@@ -6642,7 +6847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" spans="1:3" ht="21">
       <c r="A466" s="12" t="s">
         <v>394</v>
       </c>
@@ -6653,7 +6858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="467" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" spans="1:3" ht="21">
       <c r="A467" s="12" t="s">
         <v>394</v>
       </c>
@@ -6664,7 +6869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="468" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" spans="1:3" ht="21">
       <c r="A468" s="12" t="s">
         <v>394</v>
       </c>
@@ -6675,7 +6880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="469" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" spans="1:3" ht="21">
       <c r="A469" s="12" t="s">
         <v>394</v>
       </c>
@@ -6686,16 +6891,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" spans="1:3" ht="21">
       <c r="B470" s="17"/>
       <c r="C470" s="5"/>
     </row>
-    <row r="471" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" spans="1:3" ht="21">
       <c r="A471" s="12"/>
       <c r="B471" s="17"/>
       <c r="C471" s="5"/>
     </row>
-    <row r="472" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" spans="1:3" ht="21">
       <c r="A472" s="12" t="s">
         <v>454</v>
       </c>
@@ -6706,7 +6911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="473" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" spans="1:3" ht="21">
       <c r="A473" s="12" t="s">
         <v>454</v>
       </c>
@@ -6717,7 +6922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="474" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" spans="1:3" ht="21">
       <c r="A474" s="12" t="s">
         <v>454</v>
       </c>
@@ -6728,7 +6933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" spans="1:3" ht="21">
       <c r="A475" s="12" t="s">
         <v>454</v>
       </c>
@@ -6739,7 +6944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="476" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" spans="1:3" ht="21">
       <c r="A476" s="12" t="s">
         <v>454</v>
       </c>
@@ -6750,7 +6955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="477" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" spans="1:3" ht="21">
       <c r="A477" s="12" t="s">
         <v>454</v>
       </c>
@@ -6761,7 +6966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" spans="1:3" ht="21">
       <c r="A478" s="12" t="s">
         <v>454</v>
       </c>
@@ -6772,7 +6977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" spans="1:3" ht="21">
       <c r="A479" s="12" t="s">
         <v>454</v>
       </c>
@@ -6783,7 +6988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="480" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" spans="1:3" ht="21">
       <c r="A480" s="12" t="s">
         <v>454</v>
       </c>
@@ -6794,7 +6999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" spans="1:3" ht="21">
       <c r="A481" s="12" t="s">
         <v>454</v>
       </c>
@@ -6807,459 +7012,454 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw "/>
-    <hyperlink ref="B6" r:id="rId2" display="Reverse the array"/>
-    <hyperlink ref="B7" r:id="rId3" display="Find the maximum and minimum element in an array"/>
-    <hyperlink ref="B8" r:id="rId4" display="Find the &quot;Kth&quot; max and min element of an array "/>
-    <hyperlink ref="B9" r:id="rId5" display="Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo"/>
-    <hyperlink ref="B10" r:id="rId6" display="Move all the negative elements to one side of the array "/>
-    <hyperlink ref="B11" r:id="rId7" display="Find the Union and Intersection of the two sorted arrays."/>
-    <hyperlink ref="B12" r:id="rId8" display="Write a program to cyclically rotate an array by one."/>
-    <hyperlink ref="B13" r:id="rId9" display="find Largest sum contiguous Subarray [V. IMP]"/>
-    <hyperlink ref="B14" r:id="rId10" display="Minimise the maximum difference between heights [V.IMP]"/>
-    <hyperlink ref="B15" r:id="rId11" display="Minimum no. of Jumps to reach end of an array"/>
-    <hyperlink ref="B16" r:id="rId12" display="find duplicate in an array of N+1 Integers"/>
-    <hyperlink ref="B17" r:id="rId13" display="Merge 2 sorted arrays without using Extra space."/>
-    <hyperlink ref="B18" r:id="rId14" display="Kadane's Algo [V.V.V.V.V IMP]"/>
-    <hyperlink ref="B19" r:id="rId15" display="Merge Intervals"/>
-    <hyperlink ref="B20" r:id="rId16" display="Next Permutation"/>
-    <hyperlink ref="B21" r:id="rId17" display="Count Inversion"/>
-    <hyperlink ref="B22" r:id="rId18" display="Best time to buy and Sell stock"/>
-    <hyperlink ref="B23" r:id="rId19" display="find all pairs on integer array whose sum is equal to given number"/>
-    <hyperlink ref="B24" r:id="rId20" display="find common elements In 3 sorted arrays"/>
-    <hyperlink ref="B25" r:id="rId21" display="Rearrange the array in alternating positive and negative items with O(1) extra space"/>
-    <hyperlink ref="B26" r:id="rId22" display="Find if there is any subarray with sum equal to 0"/>
-    <hyperlink ref="B27" r:id="rId23" display="Find factorial of a large number"/>
-    <hyperlink ref="B28" r:id="rId24" display="find maximum product subarray "/>
-    <hyperlink ref="B29" r:id="rId25" display="Find longest coinsecutive subsequence"/>
-    <hyperlink ref="B30" r:id="rId26" display="Given an array of size n and a number k, fin all elements that appear more than &quot; n/k &quot; times."/>
-    <hyperlink ref="B31" r:id="rId27" display="Maximum profit by buying and selling a share atmost twice"/>
-    <hyperlink ref="B32" r:id="rId28" display="Find whether an array is a subset of another array"/>
-    <hyperlink ref="B33" r:id="rId29" display="Find the triplet that sum to a given value"/>
-    <hyperlink ref="B34" r:id="rId30" display="Trapping Rain water problem"/>
-    <hyperlink ref="B35" r:id="rId31" display="Chocolate Distribution problem"/>
-    <hyperlink ref="B36" r:id="rId32" display="Smallest Subarray with sum greater than a given value"/>
-    <hyperlink ref="B37" r:id="rId33" display="Three way partitioning of an array around a given value"/>
-    <hyperlink ref="B38" r:id="rId34" display="Minimum swaps required bring elements less equal K together"/>
-    <hyperlink ref="B39" r:id="rId35" display="Minimum no. of operations required to make an array palindrome"/>
-    <hyperlink ref="B40" r:id="rId36" display="Median of 2 sorted arrays of equal size"/>
-    <hyperlink ref="B41" r:id="rId37" display="Median of 2 sorted arrays of different size"/>
-    <hyperlink ref="B44" r:id="rId38" display="Spiral traversal on a Matrix"/>
-    <hyperlink ref="B45" r:id="rId39" display="Search an element in a matriix"/>
-    <hyperlink ref="B46" r:id="rId40" display="Find median in a row wise sorted matrix"/>
-    <hyperlink ref="B47" r:id="rId41" display="Find row with maximum no. of 1's"/>
-    <hyperlink ref="B48" r:id="rId42" display="Print elements in sorted order using row-column wise sorted matrix"/>
-    <hyperlink ref="B49" r:id="rId43" display="Maximum size rectangle"/>
-    <hyperlink ref="B50" r:id="rId44" display="Find a specific pair in matrix"/>
-    <hyperlink ref="B51" r:id="rId45" display="Rotate matrix by 90 degrees"/>
-    <hyperlink ref="B52" r:id="rId46" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
-    <hyperlink ref="B53" r:id="rId47" display="Common elements in all rows of a given matrix"/>
-    <hyperlink ref="B56" r:id="rId48" display="Reverse a String"/>
-    <hyperlink ref="B57" r:id="rId49" display="Check whether a String is Palindrome or not"/>
-    <hyperlink ref="B58" r:id="rId50" display="Find Duplicate characters in a string"/>
-    <hyperlink ref="B60" r:id="rId51" display="Write a Code to check whether one string is a rotation of another"/>
-    <hyperlink ref="B61" r:id="rId52" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
-    <hyperlink ref="B62" r:id="rId53" display="Count and Say problem"/>
-    <hyperlink ref="B63" r:id="rId54" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
-    <hyperlink ref="B64" r:id="rId55" display="Find Longest Recurring Subsequence in String"/>
-    <hyperlink ref="B65" r:id="rId56" display="Print all Subsequences of a string."/>
-    <hyperlink ref="B66" r:id="rId57" display="Print all the permutations of the given string"/>
-    <hyperlink ref="B67" r:id="rId58" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
-    <hyperlink ref="B68" r:id="rId59" display="Word Wrap Problem [VERY IMP]."/>
-    <hyperlink ref="B69" r:id="rId60" display="EDIT Distance [Very Imp]"/>
-    <hyperlink ref="B70" r:id="rId61" display="Find next greater number with same set of digits. [Very Very IMP]"/>
-    <hyperlink ref="B71" r:id="rId62" display="Balanced Parenthesis problem.[Imp]"/>
-    <hyperlink ref="B72" r:id="rId63" display="Word break Problem[ Very Imp]"/>
-    <hyperlink ref="B73" r:id="rId64" display="Rabin Karp Algo"/>
-    <hyperlink ref="B74" r:id="rId65" display="KMP Algo"/>
-    <hyperlink ref="B75" r:id="rId66" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
-    <hyperlink ref="B76" r:id="rId67" display="Minimum number of bracket reversals needed to make an expression balanced."/>
-    <hyperlink ref="B77" r:id="rId68" display="Count All Palindromic Subsequence in a given String."/>
-    <hyperlink ref="B78" r:id="rId69" display="Count of number of given string in 2D character array"/>
-    <hyperlink ref="B79" r:id="rId70" display="Search a Word in a 2D Grid of characters."/>
-    <hyperlink ref="B80" r:id="rId71" display="Boyer Moore Algorithm for Pattern Searching."/>
-    <hyperlink ref="B81" r:id="rId72" display="Converting Roman Numerals to Decimal"/>
-    <hyperlink ref="B82" r:id="rId73" display="Longest Common Prefix"/>
-    <hyperlink ref="B83" r:id="rId74" display="Number of flips to make binary string alternate"/>
-    <hyperlink ref="B84" r:id="rId75" display="Find the first repeated word in string."/>
-    <hyperlink ref="B85" r:id="rId76" display="Minimum number of swaps for bracket balancing."/>
-    <hyperlink ref="B86" r:id="rId77" display="Find the longest common subsequence between two strings."/>
-    <hyperlink ref="B87" r:id="rId78" display="Program to generate all possible valid IP addresses from given  string."/>
-    <hyperlink ref="B88" r:id="rId79" display="Write a program tofind the smallest window that contains all characters of string itself."/>
-    <hyperlink ref="B89" r:id="rId80" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B90" r:id="rId81" display="Minimum characters to be added at front to make string palindrome"/>
-    <hyperlink ref="B91" r:id="rId82" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B92" r:id="rId83" display="Find the smallest window in a string containing all characters of another string"/>
-    <hyperlink ref="B93" r:id="rId84" display="Recursively remove all adjacent duplicates"/>
-    <hyperlink ref="B94" r:id="rId85" display="String matching where one string contains wildcard characters"/>
-    <hyperlink ref="B95" r:id="rId86" display="Function to find Number of customers who could not get a computer"/>
-    <hyperlink ref="B96" r:id="rId87" display="Transform One String to Another using Minimum Number of Given Operation"/>
-    <hyperlink ref="B97" r:id="rId88" display="Check if two given strings are isomorphic to each other"/>
-    <hyperlink ref="B98" r:id="rId89" display="Recursively print all sentences that can be formed from list of word lists"/>
-    <hyperlink ref="B101" r:id="rId90" display="Find first and last positions of an element in a sorted array"/>
-    <hyperlink ref="B102" r:id="rId91" display="Find a Fixed Point (Value equal to index) in a given array"/>
-    <hyperlink ref="B103" r:id="rId92" display="Search in a rotated sorted array"/>
-    <hyperlink ref="B104" r:id="rId93" display="square root of an integer"/>
-    <hyperlink ref="B105" r:id="rId94" display="Maximum and minimum of an array using minimum number of comparisons"/>
-    <hyperlink ref="B106" r:id="rId95" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." display="Optimum location of point to minimize total distance"/>
-    <hyperlink ref="B107" r:id="rId96" display="Find the repeating and the missing"/>
-    <hyperlink ref="B108" r:id="rId97" display="find majority element"/>
-    <hyperlink ref="B109" r:id="rId98" display="Searching in an array where adjacent differ by at most k"/>
-    <hyperlink ref="B110" r:id="rId99" display="find a pair with a given difference"/>
-    <hyperlink ref="B111" r:id="rId100" display="find four elements that sum to a given value"/>
-    <hyperlink ref="B112" r:id="rId101" display="maximum sum such that no 2 elements are adjacent"/>
-    <hyperlink ref="B113" r:id="rId102" display="Count triplet with sum smaller than a given value"/>
-    <hyperlink ref="B114" r:id="rId103" display="merge 2 sorted arrays"/>
-    <hyperlink ref="B115" r:id="rId104" display="print all subarrays with 0 sum"/>
-    <hyperlink ref="B116" r:id="rId105" display="Product array Puzzle"/>
-    <hyperlink ref="B117" r:id="rId106" display="Sort array according to count of set bits"/>
-    <hyperlink ref="B118" r:id="rId107" display="minimum no. of swaps required to sort the array"/>
-    <hyperlink ref="B119" r:id="rId108" display="Bishu and Soldiers"/>
-    <hyperlink ref="B120" r:id="rId109" display="Rasta and Kheshtak"/>
-    <hyperlink ref="B121" r:id="rId110" display="Kth smallest number again"/>
-    <hyperlink ref="B122" r:id="rId111" display="Find pivot element in a sorted array"/>
-    <hyperlink ref="B123" r:id="rId112" display="K-th Element of Two Sorted Arrays"/>
-    <hyperlink ref="B124" r:id="rId113" display="Aggressive cows"/>
-    <hyperlink ref="B125" r:id="rId114" display="Book Allocation Problem"/>
-    <hyperlink ref="B126" r:id="rId115" display="EKOSPOJ:"/>
-    <hyperlink ref="B127" r:id="rId116" display="Job Scheduling Algo"/>
-    <hyperlink ref="B128" r:id="rId117" display="Missing Number in AP"/>
-    <hyperlink ref="B129" r:id="rId118" display="Smallest number with atleastn trailing zeroes infactorial"/>
-    <hyperlink ref="B130" r:id="rId119" display="Painters Partition Problem:"/>
-    <hyperlink ref="B131" r:id="rId120" display="ROTI-Prata SPOJ"/>
-    <hyperlink ref="B132" r:id="rId121" display="DoubleHelix SPOJ"/>
-    <hyperlink ref="B133" r:id="rId122" display="Subset Sums"/>
-    <hyperlink ref="B134" r:id="rId123" display="Findthe inversion count"/>
-    <hyperlink ref="B135" r:id="rId124" display="Implement Merge-sort in-place"/>
-    <hyperlink ref="B136" r:id="rId125" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
-    <hyperlink ref="B139" r:id="rId126" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
-    <hyperlink ref="B140" r:id="rId127" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
-    <hyperlink ref="B141" r:id="rId128" display="Write a program to Detect loop in a linked list."/>
-    <hyperlink ref="B142" r:id="rId129" display="Write a program to Delete loop in a linked list."/>
-    <hyperlink ref="B143" r:id="rId130" display="Find the starting point of the loop. "/>
-    <hyperlink ref="B144" r:id="rId131" display="Remove Duplicates in a sorted Linked List."/>
-    <hyperlink ref="B145" r:id="rId132" display="Remove Duplicates in a Un-sorted Linked List."/>
-    <hyperlink ref="B146" r:id="rId133" display="Write a Program to Move the last element to Front in a Linked List."/>
-    <hyperlink ref="B147" r:id="rId134" display="Add “1” to a number represented as a Linked List."/>
-    <hyperlink ref="B148" r:id="rId135" display="Add two numbers represented by linked lists."/>
-    <hyperlink ref="B149" r:id="rId136" display="Intersection of two Sorted Linked List."/>
-    <hyperlink ref="B150" r:id="rId137" display="Intersection Point of two Linked Lists."/>
-    <hyperlink ref="B151" r:id="rId138" display="Merge Sort For Linked lists.[Very Important]"/>
-    <hyperlink ref="B152" r:id="rId139" display="Quicksort for Linked Lists.[Very Important]"/>
-    <hyperlink ref="B153" r:id="rId140" display="Find the middle Element of a linked list."/>
-    <hyperlink ref="B154" r:id="rId141" display="Check if a linked list is a circular linked list."/>
-    <hyperlink ref="B155" r:id="rId142" display="Split a Circular linked list into two halves."/>
-    <hyperlink ref="B156" r:id="rId143" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
-    <hyperlink ref="B157" r:id="rId144" display="Deletion from a Circular Linked List."/>
-    <hyperlink ref="B158" r:id="rId145" display="Reverse a Doubly Linked list."/>
-    <hyperlink ref="B159" r:id="rId146" display="Find pairs with a given sum in a DLL."/>
-    <hyperlink ref="B160" r:id="rId147" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
-    <hyperlink ref="B161" r:id="rId148" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
-    <hyperlink ref="B162" r:id="rId149" display="Rotate DoublyLinked list by N nodes."/>
-    <hyperlink ref="B163" r:id="rId150" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
-    <hyperlink ref="B166" r:id="rId151" display="Flatten a Linked List"/>
-    <hyperlink ref="B167" r:id="rId152" display="Sort a LL of 0's, 1's and 2's"/>
-    <hyperlink ref="B168" r:id="rId153" display="Clone a linked list with next and random pointer"/>
-    <hyperlink ref="B169" r:id="rId154" display="Merge K sorted Linked list"/>
-    <hyperlink ref="B170" r:id="rId155" display="Multiply 2 no. represented by LL"/>
-    <hyperlink ref="B171" r:id="rId156" display="Delete nodes which have a greater value on right side"/>
-    <hyperlink ref="B172" r:id="rId157" display="Segregate even and odd nodes in a Linked List"/>
-    <hyperlink ref="B173" r:id="rId158" display="Program for n’th node from the end of a Linked List"/>
-    <hyperlink ref="B174" r:id="rId159" display="Find the first non-repeating character from a stream of characters"/>
-    <hyperlink ref="B177" r:id="rId160" display="level order traversal"/>
-    <hyperlink ref="B178" r:id="rId161" display="Reverse Level Order traversal"/>
-    <hyperlink ref="B179" r:id="rId162" display="Height of a tree"/>
-    <hyperlink ref="B180" r:id="rId163" display="Diameter of a tree"/>
-    <hyperlink ref="B181" r:id="rId164" display="Mirror of a tree"/>
-    <hyperlink ref="B182" r:id="rId165" display="Inorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B183" r:id="rId166" display="Preorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B184" r:id="rId167" display="Postorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B185" r:id="rId168" display="Left View of a tree"/>
-    <hyperlink ref="B186" r:id="rId169" display="Right View of Tree"/>
-    <hyperlink ref="B187" r:id="rId170" display="Top View of a tree"/>
-    <hyperlink ref="B188" r:id="rId171" display="Bottom View of a tree"/>
-    <hyperlink ref="B189" r:id="rId172" display="Zig-Zag traversal of a binary tree"/>
-    <hyperlink ref="B190" r:id="rId173" display="Check if a tree is balanced or not"/>
-    <hyperlink ref="B191" r:id="rId174" display="Diagnol Traversal of a Binary tree"/>
-    <hyperlink ref="B192" r:id="rId175" display="Boundary traversal of a Binary tree"/>
-    <hyperlink ref="B193" r:id="rId176" display="Construct Binary Tree from String with Bracket Representation"/>
-    <hyperlink ref="B194" r:id="rId177" display="Convert Binary tree into Doubly Linked List"/>
-    <hyperlink ref="B195" r:id="rId178" display="Convert Binary tree into Sum tree"/>
-    <hyperlink ref="B196" r:id="rId179" display="Construct Binary tree from Inorder and preorder traversal"/>
-    <hyperlink ref="B197" r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="Find minimum swaps required to convert a Binary tree into BST"/>
-    <hyperlink ref="B198" r:id="rId181" display="Check if Binary tree is Sum tree or not"/>
-    <hyperlink ref="B199" r:id="rId182" display="Check if all leaf nodes are at same level or not"/>
-    <hyperlink ref="B200" r:id="rId183" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
-    <hyperlink ref="B201" r:id="rId184" display="Check if 2 trees are mirror or not"/>
-    <hyperlink ref="B202" r:id="rId185" display="Sum of Nodes on the Longest path from root to leaf node "/>
-    <hyperlink ref="B203" r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="Check if given graph is tree or not.  [ IMP ]"/>
-    <hyperlink ref="B204" r:id="rId187" display="Find Largest subtree sum in a tree"/>
-    <hyperlink ref="B205" r:id="rId188" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
-    <hyperlink ref="B206" r:id="rId189" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
-    <hyperlink ref="B207" r:id="rId190" display="Find LCA in a Binary tree"/>
-    <hyperlink ref="B208" r:id="rId191" display="Find distance between 2 nodes in a Binary tree"/>
-    <hyperlink ref="B209" r:id="rId192" display="Kth Ancestor of node in a Binary tree"/>
-    <hyperlink ref="B210" r:id="rId193" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
-    <hyperlink ref="B211" r:id="rId194" display="Tree Isomorphism Problem"/>
-    <hyperlink ref="B214" r:id="rId195" display="Fina a value in a BST"/>
-    <hyperlink ref="B215" r:id="rId196" display="Deletion of a node in a BST"/>
-    <hyperlink ref="B216" r:id="rId197" display="Find min and max value in a BST"/>
-    <hyperlink ref="B217" r:id="rId198" display="Find inorder successor and inorder predecessor in a BST"/>
-    <hyperlink ref="B218" r:id="rId199" display="Check if a tree is a BST or not "/>
-    <hyperlink ref="B219" r:id="rId200" display="Populate Inorder successor of all nodes"/>
-    <hyperlink ref="B220" r:id="rId201" display="Find LCA  of 2 nodes in a BST"/>
-    <hyperlink ref="B221" r:id="rId202" display="Construct BST from preorder traversal"/>
-    <hyperlink ref="B222" r:id="rId203" display="Convert Binary tree into BST"/>
-    <hyperlink ref="B223" r:id="rId204" display="Convert a normal BST into a Balanced BST"/>
-    <hyperlink ref="B224" r:id="rId205" display="Merge two BST [ V.V.V&gt;IMP ]"/>
-    <hyperlink ref="B225" r:id="rId206" display="Find Kth largest element in a BST"/>
-    <hyperlink ref="B226" r:id="rId207" display="Find Kth smallest element in a BST"/>
-    <hyperlink ref="B227" r:id="rId208" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
-    <hyperlink ref="B228" r:id="rId209" display="Find the median of BST in O(n) time and O(1) space"/>
-    <hyperlink ref="B229" r:id="rId210" display="Count BST ndoes that lie in a given range"/>
-    <hyperlink ref="B230" r:id="rId211" display="Replace every element with the least greater element on its right"/>
-    <hyperlink ref="B231" r:id="rId212" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
-    <hyperlink ref="B232" r:id="rId213" display="Check preorder is valid or not"/>
-    <hyperlink ref="B233" r:id="rId214" display="Check whether BST contains Dead end"/>
-    <hyperlink ref="B234" r:id="rId215" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
-    <hyperlink ref="B235" r:id="rId216" display="Flatten BST to sorted list"/>
-    <hyperlink ref="B238" r:id="rId217" display="Activity Selection Problem"/>
-    <hyperlink ref="B239" r:id="rId218" display="Job SequencingProblem"/>
-    <hyperlink ref="B240" r:id="rId219" display="Huffman Coding"/>
-    <hyperlink ref="B241" r:id="rId220" display="Water Connection Problem"/>
-    <hyperlink ref="B242" r:id="rId221" display="Fractional Knapsack Problem"/>
-    <hyperlink ref="B243" r:id="rId222" display="Greedy Algorithm to find Minimum number of Coins"/>
-    <hyperlink ref="B244" r:id="rId223" display="Maximum trains for which stoppage can be provided"/>
-    <hyperlink ref="B245" r:id="rId224" display="Minimum Platforms Problem"/>
-    <hyperlink ref="B246" r:id="rId225" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
-    <hyperlink ref="B247" r:id="rId226" display="Find the minimum and maximum amount to buy all N candies"/>
-    <hyperlink ref="B248" r:id="rId227" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B249" r:id="rId228" display="Minimum Cost to cut a board into squares"/>
-    <hyperlink ref="B250" r:id="rId229" display="Check if it is possible to survive on Island"/>
-    <hyperlink ref="B251" r:id="rId230" display="Find maximum meetings in one room"/>
-    <hyperlink ref="B252" r:id="rId231" display="Maximum product subset of an array"/>
-    <hyperlink ref="B253" r:id="rId232" display="Maximize array sum after K negations"/>
-    <hyperlink ref="B254" r:id="rId233" display="Maximize the sum of arr[i]*i"/>
-    <hyperlink ref="B255" r:id="rId234" display="Maximum sum of absolute difference of an array"/>
-    <hyperlink ref="B256" r:id="rId235" display="Maximize sum of consecutive differences in a circular array"/>
-    <hyperlink ref="B257" r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." display="Minimum sum of absolute difference of pairs of two arrays"/>
-    <hyperlink ref="B258" r:id="rId237" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
-    <hyperlink ref="B259" r:id="rId238" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
-    <hyperlink ref="B260" r:id="rId239" display="Smallest subset with sum greater than all other elements"/>
-    <hyperlink ref="B261" r:id="rId240" display="Chocolate Distribution Problem"/>
-    <hyperlink ref="B262" r:id="rId241" display="DEFKIN -Defense of a Kingdom"/>
-    <hyperlink ref="B263" r:id="rId242" display="DIEHARD -DIE HARD"/>
-    <hyperlink ref="B264" r:id="rId243" display="GERGOVIA -Wine trading in Gergovia"/>
-    <hyperlink ref="B265" r:id="rId244" display="Picking Up Chicks"/>
-    <hyperlink ref="B266" r:id="rId245" display="CHOCOLA –Chocolate"/>
-    <hyperlink ref="B267" r:id="rId246" display="ARRANGE -Arranging Amplifiers"/>
-    <hyperlink ref="B268" r:id="rId247" display="K Centers Problem"/>
-    <hyperlink ref="B269" r:id="rId248" display="Minimum Cost of ropes"/>
-    <hyperlink ref="B270" r:id="rId249" display="Find smallest number with given number of digits and sum of digits"/>
-    <hyperlink ref="B271" r:id="rId250" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B272" r:id="rId251" display="Find maximum sum possible equal sum of three stacks"/>
-    <hyperlink ref="B275" r:id="rId252" display="Rat in a maze Problem"/>
-    <hyperlink ref="B276" r:id="rId253" display="Printing all solutions in N-Queen Problem"/>
-    <hyperlink ref="B277" r:id="rId254" display="Word Break Problem using Backtracking"/>
-    <hyperlink ref="B278" r:id="rId255" display="Remove Invalid Parentheses"/>
-    <hyperlink ref="B279" r:id="rId256" display="Sudoku Solver"/>
-    <hyperlink ref="B280" r:id="rId257" display="m Coloring Problem"/>
-    <hyperlink ref="B281" r:id="rId258" display="Print all palindromic partitions of a string"/>
-    <hyperlink ref="B282" r:id="rId259" display="Subset Sum Problem"/>
-    <hyperlink ref="B283" r:id="rId260" display="The Knight’s tour problem"/>
-    <hyperlink ref="B284" r:id="rId261" display="Tug of War"/>
-    <hyperlink ref="B285" r:id="rId262" display="Find shortest safe route in a path with landmines"/>
-    <hyperlink ref="B286" r:id="rId263" display="Combinational Sum"/>
-    <hyperlink ref="B287" r:id="rId264" display="Find Maximum number possible by doing at-most K swaps"/>
-    <hyperlink ref="B288" r:id="rId265" display="Print all permutations of a string "/>
-    <hyperlink ref="B289" r:id="rId266" display="Find if there is a path of more than k length from a source"/>
-    <hyperlink ref="B290" r:id="rId267" display="Longest Possible Route in a Matrix with Hurdles"/>
-    <hyperlink ref="B291" r:id="rId268" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
-    <hyperlink ref="B292" r:id="rId269" display="Partition of a set intoK subsets with equal sum"/>
-    <hyperlink ref="B293" r:id="rId270" display="Find the K-th Permutation Sequence of first N natural numbers"/>
-    <hyperlink ref="B296" r:id="rId271" display=" Implement Stack from Scratch"/>
-    <hyperlink ref="B297" r:id="rId272" display=" Implement Queue from Scratch"/>
-    <hyperlink ref="B298" r:id="rId273" display="Implement 2 stack in an array"/>
-    <hyperlink ref="B299" r:id="rId274" display="find the middle element of a stack"/>
-    <hyperlink ref="B300" r:id="rId275" display="Implement &quot;N&quot; stacks in an Array"/>
-    <hyperlink ref="B301" r:id="rId276" display="Check the expression has valid or Balanced parenthesis or not."/>
-    <hyperlink ref="B302" r:id="rId277" display="Reverse a String using Stack"/>
-    <hyperlink ref="B303" r:id="rId278" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
-    <hyperlink ref="B304" r:id="rId279" display="Find the next Greater element"/>
-    <hyperlink ref="B305" r:id="rId280" display="The celebrity Problem"/>
-    <hyperlink ref="B306" r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." display="Arithmetic Expression evaluation"/>
-    <hyperlink ref="B307" r:id="rId282" display="Evaluation of Postfix expression"/>
-    <hyperlink ref="B308" r:id="rId283" display="Implement a method to insert an element at its bottom without using any other data structure."/>
-    <hyperlink ref="B309" r:id="rId284" display="Reverse a stack using recursion"/>
-    <hyperlink ref="B310" r:id="rId285" display="Sort a Stack using recursion"/>
-    <hyperlink ref="B311" r:id="rId286" display="Merge Overlapping Intervals"/>
-    <hyperlink ref="B312" r:id="rId287" display="Largest rectangular Area in Histogram"/>
-    <hyperlink ref="B313" r:id="rId288" display="Length of the Longest Valid Substring"/>
-    <hyperlink ref="B314" r:id="rId289" display="Expression contains redundant bracket or not"/>
-    <hyperlink ref="B315" r:id="rId290" display="Implement Stack using Queue"/>
-    <hyperlink ref="B316" r:id="rId291" display="Implement Stack using Deque"/>
-    <hyperlink ref="B317" r:id="rId292" display="Stack Permutations (Check if an array is stack permutation of other)"/>
-    <hyperlink ref="B318" r:id="rId293" display="Implement Queue using Stack  "/>
-    <hyperlink ref="B319" r:id="rId294" display="Implement &quot;n&quot; queue in an array"/>
-    <hyperlink ref="B320" r:id="rId295" display="Implement a Circular queue"/>
-    <hyperlink ref="B321" r:id="rId296" display="LRU Cache Implementationa"/>
-    <hyperlink ref="B322" r:id="rId297" display="Reverse a Queue using recursion"/>
-    <hyperlink ref="B323" r:id="rId298" display="Reverse the first “K” elements of a queue"/>
-    <hyperlink ref="B324" r:id="rId299" display="Interleave the first half of the queue with second half"/>
-    <hyperlink ref="B325" r:id="rId300" display="Find the first circular tour that visits all Petrol Pumps"/>
-    <hyperlink ref="B326" r:id="rId301" display="Minimum time required to rot all oranges"/>
-    <hyperlink ref="B327" r:id="rId302" display="Distance of nearest cell having 1 in a binary matrix"/>
-    <hyperlink ref="B328" r:id="rId303" display="First negative integer in every window of size “k”"/>
-    <hyperlink ref="B329" r:id="rId304" display="Check if all levels of two trees are anagrams or not."/>
-    <hyperlink ref="B330" r:id="rId305" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
-    <hyperlink ref="B331" r:id="rId306" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
-    <hyperlink ref="B332" r:id="rId307" display="Queue based approach or first non-repeating character in a stream."/>
-    <hyperlink ref="B333" r:id="rId308" display="Next Smaller Element"/>
-    <hyperlink ref="B336" r:id="rId309" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
-    <hyperlink ref="B337" r:id="rId310" display="Sort an Array using heap. (HeapSort)"/>
-    <hyperlink ref="B338" r:id="rId311" display="Maximum of all subarrays of size k."/>
-    <hyperlink ref="B339" r:id="rId312" display="“k” largest element in an array"/>
-    <hyperlink ref="B340" r:id="rId313" display="Kth smallest and largest element in an unsorted array"/>
-    <hyperlink ref="B341" r:id="rId314" display="Merge “K” sorted arrays. [ IMP ]"/>
-    <hyperlink ref="B342" r:id="rId315" display="Merge 2 Binary Max Heaps"/>
-    <hyperlink ref="B343" r:id="rId316" display="Kth largest sum continuous subarrays"/>
-    <hyperlink ref="B344" r:id="rId317" display="Leetcode- reorganize strings"/>
-    <hyperlink ref="B345" r:id="rId318" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
-    <hyperlink ref="B346" r:id="rId319" display="Smallest range in “K” Lists"/>
-    <hyperlink ref="B347" r:id="rId320" display="Median in a stream of Integers"/>
-    <hyperlink ref="B348" r:id="rId321" display="Check if a Binary Tree is Heap"/>
-    <hyperlink ref="B349" r:id="rId322" display="Connect “n” ropes with minimum cost"/>
-    <hyperlink ref="B350" r:id="rId323" display="Convert BST to Min Heap"/>
-    <hyperlink ref="B351" r:id="rId324" display="Convert min heap to max heap"/>
-    <hyperlink ref="B352" r:id="rId325" display="Rearrange characters in a string such that no two adjacent are same."/>
-    <hyperlink ref="B353" r:id="rId326" display="Minimum sum of two numbers formed from digits of an array"/>
-    <hyperlink ref="B356" r:id="rId327" display="Create a Graph, print it"/>
-    <hyperlink ref="B357" r:id="rId328" display="Implement BFS algorithm "/>
-    <hyperlink ref="B358" r:id="rId329" display="Implement DFS Algo "/>
-    <hyperlink ref="B359" r:id="rId330" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B360" r:id="rId331" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B361" r:id="rId332" display="Search in a Maze"/>
-    <hyperlink ref="B362" r:id="rId333" display="Minimum Step by Knight"/>
-    <hyperlink ref="B363" r:id="rId334" display="flood fill algo"/>
-    <hyperlink ref="B364" r:id="rId335" display="Clone a graph"/>
-    <hyperlink ref="B365" r:id="rId336" display="Making wired Connections"/>
-    <hyperlink ref="B366" r:id="rId337" display="word Ladder "/>
-    <hyperlink ref="B367" r:id="rId338" display="Dijkstra algo"/>
-    <hyperlink ref="B368" r:id="rId339" display="Implement Topological Sort "/>
-    <hyperlink ref="B369" r:id="rId340" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
-    <hyperlink ref="B370" r:id="rId341" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
-    <hyperlink ref="B371" r:id="rId342" display="Find the no. of Isalnds"/>
-    <hyperlink ref="B372" r:id="rId343" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
-    <hyperlink ref="B373" r:id="rId344" display="Implement Kruksal’sAlgorithm"/>
-    <hyperlink ref="B374" r:id="rId345" display="Implement Prim’s Algorithm"/>
-    <hyperlink ref="B375" r:id="rId346" display="Total no. of Spanning tree in a graph"/>
-    <hyperlink ref="B376" r:id="rId347" display="Implement Bellman Ford Algorithm"/>
-    <hyperlink ref="B377" r:id="rId348" display="Implement Floyd warshallAlgorithm"/>
-    <hyperlink ref="B378" r:id="rId349" display="Travelling Salesman Problem"/>
-    <hyperlink ref="B379" r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="Graph ColouringProblem"/>
-    <hyperlink ref="B380" r:id="rId351" display="Snake and Ladders Problem"/>
-    <hyperlink ref="B381" r:id="rId352" display="Find bridge in a graph"/>
-    <hyperlink ref="B382" r:id="rId353" display="Count Strongly connected Components(Kosaraju Algo)"/>
-    <hyperlink ref="B383" r:id="rId354" display="Check whether a graph is Bipartite or Not"/>
-    <hyperlink ref="B384" r:id="rId355" display="Detect Negative cycle in a graph"/>
-    <hyperlink ref="B385" r:id="rId356" display="Longest path in a Directed Acyclic Graph"/>
-    <hyperlink ref="B386" r:id="rId357" display="Journey to the Moon"/>
-    <hyperlink ref="B387" r:id="rId358" display="Cheapest Flights Within K Stops"/>
-    <hyperlink ref="B388" r:id="rId359" display="Oliver and the Game"/>
-    <hyperlink ref="B389" r:id="rId360" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B390" r:id="rId361" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B391" r:id="rId362" display="Find if there is a path of more thank length from a source"/>
-    <hyperlink ref="B392" r:id="rId363" display="M-ColouringProblem"/>
-    <hyperlink ref="B393" r:id="rId364" display="Minimum edges to reverse o make path from source to destination"/>
-    <hyperlink ref="B394" r:id="rId365" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
-    <hyperlink ref="B395" r:id="rId366" display="Vertex Cover Problem"/>
-    <hyperlink ref="B396" r:id="rId367" display="Chinese Postman or Route Inspection"/>
-    <hyperlink ref="B397" r:id="rId368" display="Number of Triangles in a Directed and Undirected Graph"/>
-    <hyperlink ref="B398" r:id="rId369" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B399" r:id="rId370" display="Two Clique Problem"/>
-    <hyperlink ref="B402" r:id="rId371" display="Construct a trie from scratch"/>
-    <hyperlink ref="B403" r:id="rId372" display="Find shortest unique prefix for every word in a given list"/>
-    <hyperlink ref="B404" r:id="rId373" display="Word Break Problem | (Trie solution)"/>
-    <hyperlink ref="B405" r:id="rId374" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B406" r:id="rId375" display="Implement a Phone Directory"/>
-    <hyperlink ref="B407" r:id="rId376" display="Print unique rows in a given boolean matrix"/>
-    <hyperlink ref="B410" r:id="rId377" display="Coin ChangeProblem"/>
-    <hyperlink ref="B411" r:id="rId378" display="Knapsack Problem"/>
-    <hyperlink ref="B412" r:id="rId379" display="Binomial CoefficientProblem"/>
-    <hyperlink ref="B413" r:id="rId380" display="Permutation CoefficientProblem"/>
-    <hyperlink ref="B414" r:id="rId381" display="Program for nth Catalan Number"/>
-    <hyperlink ref="B415" r:id="rId382" display="Matrix Chain Multiplication "/>
-    <hyperlink ref="B416" r:id="rId383" display="Edit Distance"/>
-    <hyperlink ref="B417" r:id="rId384" display="Subset Sum Problem"/>
-    <hyperlink ref="B418" r:id="rId385" display="Friends Pairing Problem"/>
-    <hyperlink ref="B419" r:id="rId386" display="Gold Mine Problem"/>
-    <hyperlink ref="B420" r:id="rId387" display="Assembly Line SchedulingProblem"/>
-    <hyperlink ref="B421" r:id="rId388" display="Painting the Fenceproblem"/>
-    <hyperlink ref="B422" r:id="rId389" display="Maximize The Cut Segments"/>
-    <hyperlink ref="B423" r:id="rId390" display="Longest Common Subsequence"/>
-    <hyperlink ref="B424" r:id="rId391" display="Longest Repeated Subsequence"/>
-    <hyperlink ref="B425" r:id="rId392" display="Longest Increasing Subsequence"/>
-    <hyperlink ref="B426" r:id="rId393" display="Space Optimized Solution of LCS"/>
-    <hyperlink ref="B427" r:id="rId394" display="LCS (Longest Common Subsequence) of three strings"/>
-    <hyperlink ref="B428" r:id="rId395" display="Maximum Sum Increasing Subsequence"/>
-    <hyperlink ref="B429" r:id="rId396" display="Count all subsequences having product less than K"/>
-    <hyperlink ref="B430" r:id="rId397" display="Longest subsequence such that difference between adjacent is one"/>
-    <hyperlink ref="B431" r:id="rId398" display="Maximum subsequence sum such that no three are consecutive"/>
-    <hyperlink ref="B432" r:id="rId399" display="Egg Dropping Problem"/>
-    <hyperlink ref="B433" r:id="rId400" display="Maximum Length Chain of Pairs"/>
-    <hyperlink ref="B434" r:id="rId401" display="Maximum size square sub-matrix with all 1s"/>
-    <hyperlink ref="B435" r:id="rId402" display="Maximum sum of pairs with specific difference"/>
-    <hyperlink ref="B436" r:id="rId403" display="Min Cost PathProblem"/>
-    <hyperlink ref="B437" r:id="rId404" display="Maximum difference of zeros and ones in binary string"/>
-    <hyperlink ref="B438" r:id="rId405" display="Minimum number of jumps to reach end"/>
-    <hyperlink ref="B439" r:id="rId406" display="Minimum cost to fill given weight in a bag"/>
-    <hyperlink ref="B440" r:id="rId407" display="Minimum removals from array to make max –min &lt;= K"/>
-    <hyperlink ref="B441" r:id="rId408" display="Longest Common Substring"/>
-    <hyperlink ref="B442" r:id="rId409" display="Count number of ways to reacha given score in a game"/>
-    <hyperlink ref="B443" r:id="rId410" display="Count Balanced Binary Trees of Height h"/>
-    <hyperlink ref="B444" r:id="rId411" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
-    <hyperlink ref="B445" r:id="rId412" display="Smallest sum contiguous subarray"/>
-    <hyperlink ref="B446" r:id="rId413" display="Unbounded Knapsack (Repetition of items allowed)"/>
-    <hyperlink ref="B447" r:id="rId414" display="Word Break Problem"/>
-    <hyperlink ref="B448" r:id="rId415" display="Largest Independent Set Problem"/>
-    <hyperlink ref="B449" r:id="rId416" display="Partition problem"/>
-    <hyperlink ref="B450" r:id="rId417" display="Longest Palindromic Subsequence"/>
-    <hyperlink ref="B451" r:id="rId418" display="Count All Palindromic Subsequence in a given String"/>
-    <hyperlink ref="B452" r:id="rId419" display="Longest Palindromic Substring"/>
-    <hyperlink ref="B453" r:id="rId420" display="Longest alternating subsequence"/>
-    <hyperlink ref="B454" r:id="rId421" display="Weighted Job Scheduling"/>
-    <hyperlink ref="B455" r:id="rId422" display="Coin game winner where every player has three choices"/>
-    <hyperlink ref="B456" r:id="rId423" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
-    <hyperlink ref="B457" r:id="rId424" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
-    <hyperlink ref="B458" r:id="rId425" display="Optimal Strategy for a Game"/>
-    <hyperlink ref="B459" r:id="rId426" display="Optimal Binary Search Tree"/>
-    <hyperlink ref="B460" r:id="rId427" display="Palindrome PartitioningProblem"/>
-    <hyperlink ref="B461" r:id="rId428" display="Word Wrap Problem"/>
-    <hyperlink ref="B462" r:id="rId429" display="Mobile Numeric Keypad Problem [ IMP ]"/>
-    <hyperlink ref="B463" r:id="rId430" display="Boolean Parenthesization Problem"/>
-    <hyperlink ref="B464" r:id="rId431" display="Largest rectangular sub-matrix whose sum is 0"/>
-    <hyperlink ref="B465" r:id="rId432" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
-    <hyperlink ref="B466" r:id="rId433" display="Maximum sum rectangle in a 2D matrix"/>
-    <hyperlink ref="B467" r:id="rId434" display="Maximum profit by buying and selling a share at most k times"/>
-    <hyperlink ref="B468" r:id="rId435" display="Find if a string is interleaved of two other strings"/>
-    <hyperlink ref="B469" r:id="rId436" display="Maximum Length of Pair Chain"/>
-    <hyperlink ref="B472" r:id="rId437" display="Count set bits in an integer"/>
-    <hyperlink ref="B473" r:id="rId438" display="Find the two non-repeating elements in an array of repeating elements"/>
-    <hyperlink ref="B474" r:id="rId439" display="Count number of bits to be flipped to convert A to B"/>
-    <hyperlink ref="B475" r:id="rId440" display="Count total set bits in all numbers from 1 to n"/>
-    <hyperlink ref="B476" r:id="rId441" display="Program to find whether a no is power of two"/>
-    <hyperlink ref="B477" r:id="rId442" display="Find position of the only set bit"/>
-    <hyperlink ref="B478" r:id="rId443" display="Copy set bits in a range"/>
-    <hyperlink ref="B479" r:id="rId444" display="Divide two integers without using multiplication, division and mod operator"/>
-    <hyperlink ref="B480" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
-    <hyperlink ref="B481" r:id="rId446" display="Power Set"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4"/>
+    <hyperlink ref="B9" r:id="rId5"/>
+    <hyperlink ref="B10" r:id="rId6"/>
+    <hyperlink ref="B11" r:id="rId7"/>
+    <hyperlink ref="B12" r:id="rId8"/>
+    <hyperlink ref="B13" r:id="rId9"/>
+    <hyperlink ref="B14" r:id="rId10"/>
+    <hyperlink ref="B15" r:id="rId11"/>
+    <hyperlink ref="B16" r:id="rId12"/>
+    <hyperlink ref="B17" r:id="rId13"/>
+    <hyperlink ref="B18" r:id="rId14"/>
+    <hyperlink ref="B19" r:id="rId15"/>
+    <hyperlink ref="B20" r:id="rId16"/>
+    <hyperlink ref="B21" r:id="rId17"/>
+    <hyperlink ref="B22" r:id="rId18"/>
+    <hyperlink ref="B23" r:id="rId19"/>
+    <hyperlink ref="B24" r:id="rId20"/>
+    <hyperlink ref="B25" r:id="rId21"/>
+    <hyperlink ref="B26" r:id="rId22"/>
+    <hyperlink ref="B27" r:id="rId23"/>
+    <hyperlink ref="B28" r:id="rId24"/>
+    <hyperlink ref="B29" r:id="rId25"/>
+    <hyperlink ref="B30" r:id="rId26"/>
+    <hyperlink ref="B31" r:id="rId27"/>
+    <hyperlink ref="B32" r:id="rId28"/>
+    <hyperlink ref="B33" r:id="rId29"/>
+    <hyperlink ref="B34" r:id="rId30"/>
+    <hyperlink ref="B35" r:id="rId31"/>
+    <hyperlink ref="B36" r:id="rId32"/>
+    <hyperlink ref="B37" r:id="rId33"/>
+    <hyperlink ref="B38" r:id="rId34"/>
+    <hyperlink ref="B39" r:id="rId35"/>
+    <hyperlink ref="B40" r:id="rId36"/>
+    <hyperlink ref="B41" r:id="rId37"/>
+    <hyperlink ref="B44" r:id="rId38"/>
+    <hyperlink ref="B45" r:id="rId39"/>
+    <hyperlink ref="B46" r:id="rId40"/>
+    <hyperlink ref="B47" r:id="rId41"/>
+    <hyperlink ref="B48" r:id="rId42"/>
+    <hyperlink ref="B49" r:id="rId43"/>
+    <hyperlink ref="B50" r:id="rId44"/>
+    <hyperlink ref="B51" r:id="rId45"/>
+    <hyperlink ref="B52" r:id="rId46"/>
+    <hyperlink ref="B53" r:id="rId47"/>
+    <hyperlink ref="B56" r:id="rId48"/>
+    <hyperlink ref="B57" r:id="rId49"/>
+    <hyperlink ref="B58" r:id="rId50"/>
+    <hyperlink ref="B60" r:id="rId51"/>
+    <hyperlink ref="B61" r:id="rId52"/>
+    <hyperlink ref="B62" r:id="rId53"/>
+    <hyperlink ref="B63" r:id="rId54"/>
+    <hyperlink ref="B64" r:id="rId55"/>
+    <hyperlink ref="B65" r:id="rId56"/>
+    <hyperlink ref="B66" r:id="rId57"/>
+    <hyperlink ref="B67" r:id="rId58"/>
+    <hyperlink ref="B68" r:id="rId59"/>
+    <hyperlink ref="B69" r:id="rId60"/>
+    <hyperlink ref="B70" r:id="rId61"/>
+    <hyperlink ref="B71" r:id="rId62"/>
+    <hyperlink ref="B72" r:id="rId63"/>
+    <hyperlink ref="B73" r:id="rId64"/>
+    <hyperlink ref="B74" r:id="rId65"/>
+    <hyperlink ref="B75" r:id="rId66"/>
+    <hyperlink ref="B76" r:id="rId67"/>
+    <hyperlink ref="B77" r:id="rId68"/>
+    <hyperlink ref="B78" r:id="rId69"/>
+    <hyperlink ref="B79" r:id="rId70"/>
+    <hyperlink ref="B80" r:id="rId71"/>
+    <hyperlink ref="B81" r:id="rId72"/>
+    <hyperlink ref="B82" r:id="rId73"/>
+    <hyperlink ref="B83" r:id="rId74"/>
+    <hyperlink ref="B84" r:id="rId75"/>
+    <hyperlink ref="B85" r:id="rId76"/>
+    <hyperlink ref="B86" r:id="rId77"/>
+    <hyperlink ref="B87" r:id="rId78"/>
+    <hyperlink ref="B88" r:id="rId79"/>
+    <hyperlink ref="B89" r:id="rId80"/>
+    <hyperlink ref="B90" r:id="rId81"/>
+    <hyperlink ref="B91" r:id="rId82"/>
+    <hyperlink ref="B92" r:id="rId83"/>
+    <hyperlink ref="B93" r:id="rId84"/>
+    <hyperlink ref="B94" r:id="rId85"/>
+    <hyperlink ref="B95" r:id="rId86"/>
+    <hyperlink ref="B96" r:id="rId87"/>
+    <hyperlink ref="B97" r:id="rId88"/>
+    <hyperlink ref="B98" r:id="rId89"/>
+    <hyperlink ref="B101" r:id="rId90"/>
+    <hyperlink ref="B102" r:id="rId91"/>
+    <hyperlink ref="B103" r:id="rId92"/>
+    <hyperlink ref="B104" r:id="rId93"/>
+    <hyperlink ref="B105" r:id="rId94"/>
+    <hyperlink ref="B106" r:id="rId95" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance."/>
+    <hyperlink ref="B107" r:id="rId96"/>
+    <hyperlink ref="B108" r:id="rId97"/>
+    <hyperlink ref="B109" r:id="rId98"/>
+    <hyperlink ref="B110" r:id="rId99"/>
+    <hyperlink ref="B111" r:id="rId100"/>
+    <hyperlink ref="B112" r:id="rId101"/>
+    <hyperlink ref="B113" r:id="rId102"/>
+    <hyperlink ref="B114" r:id="rId103"/>
+    <hyperlink ref="B115" r:id="rId104"/>
+    <hyperlink ref="B116" r:id="rId105"/>
+    <hyperlink ref="B117" r:id="rId106"/>
+    <hyperlink ref="B118" r:id="rId107"/>
+    <hyperlink ref="B119" r:id="rId108"/>
+    <hyperlink ref="B120" r:id="rId109"/>
+    <hyperlink ref="B121" r:id="rId110"/>
+    <hyperlink ref="B122" r:id="rId111"/>
+    <hyperlink ref="B123" r:id="rId112"/>
+    <hyperlink ref="B124" r:id="rId113"/>
+    <hyperlink ref="B125" r:id="rId114"/>
+    <hyperlink ref="B126" r:id="rId115"/>
+    <hyperlink ref="B127" r:id="rId116"/>
+    <hyperlink ref="B128" r:id="rId117"/>
+    <hyperlink ref="B129" r:id="rId118"/>
+    <hyperlink ref="B130" r:id="rId119"/>
+    <hyperlink ref="B131" r:id="rId120"/>
+    <hyperlink ref="B132" r:id="rId121"/>
+    <hyperlink ref="B133" r:id="rId122"/>
+    <hyperlink ref="B134" r:id="rId123"/>
+    <hyperlink ref="B135" r:id="rId124"/>
+    <hyperlink ref="B136" r:id="rId125"/>
+    <hyperlink ref="B139" r:id="rId126"/>
+    <hyperlink ref="B140" r:id="rId127"/>
+    <hyperlink ref="B141" r:id="rId128"/>
+    <hyperlink ref="B142" r:id="rId129"/>
+    <hyperlink ref="B143" r:id="rId130"/>
+    <hyperlink ref="B144" r:id="rId131"/>
+    <hyperlink ref="B145" r:id="rId132"/>
+    <hyperlink ref="B146" r:id="rId133"/>
+    <hyperlink ref="B147" r:id="rId134"/>
+    <hyperlink ref="B148" r:id="rId135"/>
+    <hyperlink ref="B149" r:id="rId136"/>
+    <hyperlink ref="B150" r:id="rId137"/>
+    <hyperlink ref="B151" r:id="rId138"/>
+    <hyperlink ref="B152" r:id="rId139"/>
+    <hyperlink ref="B153" r:id="rId140"/>
+    <hyperlink ref="B154" r:id="rId141"/>
+    <hyperlink ref="B155" r:id="rId142"/>
+    <hyperlink ref="B156" r:id="rId143"/>
+    <hyperlink ref="B157" r:id="rId144"/>
+    <hyperlink ref="B158" r:id="rId145"/>
+    <hyperlink ref="B159" r:id="rId146"/>
+    <hyperlink ref="B160" r:id="rId147"/>
+    <hyperlink ref="B161" r:id="rId148"/>
+    <hyperlink ref="B162" r:id="rId149"/>
+    <hyperlink ref="B163" r:id="rId150"/>
+    <hyperlink ref="B166" r:id="rId151"/>
+    <hyperlink ref="B167" r:id="rId152"/>
+    <hyperlink ref="B168" r:id="rId153"/>
+    <hyperlink ref="B169" r:id="rId154"/>
+    <hyperlink ref="B170" r:id="rId155"/>
+    <hyperlink ref="B171" r:id="rId156"/>
+    <hyperlink ref="B172" r:id="rId157"/>
+    <hyperlink ref="B173" r:id="rId158"/>
+    <hyperlink ref="B174" r:id="rId159"/>
+    <hyperlink ref="B177" r:id="rId160"/>
+    <hyperlink ref="B178" r:id="rId161"/>
+    <hyperlink ref="B179" r:id="rId162"/>
+    <hyperlink ref="B180" r:id="rId163"/>
+    <hyperlink ref="B181" r:id="rId164"/>
+    <hyperlink ref="B182" r:id="rId165"/>
+    <hyperlink ref="B183" r:id="rId166"/>
+    <hyperlink ref="B184" r:id="rId167"/>
+    <hyperlink ref="B185" r:id="rId168"/>
+    <hyperlink ref="B186" r:id="rId169"/>
+    <hyperlink ref="B187" r:id="rId170"/>
+    <hyperlink ref="B188" r:id="rId171"/>
+    <hyperlink ref="B189" r:id="rId172"/>
+    <hyperlink ref="B190" r:id="rId173"/>
+    <hyperlink ref="B191" r:id="rId174"/>
+    <hyperlink ref="B192" r:id="rId175"/>
+    <hyperlink ref="B193" r:id="rId176"/>
+    <hyperlink ref="B194" r:id="rId177"/>
+    <hyperlink ref="B195" r:id="rId178"/>
+    <hyperlink ref="B196" r:id="rId179"/>
+    <hyperlink ref="B197" r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
+    <hyperlink ref="B198" r:id="rId181"/>
+    <hyperlink ref="B199" r:id="rId182"/>
+    <hyperlink ref="B200" r:id="rId183"/>
+    <hyperlink ref="B201" r:id="rId184"/>
+    <hyperlink ref="B202" r:id="rId185"/>
+    <hyperlink ref="B203" r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
+    <hyperlink ref="B204" r:id="rId187"/>
+    <hyperlink ref="B205" r:id="rId188"/>
+    <hyperlink ref="B206" r:id="rId189"/>
+    <hyperlink ref="B207" r:id="rId190"/>
+    <hyperlink ref="B208" r:id="rId191"/>
+    <hyperlink ref="B209" r:id="rId192"/>
+    <hyperlink ref="B210" r:id="rId193"/>
+    <hyperlink ref="B211" r:id="rId194"/>
+    <hyperlink ref="B214" r:id="rId195"/>
+    <hyperlink ref="B215" r:id="rId196"/>
+    <hyperlink ref="B216" r:id="rId197"/>
+    <hyperlink ref="B217" r:id="rId198"/>
+    <hyperlink ref="B218" r:id="rId199"/>
+    <hyperlink ref="B219" r:id="rId200"/>
+    <hyperlink ref="B220" r:id="rId201"/>
+    <hyperlink ref="B221" r:id="rId202"/>
+    <hyperlink ref="B222" r:id="rId203"/>
+    <hyperlink ref="B223" r:id="rId204"/>
+    <hyperlink ref="B224" r:id="rId205"/>
+    <hyperlink ref="B225" r:id="rId206"/>
+    <hyperlink ref="B226" r:id="rId207"/>
+    <hyperlink ref="B227" r:id="rId208"/>
+    <hyperlink ref="B228" r:id="rId209"/>
+    <hyperlink ref="B229" r:id="rId210"/>
+    <hyperlink ref="B230" r:id="rId211"/>
+    <hyperlink ref="B231" r:id="rId212"/>
+    <hyperlink ref="B232" r:id="rId213"/>
+    <hyperlink ref="B233" r:id="rId214"/>
+    <hyperlink ref="B234" r:id="rId215"/>
+    <hyperlink ref="B235" r:id="rId216"/>
+    <hyperlink ref="B238" r:id="rId217"/>
+    <hyperlink ref="B239" r:id="rId218"/>
+    <hyperlink ref="B240" r:id="rId219"/>
+    <hyperlink ref="B241" r:id="rId220"/>
+    <hyperlink ref="B242" r:id="rId221"/>
+    <hyperlink ref="B243" r:id="rId222"/>
+    <hyperlink ref="B244" r:id="rId223"/>
+    <hyperlink ref="B245" r:id="rId224"/>
+    <hyperlink ref="B246" r:id="rId225"/>
+    <hyperlink ref="B247" r:id="rId226"/>
+    <hyperlink ref="B248" r:id="rId227"/>
+    <hyperlink ref="B249" r:id="rId228"/>
+    <hyperlink ref="B250" r:id="rId229"/>
+    <hyperlink ref="B251" r:id="rId230"/>
+    <hyperlink ref="B252" r:id="rId231"/>
+    <hyperlink ref="B253" r:id="rId232"/>
+    <hyperlink ref="B254" r:id="rId233"/>
+    <hyperlink ref="B255" r:id="rId234"/>
+    <hyperlink ref="B256" r:id="rId235"/>
+    <hyperlink ref="B257" r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
+    <hyperlink ref="B258" r:id="rId237"/>
+    <hyperlink ref="B259" r:id="rId238"/>
+    <hyperlink ref="B260" r:id="rId239"/>
+    <hyperlink ref="B261" r:id="rId240"/>
+    <hyperlink ref="B262" r:id="rId241"/>
+    <hyperlink ref="B263" r:id="rId242"/>
+    <hyperlink ref="B264" r:id="rId243"/>
+    <hyperlink ref="B265" r:id="rId244"/>
+    <hyperlink ref="B266" r:id="rId245"/>
+    <hyperlink ref="B267" r:id="rId246"/>
+    <hyperlink ref="B268" r:id="rId247"/>
+    <hyperlink ref="B269" r:id="rId248"/>
+    <hyperlink ref="B270" r:id="rId249"/>
+    <hyperlink ref="B271" r:id="rId250"/>
+    <hyperlink ref="B272" r:id="rId251"/>
+    <hyperlink ref="B275" r:id="rId252"/>
+    <hyperlink ref="B276" r:id="rId253"/>
+    <hyperlink ref="B277" r:id="rId254"/>
+    <hyperlink ref="B278" r:id="rId255"/>
+    <hyperlink ref="B279" r:id="rId256"/>
+    <hyperlink ref="B280" r:id="rId257"/>
+    <hyperlink ref="B281" r:id="rId258"/>
+    <hyperlink ref="B282" r:id="rId259"/>
+    <hyperlink ref="B283" r:id="rId260"/>
+    <hyperlink ref="B284" r:id="rId261"/>
+    <hyperlink ref="B285" r:id="rId262"/>
+    <hyperlink ref="B286" r:id="rId263"/>
+    <hyperlink ref="B287" r:id="rId264"/>
+    <hyperlink ref="B288" r:id="rId265"/>
+    <hyperlink ref="B289" r:id="rId266"/>
+    <hyperlink ref="B290" r:id="rId267"/>
+    <hyperlink ref="B291" r:id="rId268"/>
+    <hyperlink ref="B292" r:id="rId269"/>
+    <hyperlink ref="B293" r:id="rId270"/>
+    <hyperlink ref="B296" r:id="rId271"/>
+    <hyperlink ref="B297" r:id="rId272"/>
+    <hyperlink ref="B298" r:id="rId273"/>
+    <hyperlink ref="B299" r:id="rId274"/>
+    <hyperlink ref="B300" r:id="rId275"/>
+    <hyperlink ref="B301" r:id="rId276"/>
+    <hyperlink ref="B302" r:id="rId277"/>
+    <hyperlink ref="B303" r:id="rId278"/>
+    <hyperlink ref="B304" r:id="rId279"/>
+    <hyperlink ref="B305" r:id="rId280"/>
+    <hyperlink ref="B306" r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
+    <hyperlink ref="B307" r:id="rId282"/>
+    <hyperlink ref="B308" r:id="rId283"/>
+    <hyperlink ref="B309" r:id="rId284"/>
+    <hyperlink ref="B310" r:id="rId285"/>
+    <hyperlink ref="B311" r:id="rId286"/>
+    <hyperlink ref="B312" r:id="rId287"/>
+    <hyperlink ref="B313" r:id="rId288"/>
+    <hyperlink ref="B314" r:id="rId289"/>
+    <hyperlink ref="B315" r:id="rId290"/>
+    <hyperlink ref="B316" r:id="rId291"/>
+    <hyperlink ref="B317" r:id="rId292"/>
+    <hyperlink ref="B318" r:id="rId293"/>
+    <hyperlink ref="B319" r:id="rId294"/>
+    <hyperlink ref="B320" r:id="rId295"/>
+    <hyperlink ref="B321" r:id="rId296"/>
+    <hyperlink ref="B322" r:id="rId297"/>
+    <hyperlink ref="B323" r:id="rId298"/>
+    <hyperlink ref="B324" r:id="rId299"/>
+    <hyperlink ref="B325" r:id="rId300"/>
+    <hyperlink ref="B326" r:id="rId301"/>
+    <hyperlink ref="B327" r:id="rId302"/>
+    <hyperlink ref="B328" r:id="rId303"/>
+    <hyperlink ref="B329" r:id="rId304"/>
+    <hyperlink ref="B330" r:id="rId305"/>
+    <hyperlink ref="B331" r:id="rId306"/>
+    <hyperlink ref="B332" r:id="rId307"/>
+    <hyperlink ref="B333" r:id="rId308"/>
+    <hyperlink ref="B336" r:id="rId309"/>
+    <hyperlink ref="B337" r:id="rId310"/>
+    <hyperlink ref="B338" r:id="rId311"/>
+    <hyperlink ref="B339" r:id="rId312"/>
+    <hyperlink ref="B340" r:id="rId313"/>
+    <hyperlink ref="B341" r:id="rId314"/>
+    <hyperlink ref="B342" r:id="rId315"/>
+    <hyperlink ref="B343" r:id="rId316"/>
+    <hyperlink ref="B344" r:id="rId317"/>
+    <hyperlink ref="B345" r:id="rId318"/>
+    <hyperlink ref="B346" r:id="rId319"/>
+    <hyperlink ref="B347" r:id="rId320"/>
+    <hyperlink ref="B348" r:id="rId321"/>
+    <hyperlink ref="B349" r:id="rId322"/>
+    <hyperlink ref="B350" r:id="rId323"/>
+    <hyperlink ref="B351" r:id="rId324"/>
+    <hyperlink ref="B352" r:id="rId325"/>
+    <hyperlink ref="B353" r:id="rId326"/>
+    <hyperlink ref="B356" r:id="rId327"/>
+    <hyperlink ref="B357" r:id="rId328"/>
+    <hyperlink ref="B358" r:id="rId329"/>
+    <hyperlink ref="B359" r:id="rId330"/>
+    <hyperlink ref="B360" r:id="rId331"/>
+    <hyperlink ref="B361" r:id="rId332"/>
+    <hyperlink ref="B362" r:id="rId333"/>
+    <hyperlink ref="B363" r:id="rId334"/>
+    <hyperlink ref="B364" r:id="rId335"/>
+    <hyperlink ref="B365" r:id="rId336"/>
+    <hyperlink ref="B366" r:id="rId337"/>
+    <hyperlink ref="B367" r:id="rId338"/>
+    <hyperlink ref="B368" r:id="rId339"/>
+    <hyperlink ref="B369" r:id="rId340"/>
+    <hyperlink ref="B370" r:id="rId341"/>
+    <hyperlink ref="B371" r:id="rId342"/>
+    <hyperlink ref="B372" r:id="rId343"/>
+    <hyperlink ref="B373" r:id="rId344"/>
+    <hyperlink ref="B374" r:id="rId345"/>
+    <hyperlink ref="B375" r:id="rId346"/>
+    <hyperlink ref="B376" r:id="rId347"/>
+    <hyperlink ref="B377" r:id="rId348"/>
+    <hyperlink ref="B378" r:id="rId349"/>
+    <hyperlink ref="B379" r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
+    <hyperlink ref="B380" r:id="rId351"/>
+    <hyperlink ref="B381" r:id="rId352"/>
+    <hyperlink ref="B382" r:id="rId353"/>
+    <hyperlink ref="B383" r:id="rId354"/>
+    <hyperlink ref="B384" r:id="rId355"/>
+    <hyperlink ref="B385" r:id="rId356"/>
+    <hyperlink ref="B386" r:id="rId357"/>
+    <hyperlink ref="B387" r:id="rId358"/>
+    <hyperlink ref="B388" r:id="rId359"/>
+    <hyperlink ref="B389" r:id="rId360"/>
+    <hyperlink ref="B390" r:id="rId361"/>
+    <hyperlink ref="B391" r:id="rId362"/>
+    <hyperlink ref="B392" r:id="rId363"/>
+    <hyperlink ref="B393" r:id="rId364"/>
+    <hyperlink ref="B394" r:id="rId365"/>
+    <hyperlink ref="B395" r:id="rId366"/>
+    <hyperlink ref="B396" r:id="rId367"/>
+    <hyperlink ref="B397" r:id="rId368"/>
+    <hyperlink ref="B398" r:id="rId369"/>
+    <hyperlink ref="B399" r:id="rId370"/>
+    <hyperlink ref="B402" r:id="rId371"/>
+    <hyperlink ref="B403" r:id="rId372"/>
+    <hyperlink ref="B404" r:id="rId373"/>
+    <hyperlink ref="B405" r:id="rId374"/>
+    <hyperlink ref="B406" r:id="rId375"/>
+    <hyperlink ref="B407" r:id="rId376"/>
+    <hyperlink ref="B410" r:id="rId377"/>
+    <hyperlink ref="B411" r:id="rId378"/>
+    <hyperlink ref="B412" r:id="rId379"/>
+    <hyperlink ref="B413" r:id="rId380"/>
+    <hyperlink ref="B414" r:id="rId381"/>
+    <hyperlink ref="B415" r:id="rId382"/>
+    <hyperlink ref="B416" r:id="rId383"/>
+    <hyperlink ref="B417" r:id="rId384"/>
+    <hyperlink ref="B418" r:id="rId385"/>
+    <hyperlink ref="B419" r:id="rId386"/>
+    <hyperlink ref="B420" r:id="rId387"/>
+    <hyperlink ref="B421" r:id="rId388"/>
+    <hyperlink ref="B422" r:id="rId389"/>
+    <hyperlink ref="B423" r:id="rId390"/>
+    <hyperlink ref="B424" r:id="rId391"/>
+    <hyperlink ref="B425" r:id="rId392"/>
+    <hyperlink ref="B426" r:id="rId393"/>
+    <hyperlink ref="B427" r:id="rId394"/>
+    <hyperlink ref="B428" r:id="rId395"/>
+    <hyperlink ref="B429" r:id="rId396"/>
+    <hyperlink ref="B430" r:id="rId397"/>
+    <hyperlink ref="B431" r:id="rId398"/>
+    <hyperlink ref="B432" r:id="rId399"/>
+    <hyperlink ref="B433" r:id="rId400"/>
+    <hyperlink ref="B434" r:id="rId401"/>
+    <hyperlink ref="B435" r:id="rId402"/>
+    <hyperlink ref="B436" r:id="rId403"/>
+    <hyperlink ref="B437" r:id="rId404"/>
+    <hyperlink ref="B438" r:id="rId405"/>
+    <hyperlink ref="B439" r:id="rId406"/>
+    <hyperlink ref="B440" r:id="rId407"/>
+    <hyperlink ref="B441" r:id="rId408"/>
+    <hyperlink ref="B442" r:id="rId409"/>
+    <hyperlink ref="B443" r:id="rId410"/>
+    <hyperlink ref="B444" r:id="rId411"/>
+    <hyperlink ref="B445" r:id="rId412"/>
+    <hyperlink ref="B446" r:id="rId413"/>
+    <hyperlink ref="B447" r:id="rId414"/>
+    <hyperlink ref="B448" r:id="rId415"/>
+    <hyperlink ref="B449" r:id="rId416"/>
+    <hyperlink ref="B450" r:id="rId417"/>
+    <hyperlink ref="B451" r:id="rId418"/>
+    <hyperlink ref="B452" r:id="rId419"/>
+    <hyperlink ref="B453" r:id="rId420"/>
+    <hyperlink ref="B454" r:id="rId421"/>
+    <hyperlink ref="B455" r:id="rId422"/>
+    <hyperlink ref="B456" r:id="rId423"/>
+    <hyperlink ref="B457" r:id="rId424"/>
+    <hyperlink ref="B458" r:id="rId425"/>
+    <hyperlink ref="B459" r:id="rId426"/>
+    <hyperlink ref="B460" r:id="rId427"/>
+    <hyperlink ref="B461" r:id="rId428"/>
+    <hyperlink ref="B462" r:id="rId429"/>
+    <hyperlink ref="B463" r:id="rId430"/>
+    <hyperlink ref="B464" r:id="rId431"/>
+    <hyperlink ref="B465" r:id="rId432"/>
+    <hyperlink ref="B466" r:id="rId433"/>
+    <hyperlink ref="B467" r:id="rId434"/>
+    <hyperlink ref="B468" r:id="rId435"/>
+    <hyperlink ref="B469" r:id="rId436"/>
+    <hyperlink ref="B472" r:id="rId437"/>
+    <hyperlink ref="B473" r:id="rId438"/>
+    <hyperlink ref="B474" r:id="rId439"/>
+    <hyperlink ref="B475" r:id="rId440"/>
+    <hyperlink ref="B476" r:id="rId441"/>
+    <hyperlink ref="B477" r:id="rId442"/>
+    <hyperlink ref="B478" r:id="rId443"/>
+    <hyperlink ref="B479" r:id="rId444"/>
+    <hyperlink ref="B480" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
+    <hyperlink ref="B481" r:id="rId446"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/java/resources/FINAL450.xlsx
+++ b/java/resources/FINAL450.xlsx
@@ -1737,11 +1737,11 @@
   </sheetPr>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A119" activeCellId="0" sqref="A119"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A113" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B125" activeCellId="0" sqref="B125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -3000,24 +3000,24 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="12" t="s">
+      <c r="A121" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B121" s="13" t="s">
+      <c r="B121" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="C121" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="12" t="s">
+      <c r="A122" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B122" s="13" t="s">
+      <c r="B122" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C122" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3032,80 +3032,80 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="12" t="s">
+    <row r="124" customFormat="false" ht="20.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B124" s="13" t="s">
+      <c r="B124" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C124" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="12" t="s">
+      <c r="A125" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B125" s="13" t="s">
+      <c r="B125" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="C125" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="12" t="s">
+      <c r="A126" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B126" s="13" t="s">
+      <c r="B126" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="C126" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="12" t="s">
+      <c r="A127" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B127" s="13" t="s">
+      <c r="B127" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="C127" s="5" t="s">
+      <c r="C127" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="12" t="s">
+      <c r="A128" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B128" s="13" t="s">
+      <c r="B128" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C128" s="5" t="s">
+      <c r="C128" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="12" t="s">
+      <c r="A129" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B129" s="13" t="s">
+      <c r="B129" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="C129" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="12" t="s">
+      <c r="A130" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B130" s="13" t="s">
+      <c r="B130" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C130" s="5" t="s">
+      <c r="C130" s="8" t="s">
         <v>5</v>
       </c>
     </row>

--- a/java/resources/FINAL450.xlsx
+++ b/java/resources/FINAL450.xlsx
@@ -1737,11 +1737,11 @@
   </sheetPr>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A113" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B125" activeCellId="0" sqref="B125"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A131" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A139" activeCellId="0" sqref="A139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -3110,24 +3110,24 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="12" t="s">
+      <c r="A131" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B131" s="13" t="s">
+      <c r="B131" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C131" s="5" t="s">
+      <c r="C131" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="12" t="s">
+      <c r="A132" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B132" s="13" t="s">
+      <c r="B132" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C132" s="5" t="s">
+      <c r="C132" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3143,35 +3143,35 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="12" t="s">
+      <c r="A134" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B134" s="13" t="s">
+      <c r="B134" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="C134" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="12" t="s">
+      <c r="A135" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B135" s="13" t="s">
+      <c r="B135" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="C135" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="12" t="s">
+      <c r="A136" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B136" s="13" t="s">
+      <c r="B136" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C136" s="5" t="s">
+      <c r="C136" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3179,113 +3179,113 @@
       <c r="B138" s="17"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="12" t="s">
+    <row r="139" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B139" s="13" t="s">
+      <c r="B139" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C139" s="5" t="s">
+      <c r="C139" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="12" t="s">
+      <c r="A140" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B140" s="13" t="s">
+      <c r="B140" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C140" s="5" t="s">
+      <c r="C140" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="12" t="s">
+      <c r="A141" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B141" s="13" t="s">
+      <c r="B141" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C141" s="5" t="s">
+      <c r="C141" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="12" t="s">
+      <c r="A142" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B142" s="13" t="s">
+      <c r="B142" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C142" s="5" t="s">
+      <c r="C142" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="12" t="s">
+      <c r="A143" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B143" s="13" t="s">
+      <c r="B143" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C143" s="5" t="s">
+      <c r="C143" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="12" t="s">
+      <c r="A144" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B144" s="13" t="s">
+      <c r="B144" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C144" s="5" t="s">
+      <c r="C144" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="12" t="s">
+      <c r="A145" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B145" s="13" t="s">
+      <c r="B145" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C145" s="5" t="s">
+      <c r="C145" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="12" t="s">
+      <c r="A146" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B146" s="13" t="s">
+      <c r="B146" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C146" s="5" t="s">
+      <c r="C146" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="12" t="s">
+      <c r="A147" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B147" s="13" t="s">
+      <c r="B147" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C147" s="5" t="s">
+      <c r="C147" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="12" t="s">
+      <c r="A148" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B148" s="13" t="s">
+      <c r="B148" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C148" s="5" t="s">
+      <c r="C148" s="8" t="s">
         <v>5</v>
       </c>
     </row>

--- a/java/resources/FINAL450.xlsx
+++ b/java/resources/FINAL450.xlsx
@@ -1737,11 +1737,11 @@
   </sheetPr>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A131" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A139" activeCellId="0" sqref="A139"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A140" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B162" activeCellId="0" sqref="B162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -3290,24 +3290,24 @@
       </c>
     </row>
     <row r="149" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="12" t="s">
+      <c r="A149" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B149" s="13" t="s">
+      <c r="B149" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C149" s="5" t="s">
+      <c r="C149" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="12" t="s">
+      <c r="A150" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B150" s="13" t="s">
+      <c r="B150" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C150" s="5" t="s">
+      <c r="C150" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3334,68 +3334,68 @@
       </c>
     </row>
     <row r="153" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="12" t="s">
+      <c r="A153" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B153" s="13" t="s">
+      <c r="B153" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C153" s="5" t="s">
+      <c r="C153" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="12" t="s">
+      <c r="A154" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B154" s="13" t="s">
+      <c r="B154" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C154" s="5" t="s">
+      <c r="C154" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="12" t="s">
+      <c r="A155" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B155" s="13" t="s">
+      <c r="B155" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C155" s="5" t="s">
+      <c r="C155" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="12" t="s">
+      <c r="A156" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B156" s="13" t="s">
+      <c r="B156" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C156" s="5" t="s">
+      <c r="C156" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="12" t="s">
+      <c r="A157" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B157" s="13" t="s">
+      <c r="B157" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C157" s="5" t="s">
+      <c r="C157" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="12" t="s">
+      <c r="A158" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B158" s="13" t="s">
+      <c r="B158" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C158" s="5" t="s">
+      <c r="C158" s="8" t="s">
         <v>5</v>
       </c>
     </row>

--- a/java/resources/FINAL450.xlsx
+++ b/java/resources/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="467">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -536,6 +536,9 @@
   </si>
   <si>
     <t xml:space="preserve">Program for n’th node from the end of a Linked List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Traversal ??</t>
   </si>
   <si>
     <t xml:space="preserve">Find the first non-repeating character from a stream of characters</t>
@@ -1568,7 +1571,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1651,6 +1654,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1737,15 +1744,16 @@
   </sheetPr>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A140" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B162" activeCellId="0" sqref="B162"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A172" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A186" activeCellId="0" sqref="A186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3311,14 +3319,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="12" t="s">
+    <row r="151" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B151" s="13" t="s">
+      <c r="B151" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C151" s="5" t="s">
+      <c r="C151" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3400,79 +3408,79 @@
       </c>
     </row>
     <row r="159" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="12" t="s">
+      <c r="A159" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B159" s="13" t="s">
+      <c r="B159" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C159" s="5" t="s">
+      <c r="C159" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="12" t="s">
+      <c r="A160" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B160" s="13" t="s">
+      <c r="B160" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C160" s="5" t="s">
+      <c r="C160" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="12" t="s">
+      <c r="A161" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B161" s="13" t="s">
+      <c r="B161" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C161" s="5" t="s">
+      <c r="C161" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="12" t="s">
+      <c r="A162" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B162" s="13" t="s">
+      <c r="B162" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C162" s="5" t="s">
+      <c r="C162" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="12" t="s">
+      <c r="A163" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B163" s="13" t="s">
+      <c r="B163" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C163" s="5" t="s">
+      <c r="C163" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="12" t="s">
+      <c r="A164" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B164" s="17" t="s">
+      <c r="B164" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="C164" s="5" t="s">
+      <c r="C164" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="12" t="s">
+      <c r="A165" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B165" s="17" t="s">
+      <c r="B165" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="C165" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3488,24 +3496,24 @@
       </c>
     </row>
     <row r="167" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="12" t="s">
+      <c r="A167" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B167" s="13" t="s">
+      <c r="B167" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C167" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="12" t="s">
+      <c r="C167" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B168" s="13" t="s">
+      <c r="B168" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C168" s="5" t="s">
+      <c r="C168" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3521,47 +3529,50 @@
       </c>
     </row>
     <row r="170" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="12" t="s">
+      <c r="A170" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B170" s="13" t="s">
+      <c r="B170" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C170" s="5" t="s">
+      <c r="C170" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="12" t="s">
+      <c r="A171" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B171" s="13" t="s">
+      <c r="B171" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C171" s="5" t="s">
+      <c r="C171" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="12" t="s">
+      <c r="A172" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B172" s="13" t="s">
+      <c r="B172" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C172" s="5" t="s">
+      <c r="C172" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="12" t="s">
+      <c r="A173" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B173" s="13" t="s">
+      <c r="B173" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C173" s="5" t="s">
-        <v>5</v>
+      <c r="C173" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D173" s="0" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3569,7 +3580,7 @@
         <v>136</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>5</v>
@@ -3580,121 +3591,121 @@
       <c r="C176" s="5"/>
     </row>
     <row r="177" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="B177" s="13" t="s">
+      <c r="A177" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C177" s="5" t="s">
+      <c r="B177" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C177" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="B178" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="C178" s="5" t="s">
+      <c r="A178" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C178" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="B179" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C179" s="5" t="s">
+      <c r="A179" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C179" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="B180" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="C180" s="5" t="s">
+      <c r="A180" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C180" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="B181" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="C181" s="5" t="s">
+      <c r="A181" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C181" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="B182" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C182" s="5" t="s">
+      <c r="A182" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C182" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="B183" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="C183" s="5" t="s">
+      <c r="A183" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C183" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="B184" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="C184" s="5" t="s">
+      <c r="A184" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C184" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="B185" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="C185" s="5" t="s">
+      <c r="A185" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C185" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="B186" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C186" s="5" t="s">
+      <c r="A186" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C186" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B187" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>5</v>
@@ -3702,10 +3713,10 @@
     </row>
     <row r="188" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>5</v>
@@ -3713,10 +3724,10 @@
     </row>
     <row r="189" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B189" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>5</v>
@@ -3724,10 +3735,10 @@
     </row>
     <row r="190" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>5</v>
@@ -3735,10 +3746,10 @@
     </row>
     <row r="191" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>5</v>
@@ -3746,10 +3757,10 @@
     </row>
     <row r="192" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>5</v>
@@ -3757,10 +3768,10 @@
     </row>
     <row r="193" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>5</v>
@@ -3768,10 +3779,10 @@
     </row>
     <row r="194" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>5</v>
@@ -3779,10 +3790,10 @@
     </row>
     <row r="195" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>5</v>
@@ -3790,10 +3801,10 @@
     </row>
     <row r="196" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C196" s="5" t="s">
         <v>5</v>
@@ -3801,10 +3812,10 @@
     </row>
     <row r="197" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B197" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C197" s="5" t="s">
         <v>5</v>
@@ -3812,10 +3823,10 @@
     </row>
     <row r="198" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C198" s="5" t="s">
         <v>5</v>
@@ -3823,10 +3834,10 @@
     </row>
     <row r="199" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B199" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C199" s="5" t="s">
         <v>5</v>
@@ -3834,10 +3845,10 @@
     </row>
     <row r="200" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>5</v>
@@ -3845,10 +3856,10 @@
     </row>
     <row r="201" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B201" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>5</v>
@@ -3856,10 +3867,10 @@
     </row>
     <row r="202" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>5</v>
@@ -3867,10 +3878,10 @@
     </row>
     <row r="203" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B203" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>5</v>
@@ -3878,10 +3889,10 @@
     </row>
     <row r="204" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>5</v>
@@ -3889,10 +3900,10 @@
     </row>
     <row r="205" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B205" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>5</v>
@@ -3900,10 +3911,10 @@
     </row>
     <row r="206" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B206" s="13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>5</v>
@@ -3911,10 +3922,10 @@
     </row>
     <row r="207" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B207" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C207" s="5" t="s">
         <v>5</v>
@@ -3922,10 +3933,10 @@
     </row>
     <row r="208" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C208" s="5" t="s">
         <v>5</v>
@@ -3933,10 +3944,10 @@
     </row>
     <row r="209" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>5</v>
@@ -3944,10 +3955,10 @@
     </row>
     <row r="210" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C210" s="5" t="s">
         <v>5</v>
@@ -3955,10 +3966,10 @@
     </row>
     <row r="211" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>5</v>
@@ -3976,10 +3987,10 @@
     </row>
     <row r="214" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B214" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C214" s="5" t="s">
         <v>5</v>
@@ -3987,10 +3998,10 @@
     </row>
     <row r="215" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>5</v>
@@ -3998,10 +4009,10 @@
     </row>
     <row r="216" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>5</v>
@@ -4009,10 +4020,10 @@
     </row>
     <row r="217" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>5</v>
@@ -4020,10 +4031,10 @@
     </row>
     <row r="218" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B218" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>5</v>
@@ -4031,10 +4042,10 @@
     </row>
     <row r="219" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>5</v>
@@ -4042,10 +4053,10 @@
     </row>
     <row r="220" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="B220" s="21" t="s">
-        <v>216</v>
+        <v>210</v>
+      </c>
+      <c r="B220" s="22" t="s">
+        <v>217</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>5</v>
@@ -4053,10 +4064,10 @@
     </row>
     <row r="221" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>5</v>
@@ -4064,10 +4075,10 @@
     </row>
     <row r="222" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C222" s="5" t="s">
         <v>5</v>
@@ -4075,10 +4086,10 @@
     </row>
     <row r="223" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>5</v>
@@ -4086,10 +4097,10 @@
     </row>
     <row r="224" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>5</v>
@@ -4097,10 +4108,10 @@
     </row>
     <row r="225" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B225" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>5</v>
@@ -4108,10 +4119,10 @@
     </row>
     <row r="226" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B226" s="13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>5</v>
@@ -4119,10 +4130,10 @@
     </row>
     <row r="227" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B227" s="13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>5</v>
@@ -4130,10 +4141,10 @@
     </row>
     <row r="228" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B228" s="13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C228" s="5" t="s">
         <v>5</v>
@@ -4141,10 +4152,10 @@
     </row>
     <row r="229" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B229" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C229" s="5" t="s">
         <v>5</v>
@@ -4152,10 +4163,10 @@
     </row>
     <row r="230" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B230" s="13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C230" s="5" t="s">
         <v>5</v>
@@ -4163,10 +4174,10 @@
     </row>
     <row r="231" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B231" s="13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>5</v>
@@ -4174,10 +4185,10 @@
     </row>
     <row r="232" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B232" s="13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C232" s="5" t="s">
         <v>5</v>
@@ -4185,10 +4196,10 @@
     </row>
     <row r="233" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B233" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>5</v>
@@ -4196,10 +4207,10 @@
     </row>
     <row r="234" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C234" s="5" t="s">
         <v>5</v>
@@ -4207,10 +4218,10 @@
     </row>
     <row r="235" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B235" s="13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>5</v>
@@ -4226,10 +4237,10 @@
     </row>
     <row r="238" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>5</v>
@@ -4237,10 +4248,10 @@
     </row>
     <row r="239" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B239" s="13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>5</v>
@@ -4248,10 +4259,10 @@
     </row>
     <row r="240" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B240" s="13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>5</v>
@@ -4259,10 +4270,10 @@
     </row>
     <row r="241" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B241" s="13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>5</v>
@@ -4270,10 +4281,10 @@
     </row>
     <row r="242" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B242" s="13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>5</v>
@@ -4281,10 +4292,10 @@
     </row>
     <row r="243" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B243" s="13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>5</v>
@@ -4292,10 +4303,10 @@
     </row>
     <row r="244" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>5</v>
@@ -4303,10 +4314,10 @@
     </row>
     <row r="245" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B245" s="13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>5</v>
@@ -4314,10 +4325,10 @@
     </row>
     <row r="246" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B246" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>5</v>
@@ -4325,10 +4336,10 @@
     </row>
     <row r="247" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B247" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>5</v>
@@ -4336,10 +4347,10 @@
     </row>
     <row r="248" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B248" s="13" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>5</v>
@@ -4347,10 +4358,10 @@
     </row>
     <row r="249" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B249" s="13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>5</v>
@@ -4358,10 +4369,10 @@
     </row>
     <row r="250" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B250" s="13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C250" s="5" t="s">
         <v>5</v>
@@ -4369,10 +4380,10 @@
     </row>
     <row r="251" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B251" s="13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C251" s="5" t="s">
         <v>5</v>
@@ -4380,10 +4391,10 @@
     </row>
     <row r="252" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B252" s="13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>5</v>
@@ -4391,10 +4402,10 @@
     </row>
     <row r="253" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B253" s="13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>5</v>
@@ -4402,10 +4413,10 @@
     </row>
     <row r="254" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B254" s="13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C254" s="5" t="s">
         <v>5</v>
@@ -4413,10 +4424,10 @@
     </row>
     <row r="255" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B255" s="13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>5</v>
@@ -4424,10 +4435,10 @@
     </row>
     <row r="256" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B256" s="13" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>5</v>
@@ -4435,10 +4446,10 @@
     </row>
     <row r="257" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B257" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>5</v>
@@ -4446,10 +4457,10 @@
     </row>
     <row r="258" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B258" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C258" s="5" t="s">
         <v>5</v>
@@ -4457,10 +4468,10 @@
     </row>
     <row r="259" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B259" s="13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>5</v>
@@ -4468,10 +4479,10 @@
     </row>
     <row r="260" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B260" s="13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>5</v>
@@ -4479,10 +4490,10 @@
     </row>
     <row r="261" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B261" s="13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>5</v>
@@ -4490,10 +4501,10 @@
     </row>
     <row r="262" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B262" s="13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>5</v>
@@ -4501,10 +4512,10 @@
     </row>
     <row r="263" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B263" s="13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>5</v>
@@ -4512,10 +4523,10 @@
     </row>
     <row r="264" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B264" s="13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>5</v>
@@ -4523,10 +4534,10 @@
     </row>
     <row r="265" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B265" s="13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>5</v>
@@ -4534,10 +4545,10 @@
     </row>
     <row r="266" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B266" s="13" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>5</v>
@@ -4545,10 +4556,10 @@
     </row>
     <row r="267" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B267" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>5</v>
@@ -4556,10 +4567,10 @@
     </row>
     <row r="268" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B268" s="13" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C268" s="5" t="s">
         <v>5</v>
@@ -4567,10 +4578,10 @@
     </row>
     <row r="269" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B269" s="13" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>5</v>
@@ -4578,10 +4589,10 @@
     </row>
     <row r="270" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B270" s="13" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C270" s="5" t="s">
         <v>5</v>
@@ -4589,7 +4600,7 @@
     </row>
     <row r="271" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B271" s="13" t="s">
         <v>88</v>
@@ -4600,10 +4611,10 @@
     </row>
     <row r="272" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B272" s="13" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C272" s="5" t="s">
         <v>5</v>
@@ -4619,10 +4630,10 @@
     </row>
     <row r="275" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B275" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>5</v>
@@ -4630,10 +4641,10 @@
     </row>
     <row r="276" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B276" s="13" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C276" s="5" t="s">
         <v>5</v>
@@ -4641,10 +4652,10 @@
     </row>
     <row r="277" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B277" s="13" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>5</v>
@@ -4652,10 +4663,10 @@
     </row>
     <row r="278" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B278" s="13" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C278" s="5" t="s">
         <v>5</v>
@@ -4663,10 +4674,10 @@
     </row>
     <row r="279" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B279" s="13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C279" s="5" t="s">
         <v>5</v>
@@ -4674,10 +4685,10 @@
     </row>
     <row r="280" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B280" s="13" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C280" s="5" t="s">
         <v>5</v>
@@ -4685,10 +4696,10 @@
     </row>
     <row r="281" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B281" s="13" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C281" s="5" t="s">
         <v>5</v>
@@ -4696,10 +4707,10 @@
     </row>
     <row r="282" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B282" s="13" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C282" s="5" t="s">
         <v>5</v>
@@ -4707,10 +4718,10 @@
     </row>
     <row r="283" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B283" s="13" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C283" s="5" t="s">
         <v>5</v>
@@ -4718,10 +4729,10 @@
     </row>
     <row r="284" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B284" s="13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C284" s="5" t="s">
         <v>5</v>
@@ -4729,10 +4740,10 @@
     </row>
     <row r="285" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B285" s="13" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C285" s="5" t="s">
         <v>5</v>
@@ -4740,10 +4751,10 @@
     </row>
     <row r="286" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B286" s="13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C286" s="5" t="s">
         <v>5</v>
@@ -4751,10 +4762,10 @@
     </row>
     <row r="287" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B287" s="13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C287" s="5" t="s">
         <v>5</v>
@@ -4762,10 +4773,10 @@
     </row>
     <row r="288" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B288" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>5</v>
@@ -4773,10 +4784,10 @@
     </row>
     <row r="289" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B289" s="13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>5</v>
@@ -4784,10 +4795,10 @@
     </row>
     <row r="290" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B290" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>5</v>
@@ -4795,10 +4806,10 @@
     </row>
     <row r="291" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B291" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>5</v>
@@ -4806,10 +4817,10 @@
     </row>
     <row r="292" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B292" s="13" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>5</v>
@@ -4817,10 +4828,10 @@
     </row>
     <row r="293" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B293" s="13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>5</v>
@@ -4836,10 +4847,10 @@
     </row>
     <row r="296" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B296" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>5</v>
@@ -4847,10 +4858,10 @@
     </row>
     <row r="297" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B297" s="13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>5</v>
@@ -4858,10 +4869,10 @@
     </row>
     <row r="298" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B298" s="13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>5</v>
@@ -4869,10 +4880,10 @@
     </row>
     <row r="299" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B299" s="13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>5</v>
@@ -4880,10 +4891,10 @@
     </row>
     <row r="300" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B300" s="13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C300" s="5" t="s">
         <v>5</v>
@@ -4891,10 +4902,10 @@
     </row>
     <row r="301" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B301" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>5</v>
@@ -4902,10 +4913,10 @@
     </row>
     <row r="302" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B302" s="13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C302" s="5" t="s">
         <v>5</v>
@@ -4913,10 +4924,10 @@
     </row>
     <row r="303" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B303" s="13" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C303" s="5" t="s">
         <v>5</v>
@@ -4924,10 +4935,10 @@
     </row>
     <row r="304" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B304" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C304" s="5" t="s">
         <v>5</v>
@@ -4935,10 +4946,10 @@
     </row>
     <row r="305" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B305" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C305" s="5" t="s">
         <v>5</v>
@@ -4946,10 +4957,10 @@
     </row>
     <row r="306" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B306" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C306" s="5" t="s">
         <v>5</v>
@@ -4957,10 +4968,10 @@
     </row>
     <row r="307" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B307" s="13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C307" s="5" t="s">
         <v>5</v>
@@ -4968,10 +4979,10 @@
     </row>
     <row r="308" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B308" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>5</v>
@@ -4979,10 +4990,10 @@
     </row>
     <row r="309" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="B309" s="21" t="s">
-        <v>301</v>
+        <v>288</v>
+      </c>
+      <c r="B309" s="22" t="s">
+        <v>302</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>5</v>
@@ -4990,10 +5001,10 @@
     </row>
     <row r="310" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B310" s="13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>5</v>
@@ -5001,10 +5012,10 @@
     </row>
     <row r="311" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B311" s="13" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>5</v>
@@ -5012,10 +5023,10 @@
     </row>
     <row r="312" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B312" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>5</v>
@@ -5023,10 +5034,10 @@
     </row>
     <row r="313" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B313" s="13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>5</v>
@@ -5034,10 +5045,10 @@
     </row>
     <row r="314" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B314" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C314" s="5" t="s">
         <v>5</v>
@@ -5045,10 +5056,10 @@
     </row>
     <row r="315" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B315" s="13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C315" s="5" t="s">
         <v>5</v>
@@ -5056,10 +5067,10 @@
     </row>
     <row r="316" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B316" s="13" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>5</v>
@@ -5067,10 +5078,10 @@
     </row>
     <row r="317" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B317" s="13" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C317" s="5" t="s">
         <v>5</v>
@@ -5078,10 +5089,10 @@
     </row>
     <row r="318" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B318" s="13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C318" s="5" t="s">
         <v>5</v>
@@ -5089,10 +5100,10 @@
     </row>
     <row r="319" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B319" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>5</v>
@@ -5100,10 +5111,10 @@
     </row>
     <row r="320" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B320" s="13" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C320" s="5" t="s">
         <v>5</v>
@@ -5111,10 +5122,10 @@
     </row>
     <row r="321" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B321" s="13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>5</v>
@@ -5122,10 +5133,10 @@
     </row>
     <row r="322" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B322" s="13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C322" s="5" t="s">
         <v>5</v>
@@ -5133,10 +5144,10 @@
     </row>
     <row r="323" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B323" s="13" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>5</v>
@@ -5144,10 +5155,10 @@
     </row>
     <row r="324" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B324" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>5</v>
@@ -5155,10 +5166,10 @@
     </row>
     <row r="325" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B325" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>5</v>
@@ -5166,10 +5177,10 @@
     </row>
     <row r="326" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B326" s="13" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>5</v>
@@ -5177,10 +5188,10 @@
     </row>
     <row r="327" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B327" s="13" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>5</v>
@@ -5188,10 +5199,10 @@
     </row>
     <row r="328" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B328" s="13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>5</v>
@@ -5199,10 +5210,10 @@
     </row>
     <row r="329" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B329" s="13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>5</v>
@@ -5210,10 +5221,10 @@
     </row>
     <row r="330" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B330" s="13" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>5</v>
@@ -5221,10 +5232,10 @@
     </row>
     <row r="331" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B331" s="13" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>5</v>
@@ -5232,10 +5243,10 @@
     </row>
     <row r="332" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B332" s="13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>5</v>
@@ -5243,10 +5254,10 @@
     </row>
     <row r="333" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B333" s="13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C333" s="5" t="s">
         <v>5</v>
@@ -5262,10 +5273,10 @@
     </row>
     <row r="336" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B336" s="13" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>5</v>
@@ -5273,10 +5284,10 @@
     </row>
     <row r="337" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B337" s="13" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>5</v>
@@ -5284,10 +5295,10 @@
     </row>
     <row r="338" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B338" s="13" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>5</v>
@@ -5295,10 +5306,10 @@
     </row>
     <row r="339" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B339" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>5</v>
@@ -5306,10 +5317,10 @@
     </row>
     <row r="340" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B340" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>5</v>
@@ -5317,10 +5328,10 @@
     </row>
     <row r="341" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B341" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>5</v>
@@ -5328,10 +5339,10 @@
     </row>
     <row r="342" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B342" s="13" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>5</v>
@@ -5339,10 +5350,10 @@
     </row>
     <row r="343" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B343" s="13" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>5</v>
@@ -5350,10 +5361,10 @@
     </row>
     <row r="344" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="B344" s="21" t="s">
-        <v>335</v>
+        <v>327</v>
+      </c>
+      <c r="B344" s="22" t="s">
+        <v>336</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>5</v>
@@ -5361,10 +5372,10 @@
     </row>
     <row r="345" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B345" s="13" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>5</v>
@@ -5372,10 +5383,10 @@
     </row>
     <row r="346" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B346" s="13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>5</v>
@@ -5383,10 +5394,10 @@
     </row>
     <row r="347" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B347" s="13" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>5</v>
@@ -5394,10 +5405,10 @@
     </row>
     <row r="348" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B348" s="13" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>5</v>
@@ -5405,10 +5416,10 @@
     </row>
     <row r="349" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B349" s="13" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>5</v>
@@ -5416,10 +5427,10 @@
     </row>
     <row r="350" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B350" s="13" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>5</v>
@@ -5427,10 +5438,10 @@
     </row>
     <row r="351" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B351" s="13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>5</v>
@@ -5438,10 +5449,10 @@
     </row>
     <row r="352" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B352" s="13" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>5</v>
@@ -5449,10 +5460,10 @@
     </row>
     <row r="353" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B353" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>5</v>
@@ -5468,10 +5479,10 @@
     </row>
     <row r="356" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B356" s="13" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>5</v>
@@ -5479,10 +5490,10 @@
     </row>
     <row r="357" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B357" s="13" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>5</v>
@@ -5490,10 +5501,10 @@
     </row>
     <row r="358" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B358" s="13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>5</v>
@@ -5501,10 +5512,10 @@
     </row>
     <row r="359" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B359" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>5</v>
@@ -5512,10 +5523,10 @@
     </row>
     <row r="360" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B360" s="13" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C360" s="5" t="s">
         <v>5</v>
@@ -5523,10 +5534,10 @@
     </row>
     <row r="361" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B361" s="13" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C361" s="5" t="s">
         <v>5</v>
@@ -5534,10 +5545,10 @@
     </row>
     <row r="362" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B362" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C362" s="5" t="s">
         <v>5</v>
@@ -5545,10 +5556,10 @@
     </row>
     <row r="363" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B363" s="13" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C363" s="5" t="s">
         <v>5</v>
@@ -5556,10 +5567,10 @@
     </row>
     <row r="364" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B364" s="13" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C364" s="5" t="s">
         <v>5</v>
@@ -5567,10 +5578,10 @@
     </row>
     <row r="365" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B365" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>5</v>
@@ -5578,10 +5589,10 @@
     </row>
     <row r="366" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B366" s="13" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>5</v>
@@ -5589,10 +5600,10 @@
     </row>
     <row r="367" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B367" s="13" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C367" s="5" t="s">
         <v>5</v>
@@ -5600,10 +5611,10 @@
     </row>
     <row r="368" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B368" s="13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C368" s="5" t="s">
         <v>5</v>
@@ -5611,10 +5622,10 @@
     </row>
     <row r="369" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B369" s="13" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C369" s="5" t="s">
         <v>5</v>
@@ -5622,10 +5633,10 @@
     </row>
     <row r="370" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B370" s="13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C370" s="5" t="s">
         <v>5</v>
@@ -5633,10 +5644,10 @@
     </row>
     <row r="371" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B371" s="13" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>5</v>
@@ -5644,10 +5655,10 @@
     </row>
     <row r="372" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B372" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C372" s="5" t="s">
         <v>5</v>
@@ -5655,10 +5666,10 @@
     </row>
     <row r="373" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B373" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>5</v>
@@ -5666,10 +5677,10 @@
     </row>
     <row r="374" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B374" s="13" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>5</v>
@@ -5677,10 +5688,10 @@
     </row>
     <row r="375" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B375" s="13" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C375" s="5" t="s">
         <v>5</v>
@@ -5688,10 +5699,10 @@
     </row>
     <row r="376" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B376" s="13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C376" s="5" t="s">
         <v>5</v>
@@ -5699,10 +5710,10 @@
     </row>
     <row r="377" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B377" s="13" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C377" s="5" t="s">
         <v>5</v>
@@ -5710,10 +5721,10 @@
     </row>
     <row r="378" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B378" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C378" s="5" t="s">
         <v>5</v>
@@ -5721,10 +5732,10 @@
     </row>
     <row r="379" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B379" s="13" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>5</v>
@@ -5732,10 +5743,10 @@
     </row>
     <row r="380" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B380" s="13" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C380" s="5" t="s">
         <v>5</v>
@@ -5743,10 +5754,10 @@
     </row>
     <row r="381" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B381" s="13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C381" s="5" t="s">
         <v>5</v>
@@ -5754,10 +5765,10 @@
     </row>
     <row r="382" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B382" s="13" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C382" s="5" t="s">
         <v>5</v>
@@ -5765,10 +5776,10 @@
     </row>
     <row r="383" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B383" s="13" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>5</v>
@@ -5776,10 +5787,10 @@
     </row>
     <row r="384" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B384" s="13" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C384" s="5" t="s">
         <v>5</v>
@@ -5787,10 +5798,10 @@
     </row>
     <row r="385" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B385" s="13" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>5</v>
@@ -5798,10 +5809,10 @@
     </row>
     <row r="386" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B386" s="13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C386" s="5" t="s">
         <v>5</v>
@@ -5809,10 +5820,10 @@
     </row>
     <row r="387" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B387" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C387" s="5" t="s">
         <v>5</v>
@@ -5820,10 +5831,10 @@
     </row>
     <row r="388" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B388" s="13" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>5</v>
@@ -5831,10 +5842,10 @@
     </row>
     <row r="389" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B389" s="13" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>5</v>
@@ -5842,10 +5853,10 @@
     </row>
     <row r="390" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B390" s="13" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C390" s="5" t="s">
         <v>5</v>
@@ -5853,10 +5864,10 @@
     </row>
     <row r="391" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B391" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>5</v>
@@ -5864,10 +5875,10 @@
     </row>
     <row r="392" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B392" s="13" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C392" s="5" t="s">
         <v>5</v>
@@ -5875,10 +5886,10 @@
     </row>
     <row r="393" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B393" s="13" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>5</v>
@@ -5886,10 +5897,10 @@
     </row>
     <row r="394" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B394" s="13" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C394" s="5" t="s">
         <v>5</v>
@@ -5897,10 +5908,10 @@
     </row>
     <row r="395" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B395" s="13" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>5</v>
@@ -5908,10 +5919,10 @@
     </row>
     <row r="396" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B396" s="13" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>5</v>
@@ -5919,10 +5930,10 @@
     </row>
     <row r="397" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B397" s="13" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>5</v>
@@ -5930,10 +5941,10 @@
     </row>
     <row r="398" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B398" s="13" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C398" s="5" t="s">
         <v>5</v>
@@ -5941,10 +5952,10 @@
     </row>
     <row r="399" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B399" s="13" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C399" s="5" t="s">
         <v>5</v>
@@ -5960,10 +5971,10 @@
     </row>
     <row r="402" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="12" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B402" s="13" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C402" s="5" t="s">
         <v>5</v>
@@ -5971,10 +5982,10 @@
     </row>
     <row r="403" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="12" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B403" s="13" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>5</v>
@@ -5982,10 +5993,10 @@
     </row>
     <row r="404" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="12" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B404" s="13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>5</v>
@@ -5993,7 +6004,7 @@
     </row>
     <row r="405" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="12" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B405" s="13" t="s">
         <v>90</v>
@@ -6004,10 +6015,10 @@
     </row>
     <row r="406" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="12" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B406" s="13" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>5</v>
@@ -6015,10 +6026,10 @@
     </row>
     <row r="407" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="12" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B407" s="13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>5</v>
@@ -6034,10 +6045,10 @@
     </row>
     <row r="410" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B410" s="13" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C410" s="5" t="s">
         <v>5</v>
@@ -6045,10 +6056,10 @@
     </row>
     <row r="411" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B411" s="13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C411" s="5" t="s">
         <v>5</v>
@@ -6056,10 +6067,10 @@
     </row>
     <row r="412" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B412" s="13" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C412" s="5" t="s">
         <v>5</v>
@@ -6067,10 +6078,10 @@
     </row>
     <row r="413" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B413" s="13" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C413" s="5" t="s">
         <v>5</v>
@@ -6078,10 +6089,10 @@
     </row>
     <row r="414" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B414" s="13" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C414" s="5" t="s">
         <v>5</v>
@@ -6089,10 +6100,10 @@
     </row>
     <row r="415" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B415" s="13" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C415" s="5" t="s">
         <v>5</v>
@@ -6100,10 +6111,10 @@
     </row>
     <row r="416" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B416" s="13" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C416" s="5" t="s">
         <v>5</v>
@@ -6111,10 +6122,10 @@
     </row>
     <row r="417" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B417" s="13" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C417" s="5" t="s">
         <v>5</v>
@@ -6122,10 +6133,10 @@
     </row>
     <row r="418" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B418" s="13" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C418" s="5" t="s">
         <v>5</v>
@@ -6133,10 +6144,10 @@
     </row>
     <row r="419" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B419" s="13" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C419" s="5" t="s">
         <v>5</v>
@@ -6144,10 +6155,10 @@
     </row>
     <row r="420" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B420" s="13" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C420" s="5" t="s">
         <v>5</v>
@@ -6155,10 +6166,10 @@
     </row>
     <row r="421" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B421" s="13" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C421" s="5" t="s">
         <v>5</v>
@@ -6166,10 +6177,10 @@
     </row>
     <row r="422" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B422" s="13" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C422" s="5" t="s">
         <v>5</v>
@@ -6177,10 +6188,10 @@
     </row>
     <row r="423" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B423" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C423" s="5" t="s">
         <v>5</v>
@@ -6188,10 +6199,10 @@
     </row>
     <row r="424" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B424" s="13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C424" s="5" t="s">
         <v>5</v>
@@ -6199,10 +6210,10 @@
     </row>
     <row r="425" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B425" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C425" s="5" t="s">
         <v>5</v>
@@ -6210,10 +6221,10 @@
     </row>
     <row r="426" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B426" s="13" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C426" s="5" t="s">
         <v>5</v>
@@ -6221,10 +6232,10 @@
     </row>
     <row r="427" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B427" s="13" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C427" s="5" t="s">
         <v>5</v>
@@ -6232,10 +6243,10 @@
     </row>
     <row r="428" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B428" s="13" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C428" s="5" t="s">
         <v>5</v>
@@ -6243,10 +6254,10 @@
     </row>
     <row r="429" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B429" s="13" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C429" s="5" t="s">
         <v>5</v>
@@ -6254,10 +6265,10 @@
     </row>
     <row r="430" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B430" s="13" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C430" s="5" t="s">
         <v>5</v>
@@ -6265,10 +6276,10 @@
     </row>
     <row r="431" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B431" s="13" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C431" s="5" t="s">
         <v>5</v>
@@ -6276,10 +6287,10 @@
     </row>
     <row r="432" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B432" s="13" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C432" s="5" t="s">
         <v>5</v>
@@ -6287,10 +6298,10 @@
     </row>
     <row r="433" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B433" s="13" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C433" s="5" t="s">
         <v>5</v>
@@ -6298,10 +6309,10 @@
     </row>
     <row r="434" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B434" s="13" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C434" s="5" t="s">
         <v>5</v>
@@ -6309,10 +6320,10 @@
     </row>
     <row r="435" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B435" s="13" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C435" s="5" t="s">
         <v>5</v>
@@ -6320,10 +6331,10 @@
     </row>
     <row r="436" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B436" s="13" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C436" s="5" t="s">
         <v>5</v>
@@ -6331,10 +6342,10 @@
     </row>
     <row r="437" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B437" s="13" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C437" s="5" t="s">
         <v>5</v>
@@ -6342,10 +6353,10 @@
     </row>
     <row r="438" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B438" s="13" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C438" s="5" t="s">
         <v>5</v>
@@ -6353,10 +6364,10 @@
     </row>
     <row r="439" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B439" s="13" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>5</v>
@@ -6364,10 +6375,10 @@
     </row>
     <row r="440" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B440" s="13" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C440" s="5" t="s">
         <v>5</v>
@@ -6375,10 +6386,10 @@
     </row>
     <row r="441" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B441" s="13" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C441" s="5" t="s">
         <v>5</v>
@@ -6386,10 +6397,10 @@
     </row>
     <row r="442" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B442" s="13" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C442" s="5" t="s">
         <v>5</v>
@@ -6397,10 +6408,10 @@
     </row>
     <row r="443" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B443" s="13" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C443" s="5" t="s">
         <v>5</v>
@@ -6408,10 +6419,10 @@
     </row>
     <row r="444" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B444" s="13" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C444" s="5" t="s">
         <v>5</v>
@@ -6419,10 +6430,10 @@
     </row>
     <row r="445" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B445" s="13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C445" s="5" t="s">
         <v>5</v>
@@ -6430,10 +6441,10 @@
     </row>
     <row r="446" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B446" s="13" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C446" s="5" t="s">
         <v>5</v>
@@ -6441,10 +6452,10 @@
     </row>
     <row r="447" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B447" s="13" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C447" s="5" t="s">
         <v>5</v>
@@ -6452,10 +6463,10 @@
     </row>
     <row r="448" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B448" s="13" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C448" s="5" t="s">
         <v>5</v>
@@ -6463,10 +6474,10 @@
     </row>
     <row r="449" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B449" s="13" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C449" s="5" t="s">
         <v>5</v>
@@ -6474,10 +6485,10 @@
     </row>
     <row r="450" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B450" s="13" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C450" s="5" t="s">
         <v>5</v>
@@ -6485,10 +6496,10 @@
     </row>
     <row r="451" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B451" s="13" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C451" s="5" t="s">
         <v>5</v>
@@ -6496,10 +6507,10 @@
     </row>
     <row r="452" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B452" s="13" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C452" s="5" t="s">
         <v>5</v>
@@ -6507,10 +6518,10 @@
     </row>
     <row r="453" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B453" s="13" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C453" s="5" t="s">
         <v>5</v>
@@ -6518,10 +6529,10 @@
     </row>
     <row r="454" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B454" s="13" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C454" s="5" t="s">
         <v>5</v>
@@ -6529,10 +6540,10 @@
     </row>
     <row r="455" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B455" s="13" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C455" s="5" t="s">
         <v>5</v>
@@ -6540,10 +6551,10 @@
     </row>
     <row r="456" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B456" s="13" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C456" s="5" t="s">
         <v>5</v>
@@ -6551,10 +6562,10 @@
     </row>
     <row r="457" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B457" s="13" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C457" s="5" t="s">
         <v>5</v>
@@ -6562,10 +6573,10 @@
     </row>
     <row r="458" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B458" s="13" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C458" s="5" t="s">
         <v>5</v>
@@ -6573,10 +6584,10 @@
     </row>
     <row r="459" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B459" s="13" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C459" s="5" t="s">
         <v>5</v>
@@ -6584,10 +6595,10 @@
     </row>
     <row r="460" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B460" s="13" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C460" s="5" t="s">
         <v>5</v>
@@ -6595,10 +6606,10 @@
     </row>
     <row r="461" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B461" s="13" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C461" s="5" t="s">
         <v>5</v>
@@ -6606,10 +6617,10 @@
     </row>
     <row r="462" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B462" s="13" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C462" s="5" t="s">
         <v>5</v>
@@ -6617,10 +6628,10 @@
     </row>
     <row r="463" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B463" s="13" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C463" s="5" t="s">
         <v>5</v>
@@ -6628,10 +6639,10 @@
     </row>
     <row r="464" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B464" s="13" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C464" s="5" t="s">
         <v>5</v>
@@ -6639,10 +6650,10 @@
     </row>
     <row r="465" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B465" s="13" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C465" s="5" t="s">
         <v>5</v>
@@ -6650,10 +6661,10 @@
     </row>
     <row r="466" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B466" s="13" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C466" s="5" t="s">
         <v>5</v>
@@ -6661,10 +6672,10 @@
     </row>
     <row r="467" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B467" s="13" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C467" s="5" t="s">
         <v>5</v>
@@ -6672,10 +6683,10 @@
     </row>
     <row r="468" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B468" s="13" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C468" s="5" t="s">
         <v>5</v>
@@ -6683,10 +6694,10 @@
     </row>
     <row r="469" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B469" s="13" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C469" s="5" t="s">
         <v>5</v>
@@ -6703,10 +6714,10 @@
     </row>
     <row r="472" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="12" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B472" s="13" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C472" s="5" t="s">
         <v>5</v>
@@ -6714,10 +6725,10 @@
     </row>
     <row r="473" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="12" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B473" s="13" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C473" s="5" t="s">
         <v>5</v>
@@ -6725,10 +6736,10 @@
     </row>
     <row r="474" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="12" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B474" s="13" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C474" s="5" t="s">
         <v>5</v>
@@ -6736,10 +6747,10 @@
     </row>
     <row r="475" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="12" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B475" s="13" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C475" s="5" t="s">
         <v>5</v>
@@ -6747,10 +6758,10 @@
     </row>
     <row r="476" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="12" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B476" s="13" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C476" s="5" t="s">
         <v>5</v>
@@ -6758,10 +6769,10 @@
     </row>
     <row r="477" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="12" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B477" s="13" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C477" s="5" t="s">
         <v>5</v>
@@ -6769,10 +6780,10 @@
     </row>
     <row r="478" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="12" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B478" s="13" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C478" s="5" t="s">
         <v>5</v>
@@ -6780,10 +6791,10 @@
     </row>
     <row r="479" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="12" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B479" s="13" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C479" s="5" t="s">
         <v>5</v>
@@ -6791,10 +6802,10 @@
     </row>
     <row r="480" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="12" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B480" s="13" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C480" s="5" t="s">
         <v>5</v>
@@ -6802,10 +6813,10 @@
     </row>
     <row r="481" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="12" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B481" s="13" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C481" s="5" t="s">
         <v>5</v>

--- a/java/resources/FINAL450.xlsx
+++ b/java/resources/FINAL450.xlsx
@@ -1502,7 +1502,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1531,6 +1531,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFE6E905"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3FAF46"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1571,7 +1577,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1660,6 +1666,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1725,7 +1743,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF3FAF46"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF224B12"/>
       <rgbColor rgb="FF993300"/>
@@ -1744,11 +1762,11 @@
   </sheetPr>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A172" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A186" activeCellId="0" sqref="A186"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A190" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A197" activeCellId="0" sqref="A197"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55859375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -3701,112 +3719,112 @@
       </c>
     </row>
     <row r="187" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="12" t="s">
+      <c r="A187" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B187" s="13" t="s">
+      <c r="B187" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C187" s="5" t="s">
+      <c r="C187" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="12" t="s">
+      <c r="A188" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B188" s="13" t="s">
+      <c r="B188" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C188" s="5" t="s">
+      <c r="C188" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="12" t="s">
+      <c r="A189" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B189" s="13" t="s">
+      <c r="B189" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C189" s="5" t="s">
+      <c r="C189" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="12" t="s">
+      <c r="A190" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B190" s="13" t="s">
+      <c r="B190" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C190" s="5" t="s">
+      <c r="C190" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="12" t="s">
+      <c r="A191" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B191" s="13" t="s">
+      <c r="B191" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C191" s="5" t="s">
+      <c r="C191" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="12" t="s">
+      <c r="A192" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="B192" s="13" t="s">
+      <c r="B192" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="C192" s="5" t="s">
+      <c r="C192" s="24" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="12" t="s">
+      <c r="A193" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B193" s="13" t="s">
+      <c r="B193" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C193" s="5" t="s">
+      <c r="C193" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="12" t="s">
+      <c r="A194" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B194" s="13" t="s">
+      <c r="B194" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C194" s="5" t="s">
+      <c r="C194" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="12" t="s">
+      <c r="A195" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B195" s="13" t="s">
+      <c r="B195" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C195" s="5" t="s">
+      <c r="C195" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="12" t="s">
+      <c r="A196" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B196" s="13" t="s">
+      <c r="B196" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C196" s="5" t="s">
+      <c r="C196" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4055,7 +4073,7 @@
       <c r="A220" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="B220" s="22" t="s">
+      <c r="B220" s="25" t="s">
         <v>217</v>
       </c>
       <c r="C220" s="5" t="s">
@@ -4992,7 +5010,7 @@
       <c r="A309" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="B309" s="22" t="s">
+      <c r="B309" s="25" t="s">
         <v>302</v>
       </c>
       <c r="C309" s="5" t="s">
@@ -5363,7 +5381,7 @@
       <c r="A344" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="B344" s="22" t="s">
+      <c r="B344" s="25" t="s">
         <v>336</v>
       </c>
       <c r="C344" s="5" t="s">

--- a/java/resources/FINAL450.xlsx
+++ b/java/resources/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="468">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -614,6 +614,9 @@
   </si>
   <si>
     <t xml:space="preserve">Check if all leaf nodes are at same level or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/</t>
   </si>
   <si>
     <t xml:space="preserve">Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]</t>
@@ -1763,10 +1766,10 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A190" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A197" activeCellId="0" sqref="A197"/>
+      <selection pane="topLeft" activeCell="B194" activeCellId="0" sqref="B194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55859375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -3829,46 +3832,46 @@
       </c>
     </row>
     <row r="197" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="12" t="s">
+      <c r="A197" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B197" s="13" t="s">
+      <c r="B197" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C197" s="5" t="s">
+      <c r="C197" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="12" t="s">
+      <c r="A198" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B198" s="13" t="s">
+      <c r="B198" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="C198" s="5" t="s">
+      <c r="C198" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="12" t="s">
+      <c r="A199" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B199" s="13" t="s">
+      <c r="B199" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C199" s="5" t="s">
+      <c r="C199" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="B200" s="13" t="s">
+      <c r="A200" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C200" s="5" t="s">
+      <c r="B200" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C200" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3877,64 +3880,64 @@
         <v>174</v>
       </c>
       <c r="B201" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="12" t="s">
+      <c r="A202" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B202" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="C202" s="5" t="s">
+      <c r="B202" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C202" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="12" t="s">
+      <c r="A203" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="B203" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="C203" s="5" t="s">
+      <c r="B203" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C203" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="12" t="s">
+      <c r="A204" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B204" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C204" s="5" t="s">
+      <c r="B204" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C204" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="12" t="s">
+      <c r="A205" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B205" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C205" s="5" t="s">
+      <c r="B205" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C205" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="12" t="s">
+      <c r="A206" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B206" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="C206" s="5" t="s">
+      <c r="B206" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C206" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3943,7 +3946,7 @@
         <v>174</v>
       </c>
       <c r="B207" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C207" s="5" t="s">
         <v>5</v>
@@ -3954,7 +3957,7 @@
         <v>174</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C208" s="5" t="s">
         <v>5</v>
@@ -3965,7 +3968,7 @@
         <v>174</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>5</v>
@@ -3976,7 +3979,7 @@
         <v>174</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C210" s="5" t="s">
         <v>5</v>
@@ -3987,7 +3990,7 @@
         <v>174</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>5</v>
@@ -4005,10 +4008,10 @@
     </row>
     <row r="214" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B214" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C214" s="5" t="s">
         <v>5</v>
@@ -4016,10 +4019,10 @@
     </row>
     <row r="215" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>5</v>
@@ -4027,10 +4030,10 @@
     </row>
     <row r="216" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>5</v>
@@ -4038,10 +4041,10 @@
     </row>
     <row r="217" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>5</v>
@@ -4049,10 +4052,10 @@
     </row>
     <row r="218" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B218" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>5</v>
@@ -4060,10 +4063,10 @@
     </row>
     <row r="219" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>5</v>
@@ -4071,10 +4074,10 @@
     </row>
     <row r="220" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B220" s="25" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>5</v>
@@ -4082,10 +4085,10 @@
     </row>
     <row r="221" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>5</v>
@@ -4093,10 +4096,10 @@
     </row>
     <row r="222" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C222" s="5" t="s">
         <v>5</v>
@@ -4104,10 +4107,10 @@
     </row>
     <row r="223" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>5</v>
@@ -4115,10 +4118,10 @@
     </row>
     <row r="224" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>5</v>
@@ -4126,10 +4129,10 @@
     </row>
     <row r="225" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B225" s="13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>5</v>
@@ -4137,10 +4140,10 @@
     </row>
     <row r="226" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B226" s="13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>5</v>
@@ -4148,10 +4151,10 @@
     </row>
     <row r="227" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B227" s="13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>5</v>
@@ -4159,10 +4162,10 @@
     </row>
     <row r="228" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B228" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C228" s="5" t="s">
         <v>5</v>
@@ -4170,10 +4173,10 @@
     </row>
     <row r="229" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B229" s="13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C229" s="5" t="s">
         <v>5</v>
@@ -4181,10 +4184,10 @@
     </row>
     <row r="230" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B230" s="13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C230" s="5" t="s">
         <v>5</v>
@@ -4192,10 +4195,10 @@
     </row>
     <row r="231" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B231" s="13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>5</v>
@@ -4203,10 +4206,10 @@
     </row>
     <row r="232" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B232" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C232" s="5" t="s">
         <v>5</v>
@@ -4214,10 +4217,10 @@
     </row>
     <row r="233" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B233" s="13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>5</v>
@@ -4225,10 +4228,10 @@
     </row>
     <row r="234" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C234" s="5" t="s">
         <v>5</v>
@@ -4236,10 +4239,10 @@
     </row>
     <row r="235" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B235" s="13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>5</v>
@@ -4255,10 +4258,10 @@
     </row>
     <row r="238" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>5</v>
@@ -4266,10 +4269,10 @@
     </row>
     <row r="239" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B239" s="13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>5</v>
@@ -4277,10 +4280,10 @@
     </row>
     <row r="240" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B240" s="13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>5</v>
@@ -4288,10 +4291,10 @@
     </row>
     <row r="241" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B241" s="13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>5</v>
@@ -4299,10 +4302,10 @@
     </row>
     <row r="242" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B242" s="13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>5</v>
@@ -4310,10 +4313,10 @@
     </row>
     <row r="243" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B243" s="13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>5</v>
@@ -4321,10 +4324,10 @@
     </row>
     <row r="244" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>5</v>
@@ -4332,10 +4335,10 @@
     </row>
     <row r="245" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B245" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>5</v>
@@ -4343,10 +4346,10 @@
     </row>
     <row r="246" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B246" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>5</v>
@@ -4354,10 +4357,10 @@
     </row>
     <row r="247" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B247" s="13" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>5</v>
@@ -4365,10 +4368,10 @@
     </row>
     <row r="248" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B248" s="13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>5</v>
@@ -4376,10 +4379,10 @@
     </row>
     <row r="249" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B249" s="13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>5</v>
@@ -4387,10 +4390,10 @@
     </row>
     <row r="250" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B250" s="13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C250" s="5" t="s">
         <v>5</v>
@@ -4398,10 +4401,10 @@
     </row>
     <row r="251" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B251" s="13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C251" s="5" t="s">
         <v>5</v>
@@ -4409,10 +4412,10 @@
     </row>
     <row r="252" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B252" s="13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>5</v>
@@ -4420,10 +4423,10 @@
     </row>
     <row r="253" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B253" s="13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>5</v>
@@ -4431,10 +4434,10 @@
     </row>
     <row r="254" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B254" s="13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C254" s="5" t="s">
         <v>5</v>
@@ -4442,10 +4445,10 @@
     </row>
     <row r="255" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B255" s="13" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>5</v>
@@ -4453,10 +4456,10 @@
     </row>
     <row r="256" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B256" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>5</v>
@@ -4464,10 +4467,10 @@
     </row>
     <row r="257" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B257" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>5</v>
@@ -4475,10 +4478,10 @@
     </row>
     <row r="258" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B258" s="13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C258" s="5" t="s">
         <v>5</v>
@@ -4486,10 +4489,10 @@
     </row>
     <row r="259" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B259" s="13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>5</v>
@@ -4497,10 +4500,10 @@
     </row>
     <row r="260" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B260" s="13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>5</v>
@@ -4508,10 +4511,10 @@
     </row>
     <row r="261" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B261" s="13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>5</v>
@@ -4519,10 +4522,10 @@
     </row>
     <row r="262" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B262" s="13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>5</v>
@@ -4530,10 +4533,10 @@
     </row>
     <row r="263" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B263" s="13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>5</v>
@@ -4541,10 +4544,10 @@
     </row>
     <row r="264" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B264" s="13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>5</v>
@@ -4552,10 +4555,10 @@
     </row>
     <row r="265" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B265" s="13" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>5</v>
@@ -4563,10 +4566,10 @@
     </row>
     <row r="266" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B266" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>5</v>
@@ -4574,10 +4577,10 @@
     </row>
     <row r="267" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B267" s="13" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>5</v>
@@ -4585,10 +4588,10 @@
     </row>
     <row r="268" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B268" s="13" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C268" s="5" t="s">
         <v>5</v>
@@ -4596,10 +4599,10 @@
     </row>
     <row r="269" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B269" s="13" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>5</v>
@@ -4607,10 +4610,10 @@
     </row>
     <row r="270" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B270" s="13" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C270" s="5" t="s">
         <v>5</v>
@@ -4618,7 +4621,7 @@
     </row>
     <row r="271" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B271" s="13" t="s">
         <v>88</v>
@@ -4629,10 +4632,10 @@
     </row>
     <row r="272" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B272" s="13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C272" s="5" t="s">
         <v>5</v>
@@ -4648,10 +4651,10 @@
     </row>
     <row r="275" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B275" s="13" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>5</v>
@@ -4659,10 +4662,10 @@
     </row>
     <row r="276" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B276" s="13" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C276" s="5" t="s">
         <v>5</v>
@@ -4670,10 +4673,10 @@
     </row>
     <row r="277" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B277" s="13" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>5</v>
@@ -4681,10 +4684,10 @@
     </row>
     <row r="278" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B278" s="13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C278" s="5" t="s">
         <v>5</v>
@@ -4692,10 +4695,10 @@
     </row>
     <row r="279" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B279" s="13" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C279" s="5" t="s">
         <v>5</v>
@@ -4703,10 +4706,10 @@
     </row>
     <row r="280" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B280" s="13" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C280" s="5" t="s">
         <v>5</v>
@@ -4714,10 +4717,10 @@
     </row>
     <row r="281" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B281" s="13" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C281" s="5" t="s">
         <v>5</v>
@@ -4725,10 +4728,10 @@
     </row>
     <row r="282" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B282" s="13" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C282" s="5" t="s">
         <v>5</v>
@@ -4736,10 +4739,10 @@
     </row>
     <row r="283" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B283" s="13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C283" s="5" t="s">
         <v>5</v>
@@ -4747,10 +4750,10 @@
     </row>
     <row r="284" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B284" s="13" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C284" s="5" t="s">
         <v>5</v>
@@ -4758,10 +4761,10 @@
     </row>
     <row r="285" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B285" s="13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C285" s="5" t="s">
         <v>5</v>
@@ -4769,10 +4772,10 @@
     </row>
     <row r="286" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B286" s="13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C286" s="5" t="s">
         <v>5</v>
@@ -4780,10 +4783,10 @@
     </row>
     <row r="287" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B287" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C287" s="5" t="s">
         <v>5</v>
@@ -4791,10 +4794,10 @@
     </row>
     <row r="288" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B288" s="13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>5</v>
@@ -4802,10 +4805,10 @@
     </row>
     <row r="289" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B289" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>5</v>
@@ -4813,10 +4816,10 @@
     </row>
     <row r="290" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B290" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>5</v>
@@ -4824,10 +4827,10 @@
     </row>
     <row r="291" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B291" s="13" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>5</v>
@@ -4835,10 +4838,10 @@
     </row>
     <row r="292" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B292" s="13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>5</v>
@@ -4846,10 +4849,10 @@
     </row>
     <row r="293" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B293" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>5</v>
@@ -4865,10 +4868,10 @@
     </row>
     <row r="296" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B296" s="13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>5</v>
@@ -4876,10 +4879,10 @@
     </row>
     <row r="297" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B297" s="13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>5</v>
@@ -4887,10 +4890,10 @@
     </row>
     <row r="298" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B298" s="13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>5</v>
@@ -4898,10 +4901,10 @@
     </row>
     <row r="299" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B299" s="13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>5</v>
@@ -4909,10 +4912,10 @@
     </row>
     <row r="300" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B300" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C300" s="5" t="s">
         <v>5</v>
@@ -4920,10 +4923,10 @@
     </row>
     <row r="301" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B301" s="13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>5</v>
@@ -4931,10 +4934,10 @@
     </row>
     <row r="302" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B302" s="13" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C302" s="5" t="s">
         <v>5</v>
@@ -4942,10 +4945,10 @@
     </row>
     <row r="303" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B303" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C303" s="5" t="s">
         <v>5</v>
@@ -4953,10 +4956,10 @@
     </row>
     <row r="304" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B304" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C304" s="5" t="s">
         <v>5</v>
@@ -4964,10 +4967,10 @@
     </row>
     <row r="305" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B305" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C305" s="5" t="s">
         <v>5</v>
@@ -4975,10 +4978,10 @@
     </row>
     <row r="306" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B306" s="13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C306" s="5" t="s">
         <v>5</v>
@@ -4986,10 +4989,10 @@
     </row>
     <row r="307" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B307" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C307" s="5" t="s">
         <v>5</v>
@@ -4997,10 +5000,10 @@
     </row>
     <row r="308" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B308" s="13" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>5</v>
@@ -5008,10 +5011,10 @@
     </row>
     <row r="309" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B309" s="25" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>5</v>
@@ -5019,10 +5022,10 @@
     </row>
     <row r="310" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B310" s="13" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>5</v>
@@ -5030,10 +5033,10 @@
     </row>
     <row r="311" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B311" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>5</v>
@@ -5041,10 +5044,10 @@
     </row>
     <row r="312" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B312" s="13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>5</v>
@@ -5052,10 +5055,10 @@
     </row>
     <row r="313" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B313" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>5</v>
@@ -5063,10 +5066,10 @@
     </row>
     <row r="314" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B314" s="13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C314" s="5" t="s">
         <v>5</v>
@@ -5074,10 +5077,10 @@
     </row>
     <row r="315" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B315" s="13" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C315" s="5" t="s">
         <v>5</v>
@@ -5085,10 +5088,10 @@
     </row>
     <row r="316" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B316" s="13" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>5</v>
@@ -5096,10 +5099,10 @@
     </row>
     <row r="317" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B317" s="13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C317" s="5" t="s">
         <v>5</v>
@@ -5107,10 +5110,10 @@
     </row>
     <row r="318" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B318" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C318" s="5" t="s">
         <v>5</v>
@@ -5118,10 +5121,10 @@
     </row>
     <row r="319" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B319" s="13" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>5</v>
@@ -5129,10 +5132,10 @@
     </row>
     <row r="320" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B320" s="13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C320" s="5" t="s">
         <v>5</v>
@@ -5140,10 +5143,10 @@
     </row>
     <row r="321" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B321" s="13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>5</v>
@@ -5151,10 +5154,10 @@
     </row>
     <row r="322" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B322" s="13" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C322" s="5" t="s">
         <v>5</v>
@@ -5162,10 +5165,10 @@
     </row>
     <row r="323" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B323" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>5</v>
@@ -5173,10 +5176,10 @@
     </row>
     <row r="324" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B324" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>5</v>
@@ -5184,10 +5187,10 @@
     </row>
     <row r="325" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B325" s="13" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>5</v>
@@ -5195,10 +5198,10 @@
     </row>
     <row r="326" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B326" s="13" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>5</v>
@@ -5206,10 +5209,10 @@
     </row>
     <row r="327" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B327" s="13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>5</v>
@@ -5217,10 +5220,10 @@
     </row>
     <row r="328" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B328" s="13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>5</v>
@@ -5228,10 +5231,10 @@
     </row>
     <row r="329" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B329" s="13" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>5</v>
@@ -5239,10 +5242,10 @@
     </row>
     <row r="330" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B330" s="13" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>5</v>
@@ -5250,10 +5253,10 @@
     </row>
     <row r="331" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B331" s="13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>5</v>
@@ -5261,10 +5264,10 @@
     </row>
     <row r="332" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B332" s="13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>5</v>
@@ -5272,10 +5275,10 @@
     </row>
     <row r="333" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B333" s="13" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C333" s="5" t="s">
         <v>5</v>
@@ -5291,10 +5294,10 @@
     </row>
     <row r="336" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B336" s="13" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>5</v>
@@ -5302,10 +5305,10 @@
     </row>
     <row r="337" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B337" s="13" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>5</v>
@@ -5313,10 +5316,10 @@
     </row>
     <row r="338" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B338" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>5</v>
@@ -5324,10 +5327,10 @@
     </row>
     <row r="339" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B339" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>5</v>
@@ -5335,10 +5338,10 @@
     </row>
     <row r="340" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B340" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>5</v>
@@ -5346,10 +5349,10 @@
     </row>
     <row r="341" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B341" s="13" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>5</v>
@@ -5357,10 +5360,10 @@
     </row>
     <row r="342" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B342" s="13" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>5</v>
@@ -5368,10 +5371,10 @@
     </row>
     <row r="343" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B343" s="13" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>5</v>
@@ -5379,10 +5382,10 @@
     </row>
     <row r="344" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B344" s="25" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>5</v>
@@ -5390,10 +5393,10 @@
     </row>
     <row r="345" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B345" s="13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>5</v>
@@ -5401,10 +5404,10 @@
     </row>
     <row r="346" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B346" s="13" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>5</v>
@@ -5412,10 +5415,10 @@
     </row>
     <row r="347" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B347" s="13" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>5</v>
@@ -5423,10 +5426,10 @@
     </row>
     <row r="348" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B348" s="13" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>5</v>
@@ -5434,10 +5437,10 @@
     </row>
     <row r="349" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B349" s="13" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>5</v>
@@ -5445,10 +5448,10 @@
     </row>
     <row r="350" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B350" s="13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>5</v>
@@ -5456,10 +5459,10 @@
     </row>
     <row r="351" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B351" s="13" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>5</v>
@@ -5467,10 +5470,10 @@
     </row>
     <row r="352" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B352" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>5</v>
@@ -5478,10 +5481,10 @@
     </row>
     <row r="353" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B353" s="13" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>5</v>
@@ -5497,10 +5500,10 @@
     </row>
     <row r="356" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B356" s="13" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>5</v>
@@ -5508,10 +5511,10 @@
     </row>
     <row r="357" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B357" s="13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>5</v>
@@ -5519,10 +5522,10 @@
     </row>
     <row r="358" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B358" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>5</v>
@@ -5530,10 +5533,10 @@
     </row>
     <row r="359" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B359" s="13" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>5</v>
@@ -5541,10 +5544,10 @@
     </row>
     <row r="360" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B360" s="13" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C360" s="5" t="s">
         <v>5</v>
@@ -5552,10 +5555,10 @@
     </row>
     <row r="361" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B361" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C361" s="5" t="s">
         <v>5</v>
@@ -5563,10 +5566,10 @@
     </row>
     <row r="362" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B362" s="13" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C362" s="5" t="s">
         <v>5</v>
@@ -5574,10 +5577,10 @@
     </row>
     <row r="363" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B363" s="13" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C363" s="5" t="s">
         <v>5</v>
@@ -5585,10 +5588,10 @@
     </row>
     <row r="364" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B364" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C364" s="5" t="s">
         <v>5</v>
@@ -5596,10 +5599,10 @@
     </row>
     <row r="365" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B365" s="13" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>5</v>
@@ -5607,10 +5610,10 @@
     </row>
     <row r="366" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B366" s="13" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>5</v>
@@ -5618,10 +5621,10 @@
     </row>
     <row r="367" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B367" s="13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C367" s="5" t="s">
         <v>5</v>
@@ -5629,10 +5632,10 @@
     </row>
     <row r="368" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B368" s="13" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C368" s="5" t="s">
         <v>5</v>
@@ -5640,10 +5643,10 @@
     </row>
     <row r="369" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B369" s="13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C369" s="5" t="s">
         <v>5</v>
@@ -5651,10 +5654,10 @@
     </row>
     <row r="370" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B370" s="13" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C370" s="5" t="s">
         <v>5</v>
@@ -5662,10 +5665,10 @@
     </row>
     <row r="371" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B371" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>5</v>
@@ -5673,10 +5676,10 @@
     </row>
     <row r="372" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B372" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C372" s="5" t="s">
         <v>5</v>
@@ -5684,10 +5687,10 @@
     </row>
     <row r="373" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B373" s="13" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>5</v>
@@ -5695,10 +5698,10 @@
     </row>
     <row r="374" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B374" s="13" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>5</v>
@@ -5706,10 +5709,10 @@
     </row>
     <row r="375" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B375" s="13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C375" s="5" t="s">
         <v>5</v>
@@ -5717,10 +5720,10 @@
     </row>
     <row r="376" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B376" s="13" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C376" s="5" t="s">
         <v>5</v>
@@ -5728,10 +5731,10 @@
     </row>
     <row r="377" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B377" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C377" s="5" t="s">
         <v>5</v>
@@ -5739,10 +5742,10 @@
     </row>
     <row r="378" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B378" s="13" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C378" s="5" t="s">
         <v>5</v>
@@ -5750,10 +5753,10 @@
     </row>
     <row r="379" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B379" s="13" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>5</v>
@@ -5761,10 +5764,10 @@
     </row>
     <row r="380" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B380" s="13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C380" s="5" t="s">
         <v>5</v>
@@ -5772,10 +5775,10 @@
     </row>
     <row r="381" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B381" s="13" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C381" s="5" t="s">
         <v>5</v>
@@ -5783,10 +5786,10 @@
     </row>
     <row r="382" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B382" s="13" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C382" s="5" t="s">
         <v>5</v>
@@ -5794,10 +5797,10 @@
     </row>
     <row r="383" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B383" s="13" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>5</v>
@@ -5805,10 +5808,10 @@
     </row>
     <row r="384" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B384" s="13" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C384" s="5" t="s">
         <v>5</v>
@@ -5816,10 +5819,10 @@
     </row>
     <row r="385" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B385" s="13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>5</v>
@@ -5827,10 +5830,10 @@
     </row>
     <row r="386" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B386" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C386" s="5" t="s">
         <v>5</v>
@@ -5838,10 +5841,10 @@
     </row>
     <row r="387" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B387" s="13" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C387" s="5" t="s">
         <v>5</v>
@@ -5849,10 +5852,10 @@
     </row>
     <row r="388" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B388" s="13" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>5</v>
@@ -5860,10 +5863,10 @@
     </row>
     <row r="389" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B389" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>5</v>
@@ -5871,10 +5874,10 @@
     </row>
     <row r="390" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B390" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C390" s="5" t="s">
         <v>5</v>
@@ -5882,10 +5885,10 @@
     </row>
     <row r="391" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B391" s="13" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>5</v>
@@ -5893,10 +5896,10 @@
     </row>
     <row r="392" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B392" s="13" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C392" s="5" t="s">
         <v>5</v>
@@ -5904,10 +5907,10 @@
     </row>
     <row r="393" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B393" s="13" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>5</v>
@@ -5915,10 +5918,10 @@
     </row>
     <row r="394" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B394" s="13" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C394" s="5" t="s">
         <v>5</v>
@@ -5926,10 +5929,10 @@
     </row>
     <row r="395" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B395" s="13" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>5</v>
@@ -5937,10 +5940,10 @@
     </row>
     <row r="396" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B396" s="13" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>5</v>
@@ -5948,10 +5951,10 @@
     </row>
     <row r="397" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B397" s="13" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>5</v>
@@ -5959,10 +5962,10 @@
     </row>
     <row r="398" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B398" s="13" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C398" s="5" t="s">
         <v>5</v>
@@ -5970,10 +5973,10 @@
     </row>
     <row r="399" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B399" s="13" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C399" s="5" t="s">
         <v>5</v>
@@ -5989,10 +5992,10 @@
     </row>
     <row r="402" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="12" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B402" s="13" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C402" s="5" t="s">
         <v>5</v>
@@ -6000,10 +6003,10 @@
     </row>
     <row r="403" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="12" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B403" s="13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>5</v>
@@ -6011,10 +6014,10 @@
     </row>
     <row r="404" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="12" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B404" s="13" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>5</v>
@@ -6022,7 +6025,7 @@
     </row>
     <row r="405" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="12" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B405" s="13" t="s">
         <v>90</v>
@@ -6033,10 +6036,10 @@
     </row>
     <row r="406" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="12" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B406" s="13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>5</v>
@@ -6044,10 +6047,10 @@
     </row>
     <row r="407" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="12" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B407" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>5</v>
@@ -6063,10 +6066,10 @@
     </row>
     <row r="410" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B410" s="13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C410" s="5" t="s">
         <v>5</v>
@@ -6074,10 +6077,10 @@
     </row>
     <row r="411" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B411" s="13" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C411" s="5" t="s">
         <v>5</v>
@@ -6085,10 +6088,10 @@
     </row>
     <row r="412" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B412" s="13" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C412" s="5" t="s">
         <v>5</v>
@@ -6096,10 +6099,10 @@
     </row>
     <row r="413" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B413" s="13" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C413" s="5" t="s">
         <v>5</v>
@@ -6107,10 +6110,10 @@
     </row>
     <row r="414" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B414" s="13" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C414" s="5" t="s">
         <v>5</v>
@@ -6118,10 +6121,10 @@
     </row>
     <row r="415" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B415" s="13" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C415" s="5" t="s">
         <v>5</v>
@@ -6129,10 +6132,10 @@
     </row>
     <row r="416" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B416" s="13" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C416" s="5" t="s">
         <v>5</v>
@@ -6140,10 +6143,10 @@
     </row>
     <row r="417" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B417" s="13" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C417" s="5" t="s">
         <v>5</v>
@@ -6151,10 +6154,10 @@
     </row>
     <row r="418" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B418" s="13" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C418" s="5" t="s">
         <v>5</v>
@@ -6162,10 +6165,10 @@
     </row>
     <row r="419" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B419" s="13" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C419" s="5" t="s">
         <v>5</v>
@@ -6173,10 +6176,10 @@
     </row>
     <row r="420" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B420" s="13" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C420" s="5" t="s">
         <v>5</v>
@@ -6184,10 +6187,10 @@
     </row>
     <row r="421" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B421" s="13" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C421" s="5" t="s">
         <v>5</v>
@@ -6195,10 +6198,10 @@
     </row>
     <row r="422" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B422" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C422" s="5" t="s">
         <v>5</v>
@@ -6206,10 +6209,10 @@
     </row>
     <row r="423" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B423" s="13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C423" s="5" t="s">
         <v>5</v>
@@ -6217,10 +6220,10 @@
     </row>
     <row r="424" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B424" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C424" s="5" t="s">
         <v>5</v>
@@ -6228,10 +6231,10 @@
     </row>
     <row r="425" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B425" s="13" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C425" s="5" t="s">
         <v>5</v>
@@ -6239,10 +6242,10 @@
     </row>
     <row r="426" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B426" s="13" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C426" s="5" t="s">
         <v>5</v>
@@ -6250,10 +6253,10 @@
     </row>
     <row r="427" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B427" s="13" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C427" s="5" t="s">
         <v>5</v>
@@ -6261,10 +6264,10 @@
     </row>
     <row r="428" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B428" s="13" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C428" s="5" t="s">
         <v>5</v>
@@ -6272,10 +6275,10 @@
     </row>
     <row r="429" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B429" s="13" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C429" s="5" t="s">
         <v>5</v>
@@ -6283,10 +6286,10 @@
     </row>
     <row r="430" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B430" s="13" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C430" s="5" t="s">
         <v>5</v>
@@ -6294,10 +6297,10 @@
     </row>
     <row r="431" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B431" s="13" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C431" s="5" t="s">
         <v>5</v>
@@ -6305,10 +6308,10 @@
     </row>
     <row r="432" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B432" s="13" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C432" s="5" t="s">
         <v>5</v>
@@ -6316,10 +6319,10 @@
     </row>
     <row r="433" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B433" s="13" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C433" s="5" t="s">
         <v>5</v>
@@ -6327,10 +6330,10 @@
     </row>
     <row r="434" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B434" s="13" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C434" s="5" t="s">
         <v>5</v>
@@ -6338,10 +6341,10 @@
     </row>
     <row r="435" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B435" s="13" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C435" s="5" t="s">
         <v>5</v>
@@ -6349,10 +6352,10 @@
     </row>
     <row r="436" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B436" s="13" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C436" s="5" t="s">
         <v>5</v>
@@ -6360,10 +6363,10 @@
     </row>
     <row r="437" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B437" s="13" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C437" s="5" t="s">
         <v>5</v>
@@ -6371,10 +6374,10 @@
     </row>
     <row r="438" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B438" s="13" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C438" s="5" t="s">
         <v>5</v>
@@ -6382,10 +6385,10 @@
     </row>
     <row r="439" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B439" s="13" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>5</v>
@@ -6393,10 +6396,10 @@
     </row>
     <row r="440" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B440" s="13" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C440" s="5" t="s">
         <v>5</v>
@@ -6404,10 +6407,10 @@
     </row>
     <row r="441" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B441" s="13" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C441" s="5" t="s">
         <v>5</v>
@@ -6415,10 +6418,10 @@
     </row>
     <row r="442" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B442" s="13" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C442" s="5" t="s">
         <v>5</v>
@@ -6426,10 +6429,10 @@
     </row>
     <row r="443" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B443" s="13" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C443" s="5" t="s">
         <v>5</v>
@@ -6437,10 +6440,10 @@
     </row>
     <row r="444" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B444" s="13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C444" s="5" t="s">
         <v>5</v>
@@ -6448,10 +6451,10 @@
     </row>
     <row r="445" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B445" s="13" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C445" s="5" t="s">
         <v>5</v>
@@ -6459,10 +6462,10 @@
     </row>
     <row r="446" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B446" s="13" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C446" s="5" t="s">
         <v>5</v>
@@ -6470,10 +6473,10 @@
     </row>
     <row r="447" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B447" s="13" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C447" s="5" t="s">
         <v>5</v>
@@ -6481,10 +6484,10 @@
     </row>
     <row r="448" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B448" s="13" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C448" s="5" t="s">
         <v>5</v>
@@ -6492,10 +6495,10 @@
     </row>
     <row r="449" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B449" s="13" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C449" s="5" t="s">
         <v>5</v>
@@ -6503,10 +6506,10 @@
     </row>
     <row r="450" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B450" s="13" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C450" s="5" t="s">
         <v>5</v>
@@ -6514,10 +6517,10 @@
     </row>
     <row r="451" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B451" s="13" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C451" s="5" t="s">
         <v>5</v>
@@ -6525,10 +6528,10 @@
     </row>
     <row r="452" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B452" s="13" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C452" s="5" t="s">
         <v>5</v>
@@ -6536,10 +6539,10 @@
     </row>
     <row r="453" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B453" s="13" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C453" s="5" t="s">
         <v>5</v>
@@ -6547,10 +6550,10 @@
     </row>
     <row r="454" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B454" s="13" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C454" s="5" t="s">
         <v>5</v>
@@ -6558,10 +6561,10 @@
     </row>
     <row r="455" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B455" s="13" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C455" s="5" t="s">
         <v>5</v>
@@ -6569,10 +6572,10 @@
     </row>
     <row r="456" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B456" s="13" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C456" s="5" t="s">
         <v>5</v>
@@ -6580,10 +6583,10 @@
     </row>
     <row r="457" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B457" s="13" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C457" s="5" t="s">
         <v>5</v>
@@ -6591,10 +6594,10 @@
     </row>
     <row r="458" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B458" s="13" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C458" s="5" t="s">
         <v>5</v>
@@ -6602,10 +6605,10 @@
     </row>
     <row r="459" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B459" s="13" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C459" s="5" t="s">
         <v>5</v>
@@ -6613,10 +6616,10 @@
     </row>
     <row r="460" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B460" s="13" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C460" s="5" t="s">
         <v>5</v>
@@ -6624,10 +6627,10 @@
     </row>
     <row r="461" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B461" s="13" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C461" s="5" t="s">
         <v>5</v>
@@ -6635,10 +6638,10 @@
     </row>
     <row r="462" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B462" s="13" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C462" s="5" t="s">
         <v>5</v>
@@ -6646,10 +6649,10 @@
     </row>
     <row r="463" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B463" s="13" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C463" s="5" t="s">
         <v>5</v>
@@ -6657,10 +6660,10 @@
     </row>
     <row r="464" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B464" s="13" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C464" s="5" t="s">
         <v>5</v>
@@ -6668,10 +6671,10 @@
     </row>
     <row r="465" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B465" s="13" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C465" s="5" t="s">
         <v>5</v>
@@ -6679,10 +6682,10 @@
     </row>
     <row r="466" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B466" s="13" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C466" s="5" t="s">
         <v>5</v>
@@ -6690,10 +6693,10 @@
     </row>
     <row r="467" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B467" s="13" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C467" s="5" t="s">
         <v>5</v>
@@ -6701,10 +6704,10 @@
     </row>
     <row r="468" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B468" s="13" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C468" s="5" t="s">
         <v>5</v>
@@ -6712,10 +6715,10 @@
     </row>
     <row r="469" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B469" s="13" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C469" s="5" t="s">
         <v>5</v>
@@ -6732,10 +6735,10 @@
     </row>
     <row r="472" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="12" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B472" s="13" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C472" s="5" t="s">
         <v>5</v>
@@ -6743,10 +6746,10 @@
     </row>
     <row r="473" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="12" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B473" s="13" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C473" s="5" t="s">
         <v>5</v>
@@ -6754,10 +6757,10 @@
     </row>
     <row r="474" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="12" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B474" s="13" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C474" s="5" t="s">
         <v>5</v>
@@ -6765,10 +6768,10 @@
     </row>
     <row r="475" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="12" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B475" s="13" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C475" s="5" t="s">
         <v>5</v>
@@ -6776,10 +6779,10 @@
     </row>
     <row r="476" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="12" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B476" s="13" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C476" s="5" t="s">
         <v>5</v>
@@ -6787,10 +6790,10 @@
     </row>
     <row r="477" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="12" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B477" s="13" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C477" s="5" t="s">
         <v>5</v>
@@ -6798,10 +6801,10 @@
     </row>
     <row r="478" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="12" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B478" s="13" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C478" s="5" t="s">
         <v>5</v>
@@ -6809,10 +6812,10 @@
     </row>
     <row r="479" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="12" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B479" s="13" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C479" s="5" t="s">
         <v>5</v>
@@ -6820,10 +6823,10 @@
     </row>
     <row r="480" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="12" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B480" s="13" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C480" s="5" t="s">
         <v>5</v>
@@ -6831,10 +6834,10 @@
     </row>
     <row r="481" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="12" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B481" s="13" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C481" s="5" t="s">
         <v>5</v>

--- a/java/resources/FINAL450.xlsx
+++ b/java/resources/FINAL450.xlsx
@@ -1765,11 +1765,11 @@
   </sheetPr>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A190" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B194" activeCellId="0" sqref="B194"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A199" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A207" activeCellId="0" sqref="A207"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -3942,57 +3942,57 @@
       </c>
     </row>
     <row r="207" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="12" t="s">
+      <c r="A207" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B207" s="13" t="s">
+      <c r="B207" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C207" s="5" t="s">
+      <c r="C207" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="12" t="s">
+      <c r="A208" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B208" s="13" t="s">
+      <c r="B208" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C208" s="5" t="s">
+      <c r="C208" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="12" t="s">
+      <c r="A209" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B209" s="13" t="s">
+      <c r="B209" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="C209" s="5" t="s">
+      <c r="C209" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="12" t="s">
+      <c r="A210" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B210" s="13" t="s">
+      <c r="B210" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="C210" s="5" t="s">
+      <c r="C210" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="12" t="s">
+      <c r="A211" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B211" s="13" t="s">
+      <c r="B211" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C211" s="5" t="s">
+      <c r="C211" s="8" t="s">
         <v>5</v>
       </c>
     </row>

--- a/java/resources/FINAL450.xlsx
+++ b/java/resources/FINAL450.xlsx
@@ -1765,11 +1765,11 @@
   </sheetPr>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A199" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A207" activeCellId="0" sqref="A207"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A206" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A217" activeCellId="0" sqref="A217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -3791,7 +3791,7 @@
       <c r="A193" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B193" s="7" t="s">
+      <c r="B193" s="23" t="s">
         <v>191</v>
       </c>
       <c r="C193" s="8" t="s">
@@ -3824,7 +3824,7 @@
       <c r="A196" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B196" s="7" t="s">
+      <c r="B196" s="23" t="s">
         <v>194</v>
       </c>
       <c r="C196" s="8" t="s">

--- a/java/resources/FINAL450.xlsx
+++ b/java/resources/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="471">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -664,6 +664,9 @@
     <t xml:space="preserve">Deletion of a node in a BST</t>
   </si>
   <si>
+    <t xml:space="preserve">Go to the node that needs to be deleted and check if left is null then return right, if right is null return left, else find min value in the right side of the curr Node and replace current node’s value with min and perform the delete operation on the min valued node on the right side of the curr node.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Find min and max value in a BST</t>
   </si>
   <si>
@@ -676,6 +679,9 @@
     <t xml:space="preserve">Populate Inorder successor of all nodes</t>
   </si>
   <si>
+    <t xml:space="preserve">Reverse InOrder traversal with prevTemp node</t>
+  </si>
+  <si>
     <t xml:space="preserve">Find LCA  of 2 nodes in a BST</t>
   </si>
   <si>
@@ -683,6 +689,9 @@
   </si>
   <si>
     <t xml:space="preserve">Convert Binary tree into BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store inOrder traversal of BT, then sort it and again do inorder traversal and populate values in the nodes using data of sorted array.</t>
   </si>
   <si>
     <t xml:space="preserve">Convert a normal BST into a Balanced BST</t>
@@ -1580,7 +1589,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1681,6 +1690,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1765,11 +1778,11 @@
   </sheetPr>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A206" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A217" activeCellId="0" sqref="A217"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A212" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A229" activeCellId="0" sqref="A229"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -4007,112 +4020,121 @@
       <c r="C213" s="5"/>
     </row>
     <row r="214" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="12" t="s">
+      <c r="A214" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B214" s="13" t="s">
+      <c r="B214" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="C214" s="5" t="s">
+      <c r="C214" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="12" t="s">
+      <c r="A215" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="B215" s="13" t="s">
+      <c r="B215" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="C215" s="5" t="s">
-        <v>5</v>
+      <c r="C215" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D215" s="0" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="12" t="s">
+      <c r="A216" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B216" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="C216" s="5" t="s">
+      <c r="B216" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C216" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="12" t="s">
+      <c r="A217" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B217" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="C217" s="5" t="s">
+      <c r="B217" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C217" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="12" t="s">
+      <c r="A218" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B218" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="C218" s="5" t="s">
+      <c r="B218" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C218" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="12" t="s">
+      <c r="A219" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B219" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="C219" s="5" t="s">
-        <v>5</v>
+      <c r="B219" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C219" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D219" s="0" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="12" t="s">
+      <c r="A220" s="6" t="s">
         <v>211</v>
       </c>
       <c r="B220" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="C220" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C220" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="12" t="s">
+      <c r="A221" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B221" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="C221" s="5" t="s">
+      <c r="B221" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C221" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="12" t="s">
+      <c r="A222" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B222" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="C222" s="5" t="s">
-        <v>5</v>
+      <c r="B222" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C222" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D222" s="0" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="12" t="s">
+      <c r="A223" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B223" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="C223" s="5" t="s">
+      <c r="B223" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C223" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4121,7 +4143,7 @@
         <v>211</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>5</v>
@@ -4132,7 +4154,7 @@
         <v>211</v>
       </c>
       <c r="B225" s="13" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>5</v>
@@ -4143,7 +4165,7 @@
         <v>211</v>
       </c>
       <c r="B226" s="13" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>5</v>
@@ -4154,7 +4176,7 @@
         <v>211</v>
       </c>
       <c r="B227" s="13" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>5</v>
@@ -4165,7 +4187,7 @@
         <v>211</v>
       </c>
       <c r="B228" s="13" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C228" s="5" t="s">
         <v>5</v>
@@ -4176,7 +4198,7 @@
         <v>211</v>
       </c>
       <c r="B229" s="13" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C229" s="5" t="s">
         <v>5</v>
@@ -4187,7 +4209,7 @@
         <v>211</v>
       </c>
       <c r="B230" s="13" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C230" s="5" t="s">
         <v>5</v>
@@ -4198,7 +4220,7 @@
         <v>211</v>
       </c>
       <c r="B231" s="13" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>5</v>
@@ -4209,7 +4231,7 @@
         <v>211</v>
       </c>
       <c r="B232" s="13" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C232" s="5" t="s">
         <v>5</v>
@@ -4220,7 +4242,7 @@
         <v>211</v>
       </c>
       <c r="B233" s="13" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>5</v>
@@ -4231,7 +4253,7 @@
         <v>211</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C234" s="5" t="s">
         <v>5</v>
@@ -4242,7 +4264,7 @@
         <v>211</v>
       </c>
       <c r="B235" s="13" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>5</v>
@@ -4258,10 +4280,10 @@
     </row>
     <row r="238" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>5</v>
@@ -4269,10 +4291,10 @@
     </row>
     <row r="239" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B239" s="13" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>5</v>
@@ -4280,10 +4302,10 @@
     </row>
     <row r="240" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B240" s="13" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>5</v>
@@ -4291,10 +4313,10 @@
     </row>
     <row r="241" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B241" s="13" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>5</v>
@@ -4302,10 +4324,10 @@
     </row>
     <row r="242" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B242" s="13" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>5</v>
@@ -4313,10 +4335,10 @@
     </row>
     <row r="243" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B243" s="13" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>5</v>
@@ -4324,10 +4346,10 @@
     </row>
     <row r="244" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>5</v>
@@ -4335,10 +4357,10 @@
     </row>
     <row r="245" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B245" s="13" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>5</v>
@@ -4346,10 +4368,10 @@
     </row>
     <row r="246" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B246" s="13" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>5</v>
@@ -4357,10 +4379,10 @@
     </row>
     <row r="247" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B247" s="13" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>5</v>
@@ -4368,10 +4390,10 @@
     </row>
     <row r="248" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B248" s="13" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>5</v>
@@ -4379,10 +4401,10 @@
     </row>
     <row r="249" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B249" s="13" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>5</v>
@@ -4390,10 +4412,10 @@
     </row>
     <row r="250" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B250" s="13" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C250" s="5" t="s">
         <v>5</v>
@@ -4401,10 +4423,10 @@
     </row>
     <row r="251" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B251" s="13" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C251" s="5" t="s">
         <v>5</v>
@@ -4412,10 +4434,10 @@
     </row>
     <row r="252" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B252" s="13" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>5</v>
@@ -4423,10 +4445,10 @@
     </row>
     <row r="253" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B253" s="13" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>5</v>
@@ -4434,10 +4456,10 @@
     </row>
     <row r="254" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B254" s="13" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C254" s="5" t="s">
         <v>5</v>
@@ -4445,10 +4467,10 @@
     </row>
     <row r="255" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B255" s="13" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>5</v>
@@ -4456,10 +4478,10 @@
     </row>
     <row r="256" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B256" s="13" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>5</v>
@@ -4467,10 +4489,10 @@
     </row>
     <row r="257" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B257" s="13" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>5</v>
@@ -4478,10 +4500,10 @@
     </row>
     <row r="258" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B258" s="13" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C258" s="5" t="s">
         <v>5</v>
@@ -4489,10 +4511,10 @@
     </row>
     <row r="259" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B259" s="13" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>5</v>
@@ -4500,10 +4522,10 @@
     </row>
     <row r="260" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B260" s="13" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>5</v>
@@ -4511,10 +4533,10 @@
     </row>
     <row r="261" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B261" s="13" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>5</v>
@@ -4522,10 +4544,10 @@
     </row>
     <row r="262" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B262" s="13" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>5</v>
@@ -4533,10 +4555,10 @@
     </row>
     <row r="263" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B263" s="13" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>5</v>
@@ -4544,10 +4566,10 @@
     </row>
     <row r="264" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B264" s="13" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>5</v>
@@ -4555,10 +4577,10 @@
     </row>
     <row r="265" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B265" s="13" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>5</v>
@@ -4566,10 +4588,10 @@
     </row>
     <row r="266" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B266" s="13" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>5</v>
@@ -4577,10 +4599,10 @@
     </row>
     <row r="267" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B267" s="13" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>5</v>
@@ -4588,10 +4610,10 @@
     </row>
     <row r="268" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B268" s="13" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C268" s="5" t="s">
         <v>5</v>
@@ -4599,10 +4621,10 @@
     </row>
     <row r="269" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B269" s="13" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>5</v>
@@ -4610,10 +4632,10 @@
     </row>
     <row r="270" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B270" s="13" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C270" s="5" t="s">
         <v>5</v>
@@ -4621,7 +4643,7 @@
     </row>
     <row r="271" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B271" s="13" t="s">
         <v>88</v>
@@ -4632,10 +4654,10 @@
     </row>
     <row r="272" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B272" s="13" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C272" s="5" t="s">
         <v>5</v>
@@ -4651,10 +4673,10 @@
     </row>
     <row r="275" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="12" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B275" s="13" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>5</v>
@@ -4662,10 +4684,10 @@
     </row>
     <row r="276" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="12" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B276" s="13" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C276" s="5" t="s">
         <v>5</v>
@@ -4673,10 +4695,10 @@
     </row>
     <row r="277" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="12" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B277" s="13" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>5</v>
@@ -4684,10 +4706,10 @@
     </row>
     <row r="278" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="12" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B278" s="13" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C278" s="5" t="s">
         <v>5</v>
@@ -4695,10 +4717,10 @@
     </row>
     <row r="279" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="12" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B279" s="13" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C279" s="5" t="s">
         <v>5</v>
@@ -4706,10 +4728,10 @@
     </row>
     <row r="280" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="12" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B280" s="13" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C280" s="5" t="s">
         <v>5</v>
@@ -4717,10 +4739,10 @@
     </row>
     <row r="281" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="12" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B281" s="13" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C281" s="5" t="s">
         <v>5</v>
@@ -4728,10 +4750,10 @@
     </row>
     <row r="282" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="12" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B282" s="13" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C282" s="5" t="s">
         <v>5</v>
@@ -4739,10 +4761,10 @@
     </row>
     <row r="283" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="12" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B283" s="13" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C283" s="5" t="s">
         <v>5</v>
@@ -4750,10 +4772,10 @@
     </row>
     <row r="284" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="12" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B284" s="13" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C284" s="5" t="s">
         <v>5</v>
@@ -4761,10 +4783,10 @@
     </row>
     <row r="285" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="12" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B285" s="13" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C285" s="5" t="s">
         <v>5</v>
@@ -4772,10 +4794,10 @@
     </row>
     <row r="286" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="12" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B286" s="13" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C286" s="5" t="s">
         <v>5</v>
@@ -4783,10 +4805,10 @@
     </row>
     <row r="287" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="12" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B287" s="13" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C287" s="5" t="s">
         <v>5</v>
@@ -4794,10 +4816,10 @@
     </row>
     <row r="288" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="12" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B288" s="13" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>5</v>
@@ -4805,10 +4827,10 @@
     </row>
     <row r="289" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="12" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B289" s="13" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>5</v>
@@ -4816,10 +4838,10 @@
     </row>
     <row r="290" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="12" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B290" s="13" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>5</v>
@@ -4827,10 +4849,10 @@
     </row>
     <row r="291" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="12" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B291" s="13" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>5</v>
@@ -4838,10 +4860,10 @@
     </row>
     <row r="292" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="12" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B292" s="13" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>5</v>
@@ -4849,10 +4871,10 @@
     </row>
     <row r="293" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="12" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B293" s="13" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>5</v>
@@ -4868,10 +4890,10 @@
     </row>
     <row r="296" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B296" s="13" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>5</v>
@@ -4879,10 +4901,10 @@
     </row>
     <row r="297" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B297" s="13" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>5</v>
@@ -4890,10 +4912,10 @@
     </row>
     <row r="298" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B298" s="13" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>5</v>
@@ -4901,10 +4923,10 @@
     </row>
     <row r="299" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B299" s="13" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>5</v>
@@ -4912,10 +4934,10 @@
     </row>
     <row r="300" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B300" s="13" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C300" s="5" t="s">
         <v>5</v>
@@ -4923,10 +4945,10 @@
     </row>
     <row r="301" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B301" s="13" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>5</v>
@@ -4934,10 +4956,10 @@
     </row>
     <row r="302" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B302" s="13" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C302" s="5" t="s">
         <v>5</v>
@@ -4945,10 +4967,10 @@
     </row>
     <row r="303" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B303" s="13" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C303" s="5" t="s">
         <v>5</v>
@@ -4956,10 +4978,10 @@
     </row>
     <row r="304" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B304" s="13" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C304" s="5" t="s">
         <v>5</v>
@@ -4967,10 +4989,10 @@
     </row>
     <row r="305" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B305" s="13" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C305" s="5" t="s">
         <v>5</v>
@@ -4978,10 +5000,10 @@
     </row>
     <row r="306" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B306" s="13" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C306" s="5" t="s">
         <v>5</v>
@@ -4989,10 +5011,10 @@
     </row>
     <row r="307" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B307" s="13" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C307" s="5" t="s">
         <v>5</v>
@@ -5000,10 +5022,10 @@
     </row>
     <row r="308" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B308" s="13" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>5</v>
@@ -5011,10 +5033,10 @@
     </row>
     <row r="309" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="B309" s="25" t="s">
-        <v>303</v>
+        <v>292</v>
+      </c>
+      <c r="B309" s="26" t="s">
+        <v>306</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>5</v>
@@ -5022,10 +5044,10 @@
     </row>
     <row r="310" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B310" s="13" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>5</v>
@@ -5033,10 +5055,10 @@
     </row>
     <row r="311" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B311" s="13" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>5</v>
@@ -5044,10 +5066,10 @@
     </row>
     <row r="312" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B312" s="13" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>5</v>
@@ -5055,10 +5077,10 @@
     </row>
     <row r="313" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B313" s="13" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>5</v>
@@ -5066,10 +5088,10 @@
     </row>
     <row r="314" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B314" s="13" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C314" s="5" t="s">
         <v>5</v>
@@ -5077,10 +5099,10 @@
     </row>
     <row r="315" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B315" s="13" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C315" s="5" t="s">
         <v>5</v>
@@ -5088,10 +5110,10 @@
     </row>
     <row r="316" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B316" s="13" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>5</v>
@@ -5099,10 +5121,10 @@
     </row>
     <row r="317" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B317" s="13" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C317" s="5" t="s">
         <v>5</v>
@@ -5110,10 +5132,10 @@
     </row>
     <row r="318" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B318" s="13" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C318" s="5" t="s">
         <v>5</v>
@@ -5121,10 +5143,10 @@
     </row>
     <row r="319" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B319" s="13" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>5</v>
@@ -5132,10 +5154,10 @@
     </row>
     <row r="320" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B320" s="13" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C320" s="5" t="s">
         <v>5</v>
@@ -5143,10 +5165,10 @@
     </row>
     <row r="321" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B321" s="13" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>5</v>
@@ -5154,10 +5176,10 @@
     </row>
     <row r="322" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B322" s="13" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C322" s="5" t="s">
         <v>5</v>
@@ -5165,10 +5187,10 @@
     </row>
     <row r="323" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B323" s="13" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>5</v>
@@ -5176,10 +5198,10 @@
     </row>
     <row r="324" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B324" s="13" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>5</v>
@@ -5187,10 +5209,10 @@
     </row>
     <row r="325" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B325" s="13" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>5</v>
@@ -5198,10 +5220,10 @@
     </row>
     <row r="326" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B326" s="13" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>5</v>
@@ -5209,10 +5231,10 @@
     </row>
     <row r="327" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B327" s="13" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>5</v>
@@ -5220,10 +5242,10 @@
     </row>
     <row r="328" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B328" s="13" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>5</v>
@@ -5231,10 +5253,10 @@
     </row>
     <row r="329" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B329" s="13" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>5</v>
@@ -5242,10 +5264,10 @@
     </row>
     <row r="330" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B330" s="13" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>5</v>
@@ -5253,10 +5275,10 @@
     </row>
     <row r="331" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B331" s="13" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>5</v>
@@ -5264,10 +5286,10 @@
     </row>
     <row r="332" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B332" s="13" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>5</v>
@@ -5275,10 +5297,10 @@
     </row>
     <row r="333" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B333" s="13" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C333" s="5" t="s">
         <v>5</v>
@@ -5294,10 +5316,10 @@
     </row>
     <row r="336" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="12" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B336" s="13" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>5</v>
@@ -5305,10 +5327,10 @@
     </row>
     <row r="337" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="12" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B337" s="13" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>5</v>
@@ -5316,10 +5338,10 @@
     </row>
     <row r="338" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="12" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B338" s="13" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>5</v>
@@ -5327,10 +5349,10 @@
     </row>
     <row r="339" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="12" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B339" s="13" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>5</v>
@@ -5338,10 +5360,10 @@
     </row>
     <row r="340" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="12" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B340" s="13" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>5</v>
@@ -5349,10 +5371,10 @@
     </row>
     <row r="341" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="12" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B341" s="13" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>5</v>
@@ -5360,10 +5382,10 @@
     </row>
     <row r="342" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="12" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B342" s="13" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>5</v>
@@ -5371,10 +5393,10 @@
     </row>
     <row r="343" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="12" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B343" s="13" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>5</v>
@@ -5382,10 +5404,10 @@
     </row>
     <row r="344" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="B344" s="25" t="s">
-        <v>337</v>
+        <v>331</v>
+      </c>
+      <c r="B344" s="26" t="s">
+        <v>340</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>5</v>
@@ -5393,10 +5415,10 @@
     </row>
     <row r="345" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="12" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B345" s="13" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>5</v>
@@ -5404,10 +5426,10 @@
     </row>
     <row r="346" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="12" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B346" s="13" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>5</v>
@@ -5415,10 +5437,10 @@
     </row>
     <row r="347" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="12" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B347" s="13" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>5</v>
@@ -5426,10 +5448,10 @@
     </row>
     <row r="348" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="12" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B348" s="13" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>5</v>
@@ -5437,10 +5459,10 @@
     </row>
     <row r="349" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="12" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B349" s="13" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>5</v>
@@ -5448,10 +5470,10 @@
     </row>
     <row r="350" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="12" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B350" s="13" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>5</v>
@@ -5459,10 +5481,10 @@
     </row>
     <row r="351" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="12" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B351" s="13" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>5</v>
@@ -5470,10 +5492,10 @@
     </row>
     <row r="352" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="12" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B352" s="13" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>5</v>
@@ -5481,10 +5503,10 @@
     </row>
     <row r="353" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="12" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B353" s="13" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>5</v>
@@ -5500,10 +5522,10 @@
     </row>
     <row r="356" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B356" s="13" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>5</v>
@@ -5511,10 +5533,10 @@
     </row>
     <row r="357" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B357" s="13" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>5</v>
@@ -5522,10 +5544,10 @@
     </row>
     <row r="358" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B358" s="13" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>5</v>
@@ -5533,10 +5555,10 @@
     </row>
     <row r="359" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B359" s="13" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>5</v>
@@ -5544,10 +5566,10 @@
     </row>
     <row r="360" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B360" s="13" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C360" s="5" t="s">
         <v>5</v>
@@ -5555,10 +5577,10 @@
     </row>
     <row r="361" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B361" s="13" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C361" s="5" t="s">
         <v>5</v>
@@ -5566,10 +5588,10 @@
     </row>
     <row r="362" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B362" s="13" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C362" s="5" t="s">
         <v>5</v>
@@ -5577,10 +5599,10 @@
     </row>
     <row r="363" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B363" s="13" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C363" s="5" t="s">
         <v>5</v>
@@ -5588,10 +5610,10 @@
     </row>
     <row r="364" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B364" s="13" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C364" s="5" t="s">
         <v>5</v>
@@ -5599,10 +5621,10 @@
     </row>
     <row r="365" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B365" s="13" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>5</v>
@@ -5610,10 +5632,10 @@
     </row>
     <row r="366" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B366" s="13" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>5</v>
@@ -5621,10 +5643,10 @@
     </row>
     <row r="367" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B367" s="13" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C367" s="5" t="s">
         <v>5</v>
@@ -5632,10 +5654,10 @@
     </row>
     <row r="368" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B368" s="13" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C368" s="5" t="s">
         <v>5</v>
@@ -5643,10 +5665,10 @@
     </row>
     <row r="369" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B369" s="13" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C369" s="5" t="s">
         <v>5</v>
@@ -5654,10 +5676,10 @@
     </row>
     <row r="370" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B370" s="13" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C370" s="5" t="s">
         <v>5</v>
@@ -5665,10 +5687,10 @@
     </row>
     <row r="371" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B371" s="13" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>5</v>
@@ -5676,10 +5698,10 @@
     </row>
     <row r="372" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B372" s="13" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C372" s="5" t="s">
         <v>5</v>
@@ -5687,10 +5709,10 @@
     </row>
     <row r="373" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B373" s="13" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>5</v>
@@ -5698,10 +5720,10 @@
     </row>
     <row r="374" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B374" s="13" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>5</v>
@@ -5709,10 +5731,10 @@
     </row>
     <row r="375" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B375" s="13" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C375" s="5" t="s">
         <v>5</v>
@@ -5720,10 +5742,10 @@
     </row>
     <row r="376" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B376" s="13" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C376" s="5" t="s">
         <v>5</v>
@@ -5731,10 +5753,10 @@
     </row>
     <row r="377" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B377" s="13" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C377" s="5" t="s">
         <v>5</v>
@@ -5742,10 +5764,10 @@
     </row>
     <row r="378" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B378" s="13" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C378" s="5" t="s">
         <v>5</v>
@@ -5753,10 +5775,10 @@
     </row>
     <row r="379" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B379" s="13" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>5</v>
@@ -5764,10 +5786,10 @@
     </row>
     <row r="380" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B380" s="13" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C380" s="5" t="s">
         <v>5</v>
@@ -5775,10 +5797,10 @@
     </row>
     <row r="381" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B381" s="13" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C381" s="5" t="s">
         <v>5</v>
@@ -5786,10 +5808,10 @@
     </row>
     <row r="382" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B382" s="13" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C382" s="5" t="s">
         <v>5</v>
@@ -5797,10 +5819,10 @@
     </row>
     <row r="383" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B383" s="13" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>5</v>
@@ -5808,10 +5830,10 @@
     </row>
     <row r="384" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B384" s="13" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C384" s="5" t="s">
         <v>5</v>
@@ -5819,10 +5841,10 @@
     </row>
     <row r="385" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B385" s="13" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>5</v>
@@ -5830,10 +5852,10 @@
     </row>
     <row r="386" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B386" s="13" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C386" s="5" t="s">
         <v>5</v>
@@ -5841,10 +5863,10 @@
     </row>
     <row r="387" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B387" s="13" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C387" s="5" t="s">
         <v>5</v>
@@ -5852,10 +5874,10 @@
     </row>
     <row r="388" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B388" s="13" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>5</v>
@@ -5863,10 +5885,10 @@
     </row>
     <row r="389" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B389" s="13" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>5</v>
@@ -5874,10 +5896,10 @@
     </row>
     <row r="390" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B390" s="13" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C390" s="5" t="s">
         <v>5</v>
@@ -5885,10 +5907,10 @@
     </row>
     <row r="391" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B391" s="13" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>5</v>
@@ -5896,10 +5918,10 @@
     </row>
     <row r="392" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B392" s="13" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C392" s="5" t="s">
         <v>5</v>
@@ -5907,10 +5929,10 @@
     </row>
     <row r="393" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B393" s="13" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>5</v>
@@ -5918,10 +5940,10 @@
     </row>
     <row r="394" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B394" s="13" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C394" s="5" t="s">
         <v>5</v>
@@ -5929,10 +5951,10 @@
     </row>
     <row r="395" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B395" s="13" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>5</v>
@@ -5940,10 +5962,10 @@
     </row>
     <row r="396" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B396" s="13" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>5</v>
@@ -5951,10 +5973,10 @@
     </row>
     <row r="397" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B397" s="13" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>5</v>
@@ -5962,10 +5984,10 @@
     </row>
     <row r="398" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B398" s="13" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C398" s="5" t="s">
         <v>5</v>
@@ -5973,10 +5995,10 @@
     </row>
     <row r="399" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B399" s="13" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C399" s="5" t="s">
         <v>5</v>
@@ -5992,10 +6014,10 @@
     </row>
     <row r="402" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="12" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B402" s="13" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C402" s="5" t="s">
         <v>5</v>
@@ -6003,10 +6025,10 @@
     </row>
     <row r="403" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="12" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B403" s="13" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>5</v>
@@ -6014,10 +6036,10 @@
     </row>
     <row r="404" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="12" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B404" s="13" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>5</v>
@@ -6025,7 +6047,7 @@
     </row>
     <row r="405" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="12" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B405" s="13" t="s">
         <v>90</v>
@@ -6036,10 +6058,10 @@
     </row>
     <row r="406" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="12" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B406" s="13" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>5</v>
@@ -6047,10 +6069,10 @@
     </row>
     <row r="407" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="12" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B407" s="13" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>5</v>
@@ -6066,10 +6088,10 @@
     </row>
     <row r="410" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B410" s="13" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C410" s="5" t="s">
         <v>5</v>
@@ -6077,10 +6099,10 @@
     </row>
     <row r="411" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B411" s="13" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C411" s="5" t="s">
         <v>5</v>
@@ -6088,10 +6110,10 @@
     </row>
     <row r="412" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B412" s="13" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C412" s="5" t="s">
         <v>5</v>
@@ -6099,10 +6121,10 @@
     </row>
     <row r="413" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B413" s="13" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C413" s="5" t="s">
         <v>5</v>
@@ -6110,10 +6132,10 @@
     </row>
     <row r="414" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B414" s="13" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C414" s="5" t="s">
         <v>5</v>
@@ -6121,10 +6143,10 @@
     </row>
     <row r="415" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B415" s="13" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C415" s="5" t="s">
         <v>5</v>
@@ -6132,10 +6154,10 @@
     </row>
     <row r="416" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B416" s="13" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C416" s="5" t="s">
         <v>5</v>
@@ -6143,10 +6165,10 @@
     </row>
     <row r="417" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B417" s="13" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C417" s="5" t="s">
         <v>5</v>
@@ -6154,10 +6176,10 @@
     </row>
     <row r="418" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B418" s="13" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C418" s="5" t="s">
         <v>5</v>
@@ -6165,10 +6187,10 @@
     </row>
     <row r="419" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B419" s="13" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C419" s="5" t="s">
         <v>5</v>
@@ -6176,10 +6198,10 @@
     </row>
     <row r="420" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B420" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C420" s="5" t="s">
         <v>5</v>
@@ -6187,10 +6209,10 @@
     </row>
     <row r="421" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B421" s="13" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C421" s="5" t="s">
         <v>5</v>
@@ -6198,10 +6220,10 @@
     </row>
     <row r="422" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B422" s="13" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C422" s="5" t="s">
         <v>5</v>
@@ -6209,10 +6231,10 @@
     </row>
     <row r="423" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B423" s="13" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C423" s="5" t="s">
         <v>5</v>
@@ -6220,10 +6242,10 @@
     </row>
     <row r="424" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B424" s="13" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C424" s="5" t="s">
         <v>5</v>
@@ -6231,10 +6253,10 @@
     </row>
     <row r="425" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B425" s="13" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C425" s="5" t="s">
         <v>5</v>
@@ -6242,10 +6264,10 @@
     </row>
     <row r="426" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B426" s="13" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C426" s="5" t="s">
         <v>5</v>
@@ -6253,10 +6275,10 @@
     </row>
     <row r="427" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B427" s="13" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C427" s="5" t="s">
         <v>5</v>
@@ -6264,10 +6286,10 @@
     </row>
     <row r="428" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B428" s="13" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C428" s="5" t="s">
         <v>5</v>
@@ -6275,10 +6297,10 @@
     </row>
     <row r="429" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B429" s="13" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C429" s="5" t="s">
         <v>5</v>
@@ -6286,10 +6308,10 @@
     </row>
     <row r="430" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B430" s="13" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C430" s="5" t="s">
         <v>5</v>
@@ -6297,10 +6319,10 @@
     </row>
     <row r="431" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B431" s="13" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C431" s="5" t="s">
         <v>5</v>
@@ -6308,10 +6330,10 @@
     </row>
     <row r="432" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B432" s="13" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C432" s="5" t="s">
         <v>5</v>
@@ -6319,10 +6341,10 @@
     </row>
     <row r="433" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B433" s="13" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C433" s="5" t="s">
         <v>5</v>
@@ -6330,10 +6352,10 @@
     </row>
     <row r="434" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B434" s="13" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C434" s="5" t="s">
         <v>5</v>
@@ -6341,10 +6363,10 @@
     </row>
     <row r="435" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B435" s="13" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C435" s="5" t="s">
         <v>5</v>
@@ -6352,10 +6374,10 @@
     </row>
     <row r="436" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B436" s="13" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C436" s="5" t="s">
         <v>5</v>
@@ -6363,10 +6385,10 @@
     </row>
     <row r="437" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B437" s="13" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C437" s="5" t="s">
         <v>5</v>
@@ -6374,10 +6396,10 @@
     </row>
     <row r="438" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B438" s="13" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C438" s="5" t="s">
         <v>5</v>
@@ -6385,10 +6407,10 @@
     </row>
     <row r="439" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B439" s="13" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>5</v>
@@ -6396,10 +6418,10 @@
     </row>
     <row r="440" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B440" s="13" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C440" s="5" t="s">
         <v>5</v>
@@ -6407,10 +6429,10 @@
     </row>
     <row r="441" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B441" s="13" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C441" s="5" t="s">
         <v>5</v>
@@ -6418,10 +6440,10 @@
     </row>
     <row r="442" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B442" s="13" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C442" s="5" t="s">
         <v>5</v>
@@ -6429,10 +6451,10 @@
     </row>
     <row r="443" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B443" s="13" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C443" s="5" t="s">
         <v>5</v>
@@ -6440,10 +6462,10 @@
     </row>
     <row r="444" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B444" s="13" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C444" s="5" t="s">
         <v>5</v>
@@ -6451,10 +6473,10 @@
     </row>
     <row r="445" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B445" s="13" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C445" s="5" t="s">
         <v>5</v>
@@ -6462,10 +6484,10 @@
     </row>
     <row r="446" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B446" s="13" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C446" s="5" t="s">
         <v>5</v>
@@ -6473,10 +6495,10 @@
     </row>
     <row r="447" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B447" s="13" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C447" s="5" t="s">
         <v>5</v>
@@ -6484,10 +6506,10 @@
     </row>
     <row r="448" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B448" s="13" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C448" s="5" t="s">
         <v>5</v>
@@ -6495,10 +6517,10 @@
     </row>
     <row r="449" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B449" s="13" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C449" s="5" t="s">
         <v>5</v>
@@ -6506,10 +6528,10 @@
     </row>
     <row r="450" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B450" s="13" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C450" s="5" t="s">
         <v>5</v>
@@ -6517,10 +6539,10 @@
     </row>
     <row r="451" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B451" s="13" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C451" s="5" t="s">
         <v>5</v>
@@ -6528,10 +6550,10 @@
     </row>
     <row r="452" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B452" s="13" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C452" s="5" t="s">
         <v>5</v>
@@ -6539,10 +6561,10 @@
     </row>
     <row r="453" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B453" s="13" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C453" s="5" t="s">
         <v>5</v>
@@ -6550,10 +6572,10 @@
     </row>
     <row r="454" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B454" s="13" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C454" s="5" t="s">
         <v>5</v>
@@ -6561,10 +6583,10 @@
     </row>
     <row r="455" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B455" s="13" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C455" s="5" t="s">
         <v>5</v>
@@ -6572,10 +6594,10 @@
     </row>
     <row r="456" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B456" s="13" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C456" s="5" t="s">
         <v>5</v>
@@ -6583,10 +6605,10 @@
     </row>
     <row r="457" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B457" s="13" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C457" s="5" t="s">
         <v>5</v>
@@ -6594,10 +6616,10 @@
     </row>
     <row r="458" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B458" s="13" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C458" s="5" t="s">
         <v>5</v>
@@ -6605,10 +6627,10 @@
     </row>
     <row r="459" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B459" s="13" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C459" s="5" t="s">
         <v>5</v>
@@ -6616,10 +6638,10 @@
     </row>
     <row r="460" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B460" s="13" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C460" s="5" t="s">
         <v>5</v>
@@ -6627,10 +6649,10 @@
     </row>
     <row r="461" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B461" s="13" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C461" s="5" t="s">
         <v>5</v>
@@ -6638,10 +6660,10 @@
     </row>
     <row r="462" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B462" s="13" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C462" s="5" t="s">
         <v>5</v>
@@ -6649,10 +6671,10 @@
     </row>
     <row r="463" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B463" s="13" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C463" s="5" t="s">
         <v>5</v>
@@ -6660,10 +6682,10 @@
     </row>
     <row r="464" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B464" s="13" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C464" s="5" t="s">
         <v>5</v>
@@ -6671,10 +6693,10 @@
     </row>
     <row r="465" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B465" s="13" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C465" s="5" t="s">
         <v>5</v>
@@ -6682,10 +6704,10 @@
     </row>
     <row r="466" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B466" s="13" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C466" s="5" t="s">
         <v>5</v>
@@ -6693,10 +6715,10 @@
     </row>
     <row r="467" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B467" s="13" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C467" s="5" t="s">
         <v>5</v>
@@ -6704,10 +6726,10 @@
     </row>
     <row r="468" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B468" s="13" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C468" s="5" t="s">
         <v>5</v>
@@ -6715,10 +6737,10 @@
     </row>
     <row r="469" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B469" s="13" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C469" s="5" t="s">
         <v>5</v>
@@ -6735,10 +6757,10 @@
     </row>
     <row r="472" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="12" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B472" s="13" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C472" s="5" t="s">
         <v>5</v>
@@ -6746,10 +6768,10 @@
     </row>
     <row r="473" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="12" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B473" s="13" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C473" s="5" t="s">
         <v>5</v>
@@ -6757,10 +6779,10 @@
     </row>
     <row r="474" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="12" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B474" s="13" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C474" s="5" t="s">
         <v>5</v>
@@ -6768,10 +6790,10 @@
     </row>
     <row r="475" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="12" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B475" s="13" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C475" s="5" t="s">
         <v>5</v>
@@ -6779,10 +6801,10 @@
     </row>
     <row r="476" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="12" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B476" s="13" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C476" s="5" t="s">
         <v>5</v>
@@ -6790,10 +6812,10 @@
     </row>
     <row r="477" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="12" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B477" s="13" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C477" s="5" t="s">
         <v>5</v>
@@ -6801,10 +6823,10 @@
     </row>
     <row r="478" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="12" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B478" s="13" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C478" s="5" t="s">
         <v>5</v>
@@ -6812,10 +6834,10 @@
     </row>
     <row r="479" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="12" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B479" s="13" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C479" s="5" t="s">
         <v>5</v>
@@ -6823,10 +6845,10 @@
     </row>
     <row r="480" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="12" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B480" s="13" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C480" s="5" t="s">
         <v>5</v>
@@ -6834,10 +6856,10 @@
     </row>
     <row r="481" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="12" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B481" s="13" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C481" s="5" t="s">
         <v>5</v>

--- a/java/resources/FINAL450.xlsx
+++ b/java/resources/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="472">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -701,6 +701,9 @@
   </si>
   <si>
     <t xml:space="preserve">Find Kth largest element in a BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try to do it in constant space</t>
   </si>
   <si>
     <t xml:space="preserve">Find Kth smallest element in a BST</t>
@@ -1778,11 +1781,11 @@
   </sheetPr>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A212" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A229" activeCellId="0" sqref="A229"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A223" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A228" activeCellId="0" sqref="A228"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -4139,134 +4142,140 @@
       </c>
     </row>
     <row r="224" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="12" t="s">
+      <c r="A224" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B224" s="13" t="s">
+      <c r="B224" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="C224" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="12" t="s">
+      <c r="C224" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B225" s="13" t="s">
+      <c r="B225" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C225" s="5" t="s">
-        <v>5</v>
+      <c r="C225" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D225" s="0" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="12" t="s">
+      <c r="A226" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B226" s="13" t="s">
+      <c r="B226" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C226" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D226" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="C226" s="5" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="227" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="12" t="s">
+      <c r="A227" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B227" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="C227" s="5" t="s">
+      <c r="B227" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C227" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="12" t="s">
+      <c r="A228" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B228" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="C228" s="5" t="s">
+      <c r="B228" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C228" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="12" t="s">
+      <c r="A229" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B229" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="C229" s="5" t="s">
+      <c r="B229" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C229" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="12" t="s">
+      <c r="A230" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B230" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="C230" s="5" t="s">
+      <c r="B230" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C230" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="12" t="s">
+      <c r="A231" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="B231" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="C231" s="5" t="s">
+      <c r="B231" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C231" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="12" t="s">
+      <c r="A232" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="B232" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="C232" s="5" t="s">
+      <c r="B232" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="C232" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="12" t="s">
+      <c r="A233" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B233" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="C233" s="5" t="s">
+      <c r="B233" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C233" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="12" t="s">
+      <c r="A234" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B234" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C234" s="5" t="s">
+      <c r="B234" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C234" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="12" t="s">
+      <c r="A235" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B235" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="C235" s="5" t="s">
+      <c r="B235" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C235" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4280,10 +4289,10 @@
     </row>
     <row r="238" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>5</v>
@@ -4291,10 +4300,10 @@
     </row>
     <row r="239" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B239" s="13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>5</v>
@@ -4302,10 +4311,10 @@
     </row>
     <row r="240" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B240" s="13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>5</v>
@@ -4313,10 +4322,10 @@
     </row>
     <row r="241" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B241" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>5</v>
@@ -4324,10 +4333,10 @@
     </row>
     <row r="242" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B242" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>5</v>
@@ -4335,10 +4344,10 @@
     </row>
     <row r="243" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B243" s="13" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>5</v>
@@ -4346,10 +4355,10 @@
     </row>
     <row r="244" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>5</v>
@@ -4357,10 +4366,10 @@
     </row>
     <row r="245" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B245" s="13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>5</v>
@@ -4368,10 +4377,10 @@
     </row>
     <row r="246" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B246" s="13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>5</v>
@@ -4379,10 +4388,10 @@
     </row>
     <row r="247" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B247" s="13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>5</v>
@@ -4390,10 +4399,10 @@
     </row>
     <row r="248" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B248" s="13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>5</v>
@@ -4401,10 +4410,10 @@
     </row>
     <row r="249" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B249" s="13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>5</v>
@@ -4412,10 +4421,10 @@
     </row>
     <row r="250" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B250" s="13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C250" s="5" t="s">
         <v>5</v>
@@ -4423,10 +4432,10 @@
     </row>
     <row r="251" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B251" s="13" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C251" s="5" t="s">
         <v>5</v>
@@ -4434,10 +4443,10 @@
     </row>
     <row r="252" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B252" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>5</v>
@@ -4445,10 +4454,10 @@
     </row>
     <row r="253" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B253" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>5</v>
@@ -4456,10 +4465,10 @@
     </row>
     <row r="254" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B254" s="13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C254" s="5" t="s">
         <v>5</v>
@@ -4467,10 +4476,10 @@
     </row>
     <row r="255" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B255" s="13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>5</v>
@@ -4478,10 +4487,10 @@
     </row>
     <row r="256" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B256" s="13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>5</v>
@@ -4489,10 +4498,10 @@
     </row>
     <row r="257" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B257" s="13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>5</v>
@@ -4500,10 +4509,10 @@
     </row>
     <row r="258" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B258" s="13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C258" s="5" t="s">
         <v>5</v>
@@ -4511,10 +4520,10 @@
     </row>
     <row r="259" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B259" s="13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>5</v>
@@ -4522,10 +4531,10 @@
     </row>
     <row r="260" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B260" s="13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>5</v>
@@ -4533,10 +4542,10 @@
     </row>
     <row r="261" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B261" s="13" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>5</v>
@@ -4544,10 +4553,10 @@
     </row>
     <row r="262" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B262" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>5</v>
@@ -4555,10 +4564,10 @@
     </row>
     <row r="263" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B263" s="13" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>5</v>
@@ -4566,10 +4575,10 @@
     </row>
     <row r="264" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B264" s="13" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>5</v>
@@ -4577,10 +4586,10 @@
     </row>
     <row r="265" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B265" s="13" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>5</v>
@@ -4588,10 +4597,10 @@
     </row>
     <row r="266" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B266" s="13" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>5</v>
@@ -4599,10 +4608,10 @@
     </row>
     <row r="267" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B267" s="13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>5</v>
@@ -4610,10 +4619,10 @@
     </row>
     <row r="268" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B268" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C268" s="5" t="s">
         <v>5</v>
@@ -4621,10 +4630,10 @@
     </row>
     <row r="269" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B269" s="13" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>5</v>
@@ -4632,10 +4641,10 @@
     </row>
     <row r="270" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B270" s="13" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C270" s="5" t="s">
         <v>5</v>
@@ -4643,7 +4652,7 @@
     </row>
     <row r="271" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B271" s="13" t="s">
         <v>88</v>
@@ -4654,10 +4663,10 @@
     </row>
     <row r="272" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B272" s="13" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C272" s="5" t="s">
         <v>5</v>
@@ -4673,10 +4682,10 @@
     </row>
     <row r="275" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B275" s="13" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>5</v>
@@ -4684,10 +4693,10 @@
     </row>
     <row r="276" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B276" s="13" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C276" s="5" t="s">
         <v>5</v>
@@ -4695,10 +4704,10 @@
     </row>
     <row r="277" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B277" s="13" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>5</v>
@@ -4706,10 +4715,10 @@
     </row>
     <row r="278" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B278" s="13" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C278" s="5" t="s">
         <v>5</v>
@@ -4717,10 +4726,10 @@
     </row>
     <row r="279" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B279" s="13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C279" s="5" t="s">
         <v>5</v>
@@ -4728,10 +4737,10 @@
     </row>
     <row r="280" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B280" s="13" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C280" s="5" t="s">
         <v>5</v>
@@ -4739,10 +4748,10 @@
     </row>
     <row r="281" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B281" s="13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C281" s="5" t="s">
         <v>5</v>
@@ -4750,10 +4759,10 @@
     </row>
     <row r="282" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B282" s="13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C282" s="5" t="s">
         <v>5</v>
@@ -4761,10 +4770,10 @@
     </row>
     <row r="283" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B283" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C283" s="5" t="s">
         <v>5</v>
@@ -4772,10 +4781,10 @@
     </row>
     <row r="284" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B284" s="13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C284" s="5" t="s">
         <v>5</v>
@@ -4783,10 +4792,10 @@
     </row>
     <row r="285" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B285" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C285" s="5" t="s">
         <v>5</v>
@@ -4794,10 +4803,10 @@
     </row>
     <row r="286" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B286" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C286" s="5" t="s">
         <v>5</v>
@@ -4805,10 +4814,10 @@
     </row>
     <row r="287" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B287" s="13" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C287" s="5" t="s">
         <v>5</v>
@@ -4816,10 +4825,10 @@
     </row>
     <row r="288" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B288" s="13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>5</v>
@@ -4827,10 +4836,10 @@
     </row>
     <row r="289" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B289" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>5</v>
@@ -4838,10 +4847,10 @@
     </row>
     <row r="290" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B290" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>5</v>
@@ -4849,10 +4858,10 @@
     </row>
     <row r="291" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B291" s="13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>5</v>
@@ -4860,10 +4869,10 @@
     </row>
     <row r="292" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B292" s="13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>5</v>
@@ -4871,10 +4880,10 @@
     </row>
     <row r="293" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B293" s="13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>5</v>
@@ -4890,10 +4899,10 @@
     </row>
     <row r="296" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B296" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>5</v>
@@ -4901,10 +4910,10 @@
     </row>
     <row r="297" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B297" s="13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>5</v>
@@ -4912,10 +4921,10 @@
     </row>
     <row r="298" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B298" s="13" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>5</v>
@@ -4923,10 +4932,10 @@
     </row>
     <row r="299" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B299" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>5</v>
@@ -4934,10 +4943,10 @@
     </row>
     <row r="300" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B300" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C300" s="5" t="s">
         <v>5</v>
@@ -4945,10 +4954,10 @@
     </row>
     <row r="301" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B301" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>5</v>
@@ -4956,10 +4965,10 @@
     </row>
     <row r="302" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B302" s="13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C302" s="5" t="s">
         <v>5</v>
@@ -4967,10 +4976,10 @@
     </row>
     <row r="303" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B303" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C303" s="5" t="s">
         <v>5</v>
@@ -4978,10 +4987,10 @@
     </row>
     <row r="304" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B304" s="13" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C304" s="5" t="s">
         <v>5</v>
@@ -4989,10 +4998,10 @@
     </row>
     <row r="305" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B305" s="13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C305" s="5" t="s">
         <v>5</v>
@@ -5000,10 +5009,10 @@
     </row>
     <row r="306" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B306" s="13" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C306" s="5" t="s">
         <v>5</v>
@@ -5011,10 +5020,10 @@
     </row>
     <row r="307" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B307" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C307" s="5" t="s">
         <v>5</v>
@@ -5022,10 +5031,10 @@
     </row>
     <row r="308" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B308" s="13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>5</v>
@@ -5033,10 +5042,10 @@
     </row>
     <row r="309" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B309" s="26" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>5</v>
@@ -5044,10 +5053,10 @@
     </row>
     <row r="310" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B310" s="13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>5</v>
@@ -5055,10 +5064,10 @@
     </row>
     <row r="311" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B311" s="13" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>5</v>
@@ -5066,10 +5075,10 @@
     </row>
     <row r="312" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B312" s="13" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>5</v>
@@ -5077,10 +5086,10 @@
     </row>
     <row r="313" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B313" s="13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>5</v>
@@ -5088,10 +5097,10 @@
     </row>
     <row r="314" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B314" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C314" s="5" t="s">
         <v>5</v>
@@ -5099,10 +5108,10 @@
     </row>
     <row r="315" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B315" s="13" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C315" s="5" t="s">
         <v>5</v>
@@ -5110,10 +5119,10 @@
     </row>
     <row r="316" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B316" s="13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>5</v>
@@ -5121,10 +5130,10 @@
     </row>
     <row r="317" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B317" s="13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C317" s="5" t="s">
         <v>5</v>
@@ -5132,10 +5141,10 @@
     </row>
     <row r="318" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B318" s="13" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C318" s="5" t="s">
         <v>5</v>
@@ -5143,10 +5152,10 @@
     </row>
     <row r="319" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B319" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>5</v>
@@ -5154,10 +5163,10 @@
     </row>
     <row r="320" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B320" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C320" s="5" t="s">
         <v>5</v>
@@ -5165,10 +5174,10 @@
     </row>
     <row r="321" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B321" s="13" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>5</v>
@@ -5176,10 +5185,10 @@
     </row>
     <row r="322" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B322" s="13" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C322" s="5" t="s">
         <v>5</v>
@@ -5187,10 +5196,10 @@
     </row>
     <row r="323" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B323" s="13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>5</v>
@@ -5198,10 +5207,10 @@
     </row>
     <row r="324" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B324" s="13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>5</v>
@@ -5209,10 +5218,10 @@
     </row>
     <row r="325" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B325" s="13" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>5</v>
@@ -5220,10 +5229,10 @@
     </row>
     <row r="326" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B326" s="13" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>5</v>
@@ -5231,10 +5240,10 @@
     </row>
     <row r="327" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B327" s="13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>5</v>
@@ -5242,10 +5251,10 @@
     </row>
     <row r="328" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B328" s="13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>5</v>
@@ -5253,10 +5262,10 @@
     </row>
     <row r="329" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B329" s="13" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>5</v>
@@ -5264,10 +5273,10 @@
     </row>
     <row r="330" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B330" s="13" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>5</v>
@@ -5275,10 +5284,10 @@
     </row>
     <row r="331" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B331" s="13" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>5</v>
@@ -5286,10 +5295,10 @@
     </row>
     <row r="332" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B332" s="13" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>5</v>
@@ -5297,10 +5306,10 @@
     </row>
     <row r="333" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B333" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C333" s="5" t="s">
         <v>5</v>
@@ -5316,10 +5325,10 @@
     </row>
     <row r="336" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B336" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>5</v>
@@ -5327,10 +5336,10 @@
     </row>
     <row r="337" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B337" s="13" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>5</v>
@@ -5338,10 +5347,10 @@
     </row>
     <row r="338" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B338" s="13" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>5</v>
@@ -5349,10 +5358,10 @@
     </row>
     <row r="339" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B339" s="13" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>5</v>
@@ -5360,10 +5369,10 @@
     </row>
     <row r="340" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B340" s="13" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>5</v>
@@ -5371,10 +5380,10 @@
     </row>
     <row r="341" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B341" s="13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>5</v>
@@ -5382,10 +5391,10 @@
     </row>
     <row r="342" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B342" s="13" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>5</v>
@@ -5393,10 +5402,10 @@
     </row>
     <row r="343" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B343" s="13" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>5</v>
@@ -5404,10 +5413,10 @@
     </row>
     <row r="344" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B344" s="26" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>5</v>
@@ -5415,10 +5424,10 @@
     </row>
     <row r="345" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B345" s="13" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>5</v>
@@ -5426,10 +5435,10 @@
     </row>
     <row r="346" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B346" s="13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>5</v>
@@ -5437,10 +5446,10 @@
     </row>
     <row r="347" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B347" s="13" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>5</v>
@@ -5448,10 +5457,10 @@
     </row>
     <row r="348" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B348" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>5</v>
@@ -5459,10 +5468,10 @@
     </row>
     <row r="349" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B349" s="13" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>5</v>
@@ -5470,10 +5479,10 @@
     </row>
     <row r="350" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B350" s="13" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>5</v>
@@ -5481,10 +5490,10 @@
     </row>
     <row r="351" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B351" s="13" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>5</v>
@@ -5492,10 +5501,10 @@
     </row>
     <row r="352" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B352" s="13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>5</v>
@@ -5503,10 +5512,10 @@
     </row>
     <row r="353" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B353" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>5</v>
@@ -5522,10 +5531,10 @@
     </row>
     <row r="356" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B356" s="13" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>5</v>
@@ -5533,10 +5542,10 @@
     </row>
     <row r="357" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B357" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>5</v>
@@ -5544,10 +5553,10 @@
     </row>
     <row r="358" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B358" s="13" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>5</v>
@@ -5555,10 +5564,10 @@
     </row>
     <row r="359" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B359" s="13" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>5</v>
@@ -5566,10 +5575,10 @@
     </row>
     <row r="360" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B360" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C360" s="5" t="s">
         <v>5</v>
@@ -5577,10 +5586,10 @@
     </row>
     <row r="361" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B361" s="13" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C361" s="5" t="s">
         <v>5</v>
@@ -5588,10 +5597,10 @@
     </row>
     <row r="362" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B362" s="13" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C362" s="5" t="s">
         <v>5</v>
@@ -5599,10 +5608,10 @@
     </row>
     <row r="363" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B363" s="13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C363" s="5" t="s">
         <v>5</v>
@@ -5610,10 +5619,10 @@
     </row>
     <row r="364" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B364" s="13" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C364" s="5" t="s">
         <v>5</v>
@@ -5621,10 +5630,10 @@
     </row>
     <row r="365" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B365" s="13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>5</v>
@@ -5632,10 +5641,10 @@
     </row>
     <row r="366" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B366" s="13" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>5</v>
@@ -5643,10 +5652,10 @@
     </row>
     <row r="367" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B367" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C367" s="5" t="s">
         <v>5</v>
@@ -5654,10 +5663,10 @@
     </row>
     <row r="368" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B368" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C368" s="5" t="s">
         <v>5</v>
@@ -5665,10 +5674,10 @@
     </row>
     <row r="369" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B369" s="13" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C369" s="5" t="s">
         <v>5</v>
@@ -5676,10 +5685,10 @@
     </row>
     <row r="370" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B370" s="13" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C370" s="5" t="s">
         <v>5</v>
@@ -5687,10 +5696,10 @@
     </row>
     <row r="371" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B371" s="13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>5</v>
@@ -5698,10 +5707,10 @@
     </row>
     <row r="372" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B372" s="13" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C372" s="5" t="s">
         <v>5</v>
@@ -5709,10 +5718,10 @@
     </row>
     <row r="373" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B373" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>5</v>
@@ -5720,10 +5729,10 @@
     </row>
     <row r="374" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B374" s="13" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>5</v>
@@ -5731,10 +5740,10 @@
     </row>
     <row r="375" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B375" s="13" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C375" s="5" t="s">
         <v>5</v>
@@ -5742,10 +5751,10 @@
     </row>
     <row r="376" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B376" s="13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C376" s="5" t="s">
         <v>5</v>
@@ -5753,10 +5762,10 @@
     </row>
     <row r="377" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B377" s="13" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C377" s="5" t="s">
         <v>5</v>
@@ -5764,10 +5773,10 @@
     </row>
     <row r="378" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B378" s="13" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C378" s="5" t="s">
         <v>5</v>
@@ -5775,10 +5784,10 @@
     </row>
     <row r="379" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B379" s="13" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>5</v>
@@ -5786,10 +5795,10 @@
     </row>
     <row r="380" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B380" s="13" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C380" s="5" t="s">
         <v>5</v>
@@ -5797,10 +5806,10 @@
     </row>
     <row r="381" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B381" s="13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C381" s="5" t="s">
         <v>5</v>
@@ -5808,10 +5817,10 @@
     </row>
     <row r="382" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B382" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C382" s="5" t="s">
         <v>5</v>
@@ -5819,10 +5828,10 @@
     </row>
     <row r="383" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B383" s="13" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>5</v>
@@ -5830,10 +5839,10 @@
     </row>
     <row r="384" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B384" s="13" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C384" s="5" t="s">
         <v>5</v>
@@ -5841,10 +5850,10 @@
     </row>
     <row r="385" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B385" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>5</v>
@@ -5852,10 +5861,10 @@
     </row>
     <row r="386" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B386" s="13" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C386" s="5" t="s">
         <v>5</v>
@@ -5863,10 +5872,10 @@
     </row>
     <row r="387" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B387" s="13" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C387" s="5" t="s">
         <v>5</v>
@@ -5874,10 +5883,10 @@
     </row>
     <row r="388" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B388" s="13" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>5</v>
@@ -5885,10 +5894,10 @@
     </row>
     <row r="389" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B389" s="13" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>5</v>
@@ -5896,10 +5905,10 @@
     </row>
     <row r="390" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B390" s="13" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C390" s="5" t="s">
         <v>5</v>
@@ -5907,10 +5916,10 @@
     </row>
     <row r="391" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B391" s="13" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>5</v>
@@ -5918,10 +5927,10 @@
     </row>
     <row r="392" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B392" s="13" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C392" s="5" t="s">
         <v>5</v>
@@ -5929,10 +5938,10 @@
     </row>
     <row r="393" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B393" s="13" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>5</v>
@@ -5940,10 +5949,10 @@
     </row>
     <row r="394" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B394" s="13" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C394" s="5" t="s">
         <v>5</v>
@@ -5951,10 +5960,10 @@
     </row>
     <row r="395" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B395" s="13" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>5</v>
@@ -5962,10 +5971,10 @@
     </row>
     <row r="396" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B396" s="13" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>5</v>
@@ -5973,10 +5982,10 @@
     </row>
     <row r="397" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B397" s="13" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>5</v>
@@ -5984,10 +5993,10 @@
     </row>
     <row r="398" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B398" s="13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C398" s="5" t="s">
         <v>5</v>
@@ -5995,10 +6004,10 @@
     </row>
     <row r="399" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B399" s="13" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C399" s="5" t="s">
         <v>5</v>
@@ -6014,10 +6023,10 @@
     </row>
     <row r="402" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="12" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B402" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C402" s="5" t="s">
         <v>5</v>
@@ -6025,10 +6034,10 @@
     </row>
     <row r="403" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="12" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B403" s="13" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>5</v>
@@ -6036,10 +6045,10 @@
     </row>
     <row r="404" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="12" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B404" s="13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>5</v>
@@ -6047,7 +6056,7 @@
     </row>
     <row r="405" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="12" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B405" s="13" t="s">
         <v>90</v>
@@ -6058,10 +6067,10 @@
     </row>
     <row r="406" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="12" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B406" s="13" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>5</v>
@@ -6069,10 +6078,10 @@
     </row>
     <row r="407" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="12" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B407" s="13" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>5</v>
@@ -6088,10 +6097,10 @@
     </row>
     <row r="410" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B410" s="13" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C410" s="5" t="s">
         <v>5</v>
@@ -6099,10 +6108,10 @@
     </row>
     <row r="411" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B411" s="13" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C411" s="5" t="s">
         <v>5</v>
@@ -6110,10 +6119,10 @@
     </row>
     <row r="412" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B412" s="13" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C412" s="5" t="s">
         <v>5</v>
@@ -6121,10 +6130,10 @@
     </row>
     <row r="413" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B413" s="13" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C413" s="5" t="s">
         <v>5</v>
@@ -6132,10 +6141,10 @@
     </row>
     <row r="414" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B414" s="13" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C414" s="5" t="s">
         <v>5</v>
@@ -6143,10 +6152,10 @@
     </row>
     <row r="415" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B415" s="13" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C415" s="5" t="s">
         <v>5</v>
@@ -6154,10 +6163,10 @@
     </row>
     <row r="416" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B416" s="13" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C416" s="5" t="s">
         <v>5</v>
@@ -6165,10 +6174,10 @@
     </row>
     <row r="417" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B417" s="13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C417" s="5" t="s">
         <v>5</v>
@@ -6176,10 +6185,10 @@
     </row>
     <row r="418" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B418" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C418" s="5" t="s">
         <v>5</v>
@@ -6187,10 +6196,10 @@
     </row>
     <row r="419" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B419" s="13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C419" s="5" t="s">
         <v>5</v>
@@ -6198,10 +6207,10 @@
     </row>
     <row r="420" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B420" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C420" s="5" t="s">
         <v>5</v>
@@ -6209,10 +6218,10 @@
     </row>
     <row r="421" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B421" s="13" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C421" s="5" t="s">
         <v>5</v>
@@ -6220,10 +6229,10 @@
     </row>
     <row r="422" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B422" s="13" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C422" s="5" t="s">
         <v>5</v>
@@ -6231,10 +6240,10 @@
     </row>
     <row r="423" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B423" s="13" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C423" s="5" t="s">
         <v>5</v>
@@ -6242,10 +6251,10 @@
     </row>
     <row r="424" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B424" s="13" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C424" s="5" t="s">
         <v>5</v>
@@ -6253,10 +6262,10 @@
     </row>
     <row r="425" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B425" s="13" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C425" s="5" t="s">
         <v>5</v>
@@ -6264,10 +6273,10 @@
     </row>
     <row r="426" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B426" s="13" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C426" s="5" t="s">
         <v>5</v>
@@ -6275,10 +6284,10 @@
     </row>
     <row r="427" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B427" s="13" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C427" s="5" t="s">
         <v>5</v>
@@ -6286,10 +6295,10 @@
     </row>
     <row r="428" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B428" s="13" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C428" s="5" t="s">
         <v>5</v>
@@ -6297,10 +6306,10 @@
     </row>
     <row r="429" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B429" s="13" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C429" s="5" t="s">
         <v>5</v>
@@ -6308,10 +6317,10 @@
     </row>
     <row r="430" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B430" s="13" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C430" s="5" t="s">
         <v>5</v>
@@ -6319,10 +6328,10 @@
     </row>
     <row r="431" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B431" s="13" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C431" s="5" t="s">
         <v>5</v>
@@ -6330,10 +6339,10 @@
     </row>
     <row r="432" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B432" s="13" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C432" s="5" t="s">
         <v>5</v>
@@ -6341,10 +6350,10 @@
     </row>
     <row r="433" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B433" s="13" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C433" s="5" t="s">
         <v>5</v>
@@ -6352,10 +6361,10 @@
     </row>
     <row r="434" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B434" s="13" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C434" s="5" t="s">
         <v>5</v>
@@ -6363,10 +6372,10 @@
     </row>
     <row r="435" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B435" s="13" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C435" s="5" t="s">
         <v>5</v>
@@ -6374,10 +6383,10 @@
     </row>
     <row r="436" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B436" s="13" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C436" s="5" t="s">
         <v>5</v>
@@ -6385,10 +6394,10 @@
     </row>
     <row r="437" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B437" s="13" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C437" s="5" t="s">
         <v>5</v>
@@ -6396,10 +6405,10 @@
     </row>
     <row r="438" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B438" s="13" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C438" s="5" t="s">
         <v>5</v>
@@ -6407,10 +6416,10 @@
     </row>
     <row r="439" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B439" s="13" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>5</v>
@@ -6418,10 +6427,10 @@
     </row>
     <row r="440" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B440" s="13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C440" s="5" t="s">
         <v>5</v>
@@ -6429,10 +6438,10 @@
     </row>
     <row r="441" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B441" s="13" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C441" s="5" t="s">
         <v>5</v>
@@ -6440,10 +6449,10 @@
     </row>
     <row r="442" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B442" s="13" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C442" s="5" t="s">
         <v>5</v>
@@ -6451,10 +6460,10 @@
     </row>
     <row r="443" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B443" s="13" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C443" s="5" t="s">
         <v>5</v>
@@ -6462,10 +6471,10 @@
     </row>
     <row r="444" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B444" s="13" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C444" s="5" t="s">
         <v>5</v>
@@ -6473,10 +6482,10 @@
     </row>
     <row r="445" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B445" s="13" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C445" s="5" t="s">
         <v>5</v>
@@ -6484,10 +6493,10 @@
     </row>
     <row r="446" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B446" s="13" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C446" s="5" t="s">
         <v>5</v>
@@ -6495,10 +6504,10 @@
     </row>
     <row r="447" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B447" s="13" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C447" s="5" t="s">
         <v>5</v>
@@ -6506,10 +6515,10 @@
     </row>
     <row r="448" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B448" s="13" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C448" s="5" t="s">
         <v>5</v>
@@ -6517,10 +6526,10 @@
     </row>
     <row r="449" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B449" s="13" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C449" s="5" t="s">
         <v>5</v>
@@ -6528,10 +6537,10 @@
     </row>
     <row r="450" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B450" s="13" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C450" s="5" t="s">
         <v>5</v>
@@ -6539,10 +6548,10 @@
     </row>
     <row r="451" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B451" s="13" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C451" s="5" t="s">
         <v>5</v>
@@ -6550,10 +6559,10 @@
     </row>
     <row r="452" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B452" s="13" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C452" s="5" t="s">
         <v>5</v>
@@ -6561,10 +6570,10 @@
     </row>
     <row r="453" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B453" s="13" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C453" s="5" t="s">
         <v>5</v>
@@ -6572,10 +6581,10 @@
     </row>
     <row r="454" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B454" s="13" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C454" s="5" t="s">
         <v>5</v>
@@ -6583,10 +6592,10 @@
     </row>
     <row r="455" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B455" s="13" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C455" s="5" t="s">
         <v>5</v>
@@ -6594,10 +6603,10 @@
     </row>
     <row r="456" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B456" s="13" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C456" s="5" t="s">
         <v>5</v>
@@ -6605,10 +6614,10 @@
     </row>
     <row r="457" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B457" s="13" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C457" s="5" t="s">
         <v>5</v>
@@ -6616,10 +6625,10 @@
     </row>
     <row r="458" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B458" s="13" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C458" s="5" t="s">
         <v>5</v>
@@ -6627,10 +6636,10 @@
     </row>
     <row r="459" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B459" s="13" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C459" s="5" t="s">
         <v>5</v>
@@ -6638,10 +6647,10 @@
     </row>
     <row r="460" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B460" s="13" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C460" s="5" t="s">
         <v>5</v>
@@ -6649,10 +6658,10 @@
     </row>
     <row r="461" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B461" s="13" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C461" s="5" t="s">
         <v>5</v>
@@ -6660,10 +6669,10 @@
     </row>
     <row r="462" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B462" s="13" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C462" s="5" t="s">
         <v>5</v>
@@ -6671,10 +6680,10 @@
     </row>
     <row r="463" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B463" s="13" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C463" s="5" t="s">
         <v>5</v>
@@ -6682,10 +6691,10 @@
     </row>
     <row r="464" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B464" s="13" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C464" s="5" t="s">
         <v>5</v>
@@ -6693,10 +6702,10 @@
     </row>
     <row r="465" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B465" s="13" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C465" s="5" t="s">
         <v>5</v>
@@ -6704,10 +6713,10 @@
     </row>
     <row r="466" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B466" s="13" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C466" s="5" t="s">
         <v>5</v>
@@ -6715,10 +6724,10 @@
     </row>
     <row r="467" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B467" s="13" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C467" s="5" t="s">
         <v>5</v>
@@ -6726,10 +6735,10 @@
     </row>
     <row r="468" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B468" s="13" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C468" s="5" t="s">
         <v>5</v>
@@ -6737,10 +6746,10 @@
     </row>
     <row r="469" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B469" s="13" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C469" s="5" t="s">
         <v>5</v>
@@ -6757,10 +6766,10 @@
     </row>
     <row r="472" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="12" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B472" s="13" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C472" s="5" t="s">
         <v>5</v>
@@ -6768,10 +6777,10 @@
     </row>
     <row r="473" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="12" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B473" s="13" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C473" s="5" t="s">
         <v>5</v>
@@ -6779,10 +6788,10 @@
     </row>
     <row r="474" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="12" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B474" s="13" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C474" s="5" t="s">
         <v>5</v>
@@ -6790,10 +6799,10 @@
     </row>
     <row r="475" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="12" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B475" s="13" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C475" s="5" t="s">
         <v>5</v>
@@ -6801,10 +6810,10 @@
     </row>
     <row r="476" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="12" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B476" s="13" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C476" s="5" t="s">
         <v>5</v>
@@ -6812,10 +6821,10 @@
     </row>
     <row r="477" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="12" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B477" s="13" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C477" s="5" t="s">
         <v>5</v>
@@ -6823,10 +6832,10 @@
     </row>
     <row r="478" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="12" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B478" s="13" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C478" s="5" t="s">
         <v>5</v>
@@ -6834,10 +6843,10 @@
     </row>
     <row r="479" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="12" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B479" s="13" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C479" s="5" t="s">
         <v>5</v>
@@ -6845,10 +6854,10 @@
     </row>
     <row r="480" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="12" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B480" s="13" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C480" s="5" t="s">
         <v>5</v>
@@ -6856,10 +6865,10 @@
     </row>
     <row r="481" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="12" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B481" s="13" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C481" s="5" t="s">
         <v>5</v>

--- a/java/resources/FINAL450.xlsx
+++ b/java/resources/FINAL450.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\D_Drive\CrackingTheCodingInterview\java\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,13 +26,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="472">
   <si>
-    <t xml:space="preserve">Questions by Love Babbar:</t>
+    <t>Questions by Love Babbar:</t>
   </si>
   <si>
     <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
   </si>
   <si>
-    <t xml:space="preserve">Topic:</t>
+    <t>Topic:</t>
   </si>
   <si>
     <t xml:space="preserve">Problem: </t>
@@ -37,871 +41,871 @@
     <t xml:space="preserve">Done [yes or no] </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;-&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse the array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the maximum and minimum element in an array</t>
+    <t>&lt;-&gt;</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Reverse the array</t>
+  </si>
+  <si>
+    <t>Find the maximum and minimum element in an array</t>
   </si>
   <si>
     <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
   </si>
   <si>
-    <t xml:space="preserve">Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
+    <t>Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
   </si>
   <si>
     <t xml:space="preserve">Move all the negative elements to one side of the array </t>
   </si>
   <si>
-    <t xml:space="preserve">Find the Union and Intersection of the two sorted arrays.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a program to cyclically rotate an array by one.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find Largest sum contiguous Subarray [V. IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimise the maximum difference between heights [V.IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum no. of Jumps to reach end of an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find duplicate in an array of N+1 Integers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge 2 sorted arrays without using Extra space.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kadane's Algo [V.V.V.V.V IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge Intervals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Next Permutation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count Inversion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best time to buy and Sell stock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find all pairs on integer array whose sum is equal to given number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find common elements In 3 sorted arrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rearrange the array in alternating positive and negative items with O(1) extra space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find if there is any subarray with sum equal to 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find factorial of a large number</t>
+    <t>Find the Union and Intersection of the two sorted arrays.</t>
+  </si>
+  <si>
+    <t>Write a program to cyclically rotate an array by one.</t>
+  </si>
+  <si>
+    <t>find Largest sum contiguous Subarray [V. IMP]</t>
+  </si>
+  <si>
+    <t>Minimise the maximum difference between heights [V.IMP]</t>
+  </si>
+  <si>
+    <t>Minimum no. of Jumps to reach end of an array</t>
+  </si>
+  <si>
+    <t>find duplicate in an array of N+1 Integers</t>
+  </si>
+  <si>
+    <t>Merge 2 sorted arrays without using Extra space.</t>
+  </si>
+  <si>
+    <t>Kadane's Algo [V.V.V.V.V IMP]</t>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>Next Permutation</t>
+  </si>
+  <si>
+    <t>Count Inversion</t>
+  </si>
+  <si>
+    <t>Best time to buy and Sell stock</t>
+  </si>
+  <si>
+    <t>find all pairs on integer array whose sum is equal to given number</t>
+  </si>
+  <si>
+    <t>find common elements In 3 sorted arrays</t>
+  </si>
+  <si>
+    <t>Rearrange the array in alternating positive and negative items with O(1) extra space</t>
+  </si>
+  <si>
+    <t>Find if there is any subarray with sum equal to 0</t>
+  </si>
+  <si>
+    <t>Find factorial of a large number</t>
   </si>
   <si>
     <t xml:space="preserve">find maximum product subarray </t>
   </si>
   <si>
-    <t xml:space="preserve">Find longest coinsecutive subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given an array of size n and a number k, fin all elements that appear more than " n/k " times.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum profit by buying and selling a share atmost twice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find whether an array is a subset of another array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the triplet that sum to a given value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trapping Rain water problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chocolate Distribution problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smallest Subarray with sum greater than a given value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Three way partitioning of an array around a given value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum swaps required bring elements less equal K together</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum no. of operations required to make an array palindrome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median of 2 sorted arrays of equal size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median of 2 sorted arrays of different size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spiral traversal on a Matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search an element in a matriix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find median in a row wise sorted matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find row with maximum no. of 1's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print elements in sorted order using row-column wise sorted matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum size rectangle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find a specific pair in matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotate matrix by 90 degrees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kth smallest element in a row-cpumn wise sorted matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Common elements in all rows of a given matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check whether a String is Palindrome or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Duplicate characters in a string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why strings are immutable in Java?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a Code to check whether one string is a rotation of another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a Program to check whether a string is a valid shuffle of two strings or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count and Say problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Longest Recurring Subsequence in String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print all Subsequences of a string.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print all the permutations of the given string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Split the Binary string into two substring with equal 0’s and 1’s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word Wrap Problem [VERY IMP].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDIT Distance [Very Imp]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find next greater number with same set of digits. [Very Very IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balanced Parenthesis problem.[Imp]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word break Problem[ Very Imp]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rabin Karp Algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KMP Algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert a Sentence into its equivalent mobile numeric keypad sequence.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum number of bracket reversals needed to make an expression balanced.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count All Palindromic Subsequence in a given String.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of number of given string in 2D character array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search a Word in a 2D Grid of characters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boyer Moore Algorithm for Pattern Searching.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Converting Roman Numerals to Decimal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Common Prefix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of flips to make binary string alternate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the first repeated word in string.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum number of swaps for bracket balancing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the longest common subsequence between two strings.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program to generate all possible valid IP addresses from given  string.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a program tofind the smallest window that contains all characters of string itself.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rearrange characters in a string such that no two adjacent are same</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum characters to be added at front to make string palindrome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a sequence of words, print all anagrams together</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the smallest window in a string containing all characters of another string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recursively remove all adjacent duplicates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String matching where one string contains wildcard characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Function to find Number of customers who could not get a computer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transform One String to Another using Minimum Number of Given Operation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if two given strings are isomorphic to each other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recursively print all sentences that can be formed from list of word lists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Searching &amp; Sorting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find first and last positions of an element in a sorted array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find a Fixed Point (Value equal to index) in a given array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search in a rotated sorted array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">square root of an integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum and minimum of an array using minimum number of comparisons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimum location of point to minimize total distance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the repeating and the missing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find majority element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Searching in an array where adjacent differ by at most k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find a pair with a given difference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find four elements that sum to a given value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maximum sum such that no 2 elements are adjacent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count triplet with sum smaller than a given value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merge 2 sorted arrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">print all subarrays with 0 sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prefix Sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product array Puzzle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort array according to count of set bits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minimum no. of swaps required to sort the array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bishu and Soldiers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rasta and Kheshtak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kth smallest number again</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find pivot element in a sorted array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K-th Element of Two Sorted Arrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aggressive cows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Book Allocation Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKOSPOJ:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job Scheduling Algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missing Number in AP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smallest number with atleastn trailing zeroes infactorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Painters Partition Problem:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROTI-Prata SPOJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DoubleHelix SPOJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subset Sums</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Findthe inversion count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Merge-sort in-place</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partitioning and Sorting Arrays with Many Repeated Entries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LinkedList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a Program to reverse the Linked List. (Both Iterative and recursive)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a Linked List in group of Given Size. [Very Imp]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a program to Detect loop in a linked list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a program to Delete loop in a linked list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the starting point of the loop. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove Duplicates in a sorted Linked List.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove Duplicates in a Un-sorted Linked List.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a Program to Move the last element to Front in a Linked List.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add “1” to a number represented as a Linked List.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add two numbers represented by linked lists.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intersection of two Sorted Linked List.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intersection Point of two Linked Lists.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge Sort For Linked lists.[Very Important]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quicksort for Linked Lists.[Very Important]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the middle Element of a linked list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if a linked list is a circular linked list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Split a Circular linked list into two halves.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a Program to check whether the Singly Linked list is a palindrome or not.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deletion from a Circular Linked List.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a Doubly Linked list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find pairs with a given sum in a DLL.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count triplets in a sorted DLL whose sum is equal to given value “X”.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort a “k”sorted Doubly Linked list.[Very IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotate DoublyLinked list by N nodes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotate a Doubly Linked list in group of Given Size.[Very IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can we reverse a linked list in less than O(n) ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why Quicksort is preferred for. Arrays and Merge Sort for LinkedLists ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flatten a Linked List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort a LL of 0's, 1's and 2's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clone a linked list with next and random pointer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge K sorted Linked list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiply 2 no. represented by LL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete nodes which have a greater value on right side</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Segregate even and odd nodes in a Linked List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program for n’th node from the end of a Linked List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Single Traversal ??</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the first non-repeating character from a stream of characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binary Trees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">level order traversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse Level Order traversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Height of a tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter of a tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mirror of a tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inorder Traversal of a tree both using recursion and Iteration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preorder Traversal of a tree both using recursion and Iteration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postorder Traversal of a tree both using recursion and Iteration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Left View of a tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Right View of Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Top View of a tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bottom View of a tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zig-Zag traversal of a binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if a tree is balanced or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diagnol Traversal of a Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boundary traversal of a Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct Binary Tree from String with Bracket Representation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert Binary tree into Doubly Linked List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert Binary tree into Sum tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct Binary tree from Inorder and preorder traversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find minimum swaps required to convert a Binary tree into BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if Binary tree is Sum tree or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if all leaf nodes are at same level or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if 2 trees are mirror or not</t>
+    <t>Find longest coinsecutive subsequence</t>
+  </si>
+  <si>
+    <t>Given an array of size n and a number k, fin all elements that appear more than " n/k " times.</t>
+  </si>
+  <si>
+    <t>Maximum profit by buying and selling a share atmost twice</t>
+  </si>
+  <si>
+    <t>Find whether an array is a subset of another array</t>
+  </si>
+  <si>
+    <t>Find the triplet that sum to a given value</t>
+  </si>
+  <si>
+    <t>Trapping Rain water problem</t>
+  </si>
+  <si>
+    <t>Chocolate Distribution problem</t>
+  </si>
+  <si>
+    <t>Smallest Subarray with sum greater than a given value</t>
+  </si>
+  <si>
+    <t>Three way partitioning of an array around a given value</t>
+  </si>
+  <si>
+    <t>Minimum swaps required bring elements less equal K together</t>
+  </si>
+  <si>
+    <t>Minimum no. of operations required to make an array palindrome</t>
+  </si>
+  <si>
+    <t>Median of 2 sorted arrays of equal size</t>
+  </si>
+  <si>
+    <t>Median of 2 sorted arrays of different size</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>Spiral traversal on a Matrix</t>
+  </si>
+  <si>
+    <t>Search an element in a matriix</t>
+  </si>
+  <si>
+    <t>Find median in a row wise sorted matrix</t>
+  </si>
+  <si>
+    <t>Find row with maximum no. of 1's</t>
+  </si>
+  <si>
+    <t>Print elements in sorted order using row-column wise sorted matrix</t>
+  </si>
+  <si>
+    <t>Maximum size rectangle</t>
+  </si>
+  <si>
+    <t>Find a specific pair in matrix</t>
+  </si>
+  <si>
+    <t>Rotate matrix by 90 degrees</t>
+  </si>
+  <si>
+    <t>Kth smallest element in a row-cpumn wise sorted matrix</t>
+  </si>
+  <si>
+    <t>Common elements in all rows of a given matrix</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Reverse a String</t>
+  </si>
+  <si>
+    <t>Check whether a String is Palindrome or not</t>
+  </si>
+  <si>
+    <t>Find Duplicate characters in a string</t>
+  </si>
+  <si>
+    <t>Why strings are immutable in Java?</t>
+  </si>
+  <si>
+    <t>Write a Code to check whether one string is a rotation of another</t>
+  </si>
+  <si>
+    <t>Write a Program to check whether a string is a valid shuffle of two strings or not</t>
+  </si>
+  <si>
+    <t>Count and Say problem</t>
+  </si>
+  <si>
+    <t>Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]</t>
+  </si>
+  <si>
+    <t>Find Longest Recurring Subsequence in String</t>
+  </si>
+  <si>
+    <t>Print all Subsequences of a string.</t>
+  </si>
+  <si>
+    <t>Print all the permutations of the given string</t>
+  </si>
+  <si>
+    <t>Split the Binary string into two substring with equal 0’s and 1’s</t>
+  </si>
+  <si>
+    <t>Word Wrap Problem [VERY IMP].</t>
+  </si>
+  <si>
+    <t>EDIT Distance [Very Imp]</t>
+  </si>
+  <si>
+    <t>Find next greater number with same set of digits. [Very Very IMP]</t>
+  </si>
+  <si>
+    <t>Balanced Parenthesis problem.[Imp]</t>
+  </si>
+  <si>
+    <t>Word break Problem[ Very Imp]</t>
+  </si>
+  <si>
+    <t>Rabin Karp Algo</t>
+  </si>
+  <si>
+    <t>KMP Algo</t>
+  </si>
+  <si>
+    <t>Convert a Sentence into its equivalent mobile numeric keypad sequence.</t>
+  </si>
+  <si>
+    <t>Minimum number of bracket reversals needed to make an expression balanced.</t>
+  </si>
+  <si>
+    <t>Count All Palindromic Subsequence in a given String.</t>
+  </si>
+  <si>
+    <t>Count of number of given string in 2D character array</t>
+  </si>
+  <si>
+    <t>Search a Word in a 2D Grid of characters.</t>
+  </si>
+  <si>
+    <t>Boyer Moore Algorithm for Pattern Searching.</t>
+  </si>
+  <si>
+    <t>Converting Roman Numerals to Decimal</t>
+  </si>
+  <si>
+    <t>Longest Common Prefix</t>
+  </si>
+  <si>
+    <t>Number of flips to make binary string alternate</t>
+  </si>
+  <si>
+    <t>Find the first repeated word in string.</t>
+  </si>
+  <si>
+    <t>Minimum number of swaps for bracket balancing.</t>
+  </si>
+  <si>
+    <t>Find the longest common subsequence between two strings.</t>
+  </si>
+  <si>
+    <t>Program to generate all possible valid IP addresses from given  string.</t>
+  </si>
+  <si>
+    <t>Write a program tofind the smallest window that contains all characters of string itself.</t>
+  </si>
+  <si>
+    <t>Rearrange characters in a string such that no two adjacent are same</t>
+  </si>
+  <si>
+    <t>Minimum characters to be added at front to make string palindrome</t>
+  </si>
+  <si>
+    <t>Given a sequence of words, print all anagrams together</t>
+  </si>
+  <si>
+    <t>Find the smallest window in a string containing all characters of another string</t>
+  </si>
+  <si>
+    <t>Recursively remove all adjacent duplicates</t>
+  </si>
+  <si>
+    <t>String matching where one string contains wildcard characters</t>
+  </si>
+  <si>
+    <t>Function to find Number of customers who could not get a computer</t>
+  </si>
+  <si>
+    <t>Transform One String to Another using Minimum Number of Given Operation</t>
+  </si>
+  <si>
+    <t>Check if two given strings are isomorphic to each other</t>
+  </si>
+  <si>
+    <t>Recursively print all sentences that can be formed from list of word lists</t>
+  </si>
+  <si>
+    <t>Searching &amp; Sorting</t>
+  </si>
+  <si>
+    <t>Find first and last positions of an element in a sorted array</t>
+  </si>
+  <si>
+    <t>Find a Fixed Point (Value equal to index) in a given array</t>
+  </si>
+  <si>
+    <t>Search in a rotated sorted array</t>
+  </si>
+  <si>
+    <t>square root of an integer</t>
+  </si>
+  <si>
+    <t>Maximum and minimum of an array using minimum number of comparisons</t>
+  </si>
+  <si>
+    <t>Optimum location of point to minimize total distance</t>
+  </si>
+  <si>
+    <t>Find the repeating and the missing</t>
+  </si>
+  <si>
+    <t>find majority element</t>
+  </si>
+  <si>
+    <t>Searching in an array where adjacent differ by at most k</t>
+  </si>
+  <si>
+    <t>find a pair with a given difference</t>
+  </si>
+  <si>
+    <t>find four elements that sum to a given value</t>
+  </si>
+  <si>
+    <t>maximum sum such that no 2 elements are adjacent</t>
+  </si>
+  <si>
+    <t>Count triplet with sum smaller than a given value</t>
+  </si>
+  <si>
+    <t>merge 2 sorted arrays</t>
+  </si>
+  <si>
+    <t>print all subarrays with 0 sum</t>
+  </si>
+  <si>
+    <t>Prefix Sum</t>
+  </si>
+  <si>
+    <t>Product array Puzzle</t>
+  </si>
+  <si>
+    <t>Sort array according to count of set bits</t>
+  </si>
+  <si>
+    <t>minimum no. of swaps required to sort the array</t>
+  </si>
+  <si>
+    <t>Bishu and Soldiers</t>
+  </si>
+  <si>
+    <t>Rasta and Kheshtak</t>
+  </si>
+  <si>
+    <t>Kth smallest number again</t>
+  </si>
+  <si>
+    <t>Find pivot element in a sorted array</t>
+  </si>
+  <si>
+    <t>K-th Element of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>Aggressive cows</t>
+  </si>
+  <si>
+    <t>Book Allocation Problem</t>
+  </si>
+  <si>
+    <t>EKOSPOJ:</t>
+  </si>
+  <si>
+    <t>Job Scheduling Algo</t>
+  </si>
+  <si>
+    <t>Missing Number in AP</t>
+  </si>
+  <si>
+    <t>Smallest number with atleastn trailing zeroes infactorial</t>
+  </si>
+  <si>
+    <t>Painters Partition Problem:</t>
+  </si>
+  <si>
+    <t>ROTI-Prata SPOJ</t>
+  </si>
+  <si>
+    <t>DoubleHelix SPOJ</t>
+  </si>
+  <si>
+    <t>Subset Sums</t>
+  </si>
+  <si>
+    <t>Findthe inversion count</t>
+  </si>
+  <si>
+    <t>Implement Merge-sort in-place</t>
+  </si>
+  <si>
+    <t>Partitioning and Sorting Arrays with Many Repeated Entries</t>
+  </si>
+  <si>
+    <t>LinkedList</t>
+  </si>
+  <si>
+    <t>Write a Program to reverse the Linked List. (Both Iterative and recursive)</t>
+  </si>
+  <si>
+    <t>Reverse a Linked List in group of Given Size. [Very Imp]</t>
+  </si>
+  <si>
+    <t>Write a program to Detect loop in a linked list.</t>
+  </si>
+  <si>
+    <t>Write a program to Delete loop in a linked list.</t>
+  </si>
+  <si>
+    <t>Find the starting point of the loop. </t>
+  </si>
+  <si>
+    <t>Remove Duplicates in a sorted Linked List.</t>
+  </si>
+  <si>
+    <t>Remove Duplicates in a Un-sorted Linked List.</t>
+  </si>
+  <si>
+    <t>Write a Program to Move the last element to Front in a Linked List.</t>
+  </si>
+  <si>
+    <t>Add “1” to a number represented as a Linked List.</t>
+  </si>
+  <si>
+    <t>Add two numbers represented by linked lists.</t>
+  </si>
+  <si>
+    <t>Intersection of two Sorted Linked List.</t>
+  </si>
+  <si>
+    <t>Intersection Point of two Linked Lists.</t>
+  </si>
+  <si>
+    <t>Merge Sort For Linked lists.[Very Important]</t>
+  </si>
+  <si>
+    <t>Quicksort for Linked Lists.[Very Important]</t>
+  </si>
+  <si>
+    <t>Find the middle Element of a linked list.</t>
+  </si>
+  <si>
+    <t>Check if a linked list is a circular linked list.</t>
+  </si>
+  <si>
+    <t>Split a Circular linked list into two halves.</t>
+  </si>
+  <si>
+    <t>Write a Program to check whether the Singly Linked list is a palindrome or not.</t>
+  </si>
+  <si>
+    <t>Deletion from a Circular Linked List.</t>
+  </si>
+  <si>
+    <t>Reverse a Doubly Linked list.</t>
+  </si>
+  <si>
+    <t>Find pairs with a given sum in a DLL.</t>
+  </si>
+  <si>
+    <t>Count triplets in a sorted DLL whose sum is equal to given value “X”.</t>
+  </si>
+  <si>
+    <t>Sort a “k”sorted Doubly Linked list.[Very IMP]</t>
+  </si>
+  <si>
+    <t>Rotate DoublyLinked list by N nodes.</t>
+  </si>
+  <si>
+    <t>Rotate a Doubly Linked list in group of Given Size.[Very IMP]</t>
+  </si>
+  <si>
+    <t>Can we reverse a linked list in less than O(n) ?</t>
+  </si>
+  <si>
+    <t>Why Quicksort is preferred for. Arrays and Merge Sort for LinkedLists ?</t>
+  </si>
+  <si>
+    <t>Flatten a Linked List</t>
+  </si>
+  <si>
+    <t>Sort a LL of 0's, 1's and 2's</t>
+  </si>
+  <si>
+    <t>Clone a linked list with next and random pointer</t>
+  </si>
+  <si>
+    <t>Merge K sorted Linked list</t>
+  </si>
+  <si>
+    <t>Multiply 2 no. represented by LL</t>
+  </si>
+  <si>
+    <t>Delete nodes which have a greater value on right side</t>
+  </si>
+  <si>
+    <t>Segregate even and odd nodes in a Linked List</t>
+  </si>
+  <si>
+    <t>Program for n’th node from the end of a Linked List</t>
+  </si>
+  <si>
+    <t>Single Traversal ??</t>
+  </si>
+  <si>
+    <t>Find the first non-repeating character from a stream of characters</t>
+  </si>
+  <si>
+    <t>Binary Trees</t>
+  </si>
+  <si>
+    <t>level order traversal</t>
+  </si>
+  <si>
+    <t>Reverse Level Order traversal</t>
+  </si>
+  <si>
+    <t>Height of a tree</t>
+  </si>
+  <si>
+    <t>Diameter of a tree</t>
+  </si>
+  <si>
+    <t>Mirror of a tree</t>
+  </si>
+  <si>
+    <t>Inorder Traversal of a tree both using recursion and Iteration</t>
+  </si>
+  <si>
+    <t>Preorder Traversal of a tree both using recursion and Iteration</t>
+  </si>
+  <si>
+    <t>Postorder Traversal of a tree both using recursion and Iteration</t>
+  </si>
+  <si>
+    <t>Left View of a tree</t>
+  </si>
+  <si>
+    <t>Right View of Tree</t>
+  </si>
+  <si>
+    <t>Top View of a tree</t>
+  </si>
+  <si>
+    <t>Bottom View of a tree</t>
+  </si>
+  <si>
+    <t>Zig-Zag traversal of a binary tree</t>
+  </si>
+  <si>
+    <t>Check if a tree is balanced or not</t>
+  </si>
+  <si>
+    <t>Diagnol Traversal of a Binary tree</t>
+  </si>
+  <si>
+    <t>Boundary traversal of a Binary tree</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from String with Bracket Representation</t>
+  </si>
+  <si>
+    <t>Convert Binary tree into Doubly Linked List</t>
+  </si>
+  <si>
+    <t>Convert Binary tree into Sum tree</t>
+  </si>
+  <si>
+    <t>Construct Binary tree from Inorder and preorder traversal</t>
+  </si>
+  <si>
+    <t>Find minimum swaps required to convert a Binary tree into BST</t>
+  </si>
+  <si>
+    <t>Check if Binary tree is Sum tree or not</t>
+  </si>
+  <si>
+    <t>Check if all leaf nodes are at same level or not</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]</t>
+  </si>
+  <si>
+    <t>Check if 2 trees are mirror or not</t>
   </si>
   <si>
     <t xml:space="preserve">Sum of Nodes on the Longest path from root to leaf node </t>
   </si>
   <si>
-    <t xml:space="preserve">Check if given graph is tree or not.  [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Largest subtree sum in a tree</t>
+    <t>Check if given graph is tree or not.  [ IMP ]</t>
+  </si>
+  <si>
+    <t>Find Largest subtree sum in a tree</t>
   </si>
   <si>
     <t xml:space="preserve">Maximum Sum of nodes in Binary tree such that no two are adjacent </t>
   </si>
   <si>
-    <t xml:space="preserve">Print all "K" Sum paths in a Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find LCA in a Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find distance between 2 nodes in a Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kth Ancestor of node in a Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find all Duplicate subtrees in a Binary tree [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tree Isomorphism Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binary Search Trees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fina a value in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deletion of a node in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Go to the node that needs to be deleted and check if left is null then return right, if right is null return left, else find min value in the right side of the curr Node and replace current node’s value with min and perform the delete operation on the min valued node on the right side of the curr node.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find min and max value in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find inorder successor and inorder predecessor in a BST</t>
+    <t>Print all "K" Sum paths in a Binary tree</t>
+  </si>
+  <si>
+    <t>Find LCA in a Binary tree</t>
+  </si>
+  <si>
+    <t>Find distance between 2 nodes in a Binary tree</t>
+  </si>
+  <si>
+    <t>Kth Ancestor of node in a Binary tree</t>
+  </si>
+  <si>
+    <t>Find all Duplicate subtrees in a Binary tree [ IMP ]</t>
+  </si>
+  <si>
+    <t>Tree Isomorphism Problem</t>
+  </si>
+  <si>
+    <t>Binary Search Trees</t>
+  </si>
+  <si>
+    <t>Fina a value in a BST</t>
+  </si>
+  <si>
+    <t>Deletion of a node in a BST</t>
+  </si>
+  <si>
+    <t>Go to the node that needs to be deleted and check if left is null then return right, if right is null return left, else find min value in the right side of the curr Node and replace current node’s value with min and perform the delete operation on the min valued node on the right side of the curr node.</t>
+  </si>
+  <si>
+    <t>Find min and max value in a BST</t>
+  </si>
+  <si>
+    <t>Find inorder successor and inorder predecessor in a BST</t>
   </si>
   <si>
     <t xml:space="preserve">Check if a tree is a BST or not </t>
   </si>
   <si>
-    <t xml:space="preserve">Populate Inorder successor of all nodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse InOrder traversal with prevTemp node</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find LCA  of 2 nodes in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct BST from preorder traversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert Binary tree into BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store inOrder traversal of BT, then sort it and again do inorder traversal and populate values in the nodes using data of sorted array.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert a normal BST into a Balanced BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge two BST [ V.V.V&gt;IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Kth largest element in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Try to do it in constant space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Kth smallest element in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count pairs from 2 BST whose sum is equal to given value "X"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the median of BST in O(n) time and O(1) space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count BST ndoes that lie in a given range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Replace every element with the least greater element on its right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given "n" appointments, find the conflicting appointments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check preorder is valid or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check whether BST contains Dead end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Largest BST in a Binary Tree [ V.V.V.V.V IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flatten BST to sorted list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greedy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activity Selection Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job SequencingProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huffman Coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Connection Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fractional Knapsack Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greedy Algorithm to find Minimum number of Coins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum trains for which stoppage can be provided</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum Platforms Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buy Maximum Stocks if i stocks can be bought on i-th day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the minimum and maximum amount to buy all N candies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimize Cash Flow among a given set of friends who have borrowed money from each other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum Cost to cut a board into squares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if it is possible to survive on Island</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find maximum meetings in one room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum product subset of an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximize array sum after K negations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximize the sum of arr[i]*i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum sum of absolute difference of an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximize sum of consecutive differences in a circular array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum sum of absolute difference of pairs of two arrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program for Shortest Job First (or SJF) CPU Scheduling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program for Least Recently Used (LRU) Page Replacement algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smallest subset with sum greater than all other elements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chocolate Distribution Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFKIN -Defense of a Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIEHARD -DIE HARD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GERGOVIA -Wine trading in Gergovia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Picking Up Chicks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHOCOLA –Chocolate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARRANGE -Arranging Amplifiers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K Centers Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum Cost of ropes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find smallest number with given number of digits and sum of digits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find maximum sum possible equal sum of three stacks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackTracking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rat in a maze Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Printing all solutions in N-Queen Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word Break Problem using Backtracking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove Invalid Parentheses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudoku Solver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m Coloring Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print all palindromic partitions of a string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subset Sum Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Knight’s tour problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tug of War</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find shortest safe route in a path with landmines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combinational Sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Maximum number possible by doing at-most K swaps</t>
+    <t>Populate Inorder successor of all nodes</t>
+  </si>
+  <si>
+    <t>Reverse InOrder traversal with prevTemp node</t>
+  </si>
+  <si>
+    <t>Find LCA  of 2 nodes in a BST</t>
+  </si>
+  <si>
+    <t>Construct BST from preorder traversal</t>
+  </si>
+  <si>
+    <t>Convert Binary tree into BST</t>
+  </si>
+  <si>
+    <t>Store inOrder traversal of BT, then sort it and again do inorder traversal and populate values in the nodes using data of sorted array.</t>
+  </si>
+  <si>
+    <t>Convert a normal BST into a Balanced BST</t>
+  </si>
+  <si>
+    <t>Merge two BST [ V.V.V&gt;IMP ]</t>
+  </si>
+  <si>
+    <t>Find Kth largest element in a BST</t>
+  </si>
+  <si>
+    <t>Try to do it in constant space</t>
+  </si>
+  <si>
+    <t>Find Kth smallest element in a BST</t>
+  </si>
+  <si>
+    <t>Count pairs from 2 BST whose sum is equal to given value "X"</t>
+  </si>
+  <si>
+    <t>Find the median of BST in O(n) time and O(1) space</t>
+  </si>
+  <si>
+    <t>Count BST ndoes that lie in a given range</t>
+  </si>
+  <si>
+    <t>Replace every element with the least greater element on its right</t>
+  </si>
+  <si>
+    <t>Given "n" appointments, find the conflicting appointments</t>
+  </si>
+  <si>
+    <t>Check preorder is valid or not</t>
+  </si>
+  <si>
+    <t>Check whether BST contains Dead end</t>
+  </si>
+  <si>
+    <t>Largest BST in a Binary Tree [ V.V.V.V.V IMP ]</t>
+  </si>
+  <si>
+    <t>Flatten BST to sorted list</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t>Activity Selection Problem</t>
+  </si>
+  <si>
+    <t>Job SequencingProblem</t>
+  </si>
+  <si>
+    <t>Huffman Coding</t>
+  </si>
+  <si>
+    <t>Water Connection Problem</t>
+  </si>
+  <si>
+    <t>Fractional Knapsack Problem</t>
+  </si>
+  <si>
+    <t>Greedy Algorithm to find Minimum number of Coins</t>
+  </si>
+  <si>
+    <t>Maximum trains for which stoppage can be provided</t>
+  </si>
+  <si>
+    <t>Minimum Platforms Problem</t>
+  </si>
+  <si>
+    <t>Buy Maximum Stocks if i stocks can be bought on i-th day</t>
+  </si>
+  <si>
+    <t>Find the minimum and maximum amount to buy all N candies</t>
+  </si>
+  <si>
+    <t>Minimize Cash Flow among a given set of friends who have borrowed money from each other</t>
+  </si>
+  <si>
+    <t>Minimum Cost to cut a board into squares</t>
+  </si>
+  <si>
+    <t>Check if it is possible to survive on Island</t>
+  </si>
+  <si>
+    <t>Find maximum meetings in one room</t>
+  </si>
+  <si>
+    <t>Maximum product subset of an array</t>
+  </si>
+  <si>
+    <t>Maximize array sum after K negations</t>
+  </si>
+  <si>
+    <t>Maximize the sum of arr[i]*i</t>
+  </si>
+  <si>
+    <t>Maximum sum of absolute difference of an array</t>
+  </si>
+  <si>
+    <t>Maximize sum of consecutive differences in a circular array</t>
+  </si>
+  <si>
+    <t>Minimum sum of absolute difference of pairs of two arrays</t>
+  </si>
+  <si>
+    <t>Program for Shortest Job First (or SJF) CPU Scheduling</t>
+  </si>
+  <si>
+    <t>Program for Least Recently Used (LRU) Page Replacement algorithm</t>
+  </si>
+  <si>
+    <t>Smallest subset with sum greater than all other elements</t>
+  </si>
+  <si>
+    <t>Chocolate Distribution Problem</t>
+  </si>
+  <si>
+    <t>DEFKIN -Defense of a Kingdom</t>
+  </si>
+  <si>
+    <t>DIEHARD -DIE HARD</t>
+  </si>
+  <si>
+    <t>GERGOVIA -Wine trading in Gergovia</t>
+  </si>
+  <si>
+    <t>Picking Up Chicks</t>
+  </si>
+  <si>
+    <t>CHOCOLA –Chocolate</t>
+  </si>
+  <si>
+    <t>ARRANGE -Arranging Amplifiers</t>
+  </si>
+  <si>
+    <t>K Centers Problem</t>
+  </si>
+  <si>
+    <t>Minimum Cost of ropes</t>
+  </si>
+  <si>
+    <t>Find smallest number with given number of digits and sum of digits</t>
+  </si>
+  <si>
+    <t>Find maximum sum possible equal sum of three stacks</t>
+  </si>
+  <si>
+    <t>BackTracking</t>
+  </si>
+  <si>
+    <t>Rat in a maze Problem</t>
+  </si>
+  <si>
+    <t>Printing all solutions in N-Queen Problem</t>
+  </si>
+  <si>
+    <t>Word Break Problem using Backtracking</t>
+  </si>
+  <si>
+    <t>Remove Invalid Parentheses</t>
+  </si>
+  <si>
+    <t>Sudoku Solver</t>
+  </si>
+  <si>
+    <t>m Coloring Problem</t>
+  </si>
+  <si>
+    <t>Print all palindromic partitions of a string</t>
+  </si>
+  <si>
+    <t>Subset Sum Problem</t>
+  </si>
+  <si>
+    <t>The Knight’s tour problem</t>
+  </si>
+  <si>
+    <t>Tug of War</t>
+  </si>
+  <si>
+    <t>Find shortest safe route in a path with landmines</t>
+  </si>
+  <si>
+    <t>Combinational Sum</t>
+  </si>
+  <si>
+    <t>Find Maximum number possible by doing at-most K swaps</t>
   </si>
   <si>
     <t xml:space="preserve">Print all permutations of a string </t>
   </si>
   <si>
-    <t xml:space="preserve">Find if there is a path of more than k length from a source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Possible Route in a Matrix with Hurdles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print all possible paths from top left to bottom right of a mXn matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partition of a set intoK subsets with equal sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the K-th Permutation Sequence of first N natural numbers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stacks &amp; Queues</t>
+    <t>Find if there is a path of more than k length from a source</t>
+  </si>
+  <si>
+    <t>Longest Possible Route in a Matrix with Hurdles</t>
+  </si>
+  <si>
+    <t>Print all possible paths from top left to bottom right of a mXn matrix</t>
+  </si>
+  <si>
+    <t>Partition of a set intoK subsets with equal sum</t>
+  </si>
+  <si>
+    <t>Find the K-th Permutation Sequence of first N natural numbers</t>
+  </si>
+  <si>
+    <t>Stacks &amp; Queues</t>
   </si>
   <si>
     <t xml:space="preserve"> Implement Stack from Scratch</t>
@@ -910,175 +914,175 @@
     <t xml:space="preserve"> Implement Queue from Scratch</t>
   </si>
   <si>
-    <t xml:space="preserve">Implement 2 stack in an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find the middle element of a stack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement "N" stacks in an Array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check the expression has valid or Balanced parenthesis or not.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a String using Stack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design a Stack that supports getMin() in O(1) time and O(1) extra space.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the next Greater element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The celebrity Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arithmetic Expression evaluation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluation of Postfix expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement a method to insert an element at its bottom without using any other data structure.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a stack using recursion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort a Stack using recursion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge Overlapping Intervals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Largest rectangular Area in Histogram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Length of the Longest Valid Substring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression contains redundant bracket or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Stack using Queue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Stack using Deque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stack Permutations (Check if an array is stack permutation of other)</t>
+    <t>Implement 2 stack in an array</t>
+  </si>
+  <si>
+    <t>find the middle element of a stack</t>
+  </si>
+  <si>
+    <t>Implement "N" stacks in an Array</t>
+  </si>
+  <si>
+    <t>Check the expression has valid or Balanced parenthesis or not.</t>
+  </si>
+  <si>
+    <t>Reverse a String using Stack</t>
+  </si>
+  <si>
+    <t>Design a Stack that supports getMin() in O(1) time and O(1) extra space.</t>
+  </si>
+  <si>
+    <t>Find the next Greater element</t>
+  </si>
+  <si>
+    <t>The celebrity Problem</t>
+  </si>
+  <si>
+    <t>Arithmetic Expression evaluation</t>
+  </si>
+  <si>
+    <t>Evaluation of Postfix expression</t>
+  </si>
+  <si>
+    <t>Implement a method to insert an element at its bottom without using any other data structure.</t>
+  </si>
+  <si>
+    <t>Reverse a stack using recursion</t>
+  </si>
+  <si>
+    <t>Sort a Stack using recursion</t>
+  </si>
+  <si>
+    <t>Merge Overlapping Intervals</t>
+  </si>
+  <si>
+    <t>Largest rectangular Area in Histogram</t>
+  </si>
+  <si>
+    <t>Length of the Longest Valid Substring</t>
+  </si>
+  <si>
+    <t>Expression contains redundant bracket or not</t>
+  </si>
+  <si>
+    <t>Implement Stack using Queue</t>
+  </si>
+  <si>
+    <t>Implement Stack using Deque</t>
+  </si>
+  <si>
+    <t>Stack Permutations (Check if an array is stack permutation of other)</t>
   </si>
   <si>
     <t xml:space="preserve">Implement Queue using Stack  </t>
   </si>
   <si>
-    <t xml:space="preserve">Implement "n" queue in an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement a Circular queue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LRU Cache Implementationa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a Queue using recursion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse the first “K” elements of a queue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interleave the first half of the queue with second half</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the first circular tour that visits all Petrol Pumps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum time required to rot all oranges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distance of nearest cell having 1 in a binary matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First negative integer in every window of size “k”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if all levels of two trees are anagrams or not.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sum of minimum and maximum elements of all subarrays of size “k”.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum sum of squares of character counts in a given string after removing “k” characters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queue based approach or first non-repeating character in a stream.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Next Smaller Element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement a Maxheap/MinHeap using arrays and recursion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort an Array using heap. (HeapSort)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum of all subarrays of size k.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“k” largest element in an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kth smallest and largest element in an unsorted array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge “K” sorted arrays. [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge 2 Binary Max Heaps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kth largest sum continuous subarrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leetcode- reorganize strings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge “K” Sorted Linked Lists [V.IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smallest range in “K” Lists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median in a stream of Integers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if a Binary Tree is Heap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connect “n” ropes with minimum cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert BST to Min Heap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert min heap to max heap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rearrange characters in a string such that no two adjacent are same.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum sum of two numbers formed from digits of an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a Graph, print it</t>
+    <t>Implement "n" queue in an array</t>
+  </si>
+  <si>
+    <t>Implement a Circular queue</t>
+  </si>
+  <si>
+    <t>LRU Cache Implementationa</t>
+  </si>
+  <si>
+    <t>Reverse a Queue using recursion</t>
+  </si>
+  <si>
+    <t>Reverse the first “K” elements of a queue</t>
+  </si>
+  <si>
+    <t>Interleave the first half of the queue with second half</t>
+  </si>
+  <si>
+    <t>Find the first circular tour that visits all Petrol Pumps</t>
+  </si>
+  <si>
+    <t>Minimum time required to rot all oranges</t>
+  </si>
+  <si>
+    <t>Distance of nearest cell having 1 in a binary matrix</t>
+  </si>
+  <si>
+    <t>First negative integer in every window of size “k”</t>
+  </si>
+  <si>
+    <t>Check if all levels of two trees are anagrams or not.</t>
+  </si>
+  <si>
+    <t>Sum of minimum and maximum elements of all subarrays of size “k”.</t>
+  </si>
+  <si>
+    <t>Minimum sum of squares of character counts in a given string after removing “k” characters.</t>
+  </si>
+  <si>
+    <t>Queue based approach or first non-repeating character in a stream.</t>
+  </si>
+  <si>
+    <t>Next Smaller Element</t>
+  </si>
+  <si>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t>Implement a Maxheap/MinHeap using arrays and recursion.</t>
+  </si>
+  <si>
+    <t>Sort an Array using heap. (HeapSort)</t>
+  </si>
+  <si>
+    <t>Maximum of all subarrays of size k.</t>
+  </si>
+  <si>
+    <t>“k” largest element in an array</t>
+  </si>
+  <si>
+    <t>Kth smallest and largest element in an unsorted array</t>
+  </si>
+  <si>
+    <t>Merge “K” sorted arrays. [ IMP ]</t>
+  </si>
+  <si>
+    <t>Merge 2 Binary Max Heaps</t>
+  </si>
+  <si>
+    <t>Kth largest sum continuous subarrays</t>
+  </si>
+  <si>
+    <t>Leetcode- reorganize strings</t>
+  </si>
+  <si>
+    <t>Merge “K” Sorted Linked Lists [V.IMP]</t>
+  </si>
+  <si>
+    <t>Smallest range in “K” Lists</t>
+  </si>
+  <si>
+    <t>Median in a stream of Integers</t>
+  </si>
+  <si>
+    <t>Check if a Binary Tree is Heap</t>
+  </si>
+  <si>
+    <t>Connect “n” ropes with minimum cost</t>
+  </si>
+  <si>
+    <t>Convert BST to Min Heap</t>
+  </si>
+  <si>
+    <t>Convert min heap to max heap</t>
+  </si>
+  <si>
+    <t>Rearrange characters in a string such that no two adjacent are same.</t>
+  </si>
+  <si>
+    <t>Minimum sum of two numbers formed from digits of an array</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Create a Graph, print it</t>
   </si>
   <si>
     <t xml:space="preserve">Implement BFS algorithm </t>
@@ -1093,359 +1097,356 @@
     <t xml:space="preserve">Detect Cycle in UnDirected Graph using BFS/DFS Algo </t>
   </si>
   <si>
-    <t xml:space="preserve">Search in a Maze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum Step by Knight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flood fill algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clone a graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Making wired Connections</t>
+    <t>Search in a Maze</t>
+  </si>
+  <si>
+    <t>Minimum Step by Knight</t>
+  </si>
+  <si>
+    <t>flood fill algo</t>
+  </si>
+  <si>
+    <t>Clone a graph</t>
+  </si>
+  <si>
+    <t>Making wired Connections</t>
   </si>
   <si>
     <t xml:space="preserve">word Ladder </t>
   </si>
   <si>
-    <t xml:space="preserve">Dijkstra algo</t>
+    <t>Dijkstra algo</t>
   </si>
   <si>
     <t xml:space="preserve">Implement Topological Sort </t>
   </si>
   <si>
-    <t xml:space="preserve">Minimum time taken by each job to be completed given by a Directed Acyclic Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find whether it is possible to finish all tasks or not from given dependencies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the no. of Isalnds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a sorted Dictionary of an Alien Language, find order of characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Kruksal’sAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Prim’s Algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total no. of Spanning tree in a graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Bellman Ford Algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Floyd warshallAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Travelling Salesman Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graph ColouringProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snake and Ladders Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find bridge in a graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count Strongly connected Components(Kosaraju Algo)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check whether a graph is Bipartite or Not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detect Negative cycle in a graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest path in a Directed Acyclic Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Journey to the Moon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cheapest Flights Within K Stops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oliver and the Game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Jug problem using BFS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find if there is a path of more thank length from a source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M-ColouringProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum edges to reverse o make path from source to destination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paths to travel each nodes using each edge(Seven Bridges)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vertex Cover Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chinese Postman or Route Inspection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Triangles in a Directed and Undirected Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimise the cashflow among a given set of friends who have borrowed money from each other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two Clique Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct a trie from scratch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find shortest unique prefix for every word in a given list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word Break Problem | (Trie solution)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement a Phone Directory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print unique rows in a given boolean matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dynamic Programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coin ChangeProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knapsack Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binomial CoefficientProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permutation CoefficientProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program for nth Catalan Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matrix Chain Multiplication </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit Distance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friends Pairing Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold Mine Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assembly Line SchedulingProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Painting the Fenceproblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximize The Cut Segments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Common Subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Repeated Subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Increasing Subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Space Optimized Solution of LCS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCS (Longest Common Subsequence) of three strings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum Sum Increasing Subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count all subsequences having product less than K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest subsequence such that difference between adjacent is one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum subsequence sum such that no three are consecutive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egg Dropping Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum Length Chain of Pairs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum size square sub-matrix with all 1s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum sum of pairs with specific difference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min Cost PathProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum difference of zeros and ones in binary string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum number of jumps to reach end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum cost to fill given weight in a bag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum removals from array to make max –min &lt;= K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Common Substring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count number of ways to reacha given score in a game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count Balanced Binary Trees of Height h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smallest sum contiguous subarray</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unbounded Knapsack (Repetition of items allowed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word Break Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Largest Independent Set Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partition problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Palindromic Subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count All Palindromic Subsequence in a given String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Palindromic Substring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest alternating subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weighted Job Scheduling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coin game winner where every player has three choices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum profit by buying and selling a share at most twice [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimal Strategy for a Game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimal Binary Search Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palindrome PartitioningProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word Wrap Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile Numeric Keypad Problem [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boolean Parenthesization Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Largest rectangular sub-matrix whose sum is 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum sum rectangle in a 2D matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum profit by buying and selling a share at most k times</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find if a string is interleaved of two other strings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum Length of Pair Chain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit Manipulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count set bits in an integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the two non-repeating elements in an array of repeating elements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count number of bits to be flipped to convert A to B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count total set bits in all numbers from 1 to n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program to find whether a no is power of two</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find position of the only set bit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copy set bits in a range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divide two integers without using multiplication, division and mod operator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate square of a number without using *, / and pow()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Set</t>
+    <t>Minimum time taken by each job to be completed given by a Directed Acyclic Graph</t>
+  </si>
+  <si>
+    <t>Find whether it is possible to finish all tasks or not from given dependencies</t>
+  </si>
+  <si>
+    <t>Find the no. of Isalnds</t>
+  </si>
+  <si>
+    <t>Given a sorted Dictionary of an Alien Language, find order of characters</t>
+  </si>
+  <si>
+    <t>Implement Kruksal’sAlgorithm</t>
+  </si>
+  <si>
+    <t>Implement Prim’s Algorithm</t>
+  </si>
+  <si>
+    <t>Total no. of Spanning tree in a graph</t>
+  </si>
+  <si>
+    <t>Implement Bellman Ford Algorithm</t>
+  </si>
+  <si>
+    <t>Implement Floyd warshallAlgorithm</t>
+  </si>
+  <si>
+    <t>Travelling Salesman Problem</t>
+  </si>
+  <si>
+    <t>Graph ColouringProblem</t>
+  </si>
+  <si>
+    <t>Snake and Ladders Problem</t>
+  </si>
+  <si>
+    <t>Find bridge in a graph</t>
+  </si>
+  <si>
+    <t>Count Strongly connected Components(Kosaraju Algo)</t>
+  </si>
+  <si>
+    <t>Check whether a graph is Bipartite or Not</t>
+  </si>
+  <si>
+    <t>Detect Negative cycle in a graph</t>
+  </si>
+  <si>
+    <t>Longest path in a Directed Acyclic Graph</t>
+  </si>
+  <si>
+    <t>Journey to the Moon</t>
+  </si>
+  <si>
+    <t>Cheapest Flights Within K Stops</t>
+  </si>
+  <si>
+    <t>Oliver and the Game</t>
+  </si>
+  <si>
+    <t>Water Jug problem using BFS</t>
+  </si>
+  <si>
+    <t>Find if there is a path of more thank length from a source</t>
+  </si>
+  <si>
+    <t>M-ColouringProblem</t>
+  </si>
+  <si>
+    <t>Minimum edges to reverse o make path from source to destination</t>
+  </si>
+  <si>
+    <t>Paths to travel each nodes using each edge(Seven Bridges)</t>
+  </si>
+  <si>
+    <t>Vertex Cover Problem</t>
+  </si>
+  <si>
+    <t>Chinese Postman or Route Inspection</t>
+  </si>
+  <si>
+    <t>Number of Triangles in a Directed and Undirected Graph</t>
+  </si>
+  <si>
+    <t>Minimise the cashflow among a given set of friends who have borrowed money from each other</t>
+  </si>
+  <si>
+    <t>Two Clique Problem</t>
+  </si>
+  <si>
+    <t>Trie</t>
+  </si>
+  <si>
+    <t>Construct a trie from scratch</t>
+  </si>
+  <si>
+    <t>Find shortest unique prefix for every word in a given list</t>
+  </si>
+  <si>
+    <t>Word Break Problem | (Trie solution)</t>
+  </si>
+  <si>
+    <t>Implement a Phone Directory</t>
+  </si>
+  <si>
+    <t>Print unique rows in a given boolean matrix</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+  </si>
+  <si>
+    <t>Coin ChangeProblem</t>
+  </si>
+  <si>
+    <t>Knapsack Problem</t>
+  </si>
+  <si>
+    <t>Binomial CoefficientProblem</t>
+  </si>
+  <si>
+    <t>Permutation CoefficientProblem</t>
+  </si>
+  <si>
+    <t>Program for nth Catalan Number</t>
+  </si>
+  <si>
+    <t>Matrix Chain Multiplication </t>
+  </si>
+  <si>
+    <t>Edit Distance</t>
+  </si>
+  <si>
+    <t>Friends Pairing Problem</t>
+  </si>
+  <si>
+    <t>Gold Mine Problem</t>
+  </si>
+  <si>
+    <t>Assembly Line SchedulingProblem</t>
+  </si>
+  <si>
+    <t>Painting the Fenceproblem</t>
+  </si>
+  <si>
+    <t>Maximize The Cut Segments</t>
+  </si>
+  <si>
+    <t>Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t>Longest Repeated Subsequence</t>
+  </si>
+  <si>
+    <t>Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>Space Optimized Solution of LCS</t>
+  </si>
+  <si>
+    <t>LCS (Longest Common Subsequence) of three strings</t>
+  </si>
+  <si>
+    <t>Maximum Sum Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>Count all subsequences having product less than K</t>
+  </si>
+  <si>
+    <t>Longest subsequence such that difference between adjacent is one</t>
+  </si>
+  <si>
+    <t>Maximum subsequence sum such that no three are consecutive</t>
+  </si>
+  <si>
+    <t>Egg Dropping Problem</t>
+  </si>
+  <si>
+    <t>Maximum Length Chain of Pairs</t>
+  </si>
+  <si>
+    <t>Maximum size square sub-matrix with all 1s</t>
+  </si>
+  <si>
+    <t>Maximum sum of pairs with specific difference</t>
+  </si>
+  <si>
+    <t>Min Cost PathProblem</t>
+  </si>
+  <si>
+    <t>Maximum difference of zeros and ones in binary string</t>
+  </si>
+  <si>
+    <t>Minimum number of jumps to reach end</t>
+  </si>
+  <si>
+    <t>Minimum cost to fill given weight in a bag</t>
+  </si>
+  <si>
+    <t>Minimum removals from array to make max –min &lt;= K</t>
+  </si>
+  <si>
+    <t>Longest Common Substring</t>
+  </si>
+  <si>
+    <t>Count number of ways to reacha given score in a game</t>
+  </si>
+  <si>
+    <t>Count Balanced Binary Trees of Height h</t>
+  </si>
+  <si>
+    <t>LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]</t>
+  </si>
+  <si>
+    <t>Smallest sum contiguous subarray</t>
+  </si>
+  <si>
+    <t>Unbounded Knapsack (Repetition of items allowed)</t>
+  </si>
+  <si>
+    <t>Word Break Problem</t>
+  </si>
+  <si>
+    <t>Largest Independent Set Problem</t>
+  </si>
+  <si>
+    <t>Partition problem</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Subsequence</t>
+  </si>
+  <si>
+    <t>Count All Palindromic Subsequence in a given String</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t>Longest alternating subsequence</t>
+  </si>
+  <si>
+    <t>Weighted Job Scheduling</t>
+  </si>
+  <si>
+    <t>Coin game winner where every player has three choices</t>
+  </si>
+  <si>
+    <t>Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]</t>
+  </si>
+  <si>
+    <t>Maximum profit by buying and selling a share at most twice [ IMP ]</t>
+  </si>
+  <si>
+    <t>Optimal Strategy for a Game</t>
+  </si>
+  <si>
+    <t>Optimal Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Palindrome PartitioningProblem</t>
+  </si>
+  <si>
+    <t>Word Wrap Problem</t>
+  </si>
+  <si>
+    <t>Mobile Numeric Keypad Problem [ IMP ]</t>
+  </si>
+  <si>
+    <t>Boolean Parenthesization Problem</t>
+  </si>
+  <si>
+    <t>Largest rectangular sub-matrix whose sum is 0</t>
+  </si>
+  <si>
+    <t>Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]</t>
+  </si>
+  <si>
+    <t>Maximum sum rectangle in a 2D matrix</t>
+  </si>
+  <si>
+    <t>Maximum profit by buying and selling a share at most k times</t>
+  </si>
+  <si>
+    <t>Find if a string is interleaved of two other strings</t>
+  </si>
+  <si>
+    <t>Maximum Length of Pair Chain</t>
+  </si>
+  <si>
+    <t>Bit Manipulation</t>
+  </si>
+  <si>
+    <t>Count set bits in an integer</t>
+  </si>
+  <si>
+    <t>Find the two non-repeating elements in an array of repeating elements</t>
+  </si>
+  <si>
+    <t>Count number of bits to be flipped to convert A to B</t>
+  </si>
+  <si>
+    <t>Count total set bits in all numbers from 1 to n</t>
+  </si>
+  <si>
+    <t>Program to find whether a no is power of two</t>
+  </si>
+  <si>
+    <t>Find position of the only set bit</t>
+  </si>
+  <si>
+    <t>Copy set bits in a range</t>
+  </si>
+  <si>
+    <t>Divide two integers without using multiplication, division and mod operator</t>
+  </si>
+  <si>
+    <t>Calculate square of a number without using *, / and pow()</t>
+  </si>
+  <si>
+    <t>Power Set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1454,30 +1455,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Calibri (Body)"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -1485,8 +1470,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1494,7 +1479,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1502,7 +1487,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="16"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -1517,7 +1502,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1554,9 +1539,15 @@
         <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1564,153 +1555,84 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="30">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="27">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1769,41 +1691,315 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A223" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A228" activeCellId="0" sqref="A228"/>
+    <sheetView tabSelected="1" topLeftCell="A292" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B294" sqref="B294"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.17"/>
+    <col min="1" max="1" width="28.5" customWidth="1"/>
+    <col min="2" max="2" width="123" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="26.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" ht="21">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1814,12 +2010,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3">
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" ht="21">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1830,7 +2026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" ht="21">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1841,7 +2037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" ht="21">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1852,7 +2048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" ht="21">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1863,7 +2059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:3" ht="21">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1874,7 +2070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:3" ht="21">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
@@ -1885,7 +2081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:3" ht="21">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
@@ -1896,7 +2092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:3" ht="21">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -1907,7 +2103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:3" ht="21">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -1918,7 +2114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:3" ht="21">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -1929,7 +2125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:3" ht="21">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -1940,7 +2136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:3" ht="21">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -1951,7 +2147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:3" ht="21">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -1962,7 +2158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:3" ht="21">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -1973,7 +2169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:3" ht="21">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
@@ -1984,7 +2180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:3" ht="21">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -1995,7 +2191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:3" ht="21">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
@@ -2006,7 +2202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:3" ht="21">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
@@ -2017,7 +2213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:3" ht="21">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
@@ -2028,7 +2224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:3" ht="21">
       <c r="A25" s="9" t="s">
         <v>6</v>
       </c>
@@ -2039,7 +2235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:3" ht="21">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
@@ -2050,7 +2246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:3" ht="21">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -2061,7 +2257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:3" ht="21">
       <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
@@ -2072,7 +2268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:3" ht="21">
       <c r="A29" s="9" t="s">
         <v>6</v>
       </c>
@@ -2083,7 +2279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:3" ht="21">
       <c r="A30" s="12" t="s">
         <v>6</v>
       </c>
@@ -2094,7 +2290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:3" ht="21">
       <c r="A31" s="14" t="s">
         <v>6</v>
       </c>
@@ -2105,7 +2301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:3" ht="21">
       <c r="A32" s="14" t="s">
         <v>6</v>
       </c>
@@ -2116,7 +2312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:3" ht="21">
       <c r="A33" s="14" t="s">
         <v>6</v>
       </c>
@@ -2127,7 +2323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:3" ht="21">
       <c r="A34" s="14" t="s">
         <v>6</v>
       </c>
@@ -2138,7 +2334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:3" ht="21">
       <c r="A35" s="14" t="s">
         <v>6</v>
       </c>
@@ -2149,7 +2345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:3" ht="21">
       <c r="A36" s="14" t="s">
         <v>6</v>
       </c>
@@ -2160,7 +2356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:3" ht="21">
       <c r="A37" s="14" t="s">
         <v>6</v>
       </c>
@@ -2171,7 +2367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:3" ht="21">
       <c r="A38" s="9" t="s">
         <v>6</v>
       </c>
@@ -2182,7 +2378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:3" ht="21">
       <c r="A39" s="9" t="s">
         <v>6</v>
       </c>
@@ -2193,7 +2389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:3" ht="21">
       <c r="A40" s="12" t="s">
         <v>6</v>
       </c>
@@ -2204,7 +2400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:3" ht="21">
       <c r="A41" s="14" t="s">
         <v>6</v>
       </c>
@@ -2215,20 +2411,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:3" ht="21">
       <c r="B42" s="17"/>
       <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:3" ht="21">
       <c r="A43" s="12"/>
       <c r="B43" s="17"/>
       <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:3" ht="21">
       <c r="A44" s="14" t="s">
         <v>43</v>
       </c>
@@ -2239,7 +2435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:3" ht="21">
       <c r="A45" s="14" t="s">
         <v>43</v>
       </c>
@@ -2250,7 +2446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:3" ht="21">
       <c r="A46" s="14" t="s">
         <v>43</v>
       </c>
@@ -2261,7 +2457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:3" ht="21">
       <c r="A47" s="14" t="s">
         <v>43</v>
       </c>
@@ -2272,7 +2468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:3" ht="21">
       <c r="A48" s="14" t="s">
         <v>43</v>
       </c>
@@ -2283,7 +2479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:3" ht="21">
       <c r="A49" s="14" t="s">
         <v>43</v>
       </c>
@@ -2294,7 +2490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:3" ht="21">
       <c r="A50" s="14" t="s">
         <v>43</v>
       </c>
@@ -2305,7 +2501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:3" ht="21">
       <c r="A51" s="18" t="s">
         <v>43</v>
       </c>
@@ -2316,7 +2512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:3" ht="21">
       <c r="A52" s="12" t="s">
         <v>43</v>
       </c>
@@ -2327,7 +2523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:3" ht="21">
       <c r="A53" s="12" t="s">
         <v>43</v>
       </c>
@@ -2338,12 +2534,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:3" ht="21">
       <c r="A55" s="12"/>
       <c r="B55" s="17"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:3" ht="21">
       <c r="A56" s="12" t="s">
         <v>54</v>
       </c>
@@ -2354,7 +2550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:3" ht="21">
       <c r="A57" s="12" t="s">
         <v>54</v>
       </c>
@@ -2365,7 +2561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:3" ht="21">
       <c r="A58" s="12" t="s">
         <v>54</v>
       </c>
@@ -2376,7 +2572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:3" ht="21">
       <c r="A59" s="12" t="s">
         <v>54</v>
       </c>
@@ -2387,7 +2583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:3" ht="21">
       <c r="A60" s="12" t="s">
         <v>54</v>
       </c>
@@ -2398,7 +2594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:3" ht="21">
       <c r="A61" s="12" t="s">
         <v>54</v>
       </c>
@@ -2409,7 +2605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:3" ht="21">
       <c r="A62" s="12" t="s">
         <v>54</v>
       </c>
@@ -2420,7 +2616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:3" ht="21">
       <c r="A63" s="12" t="s">
         <v>54</v>
       </c>
@@ -2431,7 +2627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:3" ht="21">
       <c r="A64" s="12" t="s">
         <v>54</v>
       </c>
@@ -2442,7 +2638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:3" ht="21">
       <c r="A65" s="12" t="s">
         <v>54</v>
       </c>
@@ -2453,7 +2649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:3" ht="21">
       <c r="A66" s="12" t="s">
         <v>54</v>
       </c>
@@ -2464,7 +2660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:3" ht="21">
       <c r="A67" s="12" t="s">
         <v>54</v>
       </c>
@@ -2475,7 +2671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:3" ht="21">
       <c r="A68" s="12" t="s">
         <v>54</v>
       </c>
@@ -2486,7 +2682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:3" ht="21">
       <c r="A69" s="12" t="s">
         <v>54</v>
       </c>
@@ -2497,7 +2693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:3" ht="21">
       <c r="A70" s="12" t="s">
         <v>54</v>
       </c>
@@ -2508,7 +2704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:3" ht="21">
       <c r="A71" s="12" t="s">
         <v>54</v>
       </c>
@@ -2519,7 +2715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:3" ht="21">
       <c r="A72" s="12" t="s">
         <v>54</v>
       </c>
@@ -2530,7 +2726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:3" ht="21">
       <c r="A73" s="12" t="s">
         <v>54</v>
       </c>
@@ -2541,7 +2737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:3" ht="21">
       <c r="A74" s="12" t="s">
         <v>54</v>
       </c>
@@ -2552,7 +2748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:3" ht="21">
       <c r="A75" s="12" t="s">
         <v>54</v>
       </c>
@@ -2563,7 +2759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:3" ht="21">
       <c r="A76" s="12" t="s">
         <v>54</v>
       </c>
@@ -2574,7 +2770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:3" ht="21">
       <c r="A77" s="12" t="s">
         <v>54</v>
       </c>
@@ -2585,7 +2781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:3" ht="21">
       <c r="A78" s="12" t="s">
         <v>54</v>
       </c>
@@ -2596,7 +2792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:3" ht="21">
       <c r="A79" s="12" t="s">
         <v>54</v>
       </c>
@@ -2607,7 +2803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:3" ht="21">
       <c r="A80" s="12" t="s">
         <v>54</v>
       </c>
@@ -2618,7 +2814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:3" ht="21">
       <c r="A81" s="12" t="s">
         <v>54</v>
       </c>
@@ -2629,7 +2825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:3" ht="21">
       <c r="A82" s="12" t="s">
         <v>54</v>
       </c>
@@ -2640,7 +2836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:3" ht="21">
       <c r="A83" s="12" t="s">
         <v>54</v>
       </c>
@@ -2651,7 +2847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:3" ht="21">
       <c r="A84" s="12" t="s">
         <v>54</v>
       </c>
@@ -2662,7 +2858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:3" ht="21">
       <c r="A85" s="12" t="s">
         <v>54</v>
       </c>
@@ -2673,7 +2869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:3" ht="21">
       <c r="A86" s="12" t="s">
         <v>54</v>
       </c>
@@ -2684,7 +2880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:3" ht="21">
       <c r="A87" s="12" t="s">
         <v>54</v>
       </c>
@@ -2695,7 +2891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:3" ht="21">
       <c r="A88" s="12" t="s">
         <v>54</v>
       </c>
@@ -2706,7 +2902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:3" ht="21">
       <c r="A89" s="12" t="s">
         <v>54</v>
       </c>
@@ -2717,7 +2913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:3" ht="21">
       <c r="A90" s="12" t="s">
         <v>54</v>
       </c>
@@ -2728,7 +2924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:3" ht="21">
       <c r="A91" s="12" t="s">
         <v>54</v>
       </c>
@@ -2739,7 +2935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:3" ht="21">
       <c r="A92" s="12" t="s">
         <v>54</v>
       </c>
@@ -2750,7 +2946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:3" ht="21">
       <c r="A93" s="12" t="s">
         <v>54</v>
       </c>
@@ -2761,7 +2957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:3" ht="21">
       <c r="A94" s="12" t="s">
         <v>54</v>
       </c>
@@ -2772,7 +2968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:3" ht="21">
       <c r="A95" s="12" t="s">
         <v>54</v>
       </c>
@@ -2783,7 +2979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:3" ht="21">
       <c r="A96" s="12" t="s">
         <v>54</v>
       </c>
@@ -2794,7 +2990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:3" ht="21">
       <c r="A97" s="12" t="s">
         <v>54</v>
       </c>
@@ -2805,7 +3001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:3" ht="21">
       <c r="A98" s="12" t="s">
         <v>54</v>
       </c>
@@ -2816,12 +3012,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:3" ht="21">
       <c r="A100" s="12"/>
       <c r="B100" s="17"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:3" ht="21">
       <c r="A101" s="6" t="s">
         <v>98</v>
       </c>
@@ -2832,7 +3028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:3" ht="21">
       <c r="A102" s="6" t="s">
         <v>98</v>
       </c>
@@ -2843,7 +3039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:3" ht="21">
       <c r="A103" s="6" t="s">
         <v>98</v>
       </c>
@@ -2854,7 +3050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:3" ht="21">
       <c r="A104" s="6" t="s">
         <v>98</v>
       </c>
@@ -2865,7 +3061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:3" ht="21">
       <c r="A105" s="6" t="s">
         <v>98</v>
       </c>
@@ -2876,7 +3072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:3" ht="21">
       <c r="A106" s="6" t="s">
         <v>98</v>
       </c>
@@ -2887,7 +3083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:3" ht="21">
       <c r="A107" s="6" t="s">
         <v>98</v>
       </c>
@@ -2898,7 +3094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:3" ht="21">
       <c r="A108" s="6" t="s">
         <v>98</v>
       </c>
@@ -2909,7 +3105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:3" ht="21">
       <c r="A109" s="6" t="s">
         <v>98</v>
       </c>
@@ -2920,7 +3116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:3" ht="21">
       <c r="A110" s="6" t="s">
         <v>98</v>
       </c>
@@ -2931,7 +3127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:3" ht="21">
       <c r="A111" s="6" t="s">
         <v>98</v>
       </c>
@@ -2942,7 +3138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:3" ht="21">
       <c r="A112" s="6" t="s">
         <v>98</v>
       </c>
@@ -2953,7 +3149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:4" ht="21">
       <c r="A113" s="6" t="s">
         <v>98</v>
       </c>
@@ -2964,7 +3160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:4" ht="21">
       <c r="A114" s="6" t="s">
         <v>98</v>
       </c>
@@ -2975,7 +3171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:4" ht="21">
       <c r="A115" s="6" t="s">
         <v>98</v>
       </c>
@@ -2985,11 +3181,11 @@
       <c r="C115" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D115" s="0" t="s">
+      <c r="D115" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:4" ht="21">
       <c r="A116" s="6" t="s">
         <v>98</v>
       </c>
@@ -3000,7 +3196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:4" ht="21">
       <c r="A117" s="6" t="s">
         <v>98</v>
       </c>
@@ -3011,7 +3207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:4" ht="21">
       <c r="A118" s="6" t="s">
         <v>98</v>
       </c>
@@ -3022,7 +3218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:4" ht="21">
       <c r="A119" s="6" t="s">
         <v>98</v>
       </c>
@@ -3033,7 +3229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:4" ht="21">
       <c r="A120" s="12" t="s">
         <v>98</v>
       </c>
@@ -3044,7 +3240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:4" ht="21">
       <c r="A121" s="6" t="s">
         <v>98</v>
       </c>
@@ -3055,7 +3251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:4" ht="21">
       <c r="A122" s="6" t="s">
         <v>98</v>
       </c>
@@ -3066,7 +3262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:4" ht="21">
       <c r="A123" s="12" t="s">
         <v>98</v>
       </c>
@@ -3077,7 +3273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="20.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:4" ht="21">
       <c r="A124" s="6" t="s">
         <v>98</v>
       </c>
@@ -3088,7 +3284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:4" ht="21">
       <c r="A125" s="6" t="s">
         <v>98</v>
       </c>
@@ -3099,7 +3295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:4" ht="21">
       <c r="A126" s="6" t="s">
         <v>98</v>
       </c>
@@ -3110,7 +3306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:4" ht="21">
       <c r="A127" s="18" t="s">
         <v>98</v>
       </c>
@@ -3121,7 +3317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:4" ht="21">
       <c r="A128" s="6" t="s">
         <v>98</v>
       </c>
@@ -3132,7 +3328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:3" ht="21">
       <c r="A129" s="18" t="s">
         <v>98</v>
       </c>
@@ -3143,7 +3339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:3" ht="21">
       <c r="A130" s="6" t="s">
         <v>98</v>
       </c>
@@ -3154,7 +3350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:3" ht="21">
       <c r="A131" s="6" t="s">
         <v>98</v>
       </c>
@@ -3165,7 +3361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:3" ht="21">
       <c r="A132" s="6" t="s">
         <v>98</v>
       </c>
@@ -3176,7 +3372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:3" ht="21">
       <c r="A133" s="12" t="s">
         <v>98</v>
       </c>
@@ -3187,7 +3383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:3" ht="21">
       <c r="A134" s="6" t="s">
         <v>98</v>
       </c>
@@ -3198,7 +3394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:3" ht="21">
       <c r="A135" s="6" t="s">
         <v>98</v>
       </c>
@@ -3209,7 +3405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:3" ht="21">
       <c r="A136" s="6" t="s">
         <v>98</v>
       </c>
@@ -3220,11 +3416,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:3" ht="21">
       <c r="B138" s="17"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:3" ht="21">
       <c r="A139" s="6" t="s">
         <v>136</v>
       </c>
@@ -3235,7 +3431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:3" ht="21">
       <c r="A140" s="6" t="s">
         <v>136</v>
       </c>
@@ -3246,7 +3442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:3" ht="21">
       <c r="A141" s="6" t="s">
         <v>136</v>
       </c>
@@ -3257,7 +3453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:3" ht="21">
       <c r="A142" s="6" t="s">
         <v>136</v>
       </c>
@@ -3268,7 +3464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:3" ht="21">
       <c r="A143" s="6" t="s">
         <v>136</v>
       </c>
@@ -3279,7 +3475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:3" ht="21">
       <c r="A144" s="6" t="s">
         <v>136</v>
       </c>
@@ -3290,7 +3486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:3" ht="21">
       <c r="A145" s="6" t="s">
         <v>136</v>
       </c>
@@ -3301,7 +3497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:3" ht="21">
       <c r="A146" s="6" t="s">
         <v>136</v>
       </c>
@@ -3312,7 +3508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:3" ht="21">
       <c r="A147" s="6" t="s">
         <v>136</v>
       </c>
@@ -3323,7 +3519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:3" ht="21">
       <c r="A148" s="6" t="s">
         <v>136</v>
       </c>
@@ -3334,7 +3530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:3" ht="21">
       <c r="A149" s="6" t="s">
         <v>136</v>
       </c>
@@ -3345,7 +3541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:3" ht="21">
       <c r="A150" s="6" t="s">
         <v>136</v>
       </c>
@@ -3356,7 +3552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:3" ht="21">
       <c r="A151" s="6" t="s">
         <v>136</v>
       </c>
@@ -3367,7 +3563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:3" ht="21">
       <c r="A152" s="12" t="s">
         <v>136</v>
       </c>
@@ -3378,7 +3574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:3" ht="21">
       <c r="A153" s="6" t="s">
         <v>136</v>
       </c>
@@ -3389,7 +3585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:3" ht="21">
       <c r="A154" s="6" t="s">
         <v>136</v>
       </c>
@@ -3400,7 +3596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:3" ht="21">
       <c r="A155" s="6" t="s">
         <v>136</v>
       </c>
@@ -3411,7 +3607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:3" ht="21">
       <c r="A156" s="6" t="s">
         <v>136</v>
       </c>
@@ -3422,7 +3618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:3" ht="21">
       <c r="A157" s="6" t="s">
         <v>136</v>
       </c>
@@ -3433,7 +3629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:3" ht="21">
       <c r="A158" s="6" t="s">
         <v>136</v>
       </c>
@@ -3444,7 +3640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:3" ht="21">
       <c r="A159" s="6" t="s">
         <v>136</v>
       </c>
@@ -3455,7 +3651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:3" ht="21">
       <c r="A160" s="6" t="s">
         <v>136</v>
       </c>
@@ -3466,7 +3662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:4" ht="21">
       <c r="A161" s="6" t="s">
         <v>136</v>
       </c>
@@ -3477,7 +3673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:4" ht="21">
       <c r="A162" s="6" t="s">
         <v>136</v>
       </c>
@@ -3488,7 +3684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:4" ht="21">
       <c r="A163" s="6" t="s">
         <v>136</v>
       </c>
@@ -3499,7 +3695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:4" ht="21">
       <c r="A164" s="6" t="s">
         <v>136</v>
       </c>
@@ -3510,7 +3706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:4" ht="21">
       <c r="A165" s="6" t="s">
         <v>136</v>
       </c>
@@ -3521,7 +3717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:4" ht="21">
       <c r="A166" s="12" t="s">
         <v>136</v>
       </c>
@@ -3532,7 +3728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:4" ht="21">
       <c r="A167" s="6" t="s">
         <v>136</v>
       </c>
@@ -3543,7 +3739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:4" ht="21">
       <c r="A168" s="6" t="s">
         <v>136</v>
       </c>
@@ -3554,7 +3750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:4" ht="21">
       <c r="A169" s="12" t="s">
         <v>136</v>
       </c>
@@ -3565,7 +3761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:4" ht="21">
       <c r="A170" s="6" t="s">
         <v>136</v>
       </c>
@@ -3576,7 +3772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:4" ht="21">
       <c r="A171" s="6" t="s">
         <v>136</v>
       </c>
@@ -3587,7 +3783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:4" ht="21">
       <c r="A172" s="6" t="s">
         <v>136</v>
       </c>
@@ -3598,7 +3794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:4" ht="21">
       <c r="A173" s="6" t="s">
         <v>136</v>
       </c>
@@ -3608,11 +3804,11 @@
       <c r="C173" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D173" s="0" t="s">
+      <c r="D173" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:4" ht="21">
       <c r="A174" s="12" t="s">
         <v>136</v>
       </c>
@@ -3623,11 +3819,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:4" ht="21">
       <c r="B176" s="17"/>
       <c r="C176" s="5"/>
     </row>
-    <row r="177" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:3" ht="21">
       <c r="A177" s="6" t="s">
         <v>174</v>
       </c>
@@ -3638,7 +3834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:3" ht="21">
       <c r="A178" s="6" t="s">
         <v>174</v>
       </c>
@@ -3649,7 +3845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:3" ht="21">
       <c r="A179" s="6" t="s">
         <v>174</v>
       </c>
@@ -3660,7 +3856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:3" ht="21">
       <c r="A180" s="6" t="s">
         <v>174</v>
       </c>
@@ -3671,7 +3867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:3" ht="21">
       <c r="A181" s="6" t="s">
         <v>174</v>
       </c>
@@ -3682,7 +3878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:3" ht="21">
       <c r="A182" s="6" t="s">
         <v>174</v>
       </c>
@@ -3693,7 +3889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:3" ht="21">
       <c r="A183" s="6" t="s">
         <v>174</v>
       </c>
@@ -3704,7 +3900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:3" ht="21">
       <c r="A184" s="6" t="s">
         <v>174</v>
       </c>
@@ -3715,7 +3911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:3" ht="21">
       <c r="A185" s="6" t="s">
         <v>174</v>
       </c>
@@ -3726,7 +3922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:3" ht="21">
       <c r="A186" s="6" t="s">
         <v>174</v>
       </c>
@@ -3737,7 +3933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:3" ht="21">
       <c r="A187" s="6" t="s">
         <v>174</v>
       </c>
@@ -3748,7 +3944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:3" ht="21">
       <c r="A188" s="6" t="s">
         <v>174</v>
       </c>
@@ -3759,7 +3955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:3" ht="21">
       <c r="A189" s="6" t="s">
         <v>174</v>
       </c>
@@ -3770,7 +3966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:3" ht="21">
       <c r="A190" s="6" t="s">
         <v>174</v>
       </c>
@@ -3781,7 +3977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:3" ht="21">
       <c r="A191" s="6" t="s">
         <v>174</v>
       </c>
@@ -3792,7 +3988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:3" ht="21">
       <c r="A192" s="22" t="s">
         <v>174</v>
       </c>
@@ -3803,7 +3999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" spans="1:3" ht="21">
       <c r="A193" s="6" t="s">
         <v>174</v>
       </c>
@@ -3814,7 +4010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" spans="1:3" ht="21">
       <c r="A194" s="6" t="s">
         <v>174</v>
       </c>
@@ -3825,7 +4021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:3" ht="21">
       <c r="A195" s="6" t="s">
         <v>174</v>
       </c>
@@ -3836,7 +4032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:3" ht="21">
       <c r="A196" s="6" t="s">
         <v>174</v>
       </c>
@@ -3847,7 +4043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:3" ht="21">
       <c r="A197" s="6" t="s">
         <v>174</v>
       </c>
@@ -3858,7 +4054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" spans="1:3" ht="21">
       <c r="A198" s="6" t="s">
         <v>174</v>
       </c>
@@ -3869,7 +4065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:3" ht="21">
       <c r="A199" s="6" t="s">
         <v>174</v>
       </c>
@@ -3880,7 +4076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" spans="1:3" ht="21">
       <c r="A200" s="6" t="s">
         <v>198</v>
       </c>
@@ -3891,7 +4087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" spans="1:3" ht="21">
       <c r="A201" s="12" t="s">
         <v>174</v>
       </c>
@@ -3902,7 +4098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" spans="1:3" ht="21">
       <c r="A202" s="6" t="s">
         <v>174</v>
       </c>
@@ -3913,7 +4109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" spans="1:3" ht="21">
       <c r="A203" s="18" t="s">
         <v>174</v>
       </c>
@@ -3924,7 +4120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" spans="1:3" ht="21">
       <c r="A204" s="6" t="s">
         <v>174</v>
       </c>
@@ -3935,7 +4131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" spans="1:3" ht="21">
       <c r="A205" s="6" t="s">
         <v>174</v>
       </c>
@@ -3946,7 +4142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" spans="1:3" ht="21">
       <c r="A206" s="6" t="s">
         <v>174</v>
       </c>
@@ -3957,7 +4153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" spans="1:3" ht="21">
       <c r="A207" s="6" t="s">
         <v>174</v>
       </c>
@@ -3968,7 +4164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" spans="1:3" ht="21">
       <c r="A208" s="6" t="s">
         <v>174</v>
       </c>
@@ -3979,7 +4175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" spans="1:4" ht="21">
       <c r="A209" s="6" t="s">
         <v>174</v>
       </c>
@@ -3990,7 +4186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" spans="1:4" ht="21">
       <c r="A210" s="6" t="s">
         <v>174</v>
       </c>
@@ -4001,7 +4197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" spans="1:4" ht="21">
       <c r="A211" s="6" t="s">
         <v>174</v>
       </c>
@@ -4012,17 +4208,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" spans="1:4" ht="21">
       <c r="A212" s="12"/>
       <c r="B212" s="17"/>
       <c r="C212" s="5"/>
     </row>
-    <row r="213" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" spans="1:4" ht="21">
       <c r="A213" s="12"/>
       <c r="B213" s="17"/>
       <c r="C213" s="5"/>
     </row>
-    <row r="214" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" spans="1:4" ht="21">
       <c r="A214" s="6" t="s">
         <v>211</v>
       </c>
@@ -4033,7 +4229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" spans="1:4" ht="21">
       <c r="A215" s="14" t="s">
         <v>211</v>
       </c>
@@ -4043,11 +4239,11 @@
       <c r="C215" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D215" s="0" t="s">
+      <c r="D215" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" spans="1:4" ht="21">
       <c r="A216" s="6" t="s">
         <v>211</v>
       </c>
@@ -4058,7 +4254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" spans="1:4" ht="21">
       <c r="A217" s="6" t="s">
         <v>211</v>
       </c>
@@ -4069,7 +4265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" spans="1:4" ht="21">
       <c r="A218" s="6" t="s">
         <v>211</v>
       </c>
@@ -4080,7 +4276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" spans="1:4" ht="21">
       <c r="A219" s="6" t="s">
         <v>211</v>
       </c>
@@ -4090,11 +4286,11 @@
       <c r="C219" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D219" s="0" t="s">
+      <c r="D219" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" spans="1:4" ht="21">
       <c r="A220" s="6" t="s">
         <v>211</v>
       </c>
@@ -4105,7 +4301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" spans="1:4" ht="21">
       <c r="A221" s="6" t="s">
         <v>211</v>
       </c>
@@ -4116,7 +4312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" spans="1:4" ht="21">
       <c r="A222" s="6" t="s">
         <v>211</v>
       </c>
@@ -4126,11 +4322,11 @@
       <c r="C222" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D222" s="0" t="s">
+      <c r="D222" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" spans="1:4" ht="21">
       <c r="A223" s="6" t="s">
         <v>211</v>
       </c>
@@ -4141,7 +4337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" spans="1:4" ht="21">
       <c r="A224" s="6" t="s">
         <v>211</v>
       </c>
@@ -4152,7 +4348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" spans="1:4" ht="21">
       <c r="A225" s="6" t="s">
         <v>211</v>
       </c>
@@ -4162,11 +4358,11 @@
       <c r="C225" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D225" s="0" t="s">
+      <c r="D225" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" spans="1:4" ht="21">
       <c r="A226" s="6" t="s">
         <v>211</v>
       </c>
@@ -4176,11 +4372,11 @@
       <c r="C226" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D226" s="0" t="s">
+      <c r="D226" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" spans="1:4" ht="21">
       <c r="A227" s="6" t="s">
         <v>211</v>
       </c>
@@ -4191,7 +4387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" spans="1:4" ht="21">
       <c r="A228" s="6" t="s">
         <v>211</v>
       </c>
@@ -4202,7 +4398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" spans="1:4" ht="21">
       <c r="A229" s="6" t="s">
         <v>211</v>
       </c>
@@ -4213,7 +4409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" spans="1:4" ht="21">
       <c r="A230" s="6" t="s">
         <v>211</v>
       </c>
@@ -4224,7 +4420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" spans="1:4" ht="21">
       <c r="A231" s="14" t="s">
         <v>211</v>
       </c>
@@ -4235,7 +4431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" spans="1:4" ht="21">
       <c r="A232" s="14" t="s">
         <v>211</v>
       </c>
@@ -4246,7 +4442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" spans="1:4" ht="21">
       <c r="A233" s="6" t="s">
         <v>211</v>
       </c>
@@ -4257,7 +4453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" spans="1:4" ht="21">
       <c r="A234" s="6" t="s">
         <v>211</v>
       </c>
@@ -4268,7 +4464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" spans="1:4" ht="21">
       <c r="A235" s="6" t="s">
         <v>211</v>
       </c>
@@ -4279,15 +4475,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" spans="1:4" ht="21">
       <c r="B236" s="17"/>
       <c r="C236" s="5"/>
     </row>
-    <row r="237" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" spans="1:4" ht="21">
       <c r="B237" s="17"/>
       <c r="C237" s="5"/>
     </row>
-    <row r="238" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" spans="1:4" ht="21">
       <c r="A238" s="12" t="s">
         <v>238</v>
       </c>
@@ -4298,7 +4494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" spans="1:4" ht="21">
       <c r="A239" s="12" t="s">
         <v>238</v>
       </c>
@@ -4309,7 +4505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" spans="1:4" ht="21">
       <c r="A240" s="12" t="s">
         <v>238</v>
       </c>
@@ -4320,7 +4516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" spans="1:3" ht="21">
       <c r="A241" s="12" t="s">
         <v>238</v>
       </c>
@@ -4331,7 +4527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" spans="1:3" ht="21">
       <c r="A242" s="12" t="s">
         <v>238</v>
       </c>
@@ -4342,7 +4538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" spans="1:3" ht="21">
       <c r="A243" s="12" t="s">
         <v>238</v>
       </c>
@@ -4353,7 +4549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" spans="1:3" ht="21">
       <c r="A244" s="12" t="s">
         <v>238</v>
       </c>
@@ -4364,7 +4560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" spans="1:3" ht="21">
       <c r="A245" s="12" t="s">
         <v>238</v>
       </c>
@@ -4375,7 +4571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" spans="1:3" ht="21">
       <c r="A246" s="12" t="s">
         <v>238</v>
       </c>
@@ -4386,7 +4582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" spans="1:3" ht="21">
       <c r="A247" s="12" t="s">
         <v>238</v>
       </c>
@@ -4397,7 +4593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" spans="1:3" ht="21">
       <c r="A248" s="12" t="s">
         <v>238</v>
       </c>
@@ -4408,7 +4604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" spans="1:3" ht="21">
       <c r="A249" s="12" t="s">
         <v>238</v>
       </c>
@@ -4419,7 +4615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" spans="1:3" ht="21">
       <c r="A250" s="12" t="s">
         <v>238</v>
       </c>
@@ -4430,7 +4626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" spans="1:3" ht="21">
       <c r="A251" s="12" t="s">
         <v>238</v>
       </c>
@@ -4441,7 +4637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" spans="1:3" ht="21">
       <c r="A252" s="12" t="s">
         <v>238</v>
       </c>
@@ -4452,7 +4648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" spans="1:3" ht="21">
       <c r="A253" s="12" t="s">
         <v>238</v>
       </c>
@@ -4463,7 +4659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" spans="1:3" ht="21">
       <c r="A254" s="12" t="s">
         <v>238</v>
       </c>
@@ -4474,7 +4670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" spans="1:3" ht="21">
       <c r="A255" s="12" t="s">
         <v>238</v>
       </c>
@@ -4485,7 +4681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" spans="1:3" ht="21">
       <c r="A256" s="12" t="s">
         <v>238</v>
       </c>
@@ -4496,7 +4692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" spans="1:3" ht="21">
       <c r="A257" s="12" t="s">
         <v>238</v>
       </c>
@@ -4507,7 +4703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" spans="1:3" ht="21">
       <c r="A258" s="12" t="s">
         <v>238</v>
       </c>
@@ -4518,7 +4714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" spans="1:3" ht="21">
       <c r="A259" s="12" t="s">
         <v>238</v>
       </c>
@@ -4529,7 +4725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" spans="1:3" ht="21">
       <c r="A260" s="12" t="s">
         <v>238</v>
       </c>
@@ -4540,7 +4736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" spans="1:3" ht="21">
       <c r="A261" s="12" t="s">
         <v>238</v>
       </c>
@@ -4551,7 +4747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" spans="1:3" ht="21">
       <c r="A262" s="12" t="s">
         <v>238</v>
       </c>
@@ -4562,7 +4758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" spans="1:3" ht="21">
       <c r="A263" s="12" t="s">
         <v>238</v>
       </c>
@@ -4573,7 +4769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" spans="1:3" ht="21">
       <c r="A264" s="12" t="s">
         <v>238</v>
       </c>
@@ -4584,7 +4780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" spans="1:3" ht="21">
       <c r="A265" s="12" t="s">
         <v>238</v>
       </c>
@@ -4595,7 +4791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" spans="1:3" ht="21">
       <c r="A266" s="12" t="s">
         <v>238</v>
       </c>
@@ -4606,7 +4802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" spans="1:3" ht="21">
       <c r="A267" s="12" t="s">
         <v>238</v>
       </c>
@@ -4617,7 +4813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" spans="1:3" ht="21">
       <c r="A268" s="12" t="s">
         <v>238</v>
       </c>
@@ -4628,7 +4824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" spans="1:3" ht="21">
       <c r="A269" s="12" t="s">
         <v>238</v>
       </c>
@@ -4639,7 +4835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" spans="1:3" ht="21">
       <c r="A270" s="12" t="s">
         <v>238</v>
       </c>
@@ -4650,7 +4846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" spans="1:3" ht="21">
       <c r="A271" s="12" t="s">
         <v>238</v>
       </c>
@@ -4661,7 +4857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" spans="1:3" ht="21">
       <c r="A272" s="12" t="s">
         <v>238</v>
       </c>
@@ -4672,15 +4868,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" spans="1:3" ht="21">
       <c r="B273" s="17"/>
       <c r="C273" s="5"/>
     </row>
-    <row r="274" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" spans="1:3" ht="21">
       <c r="B274" s="17"/>
       <c r="C274" s="5"/>
     </row>
-    <row r="275" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" spans="1:3" ht="21">
       <c r="A275" s="12" t="s">
         <v>273</v>
       </c>
@@ -4691,7 +4887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" spans="1:3" ht="21">
       <c r="A276" s="12" t="s">
         <v>273</v>
       </c>
@@ -4702,7 +4898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" spans="1:3" ht="21">
       <c r="A277" s="12" t="s">
         <v>273</v>
       </c>
@@ -4713,7 +4909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" spans="1:3" ht="21">
       <c r="A278" s="12" t="s">
         <v>273</v>
       </c>
@@ -4724,7 +4920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" spans="1:3" ht="21">
       <c r="A279" s="12" t="s">
         <v>273</v>
       </c>
@@ -4735,7 +4931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" spans="1:3" ht="21">
       <c r="A280" s="12" t="s">
         <v>273</v>
       </c>
@@ -4746,7 +4942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" spans="1:3" ht="21">
       <c r="A281" s="12" t="s">
         <v>273</v>
       </c>
@@ -4757,7 +4953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" spans="1:3" ht="21">
       <c r="A282" s="12" t="s">
         <v>273</v>
       </c>
@@ -4768,7 +4964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" spans="1:3" ht="21">
       <c r="A283" s="12" t="s">
         <v>273</v>
       </c>
@@ -4779,7 +4975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" spans="1:3" ht="21">
       <c r="A284" s="12" t="s">
         <v>273</v>
       </c>
@@ -4790,7 +4986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" spans="1:3" ht="21">
       <c r="A285" s="12" t="s">
         <v>273</v>
       </c>
@@ -4801,7 +4997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" spans="1:3" ht="21">
       <c r="A286" s="12" t="s">
         <v>273</v>
       </c>
@@ -4812,7 +5008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" spans="1:3" ht="21">
       <c r="A287" s="12" t="s">
         <v>273</v>
       </c>
@@ -4823,7 +5019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" spans="1:3" ht="21">
       <c r="A288" s="12" t="s">
         <v>273</v>
       </c>
@@ -4834,7 +5030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" spans="1:3" ht="21">
       <c r="A289" s="12" t="s">
         <v>273</v>
       </c>
@@ -4845,7 +5041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" spans="1:3" ht="21">
       <c r="A290" s="12" t="s">
         <v>273</v>
       </c>
@@ -4856,7 +5052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" spans="1:3" ht="21">
       <c r="A291" s="12" t="s">
         <v>273</v>
       </c>
@@ -4867,7 +5063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" spans="1:3" ht="21">
       <c r="A292" s="12" t="s">
         <v>273</v>
       </c>
@@ -4878,7 +5074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" spans="1:3" ht="21">
       <c r="A293" s="12" t="s">
         <v>273</v>
       </c>
@@ -4889,59 +5085,59 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" spans="1:3" ht="21">
       <c r="B294" s="17"/>
       <c r="C294" s="5"/>
     </row>
-    <row r="295" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" spans="1:3" ht="21">
       <c r="B295" s="17"/>
       <c r="C295" s="5"/>
     </row>
-    <row r="296" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="12" t="s">
+    <row r="296" spans="1:3" ht="21">
+      <c r="A296" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="B296" s="13" t="s">
+      <c r="B296" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="C296" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="297" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="12" t="s">
+      <c r="C296" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="21">
+      <c r="A297" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="B297" s="13" t="s">
+      <c r="B297" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="C297" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="298" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="12" t="s">
+      <c r="C297" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="21">
+      <c r="A298" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="B298" s="13" t="s">
+      <c r="B298" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="C298" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="299" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="12" t="s">
+      <c r="C298" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="21">
+      <c r="A299" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="B299" s="13" t="s">
+      <c r="B299" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="C299" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="300" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C299" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="21">
       <c r="A300" s="12" t="s">
         <v>293</v>
       </c>
@@ -4952,51 +5148,51 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="12" t="s">
+    <row r="301" spans="1:3" ht="21">
+      <c r="A301" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="B301" s="13" t="s">
+      <c r="B301" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="C301" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="302" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="12" t="s">
+      <c r="C301" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="21">
+      <c r="A302" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="B302" s="13" t="s">
+      <c r="B302" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="C302" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="303" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="12" t="s">
+      <c r="C302" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="21">
+      <c r="A303" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="B303" s="13" t="s">
+      <c r="B303" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="C303" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="304" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="12" t="s">
+      <c r="C303" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="21">
+      <c r="A304" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="B304" s="13" t="s">
+      <c r="B304" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="C304" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="305" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C304" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="21">
       <c r="A305" s="12" t="s">
         <v>293</v>
       </c>
@@ -5007,7 +5203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" spans="1:3" ht="21">
       <c r="A306" s="12" t="s">
         <v>293</v>
       </c>
@@ -5018,7 +5214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" spans="1:3" ht="21">
       <c r="A307" s="12" t="s">
         <v>293</v>
       </c>
@@ -5029,7 +5225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" spans="1:3" ht="21">
       <c r="A308" s="12" t="s">
         <v>293</v>
       </c>
@@ -5040,7 +5236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" spans="1:3" ht="21">
       <c r="A309" s="12" t="s">
         <v>293</v>
       </c>
@@ -5051,7 +5247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" spans="1:3" ht="21">
       <c r="A310" s="12" t="s">
         <v>293</v>
       </c>
@@ -5062,7 +5258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" spans="1:3" ht="21">
       <c r="A311" s="12" t="s">
         <v>293</v>
       </c>
@@ -5073,7 +5269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" spans="1:3" ht="21">
       <c r="A312" s="12" t="s">
         <v>293</v>
       </c>
@@ -5084,7 +5280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" spans="1:3" ht="21">
       <c r="A313" s="12" t="s">
         <v>293</v>
       </c>
@@ -5095,7 +5291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" spans="1:3" ht="21">
       <c r="A314" s="12" t="s">
         <v>293</v>
       </c>
@@ -5106,7 +5302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" spans="1:3" ht="21">
       <c r="A315" s="12" t="s">
         <v>293</v>
       </c>
@@ -5117,7 +5313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" spans="1:3" ht="21">
       <c r="A316" s="12" t="s">
         <v>293</v>
       </c>
@@ -5128,7 +5324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" spans="1:3" ht="21">
       <c r="A317" s="12" t="s">
         <v>293</v>
       </c>
@@ -5139,7 +5335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" spans="1:3" ht="21">
       <c r="A318" s="12" t="s">
         <v>293</v>
       </c>
@@ -5150,7 +5346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" spans="1:3" ht="21">
       <c r="A319" s="12" t="s">
         <v>293</v>
       </c>
@@ -5161,7 +5357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" spans="1:3" ht="21">
       <c r="A320" s="12" t="s">
         <v>293</v>
       </c>
@@ -5172,7 +5368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" spans="1:3" ht="21">
       <c r="A321" s="12" t="s">
         <v>293</v>
       </c>
@@ -5183,7 +5379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" spans="1:3" ht="21">
       <c r="A322" s="12" t="s">
         <v>293</v>
       </c>
@@ -5194,7 +5390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" spans="1:3" ht="21">
       <c r="A323" s="12" t="s">
         <v>293</v>
       </c>
@@ -5205,7 +5401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" spans="1:3" ht="21">
       <c r="A324" s="12" t="s">
         <v>293</v>
       </c>
@@ -5216,7 +5412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" spans="1:3" ht="21">
       <c r="A325" s="12" t="s">
         <v>293</v>
       </c>
@@ -5227,7 +5423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" spans="1:3" ht="21">
       <c r="A326" s="12" t="s">
         <v>293</v>
       </c>
@@ -5238,7 +5434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" spans="1:3" ht="21">
       <c r="A327" s="12" t="s">
         <v>293</v>
       </c>
@@ -5249,7 +5445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" spans="1:3" ht="21">
       <c r="A328" s="12" t="s">
         <v>293</v>
       </c>
@@ -5260,7 +5456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" spans="1:3" ht="21">
       <c r="A329" s="12" t="s">
         <v>293</v>
       </c>
@@ -5271,7 +5467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" spans="1:3" ht="21">
       <c r="A330" s="12" t="s">
         <v>293</v>
       </c>
@@ -5282,7 +5478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" spans="1:3" ht="21">
       <c r="A331" s="12" t="s">
         <v>293</v>
       </c>
@@ -5293,7 +5489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" spans="1:3" ht="21">
       <c r="A332" s="12" t="s">
         <v>293</v>
       </c>
@@ -5304,7 +5500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" spans="1:3" ht="21">
       <c r="A333" s="12" t="s">
         <v>293</v>
       </c>
@@ -5315,15 +5511,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" spans="1:3" ht="21">
       <c r="B334" s="17"/>
       <c r="C334" s="5"/>
     </row>
-    <row r="335" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" spans="1:3" ht="21">
       <c r="B335" s="17"/>
       <c r="C335" s="5"/>
     </row>
-    <row r="336" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" spans="1:3" ht="21">
       <c r="A336" s="12" t="s">
         <v>332</v>
       </c>
@@ -5334,7 +5530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" spans="1:3" ht="21">
       <c r="A337" s="12" t="s">
         <v>332</v>
       </c>
@@ -5345,7 +5541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" spans="1:3" ht="21">
       <c r="A338" s="12" t="s">
         <v>332</v>
       </c>
@@ -5356,7 +5552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" spans="1:3" ht="21">
       <c r="A339" s="12" t="s">
         <v>332</v>
       </c>
@@ -5367,7 +5563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" spans="1:3" ht="21">
       <c r="A340" s="12" t="s">
         <v>332</v>
       </c>
@@ -5378,7 +5574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" spans="1:3" ht="21">
       <c r="A341" s="12" t="s">
         <v>332</v>
       </c>
@@ -5389,7 +5585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" spans="1:3" ht="21">
       <c r="A342" s="12" t="s">
         <v>332</v>
       </c>
@@ -5400,7 +5596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" spans="1:3" ht="21">
       <c r="A343" s="12" t="s">
         <v>332</v>
       </c>
@@ -5411,7 +5607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" spans="1:3" ht="21">
       <c r="A344" s="12" t="s">
         <v>332</v>
       </c>
@@ -5422,7 +5618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" spans="1:3" ht="21">
       <c r="A345" s="12" t="s">
         <v>332</v>
       </c>
@@ -5433,7 +5629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" spans="1:3" ht="21">
       <c r="A346" s="12" t="s">
         <v>332</v>
       </c>
@@ -5444,7 +5640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" spans="1:3" ht="21">
       <c r="A347" s="12" t="s">
         <v>332</v>
       </c>
@@ -5455,7 +5651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" spans="1:3" ht="21">
       <c r="A348" s="12" t="s">
         <v>332</v>
       </c>
@@ -5466,7 +5662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" spans="1:3" ht="21">
       <c r="A349" s="12" t="s">
         <v>332</v>
       </c>
@@ -5477,7 +5673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" spans="1:3" ht="21">
       <c r="A350" s="12" t="s">
         <v>332</v>
       </c>
@@ -5488,7 +5684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" spans="1:3" ht="21">
       <c r="A351" s="12" t="s">
         <v>332</v>
       </c>
@@ -5499,7 +5695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" spans="1:3" ht="21">
       <c r="A352" s="12" t="s">
         <v>332</v>
       </c>
@@ -5510,7 +5706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" spans="1:3" ht="21">
       <c r="A353" s="12" t="s">
         <v>332</v>
       </c>
@@ -5521,15 +5717,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" spans="1:3" ht="21">
       <c r="B354" s="17"/>
       <c r="C354" s="5"/>
     </row>
-    <row r="355" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" spans="1:3" ht="21">
       <c r="B355" s="17"/>
       <c r="C355" s="5"/>
     </row>
-    <row r="356" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" spans="1:3" ht="21">
       <c r="A356" s="12" t="s">
         <v>351</v>
       </c>
@@ -5540,7 +5736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" spans="1:3" ht="21">
       <c r="A357" s="12" t="s">
         <v>351</v>
       </c>
@@ -5551,7 +5747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" spans="1:3" ht="21">
       <c r="A358" s="12" t="s">
         <v>351</v>
       </c>
@@ -5562,7 +5758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" spans="1:3" ht="21">
       <c r="A359" s="12" t="s">
         <v>351</v>
       </c>
@@ -5573,7 +5769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" spans="1:3" ht="21">
       <c r="A360" s="12" t="s">
         <v>351</v>
       </c>
@@ -5584,7 +5780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" spans="1:3" ht="21">
       <c r="A361" s="12" t="s">
         <v>351</v>
       </c>
@@ -5595,7 +5791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" spans="1:3" ht="21">
       <c r="A362" s="12" t="s">
         <v>351</v>
       </c>
@@ -5606,7 +5802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" spans="1:3" ht="21">
       <c r="A363" s="12" t="s">
         <v>351</v>
       </c>
@@ -5617,7 +5813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" spans="1:3" ht="21">
       <c r="A364" s="12" t="s">
         <v>351</v>
       </c>
@@ -5628,7 +5824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" spans="1:3" ht="21">
       <c r="A365" s="12" t="s">
         <v>351</v>
       </c>
@@ -5639,7 +5835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" spans="1:3" ht="21">
       <c r="A366" s="12" t="s">
         <v>351</v>
       </c>
@@ -5650,7 +5846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" spans="1:3" ht="21">
       <c r="A367" s="12" t="s">
         <v>351</v>
       </c>
@@ -5661,7 +5857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" spans="1:3" ht="21">
       <c r="A368" s="12" t="s">
         <v>351</v>
       </c>
@@ -5672,7 +5868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" spans="1:3" ht="21">
       <c r="A369" s="12" t="s">
         <v>351</v>
       </c>
@@ -5683,7 +5879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" spans="1:3" ht="21">
       <c r="A370" s="12" t="s">
         <v>351</v>
       </c>
@@ -5694,7 +5890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" spans="1:3" ht="21">
       <c r="A371" s="12" t="s">
         <v>351</v>
       </c>
@@ -5705,7 +5901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" spans="1:3" ht="21">
       <c r="A372" s="12" t="s">
         <v>351</v>
       </c>
@@ -5716,7 +5912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" spans="1:3" ht="21">
       <c r="A373" s="12" t="s">
         <v>351</v>
       </c>
@@ -5727,7 +5923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" spans="1:3" ht="21">
       <c r="A374" s="12" t="s">
         <v>351</v>
       </c>
@@ -5738,7 +5934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" spans="1:3" ht="21">
       <c r="A375" s="12" t="s">
         <v>351</v>
       </c>
@@ -5749,7 +5945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" spans="1:3" ht="21">
       <c r="A376" s="12" t="s">
         <v>351</v>
       </c>
@@ -5760,7 +5956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" spans="1:3" ht="21">
       <c r="A377" s="12" t="s">
         <v>351</v>
       </c>
@@ -5771,7 +5967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" spans="1:3" ht="21">
       <c r="A378" s="12" t="s">
         <v>351</v>
       </c>
@@ -5782,7 +5978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" spans="1:3" ht="21">
       <c r="A379" s="12" t="s">
         <v>351</v>
       </c>
@@ -5793,7 +5989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" spans="1:3" ht="21">
       <c r="A380" s="12" t="s">
         <v>351</v>
       </c>
@@ -5804,7 +6000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" spans="1:3" ht="21">
       <c r="A381" s="12" t="s">
         <v>351</v>
       </c>
@@ -5815,7 +6011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" spans="1:3" ht="21">
       <c r="A382" s="12" t="s">
         <v>351</v>
       </c>
@@ -5826,7 +6022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" spans="1:3" ht="21">
       <c r="A383" s="12" t="s">
         <v>351</v>
       </c>
@@ -5837,7 +6033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" spans="1:3" ht="21">
       <c r="A384" s="12" t="s">
         <v>351</v>
       </c>
@@ -5848,7 +6044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" spans="1:3" ht="21">
       <c r="A385" s="12" t="s">
         <v>351</v>
       </c>
@@ -5859,7 +6055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" spans="1:3" ht="21">
       <c r="A386" s="12" t="s">
         <v>351</v>
       </c>
@@ -5870,7 +6066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" spans="1:3" ht="21">
       <c r="A387" s="12" t="s">
         <v>351</v>
       </c>
@@ -5881,7 +6077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" spans="1:3" ht="21">
       <c r="A388" s="12" t="s">
         <v>351</v>
       </c>
@@ -5892,7 +6088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" spans="1:3" ht="21">
       <c r="A389" s="12" t="s">
         <v>351</v>
       </c>
@@ -5903,7 +6099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" spans="1:3" ht="21">
       <c r="A390" s="12" t="s">
         <v>351</v>
       </c>
@@ -5914,7 +6110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" spans="1:3" ht="21">
       <c r="A391" s="12" t="s">
         <v>351</v>
       </c>
@@ -5925,7 +6121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" spans="1:3" ht="21">
       <c r="A392" s="12" t="s">
         <v>351</v>
       </c>
@@ -5936,7 +6132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" spans="1:3" ht="21">
       <c r="A393" s="12" t="s">
         <v>351</v>
       </c>
@@ -5947,7 +6143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" spans="1:3" ht="21">
       <c r="A394" s="12" t="s">
         <v>351</v>
       </c>
@@ -5958,7 +6154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" spans="1:3" ht="21">
       <c r="A395" s="12" t="s">
         <v>351</v>
       </c>
@@ -5969,7 +6165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" spans="1:3" ht="21">
       <c r="A396" s="12" t="s">
         <v>351</v>
       </c>
@@ -5980,7 +6176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" spans="1:3" ht="21">
       <c r="A397" s="12" t="s">
         <v>351</v>
       </c>
@@ -5991,7 +6187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" spans="1:3" ht="21">
       <c r="A398" s="12" t="s">
         <v>351</v>
       </c>
@@ -6002,7 +6198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" spans="1:3" ht="21">
       <c r="A399" s="12" t="s">
         <v>351</v>
       </c>
@@ -6013,15 +6209,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" spans="1:3" ht="21">
       <c r="B400" s="17"/>
       <c r="C400" s="5"/>
     </row>
-    <row r="401" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" spans="1:3" ht="21">
       <c r="B401" s="17"/>
       <c r="C401" s="5"/>
     </row>
-    <row r="402" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" spans="1:3" ht="21">
       <c r="A402" s="12" t="s">
         <v>395</v>
       </c>
@@ -6032,7 +6228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" spans="1:3" ht="21">
       <c r="A403" s="12" t="s">
         <v>395</v>
       </c>
@@ -6043,7 +6239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" spans="1:3" ht="21">
       <c r="A404" s="12" t="s">
         <v>395</v>
       </c>
@@ -6054,7 +6250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" spans="1:3" ht="21">
       <c r="A405" s="12" t="s">
         <v>395</v>
       </c>
@@ -6065,7 +6261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" spans="1:3" ht="21">
       <c r="A406" s="12" t="s">
         <v>395</v>
       </c>
@@ -6076,7 +6272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" spans="1:3" ht="21">
       <c r="A407" s="12" t="s">
         <v>395</v>
       </c>
@@ -6087,15 +6283,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" spans="1:3" ht="21">
       <c r="B408" s="17"/>
       <c r="C408" s="5"/>
     </row>
-    <row r="409" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" spans="1:3" ht="21">
       <c r="B409" s="17"/>
       <c r="C409" s="5"/>
     </row>
-    <row r="410" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" spans="1:3" ht="21">
       <c r="A410" s="12" t="s">
         <v>401</v>
       </c>
@@ -6106,7 +6302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" spans="1:3" ht="21">
       <c r="A411" s="12" t="s">
         <v>401</v>
       </c>
@@ -6117,7 +6313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" spans="1:3" ht="21">
       <c r="A412" s="12" t="s">
         <v>401</v>
       </c>
@@ -6128,7 +6324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" spans="1:3" ht="21">
       <c r="A413" s="12" t="s">
         <v>401</v>
       </c>
@@ -6139,7 +6335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" spans="1:3" ht="21">
       <c r="A414" s="12" t="s">
         <v>401</v>
       </c>
@@ -6150,7 +6346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" spans="1:3" ht="21">
       <c r="A415" s="12" t="s">
         <v>401</v>
       </c>
@@ -6161,7 +6357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" spans="1:3" ht="21">
       <c r="A416" s="12" t="s">
         <v>401</v>
       </c>
@@ -6172,7 +6368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" spans="1:3" ht="21">
       <c r="A417" s="12" t="s">
         <v>401</v>
       </c>
@@ -6183,7 +6379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" spans="1:3" ht="21">
       <c r="A418" s="12" t="s">
         <v>401</v>
       </c>
@@ -6194,7 +6390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" spans="1:3" ht="21">
       <c r="A419" s="12" t="s">
         <v>401</v>
       </c>
@@ -6205,7 +6401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" spans="1:3" ht="21">
       <c r="A420" s="12" t="s">
         <v>401</v>
       </c>
@@ -6216,7 +6412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" spans="1:3" ht="21">
       <c r="A421" s="12" t="s">
         <v>401</v>
       </c>
@@ -6227,7 +6423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" spans="1:3" ht="21">
       <c r="A422" s="12" t="s">
         <v>401</v>
       </c>
@@ -6238,7 +6434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" spans="1:3" ht="21">
       <c r="A423" s="12" t="s">
         <v>401</v>
       </c>
@@ -6249,7 +6445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" spans="1:3" ht="21">
       <c r="A424" s="12" t="s">
         <v>401</v>
       </c>
@@ -6260,7 +6456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" spans="1:3" ht="21">
       <c r="A425" s="12" t="s">
         <v>401</v>
       </c>
@@ -6271,7 +6467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" spans="1:3" ht="21">
       <c r="A426" s="12" t="s">
         <v>401</v>
       </c>
@@ -6282,7 +6478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" spans="1:3" ht="21">
       <c r="A427" s="12" t="s">
         <v>401</v>
       </c>
@@ -6293,7 +6489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" spans="1:3" ht="21">
       <c r="A428" s="12" t="s">
         <v>401</v>
       </c>
@@ -6304,7 +6500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" spans="1:3" ht="21">
       <c r="A429" s="12" t="s">
         <v>401</v>
       </c>
@@ -6315,7 +6511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" spans="1:3" ht="21">
       <c r="A430" s="12" t="s">
         <v>401</v>
       </c>
@@ -6326,7 +6522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" spans="1:3" ht="21">
       <c r="A431" s="12" t="s">
         <v>401</v>
       </c>
@@ -6337,7 +6533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" spans="1:3" ht="21">
       <c r="A432" s="12" t="s">
         <v>401</v>
       </c>
@@ -6348,7 +6544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" spans="1:3" ht="21">
       <c r="A433" s="12" t="s">
         <v>401</v>
       </c>
@@ -6359,7 +6555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" spans="1:3" ht="21">
       <c r="A434" s="12" t="s">
         <v>401</v>
       </c>
@@ -6370,7 +6566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" spans="1:3" ht="21">
       <c r="A435" s="12" t="s">
         <v>401</v>
       </c>
@@ -6381,7 +6577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" spans="1:3" ht="21">
       <c r="A436" s="12" t="s">
         <v>401</v>
       </c>
@@ -6392,7 +6588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" spans="1:3" ht="21">
       <c r="A437" s="12" t="s">
         <v>401</v>
       </c>
@@ -6403,7 +6599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" spans="1:3" ht="21">
       <c r="A438" s="12" t="s">
         <v>401</v>
       </c>
@@ -6414,7 +6610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" spans="1:3" ht="21">
       <c r="A439" s="12" t="s">
         <v>401</v>
       </c>
@@ -6425,7 +6621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" spans="1:3" ht="21">
       <c r="A440" s="12" t="s">
         <v>401</v>
       </c>
@@ -6436,7 +6632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" spans="1:3" ht="21">
       <c r="A441" s="12" t="s">
         <v>401</v>
       </c>
@@ -6447,7 +6643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" spans="1:3" ht="21">
       <c r="A442" s="12" t="s">
         <v>401</v>
       </c>
@@ -6458,7 +6654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" spans="1:3" ht="21">
       <c r="A443" s="12" t="s">
         <v>401</v>
       </c>
@@ -6469,7 +6665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" spans="1:3" ht="21">
       <c r="A444" s="12" t="s">
         <v>401</v>
       </c>
@@ -6480,7 +6676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" spans="1:3" ht="21">
       <c r="A445" s="12" t="s">
         <v>401</v>
       </c>
@@ -6491,7 +6687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" spans="1:3" ht="21">
       <c r="A446" s="12" t="s">
         <v>401</v>
       </c>
@@ -6502,7 +6698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" spans="1:3" ht="21">
       <c r="A447" s="12" t="s">
         <v>401</v>
       </c>
@@ -6513,7 +6709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" spans="1:3" ht="21">
       <c r="A448" s="12" t="s">
         <v>401</v>
       </c>
@@ -6524,7 +6720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" spans="1:3" ht="21">
       <c r="A449" s="12" t="s">
         <v>401</v>
       </c>
@@ -6535,7 +6731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" spans="1:3" ht="21">
       <c r="A450" s="12" t="s">
         <v>401</v>
       </c>
@@ -6546,7 +6742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" spans="1:3" ht="21">
       <c r="A451" s="12" t="s">
         <v>401</v>
       </c>
@@ -6557,7 +6753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" spans="1:3" ht="21">
       <c r="A452" s="12" t="s">
         <v>401</v>
       </c>
@@ -6568,7 +6764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" spans="1:3" ht="21">
       <c r="A453" s="12" t="s">
         <v>401</v>
       </c>
@@ -6579,7 +6775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" spans="1:3" ht="21">
       <c r="A454" s="12" t="s">
         <v>401</v>
       </c>
@@ -6590,7 +6786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" spans="1:3" ht="21">
       <c r="A455" s="12" t="s">
         <v>401</v>
       </c>
@@ -6601,7 +6797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" spans="1:3" ht="21">
       <c r="A456" s="12" t="s">
         <v>401</v>
       </c>
@@ -6612,7 +6808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="457" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" spans="1:3" ht="21">
       <c r="A457" s="12" t="s">
         <v>401</v>
       </c>
@@ -6623,7 +6819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" spans="1:3" ht="21">
       <c r="A458" s="12" t="s">
         <v>401</v>
       </c>
@@ -6634,7 +6830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" spans="1:3" ht="21">
       <c r="A459" s="12" t="s">
         <v>401</v>
       </c>
@@ -6645,7 +6841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" spans="1:3" ht="21">
       <c r="A460" s="12" t="s">
         <v>401</v>
       </c>
@@ -6656,7 +6852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" spans="1:3" ht="21">
       <c r="A461" s="12" t="s">
         <v>401</v>
       </c>
@@ -6667,7 +6863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" spans="1:3" ht="21">
       <c r="A462" s="12" t="s">
         <v>401</v>
       </c>
@@ -6678,7 +6874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="463" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" spans="1:3" ht="21">
       <c r="A463" s="12" t="s">
         <v>401</v>
       </c>
@@ -6689,7 +6885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" spans="1:3" ht="21">
       <c r="A464" s="12" t="s">
         <v>401</v>
       </c>
@@ -6700,7 +6896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="465" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" spans="1:3" ht="21">
       <c r="A465" s="12" t="s">
         <v>401</v>
       </c>
@@ -6711,7 +6907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" spans="1:3" ht="21">
       <c r="A466" s="12" t="s">
         <v>401</v>
       </c>
@@ -6722,7 +6918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="467" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" spans="1:3" ht="21">
       <c r="A467" s="12" t="s">
         <v>401</v>
       </c>
@@ -6733,7 +6929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="468" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" spans="1:3" ht="21">
       <c r="A468" s="12" t="s">
         <v>401</v>
       </c>
@@ -6744,7 +6940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="469" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" spans="1:3" ht="21">
       <c r="A469" s="12" t="s">
         <v>401</v>
       </c>
@@ -6755,16 +6951,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" spans="1:3" ht="21">
       <c r="B470" s="17"/>
       <c r="C470" s="5"/>
     </row>
-    <row r="471" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" spans="1:3" ht="21">
       <c r="A471" s="12"/>
       <c r="B471" s="17"/>
       <c r="C471" s="5"/>
     </row>
-    <row r="472" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" spans="1:3" ht="21">
       <c r="A472" s="12" t="s">
         <v>461</v>
       </c>
@@ -6775,7 +6971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="473" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" spans="1:3" ht="21">
       <c r="A473" s="12" t="s">
         <v>461</v>
       </c>
@@ -6786,7 +6982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="474" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" spans="1:3" ht="21">
       <c r="A474" s="12" t="s">
         <v>461</v>
       </c>
@@ -6797,7 +6993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" spans="1:3" ht="21">
       <c r="A475" s="12" t="s">
         <v>461</v>
       </c>
@@ -6808,7 +7004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="476" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" spans="1:3" ht="21">
       <c r="A476" s="12" t="s">
         <v>461</v>
       </c>
@@ -6819,7 +7015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="477" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" spans="1:3" ht="21">
       <c r="A477" s="12" t="s">
         <v>461</v>
       </c>
@@ -6830,7 +7026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" spans="1:3" ht="21">
       <c r="A478" s="12" t="s">
         <v>461</v>
       </c>
@@ -6841,7 +7037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" spans="1:3" ht="21">
       <c r="A479" s="12" t="s">
         <v>461</v>
       </c>
@@ -6852,7 +7048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="480" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" spans="1:3" ht="21">
       <c r="A480" s="12" t="s">
         <v>461</v>
       </c>
@@ -6863,7 +7059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" spans="1:3" ht="21">
       <c r="A481" s="12" t="s">
         <v>461</v>
       </c>
@@ -6876,459 +7072,454 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw "/>
-    <hyperlink ref="B6" r:id="rId2" display="Reverse the array"/>
-    <hyperlink ref="B7" r:id="rId3" display="Find the maximum and minimum element in an array"/>
-    <hyperlink ref="B8" r:id="rId4" display="Find the &quot;Kth&quot; max and min element of an array "/>
-    <hyperlink ref="B9" r:id="rId5" display="Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo"/>
-    <hyperlink ref="B10" r:id="rId6" display="Move all the negative elements to one side of the array "/>
-    <hyperlink ref="B11" r:id="rId7" display="Find the Union and Intersection of the two sorted arrays."/>
-    <hyperlink ref="B12" r:id="rId8" display="Write a program to cyclically rotate an array by one."/>
-    <hyperlink ref="B13" r:id="rId9" display="find Largest sum contiguous Subarray [V. IMP]"/>
-    <hyperlink ref="B14" r:id="rId10" display="Minimise the maximum difference between heights [V.IMP]"/>
-    <hyperlink ref="B15" r:id="rId11" display="Minimum no. of Jumps to reach end of an array"/>
-    <hyperlink ref="B16" r:id="rId12" display="find duplicate in an array of N+1 Integers"/>
-    <hyperlink ref="B17" r:id="rId13" display="Merge 2 sorted arrays without using Extra space."/>
-    <hyperlink ref="B18" r:id="rId14" display="Kadane's Algo [V.V.V.V.V IMP]"/>
-    <hyperlink ref="B19" r:id="rId15" display="Merge Intervals"/>
-    <hyperlink ref="B20" r:id="rId16" display="Next Permutation"/>
-    <hyperlink ref="B21" r:id="rId17" display="Count Inversion"/>
-    <hyperlink ref="B22" r:id="rId18" display="Best time to buy and Sell stock"/>
-    <hyperlink ref="B23" r:id="rId19" display="find all pairs on integer array whose sum is equal to given number"/>
-    <hyperlink ref="B24" r:id="rId20" display="find common elements In 3 sorted arrays"/>
-    <hyperlink ref="B25" r:id="rId21" display="Rearrange the array in alternating positive and negative items with O(1) extra space"/>
-    <hyperlink ref="B26" r:id="rId22" display="Find if there is any subarray with sum equal to 0"/>
-    <hyperlink ref="B27" r:id="rId23" display="Find factorial of a large number"/>
-    <hyperlink ref="B28" r:id="rId24" display="find maximum product subarray "/>
-    <hyperlink ref="B29" r:id="rId25" display="Find longest coinsecutive subsequence"/>
-    <hyperlink ref="B30" r:id="rId26" display="Given an array of size n and a number k, fin all elements that appear more than &quot; n/k &quot; times."/>
-    <hyperlink ref="B31" r:id="rId27" display="Maximum profit by buying and selling a share atmost twice"/>
-    <hyperlink ref="B32" r:id="rId28" display="Find whether an array is a subset of another array"/>
-    <hyperlink ref="B33" r:id="rId29" display="Find the triplet that sum to a given value"/>
-    <hyperlink ref="B34" r:id="rId30" display="Trapping Rain water problem"/>
-    <hyperlink ref="B35" r:id="rId31" display="Chocolate Distribution problem"/>
-    <hyperlink ref="B36" r:id="rId32" display="Smallest Subarray with sum greater than a given value"/>
-    <hyperlink ref="B37" r:id="rId33" display="Three way partitioning of an array around a given value"/>
-    <hyperlink ref="B38" r:id="rId34" display="Minimum swaps required bring elements less equal K together"/>
-    <hyperlink ref="B39" r:id="rId35" display="Minimum no. of operations required to make an array palindrome"/>
-    <hyperlink ref="B40" r:id="rId36" display="Median of 2 sorted arrays of equal size"/>
-    <hyperlink ref="B41" r:id="rId37" display="Median of 2 sorted arrays of different size"/>
-    <hyperlink ref="B44" r:id="rId38" display="Spiral traversal on a Matrix"/>
-    <hyperlink ref="B45" r:id="rId39" display="Search an element in a matriix"/>
-    <hyperlink ref="B46" r:id="rId40" display="Find median in a row wise sorted matrix"/>
-    <hyperlink ref="B47" r:id="rId41" display="Find row with maximum no. of 1's"/>
-    <hyperlink ref="B48" r:id="rId42" display="Print elements in sorted order using row-column wise sorted matrix"/>
-    <hyperlink ref="B49" r:id="rId43" display="Maximum size rectangle"/>
-    <hyperlink ref="B50" r:id="rId44" display="Find a specific pair in matrix"/>
-    <hyperlink ref="B51" r:id="rId45" display="Rotate matrix by 90 degrees"/>
-    <hyperlink ref="B52" r:id="rId46" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
-    <hyperlink ref="B53" r:id="rId47" display="Common elements in all rows of a given matrix"/>
-    <hyperlink ref="B56" r:id="rId48" display="Reverse a String"/>
-    <hyperlink ref="B57" r:id="rId49" display="Check whether a String is Palindrome or not"/>
-    <hyperlink ref="B58" r:id="rId50" display="Find Duplicate characters in a string"/>
-    <hyperlink ref="B60" r:id="rId51" display="Write a Code to check whether one string is a rotation of another"/>
-    <hyperlink ref="B61" r:id="rId52" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
-    <hyperlink ref="B62" r:id="rId53" display="Count and Say problem"/>
-    <hyperlink ref="B63" r:id="rId54" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
-    <hyperlink ref="B64" r:id="rId55" display="Find Longest Recurring Subsequence in String"/>
-    <hyperlink ref="B65" r:id="rId56" display="Print all Subsequences of a string."/>
-    <hyperlink ref="B66" r:id="rId57" display="Print all the permutations of the given string"/>
-    <hyperlink ref="B67" r:id="rId58" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
-    <hyperlink ref="B68" r:id="rId59" display="Word Wrap Problem [VERY IMP]."/>
-    <hyperlink ref="B69" r:id="rId60" display="EDIT Distance [Very Imp]"/>
-    <hyperlink ref="B70" r:id="rId61" display="Find next greater number with same set of digits. [Very Very IMP]"/>
-    <hyperlink ref="B71" r:id="rId62" display="Balanced Parenthesis problem.[Imp]"/>
-    <hyperlink ref="B72" r:id="rId63" display="Word break Problem[ Very Imp]"/>
-    <hyperlink ref="B73" r:id="rId64" display="Rabin Karp Algo"/>
-    <hyperlink ref="B74" r:id="rId65" display="KMP Algo"/>
-    <hyperlink ref="B75" r:id="rId66" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
-    <hyperlink ref="B76" r:id="rId67" display="Minimum number of bracket reversals needed to make an expression balanced."/>
-    <hyperlink ref="B77" r:id="rId68" display="Count All Palindromic Subsequence in a given String."/>
-    <hyperlink ref="B78" r:id="rId69" display="Count of number of given string in 2D character array"/>
-    <hyperlink ref="B79" r:id="rId70" display="Search a Word in a 2D Grid of characters."/>
-    <hyperlink ref="B80" r:id="rId71" display="Boyer Moore Algorithm for Pattern Searching."/>
-    <hyperlink ref="B81" r:id="rId72" display="Converting Roman Numerals to Decimal"/>
-    <hyperlink ref="B82" r:id="rId73" display="Longest Common Prefix"/>
-    <hyperlink ref="B83" r:id="rId74" display="Number of flips to make binary string alternate"/>
-    <hyperlink ref="B84" r:id="rId75" display="Find the first repeated word in string."/>
-    <hyperlink ref="B85" r:id="rId76" display="Minimum number of swaps for bracket balancing."/>
-    <hyperlink ref="B86" r:id="rId77" display="Find the longest common subsequence between two strings."/>
-    <hyperlink ref="B87" r:id="rId78" display="Program to generate all possible valid IP addresses from given  string."/>
-    <hyperlink ref="B88" r:id="rId79" display="Write a program tofind the smallest window that contains all characters of string itself."/>
-    <hyperlink ref="B89" r:id="rId80" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B90" r:id="rId81" display="Minimum characters to be added at front to make string palindrome"/>
-    <hyperlink ref="B91" r:id="rId82" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B92" r:id="rId83" display="Find the smallest window in a string containing all characters of another string"/>
-    <hyperlink ref="B93" r:id="rId84" display="Recursively remove all adjacent duplicates"/>
-    <hyperlink ref="B94" r:id="rId85" display="String matching where one string contains wildcard characters"/>
-    <hyperlink ref="B95" r:id="rId86" display="Function to find Number of customers who could not get a computer"/>
-    <hyperlink ref="B96" r:id="rId87" display="Transform One String to Another using Minimum Number of Given Operation"/>
-    <hyperlink ref="B97" r:id="rId88" display="Check if two given strings are isomorphic to each other"/>
-    <hyperlink ref="B98" r:id="rId89" display="Recursively print all sentences that can be formed from list of word lists"/>
-    <hyperlink ref="B101" r:id="rId90" display="Find first and last positions of an element in a sorted array"/>
-    <hyperlink ref="B102" r:id="rId91" display="Find a Fixed Point (Value equal to index) in a given array"/>
-    <hyperlink ref="B103" r:id="rId92" display="Search in a rotated sorted array"/>
-    <hyperlink ref="B104" r:id="rId93" display="square root of an integer"/>
-    <hyperlink ref="B105" r:id="rId94" display="Maximum and minimum of an array using minimum number of comparisons"/>
-    <hyperlink ref="B106" r:id="rId95" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." display="Optimum location of point to minimize total distance"/>
-    <hyperlink ref="B107" r:id="rId96" display="Find the repeating and the missing"/>
-    <hyperlink ref="B108" r:id="rId97" display="find majority element"/>
-    <hyperlink ref="B109" r:id="rId98" display="Searching in an array where adjacent differ by at most k"/>
-    <hyperlink ref="B110" r:id="rId99" display="find a pair with a given difference"/>
-    <hyperlink ref="B111" r:id="rId100" display="find four elements that sum to a given value"/>
-    <hyperlink ref="B112" r:id="rId101" display="maximum sum such that no 2 elements are adjacent"/>
-    <hyperlink ref="B113" r:id="rId102" display="Count triplet with sum smaller than a given value"/>
-    <hyperlink ref="B114" r:id="rId103" display="merge 2 sorted arrays"/>
-    <hyperlink ref="B115" r:id="rId104" display="print all subarrays with 0 sum"/>
-    <hyperlink ref="B116" r:id="rId105" display="Product array Puzzle"/>
-    <hyperlink ref="B117" r:id="rId106" display="Sort array according to count of set bits"/>
-    <hyperlink ref="B118" r:id="rId107" display="minimum no. of swaps required to sort the array"/>
-    <hyperlink ref="B119" r:id="rId108" display="Bishu and Soldiers"/>
-    <hyperlink ref="B120" r:id="rId109" display="Rasta and Kheshtak"/>
-    <hyperlink ref="B121" r:id="rId110" display="Kth smallest number again"/>
-    <hyperlink ref="B122" r:id="rId111" display="Find pivot element in a sorted array"/>
-    <hyperlink ref="B123" r:id="rId112" display="K-th Element of Two Sorted Arrays"/>
-    <hyperlink ref="B124" r:id="rId113" display="Aggressive cows"/>
-    <hyperlink ref="B125" r:id="rId114" display="Book Allocation Problem"/>
-    <hyperlink ref="B126" r:id="rId115" display="EKOSPOJ:"/>
-    <hyperlink ref="B127" r:id="rId116" display="Job Scheduling Algo"/>
-    <hyperlink ref="B128" r:id="rId117" display="Missing Number in AP"/>
-    <hyperlink ref="B129" r:id="rId118" display="Smallest number with atleastn trailing zeroes infactorial"/>
-    <hyperlink ref="B130" r:id="rId119" display="Painters Partition Problem:"/>
-    <hyperlink ref="B131" r:id="rId120" display="ROTI-Prata SPOJ"/>
-    <hyperlink ref="B132" r:id="rId121" display="DoubleHelix SPOJ"/>
-    <hyperlink ref="B133" r:id="rId122" display="Subset Sums"/>
-    <hyperlink ref="B134" r:id="rId123" display="Findthe inversion count"/>
-    <hyperlink ref="B135" r:id="rId124" display="Implement Merge-sort in-place"/>
-    <hyperlink ref="B136" r:id="rId125" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
-    <hyperlink ref="B139" r:id="rId126" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
-    <hyperlink ref="B140" r:id="rId127" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
-    <hyperlink ref="B141" r:id="rId128" display="Write a program to Detect loop in a linked list."/>
-    <hyperlink ref="B142" r:id="rId129" display="Write a program to Delete loop in a linked list."/>
-    <hyperlink ref="B143" r:id="rId130" display="Find the starting point of the loop. "/>
-    <hyperlink ref="B144" r:id="rId131" display="Remove Duplicates in a sorted Linked List."/>
-    <hyperlink ref="B145" r:id="rId132" display="Remove Duplicates in a Un-sorted Linked List."/>
-    <hyperlink ref="B146" r:id="rId133" display="Write a Program to Move the last element to Front in a Linked List."/>
-    <hyperlink ref="B147" r:id="rId134" display="Add “1” to a number represented as a Linked List."/>
-    <hyperlink ref="B148" r:id="rId135" display="Add two numbers represented by linked lists."/>
-    <hyperlink ref="B149" r:id="rId136" display="Intersection of two Sorted Linked List."/>
-    <hyperlink ref="B150" r:id="rId137" display="Intersection Point of two Linked Lists."/>
-    <hyperlink ref="B151" r:id="rId138" display="Merge Sort For Linked lists.[Very Important]"/>
-    <hyperlink ref="B152" r:id="rId139" display="Quicksort for Linked Lists.[Very Important]"/>
-    <hyperlink ref="B153" r:id="rId140" display="Find the middle Element of a linked list."/>
-    <hyperlink ref="B154" r:id="rId141" display="Check if a linked list is a circular linked list."/>
-    <hyperlink ref="B155" r:id="rId142" display="Split a Circular linked list into two halves."/>
-    <hyperlink ref="B156" r:id="rId143" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
-    <hyperlink ref="B157" r:id="rId144" display="Deletion from a Circular Linked List."/>
-    <hyperlink ref="B158" r:id="rId145" display="Reverse a Doubly Linked list."/>
-    <hyperlink ref="B159" r:id="rId146" display="Find pairs with a given sum in a DLL."/>
-    <hyperlink ref="B160" r:id="rId147" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
-    <hyperlink ref="B161" r:id="rId148" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
-    <hyperlink ref="B162" r:id="rId149" display="Rotate DoublyLinked list by N nodes."/>
-    <hyperlink ref="B163" r:id="rId150" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
-    <hyperlink ref="B166" r:id="rId151" display="Flatten a Linked List"/>
-    <hyperlink ref="B167" r:id="rId152" display="Sort a LL of 0's, 1's and 2's"/>
-    <hyperlink ref="B168" r:id="rId153" display="Clone a linked list with next and random pointer"/>
-    <hyperlink ref="B169" r:id="rId154" display="Merge K sorted Linked list"/>
-    <hyperlink ref="B170" r:id="rId155" display="Multiply 2 no. represented by LL"/>
-    <hyperlink ref="B171" r:id="rId156" display="Delete nodes which have a greater value on right side"/>
-    <hyperlink ref="B172" r:id="rId157" display="Segregate even and odd nodes in a Linked List"/>
-    <hyperlink ref="B173" r:id="rId158" display="Program for n’th node from the end of a Linked List"/>
-    <hyperlink ref="B174" r:id="rId159" display="Find the first non-repeating character from a stream of characters"/>
-    <hyperlink ref="B177" r:id="rId160" display="level order traversal"/>
-    <hyperlink ref="B178" r:id="rId161" display="Reverse Level Order traversal"/>
-    <hyperlink ref="B179" r:id="rId162" display="Height of a tree"/>
-    <hyperlink ref="B180" r:id="rId163" display="Diameter of a tree"/>
-    <hyperlink ref="B181" r:id="rId164" display="Mirror of a tree"/>
-    <hyperlink ref="B182" r:id="rId165" display="Inorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B183" r:id="rId166" display="Preorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B184" r:id="rId167" display="Postorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B185" r:id="rId168" display="Left View of a tree"/>
-    <hyperlink ref="B186" r:id="rId169" display="Right View of Tree"/>
-    <hyperlink ref="B187" r:id="rId170" display="Top View of a tree"/>
-    <hyperlink ref="B188" r:id="rId171" display="Bottom View of a tree"/>
-    <hyperlink ref="B189" r:id="rId172" display="Zig-Zag traversal of a binary tree"/>
-    <hyperlink ref="B190" r:id="rId173" display="Check if a tree is balanced or not"/>
-    <hyperlink ref="B191" r:id="rId174" display="Diagnol Traversal of a Binary tree"/>
-    <hyperlink ref="B192" r:id="rId175" display="Boundary traversal of a Binary tree"/>
-    <hyperlink ref="B193" r:id="rId176" display="Construct Binary Tree from String with Bracket Representation"/>
-    <hyperlink ref="B194" r:id="rId177" display="Convert Binary tree into Doubly Linked List"/>
-    <hyperlink ref="B195" r:id="rId178" display="Convert Binary tree into Sum tree"/>
-    <hyperlink ref="B196" r:id="rId179" display="Construct Binary tree from Inorder and preorder traversal"/>
-    <hyperlink ref="B197" r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="Find minimum swaps required to convert a Binary tree into BST"/>
-    <hyperlink ref="B198" r:id="rId181" display="Check if Binary tree is Sum tree or not"/>
-    <hyperlink ref="B199" r:id="rId182" display="Check if all leaf nodes are at same level or not"/>
-    <hyperlink ref="B200" r:id="rId183" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
-    <hyperlink ref="B201" r:id="rId184" display="Check if 2 trees are mirror or not"/>
-    <hyperlink ref="B202" r:id="rId185" display="Sum of Nodes on the Longest path from root to leaf node "/>
-    <hyperlink ref="B203" r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="Check if given graph is tree or not.  [ IMP ]"/>
-    <hyperlink ref="B204" r:id="rId187" display="Find Largest subtree sum in a tree"/>
-    <hyperlink ref="B205" r:id="rId188" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
-    <hyperlink ref="B206" r:id="rId189" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
-    <hyperlink ref="B207" r:id="rId190" display="Find LCA in a Binary tree"/>
-    <hyperlink ref="B208" r:id="rId191" display="Find distance between 2 nodes in a Binary tree"/>
-    <hyperlink ref="B209" r:id="rId192" display="Kth Ancestor of node in a Binary tree"/>
-    <hyperlink ref="B210" r:id="rId193" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
-    <hyperlink ref="B211" r:id="rId194" display="Tree Isomorphism Problem"/>
-    <hyperlink ref="B214" r:id="rId195" display="Fina a value in a BST"/>
-    <hyperlink ref="B215" r:id="rId196" display="Deletion of a node in a BST"/>
-    <hyperlink ref="B216" r:id="rId197" display="Find min and max value in a BST"/>
-    <hyperlink ref="B217" r:id="rId198" display="Find inorder successor and inorder predecessor in a BST"/>
-    <hyperlink ref="B218" r:id="rId199" display="Check if a tree is a BST or not "/>
-    <hyperlink ref="B219" r:id="rId200" display="Populate Inorder successor of all nodes"/>
-    <hyperlink ref="B220" r:id="rId201" display="Find LCA  of 2 nodes in a BST"/>
-    <hyperlink ref="B221" r:id="rId202" display="Construct BST from preorder traversal"/>
-    <hyperlink ref="B222" r:id="rId203" display="Convert Binary tree into BST"/>
-    <hyperlink ref="B223" r:id="rId204" display="Convert a normal BST into a Balanced BST"/>
-    <hyperlink ref="B224" r:id="rId205" display="Merge two BST [ V.V.V&gt;IMP ]"/>
-    <hyperlink ref="B225" r:id="rId206" display="Find Kth largest element in a BST"/>
-    <hyperlink ref="B226" r:id="rId207" display="Find Kth smallest element in a BST"/>
-    <hyperlink ref="B227" r:id="rId208" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
-    <hyperlink ref="B228" r:id="rId209" display="Find the median of BST in O(n) time and O(1) space"/>
-    <hyperlink ref="B229" r:id="rId210" display="Count BST ndoes that lie in a given range"/>
-    <hyperlink ref="B230" r:id="rId211" display="Replace every element with the least greater element on its right"/>
-    <hyperlink ref="B231" r:id="rId212" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
-    <hyperlink ref="B232" r:id="rId213" display="Check preorder is valid or not"/>
-    <hyperlink ref="B233" r:id="rId214" display="Check whether BST contains Dead end"/>
-    <hyperlink ref="B234" r:id="rId215" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
-    <hyperlink ref="B235" r:id="rId216" display="Flatten BST to sorted list"/>
-    <hyperlink ref="B238" r:id="rId217" display="Activity Selection Problem"/>
-    <hyperlink ref="B239" r:id="rId218" display="Job SequencingProblem"/>
-    <hyperlink ref="B240" r:id="rId219" display="Huffman Coding"/>
-    <hyperlink ref="B241" r:id="rId220" display="Water Connection Problem"/>
-    <hyperlink ref="B242" r:id="rId221" display="Fractional Knapsack Problem"/>
-    <hyperlink ref="B243" r:id="rId222" display="Greedy Algorithm to find Minimum number of Coins"/>
-    <hyperlink ref="B244" r:id="rId223" display="Maximum trains for which stoppage can be provided"/>
-    <hyperlink ref="B245" r:id="rId224" display="Minimum Platforms Problem"/>
-    <hyperlink ref="B246" r:id="rId225" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
-    <hyperlink ref="B247" r:id="rId226" display="Find the minimum and maximum amount to buy all N candies"/>
-    <hyperlink ref="B248" r:id="rId227" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B249" r:id="rId228" display="Minimum Cost to cut a board into squares"/>
-    <hyperlink ref="B250" r:id="rId229" display="Check if it is possible to survive on Island"/>
-    <hyperlink ref="B251" r:id="rId230" display="Find maximum meetings in one room"/>
-    <hyperlink ref="B252" r:id="rId231" display="Maximum product subset of an array"/>
-    <hyperlink ref="B253" r:id="rId232" display="Maximize array sum after K negations"/>
-    <hyperlink ref="B254" r:id="rId233" display="Maximize the sum of arr[i]*i"/>
-    <hyperlink ref="B255" r:id="rId234" display="Maximum sum of absolute difference of an array"/>
-    <hyperlink ref="B256" r:id="rId235" display="Maximize sum of consecutive differences in a circular array"/>
-    <hyperlink ref="B257" r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." display="Minimum sum of absolute difference of pairs of two arrays"/>
-    <hyperlink ref="B258" r:id="rId237" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
-    <hyperlink ref="B259" r:id="rId238" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
-    <hyperlink ref="B260" r:id="rId239" display="Smallest subset with sum greater than all other elements"/>
-    <hyperlink ref="B261" r:id="rId240" display="Chocolate Distribution Problem"/>
-    <hyperlink ref="B262" r:id="rId241" display="DEFKIN -Defense of a Kingdom"/>
-    <hyperlink ref="B263" r:id="rId242" display="DIEHARD -DIE HARD"/>
-    <hyperlink ref="B264" r:id="rId243" display="GERGOVIA -Wine trading in Gergovia"/>
-    <hyperlink ref="B265" r:id="rId244" display="Picking Up Chicks"/>
-    <hyperlink ref="B266" r:id="rId245" display="CHOCOLA –Chocolate"/>
-    <hyperlink ref="B267" r:id="rId246" display="ARRANGE -Arranging Amplifiers"/>
-    <hyperlink ref="B268" r:id="rId247" display="K Centers Problem"/>
-    <hyperlink ref="B269" r:id="rId248" display="Minimum Cost of ropes"/>
-    <hyperlink ref="B270" r:id="rId249" display="Find smallest number with given number of digits and sum of digits"/>
-    <hyperlink ref="B271" r:id="rId250" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B272" r:id="rId251" display="Find maximum sum possible equal sum of three stacks"/>
-    <hyperlink ref="B275" r:id="rId252" display="Rat in a maze Problem"/>
-    <hyperlink ref="B276" r:id="rId253" display="Printing all solutions in N-Queen Problem"/>
-    <hyperlink ref="B277" r:id="rId254" display="Word Break Problem using Backtracking"/>
-    <hyperlink ref="B278" r:id="rId255" display="Remove Invalid Parentheses"/>
-    <hyperlink ref="B279" r:id="rId256" display="Sudoku Solver"/>
-    <hyperlink ref="B280" r:id="rId257" display="m Coloring Problem"/>
-    <hyperlink ref="B281" r:id="rId258" display="Print all palindromic partitions of a string"/>
-    <hyperlink ref="B282" r:id="rId259" display="Subset Sum Problem"/>
-    <hyperlink ref="B283" r:id="rId260" display="The Knight’s tour problem"/>
-    <hyperlink ref="B284" r:id="rId261" display="Tug of War"/>
-    <hyperlink ref="B285" r:id="rId262" display="Find shortest safe route in a path with landmines"/>
-    <hyperlink ref="B286" r:id="rId263" display="Combinational Sum"/>
-    <hyperlink ref="B287" r:id="rId264" display="Find Maximum number possible by doing at-most K swaps"/>
-    <hyperlink ref="B288" r:id="rId265" display="Print all permutations of a string "/>
-    <hyperlink ref="B289" r:id="rId266" display="Find if there is a path of more than k length from a source"/>
-    <hyperlink ref="B290" r:id="rId267" display="Longest Possible Route in a Matrix with Hurdles"/>
-    <hyperlink ref="B291" r:id="rId268" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
-    <hyperlink ref="B292" r:id="rId269" display="Partition of a set intoK subsets with equal sum"/>
-    <hyperlink ref="B293" r:id="rId270" display="Find the K-th Permutation Sequence of first N natural numbers"/>
-    <hyperlink ref="B296" r:id="rId271" display=" Implement Stack from Scratch"/>
-    <hyperlink ref="B297" r:id="rId272" display=" Implement Queue from Scratch"/>
-    <hyperlink ref="B298" r:id="rId273" display="Implement 2 stack in an array"/>
-    <hyperlink ref="B299" r:id="rId274" display="find the middle element of a stack"/>
-    <hyperlink ref="B300" r:id="rId275" display="Implement &quot;N&quot; stacks in an Array"/>
-    <hyperlink ref="B301" r:id="rId276" display="Check the expression has valid or Balanced parenthesis or not."/>
-    <hyperlink ref="B302" r:id="rId277" display="Reverse a String using Stack"/>
-    <hyperlink ref="B303" r:id="rId278" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
-    <hyperlink ref="B304" r:id="rId279" display="Find the next Greater element"/>
-    <hyperlink ref="B305" r:id="rId280" display="The celebrity Problem"/>
-    <hyperlink ref="B306" r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." display="Arithmetic Expression evaluation"/>
-    <hyperlink ref="B307" r:id="rId282" display="Evaluation of Postfix expression"/>
-    <hyperlink ref="B308" r:id="rId283" display="Implement a method to insert an element at its bottom without using any other data structure."/>
-    <hyperlink ref="B309" r:id="rId284" display="Reverse a stack using recursion"/>
-    <hyperlink ref="B310" r:id="rId285" display="Sort a Stack using recursion"/>
-    <hyperlink ref="B311" r:id="rId286" display="Merge Overlapping Intervals"/>
-    <hyperlink ref="B312" r:id="rId287" display="Largest rectangular Area in Histogram"/>
-    <hyperlink ref="B313" r:id="rId288" display="Length of the Longest Valid Substring"/>
-    <hyperlink ref="B314" r:id="rId289" display="Expression contains redundant bracket or not"/>
-    <hyperlink ref="B315" r:id="rId290" display="Implement Stack using Queue"/>
-    <hyperlink ref="B316" r:id="rId291" display="Implement Stack using Deque"/>
-    <hyperlink ref="B317" r:id="rId292" display="Stack Permutations (Check if an array is stack permutation of other)"/>
-    <hyperlink ref="B318" r:id="rId293" display="Implement Queue using Stack  "/>
-    <hyperlink ref="B319" r:id="rId294" display="Implement &quot;n&quot; queue in an array"/>
-    <hyperlink ref="B320" r:id="rId295" display="Implement a Circular queue"/>
-    <hyperlink ref="B321" r:id="rId296" display="LRU Cache Implementationa"/>
-    <hyperlink ref="B322" r:id="rId297" display="Reverse a Queue using recursion"/>
-    <hyperlink ref="B323" r:id="rId298" display="Reverse the first “K” elements of a queue"/>
-    <hyperlink ref="B324" r:id="rId299" display="Interleave the first half of the queue with second half"/>
-    <hyperlink ref="B325" r:id="rId300" display="Find the first circular tour that visits all Petrol Pumps"/>
-    <hyperlink ref="B326" r:id="rId301" display="Minimum time required to rot all oranges"/>
-    <hyperlink ref="B327" r:id="rId302" display="Distance of nearest cell having 1 in a binary matrix"/>
-    <hyperlink ref="B328" r:id="rId303" display="First negative integer in every window of size “k”"/>
-    <hyperlink ref="B329" r:id="rId304" display="Check if all levels of two trees are anagrams or not."/>
-    <hyperlink ref="B330" r:id="rId305" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
-    <hyperlink ref="B331" r:id="rId306" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
-    <hyperlink ref="B332" r:id="rId307" display="Queue based approach or first non-repeating character in a stream."/>
-    <hyperlink ref="B333" r:id="rId308" display="Next Smaller Element"/>
-    <hyperlink ref="B336" r:id="rId309" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
-    <hyperlink ref="B337" r:id="rId310" display="Sort an Array using heap. (HeapSort)"/>
-    <hyperlink ref="B338" r:id="rId311" display="Maximum of all subarrays of size k."/>
-    <hyperlink ref="B339" r:id="rId312" display="“k” largest element in an array"/>
-    <hyperlink ref="B340" r:id="rId313" display="Kth smallest and largest element in an unsorted array"/>
-    <hyperlink ref="B341" r:id="rId314" display="Merge “K” sorted arrays. [ IMP ]"/>
-    <hyperlink ref="B342" r:id="rId315" display="Merge 2 Binary Max Heaps"/>
-    <hyperlink ref="B343" r:id="rId316" display="Kth largest sum continuous subarrays"/>
-    <hyperlink ref="B344" r:id="rId317" display="Leetcode- reorganize strings"/>
-    <hyperlink ref="B345" r:id="rId318" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
-    <hyperlink ref="B346" r:id="rId319" display="Smallest range in “K” Lists"/>
-    <hyperlink ref="B347" r:id="rId320" display="Median in a stream of Integers"/>
-    <hyperlink ref="B348" r:id="rId321" display="Check if a Binary Tree is Heap"/>
-    <hyperlink ref="B349" r:id="rId322" display="Connect “n” ropes with minimum cost"/>
-    <hyperlink ref="B350" r:id="rId323" display="Convert BST to Min Heap"/>
-    <hyperlink ref="B351" r:id="rId324" display="Convert min heap to max heap"/>
-    <hyperlink ref="B352" r:id="rId325" display="Rearrange characters in a string such that no two adjacent are same."/>
-    <hyperlink ref="B353" r:id="rId326" display="Minimum sum of two numbers formed from digits of an array"/>
-    <hyperlink ref="B356" r:id="rId327" display="Create a Graph, print it"/>
-    <hyperlink ref="B357" r:id="rId328" display="Implement BFS algorithm "/>
-    <hyperlink ref="B358" r:id="rId329" display="Implement DFS Algo "/>
-    <hyperlink ref="B359" r:id="rId330" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B360" r:id="rId331" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B361" r:id="rId332" display="Search in a Maze"/>
-    <hyperlink ref="B362" r:id="rId333" display="Minimum Step by Knight"/>
-    <hyperlink ref="B363" r:id="rId334" display="flood fill algo"/>
-    <hyperlink ref="B364" r:id="rId335" display="Clone a graph"/>
-    <hyperlink ref="B365" r:id="rId336" display="Making wired Connections"/>
-    <hyperlink ref="B366" r:id="rId337" display="word Ladder "/>
-    <hyperlink ref="B367" r:id="rId338" display="Dijkstra algo"/>
-    <hyperlink ref="B368" r:id="rId339" display="Implement Topological Sort "/>
-    <hyperlink ref="B369" r:id="rId340" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
-    <hyperlink ref="B370" r:id="rId341" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
-    <hyperlink ref="B371" r:id="rId342" display="Find the no. of Isalnds"/>
-    <hyperlink ref="B372" r:id="rId343" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
-    <hyperlink ref="B373" r:id="rId344" display="Implement Kruksal’sAlgorithm"/>
-    <hyperlink ref="B374" r:id="rId345" display="Implement Prim’s Algorithm"/>
-    <hyperlink ref="B375" r:id="rId346" display="Total no. of Spanning tree in a graph"/>
-    <hyperlink ref="B376" r:id="rId347" display="Implement Bellman Ford Algorithm"/>
-    <hyperlink ref="B377" r:id="rId348" display="Implement Floyd warshallAlgorithm"/>
-    <hyperlink ref="B378" r:id="rId349" display="Travelling Salesman Problem"/>
-    <hyperlink ref="B379" r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="Graph ColouringProblem"/>
-    <hyperlink ref="B380" r:id="rId351" display="Snake and Ladders Problem"/>
-    <hyperlink ref="B381" r:id="rId352" display="Find bridge in a graph"/>
-    <hyperlink ref="B382" r:id="rId353" display="Count Strongly connected Components(Kosaraju Algo)"/>
-    <hyperlink ref="B383" r:id="rId354" display="Check whether a graph is Bipartite or Not"/>
-    <hyperlink ref="B384" r:id="rId355" display="Detect Negative cycle in a graph"/>
-    <hyperlink ref="B385" r:id="rId356" display="Longest path in a Directed Acyclic Graph"/>
-    <hyperlink ref="B386" r:id="rId357" display="Journey to the Moon"/>
-    <hyperlink ref="B387" r:id="rId358" display="Cheapest Flights Within K Stops"/>
-    <hyperlink ref="B388" r:id="rId359" display="Oliver and the Game"/>
-    <hyperlink ref="B389" r:id="rId360" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B390" r:id="rId361" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B391" r:id="rId362" display="Find if there is a path of more thank length from a source"/>
-    <hyperlink ref="B392" r:id="rId363" display="M-ColouringProblem"/>
-    <hyperlink ref="B393" r:id="rId364" display="Minimum edges to reverse o make path from source to destination"/>
-    <hyperlink ref="B394" r:id="rId365" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
-    <hyperlink ref="B395" r:id="rId366" display="Vertex Cover Problem"/>
-    <hyperlink ref="B396" r:id="rId367" display="Chinese Postman or Route Inspection"/>
-    <hyperlink ref="B397" r:id="rId368" display="Number of Triangles in a Directed and Undirected Graph"/>
-    <hyperlink ref="B398" r:id="rId369" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B399" r:id="rId370" display="Two Clique Problem"/>
-    <hyperlink ref="B402" r:id="rId371" display="Construct a trie from scratch"/>
-    <hyperlink ref="B403" r:id="rId372" display="Find shortest unique prefix for every word in a given list"/>
-    <hyperlink ref="B404" r:id="rId373" display="Word Break Problem | (Trie solution)"/>
-    <hyperlink ref="B405" r:id="rId374" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B406" r:id="rId375" display="Implement a Phone Directory"/>
-    <hyperlink ref="B407" r:id="rId376" display="Print unique rows in a given boolean matrix"/>
-    <hyperlink ref="B410" r:id="rId377" display="Coin ChangeProblem"/>
-    <hyperlink ref="B411" r:id="rId378" display="Knapsack Problem"/>
-    <hyperlink ref="B412" r:id="rId379" display="Binomial CoefficientProblem"/>
-    <hyperlink ref="B413" r:id="rId380" display="Permutation CoefficientProblem"/>
-    <hyperlink ref="B414" r:id="rId381" display="Program for nth Catalan Number"/>
-    <hyperlink ref="B415" r:id="rId382" display="Matrix Chain Multiplication "/>
-    <hyperlink ref="B416" r:id="rId383" display="Edit Distance"/>
-    <hyperlink ref="B417" r:id="rId384" display="Subset Sum Problem"/>
-    <hyperlink ref="B418" r:id="rId385" display="Friends Pairing Problem"/>
-    <hyperlink ref="B419" r:id="rId386" display="Gold Mine Problem"/>
-    <hyperlink ref="B420" r:id="rId387" display="Assembly Line SchedulingProblem"/>
-    <hyperlink ref="B421" r:id="rId388" display="Painting the Fenceproblem"/>
-    <hyperlink ref="B422" r:id="rId389" display="Maximize The Cut Segments"/>
-    <hyperlink ref="B423" r:id="rId390" display="Longest Common Subsequence"/>
-    <hyperlink ref="B424" r:id="rId391" display="Longest Repeated Subsequence"/>
-    <hyperlink ref="B425" r:id="rId392" display="Longest Increasing Subsequence"/>
-    <hyperlink ref="B426" r:id="rId393" display="Space Optimized Solution of LCS"/>
-    <hyperlink ref="B427" r:id="rId394" display="LCS (Longest Common Subsequence) of three strings"/>
-    <hyperlink ref="B428" r:id="rId395" display="Maximum Sum Increasing Subsequence"/>
-    <hyperlink ref="B429" r:id="rId396" display="Count all subsequences having product less than K"/>
-    <hyperlink ref="B430" r:id="rId397" display="Longest subsequence such that difference between adjacent is one"/>
-    <hyperlink ref="B431" r:id="rId398" display="Maximum subsequence sum such that no three are consecutive"/>
-    <hyperlink ref="B432" r:id="rId399" display="Egg Dropping Problem"/>
-    <hyperlink ref="B433" r:id="rId400" display="Maximum Length Chain of Pairs"/>
-    <hyperlink ref="B434" r:id="rId401" display="Maximum size square sub-matrix with all 1s"/>
-    <hyperlink ref="B435" r:id="rId402" display="Maximum sum of pairs with specific difference"/>
-    <hyperlink ref="B436" r:id="rId403" display="Min Cost PathProblem"/>
-    <hyperlink ref="B437" r:id="rId404" display="Maximum difference of zeros and ones in binary string"/>
-    <hyperlink ref="B438" r:id="rId405" display="Minimum number of jumps to reach end"/>
-    <hyperlink ref="B439" r:id="rId406" display="Minimum cost to fill given weight in a bag"/>
-    <hyperlink ref="B440" r:id="rId407" display="Minimum removals from array to make max –min &lt;= K"/>
-    <hyperlink ref="B441" r:id="rId408" display="Longest Common Substring"/>
-    <hyperlink ref="B442" r:id="rId409" display="Count number of ways to reacha given score in a game"/>
-    <hyperlink ref="B443" r:id="rId410" display="Count Balanced Binary Trees of Height h"/>
-    <hyperlink ref="B444" r:id="rId411" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
-    <hyperlink ref="B445" r:id="rId412" display="Smallest sum contiguous subarray"/>
-    <hyperlink ref="B446" r:id="rId413" display="Unbounded Knapsack (Repetition of items allowed)"/>
-    <hyperlink ref="B447" r:id="rId414" display="Word Break Problem"/>
-    <hyperlink ref="B448" r:id="rId415" display="Largest Independent Set Problem"/>
-    <hyperlink ref="B449" r:id="rId416" display="Partition problem"/>
-    <hyperlink ref="B450" r:id="rId417" display="Longest Palindromic Subsequence"/>
-    <hyperlink ref="B451" r:id="rId418" display="Count All Palindromic Subsequence in a given String"/>
-    <hyperlink ref="B452" r:id="rId419" display="Longest Palindromic Substring"/>
-    <hyperlink ref="B453" r:id="rId420" display="Longest alternating subsequence"/>
-    <hyperlink ref="B454" r:id="rId421" display="Weighted Job Scheduling"/>
-    <hyperlink ref="B455" r:id="rId422" display="Coin game winner where every player has three choices"/>
-    <hyperlink ref="B456" r:id="rId423" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
-    <hyperlink ref="B457" r:id="rId424" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
-    <hyperlink ref="B458" r:id="rId425" display="Optimal Strategy for a Game"/>
-    <hyperlink ref="B459" r:id="rId426" display="Optimal Binary Search Tree"/>
-    <hyperlink ref="B460" r:id="rId427" display="Palindrome PartitioningProblem"/>
-    <hyperlink ref="B461" r:id="rId428" display="Word Wrap Problem"/>
-    <hyperlink ref="B462" r:id="rId429" display="Mobile Numeric Keypad Problem [ IMP ]"/>
-    <hyperlink ref="B463" r:id="rId430" display="Boolean Parenthesization Problem"/>
-    <hyperlink ref="B464" r:id="rId431" display="Largest rectangular sub-matrix whose sum is 0"/>
-    <hyperlink ref="B465" r:id="rId432" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
-    <hyperlink ref="B466" r:id="rId433" display="Maximum sum rectangle in a 2D matrix"/>
-    <hyperlink ref="B467" r:id="rId434" display="Maximum profit by buying and selling a share at most k times"/>
-    <hyperlink ref="B468" r:id="rId435" display="Find if a string is interleaved of two other strings"/>
-    <hyperlink ref="B469" r:id="rId436" display="Maximum Length of Pair Chain"/>
-    <hyperlink ref="B472" r:id="rId437" display="Count set bits in an integer"/>
-    <hyperlink ref="B473" r:id="rId438" display="Find the two non-repeating elements in an array of repeating elements"/>
-    <hyperlink ref="B474" r:id="rId439" display="Count number of bits to be flipped to convert A to B"/>
-    <hyperlink ref="B475" r:id="rId440" display="Count total set bits in all numbers from 1 to n"/>
-    <hyperlink ref="B476" r:id="rId441" display="Program to find whether a no is power of two"/>
-    <hyperlink ref="B477" r:id="rId442" display="Find position of the only set bit"/>
-    <hyperlink ref="B478" r:id="rId443" display="Copy set bits in a range"/>
-    <hyperlink ref="B479" r:id="rId444" display="Divide two integers without using multiplication, division and mod operator"/>
-    <hyperlink ref="B480" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
-    <hyperlink ref="B481" r:id="rId446" display="Power Set"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4"/>
+    <hyperlink ref="B9" r:id="rId5"/>
+    <hyperlink ref="B10" r:id="rId6"/>
+    <hyperlink ref="B11" r:id="rId7"/>
+    <hyperlink ref="B12" r:id="rId8"/>
+    <hyperlink ref="B13" r:id="rId9"/>
+    <hyperlink ref="B14" r:id="rId10"/>
+    <hyperlink ref="B15" r:id="rId11"/>
+    <hyperlink ref="B16" r:id="rId12"/>
+    <hyperlink ref="B17" r:id="rId13"/>
+    <hyperlink ref="B18" r:id="rId14"/>
+    <hyperlink ref="B19" r:id="rId15"/>
+    <hyperlink ref="B20" r:id="rId16"/>
+    <hyperlink ref="B21" r:id="rId17"/>
+    <hyperlink ref="B22" r:id="rId18"/>
+    <hyperlink ref="B23" r:id="rId19"/>
+    <hyperlink ref="B24" r:id="rId20"/>
+    <hyperlink ref="B25" r:id="rId21"/>
+    <hyperlink ref="B26" r:id="rId22"/>
+    <hyperlink ref="B27" r:id="rId23"/>
+    <hyperlink ref="B28" r:id="rId24"/>
+    <hyperlink ref="B29" r:id="rId25"/>
+    <hyperlink ref="B30" r:id="rId26"/>
+    <hyperlink ref="B31" r:id="rId27"/>
+    <hyperlink ref="B32" r:id="rId28"/>
+    <hyperlink ref="B33" r:id="rId29"/>
+    <hyperlink ref="B34" r:id="rId30"/>
+    <hyperlink ref="B35" r:id="rId31"/>
+    <hyperlink ref="B36" r:id="rId32"/>
+    <hyperlink ref="B37" r:id="rId33"/>
+    <hyperlink ref="B38" r:id="rId34"/>
+    <hyperlink ref="B39" r:id="rId35"/>
+    <hyperlink ref="B40" r:id="rId36"/>
+    <hyperlink ref="B41" r:id="rId37"/>
+    <hyperlink ref="B44" r:id="rId38"/>
+    <hyperlink ref="B45" r:id="rId39"/>
+    <hyperlink ref="B46" r:id="rId40"/>
+    <hyperlink ref="B47" r:id="rId41"/>
+    <hyperlink ref="B48" r:id="rId42"/>
+    <hyperlink ref="B49" r:id="rId43"/>
+    <hyperlink ref="B50" r:id="rId44"/>
+    <hyperlink ref="B51" r:id="rId45"/>
+    <hyperlink ref="B52" r:id="rId46"/>
+    <hyperlink ref="B53" r:id="rId47"/>
+    <hyperlink ref="B56" r:id="rId48"/>
+    <hyperlink ref="B57" r:id="rId49"/>
+    <hyperlink ref="B58" r:id="rId50"/>
+    <hyperlink ref="B60" r:id="rId51"/>
+    <hyperlink ref="B61" r:id="rId52"/>
+    <hyperlink ref="B62" r:id="rId53"/>
+    <hyperlink ref="B63" r:id="rId54"/>
+    <hyperlink ref="B64" r:id="rId55"/>
+    <hyperlink ref="B65" r:id="rId56"/>
+    <hyperlink ref="B66" r:id="rId57"/>
+    <hyperlink ref="B67" r:id="rId58"/>
+    <hyperlink ref="B68" r:id="rId59"/>
+    <hyperlink ref="B69" r:id="rId60"/>
+    <hyperlink ref="B70" r:id="rId61"/>
+    <hyperlink ref="B71" r:id="rId62"/>
+    <hyperlink ref="B72" r:id="rId63"/>
+    <hyperlink ref="B73" r:id="rId64"/>
+    <hyperlink ref="B74" r:id="rId65"/>
+    <hyperlink ref="B75" r:id="rId66"/>
+    <hyperlink ref="B76" r:id="rId67"/>
+    <hyperlink ref="B77" r:id="rId68"/>
+    <hyperlink ref="B78" r:id="rId69"/>
+    <hyperlink ref="B79" r:id="rId70"/>
+    <hyperlink ref="B80" r:id="rId71"/>
+    <hyperlink ref="B81" r:id="rId72"/>
+    <hyperlink ref="B82" r:id="rId73"/>
+    <hyperlink ref="B83" r:id="rId74"/>
+    <hyperlink ref="B84" r:id="rId75"/>
+    <hyperlink ref="B85" r:id="rId76"/>
+    <hyperlink ref="B86" r:id="rId77"/>
+    <hyperlink ref="B87" r:id="rId78"/>
+    <hyperlink ref="B88" r:id="rId79"/>
+    <hyperlink ref="B89" r:id="rId80"/>
+    <hyperlink ref="B90" r:id="rId81"/>
+    <hyperlink ref="B91" r:id="rId82"/>
+    <hyperlink ref="B92" r:id="rId83"/>
+    <hyperlink ref="B93" r:id="rId84"/>
+    <hyperlink ref="B94" r:id="rId85"/>
+    <hyperlink ref="B95" r:id="rId86"/>
+    <hyperlink ref="B96" r:id="rId87"/>
+    <hyperlink ref="B97" r:id="rId88"/>
+    <hyperlink ref="B98" r:id="rId89"/>
+    <hyperlink ref="B101" r:id="rId90"/>
+    <hyperlink ref="B102" r:id="rId91"/>
+    <hyperlink ref="B103" r:id="rId92"/>
+    <hyperlink ref="B104" r:id="rId93"/>
+    <hyperlink ref="B105" r:id="rId94"/>
+    <hyperlink ref="B106" r:id="rId95" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance."/>
+    <hyperlink ref="B107" r:id="rId96"/>
+    <hyperlink ref="B108" r:id="rId97"/>
+    <hyperlink ref="B109" r:id="rId98"/>
+    <hyperlink ref="B110" r:id="rId99"/>
+    <hyperlink ref="B111" r:id="rId100"/>
+    <hyperlink ref="B112" r:id="rId101"/>
+    <hyperlink ref="B113" r:id="rId102"/>
+    <hyperlink ref="B114" r:id="rId103"/>
+    <hyperlink ref="B115" r:id="rId104"/>
+    <hyperlink ref="B116" r:id="rId105"/>
+    <hyperlink ref="B117" r:id="rId106"/>
+    <hyperlink ref="B118" r:id="rId107"/>
+    <hyperlink ref="B119" r:id="rId108"/>
+    <hyperlink ref="B120" r:id="rId109"/>
+    <hyperlink ref="B121" r:id="rId110"/>
+    <hyperlink ref="B122" r:id="rId111"/>
+    <hyperlink ref="B123" r:id="rId112"/>
+    <hyperlink ref="B124" r:id="rId113"/>
+    <hyperlink ref="B125" r:id="rId114"/>
+    <hyperlink ref="B126" r:id="rId115"/>
+    <hyperlink ref="B127" r:id="rId116"/>
+    <hyperlink ref="B128" r:id="rId117"/>
+    <hyperlink ref="B129" r:id="rId118"/>
+    <hyperlink ref="B130" r:id="rId119"/>
+    <hyperlink ref="B131" r:id="rId120"/>
+    <hyperlink ref="B132" r:id="rId121"/>
+    <hyperlink ref="B133" r:id="rId122"/>
+    <hyperlink ref="B134" r:id="rId123"/>
+    <hyperlink ref="B135" r:id="rId124"/>
+    <hyperlink ref="B136" r:id="rId125"/>
+    <hyperlink ref="B139" r:id="rId126"/>
+    <hyperlink ref="B140" r:id="rId127"/>
+    <hyperlink ref="B141" r:id="rId128"/>
+    <hyperlink ref="B142" r:id="rId129"/>
+    <hyperlink ref="B143" r:id="rId130"/>
+    <hyperlink ref="B144" r:id="rId131"/>
+    <hyperlink ref="B145" r:id="rId132"/>
+    <hyperlink ref="B146" r:id="rId133"/>
+    <hyperlink ref="B147" r:id="rId134"/>
+    <hyperlink ref="B148" r:id="rId135"/>
+    <hyperlink ref="B149" r:id="rId136"/>
+    <hyperlink ref="B150" r:id="rId137"/>
+    <hyperlink ref="B151" r:id="rId138"/>
+    <hyperlink ref="B152" r:id="rId139"/>
+    <hyperlink ref="B153" r:id="rId140"/>
+    <hyperlink ref="B154" r:id="rId141"/>
+    <hyperlink ref="B155" r:id="rId142"/>
+    <hyperlink ref="B156" r:id="rId143"/>
+    <hyperlink ref="B157" r:id="rId144"/>
+    <hyperlink ref="B158" r:id="rId145"/>
+    <hyperlink ref="B159" r:id="rId146"/>
+    <hyperlink ref="B160" r:id="rId147"/>
+    <hyperlink ref="B161" r:id="rId148"/>
+    <hyperlink ref="B162" r:id="rId149"/>
+    <hyperlink ref="B163" r:id="rId150"/>
+    <hyperlink ref="B166" r:id="rId151"/>
+    <hyperlink ref="B167" r:id="rId152"/>
+    <hyperlink ref="B168" r:id="rId153"/>
+    <hyperlink ref="B169" r:id="rId154"/>
+    <hyperlink ref="B170" r:id="rId155"/>
+    <hyperlink ref="B171" r:id="rId156"/>
+    <hyperlink ref="B172" r:id="rId157"/>
+    <hyperlink ref="B173" r:id="rId158"/>
+    <hyperlink ref="B174" r:id="rId159"/>
+    <hyperlink ref="B177" r:id="rId160"/>
+    <hyperlink ref="B178" r:id="rId161"/>
+    <hyperlink ref="B179" r:id="rId162"/>
+    <hyperlink ref="B180" r:id="rId163"/>
+    <hyperlink ref="B181" r:id="rId164"/>
+    <hyperlink ref="B182" r:id="rId165"/>
+    <hyperlink ref="B183" r:id="rId166"/>
+    <hyperlink ref="B184" r:id="rId167"/>
+    <hyperlink ref="B185" r:id="rId168"/>
+    <hyperlink ref="B186" r:id="rId169"/>
+    <hyperlink ref="B187" r:id="rId170"/>
+    <hyperlink ref="B188" r:id="rId171"/>
+    <hyperlink ref="B189" r:id="rId172"/>
+    <hyperlink ref="B190" r:id="rId173"/>
+    <hyperlink ref="B191" r:id="rId174"/>
+    <hyperlink ref="B192" r:id="rId175"/>
+    <hyperlink ref="B193" r:id="rId176"/>
+    <hyperlink ref="B194" r:id="rId177"/>
+    <hyperlink ref="B195" r:id="rId178"/>
+    <hyperlink ref="B196" r:id="rId179"/>
+    <hyperlink ref="B197" r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
+    <hyperlink ref="B198" r:id="rId181"/>
+    <hyperlink ref="B199" r:id="rId182"/>
+    <hyperlink ref="B200" r:id="rId183"/>
+    <hyperlink ref="B201" r:id="rId184"/>
+    <hyperlink ref="B202" r:id="rId185"/>
+    <hyperlink ref="B203" r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
+    <hyperlink ref="B204" r:id="rId187"/>
+    <hyperlink ref="B205" r:id="rId188"/>
+    <hyperlink ref="B206" r:id="rId189"/>
+    <hyperlink ref="B207" r:id="rId190"/>
+    <hyperlink ref="B208" r:id="rId191"/>
+    <hyperlink ref="B209" r:id="rId192"/>
+    <hyperlink ref="B210" r:id="rId193"/>
+    <hyperlink ref="B211" r:id="rId194"/>
+    <hyperlink ref="B214" r:id="rId195"/>
+    <hyperlink ref="B215" r:id="rId196"/>
+    <hyperlink ref="B216" r:id="rId197"/>
+    <hyperlink ref="B217" r:id="rId198"/>
+    <hyperlink ref="B218" r:id="rId199"/>
+    <hyperlink ref="B219" r:id="rId200"/>
+    <hyperlink ref="B220" r:id="rId201"/>
+    <hyperlink ref="B221" r:id="rId202"/>
+    <hyperlink ref="B222" r:id="rId203"/>
+    <hyperlink ref="B223" r:id="rId204"/>
+    <hyperlink ref="B224" r:id="rId205"/>
+    <hyperlink ref="B225" r:id="rId206"/>
+    <hyperlink ref="B226" r:id="rId207"/>
+    <hyperlink ref="B227" r:id="rId208"/>
+    <hyperlink ref="B228" r:id="rId209"/>
+    <hyperlink ref="B229" r:id="rId210"/>
+    <hyperlink ref="B230" r:id="rId211"/>
+    <hyperlink ref="B231" r:id="rId212"/>
+    <hyperlink ref="B232" r:id="rId213"/>
+    <hyperlink ref="B233" r:id="rId214"/>
+    <hyperlink ref="B234" r:id="rId215"/>
+    <hyperlink ref="B235" r:id="rId216"/>
+    <hyperlink ref="B238" r:id="rId217"/>
+    <hyperlink ref="B239" r:id="rId218"/>
+    <hyperlink ref="B240" r:id="rId219"/>
+    <hyperlink ref="B241" r:id="rId220"/>
+    <hyperlink ref="B242" r:id="rId221"/>
+    <hyperlink ref="B243" r:id="rId222"/>
+    <hyperlink ref="B244" r:id="rId223"/>
+    <hyperlink ref="B245" r:id="rId224"/>
+    <hyperlink ref="B246" r:id="rId225"/>
+    <hyperlink ref="B247" r:id="rId226"/>
+    <hyperlink ref="B248" r:id="rId227"/>
+    <hyperlink ref="B249" r:id="rId228"/>
+    <hyperlink ref="B250" r:id="rId229"/>
+    <hyperlink ref="B251" r:id="rId230"/>
+    <hyperlink ref="B252" r:id="rId231"/>
+    <hyperlink ref="B253" r:id="rId232"/>
+    <hyperlink ref="B254" r:id="rId233"/>
+    <hyperlink ref="B255" r:id="rId234"/>
+    <hyperlink ref="B256" r:id="rId235"/>
+    <hyperlink ref="B257" r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
+    <hyperlink ref="B258" r:id="rId237"/>
+    <hyperlink ref="B259" r:id="rId238"/>
+    <hyperlink ref="B260" r:id="rId239"/>
+    <hyperlink ref="B261" r:id="rId240"/>
+    <hyperlink ref="B262" r:id="rId241"/>
+    <hyperlink ref="B263" r:id="rId242"/>
+    <hyperlink ref="B264" r:id="rId243"/>
+    <hyperlink ref="B265" r:id="rId244"/>
+    <hyperlink ref="B266" r:id="rId245"/>
+    <hyperlink ref="B267" r:id="rId246"/>
+    <hyperlink ref="B268" r:id="rId247"/>
+    <hyperlink ref="B269" r:id="rId248"/>
+    <hyperlink ref="B270" r:id="rId249"/>
+    <hyperlink ref="B271" r:id="rId250"/>
+    <hyperlink ref="B272" r:id="rId251"/>
+    <hyperlink ref="B275" r:id="rId252"/>
+    <hyperlink ref="B276" r:id="rId253"/>
+    <hyperlink ref="B277" r:id="rId254"/>
+    <hyperlink ref="B278" r:id="rId255"/>
+    <hyperlink ref="B279" r:id="rId256"/>
+    <hyperlink ref="B280" r:id="rId257"/>
+    <hyperlink ref="B281" r:id="rId258"/>
+    <hyperlink ref="B282" r:id="rId259"/>
+    <hyperlink ref="B283" r:id="rId260"/>
+    <hyperlink ref="B284" r:id="rId261"/>
+    <hyperlink ref="B285" r:id="rId262"/>
+    <hyperlink ref="B286" r:id="rId263"/>
+    <hyperlink ref="B287" r:id="rId264"/>
+    <hyperlink ref="B288" r:id="rId265"/>
+    <hyperlink ref="B289" r:id="rId266"/>
+    <hyperlink ref="B290" r:id="rId267"/>
+    <hyperlink ref="B291" r:id="rId268"/>
+    <hyperlink ref="B292" r:id="rId269"/>
+    <hyperlink ref="B293" r:id="rId270"/>
+    <hyperlink ref="B296" r:id="rId271"/>
+    <hyperlink ref="B297" r:id="rId272"/>
+    <hyperlink ref="B298" r:id="rId273"/>
+    <hyperlink ref="B299" r:id="rId274"/>
+    <hyperlink ref="B300" r:id="rId275"/>
+    <hyperlink ref="B301" r:id="rId276"/>
+    <hyperlink ref="B302" r:id="rId277"/>
+    <hyperlink ref="B303" r:id="rId278"/>
+    <hyperlink ref="B304" r:id="rId279"/>
+    <hyperlink ref="B305" r:id="rId280"/>
+    <hyperlink ref="B306" r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
+    <hyperlink ref="B307" r:id="rId282"/>
+    <hyperlink ref="B308" r:id="rId283"/>
+    <hyperlink ref="B309" r:id="rId284"/>
+    <hyperlink ref="B310" r:id="rId285"/>
+    <hyperlink ref="B311" r:id="rId286"/>
+    <hyperlink ref="B312" r:id="rId287"/>
+    <hyperlink ref="B313" r:id="rId288"/>
+    <hyperlink ref="B314" r:id="rId289"/>
+    <hyperlink ref="B315" r:id="rId290"/>
+    <hyperlink ref="B316" r:id="rId291"/>
+    <hyperlink ref="B317" r:id="rId292"/>
+    <hyperlink ref="B318" r:id="rId293"/>
+    <hyperlink ref="B319" r:id="rId294"/>
+    <hyperlink ref="B320" r:id="rId295"/>
+    <hyperlink ref="B321" r:id="rId296"/>
+    <hyperlink ref="B322" r:id="rId297"/>
+    <hyperlink ref="B323" r:id="rId298"/>
+    <hyperlink ref="B324" r:id="rId299"/>
+    <hyperlink ref="B325" r:id="rId300"/>
+    <hyperlink ref="B326" r:id="rId301"/>
+    <hyperlink ref="B327" r:id="rId302"/>
+    <hyperlink ref="B328" r:id="rId303"/>
+    <hyperlink ref="B329" r:id="rId304"/>
+    <hyperlink ref="B330" r:id="rId305"/>
+    <hyperlink ref="B331" r:id="rId306"/>
+    <hyperlink ref="B332" r:id="rId307"/>
+    <hyperlink ref="B333" r:id="rId308"/>
+    <hyperlink ref="B336" r:id="rId309"/>
+    <hyperlink ref="B337" r:id="rId310"/>
+    <hyperlink ref="B338" r:id="rId311"/>
+    <hyperlink ref="B339" r:id="rId312"/>
+    <hyperlink ref="B340" r:id="rId313"/>
+    <hyperlink ref="B341" r:id="rId314"/>
+    <hyperlink ref="B342" r:id="rId315"/>
+    <hyperlink ref="B343" r:id="rId316"/>
+    <hyperlink ref="B344" r:id="rId317"/>
+    <hyperlink ref="B345" r:id="rId318"/>
+    <hyperlink ref="B346" r:id="rId319"/>
+    <hyperlink ref="B347" r:id="rId320"/>
+    <hyperlink ref="B348" r:id="rId321"/>
+    <hyperlink ref="B349" r:id="rId322"/>
+    <hyperlink ref="B350" r:id="rId323"/>
+    <hyperlink ref="B351" r:id="rId324"/>
+    <hyperlink ref="B352" r:id="rId325"/>
+    <hyperlink ref="B353" r:id="rId326"/>
+    <hyperlink ref="B356" r:id="rId327"/>
+    <hyperlink ref="B357" r:id="rId328"/>
+    <hyperlink ref="B358" r:id="rId329"/>
+    <hyperlink ref="B359" r:id="rId330"/>
+    <hyperlink ref="B360" r:id="rId331"/>
+    <hyperlink ref="B361" r:id="rId332"/>
+    <hyperlink ref="B362" r:id="rId333"/>
+    <hyperlink ref="B363" r:id="rId334"/>
+    <hyperlink ref="B364" r:id="rId335"/>
+    <hyperlink ref="B365" r:id="rId336"/>
+    <hyperlink ref="B366" r:id="rId337"/>
+    <hyperlink ref="B367" r:id="rId338"/>
+    <hyperlink ref="B368" r:id="rId339"/>
+    <hyperlink ref="B369" r:id="rId340"/>
+    <hyperlink ref="B370" r:id="rId341"/>
+    <hyperlink ref="B371" r:id="rId342"/>
+    <hyperlink ref="B372" r:id="rId343"/>
+    <hyperlink ref="B373" r:id="rId344"/>
+    <hyperlink ref="B374" r:id="rId345"/>
+    <hyperlink ref="B375" r:id="rId346"/>
+    <hyperlink ref="B376" r:id="rId347"/>
+    <hyperlink ref="B377" r:id="rId348"/>
+    <hyperlink ref="B378" r:id="rId349"/>
+    <hyperlink ref="B379" r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
+    <hyperlink ref="B380" r:id="rId351"/>
+    <hyperlink ref="B381" r:id="rId352"/>
+    <hyperlink ref="B382" r:id="rId353"/>
+    <hyperlink ref="B383" r:id="rId354"/>
+    <hyperlink ref="B384" r:id="rId355"/>
+    <hyperlink ref="B385" r:id="rId356"/>
+    <hyperlink ref="B386" r:id="rId357"/>
+    <hyperlink ref="B387" r:id="rId358"/>
+    <hyperlink ref="B388" r:id="rId359"/>
+    <hyperlink ref="B389" r:id="rId360"/>
+    <hyperlink ref="B390" r:id="rId361"/>
+    <hyperlink ref="B391" r:id="rId362"/>
+    <hyperlink ref="B392" r:id="rId363"/>
+    <hyperlink ref="B393" r:id="rId364"/>
+    <hyperlink ref="B394" r:id="rId365"/>
+    <hyperlink ref="B395" r:id="rId366"/>
+    <hyperlink ref="B396" r:id="rId367"/>
+    <hyperlink ref="B397" r:id="rId368"/>
+    <hyperlink ref="B398" r:id="rId369"/>
+    <hyperlink ref="B399" r:id="rId370"/>
+    <hyperlink ref="B402" r:id="rId371"/>
+    <hyperlink ref="B403" r:id="rId372"/>
+    <hyperlink ref="B404" r:id="rId373"/>
+    <hyperlink ref="B405" r:id="rId374"/>
+    <hyperlink ref="B406" r:id="rId375"/>
+    <hyperlink ref="B407" r:id="rId376"/>
+    <hyperlink ref="B410" r:id="rId377"/>
+    <hyperlink ref="B411" r:id="rId378"/>
+    <hyperlink ref="B412" r:id="rId379"/>
+    <hyperlink ref="B413" r:id="rId380"/>
+    <hyperlink ref="B414" r:id="rId381"/>
+    <hyperlink ref="B415" r:id="rId382"/>
+    <hyperlink ref="B416" r:id="rId383"/>
+    <hyperlink ref="B417" r:id="rId384"/>
+    <hyperlink ref="B418" r:id="rId385"/>
+    <hyperlink ref="B419" r:id="rId386"/>
+    <hyperlink ref="B420" r:id="rId387"/>
+    <hyperlink ref="B421" r:id="rId388"/>
+    <hyperlink ref="B422" r:id="rId389"/>
+    <hyperlink ref="B423" r:id="rId390"/>
+    <hyperlink ref="B424" r:id="rId391"/>
+    <hyperlink ref="B425" r:id="rId392"/>
+    <hyperlink ref="B426" r:id="rId393"/>
+    <hyperlink ref="B427" r:id="rId394"/>
+    <hyperlink ref="B428" r:id="rId395"/>
+    <hyperlink ref="B429" r:id="rId396"/>
+    <hyperlink ref="B430" r:id="rId397"/>
+    <hyperlink ref="B431" r:id="rId398"/>
+    <hyperlink ref="B432" r:id="rId399"/>
+    <hyperlink ref="B433" r:id="rId400"/>
+    <hyperlink ref="B434" r:id="rId401"/>
+    <hyperlink ref="B435" r:id="rId402"/>
+    <hyperlink ref="B436" r:id="rId403"/>
+    <hyperlink ref="B437" r:id="rId404"/>
+    <hyperlink ref="B438" r:id="rId405"/>
+    <hyperlink ref="B439" r:id="rId406"/>
+    <hyperlink ref="B440" r:id="rId407"/>
+    <hyperlink ref="B441" r:id="rId408"/>
+    <hyperlink ref="B442" r:id="rId409"/>
+    <hyperlink ref="B443" r:id="rId410"/>
+    <hyperlink ref="B444" r:id="rId411"/>
+    <hyperlink ref="B445" r:id="rId412"/>
+    <hyperlink ref="B446" r:id="rId413"/>
+    <hyperlink ref="B447" r:id="rId414"/>
+    <hyperlink ref="B448" r:id="rId415"/>
+    <hyperlink ref="B449" r:id="rId416"/>
+    <hyperlink ref="B450" r:id="rId417"/>
+    <hyperlink ref="B451" r:id="rId418"/>
+    <hyperlink ref="B452" r:id="rId419"/>
+    <hyperlink ref="B453" r:id="rId420"/>
+    <hyperlink ref="B454" r:id="rId421"/>
+    <hyperlink ref="B455" r:id="rId422"/>
+    <hyperlink ref="B456" r:id="rId423"/>
+    <hyperlink ref="B457" r:id="rId424"/>
+    <hyperlink ref="B458" r:id="rId425"/>
+    <hyperlink ref="B459" r:id="rId426"/>
+    <hyperlink ref="B460" r:id="rId427"/>
+    <hyperlink ref="B461" r:id="rId428"/>
+    <hyperlink ref="B462" r:id="rId429"/>
+    <hyperlink ref="B463" r:id="rId430"/>
+    <hyperlink ref="B464" r:id="rId431"/>
+    <hyperlink ref="B465" r:id="rId432"/>
+    <hyperlink ref="B466" r:id="rId433"/>
+    <hyperlink ref="B467" r:id="rId434"/>
+    <hyperlink ref="B468" r:id="rId435"/>
+    <hyperlink ref="B469" r:id="rId436"/>
+    <hyperlink ref="B472" r:id="rId437"/>
+    <hyperlink ref="B473" r:id="rId438"/>
+    <hyperlink ref="B474" r:id="rId439"/>
+    <hyperlink ref="B475" r:id="rId440"/>
+    <hyperlink ref="B476" r:id="rId441"/>
+    <hyperlink ref="B477" r:id="rId442"/>
+    <hyperlink ref="B478" r:id="rId443"/>
+    <hyperlink ref="B479" r:id="rId444"/>
+    <hyperlink ref="B480" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
+    <hyperlink ref="B481" r:id="rId446"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId447"/>
 </worksheet>
 </file>
--- a/java/resources/FINAL450.xlsx
+++ b/java/resources/FINAL450.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="474">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1440,6 +1440,12 @@
   </si>
   <si>
     <t>Power Set</t>
+  </si>
+  <si>
+    <t>Stack or Two Pointers</t>
+  </si>
+  <si>
+    <t>Recursion ??</t>
   </si>
 </sst>
 </file>
@@ -1502,7 +1508,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1545,6 +1551,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1559,7 +1571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1625,6 +1637,16 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1977,8 +1999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B294" sqref="B294"/>
+    <sheetView tabSelected="1" topLeftCell="A298" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A305" sqref="A305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
@@ -5192,106 +5214,112 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="21">
-      <c r="A305" s="12" t="s">
+    <row r="305" spans="1:4" ht="21">
+      <c r="A305" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="B305" s="13" t="s">
+      <c r="B305" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="C305" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" ht="21">
-      <c r="A306" s="12" t="s">
+      <c r="C305" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D305" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="21">
+      <c r="A306" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="B306" s="13" t="s">
+      <c r="B306" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="C306" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" ht="21">
-      <c r="A307" s="12" t="s">
+      <c r="C306" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="21">
+      <c r="A307" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="B307" s="13" t="s">
+      <c r="B307" s="28" t="s">
         <v>305</v>
       </c>
-      <c r="C307" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" ht="21">
-      <c r="A308" s="12" t="s">
+      <c r="C307" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="21">
+      <c r="A308" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="B308" s="13" t="s">
+      <c r="B308" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="C308" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" ht="21">
-      <c r="A309" s="12" t="s">
+      <c r="C308" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D308" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="21">
+      <c r="A309" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="B309" s="26" t="s">
+      <c r="B309" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="C309" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" ht="21">
-      <c r="A310" s="12" t="s">
+      <c r="C309" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="21">
+      <c r="A310" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="B310" s="13" t="s">
+      <c r="B310" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="C310" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" ht="21">
-      <c r="A311" s="12" t="s">
+      <c r="C310" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" ht="21">
+      <c r="A311" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="B311" s="13" t="s">
+      <c r="B311" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="C311" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" ht="21">
-      <c r="A312" s="12" t="s">
+      <c r="C311" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="21">
+      <c r="A312" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="B312" s="13" t="s">
+      <c r="B312" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="C312" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" ht="21">
-      <c r="A313" s="12" t="s">
+      <c r="C312" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" ht="21">
+      <c r="A313" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="B313" s="13" t="s">
+      <c r="B313" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="C313" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" ht="21">
+      <c r="C313" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="21">
       <c r="A314" s="12" t="s">
         <v>293</v>
       </c>
@@ -5302,7 +5330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="21">
+    <row r="315" spans="1:4" ht="21">
       <c r="A315" s="12" t="s">
         <v>293</v>
       </c>
@@ -5313,7 +5341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="21">
+    <row r="316" spans="1:4" ht="21">
       <c r="A316" s="12" t="s">
         <v>293</v>
       </c>
@@ -5324,7 +5352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="21">
+    <row r="317" spans="1:4" ht="21">
       <c r="A317" s="12" t="s">
         <v>293</v>
       </c>
@@ -5335,7 +5363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="21">
+    <row r="318" spans="1:4" ht="21">
       <c r="A318" s="12" t="s">
         <v>293</v>
       </c>
@@ -5346,7 +5374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="21">
+    <row r="319" spans="1:4" ht="21">
       <c r="A319" s="12" t="s">
         <v>293</v>
       </c>
@@ -5357,7 +5385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="21">
+    <row r="320" spans="1:4" ht="21">
       <c r="A320" s="12" t="s">
         <v>293</v>
       </c>

--- a/java/resources/FINAL450.xlsx
+++ b/java/resources/FINAL450.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\D_Drive\CrackingTheCodingInterview\java\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,15 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="474">
-  <si>
-    <t>Questions by Love Babbar:</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="477">
+  <si>
+    <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
   <si>
     <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
   </si>
   <si>
-    <t>Topic:</t>
+    <t xml:space="preserve">Topic:</t>
   </si>
   <si>
     <t xml:space="preserve">Problem: </t>
@@ -41,871 +37,871 @@
     <t xml:space="preserve">Done [yes or no] </t>
   </si>
   <si>
-    <t>&lt;-&gt;</t>
-  </si>
-  <si>
-    <t>Array</t>
-  </si>
-  <si>
-    <t>Reverse the array</t>
-  </si>
-  <si>
-    <t>Find the maximum and minimum element in an array</t>
+    <t xml:space="preserve">&lt;-&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse the array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the maximum and minimum element in an array</t>
   </si>
   <si>
     <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
   </si>
   <si>
-    <t>Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
+    <t xml:space="preserve">Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
   </si>
   <si>
     <t xml:space="preserve">Move all the negative elements to one side of the array </t>
   </si>
   <si>
-    <t>Find the Union and Intersection of the two sorted arrays.</t>
-  </si>
-  <si>
-    <t>Write a program to cyclically rotate an array by one.</t>
-  </si>
-  <si>
-    <t>find Largest sum contiguous Subarray [V. IMP]</t>
-  </si>
-  <si>
-    <t>Minimise the maximum difference between heights [V.IMP]</t>
-  </si>
-  <si>
-    <t>Minimum no. of Jumps to reach end of an array</t>
-  </si>
-  <si>
-    <t>find duplicate in an array of N+1 Integers</t>
-  </si>
-  <si>
-    <t>Merge 2 sorted arrays without using Extra space.</t>
-  </si>
-  <si>
-    <t>Kadane's Algo [V.V.V.V.V IMP]</t>
-  </si>
-  <si>
-    <t>Merge Intervals</t>
-  </si>
-  <si>
-    <t>Next Permutation</t>
-  </si>
-  <si>
-    <t>Count Inversion</t>
-  </si>
-  <si>
-    <t>Best time to buy and Sell stock</t>
-  </si>
-  <si>
-    <t>find all pairs on integer array whose sum is equal to given number</t>
-  </si>
-  <si>
-    <t>find common elements In 3 sorted arrays</t>
-  </si>
-  <si>
-    <t>Rearrange the array in alternating positive and negative items with O(1) extra space</t>
-  </si>
-  <si>
-    <t>Find if there is any subarray with sum equal to 0</t>
-  </si>
-  <si>
-    <t>Find factorial of a large number</t>
+    <t xml:space="preserve">Find the Union and Intersection of the two sorted arrays.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a program to cyclically rotate an array by one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find Largest sum contiguous Subarray [V. IMP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimise the maximum difference between heights [V.IMP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum no. of Jumps to reach end of an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find duplicate in an array of N+1 Integers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge 2 sorted arrays without using Extra space.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kadane's Algo [V.V.V.V.V IMP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge Intervals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next Permutation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count Inversion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best time to buy and Sell stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find all pairs on integer array whose sum is equal to given number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find common elements In 3 sorted arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rearrange the array in alternating positive and negative items with O(1) extra space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find if there is any subarray with sum equal to 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find factorial of a large number</t>
   </si>
   <si>
     <t xml:space="preserve">find maximum product subarray </t>
   </si>
   <si>
-    <t>Find longest coinsecutive subsequence</t>
-  </si>
-  <si>
-    <t>Given an array of size n and a number k, fin all elements that appear more than " n/k " times.</t>
-  </si>
-  <si>
-    <t>Maximum profit by buying and selling a share atmost twice</t>
-  </si>
-  <si>
-    <t>Find whether an array is a subset of another array</t>
-  </si>
-  <si>
-    <t>Find the triplet that sum to a given value</t>
-  </si>
-  <si>
-    <t>Trapping Rain water problem</t>
-  </si>
-  <si>
-    <t>Chocolate Distribution problem</t>
-  </si>
-  <si>
-    <t>Smallest Subarray with sum greater than a given value</t>
-  </si>
-  <si>
-    <t>Three way partitioning of an array around a given value</t>
-  </si>
-  <si>
-    <t>Minimum swaps required bring elements less equal K together</t>
-  </si>
-  <si>
-    <t>Minimum no. of operations required to make an array palindrome</t>
-  </si>
-  <si>
-    <t>Median of 2 sorted arrays of equal size</t>
-  </si>
-  <si>
-    <t>Median of 2 sorted arrays of different size</t>
-  </si>
-  <si>
-    <t>Matrix</t>
-  </si>
-  <si>
-    <t>Spiral traversal on a Matrix</t>
-  </si>
-  <si>
-    <t>Search an element in a matriix</t>
-  </si>
-  <si>
-    <t>Find median in a row wise sorted matrix</t>
-  </si>
-  <si>
-    <t>Find row with maximum no. of 1's</t>
-  </si>
-  <si>
-    <t>Print elements in sorted order using row-column wise sorted matrix</t>
-  </si>
-  <si>
-    <t>Maximum size rectangle</t>
-  </si>
-  <si>
-    <t>Find a specific pair in matrix</t>
-  </si>
-  <si>
-    <t>Rotate matrix by 90 degrees</t>
-  </si>
-  <si>
-    <t>Kth smallest element in a row-cpumn wise sorted matrix</t>
-  </si>
-  <si>
-    <t>Common elements in all rows of a given matrix</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>Reverse a String</t>
-  </si>
-  <si>
-    <t>Check whether a String is Palindrome or not</t>
-  </si>
-  <si>
-    <t>Find Duplicate characters in a string</t>
-  </si>
-  <si>
-    <t>Why strings are immutable in Java?</t>
-  </si>
-  <si>
-    <t>Write a Code to check whether one string is a rotation of another</t>
-  </si>
-  <si>
-    <t>Write a Program to check whether a string is a valid shuffle of two strings or not</t>
-  </si>
-  <si>
-    <t>Count and Say problem</t>
-  </si>
-  <si>
-    <t>Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]</t>
-  </si>
-  <si>
-    <t>Find Longest Recurring Subsequence in String</t>
-  </si>
-  <si>
-    <t>Print all Subsequences of a string.</t>
-  </si>
-  <si>
-    <t>Print all the permutations of the given string</t>
-  </si>
-  <si>
-    <t>Split the Binary string into two substring with equal 0’s and 1’s</t>
-  </si>
-  <si>
-    <t>Word Wrap Problem [VERY IMP].</t>
-  </si>
-  <si>
-    <t>EDIT Distance [Very Imp]</t>
-  </si>
-  <si>
-    <t>Find next greater number with same set of digits. [Very Very IMP]</t>
-  </si>
-  <si>
-    <t>Balanced Parenthesis problem.[Imp]</t>
-  </si>
-  <si>
-    <t>Word break Problem[ Very Imp]</t>
-  </si>
-  <si>
-    <t>Rabin Karp Algo</t>
-  </si>
-  <si>
-    <t>KMP Algo</t>
-  </si>
-  <si>
-    <t>Convert a Sentence into its equivalent mobile numeric keypad sequence.</t>
-  </si>
-  <si>
-    <t>Minimum number of bracket reversals needed to make an expression balanced.</t>
-  </si>
-  <si>
-    <t>Count All Palindromic Subsequence in a given String.</t>
-  </si>
-  <si>
-    <t>Count of number of given string in 2D character array</t>
-  </si>
-  <si>
-    <t>Search a Word in a 2D Grid of characters.</t>
-  </si>
-  <si>
-    <t>Boyer Moore Algorithm for Pattern Searching.</t>
-  </si>
-  <si>
-    <t>Converting Roman Numerals to Decimal</t>
-  </si>
-  <si>
-    <t>Longest Common Prefix</t>
-  </si>
-  <si>
-    <t>Number of flips to make binary string alternate</t>
-  </si>
-  <si>
-    <t>Find the first repeated word in string.</t>
-  </si>
-  <si>
-    <t>Minimum number of swaps for bracket balancing.</t>
-  </si>
-  <si>
-    <t>Find the longest common subsequence between two strings.</t>
-  </si>
-  <si>
-    <t>Program to generate all possible valid IP addresses from given  string.</t>
-  </si>
-  <si>
-    <t>Write a program tofind the smallest window that contains all characters of string itself.</t>
-  </si>
-  <si>
-    <t>Rearrange characters in a string such that no two adjacent are same</t>
-  </si>
-  <si>
-    <t>Minimum characters to be added at front to make string palindrome</t>
-  </si>
-  <si>
-    <t>Given a sequence of words, print all anagrams together</t>
-  </si>
-  <si>
-    <t>Find the smallest window in a string containing all characters of another string</t>
-  </si>
-  <si>
-    <t>Recursively remove all adjacent duplicates</t>
-  </si>
-  <si>
-    <t>String matching where one string contains wildcard characters</t>
-  </si>
-  <si>
-    <t>Function to find Number of customers who could not get a computer</t>
-  </si>
-  <si>
-    <t>Transform One String to Another using Minimum Number of Given Operation</t>
-  </si>
-  <si>
-    <t>Check if two given strings are isomorphic to each other</t>
-  </si>
-  <si>
-    <t>Recursively print all sentences that can be formed from list of word lists</t>
-  </si>
-  <si>
-    <t>Searching &amp; Sorting</t>
-  </si>
-  <si>
-    <t>Find first and last positions of an element in a sorted array</t>
-  </si>
-  <si>
-    <t>Find a Fixed Point (Value equal to index) in a given array</t>
-  </si>
-  <si>
-    <t>Search in a rotated sorted array</t>
-  </si>
-  <si>
-    <t>square root of an integer</t>
-  </si>
-  <si>
-    <t>Maximum and minimum of an array using minimum number of comparisons</t>
-  </si>
-  <si>
-    <t>Optimum location of point to minimize total distance</t>
-  </si>
-  <si>
-    <t>Find the repeating and the missing</t>
-  </si>
-  <si>
-    <t>find majority element</t>
-  </si>
-  <si>
-    <t>Searching in an array where adjacent differ by at most k</t>
-  </si>
-  <si>
-    <t>find a pair with a given difference</t>
-  </si>
-  <si>
-    <t>find four elements that sum to a given value</t>
-  </si>
-  <si>
-    <t>maximum sum such that no 2 elements are adjacent</t>
-  </si>
-  <si>
-    <t>Count triplet with sum smaller than a given value</t>
-  </si>
-  <si>
-    <t>merge 2 sorted arrays</t>
-  </si>
-  <si>
-    <t>print all subarrays with 0 sum</t>
-  </si>
-  <si>
-    <t>Prefix Sum</t>
-  </si>
-  <si>
-    <t>Product array Puzzle</t>
-  </si>
-  <si>
-    <t>Sort array according to count of set bits</t>
-  </si>
-  <si>
-    <t>minimum no. of swaps required to sort the array</t>
-  </si>
-  <si>
-    <t>Bishu and Soldiers</t>
-  </si>
-  <si>
-    <t>Rasta and Kheshtak</t>
-  </si>
-  <si>
-    <t>Kth smallest number again</t>
-  </si>
-  <si>
-    <t>Find pivot element in a sorted array</t>
-  </si>
-  <si>
-    <t>K-th Element of Two Sorted Arrays</t>
-  </si>
-  <si>
-    <t>Aggressive cows</t>
-  </si>
-  <si>
-    <t>Book Allocation Problem</t>
-  </si>
-  <si>
-    <t>EKOSPOJ:</t>
-  </si>
-  <si>
-    <t>Job Scheduling Algo</t>
-  </si>
-  <si>
-    <t>Missing Number in AP</t>
-  </si>
-  <si>
-    <t>Smallest number with atleastn trailing zeroes infactorial</t>
-  </si>
-  <si>
-    <t>Painters Partition Problem:</t>
-  </si>
-  <si>
-    <t>ROTI-Prata SPOJ</t>
-  </si>
-  <si>
-    <t>DoubleHelix SPOJ</t>
-  </si>
-  <si>
-    <t>Subset Sums</t>
-  </si>
-  <si>
-    <t>Findthe inversion count</t>
-  </si>
-  <si>
-    <t>Implement Merge-sort in-place</t>
-  </si>
-  <si>
-    <t>Partitioning and Sorting Arrays with Many Repeated Entries</t>
-  </si>
-  <si>
-    <t>LinkedList</t>
-  </si>
-  <si>
-    <t>Write a Program to reverse the Linked List. (Both Iterative and recursive)</t>
-  </si>
-  <si>
-    <t>Reverse a Linked List in group of Given Size. [Very Imp]</t>
-  </si>
-  <si>
-    <t>Write a program to Detect loop in a linked list.</t>
-  </si>
-  <si>
-    <t>Write a program to Delete loop in a linked list.</t>
-  </si>
-  <si>
-    <t>Find the starting point of the loop. </t>
-  </si>
-  <si>
-    <t>Remove Duplicates in a sorted Linked List.</t>
-  </si>
-  <si>
-    <t>Remove Duplicates in a Un-sorted Linked List.</t>
-  </si>
-  <si>
-    <t>Write a Program to Move the last element to Front in a Linked List.</t>
-  </si>
-  <si>
-    <t>Add “1” to a number represented as a Linked List.</t>
-  </si>
-  <si>
-    <t>Add two numbers represented by linked lists.</t>
-  </si>
-  <si>
-    <t>Intersection of two Sorted Linked List.</t>
-  </si>
-  <si>
-    <t>Intersection Point of two Linked Lists.</t>
-  </si>
-  <si>
-    <t>Merge Sort For Linked lists.[Very Important]</t>
-  </si>
-  <si>
-    <t>Quicksort for Linked Lists.[Very Important]</t>
-  </si>
-  <si>
-    <t>Find the middle Element of a linked list.</t>
-  </si>
-  <si>
-    <t>Check if a linked list is a circular linked list.</t>
-  </si>
-  <si>
-    <t>Split a Circular linked list into two halves.</t>
-  </si>
-  <si>
-    <t>Write a Program to check whether the Singly Linked list is a palindrome or not.</t>
-  </si>
-  <si>
-    <t>Deletion from a Circular Linked List.</t>
-  </si>
-  <si>
-    <t>Reverse a Doubly Linked list.</t>
-  </si>
-  <si>
-    <t>Find pairs with a given sum in a DLL.</t>
-  </si>
-  <si>
-    <t>Count triplets in a sorted DLL whose sum is equal to given value “X”.</t>
-  </si>
-  <si>
-    <t>Sort a “k”sorted Doubly Linked list.[Very IMP]</t>
-  </si>
-  <si>
-    <t>Rotate DoublyLinked list by N nodes.</t>
-  </si>
-  <si>
-    <t>Rotate a Doubly Linked list in group of Given Size.[Very IMP]</t>
-  </si>
-  <si>
-    <t>Can we reverse a linked list in less than O(n) ?</t>
-  </si>
-  <si>
-    <t>Why Quicksort is preferred for. Arrays and Merge Sort for LinkedLists ?</t>
-  </si>
-  <si>
-    <t>Flatten a Linked List</t>
-  </si>
-  <si>
-    <t>Sort a LL of 0's, 1's and 2's</t>
-  </si>
-  <si>
-    <t>Clone a linked list with next and random pointer</t>
-  </si>
-  <si>
-    <t>Merge K sorted Linked list</t>
-  </si>
-  <si>
-    <t>Multiply 2 no. represented by LL</t>
-  </si>
-  <si>
-    <t>Delete nodes which have a greater value on right side</t>
-  </si>
-  <si>
-    <t>Segregate even and odd nodes in a Linked List</t>
-  </si>
-  <si>
-    <t>Program for n’th node from the end of a Linked List</t>
-  </si>
-  <si>
-    <t>Single Traversal ??</t>
-  </si>
-  <si>
-    <t>Find the first non-repeating character from a stream of characters</t>
-  </si>
-  <si>
-    <t>Binary Trees</t>
-  </si>
-  <si>
-    <t>level order traversal</t>
-  </si>
-  <si>
-    <t>Reverse Level Order traversal</t>
-  </si>
-  <si>
-    <t>Height of a tree</t>
-  </si>
-  <si>
-    <t>Diameter of a tree</t>
-  </si>
-  <si>
-    <t>Mirror of a tree</t>
-  </si>
-  <si>
-    <t>Inorder Traversal of a tree both using recursion and Iteration</t>
-  </si>
-  <si>
-    <t>Preorder Traversal of a tree both using recursion and Iteration</t>
-  </si>
-  <si>
-    <t>Postorder Traversal of a tree both using recursion and Iteration</t>
-  </si>
-  <si>
-    <t>Left View of a tree</t>
-  </si>
-  <si>
-    <t>Right View of Tree</t>
-  </si>
-  <si>
-    <t>Top View of a tree</t>
-  </si>
-  <si>
-    <t>Bottom View of a tree</t>
-  </si>
-  <si>
-    <t>Zig-Zag traversal of a binary tree</t>
-  </si>
-  <si>
-    <t>Check if a tree is balanced or not</t>
-  </si>
-  <si>
-    <t>Diagnol Traversal of a Binary tree</t>
-  </si>
-  <si>
-    <t>Boundary traversal of a Binary tree</t>
-  </si>
-  <si>
-    <t>Construct Binary Tree from String with Bracket Representation</t>
-  </si>
-  <si>
-    <t>Convert Binary tree into Doubly Linked List</t>
-  </si>
-  <si>
-    <t>Convert Binary tree into Sum tree</t>
-  </si>
-  <si>
-    <t>Construct Binary tree from Inorder and preorder traversal</t>
-  </si>
-  <si>
-    <t>Find minimum swaps required to convert a Binary tree into BST</t>
-  </si>
-  <si>
-    <t>Check if Binary tree is Sum tree or not</t>
-  </si>
-  <si>
-    <t>Check if all leaf nodes are at same level or not</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]</t>
-  </si>
-  <si>
-    <t>Check if 2 trees are mirror or not</t>
+    <t xml:space="preserve">Find longest coinsecutive subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given an array of size n and a number k, fin all elements that appear more than " n/k " times.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum profit by buying and selling a share atmost twice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find whether an array is a subset of another array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the triplet that sum to a given value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trapping Rain water problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chocolate Distribution problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smallest Subarray with sum greater than a given value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Three way partitioning of an array around a given value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum swaps required bring elements less equal K together</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum no. of operations required to make an array palindrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median of 2 sorted arrays of equal size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median of 2 sorted arrays of different size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spiral traversal on a Matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search an element in a matriix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find median in a row wise sorted matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find row with maximum no. of 1's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print elements in sorted order using row-column wise sorted matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum size rectangle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find a specific pair in matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotate matrix by 90 degrees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kth smallest element in a row-cpumn wise sorted matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common elements in all rows of a given matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse a String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check whether a String is Palindrome or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Duplicate characters in a string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why strings are immutable in Java?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a Code to check whether one string is a rotation of another</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a Program to check whether a string is a valid shuffle of two strings or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count and Say problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Longest Recurring Subsequence in String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print all Subsequences of a string.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print all the permutations of the given string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Split the Binary string into two substring with equal 0’s and 1’s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word Wrap Problem [VERY IMP].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDIT Distance [Very Imp]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find next greater number with same set of digits. [Very Very IMP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balanced Parenthesis problem.[Imp]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word break Problem[ Very Imp]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rabin Karp Algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KMP Algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert a Sentence into its equivalent mobile numeric keypad sequence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum number of bracket reversals needed to make an expression balanced.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count All Palindromic Subsequence in a given String.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of number of given string in 2D character array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search a Word in a 2D Grid of characters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boyer Moore Algorithm for Pattern Searching.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Converting Roman Numerals to Decimal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Common Prefix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of flips to make binary string alternate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the first repeated word in string.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum number of swaps for bracket balancing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the longest common subsequence between two strings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program to generate all possible valid IP addresses from given  string.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a program tofind the smallest window that contains all characters of string itself.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rearrange characters in a string such that no two adjacent are same</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum characters to be added at front to make string palindrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given a sequence of words, print all anagrams together</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the smallest window in a string containing all characters of another string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recursively remove all adjacent duplicates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String matching where one string contains wildcard characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Function to find Number of customers who could not get a computer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transform One String to Another using Minimum Number of Given Operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if two given strings are isomorphic to each other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recursively print all sentences that can be formed from list of word lists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Searching &amp; Sorting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find first and last positions of an element in a sorted array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find a Fixed Point (Value equal to index) in a given array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search in a rotated sorted array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">square root of an integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum and minimum of an array using minimum number of comparisons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimum location of point to minimize total distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the repeating and the missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find majority element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Searching in an array where adjacent differ by at most k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find a pair with a given difference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find four elements that sum to a given value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maximum sum such that no 2 elements are adjacent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count triplet with sum smaller than a given value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merge 2 sorted arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">print all subarrays with 0 sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prefix Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product array Puzzle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort array according to count of set bits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimum no. of swaps required to sort the array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bishu and Soldiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rasta and Kheshtak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kth smallest number again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find pivot element in a sorted array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K-th Element of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggressive cows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Book Allocation Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EKOSPOJ:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job Scheduling Algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing Number in AP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smallest number with atleastn trailing zeroes infactorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Painters Partition Problem:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROTI-Prata SPOJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DoubleHelix SPOJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subset Sums</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Findthe inversion count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Merge-sort in-place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partitioning and Sorting Arrays with Many Repeated Entries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LinkedList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a Program to reverse the Linked List. (Both Iterative and recursive)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse a Linked List in group of Given Size. [Very Imp]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a program to Detect loop in a linked list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a program to Delete loop in a linked list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the starting point of the loop. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove Duplicates in a sorted Linked List.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove Duplicates in a Un-sorted Linked List.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a Program to Move the last element to Front in a Linked List.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add “1” to a number represented as a Linked List.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add two numbers represented by linked lists.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intersection of two Sorted Linked List.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intersection Point of two Linked Lists.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge Sort For Linked lists.[Very Important]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quicksort for Linked Lists.[Very Important]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the middle Element of a linked list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if a linked list is a circular linked list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Split a Circular linked list into two halves.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a Program to check whether the Singly Linked list is a palindrome or not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deletion from a Circular Linked List.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse a Doubly Linked list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find pairs with a given sum in a DLL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count triplets in a sorted DLL whose sum is equal to given value “X”.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort a “k”sorted Doubly Linked list.[Very IMP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotate DoublyLinked list by N nodes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotate a Doubly Linked list in group of Given Size.[Very IMP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can we reverse a linked list in less than O(n) ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why Quicksort is preferred for. Arrays and Merge Sort for LinkedLists ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flatten a Linked List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort a LL of 0's, 1's and 2's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clone a linked list with next and random pointer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge K sorted Linked list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiply 2 no. represented by LL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete nodes which have a greater value on right side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segregate even and odd nodes in a Linked List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program for n’th node from the end of a Linked List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Traversal ??</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the first non-repeating character from a stream of characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level order traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse Level Order traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Height of a tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diameter of a tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirror of a tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inorder Traversal of a tree both using recursion and Iteration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preorder Traversal of a tree both using recursion and Iteration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postorder Traversal of a tree both using recursion and Iteration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left View of a tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right View of Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top View of a tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bottom View of a tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zig-Zag traversal of a binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if a tree is balanced or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagnol Traversal of a Binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boundary traversal of a Binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construct Binary Tree from String with Bracket Representation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert Binary tree into Doubly Linked List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert Binary tree into Sum tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construct Binary tree from Inorder and preorder traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find minimum swaps required to convert a Binary tree into BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if Binary tree is Sum tree or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if all leaf nodes are at same level or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if 2 trees are mirror or not</t>
   </si>
   <si>
     <t xml:space="preserve">Sum of Nodes on the Longest path from root to leaf node </t>
   </si>
   <si>
-    <t>Check if given graph is tree or not.  [ IMP ]</t>
-  </si>
-  <si>
-    <t>Find Largest subtree sum in a tree</t>
+    <t xml:space="preserve">Check if given graph is tree or not.  [ IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Largest subtree sum in a tree</t>
   </si>
   <si>
     <t xml:space="preserve">Maximum Sum of nodes in Binary tree such that no two are adjacent </t>
   </si>
   <si>
-    <t>Print all "K" Sum paths in a Binary tree</t>
-  </si>
-  <si>
-    <t>Find LCA in a Binary tree</t>
-  </si>
-  <si>
-    <t>Find distance between 2 nodes in a Binary tree</t>
-  </si>
-  <si>
-    <t>Kth Ancestor of node in a Binary tree</t>
-  </si>
-  <si>
-    <t>Find all Duplicate subtrees in a Binary tree [ IMP ]</t>
-  </si>
-  <si>
-    <t>Tree Isomorphism Problem</t>
-  </si>
-  <si>
-    <t>Binary Search Trees</t>
-  </si>
-  <si>
-    <t>Fina a value in a BST</t>
-  </si>
-  <si>
-    <t>Deletion of a node in a BST</t>
-  </si>
-  <si>
-    <t>Go to the node that needs to be deleted and check if left is null then return right, if right is null return left, else find min value in the right side of the curr Node and replace current node’s value with min and perform the delete operation on the min valued node on the right side of the curr node.</t>
-  </si>
-  <si>
-    <t>Find min and max value in a BST</t>
-  </si>
-  <si>
-    <t>Find inorder successor and inorder predecessor in a BST</t>
+    <t xml:space="preserve">Print all "K" Sum paths in a Binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find LCA in a Binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find distance between 2 nodes in a Binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kth Ancestor of node in a Binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find all Duplicate subtrees in a Binary tree [ IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tree Isomorphism Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Search Trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fina a value in a BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deletion of a node in a BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go to the node that needs to be deleted and check if left is null then return right, if right is null return left, else find min value in the right side of the curr Node and replace current node’s value with min and perform the delete operation on the min valued node on the right side of the curr node.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find min and max value in a BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find inorder successor and inorder predecessor in a BST</t>
   </si>
   <si>
     <t xml:space="preserve">Check if a tree is a BST or not </t>
   </si>
   <si>
-    <t>Populate Inorder successor of all nodes</t>
-  </si>
-  <si>
-    <t>Reverse InOrder traversal with prevTemp node</t>
-  </si>
-  <si>
-    <t>Find LCA  of 2 nodes in a BST</t>
-  </si>
-  <si>
-    <t>Construct BST from preorder traversal</t>
-  </si>
-  <si>
-    <t>Convert Binary tree into BST</t>
-  </si>
-  <si>
-    <t>Store inOrder traversal of BT, then sort it and again do inorder traversal and populate values in the nodes using data of sorted array.</t>
-  </si>
-  <si>
-    <t>Convert a normal BST into a Balanced BST</t>
-  </si>
-  <si>
-    <t>Merge two BST [ V.V.V&gt;IMP ]</t>
-  </si>
-  <si>
-    <t>Find Kth largest element in a BST</t>
-  </si>
-  <si>
-    <t>Try to do it in constant space</t>
-  </si>
-  <si>
-    <t>Find Kth smallest element in a BST</t>
-  </si>
-  <si>
-    <t>Count pairs from 2 BST whose sum is equal to given value "X"</t>
-  </si>
-  <si>
-    <t>Find the median of BST in O(n) time and O(1) space</t>
-  </si>
-  <si>
-    <t>Count BST ndoes that lie in a given range</t>
-  </si>
-  <si>
-    <t>Replace every element with the least greater element on its right</t>
-  </si>
-  <si>
-    <t>Given "n" appointments, find the conflicting appointments</t>
-  </si>
-  <si>
-    <t>Check preorder is valid or not</t>
-  </si>
-  <si>
-    <t>Check whether BST contains Dead end</t>
-  </si>
-  <si>
-    <t>Largest BST in a Binary Tree [ V.V.V.V.V IMP ]</t>
-  </si>
-  <si>
-    <t>Flatten BST to sorted list</t>
-  </si>
-  <si>
-    <t>Greedy</t>
-  </si>
-  <si>
-    <t>Activity Selection Problem</t>
-  </si>
-  <si>
-    <t>Job SequencingProblem</t>
-  </si>
-  <si>
-    <t>Huffman Coding</t>
-  </si>
-  <si>
-    <t>Water Connection Problem</t>
-  </si>
-  <si>
-    <t>Fractional Knapsack Problem</t>
-  </si>
-  <si>
-    <t>Greedy Algorithm to find Minimum number of Coins</t>
-  </si>
-  <si>
-    <t>Maximum trains for which stoppage can be provided</t>
-  </si>
-  <si>
-    <t>Minimum Platforms Problem</t>
-  </si>
-  <si>
-    <t>Buy Maximum Stocks if i stocks can be bought on i-th day</t>
-  </si>
-  <si>
-    <t>Find the minimum and maximum amount to buy all N candies</t>
-  </si>
-  <si>
-    <t>Minimize Cash Flow among a given set of friends who have borrowed money from each other</t>
-  </si>
-  <si>
-    <t>Minimum Cost to cut a board into squares</t>
-  </si>
-  <si>
-    <t>Check if it is possible to survive on Island</t>
-  </si>
-  <si>
-    <t>Find maximum meetings in one room</t>
-  </si>
-  <si>
-    <t>Maximum product subset of an array</t>
-  </si>
-  <si>
-    <t>Maximize array sum after K negations</t>
-  </si>
-  <si>
-    <t>Maximize the sum of arr[i]*i</t>
-  </si>
-  <si>
-    <t>Maximum sum of absolute difference of an array</t>
-  </si>
-  <si>
-    <t>Maximize sum of consecutive differences in a circular array</t>
-  </si>
-  <si>
-    <t>Minimum sum of absolute difference of pairs of two arrays</t>
-  </si>
-  <si>
-    <t>Program for Shortest Job First (or SJF) CPU Scheduling</t>
-  </si>
-  <si>
-    <t>Program for Least Recently Used (LRU) Page Replacement algorithm</t>
-  </si>
-  <si>
-    <t>Smallest subset with sum greater than all other elements</t>
-  </si>
-  <si>
-    <t>Chocolate Distribution Problem</t>
-  </si>
-  <si>
-    <t>DEFKIN -Defense of a Kingdom</t>
-  </si>
-  <si>
-    <t>DIEHARD -DIE HARD</t>
-  </si>
-  <si>
-    <t>GERGOVIA -Wine trading in Gergovia</t>
-  </si>
-  <si>
-    <t>Picking Up Chicks</t>
-  </si>
-  <si>
-    <t>CHOCOLA –Chocolate</t>
-  </si>
-  <si>
-    <t>ARRANGE -Arranging Amplifiers</t>
-  </si>
-  <si>
-    <t>K Centers Problem</t>
-  </si>
-  <si>
-    <t>Minimum Cost of ropes</t>
-  </si>
-  <si>
-    <t>Find smallest number with given number of digits and sum of digits</t>
-  </si>
-  <si>
-    <t>Find maximum sum possible equal sum of three stacks</t>
-  </si>
-  <si>
-    <t>BackTracking</t>
-  </si>
-  <si>
-    <t>Rat in a maze Problem</t>
-  </si>
-  <si>
-    <t>Printing all solutions in N-Queen Problem</t>
-  </si>
-  <si>
-    <t>Word Break Problem using Backtracking</t>
-  </si>
-  <si>
-    <t>Remove Invalid Parentheses</t>
-  </si>
-  <si>
-    <t>Sudoku Solver</t>
-  </si>
-  <si>
-    <t>m Coloring Problem</t>
-  </si>
-  <si>
-    <t>Print all palindromic partitions of a string</t>
-  </si>
-  <si>
-    <t>Subset Sum Problem</t>
-  </si>
-  <si>
-    <t>The Knight’s tour problem</t>
-  </si>
-  <si>
-    <t>Tug of War</t>
-  </si>
-  <si>
-    <t>Find shortest safe route in a path with landmines</t>
-  </si>
-  <si>
-    <t>Combinational Sum</t>
-  </si>
-  <si>
-    <t>Find Maximum number possible by doing at-most K swaps</t>
+    <t xml:space="preserve">Populate Inorder successor of all nodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse InOrder traversal with prevTemp node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find LCA  of 2 nodes in a BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construct BST from preorder traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert Binary tree into BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store inOrder traversal of BT, then sort it and again do inorder traversal and populate values in the nodes using data of sorted array.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert a normal BST into a Balanced BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge two BST [ V.V.V&gt;IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Kth largest element in a BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try to do it in constant space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Kth smallest element in a BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count pairs from 2 BST whose sum is equal to given value "X"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the median of BST in O(n) time and O(1) space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count BST ndoes that lie in a given range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replace every element with the least greater element on its right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given "n" appointments, find the conflicting appointments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check preorder is valid or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check whether BST contains Dead end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largest BST in a Binary Tree [ V.V.V.V.V IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flatten BST to sorted list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greedy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activity Selection Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job SequencingProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huffman Coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Connection Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fractional Knapsack Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greedy Algorithm to find Minimum number of Coins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum trains for which stoppage can be provided</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Platforms Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy Maximum Stocks if i stocks can be bought on i-th day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the minimum and maximum amount to buy all N candies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimize Cash Flow among a given set of friends who have borrowed money from each other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Cost to cut a board into squares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if it is possible to survive on Island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find maximum meetings in one room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum product subset of an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximize array sum after K negations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximize the sum of arr[i]*i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum sum of absolute difference of an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximize sum of consecutive differences in a circular array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum sum of absolute difference of pairs of two arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program for Shortest Job First (or SJF) CPU Scheduling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program for Least Recently Used (LRU) Page Replacement algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smallest subset with sum greater than all other elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chocolate Distribution Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEFKIN -Defense of a Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIEHARD -DIE HARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GERGOVIA -Wine trading in Gergovia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Picking Up Chicks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHOCOLA –Chocolate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARRANGE -Arranging Amplifiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K Centers Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Cost of ropes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find smallest number with given number of digits and sum of digits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find maximum sum possible equal sum of three stacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackTracking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rat in a maze Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Printing all solutions in N-Queen Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word Break Problem using Backtracking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove Invalid Parentheses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudoku Solver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m Coloring Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print all palindromic partitions of a string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subset Sum Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Knight’s tour problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tug of War</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find shortest safe route in a path with landmines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combinational Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Maximum number possible by doing at-most K swaps</t>
   </si>
   <si>
     <t xml:space="preserve">Print all permutations of a string </t>
   </si>
   <si>
-    <t>Find if there is a path of more than k length from a source</t>
-  </si>
-  <si>
-    <t>Longest Possible Route in a Matrix with Hurdles</t>
-  </si>
-  <si>
-    <t>Print all possible paths from top left to bottom right of a mXn matrix</t>
-  </si>
-  <si>
-    <t>Partition of a set intoK subsets with equal sum</t>
-  </si>
-  <si>
-    <t>Find the K-th Permutation Sequence of first N natural numbers</t>
-  </si>
-  <si>
-    <t>Stacks &amp; Queues</t>
+    <t xml:space="preserve">Find if there is a path of more than k length from a source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Possible Route in a Matrix with Hurdles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print all possible paths from top left to bottom right of a mXn matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partition of a set intoK subsets with equal sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the K-th Permutation Sequence of first N natural numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stacks &amp; Queues</t>
   </si>
   <si>
     <t xml:space="preserve"> Implement Stack from Scratch</t>
@@ -914,175 +910,190 @@
     <t xml:space="preserve"> Implement Queue from Scratch</t>
   </si>
   <si>
-    <t>Implement 2 stack in an array</t>
-  </si>
-  <si>
-    <t>find the middle element of a stack</t>
-  </si>
-  <si>
-    <t>Implement "N" stacks in an Array</t>
-  </si>
-  <si>
-    <t>Check the expression has valid or Balanced parenthesis or not.</t>
-  </si>
-  <si>
-    <t>Reverse a String using Stack</t>
-  </si>
-  <si>
-    <t>Design a Stack that supports getMin() in O(1) time and O(1) extra space.</t>
-  </si>
-  <si>
-    <t>Find the next Greater element</t>
-  </si>
-  <si>
-    <t>The celebrity Problem</t>
-  </si>
-  <si>
-    <t>Arithmetic Expression evaluation</t>
-  </si>
-  <si>
-    <t>Evaluation of Postfix expression</t>
-  </si>
-  <si>
-    <t>Implement a method to insert an element at its bottom without using any other data structure.</t>
-  </si>
-  <si>
-    <t>Reverse a stack using recursion</t>
-  </si>
-  <si>
-    <t>Sort a Stack using recursion</t>
-  </si>
-  <si>
-    <t>Merge Overlapping Intervals</t>
-  </si>
-  <si>
-    <t>Largest rectangular Area in Histogram</t>
-  </si>
-  <si>
-    <t>Length of the Longest Valid Substring</t>
-  </si>
-  <si>
-    <t>Expression contains redundant bracket or not</t>
-  </si>
-  <si>
-    <t>Implement Stack using Queue</t>
-  </si>
-  <si>
-    <t>Implement Stack using Deque</t>
-  </si>
-  <si>
-    <t>Stack Permutations (Check if an array is stack permutation of other)</t>
+    <t xml:space="preserve">Implement 2 stack in an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find the middle element of a stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement "N" stacks in an Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the expression has valid or Balanced parenthesis or not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse a String using Stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design a Stack that supports getMin() in O(1) time and O(1) extra space.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the next Greater element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The celebrity Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stack or Two Pointers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arithmetic Expression evaluation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluation of Postfix expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement a method to insert an element at its bottom without using any other data structure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recursion ??</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse a stack using recursion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort a Stack using recursion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge Overlapping Intervals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largest rectangular Area in Histogram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length of the Longest Valid Substring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression contains redundant bracket or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Stack using Queue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Stack using Deque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stack Permutations (Check if an array is stack permutation of other)</t>
   </si>
   <si>
     <t xml:space="preserve">Implement Queue using Stack  </t>
   </si>
   <si>
-    <t>Implement "n" queue in an array</t>
-  </si>
-  <si>
-    <t>Implement a Circular queue</t>
-  </si>
-  <si>
-    <t>LRU Cache Implementationa</t>
-  </si>
-  <si>
-    <t>Reverse a Queue using recursion</t>
-  </si>
-  <si>
-    <t>Reverse the first “K” elements of a queue</t>
-  </si>
-  <si>
-    <t>Interleave the first half of the queue with second half</t>
-  </si>
-  <si>
-    <t>Find the first circular tour that visits all Petrol Pumps</t>
-  </si>
-  <si>
-    <t>Minimum time required to rot all oranges</t>
-  </si>
-  <si>
-    <t>Distance of nearest cell having 1 in a binary matrix</t>
-  </si>
-  <si>
-    <t>First negative integer in every window of size “k”</t>
-  </si>
-  <si>
-    <t>Check if all levels of two trees are anagrams or not.</t>
-  </si>
-  <si>
-    <t>Sum of minimum and maximum elements of all subarrays of size “k”.</t>
-  </si>
-  <si>
-    <t>Minimum sum of squares of character counts in a given string after removing “k” characters.</t>
-  </si>
-  <si>
-    <t>Queue based approach or first non-repeating character in a stream.</t>
-  </si>
-  <si>
-    <t>Next Smaller Element</t>
-  </si>
-  <si>
-    <t>Heap</t>
-  </si>
-  <si>
-    <t>Implement a Maxheap/MinHeap using arrays and recursion.</t>
-  </si>
-  <si>
-    <t>Sort an Array using heap. (HeapSort)</t>
-  </si>
-  <si>
-    <t>Maximum of all subarrays of size k.</t>
-  </si>
-  <si>
-    <t>“k” largest element in an array</t>
-  </si>
-  <si>
-    <t>Kth smallest and largest element in an unsorted array</t>
-  </si>
-  <si>
-    <t>Merge “K” sorted arrays. [ IMP ]</t>
-  </si>
-  <si>
-    <t>Merge 2 Binary Max Heaps</t>
-  </si>
-  <si>
-    <t>Kth largest sum continuous subarrays</t>
-  </si>
-  <si>
-    <t>Leetcode- reorganize strings</t>
-  </si>
-  <si>
-    <t>Merge “K” Sorted Linked Lists [V.IMP]</t>
-  </si>
-  <si>
-    <t>Smallest range in “K” Lists</t>
-  </si>
-  <si>
-    <t>Median in a stream of Integers</t>
-  </si>
-  <si>
-    <t>Check if a Binary Tree is Heap</t>
-  </si>
-  <si>
-    <t>Connect “n” ropes with minimum cost</t>
-  </si>
-  <si>
-    <t>Convert BST to Min Heap</t>
-  </si>
-  <si>
-    <t>Convert min heap to max heap</t>
-  </si>
-  <si>
-    <t>Rearrange characters in a string such that no two adjacent are same.</t>
-  </si>
-  <si>
-    <t>Minimum sum of two numbers formed from digits of an array</t>
-  </si>
-  <si>
-    <t>Graph</t>
-  </si>
-  <si>
-    <t>Create a Graph, print it</t>
+    <t xml:space="preserve">Implement "n" queue in an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement a Circular queue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LRU Cache Implementationa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LinkedHashMap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse a Queue using recursion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse the first “K” elements of a queue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interleave the first half of the queue with second half</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the first circular tour that visits all Petrol Pumps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Pointers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum time required to rot all oranges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance of nearest cell having 1 in a binary matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First negative integer in every window of size “k”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if all levels of two trees are anagrams or not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum of minimum and maximum elements of all subarrays of size “k”.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum sum of squares of character counts in a given string after removing “k” characters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queue based approach or first non-repeating character in a stream.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next Smaller Element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement a Maxheap/MinHeap using arrays and recursion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort an Array using heap. (HeapSort)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum of all subarrays of size k.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“k” largest element in an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kth smallest and largest element in an unsorted array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge “K” sorted arrays. [ IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge 2 Binary Max Heaps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kth largest sum continuous subarrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leetcode- reorganize strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge “K” Sorted Linked Lists [V.IMP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smallest range in “K” Lists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median in a stream of Integers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if a Binary Tree is Heap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connect “n” ropes with minimum cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert BST to Min Heap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert min heap to max heap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rearrange characters in a string such that no two adjacent are same.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum sum of two numbers formed from digits of an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a Graph, print it</t>
   </si>
   <si>
     <t xml:space="preserve">Implement BFS algorithm </t>
@@ -1097,362 +1108,359 @@
     <t xml:space="preserve">Detect Cycle in UnDirected Graph using BFS/DFS Algo </t>
   </si>
   <si>
-    <t>Search in a Maze</t>
-  </si>
-  <si>
-    <t>Minimum Step by Knight</t>
-  </si>
-  <si>
-    <t>flood fill algo</t>
-  </si>
-  <si>
-    <t>Clone a graph</t>
-  </si>
-  <si>
-    <t>Making wired Connections</t>
+    <t xml:space="preserve">Search in a Maze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Step by Knight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flood fill algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clone a graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Making wired Connections</t>
   </si>
   <si>
     <t xml:space="preserve">word Ladder </t>
   </si>
   <si>
-    <t>Dijkstra algo</t>
+    <t xml:space="preserve">Dijkstra algo</t>
   </si>
   <si>
     <t xml:space="preserve">Implement Topological Sort </t>
   </si>
   <si>
-    <t>Minimum time taken by each job to be completed given by a Directed Acyclic Graph</t>
-  </si>
-  <si>
-    <t>Find whether it is possible to finish all tasks or not from given dependencies</t>
-  </si>
-  <si>
-    <t>Find the no. of Isalnds</t>
-  </si>
-  <si>
-    <t>Given a sorted Dictionary of an Alien Language, find order of characters</t>
-  </si>
-  <si>
-    <t>Implement Kruksal’sAlgorithm</t>
-  </si>
-  <si>
-    <t>Implement Prim’s Algorithm</t>
-  </si>
-  <si>
-    <t>Total no. of Spanning tree in a graph</t>
-  </si>
-  <si>
-    <t>Implement Bellman Ford Algorithm</t>
-  </si>
-  <si>
-    <t>Implement Floyd warshallAlgorithm</t>
-  </si>
-  <si>
-    <t>Travelling Salesman Problem</t>
-  </si>
-  <si>
-    <t>Graph ColouringProblem</t>
-  </si>
-  <si>
-    <t>Snake and Ladders Problem</t>
-  </si>
-  <si>
-    <t>Find bridge in a graph</t>
-  </si>
-  <si>
-    <t>Count Strongly connected Components(Kosaraju Algo)</t>
-  </si>
-  <si>
-    <t>Check whether a graph is Bipartite or Not</t>
-  </si>
-  <si>
-    <t>Detect Negative cycle in a graph</t>
-  </si>
-  <si>
-    <t>Longest path in a Directed Acyclic Graph</t>
-  </si>
-  <si>
-    <t>Journey to the Moon</t>
-  </si>
-  <si>
-    <t>Cheapest Flights Within K Stops</t>
-  </si>
-  <si>
-    <t>Oliver and the Game</t>
-  </si>
-  <si>
-    <t>Water Jug problem using BFS</t>
-  </si>
-  <si>
-    <t>Find if there is a path of more thank length from a source</t>
-  </si>
-  <si>
-    <t>M-ColouringProblem</t>
-  </si>
-  <si>
-    <t>Minimum edges to reverse o make path from source to destination</t>
-  </si>
-  <si>
-    <t>Paths to travel each nodes using each edge(Seven Bridges)</t>
-  </si>
-  <si>
-    <t>Vertex Cover Problem</t>
-  </si>
-  <si>
-    <t>Chinese Postman or Route Inspection</t>
-  </si>
-  <si>
-    <t>Number of Triangles in a Directed and Undirected Graph</t>
-  </si>
-  <si>
-    <t>Minimise the cashflow among a given set of friends who have borrowed money from each other</t>
-  </si>
-  <si>
-    <t>Two Clique Problem</t>
-  </si>
-  <si>
-    <t>Trie</t>
-  </si>
-  <si>
-    <t>Construct a trie from scratch</t>
-  </si>
-  <si>
-    <t>Find shortest unique prefix for every word in a given list</t>
-  </si>
-  <si>
-    <t>Word Break Problem | (Trie solution)</t>
-  </si>
-  <si>
-    <t>Implement a Phone Directory</t>
-  </si>
-  <si>
-    <t>Print unique rows in a given boolean matrix</t>
-  </si>
-  <si>
-    <t>Dynamic Programming</t>
-  </si>
-  <si>
-    <t>Coin ChangeProblem</t>
-  </si>
-  <si>
-    <t>Knapsack Problem</t>
-  </si>
-  <si>
-    <t>Binomial CoefficientProblem</t>
-  </si>
-  <si>
-    <t>Permutation CoefficientProblem</t>
-  </si>
-  <si>
-    <t>Program for nth Catalan Number</t>
-  </si>
-  <si>
-    <t>Matrix Chain Multiplication </t>
-  </si>
-  <si>
-    <t>Edit Distance</t>
-  </si>
-  <si>
-    <t>Friends Pairing Problem</t>
-  </si>
-  <si>
-    <t>Gold Mine Problem</t>
-  </si>
-  <si>
-    <t>Assembly Line SchedulingProblem</t>
-  </si>
-  <si>
-    <t>Painting the Fenceproblem</t>
-  </si>
-  <si>
-    <t>Maximize The Cut Segments</t>
-  </si>
-  <si>
-    <t>Longest Common Subsequence</t>
-  </si>
-  <si>
-    <t>Longest Repeated Subsequence</t>
-  </si>
-  <si>
-    <t>Longest Increasing Subsequence</t>
-  </si>
-  <si>
-    <t>Space Optimized Solution of LCS</t>
-  </si>
-  <si>
-    <t>LCS (Longest Common Subsequence) of three strings</t>
-  </si>
-  <si>
-    <t>Maximum Sum Increasing Subsequence</t>
-  </si>
-  <si>
-    <t>Count all subsequences having product less than K</t>
-  </si>
-  <si>
-    <t>Longest subsequence such that difference between adjacent is one</t>
-  </si>
-  <si>
-    <t>Maximum subsequence sum such that no three are consecutive</t>
-  </si>
-  <si>
-    <t>Egg Dropping Problem</t>
-  </si>
-  <si>
-    <t>Maximum Length Chain of Pairs</t>
-  </si>
-  <si>
-    <t>Maximum size square sub-matrix with all 1s</t>
-  </si>
-  <si>
-    <t>Maximum sum of pairs with specific difference</t>
-  </si>
-  <si>
-    <t>Min Cost PathProblem</t>
-  </si>
-  <si>
-    <t>Maximum difference of zeros and ones in binary string</t>
-  </si>
-  <si>
-    <t>Minimum number of jumps to reach end</t>
-  </si>
-  <si>
-    <t>Minimum cost to fill given weight in a bag</t>
-  </si>
-  <si>
-    <t>Minimum removals from array to make max –min &lt;= K</t>
-  </si>
-  <si>
-    <t>Longest Common Substring</t>
-  </si>
-  <si>
-    <t>Count number of ways to reacha given score in a game</t>
-  </si>
-  <si>
-    <t>Count Balanced Binary Trees of Height h</t>
-  </si>
-  <si>
-    <t>LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]</t>
-  </si>
-  <si>
-    <t>Smallest sum contiguous subarray</t>
-  </si>
-  <si>
-    <t>Unbounded Knapsack (Repetition of items allowed)</t>
-  </si>
-  <si>
-    <t>Word Break Problem</t>
-  </si>
-  <si>
-    <t>Largest Independent Set Problem</t>
-  </si>
-  <si>
-    <t>Partition problem</t>
-  </si>
-  <si>
-    <t>Longest Palindromic Subsequence</t>
-  </si>
-  <si>
-    <t>Count All Palindromic Subsequence in a given String</t>
-  </si>
-  <si>
-    <t>Longest Palindromic Substring</t>
-  </si>
-  <si>
-    <t>Longest alternating subsequence</t>
-  </si>
-  <si>
-    <t>Weighted Job Scheduling</t>
-  </si>
-  <si>
-    <t>Coin game winner where every player has three choices</t>
-  </si>
-  <si>
-    <t>Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]</t>
-  </si>
-  <si>
-    <t>Maximum profit by buying and selling a share at most twice [ IMP ]</t>
-  </si>
-  <si>
-    <t>Optimal Strategy for a Game</t>
-  </si>
-  <si>
-    <t>Optimal Binary Search Tree</t>
-  </si>
-  <si>
-    <t>Palindrome PartitioningProblem</t>
-  </si>
-  <si>
-    <t>Word Wrap Problem</t>
-  </si>
-  <si>
-    <t>Mobile Numeric Keypad Problem [ IMP ]</t>
-  </si>
-  <si>
-    <t>Boolean Parenthesization Problem</t>
-  </si>
-  <si>
-    <t>Largest rectangular sub-matrix whose sum is 0</t>
-  </si>
-  <si>
-    <t>Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]</t>
-  </si>
-  <si>
-    <t>Maximum sum rectangle in a 2D matrix</t>
-  </si>
-  <si>
-    <t>Maximum profit by buying and selling a share at most k times</t>
-  </si>
-  <si>
-    <t>Find if a string is interleaved of two other strings</t>
-  </si>
-  <si>
-    <t>Maximum Length of Pair Chain</t>
-  </si>
-  <si>
-    <t>Bit Manipulation</t>
-  </si>
-  <si>
-    <t>Count set bits in an integer</t>
-  </si>
-  <si>
-    <t>Find the two non-repeating elements in an array of repeating elements</t>
-  </si>
-  <si>
-    <t>Count number of bits to be flipped to convert A to B</t>
-  </si>
-  <si>
-    <t>Count total set bits in all numbers from 1 to n</t>
-  </si>
-  <si>
-    <t>Program to find whether a no is power of two</t>
-  </si>
-  <si>
-    <t>Find position of the only set bit</t>
-  </si>
-  <si>
-    <t>Copy set bits in a range</t>
-  </si>
-  <si>
-    <t>Divide two integers without using multiplication, division and mod operator</t>
-  </si>
-  <si>
-    <t>Calculate square of a number without using *, / and pow()</t>
-  </si>
-  <si>
-    <t>Power Set</t>
-  </si>
-  <si>
-    <t>Stack or Two Pointers</t>
-  </si>
-  <si>
-    <t>Recursion ??</t>
+    <t xml:space="preserve">Minimum time taken by each job to be completed given by a Directed Acyclic Graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find whether it is possible to finish all tasks or not from given dependencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the no. of Isalnds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given a sorted Dictionary of an Alien Language, find order of characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Kruksal’sAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Prim’s Algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total no. of Spanning tree in a graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Bellman Ford Algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Floyd warshallAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travelling Salesman Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graph ColouringProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snake and Ladders Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find bridge in a graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count Strongly connected Components(Kosaraju Algo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check whether a graph is Bipartite or Not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detect Negative cycle in a graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest path in a Directed Acyclic Graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journey to the Moon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheapest Flights Within K Stops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oliver and the Game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Jug problem using BFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find if there is a path of more thank length from a source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M-ColouringProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum edges to reverse o make path from source to destination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paths to travel each nodes using each edge(Seven Bridges)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertex Cover Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinese Postman or Route Inspection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Triangles in a Directed and Undirected Graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimise the cashflow among a given set of friends who have borrowed money from each other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two Clique Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construct a trie from scratch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find shortest unique prefix for every word in a given list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word Break Problem | (Trie solution)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement a Phone Directory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print unique rows in a given boolean matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic Programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coin ChangeProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knapsack Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binomial CoefficientProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permutation CoefficientProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program for nth Catalan Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matrix Chain Multiplication </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit Distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friends Pairing Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold Mine Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assembly Line SchedulingProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Painting the Fenceproblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximize The Cut Segments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Repeated Subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Space Optimized Solution of LCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCS (Longest Common Subsequence) of three strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum Sum Increasing Subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count all subsequences having product less than K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest subsequence such that difference between adjacent is one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum subsequence sum such that no three are consecutive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg Dropping Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum Length Chain of Pairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum size square sub-matrix with all 1s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum sum of pairs with specific difference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min Cost PathProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum difference of zeros and ones in binary string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum number of jumps to reach end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum cost to fill given weight in a bag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum removals from array to make max –min &lt;= K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Common Substring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count number of ways to reacha given score in a game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count Balanced Binary Trees of Height h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smallest sum contiguous subarray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unbounded Knapsack (Repetition of items allowed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word Break Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largest Independent Set Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partition problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Palindromic Subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count All Palindromic Subsequence in a given String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest alternating subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted Job Scheduling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coin game winner where every player has three choices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum profit by buying and selling a share at most twice [ IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimal Strategy for a Game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimal Binary Search Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palindrome PartitioningProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word Wrap Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile Numeric Keypad Problem [ IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boolean Parenthesization Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largest rectangular sub-matrix whose sum is 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum sum rectangle in a 2D matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum profit by buying and selling a share at most k times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find if a string is interleaved of two other strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum Length of Pair Chain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bit Manipulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count set bits in an integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the two non-repeating elements in an array of repeating elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count number of bits to be flipped to convert A to B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count total set bits in all numbers from 1 to n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program to find whether a no is power of two</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find position of the only set bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copy set bits in a range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divide two integers without using multiplication, division and mod operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculate square of a number without using *, / and pow()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1461,14 +1469,30 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Calibri (Body)"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="12"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -1476,8 +1500,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <u/>
+      <b val="true"/>
+      <u val="single"/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1485,7 +1509,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1493,7 +1517,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="16"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -1518,7 +1542,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF224B12"/>
-        <bgColor rgb="FF333333"/>
+        <bgColor rgb="FF395511"/>
       </patternFill>
     </fill>
     <fill>
@@ -1530,7 +1554,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF127622"/>
-        <bgColor rgb="FF008080"/>
+        <bgColor rgb="FF385724"/>
       </patternFill>
     </fill>
     <fill>
@@ -1547,19 +1571,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF385724"/>
+        <bgColor rgb="FF395511"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF395511"/>
+        <bgColor rgb="FF385724"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -1567,94 +1591,181 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  <cellStyleXfs count="21">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="34">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1707,321 +1818,47 @@
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF3FAF46"/>
-      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF395511"/>
       <rgbColor rgb="FF224B12"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="FF385724"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A305" sqref="A305"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A319" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A325" activeCellId="0" sqref="A325"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.63671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="28.5" customWidth="1"/>
-    <col min="2" max="2" width="123" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25">
+    <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21">
+    <row r="4" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -2032,12 +1869,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21">
+    <row r="6" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -2048,7 +1885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21">
+    <row r="7" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -2059,7 +1896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="21">
+    <row r="8" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -2070,7 +1907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21">
+    <row r="9" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -2081,7 +1918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21">
+    <row r="10" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -2092,7 +1929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="21">
+    <row r="11" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
@@ -2103,7 +1940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21">
+    <row r="12" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
@@ -2114,7 +1951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21">
+    <row r="13" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -2125,7 +1962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21">
+    <row r="14" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -2136,7 +1973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21">
+    <row r="15" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -2147,7 +1984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21">
+    <row r="16" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -2158,7 +1995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21">
+    <row r="17" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -2169,7 +2006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21">
+    <row r="18" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -2180,7 +2017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="21">
+    <row r="19" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -2191,7 +2028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="21">
+    <row r="20" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
@@ -2202,7 +2039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="21">
+    <row r="21" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -2213,7 +2050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21">
+    <row r="22" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
@@ -2224,7 +2061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="21">
+    <row r="23" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
@@ -2235,7 +2072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="21">
+    <row r="24" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
@@ -2246,7 +2083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21">
+    <row r="25" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
         <v>6</v>
       </c>
@@ -2257,7 +2094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21">
+    <row r="26" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
@@ -2268,7 +2105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="21">
+    <row r="27" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -2279,7 +2116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="21">
+    <row r="28" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
@@ -2290,7 +2127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="21">
+    <row r="29" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
         <v>6</v>
       </c>
@@ -2301,7 +2138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="21">
+    <row r="30" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="12" t="s">
         <v>6</v>
       </c>
@@ -2312,7 +2149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="21">
+    <row r="31" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="14" t="s">
         <v>6</v>
       </c>
@@ -2323,7 +2160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="21">
+    <row r="32" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="14" t="s">
         <v>6</v>
       </c>
@@ -2334,7 +2171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="21">
+    <row r="33" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="14" t="s">
         <v>6</v>
       </c>
@@ -2345,7 +2182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="21">
+    <row r="34" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="14" t="s">
         <v>6</v>
       </c>
@@ -2356,7 +2193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="21">
+    <row r="35" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="14" t="s">
         <v>6</v>
       </c>
@@ -2367,7 +2204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="21">
+    <row r="36" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="14" t="s">
         <v>6</v>
       </c>
@@ -2378,7 +2215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="21">
+    <row r="37" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="14" t="s">
         <v>6</v>
       </c>
@@ -2389,7 +2226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="21">
+    <row r="38" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
         <v>6</v>
       </c>
@@ -2400,7 +2237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="21">
+    <row r="39" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
         <v>6</v>
       </c>
@@ -2411,7 +2248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="21">
+    <row r="40" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="s">
         <v>6</v>
       </c>
@@ -2422,7 +2259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="21">
+    <row r="41" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="14" t="s">
         <v>6</v>
       </c>
@@ -2433,20 +2270,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="21">
+    <row r="42" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="17"/>
       <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="21">
+    <row r="43" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="12"/>
       <c r="B43" s="17"/>
       <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="21">
+    <row r="44" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="14" t="s">
         <v>43</v>
       </c>
@@ -2457,7 +2294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="21">
+    <row r="45" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="14" t="s">
         <v>43</v>
       </c>
@@ -2468,7 +2305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="21">
+    <row r="46" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="14" t="s">
         <v>43</v>
       </c>
@@ -2479,7 +2316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="21">
+    <row r="47" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="14" t="s">
         <v>43</v>
       </c>
@@ -2490,7 +2327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="21">
+    <row r="48" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="14" t="s">
         <v>43</v>
       </c>
@@ -2501,7 +2338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="21">
+    <row r="49" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="14" t="s">
         <v>43</v>
       </c>
@@ -2512,7 +2349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="21">
+    <row r="50" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="14" t="s">
         <v>43</v>
       </c>
@@ -2523,7 +2360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="21">
+    <row r="51" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="18" t="s">
         <v>43</v>
       </c>
@@ -2534,7 +2371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="21">
+    <row r="52" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="12" t="s">
         <v>43</v>
       </c>
@@ -2545,7 +2382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="21">
+    <row r="53" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="12" t="s">
         <v>43</v>
       </c>
@@ -2556,12 +2393,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="21">
+    <row r="55" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="12"/>
       <c r="B55" s="17"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" spans="1:3" ht="21">
+    <row r="56" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="12" t="s">
         <v>54</v>
       </c>
@@ -2572,7 +2409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="21">
+    <row r="57" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="12" t="s">
         <v>54</v>
       </c>
@@ -2583,7 +2420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="21">
+    <row r="58" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="12" t="s">
         <v>54</v>
       </c>
@@ -2594,7 +2431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="21">
+    <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="12" t="s">
         <v>54</v>
       </c>
@@ -2605,7 +2442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="21">
+    <row r="60" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="12" t="s">
         <v>54</v>
       </c>
@@ -2616,7 +2453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="21">
+    <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="12" t="s">
         <v>54</v>
       </c>
@@ -2627,7 +2464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="21">
+    <row r="62" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="12" t="s">
         <v>54</v>
       </c>
@@ -2638,7 +2475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="21">
+    <row r="63" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="12" t="s">
         <v>54</v>
       </c>
@@ -2649,7 +2486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="21">
+    <row r="64" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="12" t="s">
         <v>54</v>
       </c>
@@ -2660,7 +2497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="21">
+    <row r="65" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="12" t="s">
         <v>54</v>
       </c>
@@ -2671,7 +2508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="21">
+    <row r="66" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="12" t="s">
         <v>54</v>
       </c>
@@ -2682,7 +2519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="21">
+    <row r="67" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="12" t="s">
         <v>54</v>
       </c>
@@ -2693,7 +2530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="21">
+    <row r="68" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="12" t="s">
         <v>54</v>
       </c>
@@ -2704,7 +2541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="21">
+    <row r="69" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="12" t="s">
         <v>54</v>
       </c>
@@ -2715,7 +2552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="21">
+    <row r="70" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="12" t="s">
         <v>54</v>
       </c>
@@ -2726,7 +2563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="21">
+    <row r="71" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="12" t="s">
         <v>54</v>
       </c>
@@ -2737,7 +2574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="21">
+    <row r="72" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="12" t="s">
         <v>54</v>
       </c>
@@ -2748,7 +2585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="21">
+    <row r="73" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="12" t="s">
         <v>54</v>
       </c>
@@ -2759,7 +2596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="21">
+    <row r="74" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="12" t="s">
         <v>54</v>
       </c>
@@ -2770,7 +2607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="21">
+    <row r="75" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="12" t="s">
         <v>54</v>
       </c>
@@ -2781,7 +2618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="21">
+    <row r="76" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="12" t="s">
         <v>54</v>
       </c>
@@ -2792,7 +2629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="21">
+    <row r="77" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="12" t="s">
         <v>54</v>
       </c>
@@ -2803,7 +2640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="21">
+    <row r="78" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="12" t="s">
         <v>54</v>
       </c>
@@ -2814,7 +2651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="21">
+    <row r="79" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="12" t="s">
         <v>54</v>
       </c>
@@ -2825,7 +2662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="21">
+    <row r="80" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="12" t="s">
         <v>54</v>
       </c>
@@ -2836,7 +2673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="21">
+    <row r="81" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="12" t="s">
         <v>54</v>
       </c>
@@ -2847,7 +2684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="21">
+    <row r="82" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="12" t="s">
         <v>54</v>
       </c>
@@ -2858,7 +2695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="21">
+    <row r="83" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="12" t="s">
         <v>54</v>
       </c>
@@ -2869,7 +2706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="21">
+    <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="12" t="s">
         <v>54</v>
       </c>
@@ -2880,7 +2717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="21">
+    <row r="85" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="12" t="s">
         <v>54</v>
       </c>
@@ -2891,7 +2728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="21">
+    <row r="86" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="12" t="s">
         <v>54</v>
       </c>
@@ -2902,7 +2739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="21">
+    <row r="87" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="12" t="s">
         <v>54</v>
       </c>
@@ -2913,7 +2750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="21">
+    <row r="88" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="12" t="s">
         <v>54</v>
       </c>
@@ -2924,7 +2761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="21">
+    <row r="89" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="12" t="s">
         <v>54</v>
       </c>
@@ -2935,7 +2772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="21">
+    <row r="90" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="12" t="s">
         <v>54</v>
       </c>
@@ -2946,7 +2783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="21">
+    <row r="91" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="12" t="s">
         <v>54</v>
       </c>
@@ -2957,7 +2794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="21">
+    <row r="92" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="12" t="s">
         <v>54</v>
       </c>
@@ -2968,7 +2805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="21">
+    <row r="93" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="12" t="s">
         <v>54</v>
       </c>
@@ -2979,7 +2816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="21">
+    <row r="94" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="12" t="s">
         <v>54</v>
       </c>
@@ -2990,7 +2827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="21">
+    <row r="95" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="12" t="s">
         <v>54</v>
       </c>
@@ -3001,7 +2838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="21">
+    <row r="96" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="12" t="s">
         <v>54</v>
       </c>
@@ -3012,7 +2849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="21">
+    <row r="97" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="12" t="s">
         <v>54</v>
       </c>
@@ -3023,7 +2860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="21">
+    <row r="98" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="12" t="s">
         <v>54</v>
       </c>
@@ -3034,12 +2871,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="21">
+    <row r="100" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="12"/>
       <c r="B100" s="17"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="1:3" ht="21">
+    <row r="101" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
         <v>98</v>
       </c>
@@ -3050,7 +2887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="21">
+    <row r="102" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
         <v>98</v>
       </c>
@@ -3061,7 +2898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="21">
+    <row r="103" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
         <v>98</v>
       </c>
@@ -3072,7 +2909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="21">
+    <row r="104" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
         <v>98</v>
       </c>
@@ -3083,7 +2920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="21">
+    <row r="105" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
         <v>98</v>
       </c>
@@ -3094,7 +2931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="21">
+    <row r="106" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
         <v>98</v>
       </c>
@@ -3105,7 +2942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="21">
+    <row r="107" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="s">
         <v>98</v>
       </c>
@@ -3116,7 +2953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="21">
+    <row r="108" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="s">
         <v>98</v>
       </c>
@@ -3127,7 +2964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="21">
+    <row r="109" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="s">
         <v>98</v>
       </c>
@@ -3138,7 +2975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="21">
+    <row r="110" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
         <v>98</v>
       </c>
@@ -3149,7 +2986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="21">
+    <row r="111" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
         <v>98</v>
       </c>
@@ -3160,7 +2997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="21">
+    <row r="112" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
         <v>98</v>
       </c>
@@ -3171,7 +3008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="21">
+    <row r="113" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
         <v>98</v>
       </c>
@@ -3182,7 +3019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="21">
+    <row r="114" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
         <v>98</v>
       </c>
@@ -3193,7 +3030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="21">
+    <row r="115" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
         <v>98</v>
       </c>
@@ -3203,11 +3040,11 @@
       <c r="C115" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="0" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="21">
+    <row r="116" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
         <v>98</v>
       </c>
@@ -3218,7 +3055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="21">
+    <row r="117" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
         <v>98</v>
       </c>
@@ -3229,7 +3066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="21">
+    <row r="118" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
         <v>98</v>
       </c>
@@ -3240,7 +3077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="21">
+    <row r="119" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
         <v>98</v>
       </c>
@@ -3251,7 +3088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="21">
+    <row r="120" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="12" t="s">
         <v>98</v>
       </c>
@@ -3262,7 +3099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="21">
+    <row r="121" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
         <v>98</v>
       </c>
@@ -3273,7 +3110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="21">
+    <row r="122" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
         <v>98</v>
       </c>
@@ -3284,7 +3121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="21">
+    <row r="123" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="12" t="s">
         <v>98</v>
       </c>
@@ -3295,7 +3132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="21">
+    <row r="124" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
         <v>98</v>
       </c>
@@ -3306,7 +3143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="21">
+    <row r="125" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
         <v>98</v>
       </c>
@@ -3317,7 +3154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="21">
+    <row r="126" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
         <v>98</v>
       </c>
@@ -3328,7 +3165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="21">
+    <row r="127" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="18" t="s">
         <v>98</v>
       </c>
@@ -3339,7 +3176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="21">
+    <row r="128" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
         <v>98</v>
       </c>
@@ -3350,7 +3187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="21">
+    <row r="129" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="18" t="s">
         <v>98</v>
       </c>
@@ -3361,7 +3198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="21">
+    <row r="130" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
         <v>98</v>
       </c>
@@ -3372,7 +3209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="21">
+    <row r="131" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="s">
         <v>98</v>
       </c>
@@ -3383,7 +3220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="21">
+    <row r="132" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="s">
         <v>98</v>
       </c>
@@ -3394,7 +3231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="21">
+    <row r="133" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="12" t="s">
         <v>98</v>
       </c>
@@ -3405,7 +3242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="21">
+    <row r="134" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="s">
         <v>98</v>
       </c>
@@ -3416,7 +3253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="21">
+    <row r="135" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="s">
         <v>98</v>
       </c>
@@ -3427,7 +3264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="21">
+    <row r="136" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="s">
         <v>98</v>
       </c>
@@ -3438,11 +3275,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="21">
+    <row r="138" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="17"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" spans="1:3" ht="21">
+    <row r="139" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="s">
         <v>136</v>
       </c>
@@ -3453,7 +3290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="21">
+    <row r="140" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="s">
         <v>136</v>
       </c>
@@ -3464,7 +3301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="21">
+    <row r="141" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="s">
         <v>136</v>
       </c>
@@ -3475,7 +3312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="21">
+    <row r="142" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
         <v>136</v>
       </c>
@@ -3486,7 +3323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="21">
+    <row r="143" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="s">
         <v>136</v>
       </c>
@@ -3497,7 +3334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="21">
+    <row r="144" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="s">
         <v>136</v>
       </c>
@@ -3508,7 +3345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="21">
+    <row r="145" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="s">
         <v>136</v>
       </c>
@@ -3519,7 +3356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="21">
+    <row r="146" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="s">
         <v>136</v>
       </c>
@@ -3530,7 +3367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="21">
+    <row r="147" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="s">
         <v>136</v>
       </c>
@@ -3541,7 +3378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="21">
+    <row r="148" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="s">
         <v>136</v>
       </c>
@@ -3552,7 +3389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="21">
+    <row r="149" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="s">
         <v>136</v>
       </c>
@@ -3563,7 +3400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="21">
+    <row r="150" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="s">
         <v>136</v>
       </c>
@@ -3574,7 +3411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="21">
+    <row r="151" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="s">
         <v>136</v>
       </c>
@@ -3585,7 +3422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="21">
+    <row r="152" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="12" t="s">
         <v>136</v>
       </c>
@@ -3596,7 +3433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="21">
+    <row r="153" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="s">
         <v>136</v>
       </c>
@@ -3607,7 +3444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="21">
+    <row r="154" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="s">
         <v>136</v>
       </c>
@@ -3618,7 +3455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="21">
+    <row r="155" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="s">
         <v>136</v>
       </c>
@@ -3629,7 +3466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="21">
+    <row r="156" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="s">
         <v>136</v>
       </c>
@@ -3640,7 +3477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="21">
+    <row r="157" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="s">
         <v>136</v>
       </c>
@@ -3651,7 +3488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="21">
+    <row r="158" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="s">
         <v>136</v>
       </c>
@@ -3662,7 +3499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="21">
+    <row r="159" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="s">
         <v>136</v>
       </c>
@@ -3673,7 +3510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="21">
+    <row r="160" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="s">
         <v>136</v>
       </c>
@@ -3684,7 +3521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="21">
+    <row r="161" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="s">
         <v>136</v>
       </c>
@@ -3695,7 +3532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="21">
+    <row r="162" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="s">
         <v>136</v>
       </c>
@@ -3706,7 +3543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="21">
+    <row r="163" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="s">
         <v>136</v>
       </c>
@@ -3717,7 +3554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="21">
+    <row r="164" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="s">
         <v>136</v>
       </c>
@@ -3728,7 +3565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="21">
+    <row r="165" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="6" t="s">
         <v>136</v>
       </c>
@@ -3739,7 +3576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="21">
+    <row r="166" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="12" t="s">
         <v>136</v>
       </c>
@@ -3750,7 +3587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="21">
+    <row r="167" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="s">
         <v>136</v>
       </c>
@@ -3761,7 +3598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="21">
+    <row r="168" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="s">
         <v>136</v>
       </c>
@@ -3772,7 +3609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="21">
+    <row r="169" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="12" t="s">
         <v>136</v>
       </c>
@@ -3783,7 +3620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="21">
+    <row r="170" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="6" t="s">
         <v>136</v>
       </c>
@@ -3794,7 +3631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="21">
+    <row r="171" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="6" t="s">
         <v>136</v>
       </c>
@@ -3805,7 +3642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="21">
+    <row r="172" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="6" t="s">
         <v>136</v>
       </c>
@@ -3816,7 +3653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="21">
+    <row r="173" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="6" t="s">
         <v>136</v>
       </c>
@@ -3826,11 +3663,11 @@
       <c r="C173" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173" s="0" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="21">
+    <row r="174" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="12" t="s">
         <v>136</v>
       </c>
@@ -3841,11 +3678,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="21">
+    <row r="176" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="17"/>
       <c r="C176" s="5"/>
     </row>
-    <row r="177" spans="1:3" ht="21">
+    <row r="177" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="6" t="s">
         <v>174</v>
       </c>
@@ -3856,7 +3693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="21">
+    <row r="178" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="6" t="s">
         <v>174</v>
       </c>
@@ -3867,7 +3704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="21">
+    <row r="179" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="6" t="s">
         <v>174</v>
       </c>
@@ -3878,7 +3715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="21">
+    <row r="180" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="6" t="s">
         <v>174</v>
       </c>
@@ -3889,7 +3726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="21">
+    <row r="181" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="6" t="s">
         <v>174</v>
       </c>
@@ -3900,7 +3737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="21">
+    <row r="182" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="6" t="s">
         <v>174</v>
       </c>
@@ -3911,7 +3748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="21">
+    <row r="183" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="6" t="s">
         <v>174</v>
       </c>
@@ -3922,7 +3759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="21">
+    <row r="184" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="6" t="s">
         <v>174</v>
       </c>
@@ -3933,7 +3770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="21">
+    <row r="185" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="s">
         <v>174</v>
       </c>
@@ -3944,7 +3781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="21">
+    <row r="186" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="6" t="s">
         <v>174</v>
       </c>
@@ -3955,7 +3792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="21">
+    <row r="187" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="6" t="s">
         <v>174</v>
       </c>
@@ -3966,7 +3803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="21">
+    <row r="188" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="6" t="s">
         <v>174</v>
       </c>
@@ -3977,7 +3814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="21">
+    <row r="189" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="6" t="s">
         <v>174</v>
       </c>
@@ -3988,7 +3825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="21">
+    <row r="190" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="6" t="s">
         <v>174</v>
       </c>
@@ -3999,7 +3836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="21">
+    <row r="191" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="6" t="s">
         <v>174</v>
       </c>
@@ -4010,7 +3847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="21">
+    <row r="192" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="22" t="s">
         <v>174</v>
       </c>
@@ -4021,7 +3858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="21">
+    <row r="193" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="6" t="s">
         <v>174</v>
       </c>
@@ -4032,7 +3869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="21">
+    <row r="194" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="6" t="s">
         <v>174</v>
       </c>
@@ -4043,7 +3880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="21">
+    <row r="195" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="6" t="s">
         <v>174</v>
       </c>
@@ -4054,7 +3891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="21">
+    <row r="196" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="6" t="s">
         <v>174</v>
       </c>
@@ -4065,7 +3902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="21">
+    <row r="197" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="6" t="s">
         <v>174</v>
       </c>
@@ -4076,7 +3913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="21">
+    <row r="198" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="s">
         <v>174</v>
       </c>
@@ -4087,7 +3924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="21">
+    <row r="199" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="6" t="s">
         <v>174</v>
       </c>
@@ -4098,7 +3935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="21">
+    <row r="200" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="6" t="s">
         <v>198</v>
       </c>
@@ -4109,7 +3946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="21">
+    <row r="201" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="12" t="s">
         <v>174</v>
       </c>
@@ -4120,7 +3957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="21">
+    <row r="202" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="6" t="s">
         <v>174</v>
       </c>
@@ -4131,7 +3968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="21">
+    <row r="203" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="18" t="s">
         <v>174</v>
       </c>
@@ -4142,7 +3979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="21">
+    <row r="204" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="6" t="s">
         <v>174</v>
       </c>
@@ -4153,7 +3990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="21">
+    <row r="205" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="6" t="s">
         <v>174</v>
       </c>
@@ -4164,7 +4001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="21">
+    <row r="206" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="6" t="s">
         <v>174</v>
       </c>
@@ -4175,7 +4012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="21">
+    <row r="207" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="6" t="s">
         <v>174</v>
       </c>
@@ -4186,7 +4023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="21">
+    <row r="208" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="6" t="s">
         <v>174</v>
       </c>
@@ -4197,7 +4034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="21">
+    <row r="209" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="6" t="s">
         <v>174</v>
       </c>
@@ -4208,7 +4045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="21">
+    <row r="210" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="6" t="s">
         <v>174</v>
       </c>
@@ -4219,7 +4056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="21">
+    <row r="211" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="6" t="s">
         <v>174</v>
       </c>
@@ -4230,17 +4067,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="21">
+    <row r="212" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="12"/>
       <c r="B212" s="17"/>
       <c r="C212" s="5"/>
     </row>
-    <row r="213" spans="1:4" ht="21">
+    <row r="213" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="12"/>
       <c r="B213" s="17"/>
       <c r="C213" s="5"/>
     </row>
-    <row r="214" spans="1:4" ht="21">
+    <row r="214" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="6" t="s">
         <v>211</v>
       </c>
@@ -4251,7 +4088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="21">
+    <row r="215" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="14" t="s">
         <v>211</v>
       </c>
@@ -4261,11 +4098,11 @@
       <c r="C215" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D215" s="0" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="21">
+    <row r="216" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="6" t="s">
         <v>211</v>
       </c>
@@ -4276,7 +4113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="21">
+    <row r="217" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="6" t="s">
         <v>211</v>
       </c>
@@ -4287,7 +4124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="21">
+    <row r="218" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="6" t="s">
         <v>211</v>
       </c>
@@ -4298,7 +4135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="21">
+    <row r="219" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="6" t="s">
         <v>211</v>
       </c>
@@ -4308,11 +4145,11 @@
       <c r="C219" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D219" s="0" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="21">
+    <row r="220" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="6" t="s">
         <v>211</v>
       </c>
@@ -4323,7 +4160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="21">
+    <row r="221" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="6" t="s">
         <v>211</v>
       </c>
@@ -4334,7 +4171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="21">
+    <row r="222" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="6" t="s">
         <v>211</v>
       </c>
@@ -4344,11 +4181,11 @@
       <c r="C222" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D222" s="0" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="21">
+    <row r="223" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="6" t="s">
         <v>211</v>
       </c>
@@ -4359,7 +4196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="21">
+    <row r="224" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="6" t="s">
         <v>211</v>
       </c>
@@ -4370,7 +4207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="21">
+    <row r="225" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="6" t="s">
         <v>211</v>
       </c>
@@ -4380,11 +4217,11 @@
       <c r="C225" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D225" s="0" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="21">
+    <row r="226" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="6" t="s">
         <v>211</v>
       </c>
@@ -4394,11 +4231,11 @@
       <c r="C226" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D226" s="0" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="21">
+    <row r="227" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="6" t="s">
         <v>211</v>
       </c>
@@ -4409,7 +4246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="21">
+    <row r="228" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="6" t="s">
         <v>211</v>
       </c>
@@ -4420,7 +4257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="21">
+    <row r="229" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="6" t="s">
         <v>211</v>
       </c>
@@ -4431,7 +4268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="21">
+    <row r="230" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="6" t="s">
         <v>211</v>
       </c>
@@ -4442,7 +4279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="21">
+    <row r="231" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="14" t="s">
         <v>211</v>
       </c>
@@ -4453,7 +4290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="21">
+    <row r="232" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="14" t="s">
         <v>211</v>
       </c>
@@ -4464,7 +4301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="21">
+    <row r="233" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="6" t="s">
         <v>211</v>
       </c>
@@ -4475,7 +4312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="21">
+    <row r="234" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="6" t="s">
         <v>211</v>
       </c>
@@ -4486,7 +4323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="21">
+    <row r="235" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="6" t="s">
         <v>211</v>
       </c>
@@ -4497,15 +4334,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="21">
+    <row r="236" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="17"/>
       <c r="C236" s="5"/>
     </row>
-    <row r="237" spans="1:4" ht="21">
+    <row r="237" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B237" s="17"/>
       <c r="C237" s="5"/>
     </row>
-    <row r="238" spans="1:4" ht="21">
+    <row r="238" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="12" t="s">
         <v>238</v>
       </c>
@@ -4516,7 +4353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="21">
+    <row r="239" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="12" t="s">
         <v>238</v>
       </c>
@@ -4527,7 +4364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="21">
+    <row r="240" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="12" t="s">
         <v>238</v>
       </c>
@@ -4538,7 +4375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="21">
+    <row r="241" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="12" t="s">
         <v>238</v>
       </c>
@@ -4549,7 +4386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="21">
+    <row r="242" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="12" t="s">
         <v>238</v>
       </c>
@@ -4560,7 +4397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="21">
+    <row r="243" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="12" t="s">
         <v>238</v>
       </c>
@@ -4571,7 +4408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="21">
+    <row r="244" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="12" t="s">
         <v>238</v>
       </c>
@@ -4582,7 +4419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="21">
+    <row r="245" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="12" t="s">
         <v>238</v>
       </c>
@@ -4593,7 +4430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="21">
+    <row r="246" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="12" t="s">
         <v>238</v>
       </c>
@@ -4604,7 +4441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="21">
+    <row r="247" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="12" t="s">
         <v>238</v>
       </c>
@@ -4615,7 +4452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="21">
+    <row r="248" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="12" t="s">
         <v>238</v>
       </c>
@@ -4626,7 +4463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="21">
+    <row r="249" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="12" t="s">
         <v>238</v>
       </c>
@@ -4637,7 +4474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="21">
+    <row r="250" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="12" t="s">
         <v>238</v>
       </c>
@@ -4648,7 +4485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="21">
+    <row r="251" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="12" t="s">
         <v>238</v>
       </c>
@@ -4659,7 +4496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="21">
+    <row r="252" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="12" t="s">
         <v>238</v>
       </c>
@@ -4670,7 +4507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="21">
+    <row r="253" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="12" t="s">
         <v>238</v>
       </c>
@@ -4681,7 +4518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="21">
+    <row r="254" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="12" t="s">
         <v>238</v>
       </c>
@@ -4692,7 +4529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="21">
+    <row r="255" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="12" t="s">
         <v>238</v>
       </c>
@@ -4703,7 +4540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="21">
+    <row r="256" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="12" t="s">
         <v>238</v>
       </c>
@@ -4714,7 +4551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="21">
+    <row r="257" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="12" t="s">
         <v>238</v>
       </c>
@@ -4725,7 +4562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="21">
+    <row r="258" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="12" t="s">
         <v>238</v>
       </c>
@@ -4736,7 +4573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="21">
+    <row r="259" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="12" t="s">
         <v>238</v>
       </c>
@@ -4747,7 +4584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="21">
+    <row r="260" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="12" t="s">
         <v>238</v>
       </c>
@@ -4758,7 +4595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="21">
+    <row r="261" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="12" t="s">
         <v>238</v>
       </c>
@@ -4769,7 +4606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="21">
+    <row r="262" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="12" t="s">
         <v>238</v>
       </c>
@@ -4780,7 +4617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="21">
+    <row r="263" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="12" t="s">
         <v>238</v>
       </c>
@@ -4791,7 +4628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="21">
+    <row r="264" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="12" t="s">
         <v>238</v>
       </c>
@@ -4802,7 +4639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="21">
+    <row r="265" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="12" t="s">
         <v>238</v>
       </c>
@@ -4813,7 +4650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="21">
+    <row r="266" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="12" t="s">
         <v>238</v>
       </c>
@@ -4824,7 +4661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="21">
+    <row r="267" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="12" t="s">
         <v>238</v>
       </c>
@@ -4835,7 +4672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="21">
+    <row r="268" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="12" t="s">
         <v>238</v>
       </c>
@@ -4846,7 +4683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="21">
+    <row r="269" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="12" t="s">
         <v>238</v>
       </c>
@@ -4857,7 +4694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="21">
+    <row r="270" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="12" t="s">
         <v>238</v>
       </c>
@@ -4868,7 +4705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="21">
+    <row r="271" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="12" t="s">
         <v>238</v>
       </c>
@@ -4879,7 +4716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="21">
+    <row r="272" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="12" t="s">
         <v>238</v>
       </c>
@@ -4890,15 +4727,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="21">
+    <row r="273" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B273" s="17"/>
       <c r="C273" s="5"/>
     </row>
-    <row r="274" spans="1:3" ht="21">
+    <row r="274" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="17"/>
       <c r="C274" s="5"/>
     </row>
-    <row r="275" spans="1:3" ht="21">
+    <row r="275" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="12" t="s">
         <v>273</v>
       </c>
@@ -4909,7 +4746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="21">
+    <row r="276" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="12" t="s">
         <v>273</v>
       </c>
@@ -4920,7 +4757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="21">
+    <row r="277" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="12" t="s">
         <v>273</v>
       </c>
@@ -4931,7 +4768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="21">
+    <row r="278" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="12" t="s">
         <v>273</v>
       </c>
@@ -4942,7 +4779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="21">
+    <row r="279" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="12" t="s">
         <v>273</v>
       </c>
@@ -4953,7 +4790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="21">
+    <row r="280" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="12" t="s">
         <v>273</v>
       </c>
@@ -4964,7 +4801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="21">
+    <row r="281" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="12" t="s">
         <v>273</v>
       </c>
@@ -4975,7 +4812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="21">
+    <row r="282" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="12" t="s">
         <v>273</v>
       </c>
@@ -4986,7 +4823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="21">
+    <row r="283" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="12" t="s">
         <v>273</v>
       </c>
@@ -4997,7 +4834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="21">
+    <row r="284" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="12" t="s">
         <v>273</v>
       </c>
@@ -5008,7 +4845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="21">
+    <row r="285" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="12" t="s">
         <v>273</v>
       </c>
@@ -5019,7 +4856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="21">
+    <row r="286" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="12" t="s">
         <v>273</v>
       </c>
@@ -5030,7 +4867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="21">
+    <row r="287" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="12" t="s">
         <v>273</v>
       </c>
@@ -5041,7 +4878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="21">
+    <row r="288" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="12" t="s">
         <v>273</v>
       </c>
@@ -5052,7 +4889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="21">
+    <row r="289" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="12" t="s">
         <v>273</v>
       </c>
@@ -5063,7 +4900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="21">
+    <row r="290" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="12" t="s">
         <v>273</v>
       </c>
@@ -5074,7 +4911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="21">
+    <row r="291" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="12" t="s">
         <v>273</v>
       </c>
@@ -5085,7 +4922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="21">
+    <row r="292" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="12" t="s">
         <v>273</v>
       </c>
@@ -5096,7 +4933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="21">
+    <row r="293" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="12" t="s">
         <v>273</v>
       </c>
@@ -5107,59 +4944,59 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="21">
+    <row r="294" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B294" s="17"/>
       <c r="C294" s="5"/>
     </row>
-    <row r="295" spans="1:3" ht="21">
+    <row r="295" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B295" s="17"/>
       <c r="C295" s="5"/>
     </row>
-    <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="27" t="s">
+    <row r="296" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="B296" s="28" t="s">
+      <c r="B296" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="C296" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" ht="21">
-      <c r="A297" s="27" t="s">
+      <c r="C296" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="B297" s="28" t="s">
+      <c r="B297" s="27" t="s">
         <v>295</v>
       </c>
-      <c r="C297" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" ht="21">
-      <c r="A298" s="27" t="s">
+      <c r="C297" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="B298" s="28" t="s">
+      <c r="B298" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="C298" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" ht="21">
-      <c r="A299" s="27" t="s">
+      <c r="C298" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="B299" s="28" t="s">
+      <c r="B299" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="C299" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" ht="21">
+      <c r="C299" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="12" t="s">
         <v>293</v>
       </c>
@@ -5170,1117 +5007,1126 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="21">
-      <c r="A301" s="27" t="s">
+    <row r="301" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="B301" s="28" t="s">
+      <c r="B301" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="C301" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" ht="21">
-      <c r="A302" s="27" t="s">
+      <c r="C301" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="B302" s="28" t="s">
+      <c r="B302" s="27" t="s">
         <v>300</v>
       </c>
-      <c r="C302" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" ht="21">
-      <c r="A303" s="27" t="s">
+      <c r="C302" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="B303" s="28" t="s">
+      <c r="B303" s="27" t="s">
         <v>301</v>
       </c>
-      <c r="C303" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" ht="21">
-      <c r="A304" s="27" t="s">
+      <c r="C303" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="B304" s="28" t="s">
+      <c r="B304" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="C304" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" ht="21">
-      <c r="A305" s="27" t="s">
+      <c r="C304" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="B305" s="28" t="s">
+      <c r="B305" s="27" t="s">
         <v>303</v>
       </c>
-      <c r="C305" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D305" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" ht="21">
-      <c r="A306" s="27" t="s">
+      <c r="C305" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D305" s="0" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="B306" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="C306" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" ht="21">
-      <c r="A307" s="27" t="s">
+      <c r="B306" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="C306" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="B307" s="28" t="s">
-        <v>305</v>
-      </c>
-      <c r="C307" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" ht="21">
-      <c r="A308" s="30" t="s">
+      <c r="B307" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="C307" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="B308" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="C308" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D308" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" ht="21">
-      <c r="A309" s="27" t="s">
+      <c r="B308" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="C308" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D308" s="0" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="B309" s="33" t="s">
-        <v>307</v>
-      </c>
-      <c r="C309" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" ht="21">
-      <c r="A310" s="27" t="s">
+      <c r="B309" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="C309" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="B310" s="28" t="s">
-        <v>308</v>
-      </c>
-      <c r="C310" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" ht="21">
-      <c r="A311" s="27" t="s">
+      <c r="B310" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="C310" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="B311" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="C311" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" ht="21">
-      <c r="A312" s="27" t="s">
+      <c r="B311" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="C311" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="B312" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="C312" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" ht="21">
-      <c r="A313" s="27" t="s">
+      <c r="B312" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="C312" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="B313" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="C313" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" ht="21">
-      <c r="A314" s="12" t="s">
+      <c r="B313" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="C313" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="B314" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="C314" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" ht="21">
-      <c r="A315" s="12" t="s">
+      <c r="B314" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="C314" s="32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="B315" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="C315" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" ht="21">
-      <c r="A316" s="12" t="s">
+      <c r="B315" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="C315" s="32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="B316" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="C316" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" ht="21">
-      <c r="A317" s="12" t="s">
+      <c r="B316" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="C316" s="32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="B317" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="C317" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" ht="21">
-      <c r="A318" s="12" t="s">
+      <c r="B317" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="C317" s="32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="B318" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="C318" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" ht="21">
+      <c r="B318" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="C318" s="32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="12" t="s">
         <v>293</v>
       </c>
       <c r="B319" s="13" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="21">
-      <c r="A320" s="12" t="s">
+    <row r="320" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="B320" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="C320" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" ht="21">
-      <c r="A321" s="12" t="s">
+      <c r="B320" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="C320" s="32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="B321" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="C321" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" ht="21">
-      <c r="A322" s="12" t="s">
+      <c r="B321" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="C321" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D321" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="B322" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="C322" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" ht="21">
-      <c r="A323" s="12" t="s">
+      <c r="B322" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="C322" s="32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="B323" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="C323" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" ht="21">
-      <c r="A324" s="12" t="s">
+      <c r="B323" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="C323" s="32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="B324" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="C324" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" ht="21">
-      <c r="A325" s="12" t="s">
+      <c r="B324" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="C324" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D324" s="0" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="B325" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="C325" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" ht="21">
+      <c r="B325" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="C325" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D325" s="0" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="12" t="s">
         <v>293</v>
       </c>
       <c r="B326" s="13" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="21">
+    <row r="327" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="12" t="s">
         <v>293</v>
       </c>
       <c r="B327" s="13" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="21">
+    <row r="328" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="12" t="s">
         <v>293</v>
       </c>
       <c r="B328" s="13" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="21">
+    <row r="329" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="12" t="s">
         <v>293</v>
       </c>
       <c r="B329" s="13" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="21">
+    <row r="330" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="12" t="s">
         <v>293</v>
       </c>
       <c r="B330" s="13" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="21">
+    <row r="331" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="12" t="s">
         <v>293</v>
       </c>
       <c r="B331" s="13" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="21">
+    <row r="332" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="12" t="s">
         <v>293</v>
       </c>
       <c r="B332" s="13" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="21">
+    <row r="333" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="12" t="s">
         <v>293</v>
       </c>
       <c r="B333" s="13" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C333" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="21">
+    <row r="334" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B334" s="17"/>
       <c r="C334" s="5"/>
     </row>
-    <row r="335" spans="1:3" ht="21">
+    <row r="335" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B335" s="17"/>
       <c r="C335" s="5"/>
     </row>
-    <row r="336" spans="1:3" ht="21">
+    <row r="336" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="12" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B336" s="13" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="21">
+    <row r="337" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="12" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B337" s="13" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="21">
+    <row r="338" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="12" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B338" s="13" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="21">
+    <row r="339" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="12" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B339" s="13" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="21">
+    <row r="340" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="12" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B340" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="C340" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="C340" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" ht="21">
-      <c r="A341" s="12" t="s">
-        <v>332</v>
-      </c>
       <c r="B341" s="13" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="21">
+    <row r="342" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="12" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B342" s="13" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="21">
+    <row r="343" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="12" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B343" s="13" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="21">
+    <row r="344" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="B344" s="26" t="s">
-        <v>341</v>
+        <v>337</v>
+      </c>
+      <c r="B344" s="33" t="s">
+        <v>346</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="21">
+    <row r="345" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="12" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B345" s="13" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="21">
+    <row r="346" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="12" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B346" s="13" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="21">
+    <row r="347" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="12" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B347" s="13" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="21">
+    <row r="348" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="12" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B348" s="13" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="21">
+    <row r="349" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="12" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B349" s="13" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="21">
+    <row r="350" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="12" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B350" s="13" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="21">
+    <row r="351" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="12" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B351" s="13" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="21">
+    <row r="352" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="12" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B352" s="13" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="21">
+    <row r="353" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="12" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B353" s="13" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="21">
+    <row r="354" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B354" s="17"/>
       <c r="C354" s="5"/>
     </row>
-    <row r="355" spans="1:3" ht="21">
+    <row r="355" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B355" s="17"/>
       <c r="C355" s="5"/>
     </row>
-    <row r="356" spans="1:3" ht="21">
+    <row r="356" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B356" s="13" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="21">
+    <row r="357" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B357" s="13" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="21">
+    <row r="358" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B358" s="13" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="21">
+    <row r="359" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B359" s="13" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="21">
+    <row r="360" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B360" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="C360" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="C360" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" ht="21">
-      <c r="A361" s="12" t="s">
-        <v>351</v>
-      </c>
       <c r="B361" s="13" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C361" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="21">
+    <row r="362" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B362" s="13" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C362" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="21">
+    <row r="363" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B363" s="13" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C363" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="21">
+    <row r="364" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B364" s="13" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C364" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="21">
+    <row r="365" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B365" s="13" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="21">
+    <row r="366" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B366" s="13" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="21">
+    <row r="367" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B367" s="13" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C367" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="21">
+    <row r="368" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B368" s="13" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C368" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="21">
+    <row r="369" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B369" s="13" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C369" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="21">
+    <row r="370" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B370" s="13" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C370" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="21">
+    <row r="371" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B371" s="13" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="21">
+    <row r="372" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B372" s="13" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C372" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="21">
+    <row r="373" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B373" s="13" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="21">
+    <row r="374" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B374" s="13" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="21">
+    <row r="375" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B375" s="13" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C375" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="21">
+    <row r="376" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B376" s="13" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C376" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="21">
+    <row r="377" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B377" s="13" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C377" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="21">
+    <row r="378" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B378" s="13" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C378" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="21">
+    <row r="379" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B379" s="13" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="21">
+    <row r="380" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B380" s="13" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C380" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="21">
+    <row r="381" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B381" s="13" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C381" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="21">
+    <row r="382" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B382" s="13" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C382" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="21">
+    <row r="383" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B383" s="13" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="21">
+    <row r="384" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B384" s="13" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C384" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="21">
+    <row r="385" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B385" s="13" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="21">
+    <row r="386" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B386" s="13" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C386" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="21">
+    <row r="387" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B387" s="13" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C387" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="21">
+    <row r="388" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B388" s="13" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="21">
+    <row r="389" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B389" s="13" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="21">
+    <row r="390" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B390" s="13" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="C390" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="21">
+    <row r="391" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B391" s="13" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="21">
+    <row r="392" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B392" s="13" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C392" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="21">
+    <row r="393" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B393" s="13" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="21">
+    <row r="394" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B394" s="13" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="C394" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="21">
+    <row r="395" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B395" s="13" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="21">
+    <row r="396" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B396" s="13" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="21">
+    <row r="397" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B397" s="13" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="21">
+    <row r="398" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B398" s="13" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="C398" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="21">
+    <row r="399" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B399" s="13" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="C399" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="21">
+    <row r="400" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B400" s="17"/>
       <c r="C400" s="5"/>
     </row>
-    <row r="401" spans="1:3" ht="21">
+    <row r="401" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B401" s="17"/>
       <c r="C401" s="5"/>
     </row>
-    <row r="402" spans="1:3" ht="21">
+    <row r="402" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="12" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B402" s="13" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C402" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="21">
+    <row r="403" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="12" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B403" s="13" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="21">
+    <row r="404" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="12" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B404" s="13" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="21">
+    <row r="405" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="12" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B405" s="13" t="s">
         <v>90</v>
@@ -6289,116 +6135,116 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="21">
+    <row r="406" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="12" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B406" s="13" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="21">
+    <row r="407" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="12" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B407" s="13" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="21">
+    <row r="408" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B408" s="17"/>
       <c r="C408" s="5"/>
     </row>
-    <row r="409" spans="1:3" ht="21">
+    <row r="409" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B409" s="17"/>
       <c r="C409" s="5"/>
     </row>
-    <row r="410" spans="1:3" ht="21">
+    <row r="410" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B410" s="13" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C410" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="21">
+    <row r="411" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B411" s="13" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="C411" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="21">
+    <row r="412" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B412" s="13" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C412" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="21">
+    <row r="413" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B413" s="13" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C413" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="21">
+    <row r="414" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B414" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="C414" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="C414" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3" ht="21">
-      <c r="A415" s="12" t="s">
-        <v>401</v>
-      </c>
       <c r="B415" s="13" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C415" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="21">
+    <row r="416" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B416" s="13" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="C416" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="21">
+    <row r="417" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B417" s="13" t="s">
         <v>281</v>
@@ -6407,692 +6253,692 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="21">
+    <row r="418" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B418" s="13" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="C418" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="21">
+    <row r="419" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B419" s="13" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C419" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="21">
+    <row r="420" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B420" s="13" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="C420" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="21">
+    <row r="421" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B421" s="13" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C421" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="21">
+    <row r="422" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B422" s="13" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="C422" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="21">
+    <row r="423" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B423" s="13" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="C423" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="21">
+    <row r="424" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B424" s="13" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="C424" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="21">
+    <row r="425" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B425" s="13" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C425" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="21">
+    <row r="426" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B426" s="13" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="C426" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="21">
+    <row r="427" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B427" s="13" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="C427" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="21">
+    <row r="428" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B428" s="13" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="C428" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="21">
+    <row r="429" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B429" s="13" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C429" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="21">
+    <row r="430" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B430" s="13" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C430" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="21">
+    <row r="431" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B431" s="13" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C431" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="21">
+    <row r="432" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B432" s="13" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="C432" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="21">
+    <row r="433" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B433" s="13" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C433" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="21">
+    <row r="434" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B434" s="13" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C434" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="21">
+    <row r="435" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B435" s="13" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="C435" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="21">
+    <row r="436" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B436" s="13" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="C436" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="21">
+    <row r="437" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B437" s="13" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C437" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="21">
+    <row r="438" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B438" s="13" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C438" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="21">
+    <row r="439" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B439" s="13" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="21">
+    <row r="440" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B440" s="13" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C440" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="21">
+    <row r="441" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B441" s="13" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C441" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="21">
+    <row r="442" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B442" s="13" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C442" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="21">
+    <row r="443" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B443" s="13" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C443" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="21">
+    <row r="444" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B444" s="13" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C444" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="21">
+    <row r="445" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B445" s="13" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="C445" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="21">
+    <row r="446" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B446" s="13" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C446" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="21">
+    <row r="447" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B447" s="13" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="C447" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="21">
+    <row r="448" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B448" s="13" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="C448" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="21">
+    <row r="449" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B449" s="13" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="C449" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="21">
+    <row r="450" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B450" s="13" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="C450" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="21">
+    <row r="451" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B451" s="13" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C451" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="21">
+    <row r="452" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B452" s="13" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C452" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="21">
+    <row r="453" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B453" s="13" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="C453" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="21">
+    <row r="454" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B454" s="13" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="C454" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="21">
+    <row r="455" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B455" s="13" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="C455" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="21">
+    <row r="456" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B456" s="13" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="C456" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="21">
+    <row r="457" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B457" s="13" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="C457" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="21">
+    <row r="458" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B458" s="13" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="C458" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="21">
+    <row r="459" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B459" s="13" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="C459" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="21">
+    <row r="460" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B460" s="13" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C460" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="21">
+    <row r="461" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B461" s="13" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="C461" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="21">
+    <row r="462" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B462" s="13" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="C462" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="21">
+    <row r="463" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B463" s="13" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="C463" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="21">
+    <row r="464" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B464" s="13" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C464" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="21">
+    <row r="465" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B465" s="13" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C465" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="21">
+    <row r="466" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B466" s="13" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="C466" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="21">
+    <row r="467" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B467" s="13" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="C467" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="21">
+    <row r="468" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B468" s="13" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="C468" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="21">
+    <row r="469" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B469" s="13" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="C469" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="21">
+    <row r="470" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B470" s="17"/>
       <c r="C470" s="5"/>
     </row>
-    <row r="471" spans="1:3" ht="21">
+    <row r="471" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="12"/>
       <c r="B471" s="17"/>
       <c r="C471" s="5"/>
     </row>
-    <row r="472" spans="1:3" ht="21">
+    <row r="472" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="12" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B472" s="13" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C472" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="21">
+    <row r="473" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="12" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B473" s="13" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="C473" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="474" spans="1:3" ht="21">
+    <row r="474" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="12" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B474" s="13" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C474" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="21">
+    <row r="475" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="12" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B475" s="13" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="C475" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="21">
+    <row r="476" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="12" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B476" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="C476" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="C476" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3" ht="21">
-      <c r="A477" s="12" t="s">
-        <v>461</v>
-      </c>
       <c r="B477" s="13" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="C477" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="478" spans="1:3" ht="21">
+    <row r="478" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="12" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B478" s="13" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="C478" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="479" spans="1:3" ht="21">
+    <row r="479" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="12" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B479" s="13" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="C479" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="21">
+    <row r="480" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="12" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B480" s="13" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="C480" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="21">
+    <row r="481" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="12" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B481" s="13" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="C481" s="5" t="s">
         <v>5</v>
@@ -7100,454 +6946,459 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2"/>
-    <hyperlink ref="B7" r:id="rId3"/>
-    <hyperlink ref="B8" r:id="rId4"/>
-    <hyperlink ref="B9" r:id="rId5"/>
-    <hyperlink ref="B10" r:id="rId6"/>
-    <hyperlink ref="B11" r:id="rId7"/>
-    <hyperlink ref="B12" r:id="rId8"/>
-    <hyperlink ref="B13" r:id="rId9"/>
-    <hyperlink ref="B14" r:id="rId10"/>
-    <hyperlink ref="B15" r:id="rId11"/>
-    <hyperlink ref="B16" r:id="rId12"/>
-    <hyperlink ref="B17" r:id="rId13"/>
-    <hyperlink ref="B18" r:id="rId14"/>
-    <hyperlink ref="B19" r:id="rId15"/>
-    <hyperlink ref="B20" r:id="rId16"/>
-    <hyperlink ref="B21" r:id="rId17"/>
-    <hyperlink ref="B22" r:id="rId18"/>
-    <hyperlink ref="B23" r:id="rId19"/>
-    <hyperlink ref="B24" r:id="rId20"/>
-    <hyperlink ref="B25" r:id="rId21"/>
-    <hyperlink ref="B26" r:id="rId22"/>
-    <hyperlink ref="B27" r:id="rId23"/>
-    <hyperlink ref="B28" r:id="rId24"/>
-    <hyperlink ref="B29" r:id="rId25"/>
-    <hyperlink ref="B30" r:id="rId26"/>
-    <hyperlink ref="B31" r:id="rId27"/>
-    <hyperlink ref="B32" r:id="rId28"/>
-    <hyperlink ref="B33" r:id="rId29"/>
-    <hyperlink ref="B34" r:id="rId30"/>
-    <hyperlink ref="B35" r:id="rId31"/>
-    <hyperlink ref="B36" r:id="rId32"/>
-    <hyperlink ref="B37" r:id="rId33"/>
-    <hyperlink ref="B38" r:id="rId34"/>
-    <hyperlink ref="B39" r:id="rId35"/>
-    <hyperlink ref="B40" r:id="rId36"/>
-    <hyperlink ref="B41" r:id="rId37"/>
-    <hyperlink ref="B44" r:id="rId38"/>
-    <hyperlink ref="B45" r:id="rId39"/>
-    <hyperlink ref="B46" r:id="rId40"/>
-    <hyperlink ref="B47" r:id="rId41"/>
-    <hyperlink ref="B48" r:id="rId42"/>
-    <hyperlink ref="B49" r:id="rId43"/>
-    <hyperlink ref="B50" r:id="rId44"/>
-    <hyperlink ref="B51" r:id="rId45"/>
-    <hyperlink ref="B52" r:id="rId46"/>
-    <hyperlink ref="B53" r:id="rId47"/>
-    <hyperlink ref="B56" r:id="rId48"/>
-    <hyperlink ref="B57" r:id="rId49"/>
-    <hyperlink ref="B58" r:id="rId50"/>
-    <hyperlink ref="B60" r:id="rId51"/>
-    <hyperlink ref="B61" r:id="rId52"/>
-    <hyperlink ref="B62" r:id="rId53"/>
-    <hyperlink ref="B63" r:id="rId54"/>
-    <hyperlink ref="B64" r:id="rId55"/>
-    <hyperlink ref="B65" r:id="rId56"/>
-    <hyperlink ref="B66" r:id="rId57"/>
-    <hyperlink ref="B67" r:id="rId58"/>
-    <hyperlink ref="B68" r:id="rId59"/>
-    <hyperlink ref="B69" r:id="rId60"/>
-    <hyperlink ref="B70" r:id="rId61"/>
-    <hyperlink ref="B71" r:id="rId62"/>
-    <hyperlink ref="B72" r:id="rId63"/>
-    <hyperlink ref="B73" r:id="rId64"/>
-    <hyperlink ref="B74" r:id="rId65"/>
-    <hyperlink ref="B75" r:id="rId66"/>
-    <hyperlink ref="B76" r:id="rId67"/>
-    <hyperlink ref="B77" r:id="rId68"/>
-    <hyperlink ref="B78" r:id="rId69"/>
-    <hyperlink ref="B79" r:id="rId70"/>
-    <hyperlink ref="B80" r:id="rId71"/>
-    <hyperlink ref="B81" r:id="rId72"/>
-    <hyperlink ref="B82" r:id="rId73"/>
-    <hyperlink ref="B83" r:id="rId74"/>
-    <hyperlink ref="B84" r:id="rId75"/>
-    <hyperlink ref="B85" r:id="rId76"/>
-    <hyperlink ref="B86" r:id="rId77"/>
-    <hyperlink ref="B87" r:id="rId78"/>
-    <hyperlink ref="B88" r:id="rId79"/>
-    <hyperlink ref="B89" r:id="rId80"/>
-    <hyperlink ref="B90" r:id="rId81"/>
-    <hyperlink ref="B91" r:id="rId82"/>
-    <hyperlink ref="B92" r:id="rId83"/>
-    <hyperlink ref="B93" r:id="rId84"/>
-    <hyperlink ref="B94" r:id="rId85"/>
-    <hyperlink ref="B95" r:id="rId86"/>
-    <hyperlink ref="B96" r:id="rId87"/>
-    <hyperlink ref="B97" r:id="rId88"/>
-    <hyperlink ref="B98" r:id="rId89"/>
-    <hyperlink ref="B101" r:id="rId90"/>
-    <hyperlink ref="B102" r:id="rId91"/>
-    <hyperlink ref="B103" r:id="rId92"/>
-    <hyperlink ref="B104" r:id="rId93"/>
-    <hyperlink ref="B105" r:id="rId94"/>
-    <hyperlink ref="B106" r:id="rId95" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance."/>
-    <hyperlink ref="B107" r:id="rId96"/>
-    <hyperlink ref="B108" r:id="rId97"/>
-    <hyperlink ref="B109" r:id="rId98"/>
-    <hyperlink ref="B110" r:id="rId99"/>
-    <hyperlink ref="B111" r:id="rId100"/>
-    <hyperlink ref="B112" r:id="rId101"/>
-    <hyperlink ref="B113" r:id="rId102"/>
-    <hyperlink ref="B114" r:id="rId103"/>
-    <hyperlink ref="B115" r:id="rId104"/>
-    <hyperlink ref="B116" r:id="rId105"/>
-    <hyperlink ref="B117" r:id="rId106"/>
-    <hyperlink ref="B118" r:id="rId107"/>
-    <hyperlink ref="B119" r:id="rId108"/>
-    <hyperlink ref="B120" r:id="rId109"/>
-    <hyperlink ref="B121" r:id="rId110"/>
-    <hyperlink ref="B122" r:id="rId111"/>
-    <hyperlink ref="B123" r:id="rId112"/>
-    <hyperlink ref="B124" r:id="rId113"/>
-    <hyperlink ref="B125" r:id="rId114"/>
-    <hyperlink ref="B126" r:id="rId115"/>
-    <hyperlink ref="B127" r:id="rId116"/>
-    <hyperlink ref="B128" r:id="rId117"/>
-    <hyperlink ref="B129" r:id="rId118"/>
-    <hyperlink ref="B130" r:id="rId119"/>
-    <hyperlink ref="B131" r:id="rId120"/>
-    <hyperlink ref="B132" r:id="rId121"/>
-    <hyperlink ref="B133" r:id="rId122"/>
-    <hyperlink ref="B134" r:id="rId123"/>
-    <hyperlink ref="B135" r:id="rId124"/>
-    <hyperlink ref="B136" r:id="rId125"/>
-    <hyperlink ref="B139" r:id="rId126"/>
-    <hyperlink ref="B140" r:id="rId127"/>
-    <hyperlink ref="B141" r:id="rId128"/>
-    <hyperlink ref="B142" r:id="rId129"/>
-    <hyperlink ref="B143" r:id="rId130"/>
-    <hyperlink ref="B144" r:id="rId131"/>
-    <hyperlink ref="B145" r:id="rId132"/>
-    <hyperlink ref="B146" r:id="rId133"/>
-    <hyperlink ref="B147" r:id="rId134"/>
-    <hyperlink ref="B148" r:id="rId135"/>
-    <hyperlink ref="B149" r:id="rId136"/>
-    <hyperlink ref="B150" r:id="rId137"/>
-    <hyperlink ref="B151" r:id="rId138"/>
-    <hyperlink ref="B152" r:id="rId139"/>
-    <hyperlink ref="B153" r:id="rId140"/>
-    <hyperlink ref="B154" r:id="rId141"/>
-    <hyperlink ref="B155" r:id="rId142"/>
-    <hyperlink ref="B156" r:id="rId143"/>
-    <hyperlink ref="B157" r:id="rId144"/>
-    <hyperlink ref="B158" r:id="rId145"/>
-    <hyperlink ref="B159" r:id="rId146"/>
-    <hyperlink ref="B160" r:id="rId147"/>
-    <hyperlink ref="B161" r:id="rId148"/>
-    <hyperlink ref="B162" r:id="rId149"/>
-    <hyperlink ref="B163" r:id="rId150"/>
-    <hyperlink ref="B166" r:id="rId151"/>
-    <hyperlink ref="B167" r:id="rId152"/>
-    <hyperlink ref="B168" r:id="rId153"/>
-    <hyperlink ref="B169" r:id="rId154"/>
-    <hyperlink ref="B170" r:id="rId155"/>
-    <hyperlink ref="B171" r:id="rId156"/>
-    <hyperlink ref="B172" r:id="rId157"/>
-    <hyperlink ref="B173" r:id="rId158"/>
-    <hyperlink ref="B174" r:id="rId159"/>
-    <hyperlink ref="B177" r:id="rId160"/>
-    <hyperlink ref="B178" r:id="rId161"/>
-    <hyperlink ref="B179" r:id="rId162"/>
-    <hyperlink ref="B180" r:id="rId163"/>
-    <hyperlink ref="B181" r:id="rId164"/>
-    <hyperlink ref="B182" r:id="rId165"/>
-    <hyperlink ref="B183" r:id="rId166"/>
-    <hyperlink ref="B184" r:id="rId167"/>
-    <hyperlink ref="B185" r:id="rId168"/>
-    <hyperlink ref="B186" r:id="rId169"/>
-    <hyperlink ref="B187" r:id="rId170"/>
-    <hyperlink ref="B188" r:id="rId171"/>
-    <hyperlink ref="B189" r:id="rId172"/>
-    <hyperlink ref="B190" r:id="rId173"/>
-    <hyperlink ref="B191" r:id="rId174"/>
-    <hyperlink ref="B192" r:id="rId175"/>
-    <hyperlink ref="B193" r:id="rId176"/>
-    <hyperlink ref="B194" r:id="rId177"/>
-    <hyperlink ref="B195" r:id="rId178"/>
-    <hyperlink ref="B196" r:id="rId179"/>
-    <hyperlink ref="B197" r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
-    <hyperlink ref="B198" r:id="rId181"/>
-    <hyperlink ref="B199" r:id="rId182"/>
-    <hyperlink ref="B200" r:id="rId183"/>
-    <hyperlink ref="B201" r:id="rId184"/>
-    <hyperlink ref="B202" r:id="rId185"/>
-    <hyperlink ref="B203" r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
-    <hyperlink ref="B204" r:id="rId187"/>
-    <hyperlink ref="B205" r:id="rId188"/>
-    <hyperlink ref="B206" r:id="rId189"/>
-    <hyperlink ref="B207" r:id="rId190"/>
-    <hyperlink ref="B208" r:id="rId191"/>
-    <hyperlink ref="B209" r:id="rId192"/>
-    <hyperlink ref="B210" r:id="rId193"/>
-    <hyperlink ref="B211" r:id="rId194"/>
-    <hyperlink ref="B214" r:id="rId195"/>
-    <hyperlink ref="B215" r:id="rId196"/>
-    <hyperlink ref="B216" r:id="rId197"/>
-    <hyperlink ref="B217" r:id="rId198"/>
-    <hyperlink ref="B218" r:id="rId199"/>
-    <hyperlink ref="B219" r:id="rId200"/>
-    <hyperlink ref="B220" r:id="rId201"/>
-    <hyperlink ref="B221" r:id="rId202"/>
-    <hyperlink ref="B222" r:id="rId203"/>
-    <hyperlink ref="B223" r:id="rId204"/>
-    <hyperlink ref="B224" r:id="rId205"/>
-    <hyperlink ref="B225" r:id="rId206"/>
-    <hyperlink ref="B226" r:id="rId207"/>
-    <hyperlink ref="B227" r:id="rId208"/>
-    <hyperlink ref="B228" r:id="rId209"/>
-    <hyperlink ref="B229" r:id="rId210"/>
-    <hyperlink ref="B230" r:id="rId211"/>
-    <hyperlink ref="B231" r:id="rId212"/>
-    <hyperlink ref="B232" r:id="rId213"/>
-    <hyperlink ref="B233" r:id="rId214"/>
-    <hyperlink ref="B234" r:id="rId215"/>
-    <hyperlink ref="B235" r:id="rId216"/>
-    <hyperlink ref="B238" r:id="rId217"/>
-    <hyperlink ref="B239" r:id="rId218"/>
-    <hyperlink ref="B240" r:id="rId219"/>
-    <hyperlink ref="B241" r:id="rId220"/>
-    <hyperlink ref="B242" r:id="rId221"/>
-    <hyperlink ref="B243" r:id="rId222"/>
-    <hyperlink ref="B244" r:id="rId223"/>
-    <hyperlink ref="B245" r:id="rId224"/>
-    <hyperlink ref="B246" r:id="rId225"/>
-    <hyperlink ref="B247" r:id="rId226"/>
-    <hyperlink ref="B248" r:id="rId227"/>
-    <hyperlink ref="B249" r:id="rId228"/>
-    <hyperlink ref="B250" r:id="rId229"/>
-    <hyperlink ref="B251" r:id="rId230"/>
-    <hyperlink ref="B252" r:id="rId231"/>
-    <hyperlink ref="B253" r:id="rId232"/>
-    <hyperlink ref="B254" r:id="rId233"/>
-    <hyperlink ref="B255" r:id="rId234"/>
-    <hyperlink ref="B256" r:id="rId235"/>
-    <hyperlink ref="B257" r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
-    <hyperlink ref="B258" r:id="rId237"/>
-    <hyperlink ref="B259" r:id="rId238"/>
-    <hyperlink ref="B260" r:id="rId239"/>
-    <hyperlink ref="B261" r:id="rId240"/>
-    <hyperlink ref="B262" r:id="rId241"/>
-    <hyperlink ref="B263" r:id="rId242"/>
-    <hyperlink ref="B264" r:id="rId243"/>
-    <hyperlink ref="B265" r:id="rId244"/>
-    <hyperlink ref="B266" r:id="rId245"/>
-    <hyperlink ref="B267" r:id="rId246"/>
-    <hyperlink ref="B268" r:id="rId247"/>
-    <hyperlink ref="B269" r:id="rId248"/>
-    <hyperlink ref="B270" r:id="rId249"/>
-    <hyperlink ref="B271" r:id="rId250"/>
-    <hyperlink ref="B272" r:id="rId251"/>
-    <hyperlink ref="B275" r:id="rId252"/>
-    <hyperlink ref="B276" r:id="rId253"/>
-    <hyperlink ref="B277" r:id="rId254"/>
-    <hyperlink ref="B278" r:id="rId255"/>
-    <hyperlink ref="B279" r:id="rId256"/>
-    <hyperlink ref="B280" r:id="rId257"/>
-    <hyperlink ref="B281" r:id="rId258"/>
-    <hyperlink ref="B282" r:id="rId259"/>
-    <hyperlink ref="B283" r:id="rId260"/>
-    <hyperlink ref="B284" r:id="rId261"/>
-    <hyperlink ref="B285" r:id="rId262"/>
-    <hyperlink ref="B286" r:id="rId263"/>
-    <hyperlink ref="B287" r:id="rId264"/>
-    <hyperlink ref="B288" r:id="rId265"/>
-    <hyperlink ref="B289" r:id="rId266"/>
-    <hyperlink ref="B290" r:id="rId267"/>
-    <hyperlink ref="B291" r:id="rId268"/>
-    <hyperlink ref="B292" r:id="rId269"/>
-    <hyperlink ref="B293" r:id="rId270"/>
-    <hyperlink ref="B296" r:id="rId271"/>
-    <hyperlink ref="B297" r:id="rId272"/>
-    <hyperlink ref="B298" r:id="rId273"/>
-    <hyperlink ref="B299" r:id="rId274"/>
-    <hyperlink ref="B300" r:id="rId275"/>
-    <hyperlink ref="B301" r:id="rId276"/>
-    <hyperlink ref="B302" r:id="rId277"/>
-    <hyperlink ref="B303" r:id="rId278"/>
-    <hyperlink ref="B304" r:id="rId279"/>
-    <hyperlink ref="B305" r:id="rId280"/>
-    <hyperlink ref="B306" r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
-    <hyperlink ref="B307" r:id="rId282"/>
-    <hyperlink ref="B308" r:id="rId283"/>
-    <hyperlink ref="B309" r:id="rId284"/>
-    <hyperlink ref="B310" r:id="rId285"/>
-    <hyperlink ref="B311" r:id="rId286"/>
-    <hyperlink ref="B312" r:id="rId287"/>
-    <hyperlink ref="B313" r:id="rId288"/>
-    <hyperlink ref="B314" r:id="rId289"/>
-    <hyperlink ref="B315" r:id="rId290"/>
-    <hyperlink ref="B316" r:id="rId291"/>
-    <hyperlink ref="B317" r:id="rId292"/>
-    <hyperlink ref="B318" r:id="rId293"/>
-    <hyperlink ref="B319" r:id="rId294"/>
-    <hyperlink ref="B320" r:id="rId295"/>
-    <hyperlink ref="B321" r:id="rId296"/>
-    <hyperlink ref="B322" r:id="rId297"/>
-    <hyperlink ref="B323" r:id="rId298"/>
-    <hyperlink ref="B324" r:id="rId299"/>
-    <hyperlink ref="B325" r:id="rId300"/>
-    <hyperlink ref="B326" r:id="rId301"/>
-    <hyperlink ref="B327" r:id="rId302"/>
-    <hyperlink ref="B328" r:id="rId303"/>
-    <hyperlink ref="B329" r:id="rId304"/>
-    <hyperlink ref="B330" r:id="rId305"/>
-    <hyperlink ref="B331" r:id="rId306"/>
-    <hyperlink ref="B332" r:id="rId307"/>
-    <hyperlink ref="B333" r:id="rId308"/>
-    <hyperlink ref="B336" r:id="rId309"/>
-    <hyperlink ref="B337" r:id="rId310"/>
-    <hyperlink ref="B338" r:id="rId311"/>
-    <hyperlink ref="B339" r:id="rId312"/>
-    <hyperlink ref="B340" r:id="rId313"/>
-    <hyperlink ref="B341" r:id="rId314"/>
-    <hyperlink ref="B342" r:id="rId315"/>
-    <hyperlink ref="B343" r:id="rId316"/>
-    <hyperlink ref="B344" r:id="rId317"/>
-    <hyperlink ref="B345" r:id="rId318"/>
-    <hyperlink ref="B346" r:id="rId319"/>
-    <hyperlink ref="B347" r:id="rId320"/>
-    <hyperlink ref="B348" r:id="rId321"/>
-    <hyperlink ref="B349" r:id="rId322"/>
-    <hyperlink ref="B350" r:id="rId323"/>
-    <hyperlink ref="B351" r:id="rId324"/>
-    <hyperlink ref="B352" r:id="rId325"/>
-    <hyperlink ref="B353" r:id="rId326"/>
-    <hyperlink ref="B356" r:id="rId327"/>
-    <hyperlink ref="B357" r:id="rId328"/>
-    <hyperlink ref="B358" r:id="rId329"/>
-    <hyperlink ref="B359" r:id="rId330"/>
-    <hyperlink ref="B360" r:id="rId331"/>
-    <hyperlink ref="B361" r:id="rId332"/>
-    <hyperlink ref="B362" r:id="rId333"/>
-    <hyperlink ref="B363" r:id="rId334"/>
-    <hyperlink ref="B364" r:id="rId335"/>
-    <hyperlink ref="B365" r:id="rId336"/>
-    <hyperlink ref="B366" r:id="rId337"/>
-    <hyperlink ref="B367" r:id="rId338"/>
-    <hyperlink ref="B368" r:id="rId339"/>
-    <hyperlink ref="B369" r:id="rId340"/>
-    <hyperlink ref="B370" r:id="rId341"/>
-    <hyperlink ref="B371" r:id="rId342"/>
-    <hyperlink ref="B372" r:id="rId343"/>
-    <hyperlink ref="B373" r:id="rId344"/>
-    <hyperlink ref="B374" r:id="rId345"/>
-    <hyperlink ref="B375" r:id="rId346"/>
-    <hyperlink ref="B376" r:id="rId347"/>
-    <hyperlink ref="B377" r:id="rId348"/>
-    <hyperlink ref="B378" r:id="rId349"/>
-    <hyperlink ref="B379" r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
-    <hyperlink ref="B380" r:id="rId351"/>
-    <hyperlink ref="B381" r:id="rId352"/>
-    <hyperlink ref="B382" r:id="rId353"/>
-    <hyperlink ref="B383" r:id="rId354"/>
-    <hyperlink ref="B384" r:id="rId355"/>
-    <hyperlink ref="B385" r:id="rId356"/>
-    <hyperlink ref="B386" r:id="rId357"/>
-    <hyperlink ref="B387" r:id="rId358"/>
-    <hyperlink ref="B388" r:id="rId359"/>
-    <hyperlink ref="B389" r:id="rId360"/>
-    <hyperlink ref="B390" r:id="rId361"/>
-    <hyperlink ref="B391" r:id="rId362"/>
-    <hyperlink ref="B392" r:id="rId363"/>
-    <hyperlink ref="B393" r:id="rId364"/>
-    <hyperlink ref="B394" r:id="rId365"/>
-    <hyperlink ref="B395" r:id="rId366"/>
-    <hyperlink ref="B396" r:id="rId367"/>
-    <hyperlink ref="B397" r:id="rId368"/>
-    <hyperlink ref="B398" r:id="rId369"/>
-    <hyperlink ref="B399" r:id="rId370"/>
-    <hyperlink ref="B402" r:id="rId371"/>
-    <hyperlink ref="B403" r:id="rId372"/>
-    <hyperlink ref="B404" r:id="rId373"/>
-    <hyperlink ref="B405" r:id="rId374"/>
-    <hyperlink ref="B406" r:id="rId375"/>
-    <hyperlink ref="B407" r:id="rId376"/>
-    <hyperlink ref="B410" r:id="rId377"/>
-    <hyperlink ref="B411" r:id="rId378"/>
-    <hyperlink ref="B412" r:id="rId379"/>
-    <hyperlink ref="B413" r:id="rId380"/>
-    <hyperlink ref="B414" r:id="rId381"/>
-    <hyperlink ref="B415" r:id="rId382"/>
-    <hyperlink ref="B416" r:id="rId383"/>
-    <hyperlink ref="B417" r:id="rId384"/>
-    <hyperlink ref="B418" r:id="rId385"/>
-    <hyperlink ref="B419" r:id="rId386"/>
-    <hyperlink ref="B420" r:id="rId387"/>
-    <hyperlink ref="B421" r:id="rId388"/>
-    <hyperlink ref="B422" r:id="rId389"/>
-    <hyperlink ref="B423" r:id="rId390"/>
-    <hyperlink ref="B424" r:id="rId391"/>
-    <hyperlink ref="B425" r:id="rId392"/>
-    <hyperlink ref="B426" r:id="rId393"/>
-    <hyperlink ref="B427" r:id="rId394"/>
-    <hyperlink ref="B428" r:id="rId395"/>
-    <hyperlink ref="B429" r:id="rId396"/>
-    <hyperlink ref="B430" r:id="rId397"/>
-    <hyperlink ref="B431" r:id="rId398"/>
-    <hyperlink ref="B432" r:id="rId399"/>
-    <hyperlink ref="B433" r:id="rId400"/>
-    <hyperlink ref="B434" r:id="rId401"/>
-    <hyperlink ref="B435" r:id="rId402"/>
-    <hyperlink ref="B436" r:id="rId403"/>
-    <hyperlink ref="B437" r:id="rId404"/>
-    <hyperlink ref="B438" r:id="rId405"/>
-    <hyperlink ref="B439" r:id="rId406"/>
-    <hyperlink ref="B440" r:id="rId407"/>
-    <hyperlink ref="B441" r:id="rId408"/>
-    <hyperlink ref="B442" r:id="rId409"/>
-    <hyperlink ref="B443" r:id="rId410"/>
-    <hyperlink ref="B444" r:id="rId411"/>
-    <hyperlink ref="B445" r:id="rId412"/>
-    <hyperlink ref="B446" r:id="rId413"/>
-    <hyperlink ref="B447" r:id="rId414"/>
-    <hyperlink ref="B448" r:id="rId415"/>
-    <hyperlink ref="B449" r:id="rId416"/>
-    <hyperlink ref="B450" r:id="rId417"/>
-    <hyperlink ref="B451" r:id="rId418"/>
-    <hyperlink ref="B452" r:id="rId419"/>
-    <hyperlink ref="B453" r:id="rId420"/>
-    <hyperlink ref="B454" r:id="rId421"/>
-    <hyperlink ref="B455" r:id="rId422"/>
-    <hyperlink ref="B456" r:id="rId423"/>
-    <hyperlink ref="B457" r:id="rId424"/>
-    <hyperlink ref="B458" r:id="rId425"/>
-    <hyperlink ref="B459" r:id="rId426"/>
-    <hyperlink ref="B460" r:id="rId427"/>
-    <hyperlink ref="B461" r:id="rId428"/>
-    <hyperlink ref="B462" r:id="rId429"/>
-    <hyperlink ref="B463" r:id="rId430"/>
-    <hyperlink ref="B464" r:id="rId431"/>
-    <hyperlink ref="B465" r:id="rId432"/>
-    <hyperlink ref="B466" r:id="rId433"/>
-    <hyperlink ref="B467" r:id="rId434"/>
-    <hyperlink ref="B468" r:id="rId435"/>
-    <hyperlink ref="B469" r:id="rId436"/>
-    <hyperlink ref="B472" r:id="rId437"/>
-    <hyperlink ref="B473" r:id="rId438"/>
-    <hyperlink ref="B474" r:id="rId439"/>
-    <hyperlink ref="B475" r:id="rId440"/>
-    <hyperlink ref="B476" r:id="rId441"/>
-    <hyperlink ref="B477" r:id="rId442"/>
-    <hyperlink ref="B478" r:id="rId443"/>
-    <hyperlink ref="B479" r:id="rId444"/>
-    <hyperlink ref="B480" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
-    <hyperlink ref="B481" r:id="rId446"/>
+    <hyperlink ref="B2" r:id="rId1" display="Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw "/>
+    <hyperlink ref="B6" r:id="rId2" display="Reverse the array"/>
+    <hyperlink ref="B7" r:id="rId3" display="Find the maximum and minimum element in an array"/>
+    <hyperlink ref="B8" r:id="rId4" display="Find the &quot;Kth&quot; max and min element of an array "/>
+    <hyperlink ref="B9" r:id="rId5" display="Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo"/>
+    <hyperlink ref="B10" r:id="rId6" display="Move all the negative elements to one side of the array "/>
+    <hyperlink ref="B11" r:id="rId7" display="Find the Union and Intersection of the two sorted arrays."/>
+    <hyperlink ref="B12" r:id="rId8" display="Write a program to cyclically rotate an array by one."/>
+    <hyperlink ref="B13" r:id="rId9" display="find Largest sum contiguous Subarray [V. IMP]"/>
+    <hyperlink ref="B14" r:id="rId10" display="Minimise the maximum difference between heights [V.IMP]"/>
+    <hyperlink ref="B15" r:id="rId11" display="Minimum no. of Jumps to reach end of an array"/>
+    <hyperlink ref="B16" r:id="rId12" display="find duplicate in an array of N+1 Integers"/>
+    <hyperlink ref="B17" r:id="rId13" display="Merge 2 sorted arrays without using Extra space."/>
+    <hyperlink ref="B18" r:id="rId14" display="Kadane's Algo [V.V.V.V.V IMP]"/>
+    <hyperlink ref="B19" r:id="rId15" display="Merge Intervals"/>
+    <hyperlink ref="B20" r:id="rId16" display="Next Permutation"/>
+    <hyperlink ref="B21" r:id="rId17" display="Count Inversion"/>
+    <hyperlink ref="B22" r:id="rId18" display="Best time to buy and Sell stock"/>
+    <hyperlink ref="B23" r:id="rId19" display="find all pairs on integer array whose sum is equal to given number"/>
+    <hyperlink ref="B24" r:id="rId20" display="find common elements In 3 sorted arrays"/>
+    <hyperlink ref="B25" r:id="rId21" display="Rearrange the array in alternating positive and negative items with O(1) extra space"/>
+    <hyperlink ref="B26" r:id="rId22" display="Find if there is any subarray with sum equal to 0"/>
+    <hyperlink ref="B27" r:id="rId23" display="Find factorial of a large number"/>
+    <hyperlink ref="B28" r:id="rId24" display="find maximum product subarray "/>
+    <hyperlink ref="B29" r:id="rId25" display="Find longest coinsecutive subsequence"/>
+    <hyperlink ref="B30" r:id="rId26" display="Given an array of size n and a number k, fin all elements that appear more than &quot; n/k &quot; times."/>
+    <hyperlink ref="B31" r:id="rId27" display="Maximum profit by buying and selling a share atmost twice"/>
+    <hyperlink ref="B32" r:id="rId28" display="Find whether an array is a subset of another array"/>
+    <hyperlink ref="B33" r:id="rId29" display="Find the triplet that sum to a given value"/>
+    <hyperlink ref="B34" r:id="rId30" display="Trapping Rain water problem"/>
+    <hyperlink ref="B35" r:id="rId31" display="Chocolate Distribution problem"/>
+    <hyperlink ref="B36" r:id="rId32" display="Smallest Subarray with sum greater than a given value"/>
+    <hyperlink ref="B37" r:id="rId33" display="Three way partitioning of an array around a given value"/>
+    <hyperlink ref="B38" r:id="rId34" display="Minimum swaps required bring elements less equal K together"/>
+    <hyperlink ref="B39" r:id="rId35" display="Minimum no. of operations required to make an array palindrome"/>
+    <hyperlink ref="B40" r:id="rId36" display="Median of 2 sorted arrays of equal size"/>
+    <hyperlink ref="B41" r:id="rId37" display="Median of 2 sorted arrays of different size"/>
+    <hyperlink ref="B44" r:id="rId38" display="Spiral traversal on a Matrix"/>
+    <hyperlink ref="B45" r:id="rId39" display="Search an element in a matriix"/>
+    <hyperlink ref="B46" r:id="rId40" display="Find median in a row wise sorted matrix"/>
+    <hyperlink ref="B47" r:id="rId41" display="Find row with maximum no. of 1's"/>
+    <hyperlink ref="B48" r:id="rId42" display="Print elements in sorted order using row-column wise sorted matrix"/>
+    <hyperlink ref="B49" r:id="rId43" display="Maximum size rectangle"/>
+    <hyperlink ref="B50" r:id="rId44" display="Find a specific pair in matrix"/>
+    <hyperlink ref="B51" r:id="rId45" display="Rotate matrix by 90 degrees"/>
+    <hyperlink ref="B52" r:id="rId46" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
+    <hyperlink ref="B53" r:id="rId47" display="Common elements in all rows of a given matrix"/>
+    <hyperlink ref="B56" r:id="rId48" display="Reverse a String"/>
+    <hyperlink ref="B57" r:id="rId49" display="Check whether a String is Palindrome or not"/>
+    <hyperlink ref="B58" r:id="rId50" display="Find Duplicate characters in a string"/>
+    <hyperlink ref="B60" r:id="rId51" display="Write a Code to check whether one string is a rotation of another"/>
+    <hyperlink ref="B61" r:id="rId52" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
+    <hyperlink ref="B62" r:id="rId53" display="Count and Say problem"/>
+    <hyperlink ref="B63" r:id="rId54" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
+    <hyperlink ref="B64" r:id="rId55" display="Find Longest Recurring Subsequence in String"/>
+    <hyperlink ref="B65" r:id="rId56" display="Print all Subsequences of a string."/>
+    <hyperlink ref="B66" r:id="rId57" display="Print all the permutations of the given string"/>
+    <hyperlink ref="B67" r:id="rId58" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
+    <hyperlink ref="B68" r:id="rId59" display="Word Wrap Problem [VERY IMP]."/>
+    <hyperlink ref="B69" r:id="rId60" display="EDIT Distance [Very Imp]"/>
+    <hyperlink ref="B70" r:id="rId61" display="Find next greater number with same set of digits. [Very Very IMP]"/>
+    <hyperlink ref="B71" r:id="rId62" display="Balanced Parenthesis problem.[Imp]"/>
+    <hyperlink ref="B72" r:id="rId63" display="Word break Problem[ Very Imp]"/>
+    <hyperlink ref="B73" r:id="rId64" display="Rabin Karp Algo"/>
+    <hyperlink ref="B74" r:id="rId65" display="KMP Algo"/>
+    <hyperlink ref="B75" r:id="rId66" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
+    <hyperlink ref="B76" r:id="rId67" display="Minimum number of bracket reversals needed to make an expression balanced."/>
+    <hyperlink ref="B77" r:id="rId68" display="Count All Palindromic Subsequence in a given String."/>
+    <hyperlink ref="B78" r:id="rId69" display="Count of number of given string in 2D character array"/>
+    <hyperlink ref="B79" r:id="rId70" display="Search a Word in a 2D Grid of characters."/>
+    <hyperlink ref="B80" r:id="rId71" display="Boyer Moore Algorithm for Pattern Searching."/>
+    <hyperlink ref="B81" r:id="rId72" display="Converting Roman Numerals to Decimal"/>
+    <hyperlink ref="B82" r:id="rId73" display="Longest Common Prefix"/>
+    <hyperlink ref="B83" r:id="rId74" display="Number of flips to make binary string alternate"/>
+    <hyperlink ref="B84" r:id="rId75" display="Find the first repeated word in string."/>
+    <hyperlink ref="B85" r:id="rId76" display="Minimum number of swaps for bracket balancing."/>
+    <hyperlink ref="B86" r:id="rId77" display="Find the longest common subsequence between two strings."/>
+    <hyperlink ref="B87" r:id="rId78" display="Program to generate all possible valid IP addresses from given  string."/>
+    <hyperlink ref="B88" r:id="rId79" display="Write a program tofind the smallest window that contains all characters of string itself."/>
+    <hyperlink ref="B89" r:id="rId80" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="B90" r:id="rId81" display="Minimum characters to be added at front to make string palindrome"/>
+    <hyperlink ref="B91" r:id="rId82" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="B92" r:id="rId83" display="Find the smallest window in a string containing all characters of another string"/>
+    <hyperlink ref="B93" r:id="rId84" display="Recursively remove all adjacent duplicates"/>
+    <hyperlink ref="B94" r:id="rId85" display="String matching where one string contains wildcard characters"/>
+    <hyperlink ref="B95" r:id="rId86" display="Function to find Number of customers who could not get a computer"/>
+    <hyperlink ref="B96" r:id="rId87" display="Transform One String to Another using Minimum Number of Given Operation"/>
+    <hyperlink ref="B97" r:id="rId88" display="Check if two given strings are isomorphic to each other"/>
+    <hyperlink ref="B98" r:id="rId89" display="Recursively print all sentences that can be formed from list of word lists"/>
+    <hyperlink ref="B101" r:id="rId90" display="Find first and last positions of an element in a sorted array"/>
+    <hyperlink ref="B102" r:id="rId91" display="Find a Fixed Point (Value equal to index) in a given array"/>
+    <hyperlink ref="B103" r:id="rId92" display="Search in a rotated sorted array"/>
+    <hyperlink ref="B104" r:id="rId93" display="square root of an integer"/>
+    <hyperlink ref="B105" r:id="rId94" display="Maximum and minimum of an array using minimum number of comparisons"/>
+    <hyperlink ref="B106" r:id="rId95" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." display="Optimum location of point to minimize total distance"/>
+    <hyperlink ref="B107" r:id="rId96" display="Find the repeating and the missing"/>
+    <hyperlink ref="B108" r:id="rId97" display="find majority element"/>
+    <hyperlink ref="B109" r:id="rId98" display="Searching in an array where adjacent differ by at most k"/>
+    <hyperlink ref="B110" r:id="rId99" display="find a pair with a given difference"/>
+    <hyperlink ref="B111" r:id="rId100" display="find four elements that sum to a given value"/>
+    <hyperlink ref="B112" r:id="rId101" display="maximum sum such that no 2 elements are adjacent"/>
+    <hyperlink ref="B113" r:id="rId102" display="Count triplet with sum smaller than a given value"/>
+    <hyperlink ref="B114" r:id="rId103" display="merge 2 sorted arrays"/>
+    <hyperlink ref="B115" r:id="rId104" display="print all subarrays with 0 sum"/>
+    <hyperlink ref="B116" r:id="rId105" display="Product array Puzzle"/>
+    <hyperlink ref="B117" r:id="rId106" display="Sort array according to count of set bits"/>
+    <hyperlink ref="B118" r:id="rId107" display="minimum no. of swaps required to sort the array"/>
+    <hyperlink ref="B119" r:id="rId108" display="Bishu and Soldiers"/>
+    <hyperlink ref="B120" r:id="rId109" display="Rasta and Kheshtak"/>
+    <hyperlink ref="B121" r:id="rId110" display="Kth smallest number again"/>
+    <hyperlink ref="B122" r:id="rId111" display="Find pivot element in a sorted array"/>
+    <hyperlink ref="B123" r:id="rId112" display="K-th Element of Two Sorted Arrays"/>
+    <hyperlink ref="B124" r:id="rId113" display="Aggressive cows"/>
+    <hyperlink ref="B125" r:id="rId114" display="Book Allocation Problem"/>
+    <hyperlink ref="B126" r:id="rId115" display="EKOSPOJ:"/>
+    <hyperlink ref="B127" r:id="rId116" display="Job Scheduling Algo"/>
+    <hyperlink ref="B128" r:id="rId117" display="Missing Number in AP"/>
+    <hyperlink ref="B129" r:id="rId118" display="Smallest number with atleastn trailing zeroes infactorial"/>
+    <hyperlink ref="B130" r:id="rId119" display="Painters Partition Problem:"/>
+    <hyperlink ref="B131" r:id="rId120" display="ROTI-Prata SPOJ"/>
+    <hyperlink ref="B132" r:id="rId121" display="DoubleHelix SPOJ"/>
+    <hyperlink ref="B133" r:id="rId122" display="Subset Sums"/>
+    <hyperlink ref="B134" r:id="rId123" display="Findthe inversion count"/>
+    <hyperlink ref="B135" r:id="rId124" display="Implement Merge-sort in-place"/>
+    <hyperlink ref="B136" r:id="rId125" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
+    <hyperlink ref="B139" r:id="rId126" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
+    <hyperlink ref="B140" r:id="rId127" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
+    <hyperlink ref="B141" r:id="rId128" display="Write a program to Detect loop in a linked list."/>
+    <hyperlink ref="B142" r:id="rId129" display="Write a program to Delete loop in a linked list."/>
+    <hyperlink ref="B143" r:id="rId130" display="Find the starting point of the loop. "/>
+    <hyperlink ref="B144" r:id="rId131" display="Remove Duplicates in a sorted Linked List."/>
+    <hyperlink ref="B145" r:id="rId132" display="Remove Duplicates in a Un-sorted Linked List."/>
+    <hyperlink ref="B146" r:id="rId133" display="Write a Program to Move the last element to Front in a Linked List."/>
+    <hyperlink ref="B147" r:id="rId134" display="Add “1” to a number represented as a Linked List."/>
+    <hyperlink ref="B148" r:id="rId135" display="Add two numbers represented by linked lists."/>
+    <hyperlink ref="B149" r:id="rId136" display="Intersection of two Sorted Linked List."/>
+    <hyperlink ref="B150" r:id="rId137" display="Intersection Point of two Linked Lists."/>
+    <hyperlink ref="B151" r:id="rId138" display="Merge Sort For Linked lists.[Very Important]"/>
+    <hyperlink ref="B152" r:id="rId139" display="Quicksort for Linked Lists.[Very Important]"/>
+    <hyperlink ref="B153" r:id="rId140" display="Find the middle Element of a linked list."/>
+    <hyperlink ref="B154" r:id="rId141" display="Check if a linked list is a circular linked list."/>
+    <hyperlink ref="B155" r:id="rId142" display="Split a Circular linked list into two halves."/>
+    <hyperlink ref="B156" r:id="rId143" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
+    <hyperlink ref="B157" r:id="rId144" display="Deletion from a Circular Linked List."/>
+    <hyperlink ref="B158" r:id="rId145" display="Reverse a Doubly Linked list."/>
+    <hyperlink ref="B159" r:id="rId146" display="Find pairs with a given sum in a DLL."/>
+    <hyperlink ref="B160" r:id="rId147" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
+    <hyperlink ref="B161" r:id="rId148" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
+    <hyperlink ref="B162" r:id="rId149" display="Rotate DoublyLinked list by N nodes."/>
+    <hyperlink ref="B163" r:id="rId150" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
+    <hyperlink ref="B166" r:id="rId151" display="Flatten a Linked List"/>
+    <hyperlink ref="B167" r:id="rId152" display="Sort a LL of 0's, 1's and 2's"/>
+    <hyperlink ref="B168" r:id="rId153" display="Clone a linked list with next and random pointer"/>
+    <hyperlink ref="B169" r:id="rId154" display="Merge K sorted Linked list"/>
+    <hyperlink ref="B170" r:id="rId155" display="Multiply 2 no. represented by LL"/>
+    <hyperlink ref="B171" r:id="rId156" display="Delete nodes which have a greater value on right side"/>
+    <hyperlink ref="B172" r:id="rId157" display="Segregate even and odd nodes in a Linked List"/>
+    <hyperlink ref="B173" r:id="rId158" display="Program for n’th node from the end of a Linked List"/>
+    <hyperlink ref="B174" r:id="rId159" display="Find the first non-repeating character from a stream of characters"/>
+    <hyperlink ref="B177" r:id="rId160" display="level order traversal"/>
+    <hyperlink ref="B178" r:id="rId161" display="Reverse Level Order traversal"/>
+    <hyperlink ref="B179" r:id="rId162" display="Height of a tree"/>
+    <hyperlink ref="B180" r:id="rId163" display="Diameter of a tree"/>
+    <hyperlink ref="B181" r:id="rId164" display="Mirror of a tree"/>
+    <hyperlink ref="B182" r:id="rId165" display="Inorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B183" r:id="rId166" display="Preorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B184" r:id="rId167" display="Postorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B185" r:id="rId168" display="Left View of a tree"/>
+    <hyperlink ref="B186" r:id="rId169" display="Right View of Tree"/>
+    <hyperlink ref="B187" r:id="rId170" display="Top View of a tree"/>
+    <hyperlink ref="B188" r:id="rId171" display="Bottom View of a tree"/>
+    <hyperlink ref="B189" r:id="rId172" display="Zig-Zag traversal of a binary tree"/>
+    <hyperlink ref="B190" r:id="rId173" display="Check if a tree is balanced or not"/>
+    <hyperlink ref="B191" r:id="rId174" display="Diagnol Traversal of a Binary tree"/>
+    <hyperlink ref="B192" r:id="rId175" display="Boundary traversal of a Binary tree"/>
+    <hyperlink ref="B193" r:id="rId176" display="Construct Binary Tree from String with Bracket Representation"/>
+    <hyperlink ref="B194" r:id="rId177" display="Convert Binary tree into Doubly Linked List"/>
+    <hyperlink ref="B195" r:id="rId178" display="Convert Binary tree into Sum tree"/>
+    <hyperlink ref="B196" r:id="rId179" display="Construct Binary tree from Inorder and preorder traversal"/>
+    <hyperlink ref="B197" r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="Find minimum swaps required to convert a Binary tree into BST"/>
+    <hyperlink ref="B198" r:id="rId181" display="Check if Binary tree is Sum tree or not"/>
+    <hyperlink ref="B199" r:id="rId182" display="Check if all leaf nodes are at same level or not"/>
+    <hyperlink ref="B200" r:id="rId183" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
+    <hyperlink ref="B201" r:id="rId184" display="Check if 2 trees are mirror or not"/>
+    <hyperlink ref="B202" r:id="rId185" display="Sum of Nodes on the Longest path from root to leaf node "/>
+    <hyperlink ref="B203" r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="Check if given graph is tree or not.  [ IMP ]"/>
+    <hyperlink ref="B204" r:id="rId187" display="Find Largest subtree sum in a tree"/>
+    <hyperlink ref="B205" r:id="rId188" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
+    <hyperlink ref="B206" r:id="rId189" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
+    <hyperlink ref="B207" r:id="rId190" display="Find LCA in a Binary tree"/>
+    <hyperlink ref="B208" r:id="rId191" display="Find distance between 2 nodes in a Binary tree"/>
+    <hyperlink ref="B209" r:id="rId192" display="Kth Ancestor of node in a Binary tree"/>
+    <hyperlink ref="B210" r:id="rId193" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
+    <hyperlink ref="B211" r:id="rId194" display="Tree Isomorphism Problem"/>
+    <hyperlink ref="B214" r:id="rId195" display="Fina a value in a BST"/>
+    <hyperlink ref="B215" r:id="rId196" display="Deletion of a node in a BST"/>
+    <hyperlink ref="B216" r:id="rId197" display="Find min and max value in a BST"/>
+    <hyperlink ref="B217" r:id="rId198" display="Find inorder successor and inorder predecessor in a BST"/>
+    <hyperlink ref="B218" r:id="rId199" display="Check if a tree is a BST or not "/>
+    <hyperlink ref="B219" r:id="rId200" display="Populate Inorder successor of all nodes"/>
+    <hyperlink ref="B220" r:id="rId201" display="Find LCA  of 2 nodes in a BST"/>
+    <hyperlink ref="B221" r:id="rId202" display="Construct BST from preorder traversal"/>
+    <hyperlink ref="B222" r:id="rId203" display="Convert Binary tree into BST"/>
+    <hyperlink ref="B223" r:id="rId204" display="Convert a normal BST into a Balanced BST"/>
+    <hyperlink ref="B224" r:id="rId205" display="Merge two BST [ V.V.V&gt;IMP ]"/>
+    <hyperlink ref="B225" r:id="rId206" display="Find Kth largest element in a BST"/>
+    <hyperlink ref="B226" r:id="rId207" display="Find Kth smallest element in a BST"/>
+    <hyperlink ref="B227" r:id="rId208" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
+    <hyperlink ref="B228" r:id="rId209" display="Find the median of BST in O(n) time and O(1) space"/>
+    <hyperlink ref="B229" r:id="rId210" display="Count BST ndoes that lie in a given range"/>
+    <hyperlink ref="B230" r:id="rId211" display="Replace every element with the least greater element on its right"/>
+    <hyperlink ref="B231" r:id="rId212" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
+    <hyperlink ref="B232" r:id="rId213" display="Check preorder is valid or not"/>
+    <hyperlink ref="B233" r:id="rId214" display="Check whether BST contains Dead end"/>
+    <hyperlink ref="B234" r:id="rId215" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
+    <hyperlink ref="B235" r:id="rId216" display="Flatten BST to sorted list"/>
+    <hyperlink ref="B238" r:id="rId217" display="Activity Selection Problem"/>
+    <hyperlink ref="B239" r:id="rId218" display="Job SequencingProblem"/>
+    <hyperlink ref="B240" r:id="rId219" display="Huffman Coding"/>
+    <hyperlink ref="B241" r:id="rId220" display="Water Connection Problem"/>
+    <hyperlink ref="B242" r:id="rId221" display="Fractional Knapsack Problem"/>
+    <hyperlink ref="B243" r:id="rId222" display="Greedy Algorithm to find Minimum number of Coins"/>
+    <hyperlink ref="B244" r:id="rId223" display="Maximum trains for which stoppage can be provided"/>
+    <hyperlink ref="B245" r:id="rId224" display="Minimum Platforms Problem"/>
+    <hyperlink ref="B246" r:id="rId225" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
+    <hyperlink ref="B247" r:id="rId226" display="Find the minimum and maximum amount to buy all N candies"/>
+    <hyperlink ref="B248" r:id="rId227" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="B249" r:id="rId228" display="Minimum Cost to cut a board into squares"/>
+    <hyperlink ref="B250" r:id="rId229" display="Check if it is possible to survive on Island"/>
+    <hyperlink ref="B251" r:id="rId230" display="Find maximum meetings in one room"/>
+    <hyperlink ref="B252" r:id="rId231" display="Maximum product subset of an array"/>
+    <hyperlink ref="B253" r:id="rId232" display="Maximize array sum after K negations"/>
+    <hyperlink ref="B254" r:id="rId233" display="Maximize the sum of arr[i]*i"/>
+    <hyperlink ref="B255" r:id="rId234" display="Maximum sum of absolute difference of an array"/>
+    <hyperlink ref="B256" r:id="rId235" display="Maximize sum of consecutive differences in a circular array"/>
+    <hyperlink ref="B257" r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." display="Minimum sum of absolute difference of pairs of two arrays"/>
+    <hyperlink ref="B258" r:id="rId237" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
+    <hyperlink ref="B259" r:id="rId238" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
+    <hyperlink ref="B260" r:id="rId239" display="Smallest subset with sum greater than all other elements"/>
+    <hyperlink ref="B261" r:id="rId240" display="Chocolate Distribution Problem"/>
+    <hyperlink ref="B262" r:id="rId241" display="DEFKIN -Defense of a Kingdom"/>
+    <hyperlink ref="B263" r:id="rId242" display="DIEHARD -DIE HARD"/>
+    <hyperlink ref="B264" r:id="rId243" display="GERGOVIA -Wine trading in Gergovia"/>
+    <hyperlink ref="B265" r:id="rId244" display="Picking Up Chicks"/>
+    <hyperlink ref="B266" r:id="rId245" display="CHOCOLA –Chocolate"/>
+    <hyperlink ref="B267" r:id="rId246" display="ARRANGE -Arranging Amplifiers"/>
+    <hyperlink ref="B268" r:id="rId247" display="K Centers Problem"/>
+    <hyperlink ref="B269" r:id="rId248" display="Minimum Cost of ropes"/>
+    <hyperlink ref="B270" r:id="rId249" display="Find smallest number with given number of digits and sum of digits"/>
+    <hyperlink ref="B271" r:id="rId250" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="B272" r:id="rId251" display="Find maximum sum possible equal sum of three stacks"/>
+    <hyperlink ref="B275" r:id="rId252" display="Rat in a maze Problem"/>
+    <hyperlink ref="B276" r:id="rId253" display="Printing all solutions in N-Queen Problem"/>
+    <hyperlink ref="B277" r:id="rId254" display="Word Break Problem using Backtracking"/>
+    <hyperlink ref="B278" r:id="rId255" display="Remove Invalid Parentheses"/>
+    <hyperlink ref="B279" r:id="rId256" display="Sudoku Solver"/>
+    <hyperlink ref="B280" r:id="rId257" display="m Coloring Problem"/>
+    <hyperlink ref="B281" r:id="rId258" display="Print all palindromic partitions of a string"/>
+    <hyperlink ref="B282" r:id="rId259" display="Subset Sum Problem"/>
+    <hyperlink ref="B283" r:id="rId260" display="The Knight’s tour problem"/>
+    <hyperlink ref="B284" r:id="rId261" display="Tug of War"/>
+    <hyperlink ref="B285" r:id="rId262" display="Find shortest safe route in a path with landmines"/>
+    <hyperlink ref="B286" r:id="rId263" display="Combinational Sum"/>
+    <hyperlink ref="B287" r:id="rId264" display="Find Maximum number possible by doing at-most K swaps"/>
+    <hyperlink ref="B288" r:id="rId265" display="Print all permutations of a string "/>
+    <hyperlink ref="B289" r:id="rId266" display="Find if there is a path of more than k length from a source"/>
+    <hyperlink ref="B290" r:id="rId267" display="Longest Possible Route in a Matrix with Hurdles"/>
+    <hyperlink ref="B291" r:id="rId268" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
+    <hyperlink ref="B292" r:id="rId269" display="Partition of a set intoK subsets with equal sum"/>
+    <hyperlink ref="B293" r:id="rId270" display="Find the K-th Permutation Sequence of first N natural numbers"/>
+    <hyperlink ref="B296" r:id="rId271" display=" Implement Stack from Scratch"/>
+    <hyperlink ref="B297" r:id="rId272" display=" Implement Queue from Scratch"/>
+    <hyperlink ref="B298" r:id="rId273" display="Implement 2 stack in an array"/>
+    <hyperlink ref="B299" r:id="rId274" display="find the middle element of a stack"/>
+    <hyperlink ref="B300" r:id="rId275" display="Implement &quot;N&quot; stacks in an Array"/>
+    <hyperlink ref="B301" r:id="rId276" display="Check the expression has valid or Balanced parenthesis or not."/>
+    <hyperlink ref="B302" r:id="rId277" display="Reverse a String using Stack"/>
+    <hyperlink ref="B303" r:id="rId278" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
+    <hyperlink ref="B304" r:id="rId279" display="Find the next Greater element"/>
+    <hyperlink ref="B305" r:id="rId280" display="The celebrity Problem"/>
+    <hyperlink ref="B306" r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." display="Arithmetic Expression evaluation"/>
+    <hyperlink ref="B307" r:id="rId282" display="Evaluation of Postfix expression"/>
+    <hyperlink ref="B308" r:id="rId283" display="Implement a method to insert an element at its bottom without using any other data structure."/>
+    <hyperlink ref="B309" r:id="rId284" display="Reverse a stack using recursion"/>
+    <hyperlink ref="B310" r:id="rId285" display="Sort a Stack using recursion"/>
+    <hyperlink ref="B311" r:id="rId286" display="Merge Overlapping Intervals"/>
+    <hyperlink ref="B312" r:id="rId287" display="Largest rectangular Area in Histogram"/>
+    <hyperlink ref="B313" r:id="rId288" display="Length of the Longest Valid Substring"/>
+    <hyperlink ref="B314" r:id="rId289" display="Expression contains redundant bracket or not"/>
+    <hyperlink ref="B315" r:id="rId290" display="Implement Stack using Queue"/>
+    <hyperlink ref="B316" r:id="rId291" display="Implement Stack using Deque"/>
+    <hyperlink ref="B317" r:id="rId292" display="Stack Permutations (Check if an array is stack permutation of other)"/>
+    <hyperlink ref="B318" r:id="rId293" display="Implement Queue using Stack  "/>
+    <hyperlink ref="B319" r:id="rId294" display="Implement &quot;n&quot; queue in an array"/>
+    <hyperlink ref="B320" r:id="rId295" display="Implement a Circular queue"/>
+    <hyperlink ref="B321" r:id="rId296" display="LRU Cache Implementationa"/>
+    <hyperlink ref="B322" r:id="rId297" display="Reverse a Queue using recursion"/>
+    <hyperlink ref="B323" r:id="rId298" display="Reverse the first “K” elements of a queue"/>
+    <hyperlink ref="B324" r:id="rId299" display="Interleave the first half of the queue with second half"/>
+    <hyperlink ref="B325" r:id="rId300" display="Find the first circular tour that visits all Petrol Pumps"/>
+    <hyperlink ref="B326" r:id="rId301" display="Minimum time required to rot all oranges"/>
+    <hyperlink ref="B327" r:id="rId302" display="Distance of nearest cell having 1 in a binary matrix"/>
+    <hyperlink ref="B328" r:id="rId303" display="First negative integer in every window of size “k”"/>
+    <hyperlink ref="B329" r:id="rId304" display="Check if all levels of two trees are anagrams or not."/>
+    <hyperlink ref="B330" r:id="rId305" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
+    <hyperlink ref="B331" r:id="rId306" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
+    <hyperlink ref="B332" r:id="rId307" display="Queue based approach or first non-repeating character in a stream."/>
+    <hyperlink ref="B333" r:id="rId308" display="Next Smaller Element"/>
+    <hyperlink ref="B336" r:id="rId309" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
+    <hyperlink ref="B337" r:id="rId310" display="Sort an Array using heap. (HeapSort)"/>
+    <hyperlink ref="B338" r:id="rId311" display="Maximum of all subarrays of size k."/>
+    <hyperlink ref="B339" r:id="rId312" display="“k” largest element in an array"/>
+    <hyperlink ref="B340" r:id="rId313" display="Kth smallest and largest element in an unsorted array"/>
+    <hyperlink ref="B341" r:id="rId314" display="Merge “K” sorted arrays. [ IMP ]"/>
+    <hyperlink ref="B342" r:id="rId315" display="Merge 2 Binary Max Heaps"/>
+    <hyperlink ref="B343" r:id="rId316" display="Kth largest sum continuous subarrays"/>
+    <hyperlink ref="B344" r:id="rId317" display="Leetcode- reorganize strings"/>
+    <hyperlink ref="B345" r:id="rId318" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
+    <hyperlink ref="B346" r:id="rId319" display="Smallest range in “K” Lists"/>
+    <hyperlink ref="B347" r:id="rId320" display="Median in a stream of Integers"/>
+    <hyperlink ref="B348" r:id="rId321" display="Check if a Binary Tree is Heap"/>
+    <hyperlink ref="B349" r:id="rId322" display="Connect “n” ropes with minimum cost"/>
+    <hyperlink ref="B350" r:id="rId323" display="Convert BST to Min Heap"/>
+    <hyperlink ref="B351" r:id="rId324" display="Convert min heap to max heap"/>
+    <hyperlink ref="B352" r:id="rId325" display="Rearrange characters in a string such that no two adjacent are same."/>
+    <hyperlink ref="B353" r:id="rId326" display="Minimum sum of two numbers formed from digits of an array"/>
+    <hyperlink ref="B356" r:id="rId327" display="Create a Graph, print it"/>
+    <hyperlink ref="B357" r:id="rId328" display="Implement BFS algorithm "/>
+    <hyperlink ref="B358" r:id="rId329" display="Implement DFS Algo "/>
+    <hyperlink ref="B359" r:id="rId330" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
+    <hyperlink ref="B360" r:id="rId331" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
+    <hyperlink ref="B361" r:id="rId332" display="Search in a Maze"/>
+    <hyperlink ref="B362" r:id="rId333" display="Minimum Step by Knight"/>
+    <hyperlink ref="B363" r:id="rId334" display="flood fill algo"/>
+    <hyperlink ref="B364" r:id="rId335" display="Clone a graph"/>
+    <hyperlink ref="B365" r:id="rId336" display="Making wired Connections"/>
+    <hyperlink ref="B366" r:id="rId337" display="word Ladder "/>
+    <hyperlink ref="B367" r:id="rId338" display="Dijkstra algo"/>
+    <hyperlink ref="B368" r:id="rId339" display="Implement Topological Sort "/>
+    <hyperlink ref="B369" r:id="rId340" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
+    <hyperlink ref="B370" r:id="rId341" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
+    <hyperlink ref="B371" r:id="rId342" display="Find the no. of Isalnds"/>
+    <hyperlink ref="B372" r:id="rId343" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
+    <hyperlink ref="B373" r:id="rId344" display="Implement Kruksal’sAlgorithm"/>
+    <hyperlink ref="B374" r:id="rId345" display="Implement Prim’s Algorithm"/>
+    <hyperlink ref="B375" r:id="rId346" display="Total no. of Spanning tree in a graph"/>
+    <hyperlink ref="B376" r:id="rId347" display="Implement Bellman Ford Algorithm"/>
+    <hyperlink ref="B377" r:id="rId348" display="Implement Floyd warshallAlgorithm"/>
+    <hyperlink ref="B378" r:id="rId349" display="Travelling Salesman Problem"/>
+    <hyperlink ref="B379" r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="Graph ColouringProblem"/>
+    <hyperlink ref="B380" r:id="rId351" display="Snake and Ladders Problem"/>
+    <hyperlink ref="B381" r:id="rId352" display="Find bridge in a graph"/>
+    <hyperlink ref="B382" r:id="rId353" display="Count Strongly connected Components(Kosaraju Algo)"/>
+    <hyperlink ref="B383" r:id="rId354" display="Check whether a graph is Bipartite or Not"/>
+    <hyperlink ref="B384" r:id="rId355" display="Detect Negative cycle in a graph"/>
+    <hyperlink ref="B385" r:id="rId356" display="Longest path in a Directed Acyclic Graph"/>
+    <hyperlink ref="B386" r:id="rId357" display="Journey to the Moon"/>
+    <hyperlink ref="B387" r:id="rId358" display="Cheapest Flights Within K Stops"/>
+    <hyperlink ref="B388" r:id="rId359" display="Oliver and the Game"/>
+    <hyperlink ref="B389" r:id="rId360" display="Water Jug problem using BFS"/>
+    <hyperlink ref="B390" r:id="rId361" display="Water Jug problem using BFS"/>
+    <hyperlink ref="B391" r:id="rId362" display="Find if there is a path of more thank length from a source"/>
+    <hyperlink ref="B392" r:id="rId363" display="M-ColouringProblem"/>
+    <hyperlink ref="B393" r:id="rId364" display="Minimum edges to reverse o make path from source to destination"/>
+    <hyperlink ref="B394" r:id="rId365" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
+    <hyperlink ref="B395" r:id="rId366" display="Vertex Cover Problem"/>
+    <hyperlink ref="B396" r:id="rId367" display="Chinese Postman or Route Inspection"/>
+    <hyperlink ref="B397" r:id="rId368" display="Number of Triangles in a Directed and Undirected Graph"/>
+    <hyperlink ref="B398" r:id="rId369" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="B399" r:id="rId370" display="Two Clique Problem"/>
+    <hyperlink ref="B402" r:id="rId371" display="Construct a trie from scratch"/>
+    <hyperlink ref="B403" r:id="rId372" display="Find shortest unique prefix for every word in a given list"/>
+    <hyperlink ref="B404" r:id="rId373" display="Word Break Problem | (Trie solution)"/>
+    <hyperlink ref="B405" r:id="rId374" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="B406" r:id="rId375" display="Implement a Phone Directory"/>
+    <hyperlink ref="B407" r:id="rId376" display="Print unique rows in a given boolean matrix"/>
+    <hyperlink ref="B410" r:id="rId377" display="Coin ChangeProblem"/>
+    <hyperlink ref="B411" r:id="rId378" display="Knapsack Problem"/>
+    <hyperlink ref="B412" r:id="rId379" display="Binomial CoefficientProblem"/>
+    <hyperlink ref="B413" r:id="rId380" display="Permutation CoefficientProblem"/>
+    <hyperlink ref="B414" r:id="rId381" display="Program for nth Catalan Number"/>
+    <hyperlink ref="B415" r:id="rId382" display="Matrix Chain Multiplication "/>
+    <hyperlink ref="B416" r:id="rId383" display="Edit Distance"/>
+    <hyperlink ref="B417" r:id="rId384" display="Subset Sum Problem"/>
+    <hyperlink ref="B418" r:id="rId385" display="Friends Pairing Problem"/>
+    <hyperlink ref="B419" r:id="rId386" display="Gold Mine Problem"/>
+    <hyperlink ref="B420" r:id="rId387" display="Assembly Line SchedulingProblem"/>
+    <hyperlink ref="B421" r:id="rId388" display="Painting the Fenceproblem"/>
+    <hyperlink ref="B422" r:id="rId389" display="Maximize The Cut Segments"/>
+    <hyperlink ref="B423" r:id="rId390" display="Longest Common Subsequence"/>
+    <hyperlink ref="B424" r:id="rId391" display="Longest Repeated Subsequence"/>
+    <hyperlink ref="B425" r:id="rId392" display="Longest Increasing Subsequence"/>
+    <hyperlink ref="B426" r:id="rId393" display="Space Optimized Solution of LCS"/>
+    <hyperlink ref="B427" r:id="rId394" display="LCS (Longest Common Subsequence) of three strings"/>
+    <hyperlink ref="B428" r:id="rId395" display="Maximum Sum Increasing Subsequence"/>
+    <hyperlink ref="B429" r:id="rId396" display="Count all subsequences having product less than K"/>
+    <hyperlink ref="B430" r:id="rId397" display="Longest subsequence such that difference between adjacent is one"/>
+    <hyperlink ref="B431" r:id="rId398" display="Maximum subsequence sum such that no three are consecutive"/>
+    <hyperlink ref="B432" r:id="rId399" display="Egg Dropping Problem"/>
+    <hyperlink ref="B433" r:id="rId400" display="Maximum Length Chain of Pairs"/>
+    <hyperlink ref="B434" r:id="rId401" display="Maximum size square sub-matrix with all 1s"/>
+    <hyperlink ref="B435" r:id="rId402" display="Maximum sum of pairs with specific difference"/>
+    <hyperlink ref="B436" r:id="rId403" display="Min Cost PathProblem"/>
+    <hyperlink ref="B437" r:id="rId404" display="Maximum difference of zeros and ones in binary string"/>
+    <hyperlink ref="B438" r:id="rId405" display="Minimum number of jumps to reach end"/>
+    <hyperlink ref="B439" r:id="rId406" display="Minimum cost to fill given weight in a bag"/>
+    <hyperlink ref="B440" r:id="rId407" display="Minimum removals from array to make max –min &lt;= K"/>
+    <hyperlink ref="B441" r:id="rId408" display="Longest Common Substring"/>
+    <hyperlink ref="B442" r:id="rId409" display="Count number of ways to reacha given score in a game"/>
+    <hyperlink ref="B443" r:id="rId410" display="Count Balanced Binary Trees of Height h"/>
+    <hyperlink ref="B444" r:id="rId411" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
+    <hyperlink ref="B445" r:id="rId412" display="Smallest sum contiguous subarray"/>
+    <hyperlink ref="B446" r:id="rId413" display="Unbounded Knapsack (Repetition of items allowed)"/>
+    <hyperlink ref="B447" r:id="rId414" display="Word Break Problem"/>
+    <hyperlink ref="B448" r:id="rId415" display="Largest Independent Set Problem"/>
+    <hyperlink ref="B449" r:id="rId416" display="Partition problem"/>
+    <hyperlink ref="B450" r:id="rId417" display="Longest Palindromic Subsequence"/>
+    <hyperlink ref="B451" r:id="rId418" display="Count All Palindromic Subsequence in a given String"/>
+    <hyperlink ref="B452" r:id="rId419" display="Longest Palindromic Substring"/>
+    <hyperlink ref="B453" r:id="rId420" display="Longest alternating subsequence"/>
+    <hyperlink ref="B454" r:id="rId421" display="Weighted Job Scheduling"/>
+    <hyperlink ref="B455" r:id="rId422" display="Coin game winner where every player has three choices"/>
+    <hyperlink ref="B456" r:id="rId423" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
+    <hyperlink ref="B457" r:id="rId424" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
+    <hyperlink ref="B458" r:id="rId425" display="Optimal Strategy for a Game"/>
+    <hyperlink ref="B459" r:id="rId426" display="Optimal Binary Search Tree"/>
+    <hyperlink ref="B460" r:id="rId427" display="Palindrome PartitioningProblem"/>
+    <hyperlink ref="B461" r:id="rId428" display="Word Wrap Problem"/>
+    <hyperlink ref="B462" r:id="rId429" display="Mobile Numeric Keypad Problem [ IMP ]"/>
+    <hyperlink ref="B463" r:id="rId430" display="Boolean Parenthesization Problem"/>
+    <hyperlink ref="B464" r:id="rId431" display="Largest rectangular sub-matrix whose sum is 0"/>
+    <hyperlink ref="B465" r:id="rId432" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
+    <hyperlink ref="B466" r:id="rId433" display="Maximum sum rectangle in a 2D matrix"/>
+    <hyperlink ref="B467" r:id="rId434" display="Maximum profit by buying and selling a share at most k times"/>
+    <hyperlink ref="B468" r:id="rId435" display="Find if a string is interleaved of two other strings"/>
+    <hyperlink ref="B469" r:id="rId436" display="Maximum Length of Pair Chain"/>
+    <hyperlink ref="B472" r:id="rId437" display="Count set bits in an integer"/>
+    <hyperlink ref="B473" r:id="rId438" display="Find the two non-repeating elements in an array of repeating elements"/>
+    <hyperlink ref="B474" r:id="rId439" display="Count number of bits to be flipped to convert A to B"/>
+    <hyperlink ref="B475" r:id="rId440" display="Count total set bits in all numbers from 1 to n"/>
+    <hyperlink ref="B476" r:id="rId441" display="Program to find whether a no is power of two"/>
+    <hyperlink ref="B477" r:id="rId442" display="Find position of the only set bit"/>
+    <hyperlink ref="B478" r:id="rId443" display="Copy set bits in a range"/>
+    <hyperlink ref="B479" r:id="rId444" display="Divide two integers without using multiplication, division and mod operator"/>
+    <hyperlink ref="B480" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
+    <hyperlink ref="B481" r:id="rId446" display="Power Set"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId447"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/java/resources/FINAL450.xlsx
+++ b/java/resources/FINAL450.xlsx
@@ -1532,7 +1532,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1542,7 +1542,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF224B12"/>
-        <bgColor rgb="FF395511"/>
+        <bgColor rgb="FF333333"/>
       </patternFill>
     </fill>
     <fill>
@@ -1554,7 +1554,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF127622"/>
-        <bgColor rgb="FF385724"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
@@ -1567,18 +1567,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF3FAF46"/>
         <bgColor rgb="FF33CCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF385724"/>
-        <bgColor rgb="FF395511"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF395511"/>
-        <bgColor rgb="FF385724"/>
       </patternFill>
     </fill>
   </fills>
@@ -1619,7 +1607,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1724,34 +1712,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1818,12 +1778,12 @@
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF3FAF46"/>
-      <rgbColor rgb="FF395511"/>
+      <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF224B12"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF385724"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1836,11 +1796,11 @@
   </sheetPr>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A319" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A325" activeCellId="0" sqref="A325"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B322" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B322" activeCellId="0" sqref="B322"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.63671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -4953,46 +4913,46 @@
       <c r="C295" s="5"/>
     </row>
     <row r="296" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="26" t="s">
+      <c r="A296" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B296" s="27" t="s">
+      <c r="B296" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C296" s="28" t="s">
+      <c r="C296" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="26" t="s">
+      <c r="A297" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B297" s="27" t="s">
+      <c r="B297" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="C297" s="28" t="s">
+      <c r="C297" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="26" t="s">
+      <c r="A298" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B298" s="27" t="s">
+      <c r="B298" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="C298" s="28" t="s">
+      <c r="C298" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="26" t="s">
+      <c r="A299" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B299" s="27" t="s">
+      <c r="B299" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="C299" s="28" t="s">
+      <c r="C299" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5008,57 +4968,57 @@
       </c>
     </row>
     <row r="301" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="26" t="s">
+      <c r="A301" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B301" s="27" t="s">
+      <c r="B301" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="C301" s="28" t="s">
+      <c r="C301" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="26" t="s">
+      <c r="A302" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B302" s="27" t="s">
+      <c r="B302" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="C302" s="28" t="s">
+      <c r="C302" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="26" t="s">
+      <c r="A303" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B303" s="27" t="s">
+      <c r="B303" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="C303" s="28" t="s">
+      <c r="C303" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="26" t="s">
+      <c r="A304" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B304" s="27" t="s">
+      <c r="B304" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C304" s="28" t="s">
+      <c r="C304" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="26" t="s">
+      <c r="A305" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B305" s="27" t="s">
+      <c r="B305" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="C305" s="28" t="s">
+      <c r="C305" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D305" s="0" t="s">
@@ -5066,24 +5026,24 @@
       </c>
     </row>
     <row r="306" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="26" t="s">
+      <c r="A306" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B306" s="27" t="s">
+      <c r="B306" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="C306" s="28" t="s">
+      <c r="C306" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="26" t="s">
+      <c r="A307" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B307" s="27" t="s">
+      <c r="B307" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="C307" s="28" t="s">
+      <c r="C307" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5102,112 +5062,112 @@
       </c>
     </row>
     <row r="309" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="26" t="s">
+      <c r="A309" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B309" s="29" t="s">
+      <c r="B309" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="C309" s="28" t="s">
+      <c r="C309" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="26" t="s">
+      <c r="A310" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B310" s="27" t="s">
+      <c r="B310" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="C310" s="28" t="s">
+      <c r="C310" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="26" t="s">
+      <c r="A311" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B311" s="27" t="s">
+      <c r="B311" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="C311" s="28" t="s">
+      <c r="C311" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="26" t="s">
+      <c r="A312" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B312" s="27" t="s">
+      <c r="B312" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="C312" s="28" t="s">
+      <c r="C312" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="26" t="s">
+      <c r="A313" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B313" s="27" t="s">
+      <c r="B313" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="C313" s="28" t="s">
+      <c r="C313" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="30" t="s">
+      <c r="A314" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B314" s="31" t="s">
+      <c r="B314" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="C314" s="32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="315" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="30" t="s">
+      <c r="C314" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B315" s="31" t="s">
+      <c r="B315" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="C315" s="32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="316" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="30" t="s">
+      <c r="C315" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B316" s="31" t="s">
+      <c r="B316" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="C316" s="32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="317" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="30" t="s">
+      <c r="C316" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B317" s="31" t="s">
+      <c r="B317" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="C317" s="32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="318" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="30" t="s">
+      <c r="C317" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B318" s="31" t="s">
+      <c r="B318" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="C318" s="32" t="s">
+      <c r="C318" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5223,24 +5183,24 @@
       </c>
     </row>
     <row r="320" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="30" t="s">
+      <c r="A320" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B320" s="31" t="s">
+      <c r="B320" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="C320" s="32" t="s">
+      <c r="C320" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="30" t="s">
+      <c r="A321" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B321" s="31" t="s">
+      <c r="B321" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="C321" s="32" t="s">
+      <c r="C321" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D321" s="0" t="s">
@@ -5248,35 +5208,35 @@
       </c>
     </row>
     <row r="322" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="30" t="s">
+      <c r="A322" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B322" s="31" t="s">
+      <c r="B322" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C322" s="32" t="s">
+      <c r="C322" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="30" t="s">
+      <c r="A323" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B323" s="31" t="s">
+      <c r="B323" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="C323" s="32" t="s">
+      <c r="C323" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="30" t="s">
+      <c r="A324" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B324" s="31" t="s">
+      <c r="B324" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="C324" s="32" t="s">
+      <c r="C324" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D324" s="0" t="s">
@@ -5284,27 +5244,27 @@
       </c>
     </row>
     <row r="325" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="30" t="s">
+      <c r="A325" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B325" s="31" t="s">
+      <c r="B325" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="C325" s="32" t="s">
+      <c r="C325" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D325" s="0" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="12" t="s">
+    <row r="326" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B326" s="13" t="s">
+      <c r="B326" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="C326" s="5" t="s">
+      <c r="C326" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5320,68 +5280,68 @@
       </c>
     </row>
     <row r="328" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="12" t="s">
+      <c r="A328" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B328" s="13" t="s">
+      <c r="B328" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="C328" s="5" t="s">
+      <c r="C328" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="12" t="s">
+      <c r="A329" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B329" s="13" t="s">
+      <c r="B329" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="C329" s="5" t="s">
+      <c r="C329" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="12" t="s">
+      <c r="A330" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B330" s="13" t="s">
+      <c r="B330" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="C330" s="5" t="s">
+      <c r="C330" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="12" t="s">
+      <c r="A331" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B331" s="13" t="s">
+      <c r="B331" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="C331" s="5" t="s">
+      <c r="C331" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="12" t="s">
+      <c r="A332" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B332" s="13" t="s">
+      <c r="B332" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="C332" s="5" t="s">
+      <c r="C332" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="12" t="s">
+      <c r="A333" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B333" s="13" t="s">
+      <c r="B333" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="C333" s="5" t="s">
+      <c r="C333" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5485,7 +5445,7 @@
       <c r="A344" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="B344" s="33" t="s">
+      <c r="B344" s="26" t="s">
         <v>346</v>
       </c>
       <c r="C344" s="5" t="s">

--- a/java/resources/FINAL450.xlsx
+++ b/java/resources/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="478">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -962,6 +962,9 @@
   </si>
   <si>
     <t xml:space="preserve">Length of the Longest Valid Substring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">left, right</t>
   </si>
   <si>
     <t xml:space="preserve">Expression contains redundant bracket or not</t>
@@ -1532,7 +1535,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1554,7 +1557,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF127622"/>
-        <bgColor rgb="FF008080"/>
+        <bgColor rgb="FF069A2E"/>
       </patternFill>
     </fill>
     <fill>
@@ -1566,7 +1569,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF3FAF46"/>
-        <bgColor rgb="FF33CCCC"/>
+        <bgColor rgb="FF069A2E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF069A2E"/>
+        <bgColor rgb="FF127622"/>
       </patternFill>
     </fill>
   </fills>
@@ -1607,7 +1616,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1712,6 +1721,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1741,7 +1754,7 @@
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF069A2E"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
@@ -1796,11 +1809,11 @@
   </sheetPr>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B322" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B322" activeCellId="0" sqref="B322"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A334" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B336" activeCellId="0" sqref="B336"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.66796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -3628,13 +3641,13 @@
       </c>
     </row>
     <row r="174" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="12" t="s">
+      <c r="A174" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B174" s="13" t="s">
+      <c r="B174" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C174" s="5" t="s">
+      <c r="C174" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5004,7 +5017,7 @@
       <c r="A304" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B304" s="7" t="s">
+      <c r="B304" s="26" t="s">
         <v>302</v>
       </c>
       <c r="C304" s="8" t="s">
@@ -5115,13 +5128,16 @@
       <c r="C313" s="8" t="s">
         <v>5</v>
       </c>
+      <c r="D313" s="0" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="314" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="6" t="s">
         <v>293</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C314" s="8" t="s">
         <v>5</v>
@@ -5132,7 +5148,7 @@
         <v>293</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C315" s="8" t="s">
         <v>5</v>
@@ -5143,7 +5159,7 @@
         <v>293</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C316" s="8" t="s">
         <v>5</v>
@@ -5154,7 +5170,7 @@
         <v>293</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C317" s="8" t="s">
         <v>5</v>
@@ -5165,7 +5181,7 @@
         <v>293</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C318" s="8" t="s">
         <v>5</v>
@@ -5176,7 +5192,7 @@
         <v>293</v>
       </c>
       <c r="B319" s="13" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>5</v>
@@ -5187,7 +5203,7 @@
         <v>293</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C320" s="8" t="s">
         <v>5</v>
@@ -5197,14 +5213,14 @@
       <c r="A321" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B321" s="7" t="s">
-        <v>321</v>
+      <c r="B321" s="26" t="s">
+        <v>322</v>
       </c>
       <c r="C321" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D321" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5212,7 +5228,7 @@
         <v>293</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C322" s="8" t="s">
         <v>5</v>
@@ -5223,7 +5239,7 @@
         <v>293</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C323" s="8" t="s">
         <v>5</v>
@@ -5234,13 +5250,13 @@
         <v>293</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C324" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D324" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5248,13 +5264,13 @@
         <v>293</v>
       </c>
       <c r="B325" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C325" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D325" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5262,7 +5278,7 @@
         <v>293</v>
       </c>
       <c r="B326" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C326" s="8" t="s">
         <v>5</v>
@@ -5273,7 +5289,7 @@
         <v>293</v>
       </c>
       <c r="B327" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>5</v>
@@ -5284,7 +5300,7 @@
         <v>293</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C328" s="8" t="s">
         <v>5</v>
@@ -5295,7 +5311,7 @@
         <v>293</v>
       </c>
       <c r="B329" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C329" s="8" t="s">
         <v>5</v>
@@ -5306,7 +5322,7 @@
         <v>293</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C330" s="8" t="s">
         <v>5</v>
@@ -5317,7 +5333,7 @@
         <v>293</v>
       </c>
       <c r="B331" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C331" s="8" t="s">
         <v>5</v>
@@ -5328,7 +5344,7 @@
         <v>293</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C332" s="8" t="s">
         <v>5</v>
@@ -5339,7 +5355,7 @@
         <v>293</v>
       </c>
       <c r="B333" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C333" s="8" t="s">
         <v>5</v>
@@ -5354,44 +5370,44 @@
       <c r="C335" s="5"/>
     </row>
     <row r="336" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="B336" s="13" t="s">
+      <c r="A336" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C336" s="5" t="s">
+      <c r="B336" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C336" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="B337" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="C337" s="5" t="s">
+      <c r="A337" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B337" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C337" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="B338" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="C338" s="5" t="s">
+      <c r="A338" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B338" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="C338" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="12" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B339" s="13" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>5</v>
@@ -5399,10 +5415,10 @@
     </row>
     <row r="340" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="12" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B340" s="13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>5</v>
@@ -5410,10 +5426,10 @@
     </row>
     <row r="341" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="12" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B341" s="13" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>5</v>
@@ -5421,10 +5437,10 @@
     </row>
     <row r="342" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="12" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B342" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>5</v>
@@ -5432,10 +5448,10 @@
     </row>
     <row r="343" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="12" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B343" s="13" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>5</v>
@@ -5443,10 +5459,10 @@
     </row>
     <row r="344" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="B344" s="26" t="s">
-        <v>346</v>
+        <v>338</v>
+      </c>
+      <c r="B344" s="27" t="s">
+        <v>347</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>5</v>
@@ -5454,10 +5470,10 @@
     </row>
     <row r="345" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="12" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B345" s="13" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>5</v>
@@ -5465,10 +5481,10 @@
     </row>
     <row r="346" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="12" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B346" s="13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>5</v>
@@ -5476,10 +5492,10 @@
     </row>
     <row r="347" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="12" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B347" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>5</v>
@@ -5487,10 +5503,10 @@
     </row>
     <row r="348" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="12" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B348" s="13" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>5</v>
@@ -5498,10 +5514,10 @@
     </row>
     <row r="349" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="12" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B349" s="13" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>5</v>
@@ -5509,10 +5525,10 @@
     </row>
     <row r="350" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="12" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B350" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>5</v>
@@ -5520,10 +5536,10 @@
     </row>
     <row r="351" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="12" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B351" s="13" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>5</v>
@@ -5531,10 +5547,10 @@
     </row>
     <row r="352" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="12" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B352" s="13" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>5</v>
@@ -5542,10 +5558,10 @@
     </row>
     <row r="353" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="12" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B353" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>5</v>
@@ -5561,10 +5577,10 @@
     </row>
     <row r="356" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B356" s="13" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>5</v>
@@ -5572,10 +5588,10 @@
     </row>
     <row r="357" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B357" s="13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>5</v>
@@ -5583,10 +5599,10 @@
     </row>
     <row r="358" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B358" s="13" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>5</v>
@@ -5594,10 +5610,10 @@
     </row>
     <row r="359" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B359" s="13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>5</v>
@@ -5605,10 +5621,10 @@
     </row>
     <row r="360" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B360" s="13" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C360" s="5" t="s">
         <v>5</v>
@@ -5616,10 +5632,10 @@
     </row>
     <row r="361" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B361" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C361" s="5" t="s">
         <v>5</v>
@@ -5627,10 +5643,10 @@
     </row>
     <row r="362" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B362" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C362" s="5" t="s">
         <v>5</v>
@@ -5638,10 +5654,10 @@
     </row>
     <row r="363" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B363" s="13" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C363" s="5" t="s">
         <v>5</v>
@@ -5649,10 +5665,10 @@
     </row>
     <row r="364" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B364" s="13" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C364" s="5" t="s">
         <v>5</v>
@@ -5660,10 +5676,10 @@
     </row>
     <row r="365" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B365" s="13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>5</v>
@@ -5671,10 +5687,10 @@
     </row>
     <row r="366" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B366" s="13" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>5</v>
@@ -5682,10 +5698,10 @@
     </row>
     <row r="367" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B367" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C367" s="5" t="s">
         <v>5</v>
@@ -5693,10 +5709,10 @@
     </row>
     <row r="368" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B368" s="13" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C368" s="5" t="s">
         <v>5</v>
@@ -5704,10 +5720,10 @@
     </row>
     <row r="369" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B369" s="13" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C369" s="5" t="s">
         <v>5</v>
@@ -5715,10 +5731,10 @@
     </row>
     <row r="370" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B370" s="13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C370" s="5" t="s">
         <v>5</v>
@@ -5726,10 +5742,10 @@
     </row>
     <row r="371" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B371" s="13" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>5</v>
@@ -5737,10 +5753,10 @@
     </row>
     <row r="372" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B372" s="13" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C372" s="5" t="s">
         <v>5</v>
@@ -5748,10 +5764,10 @@
     </row>
     <row r="373" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B373" s="13" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>5</v>
@@ -5759,10 +5775,10 @@
     </row>
     <row r="374" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B374" s="13" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>5</v>
@@ -5770,10 +5786,10 @@
     </row>
     <row r="375" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B375" s="13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C375" s="5" t="s">
         <v>5</v>
@@ -5781,10 +5797,10 @@
     </row>
     <row r="376" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B376" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C376" s="5" t="s">
         <v>5</v>
@@ -5792,10 +5808,10 @@
     </row>
     <row r="377" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B377" s="13" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C377" s="5" t="s">
         <v>5</v>
@@ -5803,10 +5819,10 @@
     </row>
     <row r="378" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B378" s="13" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C378" s="5" t="s">
         <v>5</v>
@@ -5814,10 +5830,10 @@
     </row>
     <row r="379" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B379" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>5</v>
@@ -5825,10 +5841,10 @@
     </row>
     <row r="380" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B380" s="13" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C380" s="5" t="s">
         <v>5</v>
@@ -5836,10 +5852,10 @@
     </row>
     <row r="381" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B381" s="13" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C381" s="5" t="s">
         <v>5</v>
@@ -5847,10 +5863,10 @@
     </row>
     <row r="382" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B382" s="13" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C382" s="5" t="s">
         <v>5</v>
@@ -5858,10 +5874,10 @@
     </row>
     <row r="383" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B383" s="13" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>5</v>
@@ -5869,10 +5885,10 @@
     </row>
     <row r="384" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B384" s="13" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C384" s="5" t="s">
         <v>5</v>
@@ -5880,10 +5896,10 @@
     </row>
     <row r="385" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B385" s="13" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>5</v>
@@ -5891,10 +5907,10 @@
     </row>
     <row r="386" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B386" s="13" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C386" s="5" t="s">
         <v>5</v>
@@ -5902,10 +5918,10 @@
     </row>
     <row r="387" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B387" s="13" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C387" s="5" t="s">
         <v>5</v>
@@ -5913,10 +5929,10 @@
     </row>
     <row r="388" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B388" s="13" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>5</v>
@@ -5924,10 +5940,10 @@
     </row>
     <row r="389" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B389" s="13" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>5</v>
@@ -5935,10 +5951,10 @@
     </row>
     <row r="390" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B390" s="13" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C390" s="5" t="s">
         <v>5</v>
@@ -5946,10 +5962,10 @@
     </row>
     <row r="391" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B391" s="13" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>5</v>
@@ -5957,10 +5973,10 @@
     </row>
     <row r="392" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B392" s="13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C392" s="5" t="s">
         <v>5</v>
@@ -5968,10 +5984,10 @@
     </row>
     <row r="393" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B393" s="13" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>5</v>
@@ -5979,10 +5995,10 @@
     </row>
     <row r="394" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B394" s="13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C394" s="5" t="s">
         <v>5</v>
@@ -5990,10 +6006,10 @@
     </row>
     <row r="395" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B395" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>5</v>
@@ -6001,10 +6017,10 @@
     </row>
     <row r="396" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B396" s="13" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>5</v>
@@ -6012,10 +6028,10 @@
     </row>
     <row r="397" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B397" s="13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>5</v>
@@ -6023,10 +6039,10 @@
     </row>
     <row r="398" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B398" s="13" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C398" s="5" t="s">
         <v>5</v>
@@ -6034,10 +6050,10 @@
     </row>
     <row r="399" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B399" s="13" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C399" s="5" t="s">
         <v>5</v>
@@ -6053,10 +6069,10 @@
     </row>
     <row r="402" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B402" s="13" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C402" s="5" t="s">
         <v>5</v>
@@ -6064,10 +6080,10 @@
     </row>
     <row r="403" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B403" s="13" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>5</v>
@@ -6075,10 +6091,10 @@
     </row>
     <row r="404" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B404" s="13" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>5</v>
@@ -6086,7 +6102,7 @@
     </row>
     <row r="405" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B405" s="13" t="s">
         <v>90</v>
@@ -6097,10 +6113,10 @@
     </row>
     <row r="406" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B406" s="13" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>5</v>
@@ -6108,10 +6124,10 @@
     </row>
     <row r="407" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B407" s="13" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>5</v>
@@ -6127,10 +6143,10 @@
     </row>
     <row r="410" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B410" s="13" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C410" s="5" t="s">
         <v>5</v>
@@ -6138,10 +6154,10 @@
     </row>
     <row r="411" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B411" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C411" s="5" t="s">
         <v>5</v>
@@ -6149,10 +6165,10 @@
     </row>
     <row r="412" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B412" s="13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C412" s="5" t="s">
         <v>5</v>
@@ -6160,10 +6176,10 @@
     </row>
     <row r="413" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B413" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C413" s="5" t="s">
         <v>5</v>
@@ -6171,10 +6187,10 @@
     </row>
     <row r="414" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B414" s="13" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C414" s="5" t="s">
         <v>5</v>
@@ -6182,10 +6198,10 @@
     </row>
     <row r="415" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B415" s="13" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C415" s="5" t="s">
         <v>5</v>
@@ -6193,10 +6209,10 @@
     </row>
     <row r="416" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B416" s="13" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C416" s="5" t="s">
         <v>5</v>
@@ -6204,7 +6220,7 @@
     </row>
     <row r="417" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B417" s="13" t="s">
         <v>281</v>
@@ -6215,10 +6231,10 @@
     </row>
     <row r="418" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B418" s="13" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C418" s="5" t="s">
         <v>5</v>
@@ -6226,10 +6242,10 @@
     </row>
     <row r="419" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B419" s="13" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C419" s="5" t="s">
         <v>5</v>
@@ -6237,10 +6253,10 @@
     </row>
     <row r="420" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B420" s="13" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C420" s="5" t="s">
         <v>5</v>
@@ -6248,10 +6264,10 @@
     </row>
     <row r="421" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B421" s="13" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C421" s="5" t="s">
         <v>5</v>
@@ -6259,10 +6275,10 @@
     </row>
     <row r="422" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B422" s="13" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C422" s="5" t="s">
         <v>5</v>
@@ -6270,10 +6286,10 @@
     </row>
     <row r="423" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B423" s="13" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C423" s="5" t="s">
         <v>5</v>
@@ -6281,10 +6297,10 @@
     </row>
     <row r="424" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B424" s="13" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C424" s="5" t="s">
         <v>5</v>
@@ -6292,10 +6308,10 @@
     </row>
     <row r="425" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B425" s="13" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C425" s="5" t="s">
         <v>5</v>
@@ -6303,10 +6319,10 @@
     </row>
     <row r="426" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B426" s="13" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C426" s="5" t="s">
         <v>5</v>
@@ -6314,10 +6330,10 @@
     </row>
     <row r="427" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B427" s="13" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C427" s="5" t="s">
         <v>5</v>
@@ -6325,10 +6341,10 @@
     </row>
     <row r="428" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B428" s="13" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C428" s="5" t="s">
         <v>5</v>
@@ -6336,10 +6352,10 @@
     </row>
     <row r="429" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B429" s="13" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C429" s="5" t="s">
         <v>5</v>
@@ -6347,10 +6363,10 @@
     </row>
     <row r="430" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B430" s="13" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C430" s="5" t="s">
         <v>5</v>
@@ -6358,10 +6374,10 @@
     </row>
     <row r="431" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B431" s="13" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C431" s="5" t="s">
         <v>5</v>
@@ -6369,10 +6385,10 @@
     </row>
     <row r="432" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B432" s="13" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C432" s="5" t="s">
         <v>5</v>
@@ -6380,10 +6396,10 @@
     </row>
     <row r="433" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B433" s="13" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C433" s="5" t="s">
         <v>5</v>
@@ -6391,10 +6407,10 @@
     </row>
     <row r="434" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B434" s="13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C434" s="5" t="s">
         <v>5</v>
@@ -6402,10 +6418,10 @@
     </row>
     <row r="435" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B435" s="13" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C435" s="5" t="s">
         <v>5</v>
@@ -6413,10 +6429,10 @@
     </row>
     <row r="436" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B436" s="13" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C436" s="5" t="s">
         <v>5</v>
@@ -6424,10 +6440,10 @@
     </row>
     <row r="437" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B437" s="13" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C437" s="5" t="s">
         <v>5</v>
@@ -6435,10 +6451,10 @@
     </row>
     <row r="438" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B438" s="13" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C438" s="5" t="s">
         <v>5</v>
@@ -6446,10 +6462,10 @@
     </row>
     <row r="439" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B439" s="13" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>5</v>
@@ -6457,10 +6473,10 @@
     </row>
     <row r="440" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B440" s="13" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C440" s="5" t="s">
         <v>5</v>
@@ -6468,10 +6484,10 @@
     </row>
     <row r="441" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B441" s="13" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C441" s="5" t="s">
         <v>5</v>
@@ -6479,10 +6495,10 @@
     </row>
     <row r="442" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B442" s="13" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C442" s="5" t="s">
         <v>5</v>
@@ -6490,10 +6506,10 @@
     </row>
     <row r="443" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B443" s="13" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C443" s="5" t="s">
         <v>5</v>
@@ -6501,10 +6517,10 @@
     </row>
     <row r="444" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B444" s="13" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C444" s="5" t="s">
         <v>5</v>
@@ -6512,10 +6528,10 @@
     </row>
     <row r="445" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B445" s="13" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C445" s="5" t="s">
         <v>5</v>
@@ -6523,10 +6539,10 @@
     </row>
     <row r="446" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B446" s="13" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C446" s="5" t="s">
         <v>5</v>
@@ -6534,10 +6550,10 @@
     </row>
     <row r="447" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B447" s="13" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C447" s="5" t="s">
         <v>5</v>
@@ -6545,10 +6561,10 @@
     </row>
     <row r="448" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B448" s="13" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C448" s="5" t="s">
         <v>5</v>
@@ -6556,10 +6572,10 @@
     </row>
     <row r="449" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B449" s="13" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C449" s="5" t="s">
         <v>5</v>
@@ -6567,10 +6583,10 @@
     </row>
     <row r="450" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B450" s="13" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C450" s="5" t="s">
         <v>5</v>
@@ -6578,10 +6594,10 @@
     </row>
     <row r="451" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B451" s="13" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C451" s="5" t="s">
         <v>5</v>
@@ -6589,10 +6605,10 @@
     </row>
     <row r="452" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B452" s="13" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C452" s="5" t="s">
         <v>5</v>
@@ -6600,10 +6616,10 @@
     </row>
     <row r="453" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B453" s="13" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C453" s="5" t="s">
         <v>5</v>
@@ -6611,10 +6627,10 @@
     </row>
     <row r="454" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B454" s="13" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C454" s="5" t="s">
         <v>5</v>
@@ -6622,10 +6638,10 @@
     </row>
     <row r="455" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B455" s="13" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C455" s="5" t="s">
         <v>5</v>
@@ -6633,10 +6649,10 @@
     </row>
     <row r="456" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B456" s="13" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C456" s="5" t="s">
         <v>5</v>
@@ -6644,10 +6660,10 @@
     </row>
     <row r="457" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B457" s="13" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C457" s="5" t="s">
         <v>5</v>
@@ -6655,10 +6671,10 @@
     </row>
     <row r="458" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B458" s="13" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C458" s="5" t="s">
         <v>5</v>
@@ -6666,10 +6682,10 @@
     </row>
     <row r="459" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B459" s="13" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C459" s="5" t="s">
         <v>5</v>
@@ -6677,10 +6693,10 @@
     </row>
     <row r="460" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B460" s="13" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C460" s="5" t="s">
         <v>5</v>
@@ -6688,10 +6704,10 @@
     </row>
     <row r="461" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B461" s="13" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C461" s="5" t="s">
         <v>5</v>
@@ -6699,10 +6715,10 @@
     </row>
     <row r="462" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B462" s="13" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C462" s="5" t="s">
         <v>5</v>
@@ -6710,10 +6726,10 @@
     </row>
     <row r="463" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B463" s="13" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C463" s="5" t="s">
         <v>5</v>
@@ -6721,10 +6737,10 @@
     </row>
     <row r="464" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B464" s="13" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C464" s="5" t="s">
         <v>5</v>
@@ -6732,10 +6748,10 @@
     </row>
     <row r="465" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B465" s="13" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C465" s="5" t="s">
         <v>5</v>
@@ -6743,10 +6759,10 @@
     </row>
     <row r="466" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B466" s="13" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C466" s="5" t="s">
         <v>5</v>
@@ -6754,10 +6770,10 @@
     </row>
     <row r="467" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B467" s="13" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C467" s="5" t="s">
         <v>5</v>
@@ -6765,10 +6781,10 @@
     </row>
     <row r="468" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B468" s="13" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C468" s="5" t="s">
         <v>5</v>
@@ -6776,10 +6792,10 @@
     </row>
     <row r="469" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B469" s="13" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C469" s="5" t="s">
         <v>5</v>
@@ -6796,10 +6812,10 @@
     </row>
     <row r="472" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="12" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B472" s="13" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C472" s="5" t="s">
         <v>5</v>
@@ -6807,10 +6823,10 @@
     </row>
     <row r="473" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="12" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B473" s="13" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C473" s="5" t="s">
         <v>5</v>
@@ -6818,10 +6834,10 @@
     </row>
     <row r="474" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="12" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B474" s="13" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C474" s="5" t="s">
         <v>5</v>
@@ -6829,10 +6845,10 @@
     </row>
     <row r="475" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="12" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B475" s="13" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C475" s="5" t="s">
         <v>5</v>
@@ -6840,10 +6856,10 @@
     </row>
     <row r="476" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="12" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B476" s="13" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C476" s="5" t="s">
         <v>5</v>
@@ -6851,10 +6867,10 @@
     </row>
     <row r="477" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="12" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B477" s="13" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C477" s="5" t="s">
         <v>5</v>
@@ -6862,10 +6878,10 @@
     </row>
     <row r="478" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="12" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B478" s="13" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C478" s="5" t="s">
         <v>5</v>
@@ -6873,10 +6889,10 @@
     </row>
     <row r="479" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="12" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B479" s="13" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C479" s="5" t="s">
         <v>5</v>
@@ -6884,10 +6900,10 @@
     </row>
     <row r="480" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="12" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B480" s="13" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C480" s="5" t="s">
         <v>5</v>
@@ -6895,10 +6911,10 @@
     </row>
     <row r="481" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="12" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B481" s="13" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C481" s="5" t="s">
         <v>5</v>

--- a/java/resources/FINAL450.xlsx
+++ b/java/resources/FINAL450.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cvina\IdeaProjects\CrackingTheCodingInterview\java\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED5A75C-75DE-4778-92D0-7BED5A5A8AA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,15 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="478">
-  <si>
-    <t xml:space="preserve">Questions by Love Babbar:</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="479">
+  <si>
+    <t>Questions by Love Babbar:</t>
   </si>
   <si>
     <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
   </si>
   <si>
-    <t xml:space="preserve">Topic:</t>
+    <t>Topic:</t>
   </si>
   <si>
     <t xml:space="preserve">Problem: </t>
@@ -37,871 +42,871 @@
     <t xml:space="preserve">Done [yes or no] </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;-&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse the array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the maximum and minimum element in an array</t>
+    <t>&lt;-&gt;</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Reverse the array</t>
+  </si>
+  <si>
+    <t>Find the maximum and minimum element in an array</t>
   </si>
   <si>
     <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
   </si>
   <si>
-    <t xml:space="preserve">Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
+    <t>Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
   </si>
   <si>
     <t xml:space="preserve">Move all the negative elements to one side of the array </t>
   </si>
   <si>
-    <t xml:space="preserve">Find the Union and Intersection of the two sorted arrays.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a program to cyclically rotate an array by one.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find Largest sum contiguous Subarray [V. IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimise the maximum difference between heights [V.IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum no. of Jumps to reach end of an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find duplicate in an array of N+1 Integers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge 2 sorted arrays without using Extra space.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kadane's Algo [V.V.V.V.V IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge Intervals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Next Permutation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count Inversion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best time to buy and Sell stock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find all pairs on integer array whose sum is equal to given number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find common elements In 3 sorted arrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rearrange the array in alternating positive and negative items with O(1) extra space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find if there is any subarray with sum equal to 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find factorial of a large number</t>
+    <t>Find the Union and Intersection of the two sorted arrays.</t>
+  </si>
+  <si>
+    <t>Write a program to cyclically rotate an array by one.</t>
+  </si>
+  <si>
+    <t>find Largest sum contiguous Subarray [V. IMP]</t>
+  </si>
+  <si>
+    <t>Minimise the maximum difference between heights [V.IMP]</t>
+  </si>
+  <si>
+    <t>Minimum no. of Jumps to reach end of an array</t>
+  </si>
+  <si>
+    <t>find duplicate in an array of N+1 Integers</t>
+  </si>
+  <si>
+    <t>Merge 2 sorted arrays without using Extra space.</t>
+  </si>
+  <si>
+    <t>Kadane's Algo [V.V.V.V.V IMP]</t>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>Next Permutation</t>
+  </si>
+  <si>
+    <t>Count Inversion</t>
+  </si>
+  <si>
+    <t>Best time to buy and Sell stock</t>
+  </si>
+  <si>
+    <t>find all pairs on integer array whose sum is equal to given number</t>
+  </si>
+  <si>
+    <t>find common elements In 3 sorted arrays</t>
+  </si>
+  <si>
+    <t>Rearrange the array in alternating positive and negative items with O(1) extra space</t>
+  </si>
+  <si>
+    <t>Find if there is any subarray with sum equal to 0</t>
+  </si>
+  <si>
+    <t>Find factorial of a large number</t>
   </si>
   <si>
     <t xml:space="preserve">find maximum product subarray </t>
   </si>
   <si>
-    <t xml:space="preserve">Find longest coinsecutive subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given an array of size n and a number k, fin all elements that appear more than " n/k " times.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum profit by buying and selling a share atmost twice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find whether an array is a subset of another array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the triplet that sum to a given value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trapping Rain water problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chocolate Distribution problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smallest Subarray with sum greater than a given value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Three way partitioning of an array around a given value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum swaps required bring elements less equal K together</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum no. of operations required to make an array palindrome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median of 2 sorted arrays of equal size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median of 2 sorted arrays of different size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spiral traversal on a Matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search an element in a matriix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find median in a row wise sorted matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find row with maximum no. of 1's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print elements in sorted order using row-column wise sorted matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum size rectangle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find a specific pair in matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotate matrix by 90 degrees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kth smallest element in a row-cpumn wise sorted matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Common elements in all rows of a given matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check whether a String is Palindrome or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Duplicate characters in a string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why strings are immutable in Java?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a Code to check whether one string is a rotation of another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a Program to check whether a string is a valid shuffle of two strings or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count and Say problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Longest Recurring Subsequence in String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print all Subsequences of a string.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print all the permutations of the given string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Split the Binary string into two substring with equal 0’s and 1’s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word Wrap Problem [VERY IMP].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDIT Distance [Very Imp]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find next greater number with same set of digits. [Very Very IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balanced Parenthesis problem.[Imp]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word break Problem[ Very Imp]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rabin Karp Algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KMP Algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert a Sentence into its equivalent mobile numeric keypad sequence.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum number of bracket reversals needed to make an expression balanced.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count All Palindromic Subsequence in a given String.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of number of given string in 2D character array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search a Word in a 2D Grid of characters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boyer Moore Algorithm for Pattern Searching.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Converting Roman Numerals to Decimal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Common Prefix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of flips to make binary string alternate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the first repeated word in string.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum number of swaps for bracket balancing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the longest common subsequence between two strings.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program to generate all possible valid IP addresses from given  string.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a program tofind the smallest window that contains all characters of string itself.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rearrange characters in a string such that no two adjacent are same</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum characters to be added at front to make string palindrome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a sequence of words, print all anagrams together</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the smallest window in a string containing all characters of another string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recursively remove all adjacent duplicates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String matching where one string contains wildcard characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Function to find Number of customers who could not get a computer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transform One String to Another using Minimum Number of Given Operation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if two given strings are isomorphic to each other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recursively print all sentences that can be formed from list of word lists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Searching &amp; Sorting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find first and last positions of an element in a sorted array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find a Fixed Point (Value equal to index) in a given array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search in a rotated sorted array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">square root of an integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum and minimum of an array using minimum number of comparisons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimum location of point to minimize total distance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the repeating and the missing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find majority element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Searching in an array where adjacent differ by at most k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find a pair with a given difference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find four elements that sum to a given value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maximum sum such that no 2 elements are adjacent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count triplet with sum smaller than a given value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merge 2 sorted arrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">print all subarrays with 0 sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prefix Sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product array Puzzle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort array according to count of set bits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minimum no. of swaps required to sort the array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bishu and Soldiers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rasta and Kheshtak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kth smallest number again</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find pivot element in a sorted array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K-th Element of Two Sorted Arrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aggressive cows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Book Allocation Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKOSPOJ:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job Scheduling Algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missing Number in AP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smallest number with atleastn trailing zeroes infactorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Painters Partition Problem:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROTI-Prata SPOJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DoubleHelix SPOJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subset Sums</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Findthe inversion count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Merge-sort in-place</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partitioning and Sorting Arrays with Many Repeated Entries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LinkedList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a Program to reverse the Linked List. (Both Iterative and recursive)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a Linked List in group of Given Size. [Very Imp]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a program to Detect loop in a linked list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a program to Delete loop in a linked list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the starting point of the loop. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove Duplicates in a sorted Linked List.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove Duplicates in a Un-sorted Linked List.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a Program to Move the last element to Front in a Linked List.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add “1” to a number represented as a Linked List.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add two numbers represented by linked lists.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intersection of two Sorted Linked List.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intersection Point of two Linked Lists.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge Sort For Linked lists.[Very Important]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quicksort for Linked Lists.[Very Important]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the middle Element of a linked list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if a linked list is a circular linked list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Split a Circular linked list into two halves.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a Program to check whether the Singly Linked list is a palindrome or not.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deletion from a Circular Linked List.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a Doubly Linked list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find pairs with a given sum in a DLL.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count triplets in a sorted DLL whose sum is equal to given value “X”.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort a “k”sorted Doubly Linked list.[Very IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotate DoublyLinked list by N nodes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotate a Doubly Linked list in group of Given Size.[Very IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can we reverse a linked list in less than O(n) ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why Quicksort is preferred for. Arrays and Merge Sort for LinkedLists ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flatten a Linked List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort a LL of 0's, 1's and 2's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clone a linked list with next and random pointer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge K sorted Linked list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiply 2 no. represented by LL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete nodes which have a greater value on right side</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Segregate even and odd nodes in a Linked List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program for n’th node from the end of a Linked List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Single Traversal ??</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the first non-repeating character from a stream of characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binary Trees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">level order traversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse Level Order traversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Height of a tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter of a tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mirror of a tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inorder Traversal of a tree both using recursion and Iteration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preorder Traversal of a tree both using recursion and Iteration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postorder Traversal of a tree both using recursion and Iteration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Left View of a tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Right View of Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Top View of a tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bottom View of a tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zig-Zag traversal of a binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if a tree is balanced or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diagnol Traversal of a Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boundary traversal of a Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct Binary Tree from String with Bracket Representation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert Binary tree into Doubly Linked List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert Binary tree into Sum tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct Binary tree from Inorder and preorder traversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find minimum swaps required to convert a Binary tree into BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if Binary tree is Sum tree or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if all leaf nodes are at same level or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if 2 trees are mirror or not</t>
+    <t>Find longest coinsecutive subsequence</t>
+  </si>
+  <si>
+    <t>Given an array of size n and a number k, fin all elements that appear more than " n/k " times.</t>
+  </si>
+  <si>
+    <t>Maximum profit by buying and selling a share atmost twice</t>
+  </si>
+  <si>
+    <t>Find whether an array is a subset of another array</t>
+  </si>
+  <si>
+    <t>Find the triplet that sum to a given value</t>
+  </si>
+  <si>
+    <t>Trapping Rain water problem</t>
+  </si>
+  <si>
+    <t>Chocolate Distribution problem</t>
+  </si>
+  <si>
+    <t>Smallest Subarray with sum greater than a given value</t>
+  </si>
+  <si>
+    <t>Three way partitioning of an array around a given value</t>
+  </si>
+  <si>
+    <t>Minimum swaps required bring elements less equal K together</t>
+  </si>
+  <si>
+    <t>Minimum no. of operations required to make an array palindrome</t>
+  </si>
+  <si>
+    <t>Median of 2 sorted arrays of equal size</t>
+  </si>
+  <si>
+    <t>Median of 2 sorted arrays of different size</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>Spiral traversal on a Matrix</t>
+  </si>
+  <si>
+    <t>Search an element in a matriix</t>
+  </si>
+  <si>
+    <t>Find median in a row wise sorted matrix</t>
+  </si>
+  <si>
+    <t>Find row with maximum no. of 1's</t>
+  </si>
+  <si>
+    <t>Print elements in sorted order using row-column wise sorted matrix</t>
+  </si>
+  <si>
+    <t>Maximum size rectangle</t>
+  </si>
+  <si>
+    <t>Find a specific pair in matrix</t>
+  </si>
+  <si>
+    <t>Rotate matrix by 90 degrees</t>
+  </si>
+  <si>
+    <t>Kth smallest element in a row-cpumn wise sorted matrix</t>
+  </si>
+  <si>
+    <t>Common elements in all rows of a given matrix</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Reverse a String</t>
+  </si>
+  <si>
+    <t>Check whether a String is Palindrome or not</t>
+  </si>
+  <si>
+    <t>Find Duplicate characters in a string</t>
+  </si>
+  <si>
+    <t>Why strings are immutable in Java?</t>
+  </si>
+  <si>
+    <t>Write a Code to check whether one string is a rotation of another</t>
+  </si>
+  <si>
+    <t>Write a Program to check whether a string is a valid shuffle of two strings or not</t>
+  </si>
+  <si>
+    <t>Count and Say problem</t>
+  </si>
+  <si>
+    <t>Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]</t>
+  </si>
+  <si>
+    <t>Find Longest Recurring Subsequence in String</t>
+  </si>
+  <si>
+    <t>Print all Subsequences of a string.</t>
+  </si>
+  <si>
+    <t>Print all the permutations of the given string</t>
+  </si>
+  <si>
+    <t>Split the Binary string into two substring with equal 0’s and 1’s</t>
+  </si>
+  <si>
+    <t>Word Wrap Problem [VERY IMP].</t>
+  </si>
+  <si>
+    <t>EDIT Distance [Very Imp]</t>
+  </si>
+  <si>
+    <t>Find next greater number with same set of digits. [Very Very IMP]</t>
+  </si>
+  <si>
+    <t>Balanced Parenthesis problem.[Imp]</t>
+  </si>
+  <si>
+    <t>Word break Problem[ Very Imp]</t>
+  </si>
+  <si>
+    <t>Rabin Karp Algo</t>
+  </si>
+  <si>
+    <t>KMP Algo</t>
+  </si>
+  <si>
+    <t>Convert a Sentence into its equivalent mobile numeric keypad sequence.</t>
+  </si>
+  <si>
+    <t>Minimum number of bracket reversals needed to make an expression balanced.</t>
+  </si>
+  <si>
+    <t>Count All Palindromic Subsequence in a given String.</t>
+  </si>
+  <si>
+    <t>Count of number of given string in 2D character array</t>
+  </si>
+  <si>
+    <t>Search a Word in a 2D Grid of characters.</t>
+  </si>
+  <si>
+    <t>Boyer Moore Algorithm for Pattern Searching.</t>
+  </si>
+  <si>
+    <t>Converting Roman Numerals to Decimal</t>
+  </si>
+  <si>
+    <t>Longest Common Prefix</t>
+  </si>
+  <si>
+    <t>Number of flips to make binary string alternate</t>
+  </si>
+  <si>
+    <t>Find the first repeated word in string.</t>
+  </si>
+  <si>
+    <t>Minimum number of swaps for bracket balancing.</t>
+  </si>
+  <si>
+    <t>Find the longest common subsequence between two strings.</t>
+  </si>
+  <si>
+    <t>Program to generate all possible valid IP addresses from given  string.</t>
+  </si>
+  <si>
+    <t>Write a program tofind the smallest window that contains all characters of string itself.</t>
+  </si>
+  <si>
+    <t>Rearrange characters in a string such that no two adjacent are same</t>
+  </si>
+  <si>
+    <t>Minimum characters to be added at front to make string palindrome</t>
+  </si>
+  <si>
+    <t>Given a sequence of words, print all anagrams together</t>
+  </si>
+  <si>
+    <t>Find the smallest window in a string containing all characters of another string</t>
+  </si>
+  <si>
+    <t>Recursively remove all adjacent duplicates</t>
+  </si>
+  <si>
+    <t>String matching where one string contains wildcard characters</t>
+  </si>
+  <si>
+    <t>Function to find Number of customers who could not get a computer</t>
+  </si>
+  <si>
+    <t>Transform One String to Another using Minimum Number of Given Operation</t>
+  </si>
+  <si>
+    <t>Check if two given strings are isomorphic to each other</t>
+  </si>
+  <si>
+    <t>Recursively print all sentences that can be formed from list of word lists</t>
+  </si>
+  <si>
+    <t>Searching &amp; Sorting</t>
+  </si>
+  <si>
+    <t>Find first and last positions of an element in a sorted array</t>
+  </si>
+  <si>
+    <t>Find a Fixed Point (Value equal to index) in a given array</t>
+  </si>
+  <si>
+    <t>Search in a rotated sorted array</t>
+  </si>
+  <si>
+    <t>square root of an integer</t>
+  </si>
+  <si>
+    <t>Maximum and minimum of an array using minimum number of comparisons</t>
+  </si>
+  <si>
+    <t>Optimum location of point to minimize total distance</t>
+  </si>
+  <si>
+    <t>Find the repeating and the missing</t>
+  </si>
+  <si>
+    <t>find majority element</t>
+  </si>
+  <si>
+    <t>Searching in an array where adjacent differ by at most k</t>
+  </si>
+  <si>
+    <t>find a pair with a given difference</t>
+  </si>
+  <si>
+    <t>find four elements that sum to a given value</t>
+  </si>
+  <si>
+    <t>maximum sum such that no 2 elements are adjacent</t>
+  </si>
+  <si>
+    <t>Count triplet with sum smaller than a given value</t>
+  </si>
+  <si>
+    <t>merge 2 sorted arrays</t>
+  </si>
+  <si>
+    <t>print all subarrays with 0 sum</t>
+  </si>
+  <si>
+    <t>Prefix Sum</t>
+  </si>
+  <si>
+    <t>Product array Puzzle</t>
+  </si>
+  <si>
+    <t>Sort array according to count of set bits</t>
+  </si>
+  <si>
+    <t>minimum no. of swaps required to sort the array</t>
+  </si>
+  <si>
+    <t>Bishu and Soldiers</t>
+  </si>
+  <si>
+    <t>Rasta and Kheshtak</t>
+  </si>
+  <si>
+    <t>Kth smallest number again</t>
+  </si>
+  <si>
+    <t>Find pivot element in a sorted array</t>
+  </si>
+  <si>
+    <t>K-th Element of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>Aggressive cows</t>
+  </si>
+  <si>
+    <t>Book Allocation Problem</t>
+  </si>
+  <si>
+    <t>EKOSPOJ:</t>
+  </si>
+  <si>
+    <t>Job Scheduling Algo</t>
+  </si>
+  <si>
+    <t>Missing Number in AP</t>
+  </si>
+  <si>
+    <t>Smallest number with atleastn trailing zeroes infactorial</t>
+  </si>
+  <si>
+    <t>Painters Partition Problem:</t>
+  </si>
+  <si>
+    <t>ROTI-Prata SPOJ</t>
+  </si>
+  <si>
+    <t>DoubleHelix SPOJ</t>
+  </si>
+  <si>
+    <t>Subset Sums</t>
+  </si>
+  <si>
+    <t>Findthe inversion count</t>
+  </si>
+  <si>
+    <t>Implement Merge-sort in-place</t>
+  </si>
+  <si>
+    <t>Partitioning and Sorting Arrays with Many Repeated Entries</t>
+  </si>
+  <si>
+    <t>LinkedList</t>
+  </si>
+  <si>
+    <t>Write a Program to reverse the Linked List. (Both Iterative and recursive)</t>
+  </si>
+  <si>
+    <t>Reverse a Linked List in group of Given Size. [Very Imp]</t>
+  </si>
+  <si>
+    <t>Write a program to Detect loop in a linked list.</t>
+  </si>
+  <si>
+    <t>Write a program to Delete loop in a linked list.</t>
+  </si>
+  <si>
+    <t>Find the starting point of the loop. </t>
+  </si>
+  <si>
+    <t>Remove Duplicates in a sorted Linked List.</t>
+  </si>
+  <si>
+    <t>Remove Duplicates in a Un-sorted Linked List.</t>
+  </si>
+  <si>
+    <t>Write a Program to Move the last element to Front in a Linked List.</t>
+  </si>
+  <si>
+    <t>Add “1” to a number represented as a Linked List.</t>
+  </si>
+  <si>
+    <t>Add two numbers represented by linked lists.</t>
+  </si>
+  <si>
+    <t>Intersection of two Sorted Linked List.</t>
+  </si>
+  <si>
+    <t>Intersection Point of two Linked Lists.</t>
+  </si>
+  <si>
+    <t>Merge Sort For Linked lists.[Very Important]</t>
+  </si>
+  <si>
+    <t>Quicksort for Linked Lists.[Very Important]</t>
+  </si>
+  <si>
+    <t>Find the middle Element of a linked list.</t>
+  </si>
+  <si>
+    <t>Check if a linked list is a circular linked list.</t>
+  </si>
+  <si>
+    <t>Split a Circular linked list into two halves.</t>
+  </si>
+  <si>
+    <t>Write a Program to check whether the Singly Linked list is a palindrome or not.</t>
+  </si>
+  <si>
+    <t>Deletion from a Circular Linked List.</t>
+  </si>
+  <si>
+    <t>Reverse a Doubly Linked list.</t>
+  </si>
+  <si>
+    <t>Find pairs with a given sum in a DLL.</t>
+  </si>
+  <si>
+    <t>Count triplets in a sorted DLL whose sum is equal to given value “X”.</t>
+  </si>
+  <si>
+    <t>Sort a “k”sorted Doubly Linked list.[Very IMP]</t>
+  </si>
+  <si>
+    <t>Rotate DoublyLinked list by N nodes.</t>
+  </si>
+  <si>
+    <t>Rotate a Doubly Linked list in group of Given Size.[Very IMP]</t>
+  </si>
+  <si>
+    <t>Can we reverse a linked list in less than O(n) ?</t>
+  </si>
+  <si>
+    <t>Why Quicksort is preferred for. Arrays and Merge Sort for LinkedLists ?</t>
+  </si>
+  <si>
+    <t>Flatten a Linked List</t>
+  </si>
+  <si>
+    <t>Sort a LL of 0's, 1's and 2's</t>
+  </si>
+  <si>
+    <t>Clone a linked list with next and random pointer</t>
+  </si>
+  <si>
+    <t>Merge K sorted Linked list</t>
+  </si>
+  <si>
+    <t>Multiply 2 no. represented by LL</t>
+  </si>
+  <si>
+    <t>Delete nodes which have a greater value on right side</t>
+  </si>
+  <si>
+    <t>Segregate even and odd nodes in a Linked List</t>
+  </si>
+  <si>
+    <t>Program for n’th node from the end of a Linked List</t>
+  </si>
+  <si>
+    <t>Single Traversal ??</t>
+  </si>
+  <si>
+    <t>Find the first non-repeating character from a stream of characters</t>
+  </si>
+  <si>
+    <t>Binary Trees</t>
+  </si>
+  <si>
+    <t>level order traversal</t>
+  </si>
+  <si>
+    <t>Reverse Level Order traversal</t>
+  </si>
+  <si>
+    <t>Height of a tree</t>
+  </si>
+  <si>
+    <t>Diameter of a tree</t>
+  </si>
+  <si>
+    <t>Mirror of a tree</t>
+  </si>
+  <si>
+    <t>Inorder Traversal of a tree both using recursion and Iteration</t>
+  </si>
+  <si>
+    <t>Preorder Traversal of a tree both using recursion and Iteration</t>
+  </si>
+  <si>
+    <t>Postorder Traversal of a tree both using recursion and Iteration</t>
+  </si>
+  <si>
+    <t>Left View of a tree</t>
+  </si>
+  <si>
+    <t>Right View of Tree</t>
+  </si>
+  <si>
+    <t>Top View of a tree</t>
+  </si>
+  <si>
+    <t>Bottom View of a tree</t>
+  </si>
+  <si>
+    <t>Zig-Zag traversal of a binary tree</t>
+  </si>
+  <si>
+    <t>Check if a tree is balanced or not</t>
+  </si>
+  <si>
+    <t>Diagnol Traversal of a Binary tree</t>
+  </si>
+  <si>
+    <t>Boundary traversal of a Binary tree</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from String with Bracket Representation</t>
+  </si>
+  <si>
+    <t>Convert Binary tree into Doubly Linked List</t>
+  </si>
+  <si>
+    <t>Convert Binary tree into Sum tree</t>
+  </si>
+  <si>
+    <t>Construct Binary tree from Inorder and preorder traversal</t>
+  </si>
+  <si>
+    <t>Find minimum swaps required to convert a Binary tree into BST</t>
+  </si>
+  <si>
+    <t>Check if Binary tree is Sum tree or not</t>
+  </si>
+  <si>
+    <t>Check if all leaf nodes are at same level or not</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]</t>
+  </si>
+  <si>
+    <t>Check if 2 trees are mirror or not</t>
   </si>
   <si>
     <t xml:space="preserve">Sum of Nodes on the Longest path from root to leaf node </t>
   </si>
   <si>
-    <t xml:space="preserve">Check if given graph is tree or not.  [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Largest subtree sum in a tree</t>
+    <t>Check if given graph is tree or not.  [ IMP ]</t>
+  </si>
+  <si>
+    <t>Find Largest subtree sum in a tree</t>
   </si>
   <si>
     <t xml:space="preserve">Maximum Sum of nodes in Binary tree such that no two are adjacent </t>
   </si>
   <si>
-    <t xml:space="preserve">Print all "K" Sum paths in a Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find LCA in a Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find distance between 2 nodes in a Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kth Ancestor of node in a Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find all Duplicate subtrees in a Binary tree [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tree Isomorphism Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binary Search Trees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fina a value in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deletion of a node in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Go to the node that needs to be deleted and check if left is null then return right, if right is null return left, else find min value in the right side of the curr Node and replace current node’s value with min and perform the delete operation on the min valued node on the right side of the curr node.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find min and max value in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find inorder successor and inorder predecessor in a BST</t>
+    <t>Print all "K" Sum paths in a Binary tree</t>
+  </si>
+  <si>
+    <t>Find LCA in a Binary tree</t>
+  </si>
+  <si>
+    <t>Find distance between 2 nodes in a Binary tree</t>
+  </si>
+  <si>
+    <t>Kth Ancestor of node in a Binary tree</t>
+  </si>
+  <si>
+    <t>Find all Duplicate subtrees in a Binary tree [ IMP ]</t>
+  </si>
+  <si>
+    <t>Tree Isomorphism Problem</t>
+  </si>
+  <si>
+    <t>Binary Search Trees</t>
+  </si>
+  <si>
+    <t>Fina a value in a BST</t>
+  </si>
+  <si>
+    <t>Deletion of a node in a BST</t>
+  </si>
+  <si>
+    <t>Go to the node that needs to be deleted and check if left is null then return right, if right is null return left, else find min value in the right side of the curr Node and replace current node’s value with min and perform the delete operation on the min valued node on the right side of the curr node.</t>
+  </si>
+  <si>
+    <t>Find min and max value in a BST</t>
+  </si>
+  <si>
+    <t>Find inorder successor and inorder predecessor in a BST</t>
   </si>
   <si>
     <t xml:space="preserve">Check if a tree is a BST or not </t>
   </si>
   <si>
-    <t xml:space="preserve">Populate Inorder successor of all nodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse InOrder traversal with prevTemp node</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find LCA  of 2 nodes in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct BST from preorder traversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert Binary tree into BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store inOrder traversal of BT, then sort it and again do inorder traversal and populate values in the nodes using data of sorted array.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert a normal BST into a Balanced BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge two BST [ V.V.V&gt;IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Kth largest element in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Try to do it in constant space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Kth smallest element in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count pairs from 2 BST whose sum is equal to given value "X"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the median of BST in O(n) time and O(1) space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count BST ndoes that lie in a given range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Replace every element with the least greater element on its right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given "n" appointments, find the conflicting appointments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check preorder is valid or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check whether BST contains Dead end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Largest BST in a Binary Tree [ V.V.V.V.V IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flatten BST to sorted list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greedy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activity Selection Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job SequencingProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huffman Coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Connection Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fractional Knapsack Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greedy Algorithm to find Minimum number of Coins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum trains for which stoppage can be provided</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum Platforms Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buy Maximum Stocks if i stocks can be bought on i-th day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the minimum and maximum amount to buy all N candies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimize Cash Flow among a given set of friends who have borrowed money from each other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum Cost to cut a board into squares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if it is possible to survive on Island</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find maximum meetings in one room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum product subset of an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximize array sum after K negations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximize the sum of arr[i]*i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum sum of absolute difference of an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximize sum of consecutive differences in a circular array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum sum of absolute difference of pairs of two arrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program for Shortest Job First (or SJF) CPU Scheduling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program for Least Recently Used (LRU) Page Replacement algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smallest subset with sum greater than all other elements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chocolate Distribution Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFKIN -Defense of a Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIEHARD -DIE HARD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GERGOVIA -Wine trading in Gergovia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Picking Up Chicks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHOCOLA –Chocolate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARRANGE -Arranging Amplifiers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K Centers Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum Cost of ropes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find smallest number with given number of digits and sum of digits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find maximum sum possible equal sum of three stacks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackTracking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rat in a maze Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Printing all solutions in N-Queen Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word Break Problem using Backtracking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove Invalid Parentheses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudoku Solver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m Coloring Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print all palindromic partitions of a string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subset Sum Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Knight’s tour problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tug of War</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find shortest safe route in a path with landmines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combinational Sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Maximum number possible by doing at-most K swaps</t>
+    <t>Populate Inorder successor of all nodes</t>
+  </si>
+  <si>
+    <t>Reverse InOrder traversal with prevTemp node</t>
+  </si>
+  <si>
+    <t>Find LCA  of 2 nodes in a BST</t>
+  </si>
+  <si>
+    <t>Construct BST from preorder traversal</t>
+  </si>
+  <si>
+    <t>Convert Binary tree into BST</t>
+  </si>
+  <si>
+    <t>Store inOrder traversal of BT, then sort it and again do inorder traversal and populate values in the nodes using data of sorted array.</t>
+  </si>
+  <si>
+    <t>Convert a normal BST into a Balanced BST</t>
+  </si>
+  <si>
+    <t>Merge two BST [ V.V.V&gt;IMP ]</t>
+  </si>
+  <si>
+    <t>Find Kth largest element in a BST</t>
+  </si>
+  <si>
+    <t>Try to do it in constant space</t>
+  </si>
+  <si>
+    <t>Find Kth smallest element in a BST</t>
+  </si>
+  <si>
+    <t>Count pairs from 2 BST whose sum is equal to given value "X"</t>
+  </si>
+  <si>
+    <t>Find the median of BST in O(n) time and O(1) space</t>
+  </si>
+  <si>
+    <t>Count BST ndoes that lie in a given range</t>
+  </si>
+  <si>
+    <t>Replace every element with the least greater element on its right</t>
+  </si>
+  <si>
+    <t>Given "n" appointments, find the conflicting appointments</t>
+  </si>
+  <si>
+    <t>Check preorder is valid or not</t>
+  </si>
+  <si>
+    <t>Check whether BST contains Dead end</t>
+  </si>
+  <si>
+    <t>Largest BST in a Binary Tree [ V.V.V.V.V IMP ]</t>
+  </si>
+  <si>
+    <t>Flatten BST to sorted list</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t>Activity Selection Problem</t>
+  </si>
+  <si>
+    <t>Job SequencingProblem</t>
+  </si>
+  <si>
+    <t>Huffman Coding</t>
+  </si>
+  <si>
+    <t>Water Connection Problem</t>
+  </si>
+  <si>
+    <t>Fractional Knapsack Problem</t>
+  </si>
+  <si>
+    <t>Greedy Algorithm to find Minimum number of Coins</t>
+  </si>
+  <si>
+    <t>Maximum trains for which stoppage can be provided</t>
+  </si>
+  <si>
+    <t>Minimum Platforms Problem</t>
+  </si>
+  <si>
+    <t>Buy Maximum Stocks if i stocks can be bought on i-th day</t>
+  </si>
+  <si>
+    <t>Find the minimum and maximum amount to buy all N candies</t>
+  </si>
+  <si>
+    <t>Minimize Cash Flow among a given set of friends who have borrowed money from each other</t>
+  </si>
+  <si>
+    <t>Minimum Cost to cut a board into squares</t>
+  </si>
+  <si>
+    <t>Check if it is possible to survive on Island</t>
+  </si>
+  <si>
+    <t>Find maximum meetings in one room</t>
+  </si>
+  <si>
+    <t>Maximum product subset of an array</t>
+  </si>
+  <si>
+    <t>Maximize array sum after K negations</t>
+  </si>
+  <si>
+    <t>Maximize the sum of arr[i]*i</t>
+  </si>
+  <si>
+    <t>Maximum sum of absolute difference of an array</t>
+  </si>
+  <si>
+    <t>Maximize sum of consecutive differences in a circular array</t>
+  </si>
+  <si>
+    <t>Minimum sum of absolute difference of pairs of two arrays</t>
+  </si>
+  <si>
+    <t>Program for Shortest Job First (or SJF) CPU Scheduling</t>
+  </si>
+  <si>
+    <t>Program for Least Recently Used (LRU) Page Replacement algorithm</t>
+  </si>
+  <si>
+    <t>Smallest subset with sum greater than all other elements</t>
+  </si>
+  <si>
+    <t>Chocolate Distribution Problem</t>
+  </si>
+  <si>
+    <t>DEFKIN -Defense of a Kingdom</t>
+  </si>
+  <si>
+    <t>DIEHARD -DIE HARD</t>
+  </si>
+  <si>
+    <t>GERGOVIA -Wine trading in Gergovia</t>
+  </si>
+  <si>
+    <t>Picking Up Chicks</t>
+  </si>
+  <si>
+    <t>CHOCOLA –Chocolate</t>
+  </si>
+  <si>
+    <t>ARRANGE -Arranging Amplifiers</t>
+  </si>
+  <si>
+    <t>K Centers Problem</t>
+  </si>
+  <si>
+    <t>Minimum Cost of ropes</t>
+  </si>
+  <si>
+    <t>Find smallest number with given number of digits and sum of digits</t>
+  </si>
+  <si>
+    <t>Find maximum sum possible equal sum of three stacks</t>
+  </si>
+  <si>
+    <t>BackTracking</t>
+  </si>
+  <si>
+    <t>Rat in a maze Problem</t>
+  </si>
+  <si>
+    <t>Printing all solutions in N-Queen Problem</t>
+  </si>
+  <si>
+    <t>Word Break Problem using Backtracking</t>
+  </si>
+  <si>
+    <t>Remove Invalid Parentheses</t>
+  </si>
+  <si>
+    <t>Sudoku Solver</t>
+  </si>
+  <si>
+    <t>m Coloring Problem</t>
+  </si>
+  <si>
+    <t>Print all palindromic partitions of a string</t>
+  </si>
+  <si>
+    <t>Subset Sum Problem</t>
+  </si>
+  <si>
+    <t>The Knight’s tour problem</t>
+  </si>
+  <si>
+    <t>Tug of War</t>
+  </si>
+  <si>
+    <t>Find shortest safe route in a path with landmines</t>
+  </si>
+  <si>
+    <t>Combinational Sum</t>
+  </si>
+  <si>
+    <t>Find Maximum number possible by doing at-most K swaps</t>
   </si>
   <si>
     <t xml:space="preserve">Print all permutations of a string </t>
   </si>
   <si>
-    <t xml:space="preserve">Find if there is a path of more than k length from a source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Possible Route in a Matrix with Hurdles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print all possible paths from top left to bottom right of a mXn matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partition of a set intoK subsets with equal sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the K-th Permutation Sequence of first N natural numbers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stacks &amp; Queues</t>
+    <t>Find if there is a path of more than k length from a source</t>
+  </si>
+  <si>
+    <t>Longest Possible Route in a Matrix with Hurdles</t>
+  </si>
+  <si>
+    <t>Print all possible paths from top left to bottom right of a mXn matrix</t>
+  </si>
+  <si>
+    <t>Partition of a set intoK subsets with equal sum</t>
+  </si>
+  <si>
+    <t>Find the K-th Permutation Sequence of first N natural numbers</t>
+  </si>
+  <si>
+    <t>Stacks &amp; Queues</t>
   </si>
   <si>
     <t xml:space="preserve"> Implement Stack from Scratch</t>
@@ -910,193 +915,193 @@
     <t xml:space="preserve"> Implement Queue from Scratch</t>
   </si>
   <si>
-    <t xml:space="preserve">Implement 2 stack in an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find the middle element of a stack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement "N" stacks in an Array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check the expression has valid or Balanced parenthesis or not.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a String using Stack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design a Stack that supports getMin() in O(1) time and O(1) extra space.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the next Greater element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The celebrity Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stack or Two Pointers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arithmetic Expression evaluation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluation of Postfix expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement a method to insert an element at its bottom without using any other data structure.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recursion ??</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a stack using recursion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort a Stack using recursion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge Overlapping Intervals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Largest rectangular Area in Histogram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Length of the Longest Valid Substring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">left, right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression contains redundant bracket or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Stack using Queue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Stack using Deque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stack Permutations (Check if an array is stack permutation of other)</t>
+    <t>Implement 2 stack in an array</t>
+  </si>
+  <si>
+    <t>find the middle element of a stack</t>
+  </si>
+  <si>
+    <t>Implement "N" stacks in an Array</t>
+  </si>
+  <si>
+    <t>Check the expression has valid or Balanced parenthesis or not.</t>
+  </si>
+  <si>
+    <t>Reverse a String using Stack</t>
+  </si>
+  <si>
+    <t>Design a Stack that supports getMin() in O(1) time and O(1) extra space.</t>
+  </si>
+  <si>
+    <t>Find the next Greater element</t>
+  </si>
+  <si>
+    <t>The celebrity Problem</t>
+  </si>
+  <si>
+    <t>Stack or Two Pointers</t>
+  </si>
+  <si>
+    <t>Arithmetic Expression evaluation</t>
+  </si>
+  <si>
+    <t>Evaluation of Postfix expression</t>
+  </si>
+  <si>
+    <t>Implement a method to insert an element at its bottom without using any other data structure.</t>
+  </si>
+  <si>
+    <t>Recursion ??</t>
+  </si>
+  <si>
+    <t>Reverse a stack using recursion</t>
+  </si>
+  <si>
+    <t>Sort a Stack using recursion</t>
+  </si>
+  <si>
+    <t>Merge Overlapping Intervals</t>
+  </si>
+  <si>
+    <t>Largest rectangular Area in Histogram</t>
+  </si>
+  <si>
+    <t>Length of the Longest Valid Substring</t>
+  </si>
+  <si>
+    <t>left, right</t>
+  </si>
+  <si>
+    <t>Expression contains redundant bracket or not</t>
+  </si>
+  <si>
+    <t>Implement Stack using Queue</t>
+  </si>
+  <si>
+    <t>Implement Stack using Deque</t>
+  </si>
+  <si>
+    <t>Stack Permutations (Check if an array is stack permutation of other)</t>
   </si>
   <si>
     <t xml:space="preserve">Implement Queue using Stack  </t>
   </si>
   <si>
-    <t xml:space="preserve">Implement "n" queue in an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement a Circular queue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LRU Cache Implementationa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LinkedHashMap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a Queue using recursion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse the first “K” elements of a queue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interleave the first half of the queue with second half</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use stack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the first circular tour that visits all Petrol Pumps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 Pointers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum time required to rot all oranges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distance of nearest cell having 1 in a binary matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First negative integer in every window of size “k”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if all levels of two trees are anagrams or not.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sum of minimum and maximum elements of all subarrays of size “k”.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum sum of squares of character counts in a given string after removing “k” characters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queue based approach or first non-repeating character in a stream.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Next Smaller Element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement a Maxheap/MinHeap using arrays and recursion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort an Array using heap. (HeapSort)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum of all subarrays of size k.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“k” largest element in an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kth smallest and largest element in an unsorted array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge “K” sorted arrays. [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge 2 Binary Max Heaps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kth largest sum continuous subarrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leetcode- reorganize strings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge “K” Sorted Linked Lists [V.IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smallest range in “K” Lists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median in a stream of Integers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if a Binary Tree is Heap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connect “n” ropes with minimum cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert BST to Min Heap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert min heap to max heap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rearrange characters in a string such that no two adjacent are same.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum sum of two numbers formed from digits of an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a Graph, print it</t>
+    <t>Implement "n" queue in an array</t>
+  </si>
+  <si>
+    <t>Implement a Circular queue</t>
+  </si>
+  <si>
+    <t>LRU Cache Implementationa</t>
+  </si>
+  <si>
+    <t>LinkedHashMap</t>
+  </si>
+  <si>
+    <t>Reverse a Queue using recursion</t>
+  </si>
+  <si>
+    <t>Reverse the first “K” elements of a queue</t>
+  </si>
+  <si>
+    <t>Interleave the first half of the queue with second half</t>
+  </si>
+  <si>
+    <t>Use stack</t>
+  </si>
+  <si>
+    <t>Find the first circular tour that visits all Petrol Pumps</t>
+  </si>
+  <si>
+    <t>2 Pointers</t>
+  </si>
+  <si>
+    <t>Minimum time required to rot all oranges</t>
+  </si>
+  <si>
+    <t>Distance of nearest cell having 1 in a binary matrix</t>
+  </si>
+  <si>
+    <t>First negative integer in every window of size “k”</t>
+  </si>
+  <si>
+    <t>Check if all levels of two trees are anagrams or not.</t>
+  </si>
+  <si>
+    <t>Sum of minimum and maximum elements of all subarrays of size “k”.</t>
+  </si>
+  <si>
+    <t>Minimum sum of squares of character counts in a given string after removing “k” characters.</t>
+  </si>
+  <si>
+    <t>Queue based approach or first non-repeating character in a stream.</t>
+  </si>
+  <si>
+    <t>Next Smaller Element</t>
+  </si>
+  <si>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t>Implement a Maxheap/MinHeap using arrays and recursion.</t>
+  </si>
+  <si>
+    <t>Sort an Array using heap. (HeapSort)</t>
+  </si>
+  <si>
+    <t>Maximum of all subarrays of size k.</t>
+  </si>
+  <si>
+    <t>“k” largest element in an array</t>
+  </si>
+  <si>
+    <t>Kth smallest and largest element in an unsorted array</t>
+  </si>
+  <si>
+    <t>Merge “K” sorted arrays. [ IMP ]</t>
+  </si>
+  <si>
+    <t>Merge 2 Binary Max Heaps</t>
+  </si>
+  <si>
+    <t>Kth largest sum continuous subarrays</t>
+  </si>
+  <si>
+    <t>Leetcode- reorganize strings</t>
+  </si>
+  <si>
+    <t>Merge “K” Sorted Linked Lists [V.IMP]</t>
+  </si>
+  <si>
+    <t>Smallest range in “K” Lists</t>
+  </si>
+  <si>
+    <t>Median in a stream of Integers</t>
+  </si>
+  <si>
+    <t>Check if a Binary Tree is Heap</t>
+  </si>
+  <si>
+    <t>Connect “n” ropes with minimum cost</t>
+  </si>
+  <si>
+    <t>Convert BST to Min Heap</t>
+  </si>
+  <si>
+    <t>Convert min heap to max heap</t>
+  </si>
+  <si>
+    <t>Rearrange characters in a string such that no two adjacent are same.</t>
+  </si>
+  <si>
+    <t>Minimum sum of two numbers formed from digits of an array</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Create a Graph, print it</t>
   </si>
   <si>
     <t xml:space="preserve">Implement BFS algorithm </t>
@@ -1111,359 +1116,359 @@
     <t xml:space="preserve">Detect Cycle in UnDirected Graph using BFS/DFS Algo </t>
   </si>
   <si>
-    <t xml:space="preserve">Search in a Maze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum Step by Knight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flood fill algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clone a graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Making wired Connections</t>
+    <t>Search in a Maze</t>
+  </si>
+  <si>
+    <t>Minimum Step by Knight</t>
+  </si>
+  <si>
+    <t>flood fill algo</t>
+  </si>
+  <si>
+    <t>Clone a graph</t>
+  </si>
+  <si>
+    <t>Making wired Connections</t>
   </si>
   <si>
     <t xml:space="preserve">word Ladder </t>
   </si>
   <si>
-    <t xml:space="preserve">Dijkstra algo</t>
+    <t>Dijkstra algo</t>
   </si>
   <si>
     <t xml:space="preserve">Implement Topological Sort </t>
   </si>
   <si>
-    <t xml:space="preserve">Minimum time taken by each job to be completed given by a Directed Acyclic Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find whether it is possible to finish all tasks or not from given dependencies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the no. of Isalnds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a sorted Dictionary of an Alien Language, find order of characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Kruksal’sAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Prim’s Algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total no. of Spanning tree in a graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Bellman Ford Algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Floyd warshallAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Travelling Salesman Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graph ColouringProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snake and Ladders Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find bridge in a graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count Strongly connected Components(Kosaraju Algo)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check whether a graph is Bipartite or Not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detect Negative cycle in a graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest path in a Directed Acyclic Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Journey to the Moon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cheapest Flights Within K Stops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oliver and the Game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Jug problem using BFS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find if there is a path of more thank length from a source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M-ColouringProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum edges to reverse o make path from source to destination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paths to travel each nodes using each edge(Seven Bridges)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vertex Cover Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chinese Postman or Route Inspection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Triangles in a Directed and Undirected Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimise the cashflow among a given set of friends who have borrowed money from each other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two Clique Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct a trie from scratch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find shortest unique prefix for every word in a given list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word Break Problem | (Trie solution)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement a Phone Directory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print unique rows in a given boolean matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dynamic Programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coin ChangeProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knapsack Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binomial CoefficientProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permutation CoefficientProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program for nth Catalan Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matrix Chain Multiplication </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit Distance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friends Pairing Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold Mine Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assembly Line SchedulingProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Painting the Fenceproblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximize The Cut Segments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Common Subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Repeated Subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Increasing Subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Space Optimized Solution of LCS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCS (Longest Common Subsequence) of three strings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum Sum Increasing Subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count all subsequences having product less than K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest subsequence such that difference between adjacent is one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum subsequence sum such that no three are consecutive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egg Dropping Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum Length Chain of Pairs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum size square sub-matrix with all 1s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum sum of pairs with specific difference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min Cost PathProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum difference of zeros and ones in binary string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum number of jumps to reach end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum cost to fill given weight in a bag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum removals from array to make max –min &lt;= K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Common Substring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count number of ways to reacha given score in a game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count Balanced Binary Trees of Height h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smallest sum contiguous subarray</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unbounded Knapsack (Repetition of items allowed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word Break Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Largest Independent Set Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partition problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Palindromic Subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count All Palindromic Subsequence in a given String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Palindromic Substring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest alternating subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weighted Job Scheduling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coin game winner where every player has three choices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum profit by buying and selling a share at most twice [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimal Strategy for a Game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimal Binary Search Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palindrome PartitioningProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word Wrap Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile Numeric Keypad Problem [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boolean Parenthesization Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Largest rectangular sub-matrix whose sum is 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum sum rectangle in a 2D matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum profit by buying and selling a share at most k times</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find if a string is interleaved of two other strings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum Length of Pair Chain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit Manipulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count set bits in an integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the two non-repeating elements in an array of repeating elements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count number of bits to be flipped to convert A to B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count total set bits in all numbers from 1 to n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program to find whether a no is power of two</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find position of the only set bit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copy set bits in a range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divide two integers without using multiplication, division and mod operator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate square of a number without using *, / and pow()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Set</t>
+    <t>Minimum time taken by each job to be completed given by a Directed Acyclic Graph</t>
+  </si>
+  <si>
+    <t>Find whether it is possible to finish all tasks or not from given dependencies</t>
+  </si>
+  <si>
+    <t>Find the no. of Isalnds</t>
+  </si>
+  <si>
+    <t>Given a sorted Dictionary of an Alien Language, find order of characters</t>
+  </si>
+  <si>
+    <t>Implement Kruksal’sAlgorithm</t>
+  </si>
+  <si>
+    <t>Implement Prim’s Algorithm</t>
+  </si>
+  <si>
+    <t>Total no. of Spanning tree in a graph</t>
+  </si>
+  <si>
+    <t>Implement Bellman Ford Algorithm</t>
+  </si>
+  <si>
+    <t>Implement Floyd warshallAlgorithm</t>
+  </si>
+  <si>
+    <t>Travelling Salesman Problem</t>
+  </si>
+  <si>
+    <t>Graph ColouringProblem</t>
+  </si>
+  <si>
+    <t>Snake and Ladders Problem</t>
+  </si>
+  <si>
+    <t>Find bridge in a graph</t>
+  </si>
+  <si>
+    <t>Count Strongly connected Components(Kosaraju Algo)</t>
+  </si>
+  <si>
+    <t>Check whether a graph is Bipartite or Not</t>
+  </si>
+  <si>
+    <t>Detect Negative cycle in a graph</t>
+  </si>
+  <si>
+    <t>Longest path in a Directed Acyclic Graph</t>
+  </si>
+  <si>
+    <t>Journey to the Moon</t>
+  </si>
+  <si>
+    <t>Cheapest Flights Within K Stops</t>
+  </si>
+  <si>
+    <t>Oliver and the Game</t>
+  </si>
+  <si>
+    <t>Water Jug problem using BFS</t>
+  </si>
+  <si>
+    <t>Find if there is a path of more thank length from a source</t>
+  </si>
+  <si>
+    <t>M-ColouringProblem</t>
+  </si>
+  <si>
+    <t>Minimum edges to reverse o make path from source to destination</t>
+  </si>
+  <si>
+    <t>Paths to travel each nodes using each edge(Seven Bridges)</t>
+  </si>
+  <si>
+    <t>Vertex Cover Problem</t>
+  </si>
+  <si>
+    <t>Chinese Postman or Route Inspection</t>
+  </si>
+  <si>
+    <t>Number of Triangles in a Directed and Undirected Graph</t>
+  </si>
+  <si>
+    <t>Minimise the cashflow among a given set of friends who have borrowed money from each other</t>
+  </si>
+  <si>
+    <t>Two Clique Problem</t>
+  </si>
+  <si>
+    <t>Trie</t>
+  </si>
+  <si>
+    <t>Construct a trie from scratch</t>
+  </si>
+  <si>
+    <t>Find shortest unique prefix for every word in a given list</t>
+  </si>
+  <si>
+    <t>Word Break Problem | (Trie solution)</t>
+  </si>
+  <si>
+    <t>Implement a Phone Directory</t>
+  </si>
+  <si>
+    <t>Print unique rows in a given boolean matrix</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+  </si>
+  <si>
+    <t>Coin ChangeProblem</t>
+  </si>
+  <si>
+    <t>Knapsack Problem</t>
+  </si>
+  <si>
+    <t>Binomial CoefficientProblem</t>
+  </si>
+  <si>
+    <t>Permutation CoefficientProblem</t>
+  </si>
+  <si>
+    <t>Program for nth Catalan Number</t>
+  </si>
+  <si>
+    <t>Matrix Chain Multiplication </t>
+  </si>
+  <si>
+    <t>Edit Distance</t>
+  </si>
+  <si>
+    <t>Friends Pairing Problem</t>
+  </si>
+  <si>
+    <t>Gold Mine Problem</t>
+  </si>
+  <si>
+    <t>Assembly Line SchedulingProblem</t>
+  </si>
+  <si>
+    <t>Painting the Fenceproblem</t>
+  </si>
+  <si>
+    <t>Maximize The Cut Segments</t>
+  </si>
+  <si>
+    <t>Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t>Longest Repeated Subsequence</t>
+  </si>
+  <si>
+    <t>Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>Space Optimized Solution of LCS</t>
+  </si>
+  <si>
+    <t>LCS (Longest Common Subsequence) of three strings</t>
+  </si>
+  <si>
+    <t>Maximum Sum Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>Count all subsequences having product less than K</t>
+  </si>
+  <si>
+    <t>Longest subsequence such that difference between adjacent is one</t>
+  </si>
+  <si>
+    <t>Maximum subsequence sum such that no three are consecutive</t>
+  </si>
+  <si>
+    <t>Egg Dropping Problem</t>
+  </si>
+  <si>
+    <t>Maximum Length Chain of Pairs</t>
+  </si>
+  <si>
+    <t>Maximum size square sub-matrix with all 1s</t>
+  </si>
+  <si>
+    <t>Maximum sum of pairs with specific difference</t>
+  </si>
+  <si>
+    <t>Min Cost PathProblem</t>
+  </si>
+  <si>
+    <t>Maximum difference of zeros and ones in binary string</t>
+  </si>
+  <si>
+    <t>Minimum number of jumps to reach end</t>
+  </si>
+  <si>
+    <t>Minimum cost to fill given weight in a bag</t>
+  </si>
+  <si>
+    <t>Minimum removals from array to make max –min &lt;= K</t>
+  </si>
+  <si>
+    <t>Longest Common Substring</t>
+  </si>
+  <si>
+    <t>Count number of ways to reacha given score in a game</t>
+  </si>
+  <si>
+    <t>Count Balanced Binary Trees of Height h</t>
+  </si>
+  <si>
+    <t>LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]</t>
+  </si>
+  <si>
+    <t>Smallest sum contiguous subarray</t>
+  </si>
+  <si>
+    <t>Unbounded Knapsack (Repetition of items allowed)</t>
+  </si>
+  <si>
+    <t>Word Break Problem</t>
+  </si>
+  <si>
+    <t>Largest Independent Set Problem</t>
+  </si>
+  <si>
+    <t>Partition problem</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Subsequence</t>
+  </si>
+  <si>
+    <t>Count All Palindromic Subsequence in a given String</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t>Longest alternating subsequence</t>
+  </si>
+  <si>
+    <t>Weighted Job Scheduling</t>
+  </si>
+  <si>
+    <t>Coin game winner where every player has three choices</t>
+  </si>
+  <si>
+    <t>Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]</t>
+  </si>
+  <si>
+    <t>Maximum profit by buying and selling a share at most twice [ IMP ]</t>
+  </si>
+  <si>
+    <t>Optimal Strategy for a Game</t>
+  </si>
+  <si>
+    <t>Optimal Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Palindrome PartitioningProblem</t>
+  </si>
+  <si>
+    <t>Word Wrap Problem</t>
+  </si>
+  <si>
+    <t>Mobile Numeric Keypad Problem [ IMP ]</t>
+  </si>
+  <si>
+    <t>Boolean Parenthesization Problem</t>
+  </si>
+  <si>
+    <t>Largest rectangular sub-matrix whose sum is 0</t>
+  </si>
+  <si>
+    <t>Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]</t>
+  </si>
+  <si>
+    <t>Maximum sum rectangle in a 2D matrix</t>
+  </si>
+  <si>
+    <t>Maximum profit by buying and selling a share at most k times</t>
+  </si>
+  <si>
+    <t>Find if a string is interleaved of two other strings</t>
+  </si>
+  <si>
+    <t>Maximum Length of Pair Chain</t>
+  </si>
+  <si>
+    <t>Bit Manipulation</t>
+  </si>
+  <si>
+    <t>Count set bits in an integer</t>
+  </si>
+  <si>
+    <t>Find the two non-repeating elements in an array of repeating elements</t>
+  </si>
+  <si>
+    <t>Count number of bits to be flipped to convert A to B</t>
+  </si>
+  <si>
+    <t>Count total set bits in all numbers from 1 to n</t>
+  </si>
+  <si>
+    <t>Program to find whether a no is power of two</t>
+  </si>
+  <si>
+    <t>Find position of the only set bit</t>
+  </si>
+  <si>
+    <t>Copy set bits in a range</t>
+  </si>
+  <si>
+    <t>Divide two integers without using multiplication, division and mod operator</t>
+  </si>
+  <si>
+    <t>Calculate square of a number without using *, / and pow()</t>
+  </si>
+  <si>
+    <t>Power Set</t>
+  </si>
+  <si>
+    <t>r += 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1472,30 +1477,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Calibri (Body)"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -1503,8 +1492,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1512,7 +1501,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1520,7 +1509,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="16"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -1535,7 +1524,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1578,9 +1567,27 @@
         <bgColor rgb="FF127622"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF127622"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF333333"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1588,157 +1595,92 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="34">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="28">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1797,41 +1739,349 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A334" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B336" activeCellId="0" sqref="B336"/>
+    <sheetView tabSelected="1" topLeftCell="A336" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D344" sqref="D344"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.66796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.12"/>
+    <col min="1" max="1" width="28.5" customWidth="1"/>
+    <col min="2" max="2" width="123" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="15.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="24.6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" ht="21">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1842,12 +2092,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3">
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" ht="21">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1858,7 +2108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" ht="21">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1869,7 +2119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" ht="21">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1880,7 +2130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" ht="21">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1891,7 +2141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:3" ht="21">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1902,7 +2152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:3" ht="21">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
@@ -1913,7 +2163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:3" ht="21">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
@@ -1924,7 +2174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:3" ht="21">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -1935,7 +2185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:3" ht="21">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -1946,7 +2196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:3" ht="21">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -1957,7 +2207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:3" ht="21">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -1968,7 +2218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:3" ht="21">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -1979,7 +2229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:3" ht="21">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -1990,7 +2240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:3" ht="21">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -2001,7 +2251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:3" ht="21">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
@@ -2012,7 +2262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:3" ht="21">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -2023,7 +2273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:3" ht="21">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
@@ -2034,7 +2284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:3" ht="21">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
@@ -2045,7 +2295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:3" ht="21">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
@@ -2056,7 +2306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:3" ht="21">
       <c r="A25" s="9" t="s">
         <v>6</v>
       </c>
@@ -2067,7 +2317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:3" ht="21">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
@@ -2078,7 +2328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:3" ht="21">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -2089,7 +2339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:3" ht="21">
       <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
@@ -2100,7 +2350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:3" ht="21">
       <c r="A29" s="9" t="s">
         <v>6</v>
       </c>
@@ -2111,7 +2361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:3" ht="21">
       <c r="A30" s="12" t="s">
         <v>6</v>
       </c>
@@ -2122,7 +2372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:3" ht="21">
       <c r="A31" s="14" t="s">
         <v>6</v>
       </c>
@@ -2133,7 +2383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:3" ht="21">
       <c r="A32" s="14" t="s">
         <v>6</v>
       </c>
@@ -2144,7 +2394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:3" ht="21">
       <c r="A33" s="14" t="s">
         <v>6</v>
       </c>
@@ -2155,7 +2405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:3" ht="21">
       <c r="A34" s="14" t="s">
         <v>6</v>
       </c>
@@ -2166,7 +2416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:3" ht="21">
       <c r="A35" s="14" t="s">
         <v>6</v>
       </c>
@@ -2177,7 +2427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:3" ht="21">
       <c r="A36" s="14" t="s">
         <v>6</v>
       </c>
@@ -2188,7 +2438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:3" ht="21">
       <c r="A37" s="14" t="s">
         <v>6</v>
       </c>
@@ -2199,7 +2449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:3" ht="21">
       <c r="A38" s="9" t="s">
         <v>6</v>
       </c>
@@ -2210,7 +2460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:3" ht="21">
       <c r="A39" s="9" t="s">
         <v>6</v>
       </c>
@@ -2221,7 +2471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:3" ht="21">
       <c r="A40" s="12" t="s">
         <v>6</v>
       </c>
@@ -2232,7 +2482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:3" ht="21">
       <c r="A41" s="14" t="s">
         <v>6</v>
       </c>
@@ -2243,20 +2493,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:3" ht="21">
       <c r="B42" s="17"/>
       <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:3" ht="21">
       <c r="A43" s="12"/>
       <c r="B43" s="17"/>
       <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:3" ht="21">
       <c r="A44" s="14" t="s">
         <v>43</v>
       </c>
@@ -2267,7 +2517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:3" ht="21">
       <c r="A45" s="14" t="s">
         <v>43</v>
       </c>
@@ -2278,7 +2528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:3" ht="21">
       <c r="A46" s="14" t="s">
         <v>43</v>
       </c>
@@ -2289,7 +2539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:3" ht="21">
       <c r="A47" s="14" t="s">
         <v>43</v>
       </c>
@@ -2300,7 +2550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:3" ht="21">
       <c r="A48" s="14" t="s">
         <v>43</v>
       </c>
@@ -2311,7 +2561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:3" ht="21">
       <c r="A49" s="14" t="s">
         <v>43</v>
       </c>
@@ -2322,7 +2572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:3" ht="21">
       <c r="A50" s="14" t="s">
         <v>43</v>
       </c>
@@ -2333,7 +2583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:3" ht="21">
       <c r="A51" s="18" t="s">
         <v>43</v>
       </c>
@@ -2344,7 +2594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:3" ht="21">
       <c r="A52" s="12" t="s">
         <v>43</v>
       </c>
@@ -2355,7 +2605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:3" ht="21">
       <c r="A53" s="12" t="s">
         <v>43</v>
       </c>
@@ -2366,12 +2616,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:3" ht="21">
       <c r="A55" s="12"/>
       <c r="B55" s="17"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:3" ht="21">
       <c r="A56" s="12" t="s">
         <v>54</v>
       </c>
@@ -2382,7 +2632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:3" ht="21">
       <c r="A57" s="12" t="s">
         <v>54</v>
       </c>
@@ -2393,7 +2643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:3" ht="21">
       <c r="A58" s="12" t="s">
         <v>54</v>
       </c>
@@ -2404,7 +2654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:3" ht="21">
       <c r="A59" s="12" t="s">
         <v>54</v>
       </c>
@@ -2415,7 +2665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:3" ht="21">
       <c r="A60" s="12" t="s">
         <v>54</v>
       </c>
@@ -2426,7 +2676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:3" ht="21">
       <c r="A61" s="12" t="s">
         <v>54</v>
       </c>
@@ -2437,7 +2687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:3" ht="21">
       <c r="A62" s="12" t="s">
         <v>54</v>
       </c>
@@ -2448,7 +2698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:3" ht="21">
       <c r="A63" s="12" t="s">
         <v>54</v>
       </c>
@@ -2459,7 +2709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:3" ht="21">
       <c r="A64" s="12" t="s">
         <v>54</v>
       </c>
@@ -2470,7 +2720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:3" ht="21">
       <c r="A65" s="12" t="s">
         <v>54</v>
       </c>
@@ -2481,7 +2731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:3" ht="21">
       <c r="A66" s="12" t="s">
         <v>54</v>
       </c>
@@ -2492,7 +2742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:3" ht="21">
       <c r="A67" s="12" t="s">
         <v>54</v>
       </c>
@@ -2503,7 +2753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:3" ht="21">
       <c r="A68" s="12" t="s">
         <v>54</v>
       </c>
@@ -2514,7 +2764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:3" ht="21">
       <c r="A69" s="12" t="s">
         <v>54</v>
       </c>
@@ -2525,7 +2775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:3" ht="21">
       <c r="A70" s="12" t="s">
         <v>54</v>
       </c>
@@ -2536,7 +2786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:3" ht="21">
       <c r="A71" s="12" t="s">
         <v>54</v>
       </c>
@@ -2547,7 +2797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:3" ht="21">
       <c r="A72" s="12" t="s">
         <v>54</v>
       </c>
@@ -2558,7 +2808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:3" ht="21">
       <c r="A73" s="12" t="s">
         <v>54</v>
       </c>
@@ -2569,7 +2819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:3" ht="21">
       <c r="A74" s="12" t="s">
         <v>54</v>
       </c>
@@ -2580,7 +2830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:3" ht="21">
       <c r="A75" s="12" t="s">
         <v>54</v>
       </c>
@@ -2591,7 +2841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:3" ht="21">
       <c r="A76" s="12" t="s">
         <v>54</v>
       </c>
@@ -2602,7 +2852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:3" ht="21">
       <c r="A77" s="12" t="s">
         <v>54</v>
       </c>
@@ -2613,7 +2863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:3" ht="21">
       <c r="A78" s="12" t="s">
         <v>54</v>
       </c>
@@ -2624,7 +2874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:3" ht="21">
       <c r="A79" s="12" t="s">
         <v>54</v>
       </c>
@@ -2635,7 +2885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:3" ht="21">
       <c r="A80" s="12" t="s">
         <v>54</v>
       </c>
@@ -2646,7 +2896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:3" ht="21">
       <c r="A81" s="12" t="s">
         <v>54</v>
       </c>
@@ -2657,7 +2907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:3" ht="21">
       <c r="A82" s="12" t="s">
         <v>54</v>
       </c>
@@ -2668,7 +2918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:3" ht="21">
       <c r="A83" s="12" t="s">
         <v>54</v>
       </c>
@@ -2679,7 +2929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:3" ht="21">
       <c r="A84" s="12" t="s">
         <v>54</v>
       </c>
@@ -2690,7 +2940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:3" ht="21">
       <c r="A85" s="12" t="s">
         <v>54</v>
       </c>
@@ -2701,7 +2951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:3" ht="21">
       <c r="A86" s="12" t="s">
         <v>54</v>
       </c>
@@ -2712,7 +2962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:3" ht="21">
       <c r="A87" s="12" t="s">
         <v>54</v>
       </c>
@@ -2723,7 +2973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:3" ht="21">
       <c r="A88" s="12" t="s">
         <v>54</v>
       </c>
@@ -2734,7 +2984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:3" ht="21">
       <c r="A89" s="12" t="s">
         <v>54</v>
       </c>
@@ -2745,7 +2995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:3" ht="21">
       <c r="A90" s="12" t="s">
         <v>54</v>
       </c>
@@ -2756,7 +3006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:3" ht="21">
       <c r="A91" s="12" t="s">
         <v>54</v>
       </c>
@@ -2767,7 +3017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:3" ht="21">
       <c r="A92" s="12" t="s">
         <v>54</v>
       </c>
@@ -2778,7 +3028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:3" ht="21">
       <c r="A93" s="12" t="s">
         <v>54</v>
       </c>
@@ -2789,7 +3039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:3" ht="21">
       <c r="A94" s="12" t="s">
         <v>54</v>
       </c>
@@ -2800,7 +3050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:3" ht="21">
       <c r="A95" s="12" t="s">
         <v>54</v>
       </c>
@@ -2811,7 +3061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:3" ht="21">
       <c r="A96" s="12" t="s">
         <v>54</v>
       </c>
@@ -2822,7 +3072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:3" ht="21">
       <c r="A97" s="12" t="s">
         <v>54</v>
       </c>
@@ -2833,7 +3083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:3" ht="21">
       <c r="A98" s="12" t="s">
         <v>54</v>
       </c>
@@ -2844,12 +3094,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:3" ht="21">
       <c r="A100" s="12"/>
       <c r="B100" s="17"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:3" ht="21">
       <c r="A101" s="6" t="s">
         <v>98</v>
       </c>
@@ -2860,7 +3110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:3" ht="21">
       <c r="A102" s="6" t="s">
         <v>98</v>
       </c>
@@ -2871,7 +3121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:3" ht="21">
       <c r="A103" s="6" t="s">
         <v>98</v>
       </c>
@@ -2882,7 +3132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:3" ht="21">
       <c r="A104" s="6" t="s">
         <v>98</v>
       </c>
@@ -2893,7 +3143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:3" ht="21">
       <c r="A105" s="6" t="s">
         <v>98</v>
       </c>
@@ -2904,7 +3154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:3" ht="21">
       <c r="A106" s="6" t="s">
         <v>98</v>
       </c>
@@ -2915,7 +3165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:3" ht="21">
       <c r="A107" s="6" t="s">
         <v>98</v>
       </c>
@@ -2926,7 +3176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:3" ht="21">
       <c r="A108" s="6" t="s">
         <v>98</v>
       </c>
@@ -2937,7 +3187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:3" ht="21">
       <c r="A109" s="6" t="s">
         <v>98</v>
       </c>
@@ -2948,7 +3198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:3" ht="21">
       <c r="A110" s="6" t="s">
         <v>98</v>
       </c>
@@ -2959,7 +3209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:3" ht="21">
       <c r="A111" s="6" t="s">
         <v>98</v>
       </c>
@@ -2970,7 +3220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:3" ht="21">
       <c r="A112" s="6" t="s">
         <v>98</v>
       </c>
@@ -2981,7 +3231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:4" ht="21">
       <c r="A113" s="6" t="s">
         <v>98</v>
       </c>
@@ -2992,7 +3242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:4" ht="21">
       <c r="A114" s="6" t="s">
         <v>98</v>
       </c>
@@ -3003,7 +3253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:4" ht="21">
       <c r="A115" s="6" t="s">
         <v>98</v>
       </c>
@@ -3013,11 +3263,11 @@
       <c r="C115" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D115" s="0" t="s">
+      <c r="D115" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:4" ht="21">
       <c r="A116" s="6" t="s">
         <v>98</v>
       </c>
@@ -3028,7 +3278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:4" ht="21">
       <c r="A117" s="6" t="s">
         <v>98</v>
       </c>
@@ -3039,7 +3289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:4" ht="21">
       <c r="A118" s="6" t="s">
         <v>98</v>
       </c>
@@ -3050,7 +3300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:4" ht="21">
       <c r="A119" s="6" t="s">
         <v>98</v>
       </c>
@@ -3061,7 +3311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:4" ht="21">
       <c r="A120" s="12" t="s">
         <v>98</v>
       </c>
@@ -3072,7 +3322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:4" ht="21">
       <c r="A121" s="6" t="s">
         <v>98</v>
       </c>
@@ -3083,7 +3333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:4" ht="21">
       <c r="A122" s="6" t="s">
         <v>98</v>
       </c>
@@ -3094,7 +3344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:4" ht="21">
       <c r="A123" s="12" t="s">
         <v>98</v>
       </c>
@@ -3105,7 +3355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:4" ht="21">
       <c r="A124" s="6" t="s">
         <v>98</v>
       </c>
@@ -3116,7 +3366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:4" ht="21">
       <c r="A125" s="6" t="s">
         <v>98</v>
       </c>
@@ -3127,7 +3377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:4" ht="21">
       <c r="A126" s="6" t="s">
         <v>98</v>
       </c>
@@ -3138,7 +3388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:4" ht="21">
       <c r="A127" s="18" t="s">
         <v>98</v>
       </c>
@@ -3149,7 +3399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:4" ht="21">
       <c r="A128" s="6" t="s">
         <v>98</v>
       </c>
@@ -3160,7 +3410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:3" ht="21">
       <c r="A129" s="18" t="s">
         <v>98</v>
       </c>
@@ -3171,7 +3421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:3" ht="21">
       <c r="A130" s="6" t="s">
         <v>98</v>
       </c>
@@ -3182,7 +3432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:3" ht="21">
       <c r="A131" s="6" t="s">
         <v>98</v>
       </c>
@@ -3193,7 +3443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:3" ht="21">
       <c r="A132" s="6" t="s">
         <v>98</v>
       </c>
@@ -3204,7 +3454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:3" ht="21">
       <c r="A133" s="12" t="s">
         <v>98</v>
       </c>
@@ -3215,7 +3465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:3" ht="21">
       <c r="A134" s="6" t="s">
         <v>98</v>
       </c>
@@ -3226,7 +3476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:3" ht="21">
       <c r="A135" s="6" t="s">
         <v>98</v>
       </c>
@@ -3237,7 +3487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:3" ht="21">
       <c r="A136" s="6" t="s">
         <v>98</v>
       </c>
@@ -3248,11 +3498,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:3" ht="21">
       <c r="B138" s="17"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:3" ht="21">
       <c r="A139" s="6" t="s">
         <v>136</v>
       </c>
@@ -3263,7 +3513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:3" ht="21">
       <c r="A140" s="6" t="s">
         <v>136</v>
       </c>
@@ -3274,7 +3524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:3" ht="21">
       <c r="A141" s="6" t="s">
         <v>136</v>
       </c>
@@ -3285,7 +3535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:3" ht="21">
       <c r="A142" s="6" t="s">
         <v>136</v>
       </c>
@@ -3296,7 +3546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:3" ht="21">
       <c r="A143" s="6" t="s">
         <v>136</v>
       </c>
@@ -3307,7 +3557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:3" ht="21">
       <c r="A144" s="6" t="s">
         <v>136</v>
       </c>
@@ -3318,7 +3568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:3" ht="21">
       <c r="A145" s="6" t="s">
         <v>136</v>
       </c>
@@ -3329,7 +3579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:3" ht="21">
       <c r="A146" s="6" t="s">
         <v>136</v>
       </c>
@@ -3340,7 +3590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:3" ht="21">
       <c r="A147" s="6" t="s">
         <v>136</v>
       </c>
@@ -3351,7 +3601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:3" ht="21">
       <c r="A148" s="6" t="s">
         <v>136</v>
       </c>
@@ -3362,7 +3612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:3" ht="21">
       <c r="A149" s="6" t="s">
         <v>136</v>
       </c>
@@ -3373,7 +3623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:3" ht="21">
       <c r="A150" s="6" t="s">
         <v>136</v>
       </c>
@@ -3384,7 +3634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:3" ht="21">
       <c r="A151" s="6" t="s">
         <v>136</v>
       </c>
@@ -3395,7 +3645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:3" ht="21">
       <c r="A152" s="12" t="s">
         <v>136</v>
       </c>
@@ -3406,7 +3656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:3" ht="21">
       <c r="A153" s="6" t="s">
         <v>136</v>
       </c>
@@ -3417,7 +3667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:3" ht="21">
       <c r="A154" s="6" t="s">
         <v>136</v>
       </c>
@@ -3428,7 +3678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:3" ht="21">
       <c r="A155" s="6" t="s">
         <v>136</v>
       </c>
@@ -3439,7 +3689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:3" ht="21">
       <c r="A156" s="6" t="s">
         <v>136</v>
       </c>
@@ -3450,7 +3700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:3" ht="21">
       <c r="A157" s="6" t="s">
         <v>136</v>
       </c>
@@ -3461,7 +3711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:3" ht="21">
       <c r="A158" s="6" t="s">
         <v>136</v>
       </c>
@@ -3472,7 +3722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:3" ht="21">
       <c r="A159" s="6" t="s">
         <v>136</v>
       </c>
@@ -3483,7 +3733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:3" ht="21">
       <c r="A160" s="6" t="s">
         <v>136</v>
       </c>
@@ -3494,7 +3744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:4" ht="21">
       <c r="A161" s="6" t="s">
         <v>136</v>
       </c>
@@ -3505,7 +3755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:4" ht="21">
       <c r="A162" s="6" t="s">
         <v>136</v>
       </c>
@@ -3516,7 +3766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:4" ht="21">
       <c r="A163" s="6" t="s">
         <v>136</v>
       </c>
@@ -3527,7 +3777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:4" ht="21">
       <c r="A164" s="6" t="s">
         <v>136</v>
       </c>
@@ -3538,7 +3788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:4" ht="21">
       <c r="A165" s="6" t="s">
         <v>136</v>
       </c>
@@ -3549,7 +3799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:4" ht="21">
       <c r="A166" s="12" t="s">
         <v>136</v>
       </c>
@@ -3560,7 +3810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:4" ht="21">
       <c r="A167" s="6" t="s">
         <v>136</v>
       </c>
@@ -3571,7 +3821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:4" ht="21">
       <c r="A168" s="6" t="s">
         <v>136</v>
       </c>
@@ -3582,7 +3832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:4" ht="21">
       <c r="A169" s="12" t="s">
         <v>136</v>
       </c>
@@ -3593,7 +3843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:4" ht="21">
       <c r="A170" s="6" t="s">
         <v>136</v>
       </c>
@@ -3604,7 +3854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:4" ht="21">
       <c r="A171" s="6" t="s">
         <v>136</v>
       </c>
@@ -3615,7 +3865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:4" ht="21">
       <c r="A172" s="6" t="s">
         <v>136</v>
       </c>
@@ -3626,7 +3876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:4" ht="21">
       <c r="A173" s="6" t="s">
         <v>136</v>
       </c>
@@ -3636,11 +3886,11 @@
       <c r="C173" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D173" s="0" t="s">
+      <c r="D173" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:4" ht="21">
       <c r="A174" s="6" t="s">
         <v>136</v>
       </c>
@@ -3651,11 +3901,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:4" ht="21">
       <c r="B176" s="17"/>
       <c r="C176" s="5"/>
     </row>
-    <row r="177" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:3" ht="21">
       <c r="A177" s="6" t="s">
         <v>174</v>
       </c>
@@ -3666,7 +3916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:3" ht="21">
       <c r="A178" s="6" t="s">
         <v>174</v>
       </c>
@@ -3677,7 +3927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:3" ht="21">
       <c r="A179" s="6" t="s">
         <v>174</v>
       </c>
@@ -3688,7 +3938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:3" ht="21">
       <c r="A180" s="6" t="s">
         <v>174</v>
       </c>
@@ -3699,7 +3949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:3" ht="21">
       <c r="A181" s="6" t="s">
         <v>174</v>
       </c>
@@ -3710,7 +3960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:3" ht="21">
       <c r="A182" s="6" t="s">
         <v>174</v>
       </c>
@@ -3721,7 +3971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:3" ht="21">
       <c r="A183" s="6" t="s">
         <v>174</v>
       </c>
@@ -3732,7 +3982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:3" ht="21">
       <c r="A184" s="6" t="s">
         <v>174</v>
       </c>
@@ -3743,7 +3993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:3" ht="21">
       <c r="A185" s="6" t="s">
         <v>174</v>
       </c>
@@ -3754,7 +4004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:3" ht="21">
       <c r="A186" s="6" t="s">
         <v>174</v>
       </c>
@@ -3765,7 +4015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:3" ht="21">
       <c r="A187" s="6" t="s">
         <v>174</v>
       </c>
@@ -3776,7 +4026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:3" ht="21">
       <c r="A188" s="6" t="s">
         <v>174</v>
       </c>
@@ -3787,7 +4037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:3" ht="21">
       <c r="A189" s="6" t="s">
         <v>174</v>
       </c>
@@ -3798,7 +4048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:3" ht="21">
       <c r="A190" s="6" t="s">
         <v>174</v>
       </c>
@@ -3809,7 +4059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:3" ht="21">
       <c r="A191" s="6" t="s">
         <v>174</v>
       </c>
@@ -3820,7 +4070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:3" ht="21">
       <c r="A192" s="22" t="s">
         <v>174</v>
       </c>
@@ -3831,7 +4081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" spans="1:3" ht="21">
       <c r="A193" s="6" t="s">
         <v>174</v>
       </c>
@@ -3842,7 +4092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" spans="1:3" ht="21">
       <c r="A194" s="6" t="s">
         <v>174</v>
       </c>
@@ -3853,7 +4103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:3" ht="21">
       <c r="A195" s="6" t="s">
         <v>174</v>
       </c>
@@ -3864,7 +4114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:3" ht="21">
       <c r="A196" s="6" t="s">
         <v>174</v>
       </c>
@@ -3875,7 +4125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:3" ht="21">
       <c r="A197" s="6" t="s">
         <v>174</v>
       </c>
@@ -3886,7 +4136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" spans="1:3" ht="21">
       <c r="A198" s="6" t="s">
         <v>174</v>
       </c>
@@ -3897,7 +4147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:3" ht="21">
       <c r="A199" s="6" t="s">
         <v>174</v>
       </c>
@@ -3908,7 +4158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" spans="1:3" ht="21">
       <c r="A200" s="6" t="s">
         <v>198</v>
       </c>
@@ -3919,7 +4169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" spans="1:3" ht="21">
       <c r="A201" s="12" t="s">
         <v>174</v>
       </c>
@@ -3930,7 +4180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" spans="1:3" ht="21">
       <c r="A202" s="6" t="s">
         <v>174</v>
       </c>
@@ -3941,7 +4191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" spans="1:3" ht="21">
       <c r="A203" s="18" t="s">
         <v>174</v>
       </c>
@@ -3952,7 +4202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" spans="1:3" ht="21">
       <c r="A204" s="6" t="s">
         <v>174</v>
       </c>
@@ -3963,7 +4213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" spans="1:3" ht="21">
       <c r="A205" s="6" t="s">
         <v>174</v>
       </c>
@@ -3974,7 +4224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" spans="1:3" ht="21">
       <c r="A206" s="6" t="s">
         <v>174</v>
       </c>
@@ -3985,7 +4235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" spans="1:3" ht="21">
       <c r="A207" s="6" t="s">
         <v>174</v>
       </c>
@@ -3996,7 +4246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" spans="1:3" ht="21">
       <c r="A208" s="6" t="s">
         <v>174</v>
       </c>
@@ -4007,7 +4257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" spans="1:4" ht="21">
       <c r="A209" s="6" t="s">
         <v>174</v>
       </c>
@@ -4018,7 +4268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" spans="1:4" ht="21">
       <c r="A210" s="6" t="s">
         <v>174</v>
       </c>
@@ -4029,7 +4279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" spans="1:4" ht="21">
       <c r="A211" s="6" t="s">
         <v>174</v>
       </c>
@@ -4040,17 +4290,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" spans="1:4" ht="21">
       <c r="A212" s="12"/>
       <c r="B212" s="17"/>
       <c r="C212" s="5"/>
     </row>
-    <row r="213" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" spans="1:4" ht="21">
       <c r="A213" s="12"/>
       <c r="B213" s="17"/>
       <c r="C213" s="5"/>
     </row>
-    <row r="214" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" spans="1:4" ht="21">
       <c r="A214" s="6" t="s">
         <v>211</v>
       </c>
@@ -4061,7 +4311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" spans="1:4" ht="21">
       <c r="A215" s="14" t="s">
         <v>211</v>
       </c>
@@ -4071,11 +4321,11 @@
       <c r="C215" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D215" s="0" t="s">
+      <c r="D215" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" spans="1:4" ht="21">
       <c r="A216" s="6" t="s">
         <v>211</v>
       </c>
@@ -4086,7 +4336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" spans="1:4" ht="21">
       <c r="A217" s="6" t="s">
         <v>211</v>
       </c>
@@ -4097,7 +4347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" spans="1:4" ht="21">
       <c r="A218" s="6" t="s">
         <v>211</v>
       </c>
@@ -4108,7 +4358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" spans="1:4" ht="21">
       <c r="A219" s="6" t="s">
         <v>211</v>
       </c>
@@ -4118,11 +4368,11 @@
       <c r="C219" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D219" s="0" t="s">
+      <c r="D219" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" spans="1:4" ht="21">
       <c r="A220" s="6" t="s">
         <v>211</v>
       </c>
@@ -4133,7 +4383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" spans="1:4" ht="21">
       <c r="A221" s="6" t="s">
         <v>211</v>
       </c>
@@ -4144,7 +4394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" spans="1:4" ht="21">
       <c r="A222" s="6" t="s">
         <v>211</v>
       </c>
@@ -4154,11 +4404,11 @@
       <c r="C222" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D222" s="0" t="s">
+      <c r="D222" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" spans="1:4" ht="21">
       <c r="A223" s="6" t="s">
         <v>211</v>
       </c>
@@ -4169,7 +4419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" spans="1:4" ht="21">
       <c r="A224" s="6" t="s">
         <v>211</v>
       </c>
@@ -4180,7 +4430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" spans="1:4" ht="21">
       <c r="A225" s="6" t="s">
         <v>211</v>
       </c>
@@ -4190,11 +4440,11 @@
       <c r="C225" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D225" s="0" t="s">
+      <c r="D225" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" spans="1:4" ht="21">
       <c r="A226" s="6" t="s">
         <v>211</v>
       </c>
@@ -4204,11 +4454,11 @@
       <c r="C226" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D226" s="0" t="s">
+      <c r="D226" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" spans="1:4" ht="21">
       <c r="A227" s="6" t="s">
         <v>211</v>
       </c>
@@ -4219,7 +4469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" spans="1:4" ht="21">
       <c r="A228" s="6" t="s">
         <v>211</v>
       </c>
@@ -4230,7 +4480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" spans="1:4" ht="21">
       <c r="A229" s="6" t="s">
         <v>211</v>
       </c>
@@ -4241,7 +4491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" spans="1:4" ht="21">
       <c r="A230" s="6" t="s">
         <v>211</v>
       </c>
@@ -4252,7 +4502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" spans="1:4" ht="21">
       <c r="A231" s="14" t="s">
         <v>211</v>
       </c>
@@ -4263,7 +4513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" spans="1:4" ht="21">
       <c r="A232" s="14" t="s">
         <v>211</v>
       </c>
@@ -4274,7 +4524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" spans="1:4" ht="21">
       <c r="A233" s="6" t="s">
         <v>211</v>
       </c>
@@ -4285,7 +4535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" spans="1:4" ht="21">
       <c r="A234" s="6" t="s">
         <v>211</v>
       </c>
@@ -4296,7 +4546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" spans="1:4" ht="21">
       <c r="A235" s="6" t="s">
         <v>211</v>
       </c>
@@ -4307,15 +4557,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" spans="1:4" ht="21">
       <c r="B236" s="17"/>
       <c r="C236" s="5"/>
     </row>
-    <row r="237" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" spans="1:4" ht="21">
       <c r="B237" s="17"/>
       <c r="C237" s="5"/>
     </row>
-    <row r="238" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" spans="1:4" ht="21">
       <c r="A238" s="12" t="s">
         <v>238</v>
       </c>
@@ -4326,7 +4576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" spans="1:4" ht="21">
       <c r="A239" s="12" t="s">
         <v>238</v>
       </c>
@@ -4337,7 +4587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" spans="1:4" ht="21">
       <c r="A240" s="12" t="s">
         <v>238</v>
       </c>
@@ -4348,7 +4598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" spans="1:3" ht="21">
       <c r="A241" s="12" t="s">
         <v>238</v>
       </c>
@@ -4359,7 +4609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" spans="1:3" ht="21">
       <c r="A242" s="12" t="s">
         <v>238</v>
       </c>
@@ -4370,7 +4620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" spans="1:3" ht="21">
       <c r="A243" s="12" t="s">
         <v>238</v>
       </c>
@@ -4381,7 +4631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" spans="1:3" ht="21">
       <c r="A244" s="12" t="s">
         <v>238</v>
       </c>
@@ -4392,7 +4642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" spans="1:3" ht="21">
       <c r="A245" s="12" t="s">
         <v>238</v>
       </c>
@@ -4403,7 +4653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" spans="1:3" ht="21">
       <c r="A246" s="12" t="s">
         <v>238</v>
       </c>
@@ -4414,7 +4664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" spans="1:3" ht="21">
       <c r="A247" s="12" t="s">
         <v>238</v>
       </c>
@@ -4425,7 +4675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" spans="1:3" ht="21">
       <c r="A248" s="12" t="s">
         <v>238</v>
       </c>
@@ -4436,7 +4686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" spans="1:3" ht="21">
       <c r="A249" s="12" t="s">
         <v>238</v>
       </c>
@@ -4447,7 +4697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" spans="1:3" ht="21">
       <c r="A250" s="12" t="s">
         <v>238</v>
       </c>
@@ -4458,7 +4708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" spans="1:3" ht="21">
       <c r="A251" s="12" t="s">
         <v>238</v>
       </c>
@@ -4469,7 +4719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" spans="1:3" ht="21">
       <c r="A252" s="12" t="s">
         <v>238</v>
       </c>
@@ -4480,7 +4730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" spans="1:3" ht="21">
       <c r="A253" s="12" t="s">
         <v>238</v>
       </c>
@@ -4491,7 +4741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" spans="1:3" ht="21">
       <c r="A254" s="12" t="s">
         <v>238</v>
       </c>
@@ -4502,7 +4752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" spans="1:3" ht="21">
       <c r="A255" s="12" t="s">
         <v>238</v>
       </c>
@@ -4513,7 +4763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" spans="1:3" ht="21">
       <c r="A256" s="12" t="s">
         <v>238</v>
       </c>
@@ -4524,7 +4774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" spans="1:3" ht="21">
       <c r="A257" s="12" t="s">
         <v>238</v>
       </c>
@@ -4535,7 +4785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" spans="1:3" ht="21">
       <c r="A258" s="12" t="s">
         <v>238</v>
       </c>
@@ -4546,7 +4796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" spans="1:3" ht="21">
       <c r="A259" s="12" t="s">
         <v>238</v>
       </c>
@@ -4557,7 +4807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" spans="1:3" ht="21">
       <c r="A260" s="12" t="s">
         <v>238</v>
       </c>
@@ -4568,7 +4818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" spans="1:3" ht="21">
       <c r="A261" s="12" t="s">
         <v>238</v>
       </c>
@@ -4579,7 +4829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" spans="1:3" ht="21">
       <c r="A262" s="12" t="s">
         <v>238</v>
       </c>
@@ -4590,7 +4840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" spans="1:3" ht="21">
       <c r="A263" s="12" t="s">
         <v>238</v>
       </c>
@@ -4601,7 +4851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" spans="1:3" ht="21">
       <c r="A264" s="12" t="s">
         <v>238</v>
       </c>
@@ -4612,7 +4862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" spans="1:3" ht="21">
       <c r="A265" s="12" t="s">
         <v>238</v>
       </c>
@@ -4623,7 +4873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" spans="1:3" ht="21">
       <c r="A266" s="12" t="s">
         <v>238</v>
       </c>
@@ -4634,7 +4884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" spans="1:3" ht="21">
       <c r="A267" s="12" t="s">
         <v>238</v>
       </c>
@@ -4645,7 +4895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" spans="1:3" ht="21">
       <c r="A268" s="12" t="s">
         <v>238</v>
       </c>
@@ -4656,7 +4906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" spans="1:3" ht="21">
       <c r="A269" s="12" t="s">
         <v>238</v>
       </c>
@@ -4667,7 +4917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" spans="1:3" ht="21">
       <c r="A270" s="12" t="s">
         <v>238</v>
       </c>
@@ -4678,7 +4928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" spans="1:3" ht="21">
       <c r="A271" s="12" t="s">
         <v>238</v>
       </c>
@@ -4689,7 +4939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" spans="1:3" ht="21">
       <c r="A272" s="12" t="s">
         <v>238</v>
       </c>
@@ -4700,15 +4950,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" spans="1:3" ht="21">
       <c r="B273" s="17"/>
       <c r="C273" s="5"/>
     </row>
-    <row r="274" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" spans="1:3" ht="21">
       <c r="B274" s="17"/>
       <c r="C274" s="5"/>
     </row>
-    <row r="275" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" spans="1:3" ht="21">
       <c r="A275" s="12" t="s">
         <v>273</v>
       </c>
@@ -4719,7 +4969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" spans="1:3" ht="21">
       <c r="A276" s="12" t="s">
         <v>273</v>
       </c>
@@ -4730,7 +4980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" spans="1:3" ht="21">
       <c r="A277" s="12" t="s">
         <v>273</v>
       </c>
@@ -4741,7 +4991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" spans="1:3" ht="21">
       <c r="A278" s="12" t="s">
         <v>273</v>
       </c>
@@ -4752,7 +5002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" spans="1:3" ht="21">
       <c r="A279" s="12" t="s">
         <v>273</v>
       </c>
@@ -4763,7 +5013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" spans="1:3" ht="21">
       <c r="A280" s="12" t="s">
         <v>273</v>
       </c>
@@ -4774,7 +5024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" spans="1:3" ht="21">
       <c r="A281" s="12" t="s">
         <v>273</v>
       </c>
@@ -4785,7 +5035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" spans="1:3" ht="21">
       <c r="A282" s="12" t="s">
         <v>273</v>
       </c>
@@ -4796,7 +5046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" spans="1:3" ht="21">
       <c r="A283" s="12" t="s">
         <v>273</v>
       </c>
@@ -4807,7 +5057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" spans="1:3" ht="21">
       <c r="A284" s="12" t="s">
         <v>273</v>
       </c>
@@ -4818,7 +5068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" spans="1:3" ht="21">
       <c r="A285" s="12" t="s">
         <v>273</v>
       </c>
@@ -4829,7 +5079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" spans="1:3" ht="21">
       <c r="A286" s="12" t="s">
         <v>273</v>
       </c>
@@ -4840,7 +5090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" spans="1:3" ht="21">
       <c r="A287" s="12" t="s">
         <v>273</v>
       </c>
@@ -4851,7 +5101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" spans="1:3" ht="21">
       <c r="A288" s="12" t="s">
         <v>273</v>
       </c>
@@ -4862,7 +5112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" spans="1:3" ht="21">
       <c r="A289" s="12" t="s">
         <v>273</v>
       </c>
@@ -4873,7 +5123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" spans="1:3" ht="21">
       <c r="A290" s="12" t="s">
         <v>273</v>
       </c>
@@ -4884,7 +5134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" spans="1:3" ht="21">
       <c r="A291" s="12" t="s">
         <v>273</v>
       </c>
@@ -4895,7 +5145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" spans="1:3" ht="21">
       <c r="A292" s="12" t="s">
         <v>273</v>
       </c>
@@ -4906,7 +5156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" spans="1:3" ht="21">
       <c r="A293" s="12" t="s">
         <v>273</v>
       </c>
@@ -4917,15 +5167,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" spans="1:3" ht="21">
       <c r="B294" s="17"/>
       <c r="C294" s="5"/>
     </row>
-    <row r="295" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" spans="1:3" ht="21">
       <c r="B295" s="17"/>
       <c r="C295" s="5"/>
     </row>
-    <row r="296" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" spans="1:3" ht="21">
       <c r="A296" s="6" t="s">
         <v>293</v>
       </c>
@@ -4936,7 +5186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" spans="1:3" ht="21">
       <c r="A297" s="6" t="s">
         <v>293</v>
       </c>
@@ -4947,7 +5197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" spans="1:3" ht="21">
       <c r="A298" s="6" t="s">
         <v>293</v>
       </c>
@@ -4958,7 +5208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" spans="1:3" ht="21">
       <c r="A299" s="6" t="s">
         <v>293</v>
       </c>
@@ -4969,7 +5219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" spans="1:3" ht="21">
       <c r="A300" s="12" t="s">
         <v>293</v>
       </c>
@@ -4980,7 +5230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" spans="1:3" ht="21">
       <c r="A301" s="6" t="s">
         <v>293</v>
       </c>
@@ -4991,7 +5241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" spans="1:3" ht="21">
       <c r="A302" s="6" t="s">
         <v>293</v>
       </c>
@@ -5002,7 +5252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" spans="1:3" ht="21">
       <c r="A303" s="6" t="s">
         <v>293</v>
       </c>
@@ -5013,7 +5263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" spans="1:3" ht="21">
       <c r="A304" s="6" t="s">
         <v>293</v>
       </c>
@@ -5024,7 +5274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" spans="1:4" ht="21">
       <c r="A305" s="6" t="s">
         <v>293</v>
       </c>
@@ -5034,11 +5284,11 @@
       <c r="C305" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D305" s="0" t="s">
+      <c r="D305" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" spans="1:4" ht="21">
       <c r="A306" s="6" t="s">
         <v>293</v>
       </c>
@@ -5049,7 +5299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" spans="1:4" ht="21">
       <c r="A307" s="6" t="s">
         <v>293</v>
       </c>
@@ -5060,7 +5310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" spans="1:4" ht="21">
       <c r="A308" s="18" t="s">
         <v>293</v>
       </c>
@@ -5070,11 +5320,11 @@
       <c r="C308" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D308" s="0" t="s">
+      <c r="D308" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" spans="1:4" ht="21">
       <c r="A309" s="6" t="s">
         <v>293</v>
       </c>
@@ -5085,7 +5335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" spans="1:4" ht="21">
       <c r="A310" s="6" t="s">
         <v>293</v>
       </c>
@@ -5096,7 +5346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" spans="1:4" ht="21">
       <c r="A311" s="6" t="s">
         <v>293</v>
       </c>
@@ -5107,7 +5357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" spans="1:4" ht="21">
       <c r="A312" s="6" t="s">
         <v>293</v>
       </c>
@@ -5118,7 +5368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" spans="1:4" ht="21">
       <c r="A313" s="6" t="s">
         <v>293</v>
       </c>
@@ -5128,11 +5378,11 @@
       <c r="C313" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D313" s="0" t="s">
+      <c r="D313" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" spans="1:4" ht="21">
       <c r="A314" s="6" t="s">
         <v>293</v>
       </c>
@@ -5143,7 +5393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" spans="1:4" ht="21">
       <c r="A315" s="6" t="s">
         <v>293</v>
       </c>
@@ -5154,7 +5404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" spans="1:4" ht="21">
       <c r="A316" s="6" t="s">
         <v>293</v>
       </c>
@@ -5165,7 +5415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" spans="1:4" ht="21">
       <c r="A317" s="6" t="s">
         <v>293</v>
       </c>
@@ -5176,7 +5426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" spans="1:4" ht="21">
       <c r="A318" s="6" t="s">
         <v>293</v>
       </c>
@@ -5187,7 +5437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" spans="1:4" ht="21">
       <c r="A319" s="12" t="s">
         <v>293</v>
       </c>
@@ -5198,7 +5448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" spans="1:4" ht="21">
       <c r="A320" s="6" t="s">
         <v>293</v>
       </c>
@@ -5209,7 +5459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" spans="1:4" ht="21">
       <c r="A321" s="6" t="s">
         <v>293</v>
       </c>
@@ -5219,11 +5469,11 @@
       <c r="C321" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D321" s="0" t="s">
+      <c r="D321" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" spans="1:4" ht="21">
       <c r="A322" s="6" t="s">
         <v>293</v>
       </c>
@@ -5234,7 +5484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" spans="1:4" ht="21">
       <c r="A323" s="6" t="s">
         <v>293</v>
       </c>
@@ -5245,7 +5495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" spans="1:4" ht="21">
       <c r="A324" s="6" t="s">
         <v>293</v>
       </c>
@@ -5255,11 +5505,11 @@
       <c r="C324" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D324" s="0" t="s">
+      <c r="D324" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" spans="1:4" ht="21">
       <c r="A325" s="6" t="s">
         <v>293</v>
       </c>
@@ -5269,11 +5519,11 @@
       <c r="C325" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D325" s="0" t="s">
+      <c r="D325" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" spans="1:4" ht="21">
       <c r="A326" s="6" t="s">
         <v>293</v>
       </c>
@@ -5284,7 +5534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" spans="1:4" ht="21">
       <c r="A327" s="12" t="s">
         <v>293</v>
       </c>
@@ -5295,7 +5545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" spans="1:4" ht="21">
       <c r="A328" s="6" t="s">
         <v>293</v>
       </c>
@@ -5306,7 +5556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" spans="1:4" ht="21">
       <c r="A329" s="6" t="s">
         <v>293</v>
       </c>
@@ -5317,7 +5567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" spans="1:4" ht="21">
       <c r="A330" s="6" t="s">
         <v>293</v>
       </c>
@@ -5328,7 +5578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" spans="1:4" ht="21">
       <c r="A331" s="6" t="s">
         <v>293</v>
       </c>
@@ -5339,7 +5589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" spans="1:4" ht="21">
       <c r="A332" s="6" t="s">
         <v>293</v>
       </c>
@@ -5350,7 +5600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" spans="1:4" ht="21">
       <c r="A333" s="6" t="s">
         <v>293</v>
       </c>
@@ -5361,15 +5611,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" spans="1:4" ht="21">
       <c r="B334" s="17"/>
       <c r="C334" s="5"/>
     </row>
-    <row r="335" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" spans="1:4" ht="21">
       <c r="B335" s="17"/>
       <c r="C335" s="5"/>
     </row>
-    <row r="336" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" spans="1:4" ht="21">
       <c r="A336" s="6" t="s">
         <v>338</v>
       </c>
@@ -5380,7 +5630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" spans="1:4" ht="21">
       <c r="A337" s="6" t="s">
         <v>338</v>
       </c>
@@ -5391,95 +5641,98 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="6" t="s">
+    <row r="338" spans="1:4" ht="21">
+      <c r="A338" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="B338" s="26" t="s">
+      <c r="B338" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="C338" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="339" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="12" t="s">
+      <c r="C338" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" ht="21">
+      <c r="A339" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="B339" s="13" t="s">
+      <c r="B339" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="C339" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="340" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="12" t="s">
+      <c r="C339" s="32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" ht="21">
+      <c r="A340" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="B340" s="13" t="s">
+      <c r="B340" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="C340" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="341" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="12" t="s">
+      <c r="C340" s="32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" ht="21">
+      <c r="A341" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="B341" s="13" t="s">
+      <c r="B341" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="C341" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="342" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="12" t="s">
+      <c r="C341" s="32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" ht="21">
+      <c r="A342" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="B342" s="13" t="s">
+      <c r="B342" s="31" t="s">
         <v>345</v>
       </c>
-      <c r="C342" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="343" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="12" t="s">
+      <c r="C342" s="32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" ht="21">
+      <c r="A343" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="B343" s="13" t="s">
+      <c r="B343" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="C343" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="344" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="12" t="s">
+      <c r="C343" s="32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" ht="21">
+      <c r="A344" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="B344" s="27" t="s">
+      <c r="B344" s="33" t="s">
         <v>347</v>
       </c>
-      <c r="C344" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="345" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="12" t="s">
+      <c r="C344" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D344" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" ht="21">
+      <c r="A345" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="B345" s="13" t="s">
+      <c r="B345" s="31" t="s">
         <v>348</v>
       </c>
-      <c r="C345" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="346" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C345" s="32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" ht="21">
       <c r="A346" s="12" t="s">
         <v>338</v>
       </c>
@@ -5490,7 +5743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" spans="1:4" ht="21">
       <c r="A347" s="12" t="s">
         <v>338</v>
       </c>
@@ -5501,7 +5754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" spans="1:4" ht="21">
       <c r="A348" s="12" t="s">
         <v>338</v>
       </c>
@@ -5512,7 +5765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" spans="1:4" ht="21">
       <c r="A349" s="12" t="s">
         <v>338</v>
       </c>
@@ -5523,7 +5776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" spans="1:4" ht="21">
       <c r="A350" s="12" t="s">
         <v>338</v>
       </c>
@@ -5534,7 +5787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" spans="1:4" ht="21">
       <c r="A351" s="12" t="s">
         <v>338</v>
       </c>
@@ -5545,7 +5798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" spans="1:4" ht="21">
       <c r="A352" s="12" t="s">
         <v>338</v>
       </c>
@@ -5556,7 +5809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" spans="1:3" ht="21">
       <c r="A353" s="12" t="s">
         <v>338</v>
       </c>
@@ -5567,15 +5820,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" spans="1:3" ht="21">
       <c r="B354" s="17"/>
       <c r="C354" s="5"/>
     </row>
-    <row r="355" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" spans="1:3" ht="21">
       <c r="B355" s="17"/>
       <c r="C355" s="5"/>
     </row>
-    <row r="356" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" spans="1:3" ht="21">
       <c r="A356" s="12" t="s">
         <v>357</v>
       </c>
@@ -5586,7 +5839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" spans="1:3" ht="21">
       <c r="A357" s="12" t="s">
         <v>357</v>
       </c>
@@ -5597,7 +5850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" spans="1:3" ht="21">
       <c r="A358" s="12" t="s">
         <v>357</v>
       </c>
@@ -5608,7 +5861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" spans="1:3" ht="21">
       <c r="A359" s="12" t="s">
         <v>357</v>
       </c>
@@ -5619,7 +5872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" spans="1:3" ht="21">
       <c r="A360" s="12" t="s">
         <v>357</v>
       </c>
@@ -5630,7 +5883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" spans="1:3" ht="21">
       <c r="A361" s="12" t="s">
         <v>357</v>
       </c>
@@ -5641,7 +5894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" spans="1:3" ht="21">
       <c r="A362" s="12" t="s">
         <v>357</v>
       </c>
@@ -5652,7 +5905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" spans="1:3" ht="21">
       <c r="A363" s="12" t="s">
         <v>357</v>
       </c>
@@ -5663,7 +5916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" spans="1:3" ht="21">
       <c r="A364" s="12" t="s">
         <v>357</v>
       </c>
@@ -5674,7 +5927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" spans="1:3" ht="21">
       <c r="A365" s="12" t="s">
         <v>357</v>
       </c>
@@ -5685,7 +5938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" spans="1:3" ht="21">
       <c r="A366" s="12" t="s">
         <v>357</v>
       </c>
@@ -5696,7 +5949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" spans="1:3" ht="21">
       <c r="A367" s="12" t="s">
         <v>357</v>
       </c>
@@ -5707,7 +5960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" spans="1:3" ht="21">
       <c r="A368" s="12" t="s">
         <v>357</v>
       </c>
@@ -5718,7 +5971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" spans="1:3" ht="21">
       <c r="A369" s="12" t="s">
         <v>357</v>
       </c>
@@ -5729,7 +5982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" spans="1:3" ht="21">
       <c r="A370" s="12" t="s">
         <v>357</v>
       </c>
@@ -5740,7 +5993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" spans="1:3" ht="21">
       <c r="A371" s="12" t="s">
         <v>357</v>
       </c>
@@ -5751,7 +6004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" spans="1:3" ht="21">
       <c r="A372" s="12" t="s">
         <v>357</v>
       </c>
@@ -5762,7 +6015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" spans="1:3" ht="21">
       <c r="A373" s="12" t="s">
         <v>357</v>
       </c>
@@ -5773,7 +6026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" spans="1:3" ht="21">
       <c r="A374" s="12" t="s">
         <v>357</v>
       </c>
@@ -5784,7 +6037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" spans="1:3" ht="21">
       <c r="A375" s="12" t="s">
         <v>357</v>
       </c>
@@ -5795,7 +6048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" spans="1:3" ht="21">
       <c r="A376" s="12" t="s">
         <v>357</v>
       </c>
@@ -5806,7 +6059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" spans="1:3" ht="21">
       <c r="A377" s="12" t="s">
         <v>357</v>
       </c>
@@ -5817,7 +6070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" spans="1:3" ht="21">
       <c r="A378" s="12" t="s">
         <v>357</v>
       </c>
@@ -5828,7 +6081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" spans="1:3" ht="21">
       <c r="A379" s="12" t="s">
         <v>357</v>
       </c>
@@ -5839,7 +6092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" spans="1:3" ht="21">
       <c r="A380" s="12" t="s">
         <v>357</v>
       </c>
@@ -5850,7 +6103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" spans="1:3" ht="21">
       <c r="A381" s="12" t="s">
         <v>357</v>
       </c>
@@ -5861,7 +6114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" spans="1:3" ht="21">
       <c r="A382" s="12" t="s">
         <v>357</v>
       </c>
@@ -5872,7 +6125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" spans="1:3" ht="21">
       <c r="A383" s="12" t="s">
         <v>357</v>
       </c>
@@ -5883,7 +6136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" spans="1:3" ht="21">
       <c r="A384" s="12" t="s">
         <v>357</v>
       </c>
@@ -5894,7 +6147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" spans="1:3" ht="21">
       <c r="A385" s="12" t="s">
         <v>357</v>
       </c>
@@ -5905,7 +6158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" spans="1:3" ht="21">
       <c r="A386" s="12" t="s">
         <v>357</v>
       </c>
@@ -5916,7 +6169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" spans="1:3" ht="21">
       <c r="A387" s="12" t="s">
         <v>357</v>
       </c>
@@ -5927,7 +6180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" spans="1:3" ht="21">
       <c r="A388" s="12" t="s">
         <v>357</v>
       </c>
@@ -5938,7 +6191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" spans="1:3" ht="21">
       <c r="A389" s="12" t="s">
         <v>357</v>
       </c>
@@ -5949,7 +6202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" spans="1:3" ht="21">
       <c r="A390" s="12" t="s">
         <v>357</v>
       </c>
@@ -5960,7 +6213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" spans="1:3" ht="21">
       <c r="A391" s="12" t="s">
         <v>357</v>
       </c>
@@ -5971,7 +6224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" spans="1:3" ht="21">
       <c r="A392" s="12" t="s">
         <v>357</v>
       </c>
@@ -5982,7 +6235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" spans="1:3" ht="21">
       <c r="A393" s="12" t="s">
         <v>357</v>
       </c>
@@ -5993,7 +6246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" spans="1:3" ht="21">
       <c r="A394" s="12" t="s">
         <v>357</v>
       </c>
@@ -6004,7 +6257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" spans="1:3" ht="21">
       <c r="A395" s="12" t="s">
         <v>357</v>
       </c>
@@ -6015,7 +6268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" spans="1:3" ht="21">
       <c r="A396" s="12" t="s">
         <v>357</v>
       </c>
@@ -6026,7 +6279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" spans="1:3" ht="21">
       <c r="A397" s="12" t="s">
         <v>357</v>
       </c>
@@ -6037,7 +6290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" spans="1:3" ht="21">
       <c r="A398" s="12" t="s">
         <v>357</v>
       </c>
@@ -6048,7 +6301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" spans="1:3" ht="21">
       <c r="A399" s="12" t="s">
         <v>357</v>
       </c>
@@ -6059,15 +6312,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" spans="1:3" ht="21">
       <c r="B400" s="17"/>
       <c r="C400" s="5"/>
     </row>
-    <row r="401" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" spans="1:3" ht="21">
       <c r="B401" s="17"/>
       <c r="C401" s="5"/>
     </row>
-    <row r="402" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" spans="1:3" ht="21">
       <c r="A402" s="12" t="s">
         <v>401</v>
       </c>
@@ -6078,7 +6331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" spans="1:3" ht="21">
       <c r="A403" s="12" t="s">
         <v>401</v>
       </c>
@@ -6089,7 +6342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" spans="1:3" ht="21">
       <c r="A404" s="12" t="s">
         <v>401</v>
       </c>
@@ -6100,7 +6353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" spans="1:3" ht="21">
       <c r="A405" s="12" t="s">
         <v>401</v>
       </c>
@@ -6111,7 +6364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" spans="1:3" ht="21">
       <c r="A406" s="12" t="s">
         <v>401</v>
       </c>
@@ -6122,7 +6375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" spans="1:3" ht="21">
       <c r="A407" s="12" t="s">
         <v>401</v>
       </c>
@@ -6133,15 +6386,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" spans="1:3" ht="21">
       <c r="B408" s="17"/>
       <c r="C408" s="5"/>
     </row>
-    <row r="409" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" spans="1:3" ht="21">
       <c r="B409" s="17"/>
       <c r="C409" s="5"/>
     </row>
-    <row r="410" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" spans="1:3" ht="21">
       <c r="A410" s="12" t="s">
         <v>407</v>
       </c>
@@ -6152,7 +6405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" spans="1:3" ht="21">
       <c r="A411" s="12" t="s">
         <v>407</v>
       </c>
@@ -6163,7 +6416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" spans="1:3" ht="21">
       <c r="A412" s="12" t="s">
         <v>407</v>
       </c>
@@ -6174,7 +6427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" spans="1:3" ht="21">
       <c r="A413" s="12" t="s">
         <v>407</v>
       </c>
@@ -6185,7 +6438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" spans="1:3" ht="21">
       <c r="A414" s="12" t="s">
         <v>407</v>
       </c>
@@ -6196,7 +6449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" spans="1:3" ht="21">
       <c r="A415" s="12" t="s">
         <v>407</v>
       </c>
@@ -6207,7 +6460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" spans="1:3" ht="21">
       <c r="A416" s="12" t="s">
         <v>407</v>
       </c>
@@ -6218,7 +6471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" spans="1:3" ht="21">
       <c r="A417" s="12" t="s">
         <v>407</v>
       </c>
@@ -6229,7 +6482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" spans="1:3" ht="21">
       <c r="A418" s="12" t="s">
         <v>407</v>
       </c>
@@ -6240,7 +6493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" spans="1:3" ht="21">
       <c r="A419" s="12" t="s">
         <v>407</v>
       </c>
@@ -6251,7 +6504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" spans="1:3" ht="21">
       <c r="A420" s="12" t="s">
         <v>407</v>
       </c>
@@ -6262,7 +6515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" spans="1:3" ht="21">
       <c r="A421" s="12" t="s">
         <v>407</v>
       </c>
@@ -6273,7 +6526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" spans="1:3" ht="21">
       <c r="A422" s="12" t="s">
         <v>407</v>
       </c>
@@ -6284,7 +6537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" spans="1:3" ht="21">
       <c r="A423" s="12" t="s">
         <v>407</v>
       </c>
@@ -6295,7 +6548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" spans="1:3" ht="21">
       <c r="A424" s="12" t="s">
         <v>407</v>
       </c>
@@ -6306,7 +6559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" spans="1:3" ht="21">
       <c r="A425" s="12" t="s">
         <v>407</v>
       </c>
@@ -6317,7 +6570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" spans="1:3" ht="21">
       <c r="A426" s="12" t="s">
         <v>407</v>
       </c>
@@ -6328,7 +6581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" spans="1:3" ht="21">
       <c r="A427" s="12" t="s">
         <v>407</v>
       </c>
@@ -6339,7 +6592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" spans="1:3" ht="21">
       <c r="A428" s="12" t="s">
         <v>407</v>
       </c>
@@ -6350,7 +6603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" spans="1:3" ht="21">
       <c r="A429" s="12" t="s">
         <v>407</v>
       </c>
@@ -6361,7 +6614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" spans="1:3" ht="21">
       <c r="A430" s="12" t="s">
         <v>407</v>
       </c>
@@ -6372,7 +6625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" spans="1:3" ht="21">
       <c r="A431" s="12" t="s">
         <v>407</v>
       </c>
@@ -6383,7 +6636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" spans="1:3" ht="21">
       <c r="A432" s="12" t="s">
         <v>407</v>
       </c>
@@ -6394,7 +6647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" spans="1:3" ht="21">
       <c r="A433" s="12" t="s">
         <v>407</v>
       </c>
@@ -6405,7 +6658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" spans="1:3" ht="21">
       <c r="A434" s="12" t="s">
         <v>407</v>
       </c>
@@ -6416,7 +6669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" spans="1:3" ht="21">
       <c r="A435" s="12" t="s">
         <v>407</v>
       </c>
@@ -6427,7 +6680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" spans="1:3" ht="21">
       <c r="A436" s="12" t="s">
         <v>407</v>
       </c>
@@ -6438,7 +6691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" spans="1:3" ht="21">
       <c r="A437" s="12" t="s">
         <v>407</v>
       </c>
@@ -6449,7 +6702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" spans="1:3" ht="21">
       <c r="A438" s="12" t="s">
         <v>407</v>
       </c>
@@ -6460,7 +6713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" spans="1:3" ht="21">
       <c r="A439" s="12" t="s">
         <v>407</v>
       </c>
@@ -6471,7 +6724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" spans="1:3" ht="21">
       <c r="A440" s="12" t="s">
         <v>407</v>
       </c>
@@ -6482,7 +6735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" spans="1:3" ht="21">
       <c r="A441" s="12" t="s">
         <v>407</v>
       </c>
@@ -6493,7 +6746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" spans="1:3" ht="21">
       <c r="A442" s="12" t="s">
         <v>407</v>
       </c>
@@ -6504,7 +6757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" spans="1:3" ht="21">
       <c r="A443" s="12" t="s">
         <v>407</v>
       </c>
@@ -6515,7 +6768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" spans="1:3" ht="21">
       <c r="A444" s="12" t="s">
         <v>407</v>
       </c>
@@ -6526,7 +6779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" spans="1:3" ht="21">
       <c r="A445" s="12" t="s">
         <v>407</v>
       </c>
@@ -6537,7 +6790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" spans="1:3" ht="21">
       <c r="A446" s="12" t="s">
         <v>407</v>
       </c>
@@ -6548,7 +6801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" spans="1:3" ht="21">
       <c r="A447" s="12" t="s">
         <v>407</v>
       </c>
@@ -6559,7 +6812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" spans="1:3" ht="21">
       <c r="A448" s="12" t="s">
         <v>407</v>
       </c>
@@ -6570,7 +6823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" spans="1:3" ht="21">
       <c r="A449" s="12" t="s">
         <v>407</v>
       </c>
@@ -6581,7 +6834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" spans="1:3" ht="21">
       <c r="A450" s="12" t="s">
         <v>407</v>
       </c>
@@ -6592,7 +6845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" spans="1:3" ht="21">
       <c r="A451" s="12" t="s">
         <v>407</v>
       </c>
@@ -6603,7 +6856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" spans="1:3" ht="21">
       <c r="A452" s="12" t="s">
         <v>407</v>
       </c>
@@ -6614,7 +6867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" spans="1:3" ht="21">
       <c r="A453" s="12" t="s">
         <v>407</v>
       </c>
@@ -6625,7 +6878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" spans="1:3" ht="21">
       <c r="A454" s="12" t="s">
         <v>407</v>
       </c>
@@ -6636,7 +6889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" spans="1:3" ht="21">
       <c r="A455" s="12" t="s">
         <v>407</v>
       </c>
@@ -6647,7 +6900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" spans="1:3" ht="21">
       <c r="A456" s="12" t="s">
         <v>407</v>
       </c>
@@ -6658,7 +6911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="457" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" spans="1:3" ht="21">
       <c r="A457" s="12" t="s">
         <v>407</v>
       </c>
@@ -6669,7 +6922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" spans="1:3" ht="21">
       <c r="A458" s="12" t="s">
         <v>407</v>
       </c>
@@ -6680,7 +6933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" spans="1:3" ht="21">
       <c r="A459" s="12" t="s">
         <v>407</v>
       </c>
@@ -6691,7 +6944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" spans="1:3" ht="21">
       <c r="A460" s="12" t="s">
         <v>407</v>
       </c>
@@ -6702,7 +6955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" spans="1:3" ht="21">
       <c r="A461" s="12" t="s">
         <v>407</v>
       </c>
@@ -6713,7 +6966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" spans="1:3" ht="21">
       <c r="A462" s="12" t="s">
         <v>407</v>
       </c>
@@ -6724,7 +6977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="463" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" spans="1:3" ht="21">
       <c r="A463" s="12" t="s">
         <v>407</v>
       </c>
@@ -6735,7 +6988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" spans="1:3" ht="21">
       <c r="A464" s="12" t="s">
         <v>407</v>
       </c>
@@ -6746,7 +6999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="465" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" spans="1:3" ht="21">
       <c r="A465" s="12" t="s">
         <v>407</v>
       </c>
@@ -6757,7 +7010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" spans="1:3" ht="21">
       <c r="A466" s="12" t="s">
         <v>407</v>
       </c>
@@ -6768,7 +7021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="467" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" spans="1:3" ht="21">
       <c r="A467" s="12" t="s">
         <v>407</v>
       </c>
@@ -6779,7 +7032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="468" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" spans="1:3" ht="21">
       <c r="A468" s="12" t="s">
         <v>407</v>
       </c>
@@ -6790,7 +7043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="469" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" spans="1:3" ht="21">
       <c r="A469" s="12" t="s">
         <v>407</v>
       </c>
@@ -6801,16 +7054,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" spans="1:3" ht="21">
       <c r="B470" s="17"/>
       <c r="C470" s="5"/>
     </row>
-    <row r="471" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" spans="1:3" ht="21">
       <c r="A471" s="12"/>
       <c r="B471" s="17"/>
       <c r="C471" s="5"/>
     </row>
-    <row r="472" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" spans="1:3" ht="21">
       <c r="A472" s="12" t="s">
         <v>467</v>
       </c>
@@ -6821,7 +7074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="473" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" spans="1:3" ht="21">
       <c r="A473" s="12" t="s">
         <v>467</v>
       </c>
@@ -6832,7 +7085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="474" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" spans="1:3" ht="21">
       <c r="A474" s="12" t="s">
         <v>467</v>
       </c>
@@ -6843,7 +7096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" spans="1:3" ht="21">
       <c r="A475" s="12" t="s">
         <v>467</v>
       </c>
@@ -6854,7 +7107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="476" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" spans="1:3" ht="21">
       <c r="A476" s="12" t="s">
         <v>467</v>
       </c>
@@ -6865,7 +7118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="477" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" spans="1:3" ht="21">
       <c r="A477" s="12" t="s">
         <v>467</v>
       </c>
@@ -6876,7 +7129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" spans="1:3" ht="21">
       <c r="A478" s="12" t="s">
         <v>467</v>
       </c>
@@ -6887,7 +7140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" spans="1:3" ht="21">
       <c r="A479" s="12" t="s">
         <v>467</v>
       </c>
@@ -6898,7 +7151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="480" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" spans="1:3" ht="21">
       <c r="A480" s="12" t="s">
         <v>467</v>
       </c>
@@ -6909,7 +7162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" spans="1:3" ht="21">
       <c r="A481" s="12" t="s">
         <v>467</v>
       </c>
@@ -6922,459 +7175,454 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw "/>
-    <hyperlink ref="B6" r:id="rId2" display="Reverse the array"/>
-    <hyperlink ref="B7" r:id="rId3" display="Find the maximum and minimum element in an array"/>
-    <hyperlink ref="B8" r:id="rId4" display="Find the &quot;Kth&quot; max and min element of an array "/>
-    <hyperlink ref="B9" r:id="rId5" display="Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo"/>
-    <hyperlink ref="B10" r:id="rId6" display="Move all the negative elements to one side of the array "/>
-    <hyperlink ref="B11" r:id="rId7" display="Find the Union and Intersection of the two sorted arrays."/>
-    <hyperlink ref="B12" r:id="rId8" display="Write a program to cyclically rotate an array by one."/>
-    <hyperlink ref="B13" r:id="rId9" display="find Largest sum contiguous Subarray [V. IMP]"/>
-    <hyperlink ref="B14" r:id="rId10" display="Minimise the maximum difference between heights [V.IMP]"/>
-    <hyperlink ref="B15" r:id="rId11" display="Minimum no. of Jumps to reach end of an array"/>
-    <hyperlink ref="B16" r:id="rId12" display="find duplicate in an array of N+1 Integers"/>
-    <hyperlink ref="B17" r:id="rId13" display="Merge 2 sorted arrays without using Extra space."/>
-    <hyperlink ref="B18" r:id="rId14" display="Kadane's Algo [V.V.V.V.V IMP]"/>
-    <hyperlink ref="B19" r:id="rId15" display="Merge Intervals"/>
-    <hyperlink ref="B20" r:id="rId16" display="Next Permutation"/>
-    <hyperlink ref="B21" r:id="rId17" display="Count Inversion"/>
-    <hyperlink ref="B22" r:id="rId18" display="Best time to buy and Sell stock"/>
-    <hyperlink ref="B23" r:id="rId19" display="find all pairs on integer array whose sum is equal to given number"/>
-    <hyperlink ref="B24" r:id="rId20" display="find common elements In 3 sorted arrays"/>
-    <hyperlink ref="B25" r:id="rId21" display="Rearrange the array in alternating positive and negative items with O(1) extra space"/>
-    <hyperlink ref="B26" r:id="rId22" display="Find if there is any subarray with sum equal to 0"/>
-    <hyperlink ref="B27" r:id="rId23" display="Find factorial of a large number"/>
-    <hyperlink ref="B28" r:id="rId24" display="find maximum product subarray "/>
-    <hyperlink ref="B29" r:id="rId25" display="Find longest coinsecutive subsequence"/>
-    <hyperlink ref="B30" r:id="rId26" display="Given an array of size n and a number k, fin all elements that appear more than &quot; n/k &quot; times."/>
-    <hyperlink ref="B31" r:id="rId27" display="Maximum profit by buying and selling a share atmost twice"/>
-    <hyperlink ref="B32" r:id="rId28" display="Find whether an array is a subset of another array"/>
-    <hyperlink ref="B33" r:id="rId29" display="Find the triplet that sum to a given value"/>
-    <hyperlink ref="B34" r:id="rId30" display="Trapping Rain water problem"/>
-    <hyperlink ref="B35" r:id="rId31" display="Chocolate Distribution problem"/>
-    <hyperlink ref="B36" r:id="rId32" display="Smallest Subarray with sum greater than a given value"/>
-    <hyperlink ref="B37" r:id="rId33" display="Three way partitioning of an array around a given value"/>
-    <hyperlink ref="B38" r:id="rId34" display="Minimum swaps required bring elements less equal K together"/>
-    <hyperlink ref="B39" r:id="rId35" display="Minimum no. of operations required to make an array palindrome"/>
-    <hyperlink ref="B40" r:id="rId36" display="Median of 2 sorted arrays of equal size"/>
-    <hyperlink ref="B41" r:id="rId37" display="Median of 2 sorted arrays of different size"/>
-    <hyperlink ref="B44" r:id="rId38" display="Spiral traversal on a Matrix"/>
-    <hyperlink ref="B45" r:id="rId39" display="Search an element in a matriix"/>
-    <hyperlink ref="B46" r:id="rId40" display="Find median in a row wise sorted matrix"/>
-    <hyperlink ref="B47" r:id="rId41" display="Find row with maximum no. of 1's"/>
-    <hyperlink ref="B48" r:id="rId42" display="Print elements in sorted order using row-column wise sorted matrix"/>
-    <hyperlink ref="B49" r:id="rId43" display="Maximum size rectangle"/>
-    <hyperlink ref="B50" r:id="rId44" display="Find a specific pair in matrix"/>
-    <hyperlink ref="B51" r:id="rId45" display="Rotate matrix by 90 degrees"/>
-    <hyperlink ref="B52" r:id="rId46" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
-    <hyperlink ref="B53" r:id="rId47" display="Common elements in all rows of a given matrix"/>
-    <hyperlink ref="B56" r:id="rId48" display="Reverse a String"/>
-    <hyperlink ref="B57" r:id="rId49" display="Check whether a String is Palindrome or not"/>
-    <hyperlink ref="B58" r:id="rId50" display="Find Duplicate characters in a string"/>
-    <hyperlink ref="B60" r:id="rId51" display="Write a Code to check whether one string is a rotation of another"/>
-    <hyperlink ref="B61" r:id="rId52" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
-    <hyperlink ref="B62" r:id="rId53" display="Count and Say problem"/>
-    <hyperlink ref="B63" r:id="rId54" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
-    <hyperlink ref="B64" r:id="rId55" display="Find Longest Recurring Subsequence in String"/>
-    <hyperlink ref="B65" r:id="rId56" display="Print all Subsequences of a string."/>
-    <hyperlink ref="B66" r:id="rId57" display="Print all the permutations of the given string"/>
-    <hyperlink ref="B67" r:id="rId58" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
-    <hyperlink ref="B68" r:id="rId59" display="Word Wrap Problem [VERY IMP]."/>
-    <hyperlink ref="B69" r:id="rId60" display="EDIT Distance [Very Imp]"/>
-    <hyperlink ref="B70" r:id="rId61" display="Find next greater number with same set of digits. [Very Very IMP]"/>
-    <hyperlink ref="B71" r:id="rId62" display="Balanced Parenthesis problem.[Imp]"/>
-    <hyperlink ref="B72" r:id="rId63" display="Word break Problem[ Very Imp]"/>
-    <hyperlink ref="B73" r:id="rId64" display="Rabin Karp Algo"/>
-    <hyperlink ref="B74" r:id="rId65" display="KMP Algo"/>
-    <hyperlink ref="B75" r:id="rId66" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
-    <hyperlink ref="B76" r:id="rId67" display="Minimum number of bracket reversals needed to make an expression balanced."/>
-    <hyperlink ref="B77" r:id="rId68" display="Count All Palindromic Subsequence in a given String."/>
-    <hyperlink ref="B78" r:id="rId69" display="Count of number of given string in 2D character array"/>
-    <hyperlink ref="B79" r:id="rId70" display="Search a Word in a 2D Grid of characters."/>
-    <hyperlink ref="B80" r:id="rId71" display="Boyer Moore Algorithm for Pattern Searching."/>
-    <hyperlink ref="B81" r:id="rId72" display="Converting Roman Numerals to Decimal"/>
-    <hyperlink ref="B82" r:id="rId73" display="Longest Common Prefix"/>
-    <hyperlink ref="B83" r:id="rId74" display="Number of flips to make binary string alternate"/>
-    <hyperlink ref="B84" r:id="rId75" display="Find the first repeated word in string."/>
-    <hyperlink ref="B85" r:id="rId76" display="Minimum number of swaps for bracket balancing."/>
-    <hyperlink ref="B86" r:id="rId77" display="Find the longest common subsequence between two strings."/>
-    <hyperlink ref="B87" r:id="rId78" display="Program to generate all possible valid IP addresses from given  string."/>
-    <hyperlink ref="B88" r:id="rId79" display="Write a program tofind the smallest window that contains all characters of string itself."/>
-    <hyperlink ref="B89" r:id="rId80" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B90" r:id="rId81" display="Minimum characters to be added at front to make string palindrome"/>
-    <hyperlink ref="B91" r:id="rId82" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B92" r:id="rId83" display="Find the smallest window in a string containing all characters of another string"/>
-    <hyperlink ref="B93" r:id="rId84" display="Recursively remove all adjacent duplicates"/>
-    <hyperlink ref="B94" r:id="rId85" display="String matching where one string contains wildcard characters"/>
-    <hyperlink ref="B95" r:id="rId86" display="Function to find Number of customers who could not get a computer"/>
-    <hyperlink ref="B96" r:id="rId87" display="Transform One String to Another using Minimum Number of Given Operation"/>
-    <hyperlink ref="B97" r:id="rId88" display="Check if two given strings are isomorphic to each other"/>
-    <hyperlink ref="B98" r:id="rId89" display="Recursively print all sentences that can be formed from list of word lists"/>
-    <hyperlink ref="B101" r:id="rId90" display="Find first and last positions of an element in a sorted array"/>
-    <hyperlink ref="B102" r:id="rId91" display="Find a Fixed Point (Value equal to index) in a given array"/>
-    <hyperlink ref="B103" r:id="rId92" display="Search in a rotated sorted array"/>
-    <hyperlink ref="B104" r:id="rId93" display="square root of an integer"/>
-    <hyperlink ref="B105" r:id="rId94" display="Maximum and minimum of an array using minimum number of comparisons"/>
-    <hyperlink ref="B106" r:id="rId95" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." display="Optimum location of point to minimize total distance"/>
-    <hyperlink ref="B107" r:id="rId96" display="Find the repeating and the missing"/>
-    <hyperlink ref="B108" r:id="rId97" display="find majority element"/>
-    <hyperlink ref="B109" r:id="rId98" display="Searching in an array where adjacent differ by at most k"/>
-    <hyperlink ref="B110" r:id="rId99" display="find a pair with a given difference"/>
-    <hyperlink ref="B111" r:id="rId100" display="find four elements that sum to a given value"/>
-    <hyperlink ref="B112" r:id="rId101" display="maximum sum such that no 2 elements are adjacent"/>
-    <hyperlink ref="B113" r:id="rId102" display="Count triplet with sum smaller than a given value"/>
-    <hyperlink ref="B114" r:id="rId103" display="merge 2 sorted arrays"/>
-    <hyperlink ref="B115" r:id="rId104" display="print all subarrays with 0 sum"/>
-    <hyperlink ref="B116" r:id="rId105" display="Product array Puzzle"/>
-    <hyperlink ref="B117" r:id="rId106" display="Sort array according to count of set bits"/>
-    <hyperlink ref="B118" r:id="rId107" display="minimum no. of swaps required to sort the array"/>
-    <hyperlink ref="B119" r:id="rId108" display="Bishu and Soldiers"/>
-    <hyperlink ref="B120" r:id="rId109" display="Rasta and Kheshtak"/>
-    <hyperlink ref="B121" r:id="rId110" display="Kth smallest number again"/>
-    <hyperlink ref="B122" r:id="rId111" display="Find pivot element in a sorted array"/>
-    <hyperlink ref="B123" r:id="rId112" display="K-th Element of Two Sorted Arrays"/>
-    <hyperlink ref="B124" r:id="rId113" display="Aggressive cows"/>
-    <hyperlink ref="B125" r:id="rId114" display="Book Allocation Problem"/>
-    <hyperlink ref="B126" r:id="rId115" display="EKOSPOJ:"/>
-    <hyperlink ref="B127" r:id="rId116" display="Job Scheduling Algo"/>
-    <hyperlink ref="B128" r:id="rId117" display="Missing Number in AP"/>
-    <hyperlink ref="B129" r:id="rId118" display="Smallest number with atleastn trailing zeroes infactorial"/>
-    <hyperlink ref="B130" r:id="rId119" display="Painters Partition Problem:"/>
-    <hyperlink ref="B131" r:id="rId120" display="ROTI-Prata SPOJ"/>
-    <hyperlink ref="B132" r:id="rId121" display="DoubleHelix SPOJ"/>
-    <hyperlink ref="B133" r:id="rId122" display="Subset Sums"/>
-    <hyperlink ref="B134" r:id="rId123" display="Findthe inversion count"/>
-    <hyperlink ref="B135" r:id="rId124" display="Implement Merge-sort in-place"/>
-    <hyperlink ref="B136" r:id="rId125" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
-    <hyperlink ref="B139" r:id="rId126" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
-    <hyperlink ref="B140" r:id="rId127" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
-    <hyperlink ref="B141" r:id="rId128" display="Write a program to Detect loop in a linked list."/>
-    <hyperlink ref="B142" r:id="rId129" display="Write a program to Delete loop in a linked list."/>
-    <hyperlink ref="B143" r:id="rId130" display="Find the starting point of the loop. "/>
-    <hyperlink ref="B144" r:id="rId131" display="Remove Duplicates in a sorted Linked List."/>
-    <hyperlink ref="B145" r:id="rId132" display="Remove Duplicates in a Un-sorted Linked List."/>
-    <hyperlink ref="B146" r:id="rId133" display="Write a Program to Move the last element to Front in a Linked List."/>
-    <hyperlink ref="B147" r:id="rId134" display="Add “1” to a number represented as a Linked List."/>
-    <hyperlink ref="B148" r:id="rId135" display="Add two numbers represented by linked lists."/>
-    <hyperlink ref="B149" r:id="rId136" display="Intersection of two Sorted Linked List."/>
-    <hyperlink ref="B150" r:id="rId137" display="Intersection Point of two Linked Lists."/>
-    <hyperlink ref="B151" r:id="rId138" display="Merge Sort For Linked lists.[Very Important]"/>
-    <hyperlink ref="B152" r:id="rId139" display="Quicksort for Linked Lists.[Very Important]"/>
-    <hyperlink ref="B153" r:id="rId140" display="Find the middle Element of a linked list."/>
-    <hyperlink ref="B154" r:id="rId141" display="Check if a linked list is a circular linked list."/>
-    <hyperlink ref="B155" r:id="rId142" display="Split a Circular linked list into two halves."/>
-    <hyperlink ref="B156" r:id="rId143" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
-    <hyperlink ref="B157" r:id="rId144" display="Deletion from a Circular Linked List."/>
-    <hyperlink ref="B158" r:id="rId145" display="Reverse a Doubly Linked list."/>
-    <hyperlink ref="B159" r:id="rId146" display="Find pairs with a given sum in a DLL."/>
-    <hyperlink ref="B160" r:id="rId147" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
-    <hyperlink ref="B161" r:id="rId148" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
-    <hyperlink ref="B162" r:id="rId149" display="Rotate DoublyLinked list by N nodes."/>
-    <hyperlink ref="B163" r:id="rId150" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
-    <hyperlink ref="B166" r:id="rId151" display="Flatten a Linked List"/>
-    <hyperlink ref="B167" r:id="rId152" display="Sort a LL of 0's, 1's and 2's"/>
-    <hyperlink ref="B168" r:id="rId153" display="Clone a linked list with next and random pointer"/>
-    <hyperlink ref="B169" r:id="rId154" display="Merge K sorted Linked list"/>
-    <hyperlink ref="B170" r:id="rId155" display="Multiply 2 no. represented by LL"/>
-    <hyperlink ref="B171" r:id="rId156" display="Delete nodes which have a greater value on right side"/>
-    <hyperlink ref="B172" r:id="rId157" display="Segregate even and odd nodes in a Linked List"/>
-    <hyperlink ref="B173" r:id="rId158" display="Program for n’th node from the end of a Linked List"/>
-    <hyperlink ref="B174" r:id="rId159" display="Find the first non-repeating character from a stream of characters"/>
-    <hyperlink ref="B177" r:id="rId160" display="level order traversal"/>
-    <hyperlink ref="B178" r:id="rId161" display="Reverse Level Order traversal"/>
-    <hyperlink ref="B179" r:id="rId162" display="Height of a tree"/>
-    <hyperlink ref="B180" r:id="rId163" display="Diameter of a tree"/>
-    <hyperlink ref="B181" r:id="rId164" display="Mirror of a tree"/>
-    <hyperlink ref="B182" r:id="rId165" display="Inorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B183" r:id="rId166" display="Preorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B184" r:id="rId167" display="Postorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B185" r:id="rId168" display="Left View of a tree"/>
-    <hyperlink ref="B186" r:id="rId169" display="Right View of Tree"/>
-    <hyperlink ref="B187" r:id="rId170" display="Top View of a tree"/>
-    <hyperlink ref="B188" r:id="rId171" display="Bottom View of a tree"/>
-    <hyperlink ref="B189" r:id="rId172" display="Zig-Zag traversal of a binary tree"/>
-    <hyperlink ref="B190" r:id="rId173" display="Check if a tree is balanced or not"/>
-    <hyperlink ref="B191" r:id="rId174" display="Diagnol Traversal of a Binary tree"/>
-    <hyperlink ref="B192" r:id="rId175" display="Boundary traversal of a Binary tree"/>
-    <hyperlink ref="B193" r:id="rId176" display="Construct Binary Tree from String with Bracket Representation"/>
-    <hyperlink ref="B194" r:id="rId177" display="Convert Binary tree into Doubly Linked List"/>
-    <hyperlink ref="B195" r:id="rId178" display="Convert Binary tree into Sum tree"/>
-    <hyperlink ref="B196" r:id="rId179" display="Construct Binary tree from Inorder and preorder traversal"/>
-    <hyperlink ref="B197" r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="Find minimum swaps required to convert a Binary tree into BST"/>
-    <hyperlink ref="B198" r:id="rId181" display="Check if Binary tree is Sum tree or not"/>
-    <hyperlink ref="B199" r:id="rId182" display="Check if all leaf nodes are at same level or not"/>
-    <hyperlink ref="B200" r:id="rId183" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
-    <hyperlink ref="B201" r:id="rId184" display="Check if 2 trees are mirror or not"/>
-    <hyperlink ref="B202" r:id="rId185" display="Sum of Nodes on the Longest path from root to leaf node "/>
-    <hyperlink ref="B203" r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="Check if given graph is tree or not.  [ IMP ]"/>
-    <hyperlink ref="B204" r:id="rId187" display="Find Largest subtree sum in a tree"/>
-    <hyperlink ref="B205" r:id="rId188" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
-    <hyperlink ref="B206" r:id="rId189" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
-    <hyperlink ref="B207" r:id="rId190" display="Find LCA in a Binary tree"/>
-    <hyperlink ref="B208" r:id="rId191" display="Find distance between 2 nodes in a Binary tree"/>
-    <hyperlink ref="B209" r:id="rId192" display="Kth Ancestor of node in a Binary tree"/>
-    <hyperlink ref="B210" r:id="rId193" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
-    <hyperlink ref="B211" r:id="rId194" display="Tree Isomorphism Problem"/>
-    <hyperlink ref="B214" r:id="rId195" display="Fina a value in a BST"/>
-    <hyperlink ref="B215" r:id="rId196" display="Deletion of a node in a BST"/>
-    <hyperlink ref="B216" r:id="rId197" display="Find min and max value in a BST"/>
-    <hyperlink ref="B217" r:id="rId198" display="Find inorder successor and inorder predecessor in a BST"/>
-    <hyperlink ref="B218" r:id="rId199" display="Check if a tree is a BST or not "/>
-    <hyperlink ref="B219" r:id="rId200" display="Populate Inorder successor of all nodes"/>
-    <hyperlink ref="B220" r:id="rId201" display="Find LCA  of 2 nodes in a BST"/>
-    <hyperlink ref="B221" r:id="rId202" display="Construct BST from preorder traversal"/>
-    <hyperlink ref="B222" r:id="rId203" display="Convert Binary tree into BST"/>
-    <hyperlink ref="B223" r:id="rId204" display="Convert a normal BST into a Balanced BST"/>
-    <hyperlink ref="B224" r:id="rId205" display="Merge two BST [ V.V.V&gt;IMP ]"/>
-    <hyperlink ref="B225" r:id="rId206" display="Find Kth largest element in a BST"/>
-    <hyperlink ref="B226" r:id="rId207" display="Find Kth smallest element in a BST"/>
-    <hyperlink ref="B227" r:id="rId208" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
-    <hyperlink ref="B228" r:id="rId209" display="Find the median of BST in O(n) time and O(1) space"/>
-    <hyperlink ref="B229" r:id="rId210" display="Count BST ndoes that lie in a given range"/>
-    <hyperlink ref="B230" r:id="rId211" display="Replace every element with the least greater element on its right"/>
-    <hyperlink ref="B231" r:id="rId212" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
-    <hyperlink ref="B232" r:id="rId213" display="Check preorder is valid or not"/>
-    <hyperlink ref="B233" r:id="rId214" display="Check whether BST contains Dead end"/>
-    <hyperlink ref="B234" r:id="rId215" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
-    <hyperlink ref="B235" r:id="rId216" display="Flatten BST to sorted list"/>
-    <hyperlink ref="B238" r:id="rId217" display="Activity Selection Problem"/>
-    <hyperlink ref="B239" r:id="rId218" display="Job SequencingProblem"/>
-    <hyperlink ref="B240" r:id="rId219" display="Huffman Coding"/>
-    <hyperlink ref="B241" r:id="rId220" display="Water Connection Problem"/>
-    <hyperlink ref="B242" r:id="rId221" display="Fractional Knapsack Problem"/>
-    <hyperlink ref="B243" r:id="rId222" display="Greedy Algorithm to find Minimum number of Coins"/>
-    <hyperlink ref="B244" r:id="rId223" display="Maximum trains for which stoppage can be provided"/>
-    <hyperlink ref="B245" r:id="rId224" display="Minimum Platforms Problem"/>
-    <hyperlink ref="B246" r:id="rId225" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
-    <hyperlink ref="B247" r:id="rId226" display="Find the minimum and maximum amount to buy all N candies"/>
-    <hyperlink ref="B248" r:id="rId227" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B249" r:id="rId228" display="Minimum Cost to cut a board into squares"/>
-    <hyperlink ref="B250" r:id="rId229" display="Check if it is possible to survive on Island"/>
-    <hyperlink ref="B251" r:id="rId230" display="Find maximum meetings in one room"/>
-    <hyperlink ref="B252" r:id="rId231" display="Maximum product subset of an array"/>
-    <hyperlink ref="B253" r:id="rId232" display="Maximize array sum after K negations"/>
-    <hyperlink ref="B254" r:id="rId233" display="Maximize the sum of arr[i]*i"/>
-    <hyperlink ref="B255" r:id="rId234" display="Maximum sum of absolute difference of an array"/>
-    <hyperlink ref="B256" r:id="rId235" display="Maximize sum of consecutive differences in a circular array"/>
-    <hyperlink ref="B257" r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." display="Minimum sum of absolute difference of pairs of two arrays"/>
-    <hyperlink ref="B258" r:id="rId237" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
-    <hyperlink ref="B259" r:id="rId238" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
-    <hyperlink ref="B260" r:id="rId239" display="Smallest subset with sum greater than all other elements"/>
-    <hyperlink ref="B261" r:id="rId240" display="Chocolate Distribution Problem"/>
-    <hyperlink ref="B262" r:id="rId241" display="DEFKIN -Defense of a Kingdom"/>
-    <hyperlink ref="B263" r:id="rId242" display="DIEHARD -DIE HARD"/>
-    <hyperlink ref="B264" r:id="rId243" display="GERGOVIA -Wine trading in Gergovia"/>
-    <hyperlink ref="B265" r:id="rId244" display="Picking Up Chicks"/>
-    <hyperlink ref="B266" r:id="rId245" display="CHOCOLA –Chocolate"/>
-    <hyperlink ref="B267" r:id="rId246" display="ARRANGE -Arranging Amplifiers"/>
-    <hyperlink ref="B268" r:id="rId247" display="K Centers Problem"/>
-    <hyperlink ref="B269" r:id="rId248" display="Minimum Cost of ropes"/>
-    <hyperlink ref="B270" r:id="rId249" display="Find smallest number with given number of digits and sum of digits"/>
-    <hyperlink ref="B271" r:id="rId250" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B272" r:id="rId251" display="Find maximum sum possible equal sum of three stacks"/>
-    <hyperlink ref="B275" r:id="rId252" display="Rat in a maze Problem"/>
-    <hyperlink ref="B276" r:id="rId253" display="Printing all solutions in N-Queen Problem"/>
-    <hyperlink ref="B277" r:id="rId254" display="Word Break Problem using Backtracking"/>
-    <hyperlink ref="B278" r:id="rId255" display="Remove Invalid Parentheses"/>
-    <hyperlink ref="B279" r:id="rId256" display="Sudoku Solver"/>
-    <hyperlink ref="B280" r:id="rId257" display="m Coloring Problem"/>
-    <hyperlink ref="B281" r:id="rId258" display="Print all palindromic partitions of a string"/>
-    <hyperlink ref="B282" r:id="rId259" display="Subset Sum Problem"/>
-    <hyperlink ref="B283" r:id="rId260" display="The Knight’s tour problem"/>
-    <hyperlink ref="B284" r:id="rId261" display="Tug of War"/>
-    <hyperlink ref="B285" r:id="rId262" display="Find shortest safe route in a path with landmines"/>
-    <hyperlink ref="B286" r:id="rId263" display="Combinational Sum"/>
-    <hyperlink ref="B287" r:id="rId264" display="Find Maximum number possible by doing at-most K swaps"/>
-    <hyperlink ref="B288" r:id="rId265" display="Print all permutations of a string "/>
-    <hyperlink ref="B289" r:id="rId266" display="Find if there is a path of more than k length from a source"/>
-    <hyperlink ref="B290" r:id="rId267" display="Longest Possible Route in a Matrix with Hurdles"/>
-    <hyperlink ref="B291" r:id="rId268" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
-    <hyperlink ref="B292" r:id="rId269" display="Partition of a set intoK subsets with equal sum"/>
-    <hyperlink ref="B293" r:id="rId270" display="Find the K-th Permutation Sequence of first N natural numbers"/>
-    <hyperlink ref="B296" r:id="rId271" display=" Implement Stack from Scratch"/>
-    <hyperlink ref="B297" r:id="rId272" display=" Implement Queue from Scratch"/>
-    <hyperlink ref="B298" r:id="rId273" display="Implement 2 stack in an array"/>
-    <hyperlink ref="B299" r:id="rId274" display="find the middle element of a stack"/>
-    <hyperlink ref="B300" r:id="rId275" display="Implement &quot;N&quot; stacks in an Array"/>
-    <hyperlink ref="B301" r:id="rId276" display="Check the expression has valid or Balanced parenthesis or not."/>
-    <hyperlink ref="B302" r:id="rId277" display="Reverse a String using Stack"/>
-    <hyperlink ref="B303" r:id="rId278" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
-    <hyperlink ref="B304" r:id="rId279" display="Find the next Greater element"/>
-    <hyperlink ref="B305" r:id="rId280" display="The celebrity Problem"/>
-    <hyperlink ref="B306" r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." display="Arithmetic Expression evaluation"/>
-    <hyperlink ref="B307" r:id="rId282" display="Evaluation of Postfix expression"/>
-    <hyperlink ref="B308" r:id="rId283" display="Implement a method to insert an element at its bottom without using any other data structure."/>
-    <hyperlink ref="B309" r:id="rId284" display="Reverse a stack using recursion"/>
-    <hyperlink ref="B310" r:id="rId285" display="Sort a Stack using recursion"/>
-    <hyperlink ref="B311" r:id="rId286" display="Merge Overlapping Intervals"/>
-    <hyperlink ref="B312" r:id="rId287" display="Largest rectangular Area in Histogram"/>
-    <hyperlink ref="B313" r:id="rId288" display="Length of the Longest Valid Substring"/>
-    <hyperlink ref="B314" r:id="rId289" display="Expression contains redundant bracket or not"/>
-    <hyperlink ref="B315" r:id="rId290" display="Implement Stack using Queue"/>
-    <hyperlink ref="B316" r:id="rId291" display="Implement Stack using Deque"/>
-    <hyperlink ref="B317" r:id="rId292" display="Stack Permutations (Check if an array is stack permutation of other)"/>
-    <hyperlink ref="B318" r:id="rId293" display="Implement Queue using Stack  "/>
-    <hyperlink ref="B319" r:id="rId294" display="Implement &quot;n&quot; queue in an array"/>
-    <hyperlink ref="B320" r:id="rId295" display="Implement a Circular queue"/>
-    <hyperlink ref="B321" r:id="rId296" display="LRU Cache Implementationa"/>
-    <hyperlink ref="B322" r:id="rId297" display="Reverse a Queue using recursion"/>
-    <hyperlink ref="B323" r:id="rId298" display="Reverse the first “K” elements of a queue"/>
-    <hyperlink ref="B324" r:id="rId299" display="Interleave the first half of the queue with second half"/>
-    <hyperlink ref="B325" r:id="rId300" display="Find the first circular tour that visits all Petrol Pumps"/>
-    <hyperlink ref="B326" r:id="rId301" display="Minimum time required to rot all oranges"/>
-    <hyperlink ref="B327" r:id="rId302" display="Distance of nearest cell having 1 in a binary matrix"/>
-    <hyperlink ref="B328" r:id="rId303" display="First negative integer in every window of size “k”"/>
-    <hyperlink ref="B329" r:id="rId304" display="Check if all levels of two trees are anagrams or not."/>
-    <hyperlink ref="B330" r:id="rId305" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
-    <hyperlink ref="B331" r:id="rId306" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
-    <hyperlink ref="B332" r:id="rId307" display="Queue based approach or first non-repeating character in a stream."/>
-    <hyperlink ref="B333" r:id="rId308" display="Next Smaller Element"/>
-    <hyperlink ref="B336" r:id="rId309" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
-    <hyperlink ref="B337" r:id="rId310" display="Sort an Array using heap. (HeapSort)"/>
-    <hyperlink ref="B338" r:id="rId311" display="Maximum of all subarrays of size k."/>
-    <hyperlink ref="B339" r:id="rId312" display="“k” largest element in an array"/>
-    <hyperlink ref="B340" r:id="rId313" display="Kth smallest and largest element in an unsorted array"/>
-    <hyperlink ref="B341" r:id="rId314" display="Merge “K” sorted arrays. [ IMP ]"/>
-    <hyperlink ref="B342" r:id="rId315" display="Merge 2 Binary Max Heaps"/>
-    <hyperlink ref="B343" r:id="rId316" display="Kth largest sum continuous subarrays"/>
-    <hyperlink ref="B344" r:id="rId317" display="Leetcode- reorganize strings"/>
-    <hyperlink ref="B345" r:id="rId318" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
-    <hyperlink ref="B346" r:id="rId319" display="Smallest range in “K” Lists"/>
-    <hyperlink ref="B347" r:id="rId320" display="Median in a stream of Integers"/>
-    <hyperlink ref="B348" r:id="rId321" display="Check if a Binary Tree is Heap"/>
-    <hyperlink ref="B349" r:id="rId322" display="Connect “n” ropes with minimum cost"/>
-    <hyperlink ref="B350" r:id="rId323" display="Convert BST to Min Heap"/>
-    <hyperlink ref="B351" r:id="rId324" display="Convert min heap to max heap"/>
-    <hyperlink ref="B352" r:id="rId325" display="Rearrange characters in a string such that no two adjacent are same."/>
-    <hyperlink ref="B353" r:id="rId326" display="Minimum sum of two numbers formed from digits of an array"/>
-    <hyperlink ref="B356" r:id="rId327" display="Create a Graph, print it"/>
-    <hyperlink ref="B357" r:id="rId328" display="Implement BFS algorithm "/>
-    <hyperlink ref="B358" r:id="rId329" display="Implement DFS Algo "/>
-    <hyperlink ref="B359" r:id="rId330" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B360" r:id="rId331" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B361" r:id="rId332" display="Search in a Maze"/>
-    <hyperlink ref="B362" r:id="rId333" display="Minimum Step by Knight"/>
-    <hyperlink ref="B363" r:id="rId334" display="flood fill algo"/>
-    <hyperlink ref="B364" r:id="rId335" display="Clone a graph"/>
-    <hyperlink ref="B365" r:id="rId336" display="Making wired Connections"/>
-    <hyperlink ref="B366" r:id="rId337" display="word Ladder "/>
-    <hyperlink ref="B367" r:id="rId338" display="Dijkstra algo"/>
-    <hyperlink ref="B368" r:id="rId339" display="Implement Topological Sort "/>
-    <hyperlink ref="B369" r:id="rId340" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
-    <hyperlink ref="B370" r:id="rId341" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
-    <hyperlink ref="B371" r:id="rId342" display="Find the no. of Isalnds"/>
-    <hyperlink ref="B372" r:id="rId343" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
-    <hyperlink ref="B373" r:id="rId344" display="Implement Kruksal’sAlgorithm"/>
-    <hyperlink ref="B374" r:id="rId345" display="Implement Prim’s Algorithm"/>
-    <hyperlink ref="B375" r:id="rId346" display="Total no. of Spanning tree in a graph"/>
-    <hyperlink ref="B376" r:id="rId347" display="Implement Bellman Ford Algorithm"/>
-    <hyperlink ref="B377" r:id="rId348" display="Implement Floyd warshallAlgorithm"/>
-    <hyperlink ref="B378" r:id="rId349" display="Travelling Salesman Problem"/>
-    <hyperlink ref="B379" r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="Graph ColouringProblem"/>
-    <hyperlink ref="B380" r:id="rId351" display="Snake and Ladders Problem"/>
-    <hyperlink ref="B381" r:id="rId352" display="Find bridge in a graph"/>
-    <hyperlink ref="B382" r:id="rId353" display="Count Strongly connected Components(Kosaraju Algo)"/>
-    <hyperlink ref="B383" r:id="rId354" display="Check whether a graph is Bipartite or Not"/>
-    <hyperlink ref="B384" r:id="rId355" display="Detect Negative cycle in a graph"/>
-    <hyperlink ref="B385" r:id="rId356" display="Longest path in a Directed Acyclic Graph"/>
-    <hyperlink ref="B386" r:id="rId357" display="Journey to the Moon"/>
-    <hyperlink ref="B387" r:id="rId358" display="Cheapest Flights Within K Stops"/>
-    <hyperlink ref="B388" r:id="rId359" display="Oliver and the Game"/>
-    <hyperlink ref="B389" r:id="rId360" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B390" r:id="rId361" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B391" r:id="rId362" display="Find if there is a path of more thank length from a source"/>
-    <hyperlink ref="B392" r:id="rId363" display="M-ColouringProblem"/>
-    <hyperlink ref="B393" r:id="rId364" display="Minimum edges to reverse o make path from source to destination"/>
-    <hyperlink ref="B394" r:id="rId365" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
-    <hyperlink ref="B395" r:id="rId366" display="Vertex Cover Problem"/>
-    <hyperlink ref="B396" r:id="rId367" display="Chinese Postman or Route Inspection"/>
-    <hyperlink ref="B397" r:id="rId368" display="Number of Triangles in a Directed and Undirected Graph"/>
-    <hyperlink ref="B398" r:id="rId369" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B399" r:id="rId370" display="Two Clique Problem"/>
-    <hyperlink ref="B402" r:id="rId371" display="Construct a trie from scratch"/>
-    <hyperlink ref="B403" r:id="rId372" display="Find shortest unique prefix for every word in a given list"/>
-    <hyperlink ref="B404" r:id="rId373" display="Word Break Problem | (Trie solution)"/>
-    <hyperlink ref="B405" r:id="rId374" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B406" r:id="rId375" display="Implement a Phone Directory"/>
-    <hyperlink ref="B407" r:id="rId376" display="Print unique rows in a given boolean matrix"/>
-    <hyperlink ref="B410" r:id="rId377" display="Coin ChangeProblem"/>
-    <hyperlink ref="B411" r:id="rId378" display="Knapsack Problem"/>
-    <hyperlink ref="B412" r:id="rId379" display="Binomial CoefficientProblem"/>
-    <hyperlink ref="B413" r:id="rId380" display="Permutation CoefficientProblem"/>
-    <hyperlink ref="B414" r:id="rId381" display="Program for nth Catalan Number"/>
-    <hyperlink ref="B415" r:id="rId382" display="Matrix Chain Multiplication "/>
-    <hyperlink ref="B416" r:id="rId383" display="Edit Distance"/>
-    <hyperlink ref="B417" r:id="rId384" display="Subset Sum Problem"/>
-    <hyperlink ref="B418" r:id="rId385" display="Friends Pairing Problem"/>
-    <hyperlink ref="B419" r:id="rId386" display="Gold Mine Problem"/>
-    <hyperlink ref="B420" r:id="rId387" display="Assembly Line SchedulingProblem"/>
-    <hyperlink ref="B421" r:id="rId388" display="Painting the Fenceproblem"/>
-    <hyperlink ref="B422" r:id="rId389" display="Maximize The Cut Segments"/>
-    <hyperlink ref="B423" r:id="rId390" display="Longest Common Subsequence"/>
-    <hyperlink ref="B424" r:id="rId391" display="Longest Repeated Subsequence"/>
-    <hyperlink ref="B425" r:id="rId392" display="Longest Increasing Subsequence"/>
-    <hyperlink ref="B426" r:id="rId393" display="Space Optimized Solution of LCS"/>
-    <hyperlink ref="B427" r:id="rId394" display="LCS (Longest Common Subsequence) of three strings"/>
-    <hyperlink ref="B428" r:id="rId395" display="Maximum Sum Increasing Subsequence"/>
-    <hyperlink ref="B429" r:id="rId396" display="Count all subsequences having product less than K"/>
-    <hyperlink ref="B430" r:id="rId397" display="Longest subsequence such that difference between adjacent is one"/>
-    <hyperlink ref="B431" r:id="rId398" display="Maximum subsequence sum such that no three are consecutive"/>
-    <hyperlink ref="B432" r:id="rId399" display="Egg Dropping Problem"/>
-    <hyperlink ref="B433" r:id="rId400" display="Maximum Length Chain of Pairs"/>
-    <hyperlink ref="B434" r:id="rId401" display="Maximum size square sub-matrix with all 1s"/>
-    <hyperlink ref="B435" r:id="rId402" display="Maximum sum of pairs with specific difference"/>
-    <hyperlink ref="B436" r:id="rId403" display="Min Cost PathProblem"/>
-    <hyperlink ref="B437" r:id="rId404" display="Maximum difference of zeros and ones in binary string"/>
-    <hyperlink ref="B438" r:id="rId405" display="Minimum number of jumps to reach end"/>
-    <hyperlink ref="B439" r:id="rId406" display="Minimum cost to fill given weight in a bag"/>
-    <hyperlink ref="B440" r:id="rId407" display="Minimum removals from array to make max –min &lt;= K"/>
-    <hyperlink ref="B441" r:id="rId408" display="Longest Common Substring"/>
-    <hyperlink ref="B442" r:id="rId409" display="Count number of ways to reacha given score in a game"/>
-    <hyperlink ref="B443" r:id="rId410" display="Count Balanced Binary Trees of Height h"/>
-    <hyperlink ref="B444" r:id="rId411" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
-    <hyperlink ref="B445" r:id="rId412" display="Smallest sum contiguous subarray"/>
-    <hyperlink ref="B446" r:id="rId413" display="Unbounded Knapsack (Repetition of items allowed)"/>
-    <hyperlink ref="B447" r:id="rId414" display="Word Break Problem"/>
-    <hyperlink ref="B448" r:id="rId415" display="Largest Independent Set Problem"/>
-    <hyperlink ref="B449" r:id="rId416" display="Partition problem"/>
-    <hyperlink ref="B450" r:id="rId417" display="Longest Palindromic Subsequence"/>
-    <hyperlink ref="B451" r:id="rId418" display="Count All Palindromic Subsequence in a given String"/>
-    <hyperlink ref="B452" r:id="rId419" display="Longest Palindromic Substring"/>
-    <hyperlink ref="B453" r:id="rId420" display="Longest alternating subsequence"/>
-    <hyperlink ref="B454" r:id="rId421" display="Weighted Job Scheduling"/>
-    <hyperlink ref="B455" r:id="rId422" display="Coin game winner where every player has three choices"/>
-    <hyperlink ref="B456" r:id="rId423" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
-    <hyperlink ref="B457" r:id="rId424" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
-    <hyperlink ref="B458" r:id="rId425" display="Optimal Strategy for a Game"/>
-    <hyperlink ref="B459" r:id="rId426" display="Optimal Binary Search Tree"/>
-    <hyperlink ref="B460" r:id="rId427" display="Palindrome PartitioningProblem"/>
-    <hyperlink ref="B461" r:id="rId428" display="Word Wrap Problem"/>
-    <hyperlink ref="B462" r:id="rId429" display="Mobile Numeric Keypad Problem [ IMP ]"/>
-    <hyperlink ref="B463" r:id="rId430" display="Boolean Parenthesization Problem"/>
-    <hyperlink ref="B464" r:id="rId431" display="Largest rectangular sub-matrix whose sum is 0"/>
-    <hyperlink ref="B465" r:id="rId432" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
-    <hyperlink ref="B466" r:id="rId433" display="Maximum sum rectangle in a 2D matrix"/>
-    <hyperlink ref="B467" r:id="rId434" display="Maximum profit by buying and selling a share at most k times"/>
-    <hyperlink ref="B468" r:id="rId435" display="Find if a string is interleaved of two other strings"/>
-    <hyperlink ref="B469" r:id="rId436" display="Maximum Length of Pair Chain"/>
-    <hyperlink ref="B472" r:id="rId437" display="Count set bits in an integer"/>
-    <hyperlink ref="B473" r:id="rId438" display="Find the two non-repeating elements in an array of repeating elements"/>
-    <hyperlink ref="B474" r:id="rId439" display="Count number of bits to be flipped to convert A to B"/>
-    <hyperlink ref="B475" r:id="rId440" display="Count total set bits in all numbers from 1 to n"/>
-    <hyperlink ref="B476" r:id="rId441" display="Program to find whether a no is power of two"/>
-    <hyperlink ref="B477" r:id="rId442" display="Find position of the only set bit"/>
-    <hyperlink ref="B478" r:id="rId443" display="Copy set bits in a range"/>
-    <hyperlink ref="B479" r:id="rId444" display="Divide two integers without using multiplication, division and mod operator"/>
-    <hyperlink ref="B480" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
-    <hyperlink ref="B481" r:id="rId446" display="Power Set"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B20" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B21" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B22" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B23" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B24" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B25" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B26" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B27" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B28" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B29" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B30" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B31" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B32" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B33" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B34" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B35" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B36" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B37" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B38" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B39" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B40" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B41" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B44" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B45" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B46" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B47" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B48" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B49" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B50" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B51" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B52" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B53" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B56" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B57" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B58" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B60" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B61" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B62" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B63" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B64" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B65" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B66" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B67" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B68" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B69" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B70" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B71" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B72" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B73" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B74" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B75" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B76" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B77" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B78" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B79" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B80" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B81" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B82" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B83" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B84" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B85" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B86" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B87" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B88" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B89" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B90" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B91" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B92" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B93" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B94" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B95" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B96" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B97" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B98" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B101" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B102" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B103" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B104" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B105" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B106" r:id="rId95" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B107" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B108" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B109" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B110" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B111" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B112" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="B113" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B114" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="B115" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B116" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B117" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="B118" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="B119" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B120" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="B121" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B122" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="B123" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B124" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="B125" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="B126" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B127" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B128" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="B129" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B130" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="B131" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B132" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="B133" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B134" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="B135" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B136" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="B139" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B140" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="B141" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="B142" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="B143" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="B144" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B145" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B146" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="B147" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B148" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="B149" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B150" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="B151" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="B152" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="B153" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B154" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="B155" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B156" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="B157" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B158" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="B159" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B160" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="B161" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B162" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="B163" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B166" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B167" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B168" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B169" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="B170" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="B171" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="B172" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="B173" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B174" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="B177" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B178" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="B179" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="B180" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="B181" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B182" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="B183" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B184" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="B185" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B186" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B187" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B188" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B189" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B190" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="B191" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B192" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="B193" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B194" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B195" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B196" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="B197" r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B198" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="B199" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B200" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="B201" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B202" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B203" r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B204" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="B205" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B206" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="B207" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B208" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B209" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B210" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B211" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B214" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B215" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="B216" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B217" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B218" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B219" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="B220" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B221" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B222" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="B223" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="B224" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B225" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="B226" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B227" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="B228" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B229" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B230" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B231" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="B232" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B233" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B234" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B235" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B238" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B239" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B240" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B241" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B242" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B243" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B244" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B245" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B246" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B247" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B248" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B249" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B250" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B251" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B252" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B253" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B254" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B255" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B256" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B257" r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B258" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B259" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B260" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B261" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="B262" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B263" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B264" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="B265" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B266" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B267" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B268" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B269" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B270" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B271" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B272" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="B275" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B276" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B277" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B278" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B279" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B280" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B281" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B282" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B283" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B284" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B285" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B286" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B287" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B288" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B289" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B290" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B291" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B292" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B293" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B296" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B297" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B298" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B299" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B300" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B301" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B302" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B303" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B304" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B305" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B306" r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B307" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B308" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B309" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B310" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B311" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B312" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B313" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B314" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B315" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B316" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B317" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B318" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B319" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B320" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B321" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B322" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B323" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B324" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B325" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B326" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B327" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B328" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B329" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B330" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B331" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B332" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B333" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B336" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B337" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B338" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B339" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B340" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B341" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B342" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B343" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B344" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B345" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B346" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B347" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B348" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B349" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B350" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B351" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B352" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B353" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="B356" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="B357" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="B358" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="B359" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="B360" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="B361" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="B362" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="B363" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="B364" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="B365" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="B366" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="B367" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="B368" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="B369" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="B370" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="B371" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="B372" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="B373" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="B374" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="B375" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="B376" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="B377" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="B378" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="B379" r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="B380" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="B381" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="B382" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="B383" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="B384" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="B385" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="B386" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="B387" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="B388" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="B389" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="B390" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="B391" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="B392" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="B393" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="B394" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="B395" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="B396" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="B397" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="B398" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="B399" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="B402" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="B403" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="B404" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="B405" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="B406" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="B407" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="B410" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="B411" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="B412" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="B413" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="B414" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="B415" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="B416" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="B417" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="B418" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="B419" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="B420" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="B421" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="B422" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="B423" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="B424" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="B425" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="B426" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="B427" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="B428" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="B429" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="B430" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="B431" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="B432" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="B433" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="B434" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="B435" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="B436" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="B437" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="B438" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="B439" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="B440" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="B441" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="B442" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="B443" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="B444" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="B445" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="B446" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="B447" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="B448" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="B449" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="B450" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="B451" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="B452" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="B453" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="B454" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="B455" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="B456" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="B457" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="B458" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="B459" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="B460" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="B461" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="B462" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="B463" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="B464" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="B465" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="B466" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="B467" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="B468" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="B469" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="B472" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="B473" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="B474" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="B475" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="B476" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="B477" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="B478" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="B479" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="B480" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="B481" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>